--- a/DCIT 21 - IT 1D/LEC AND LAB - IT1D.xlsx
+++ b/DCIT 21 - IT 1D/LEC AND LAB - IT1D.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="REGISTRATION" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="289">
   <si>
     <t>Subject:</t>
   </si>
@@ -940,6 +940,18 @@
   </si>
   <si>
     <t>Rama Krsna dasi</t>
+  </si>
+  <si>
+    <t>Poblete</t>
+  </si>
+  <si>
+    <t>Jan Fritzgerald</t>
+  </si>
+  <si>
+    <t>Fernandez</t>
+  </si>
+  <si>
+    <t>Shaira</t>
   </si>
 </sst>
 </file>
@@ -2380,106 +2392,36 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2520,129 +2462,112 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2683,6 +2608,93 @@
     </xf>
     <xf numFmtId="9" fontId="32" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2741,6 +2753,102 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -2816,102 +2924,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2936,7 +2948,387 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="63">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3573,7 +3965,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3584,8 +3976,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:R71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B45" sqref="B11:B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3606,82 +3998,82 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="169" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="135"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
-      <c r="M2" s="135"/>
+      <c r="B2" s="169"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="169"/>
+      <c r="H2" s="169"/>
+      <c r="I2" s="169"/>
+      <c r="J2" s="169"/>
+      <c r="K2" s="169"/>
+      <c r="L2" s="169"/>
+      <c r="M2" s="169"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="135"/>
-      <c r="B3" s="135"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
-      <c r="K3" s="135"/>
-      <c r="L3" s="135"/>
-      <c r="M3" s="135"/>
+      <c r="A3" s="169"/>
+      <c r="B3" s="169"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="169"/>
+      <c r="H3" s="169"/>
+      <c r="I3" s="169"/>
+      <c r="J3" s="169"/>
+      <c r="K3" s="169"/>
+      <c r="L3" s="169"/>
+      <c r="M3" s="169"/>
     </row>
     <row r="4" spans="1:18" ht="16.5" customHeight="1">
-      <c r="A4" s="127" t="s">
+      <c r="A4" s="164" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="127"/>
-      <c r="C4" s="127"/>
-      <c r="D4" s="127"/>
-      <c r="E4" s="127"/>
-      <c r="F4" s="127"/>
-      <c r="G4" s="127"/>
-      <c r="H4" s="127"/>
-      <c r="I4" s="127"/>
-      <c r="J4" s="127"/>
-      <c r="K4" s="127"/>
-      <c r="L4" s="127"/>
-      <c r="M4" s="127"/>
+      <c r="B4" s="164"/>
+      <c r="C4" s="164"/>
+      <c r="D4" s="164"/>
+      <c r="E4" s="164"/>
+      <c r="F4" s="164"/>
+      <c r="G4" s="164"/>
+      <c r="H4" s="164"/>
+      <c r="I4" s="164"/>
+      <c r="J4" s="164"/>
+      <c r="K4" s="164"/>
+      <c r="L4" s="164"/>
+      <c r="M4" s="164"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A5" s="126"/>
-      <c r="B5" s="126"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="126"/>
-      <c r="H5" s="126"/>
-      <c r="I5" s="126"/>
-      <c r="J5" s="126"/>
-      <c r="K5" s="126"/>
-      <c r="L5" s="126"/>
-      <c r="M5" s="126"/>
+      <c r="A5" s="163"/>
+      <c r="B5" s="163"/>
+      <c r="C5" s="163"/>
+      <c r="D5" s="163"/>
+      <c r="E5" s="163"/>
+      <c r="F5" s="163"/>
+      <c r="G5" s="163"/>
+      <c r="H5" s="163"/>
+      <c r="I5" s="163"/>
+      <c r="J5" s="163"/>
+      <c r="K5" s="163"/>
+      <c r="L5" s="163"/>
+      <c r="M5" s="163"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="166" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="167"/>
-      <c r="C6" s="168" t="s">
+      <c r="A6" s="126" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="127"/>
+      <c r="C6" s="128" t="s">
         <v>165</v>
       </c>
-      <c r="D6" s="168"/>
-      <c r="E6" s="169" t="s">
+      <c r="D6" s="128"/>
+      <c r="E6" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="169"/>
+      <c r="F6" s="129"/>
       <c r="G6" s="1">
         <v>2</v>
       </c>
@@ -3689,28 +4081,28 @@
         <v>2</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="170" t="s">
+      <c r="J6" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="170"/>
-      <c r="L6" s="171"/>
-      <c r="M6" s="171"/>
+      <c r="K6" s="130"/>
+      <c r="L6" s="131"/>
+      <c r="M6" s="131"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="172" t="s">
+      <c r="A7" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="173"/>
+      <c r="B7" s="133"/>
       <c r="C7" s="3" t="s">
         <v>166</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="174" t="s">
+      <c r="E7" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="174"/>
+      <c r="F7" s="134"/>
       <c r="G7" s="5">
         <v>1</v>
       </c>
@@ -3718,28 +4110,28 @@
         <v>7</v>
       </c>
       <c r="I7" s="7"/>
-      <c r="J7" s="174" t="s">
+      <c r="J7" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="174"/>
-      <c r="L7" s="175"/>
-      <c r="M7" s="175"/>
+      <c r="K7" s="134"/>
+      <c r="L7" s="135"/>
+      <c r="M7" s="135"/>
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A8" s="154" t="s">
+      <c r="A8" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="155"/>
+      <c r="B8" s="137"/>
       <c r="C8" s="8" t="s">
         <v>167</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="E8" s="156" t="s">
+      <c r="E8" s="138" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="156"/>
+      <c r="F8" s="138"/>
       <c r="G8" s="10">
         <v>3</v>
       </c>
@@ -3747,45 +4139,45 @@
         <v>11</v>
       </c>
       <c r="I8" s="12"/>
-      <c r="J8" s="156" t="s">
+      <c r="J8" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="156"/>
-      <c r="L8" s="157"/>
-      <c r="M8" s="157"/>
+      <c r="K8" s="138"/>
+      <c r="L8" s="139"/>
+      <c r="M8" s="139"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A9" s="158" t="s">
+      <c r="A9" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="160" t="s">
+      <c r="B9" s="142" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="162" t="s">
+      <c r="C9" s="144" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="162"/>
-      <c r="E9" s="162"/>
-      <c r="F9" s="163" t="s">
+      <c r="D9" s="144"/>
+      <c r="E9" s="144"/>
+      <c r="F9" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="163" t="s">
+      <c r="G9" s="145" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="165"/>
-      <c r="I9" s="165"/>
-      <c r="J9" s="149" t="s">
+      <c r="H9" s="147"/>
+      <c r="I9" s="147"/>
+      <c r="J9" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="150"/>
-      <c r="L9" s="149" t="s">
+      <c r="K9" s="149"/>
+      <c r="L9" s="148" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="150"/>
+      <c r="M9" s="149"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="159"/>
-      <c r="B10" s="161"/>
+      <c r="A10" s="141"/>
+      <c r="B10" s="143"/>
       <c r="C10" s="13" t="s">
         <v>19</v>
       </c>
@@ -3795,14 +4187,14 @@
       <c r="E10" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="164"/>
-      <c r="G10" s="164"/>
-      <c r="H10" s="164"/>
-      <c r="I10" s="164"/>
-      <c r="J10" s="151"/>
-      <c r="K10" s="151"/>
-      <c r="L10" s="151"/>
-      <c r="M10" s="151"/>
+      <c r="F10" s="146"/>
+      <c r="G10" s="146"/>
+      <c r="H10" s="146"/>
+      <c r="I10" s="146"/>
+      <c r="J10" s="150"/>
+      <c r="K10" s="150"/>
+      <c r="L10" s="150"/>
+      <c r="M10" s="150"/>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="14">
@@ -3823,19 +4215,19 @@
       <c r="F11" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G11" s="142"/>
-      <c r="H11" s="143"/>
-      <c r="I11" s="144"/>
-      <c r="J11" s="152"/>
-      <c r="K11" s="153"/>
-      <c r="L11" s="142"/>
-      <c r="M11" s="144"/>
-      <c r="O11" s="136" t="s">
+      <c r="G11" s="155"/>
+      <c r="H11" s="156"/>
+      <c r="I11" s="157"/>
+      <c r="J11" s="158"/>
+      <c r="K11" s="159"/>
+      <c r="L11" s="155"/>
+      <c r="M11" s="157"/>
+      <c r="O11" s="170" t="s">
         <v>23</v>
       </c>
-      <c r="P11" s="137"/>
-      <c r="Q11" s="137"/>
-      <c r="R11" s="138"/>
+      <c r="P11" s="171"/>
+      <c r="Q11" s="171"/>
+      <c r="R11" s="172"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="14">
@@ -3854,21 +4246,21 @@
       <c r="F12" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G12" s="132"/>
-      <c r="H12" s="132"/>
-      <c r="I12" s="132"/>
-      <c r="J12" s="147"/>
-      <c r="K12" s="148"/>
-      <c r="L12" s="134"/>
-      <c r="M12" s="134"/>
+      <c r="G12" s="151"/>
+      <c r="H12" s="151"/>
+      <c r="I12" s="151"/>
+      <c r="J12" s="152"/>
+      <c r="K12" s="153"/>
+      <c r="L12" s="154"/>
+      <c r="M12" s="154"/>
       <c r="O12" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="P12" s="131" t="s">
+      <c r="P12" s="168" t="s">
         <v>159</v>
       </c>
-      <c r="Q12" s="131"/>
-      <c r="R12" s="131"/>
+      <c r="Q12" s="168"/>
+      <c r="R12" s="168"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="14">
@@ -3889,21 +4281,21 @@
       <c r="F13" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G13" s="132"/>
-      <c r="H13" s="132"/>
-      <c r="I13" s="132"/>
-      <c r="J13" s="147"/>
-      <c r="K13" s="148"/>
-      <c r="L13" s="134"/>
-      <c r="M13" s="134"/>
+      <c r="G13" s="151"/>
+      <c r="H13" s="151"/>
+      <c r="I13" s="151"/>
+      <c r="J13" s="152"/>
+      <c r="K13" s="153"/>
+      <c r="L13" s="154"/>
+      <c r="M13" s="154"/>
       <c r="O13" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="P13" s="131" t="s">
+      <c r="P13" s="168" t="s">
         <v>164</v>
       </c>
-      <c r="Q13" s="131"/>
-      <c r="R13" s="131"/>
+      <c r="Q13" s="168"/>
+      <c r="R13" s="168"/>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="14">
@@ -3924,21 +4316,21 @@
       <c r="F14" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G14" s="132"/>
-      <c r="H14" s="132"/>
-      <c r="I14" s="132"/>
-      <c r="J14" s="147"/>
-      <c r="K14" s="148"/>
-      <c r="L14" s="134"/>
-      <c r="M14" s="134"/>
+      <c r="G14" s="151"/>
+      <c r="H14" s="151"/>
+      <c r="I14" s="151"/>
+      <c r="J14" s="152"/>
+      <c r="K14" s="153"/>
+      <c r="L14" s="154"/>
+      <c r="M14" s="154"/>
       <c r="O14" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="P14" s="128" t="s">
+      <c r="P14" s="165" t="s">
         <v>160</v>
       </c>
-      <c r="Q14" s="129"/>
-      <c r="R14" s="130"/>
+      <c r="Q14" s="166"/>
+      <c r="R14" s="167"/>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="14">
@@ -3959,21 +4351,21 @@
       <c r="F15" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G15" s="132"/>
-      <c r="H15" s="132"/>
-      <c r="I15" s="132"/>
-      <c r="J15" s="147"/>
-      <c r="K15" s="148"/>
-      <c r="L15" s="134"/>
-      <c r="M15" s="134"/>
+      <c r="G15" s="151"/>
+      <c r="H15" s="151"/>
+      <c r="I15" s="151"/>
+      <c r="J15" s="152"/>
+      <c r="K15" s="153"/>
+      <c r="L15" s="154"/>
+      <c r="M15" s="154"/>
       <c r="O15" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="P15" s="128" t="s">
+      <c r="P15" s="165" t="s">
         <v>161</v>
       </c>
-      <c r="Q15" s="129"/>
-      <c r="R15" s="130"/>
+      <c r="Q15" s="166"/>
+      <c r="R15" s="167"/>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="14">
@@ -3994,21 +4386,21 @@
       <c r="F16" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G16" s="132"/>
-      <c r="H16" s="132"/>
-      <c r="I16" s="132"/>
-      <c r="J16" s="147"/>
-      <c r="K16" s="148"/>
-      <c r="L16" s="134"/>
-      <c r="M16" s="134"/>
+      <c r="G16" s="151"/>
+      <c r="H16" s="151"/>
+      <c r="I16" s="151"/>
+      <c r="J16" s="152"/>
+      <c r="K16" s="153"/>
+      <c r="L16" s="154"/>
+      <c r="M16" s="154"/>
       <c r="O16" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="P16" s="139" t="s">
+      <c r="P16" s="173" t="s">
         <v>163</v>
       </c>
-      <c r="Q16" s="140"/>
-      <c r="R16" s="141"/>
+      <c r="Q16" s="174"/>
+      <c r="R16" s="175"/>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="14">
@@ -4029,21 +4421,21 @@
       <c r="F17" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G17" s="132"/>
-      <c r="H17" s="132"/>
-      <c r="I17" s="132"/>
-      <c r="J17" s="147"/>
-      <c r="K17" s="148"/>
-      <c r="L17" s="134"/>
-      <c r="M17" s="134"/>
+      <c r="G17" s="151"/>
+      <c r="H17" s="151"/>
+      <c r="I17" s="151"/>
+      <c r="J17" s="152"/>
+      <c r="K17" s="153"/>
+      <c r="L17" s="154"/>
+      <c r="M17" s="154"/>
       <c r="O17" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="P17" s="128" t="s">
+      <c r="P17" s="165" t="s">
         <v>162</v>
       </c>
-      <c r="Q17" s="129"/>
-      <c r="R17" s="130"/>
+      <c r="Q17" s="166"/>
+      <c r="R17" s="167"/>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="14">
@@ -4064,13 +4456,13 @@
       <c r="F18" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G18" s="132"/>
-      <c r="H18" s="132"/>
-      <c r="I18" s="132"/>
-      <c r="J18" s="147"/>
-      <c r="K18" s="148"/>
-      <c r="L18" s="134"/>
-      <c r="M18" s="134"/>
+      <c r="G18" s="151"/>
+      <c r="H18" s="151"/>
+      <c r="I18" s="151"/>
+      <c r="J18" s="152"/>
+      <c r="K18" s="153"/>
+      <c r="L18" s="154"/>
+      <c r="M18" s="154"/>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="14">
@@ -4091,13 +4483,13 @@
       <c r="F19" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="147"/>
-      <c r="K19" s="148"/>
-      <c r="L19" s="134"/>
-      <c r="M19" s="134"/>
+      <c r="G19" s="151"/>
+      <c r="H19" s="151"/>
+      <c r="I19" s="151"/>
+      <c r="J19" s="152"/>
+      <c r="K19" s="153"/>
+      <c r="L19" s="154"/>
+      <c r="M19" s="154"/>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="14">
@@ -4118,13 +4510,13 @@
       <c r="F20" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G20" s="132"/>
-      <c r="H20" s="132"/>
-      <c r="I20" s="132"/>
-      <c r="J20" s="147"/>
-      <c r="K20" s="148"/>
-      <c r="L20" s="134"/>
-      <c r="M20" s="134"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="152"/>
+      <c r="K20" s="153"/>
+      <c r="L20" s="154"/>
+      <c r="M20" s="154"/>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="14">
@@ -4145,13 +4537,13 @@
       <c r="F21" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G21" s="132"/>
-      <c r="H21" s="132"/>
-      <c r="I21" s="132"/>
-      <c r="J21" s="147"/>
-      <c r="K21" s="148"/>
-      <c r="L21" s="134"/>
-      <c r="M21" s="134"/>
+      <c r="G21" s="151"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="151"/>
+      <c r="J21" s="152"/>
+      <c r="K21" s="153"/>
+      <c r="L21" s="154"/>
+      <c r="M21" s="154"/>
       <c r="P21" s="99" t="s">
         <v>143</v>
       </c>
@@ -4175,13 +4567,13 @@
       <c r="F22" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G22" s="132"/>
-      <c r="H22" s="132"/>
-      <c r="I22" s="132"/>
-      <c r="J22" s="147"/>
-      <c r="K22" s="148"/>
-      <c r="L22" s="134"/>
-      <c r="M22" s="134"/>
+      <c r="G22" s="151"/>
+      <c r="H22" s="151"/>
+      <c r="I22" s="151"/>
+      <c r="J22" s="152"/>
+      <c r="K22" s="153"/>
+      <c r="L22" s="154"/>
+      <c r="M22" s="154"/>
       <c r="P22" s="100">
         <v>0</v>
       </c>
@@ -4208,13 +4600,13 @@
       <c r="F23" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G23" s="132"/>
-      <c r="H23" s="132"/>
-      <c r="I23" s="132"/>
-      <c r="J23" s="147"/>
-      <c r="K23" s="148"/>
-      <c r="L23" s="134"/>
-      <c r="M23" s="134"/>
+      <c r="G23" s="151"/>
+      <c r="H23" s="151"/>
+      <c r="I23" s="151"/>
+      <c r="J23" s="152"/>
+      <c r="K23" s="153"/>
+      <c r="L23" s="154"/>
+      <c r="M23" s="154"/>
       <c r="P23" s="101">
         <v>70</v>
       </c>
@@ -4241,13 +4633,13 @@
       <c r="F24" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G24" s="132"/>
-      <c r="H24" s="132"/>
-      <c r="I24" s="132"/>
-      <c r="J24" s="147"/>
-      <c r="K24" s="148"/>
-      <c r="L24" s="134"/>
-      <c r="M24" s="134"/>
+      <c r="G24" s="151"/>
+      <c r="H24" s="151"/>
+      <c r="I24" s="151"/>
+      <c r="J24" s="152"/>
+      <c r="K24" s="153"/>
+      <c r="L24" s="154"/>
+      <c r="M24" s="154"/>
       <c r="P24" s="101">
         <v>73.34</v>
       </c>
@@ -4274,13 +4666,13 @@
       <c r="F25" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G25" s="132"/>
-      <c r="H25" s="132"/>
-      <c r="I25" s="132"/>
-      <c r="J25" s="147"/>
-      <c r="K25" s="148"/>
-      <c r="L25" s="134"/>
-      <c r="M25" s="134"/>
+      <c r="G25" s="151"/>
+      <c r="H25" s="151"/>
+      <c r="I25" s="151"/>
+      <c r="J25" s="152"/>
+      <c r="K25" s="153"/>
+      <c r="L25" s="154"/>
+      <c r="M25" s="154"/>
       <c r="P25" s="101">
         <v>76.680000000000007</v>
       </c>
@@ -4307,13 +4699,13 @@
       <c r="F26" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G26" s="132"/>
-      <c r="H26" s="132"/>
-      <c r="I26" s="132"/>
-      <c r="J26" s="147"/>
-      <c r="K26" s="148"/>
-      <c r="L26" s="134"/>
-      <c r="M26" s="134"/>
+      <c r="G26" s="151"/>
+      <c r="H26" s="151"/>
+      <c r="I26" s="151"/>
+      <c r="J26" s="152"/>
+      <c r="K26" s="153"/>
+      <c r="L26" s="154"/>
+      <c r="M26" s="154"/>
       <c r="P26" s="101">
         <v>80.02</v>
       </c>
@@ -4340,13 +4732,13 @@
       <c r="F27" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G27" s="132"/>
-      <c r="H27" s="132"/>
-      <c r="I27" s="132"/>
-      <c r="J27" s="147"/>
-      <c r="K27" s="148"/>
-      <c r="L27" s="134"/>
-      <c r="M27" s="134"/>
+      <c r="G27" s="151"/>
+      <c r="H27" s="151"/>
+      <c r="I27" s="151"/>
+      <c r="J27" s="152"/>
+      <c r="K27" s="153"/>
+      <c r="L27" s="154"/>
+      <c r="M27" s="154"/>
       <c r="P27" s="101">
         <v>83.36</v>
       </c>
@@ -4358,28 +4750,26 @@
       <c r="A28" s="14">
         <v>18</v>
       </c>
-      <c r="B28" s="125" t="s">
-        <v>232</v>
-      </c>
+      <c r="B28" s="125"/>
       <c r="C28" s="125" t="s">
-        <v>229</v>
+        <v>287</v>
       </c>
       <c r="D28" s="125" t="s">
-        <v>230</v>
+        <v>288</v>
       </c>
       <c r="E28" s="125" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="F28" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G28" s="142"/>
-      <c r="H28" s="143"/>
-      <c r="I28" s="144"/>
-      <c r="J28" s="145"/>
-      <c r="K28" s="146"/>
-      <c r="L28" s="134"/>
-      <c r="M28" s="134"/>
+      <c r="G28" s="155"/>
+      <c r="H28" s="156"/>
+      <c r="I28" s="157"/>
+      <c r="J28" s="160"/>
+      <c r="K28" s="161"/>
+      <c r="L28" s="154"/>
+      <c r="M28" s="154"/>
       <c r="P28" s="101">
         <v>86.7</v>
       </c>
@@ -4392,13 +4782,13 @@
         <v>19</v>
       </c>
       <c r="B29" s="125" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C29" s="125" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D29" s="125" t="s">
-        <v>282</v>
+        <v>230</v>
       </c>
       <c r="E29" s="125" t="s">
         <v>231</v>
@@ -4406,13 +4796,13 @@
       <c r="F29" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G29" s="142"/>
-      <c r="H29" s="143"/>
-      <c r="I29" s="144"/>
-      <c r="J29" s="145"/>
-      <c r="K29" s="146"/>
-      <c r="L29" s="134"/>
-      <c r="M29" s="134"/>
+      <c r="G29" s="155"/>
+      <c r="H29" s="156"/>
+      <c r="I29" s="157"/>
+      <c r="J29" s="160"/>
+      <c r="K29" s="161"/>
+      <c r="L29" s="154"/>
+      <c r="M29" s="154"/>
       <c r="P29" s="101">
         <v>90.04</v>
       </c>
@@ -4425,27 +4815,27 @@
         <v>20</v>
       </c>
       <c r="B30" s="125" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C30" s="125" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D30" s="125" t="s">
-        <v>236</v>
+        <v>282</v>
       </c>
       <c r="E30" s="125" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F30" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G30" s="142"/>
-      <c r="H30" s="143"/>
-      <c r="I30" s="144"/>
-      <c r="J30" s="145"/>
-      <c r="K30" s="146"/>
-      <c r="L30" s="134"/>
-      <c r="M30" s="134"/>
+      <c r="G30" s="155"/>
+      <c r="H30" s="156"/>
+      <c r="I30" s="157"/>
+      <c r="J30" s="160"/>
+      <c r="K30" s="161"/>
+      <c r="L30" s="154"/>
+      <c r="M30" s="154"/>
       <c r="P30" s="101">
         <v>93.38</v>
       </c>
@@ -4458,27 +4848,27 @@
         <v>21</v>
       </c>
       <c r="B31" s="125" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C31" s="125" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D31" s="125" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E31" s="125" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F31" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G31" s="142"/>
-      <c r="H31" s="143"/>
-      <c r="I31" s="144"/>
-      <c r="J31" s="145"/>
-      <c r="K31" s="146"/>
-      <c r="L31" s="134"/>
-      <c r="M31" s="134"/>
+      <c r="G31" s="155"/>
+      <c r="H31" s="156"/>
+      <c r="I31" s="157"/>
+      <c r="J31" s="160"/>
+      <c r="K31" s="161"/>
+      <c r="L31" s="154"/>
+      <c r="M31" s="154"/>
       <c r="P31" s="100"/>
       <c r="Q31" s="100"/>
     </row>
@@ -4487,27 +4877,27 @@
         <v>22</v>
       </c>
       <c r="B32" s="125" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C32" s="125" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D32" s="125" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E32" s="125" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="F32" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G32" s="142"/>
-      <c r="H32" s="143"/>
-      <c r="I32" s="144"/>
-      <c r="J32" s="145"/>
-      <c r="K32" s="146"/>
-      <c r="L32" s="134"/>
-      <c r="M32" s="134"/>
+      <c r="G32" s="155"/>
+      <c r="H32" s="156"/>
+      <c r="I32" s="157"/>
+      <c r="J32" s="160"/>
+      <c r="K32" s="161"/>
+      <c r="L32" s="154"/>
+      <c r="M32" s="154"/>
       <c r="P32" s="100">
         <v>96.72</v>
       </c>
@@ -4520,329 +4910,343 @@
         <v>23</v>
       </c>
       <c r="B33" s="125" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C33" s="125" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D33" s="125" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E33" s="125" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="F33" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G33" s="142"/>
-      <c r="H33" s="143"/>
-      <c r="I33" s="144"/>
-      <c r="J33" s="145"/>
-      <c r="K33" s="146"/>
-      <c r="L33" s="134"/>
-      <c r="M33" s="134"/>
+      <c r="G33" s="155"/>
+      <c r="H33" s="156"/>
+      <c r="I33" s="157"/>
+      <c r="J33" s="160"/>
+      <c r="K33" s="161"/>
+      <c r="L33" s="154"/>
+      <c r="M33" s="154"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="14">
         <v>24</v>
       </c>
       <c r="B34" s="125" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C34" s="125" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D34" s="125" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E34" s="125" t="s">
-        <v>208</v>
+        <v>248</v>
       </c>
       <c r="F34" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G34" s="142"/>
-      <c r="H34" s="143"/>
-      <c r="I34" s="144"/>
-      <c r="J34" s="145"/>
-      <c r="K34" s="146"/>
-      <c r="L34" s="134"/>
-      <c r="M34" s="134"/>
+      <c r="G34" s="155"/>
+      <c r="H34" s="156"/>
+      <c r="I34" s="157"/>
+      <c r="J34" s="160"/>
+      <c r="K34" s="161"/>
+      <c r="L34" s="154"/>
+      <c r="M34" s="154"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="14">
         <v>25</v>
       </c>
       <c r="B35" s="125" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C35" s="125" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D35" s="125" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E35" s="125" t="s">
-        <v>255</v>
+        <v>208</v>
       </c>
       <c r="F35" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G35" s="142"/>
-      <c r="H35" s="143"/>
-      <c r="I35" s="144"/>
-      <c r="J35" s="145"/>
-      <c r="K35" s="146"/>
-      <c r="L35" s="134"/>
-      <c r="M35" s="134"/>
+      <c r="G35" s="155"/>
+      <c r="H35" s="156"/>
+      <c r="I35" s="157"/>
+      <c r="J35" s="160"/>
+      <c r="K35" s="161"/>
+      <c r="L35" s="154"/>
+      <c r="M35" s="154"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="14">
         <v>26</v>
       </c>
       <c r="B36" s="125" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C36" s="125" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D36" s="125" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E36" s="125" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F36" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G36" s="142"/>
-      <c r="H36" s="143"/>
-      <c r="I36" s="144"/>
-      <c r="J36" s="145"/>
-      <c r="K36" s="146"/>
-      <c r="L36" s="134"/>
-      <c r="M36" s="134"/>
+      <c r="G36" s="155"/>
+      <c r="H36" s="156"/>
+      <c r="I36" s="157"/>
+      <c r="J36" s="160"/>
+      <c r="K36" s="161"/>
+      <c r="L36" s="154"/>
+      <c r="M36" s="154"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="14">
         <v>27</v>
       </c>
-      <c r="B37" s="125" t="s">
-        <v>263</v>
-      </c>
+      <c r="B37" s="125"/>
       <c r="C37" s="125" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="D37" s="125" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="E37" s="125" t="s">
-        <v>248</v>
+        <v>194</v>
       </c>
       <c r="F37" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G37" s="132"/>
-      <c r="H37" s="132"/>
-      <c r="I37" s="132"/>
-      <c r="J37" s="133"/>
-      <c r="K37" s="133"/>
-      <c r="L37" s="134"/>
-      <c r="M37" s="134"/>
+      <c r="G37" s="151"/>
+      <c r="H37" s="151"/>
+      <c r="I37" s="151"/>
+      <c r="J37" s="162"/>
+      <c r="K37" s="162"/>
+      <c r="L37" s="154"/>
+      <c r="M37" s="154"/>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="14">
         <v>28</v>
       </c>
       <c r="B38" s="125" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C38" s="125" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D38" s="125" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="E38" s="125" t="s">
-        <v>183</v>
+        <v>259</v>
       </c>
       <c r="F38" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G38" s="132"/>
-      <c r="H38" s="132"/>
-      <c r="I38" s="132"/>
-      <c r="J38" s="133"/>
-      <c r="K38" s="133"/>
-      <c r="L38" s="134"/>
-      <c r="M38" s="134"/>
+      <c r="G38" s="151"/>
+      <c r="H38" s="151"/>
+      <c r="I38" s="151"/>
+      <c r="J38" s="162"/>
+      <c r="K38" s="162"/>
+      <c r="L38" s="154"/>
+      <c r="M38" s="154"/>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="14">
         <v>29</v>
       </c>
       <c r="B39" s="125" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C39" s="125" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D39" s="125" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E39" s="125" t="s">
-        <v>208</v>
+        <v>248</v>
       </c>
       <c r="F39" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G39" s="132"/>
-      <c r="H39" s="132"/>
-      <c r="I39" s="132"/>
-      <c r="J39" s="133"/>
-      <c r="K39" s="133"/>
-      <c r="L39" s="134"/>
-      <c r="M39" s="134"/>
+      <c r="G39" s="151"/>
+      <c r="H39" s="151"/>
+      <c r="I39" s="151"/>
+      <c r="J39" s="162"/>
+      <c r="K39" s="162"/>
+      <c r="L39" s="154"/>
+      <c r="M39" s="154"/>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="14">
         <v>30</v>
       </c>
       <c r="B40" s="125" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C40" s="125" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D40" s="125" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="E40" s="125" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="F40" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G40" s="132"/>
-      <c r="H40" s="132"/>
-      <c r="I40" s="132"/>
-      <c r="J40" s="133"/>
-      <c r="K40" s="133"/>
-      <c r="L40" s="134"/>
-      <c r="M40" s="134"/>
+      <c r="G40" s="151"/>
+      <c r="H40" s="151"/>
+      <c r="I40" s="151"/>
+      <c r="J40" s="162"/>
+      <c r="K40" s="162"/>
+      <c r="L40" s="154"/>
+      <c r="M40" s="154"/>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="14">
         <v>31</v>
       </c>
       <c r="B41" s="125" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C41" s="125" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D41" s="125" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E41" s="125" t="s">
-        <v>275</v>
+        <v>208</v>
       </c>
       <c r="F41" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G41" s="132"/>
-      <c r="H41" s="132"/>
-      <c r="I41" s="132"/>
-      <c r="J41" s="133"/>
-      <c r="K41" s="133"/>
-      <c r="L41" s="134"/>
-      <c r="M41" s="134"/>
+      <c r="G41" s="151"/>
+      <c r="H41" s="151"/>
+      <c r="I41" s="151"/>
+      <c r="J41" s="162"/>
+      <c r="K41" s="162"/>
+      <c r="L41" s="154"/>
+      <c r="M41" s="154"/>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="14">
         <v>32</v>
       </c>
       <c r="B42" s="125" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C42" s="125" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D42" s="125" t="s">
-        <v>278</v>
-      </c>
-      <c r="E42" s="125"/>
+        <v>271</v>
+      </c>
+      <c r="E42" s="125" t="s">
+        <v>172</v>
+      </c>
       <c r="F42" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G42" s="132"/>
-      <c r="H42" s="132"/>
-      <c r="I42" s="132"/>
-      <c r="J42" s="133"/>
-      <c r="K42" s="133"/>
-      <c r="L42" s="134"/>
-      <c r="M42" s="134"/>
+      <c r="G42" s="151"/>
+      <c r="H42" s="151"/>
+      <c r="I42" s="151"/>
+      <c r="J42" s="162"/>
+      <c r="K42" s="162"/>
+      <c r="L42" s="154"/>
+      <c r="M42" s="154"/>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="14">
         <v>33</v>
       </c>
       <c r="B43" s="125" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C43" s="125" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D43" s="125" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="E43" s="125" t="s">
-        <v>208</v>
+        <v>275</v>
       </c>
       <c r="F43" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G43" s="132"/>
-      <c r="H43" s="132"/>
-      <c r="I43" s="132"/>
-      <c r="J43" s="133"/>
-      <c r="K43" s="133"/>
-      <c r="L43" s="134"/>
-      <c r="M43" s="134"/>
+      <c r="G43" s="151"/>
+      <c r="H43" s="151"/>
+      <c r="I43" s="151"/>
+      <c r="J43" s="162"/>
+      <c r="K43" s="162"/>
+      <c r="L43" s="154"/>
+      <c r="M43" s="154"/>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="14">
         <v>34</v>
       </c>
-      <c r="B44" s="125"/>
-      <c r="C44" s="125"/>
-      <c r="D44" s="125"/>
+      <c r="B44" s="125" t="s">
+        <v>279</v>
+      </c>
+      <c r="C44" s="125" t="s">
+        <v>277</v>
+      </c>
+      <c r="D44" s="125" t="s">
+        <v>278</v>
+      </c>
       <c r="E44" s="125"/>
       <c r="F44" s="16"/>
-      <c r="G44" s="132"/>
-      <c r="H44" s="132"/>
-      <c r="I44" s="132"/>
-      <c r="J44" s="133"/>
-      <c r="K44" s="133"/>
-      <c r="L44" s="134"/>
-      <c r="M44" s="134"/>
+      <c r="G44" s="151"/>
+      <c r="H44" s="151"/>
+      <c r="I44" s="151"/>
+      <c r="J44" s="162"/>
+      <c r="K44" s="162"/>
+      <c r="L44" s="154"/>
+      <c r="M44" s="154"/>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="14">
         <v>35</v>
       </c>
-      <c r="B45" s="125"/>
-      <c r="C45" s="125"/>
-      <c r="D45" s="125"/>
-      <c r="E45" s="125"/>
+      <c r="B45" s="125" t="s">
+        <v>281</v>
+      </c>
+      <c r="C45" s="125" t="s">
+        <v>280</v>
+      </c>
+      <c r="D45" s="125" t="s">
+        <v>284</v>
+      </c>
+      <c r="E45" s="125" t="s">
+        <v>208</v>
+      </c>
       <c r="F45" s="16"/>
-      <c r="G45" s="132"/>
-      <c r="H45" s="132"/>
-      <c r="I45" s="132"/>
-      <c r="J45" s="133"/>
-      <c r="K45" s="133"/>
-      <c r="L45" s="134"/>
-      <c r="M45" s="134"/>
+      <c r="G45" s="151"/>
+      <c r="H45" s="151"/>
+      <c r="I45" s="151"/>
+      <c r="J45" s="162"/>
+      <c r="K45" s="162"/>
+      <c r="L45" s="154"/>
+      <c r="M45" s="154"/>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="14">
@@ -4853,13 +5257,13 @@
       <c r="D46" s="125"/>
       <c r="E46" s="125"/>
       <c r="F46" s="16"/>
-      <c r="G46" s="132"/>
-      <c r="H46" s="132"/>
-      <c r="I46" s="132"/>
-      <c r="J46" s="133"/>
-      <c r="K46" s="133"/>
-      <c r="L46" s="134"/>
-      <c r="M46" s="134"/>
+      <c r="G46" s="151"/>
+      <c r="H46" s="151"/>
+      <c r="I46" s="151"/>
+      <c r="J46" s="162"/>
+      <c r="K46" s="162"/>
+      <c r="L46" s="154"/>
+      <c r="M46" s="154"/>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="14">
@@ -4870,13 +5274,13 @@
       <c r="D47" s="125"/>
       <c r="E47" s="125"/>
       <c r="F47" s="16"/>
-      <c r="G47" s="132"/>
-      <c r="H47" s="132"/>
-      <c r="I47" s="132"/>
-      <c r="J47" s="133"/>
-      <c r="K47" s="133"/>
-      <c r="L47" s="134"/>
-      <c r="M47" s="134"/>
+      <c r="G47" s="151"/>
+      <c r="H47" s="151"/>
+      <c r="I47" s="151"/>
+      <c r="J47" s="162"/>
+      <c r="K47" s="162"/>
+      <c r="L47" s="154"/>
+      <c r="M47" s="154"/>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="14">
@@ -4887,13 +5291,13 @@
       <c r="D48" s="125"/>
       <c r="E48" s="125"/>
       <c r="F48" s="16"/>
-      <c r="G48" s="132"/>
-      <c r="H48" s="132"/>
-      <c r="I48" s="132"/>
-      <c r="J48" s="133"/>
-      <c r="K48" s="133"/>
-      <c r="L48" s="134"/>
-      <c r="M48" s="134"/>
+      <c r="G48" s="151"/>
+      <c r="H48" s="151"/>
+      <c r="I48" s="151"/>
+      <c r="J48" s="162"/>
+      <c r="K48" s="162"/>
+      <c r="L48" s="154"/>
+      <c r="M48" s="154"/>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="14">
@@ -4904,13 +5308,13 @@
       <c r="D49" s="125"/>
       <c r="E49" s="125"/>
       <c r="F49" s="16"/>
-      <c r="G49" s="132"/>
-      <c r="H49" s="132"/>
-      <c r="I49" s="132"/>
-      <c r="J49" s="133"/>
-      <c r="K49" s="133"/>
-      <c r="L49" s="134"/>
-      <c r="M49" s="134"/>
+      <c r="G49" s="151"/>
+      <c r="H49" s="151"/>
+      <c r="I49" s="151"/>
+      <c r="J49" s="162"/>
+      <c r="K49" s="162"/>
+      <c r="L49" s="154"/>
+      <c r="M49" s="154"/>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="14">
@@ -4921,13 +5325,13 @@
       <c r="D50" s="125"/>
       <c r="E50" s="125"/>
       <c r="F50" s="16"/>
-      <c r="G50" s="132"/>
-      <c r="H50" s="132"/>
-      <c r="I50" s="132"/>
-      <c r="J50" s="133"/>
-      <c r="K50" s="133"/>
-      <c r="L50" s="134"/>
-      <c r="M50" s="134"/>
+      <c r="G50" s="151"/>
+      <c r="H50" s="151"/>
+      <c r="I50" s="151"/>
+      <c r="J50" s="162"/>
+      <c r="K50" s="162"/>
+      <c r="L50" s="154"/>
+      <c r="M50" s="154"/>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="14">
@@ -4938,13 +5342,13 @@
       <c r="D51" s="125"/>
       <c r="E51" s="125"/>
       <c r="F51" s="16"/>
-      <c r="G51" s="132"/>
-      <c r="H51" s="132"/>
-      <c r="I51" s="132"/>
-      <c r="J51" s="133"/>
-      <c r="K51" s="133"/>
-      <c r="L51" s="134"/>
-      <c r="M51" s="134"/>
+      <c r="G51" s="151"/>
+      <c r="H51" s="151"/>
+      <c r="I51" s="151"/>
+      <c r="J51" s="162"/>
+      <c r="K51" s="162"/>
+      <c r="L51" s="154"/>
+      <c r="M51" s="154"/>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="14">
@@ -4955,13 +5359,13 @@
       <c r="D52" s="15"/>
       <c r="E52" s="15"/>
       <c r="F52" s="16"/>
-      <c r="G52" s="132"/>
-      <c r="H52" s="132"/>
-      <c r="I52" s="132"/>
-      <c r="J52" s="133"/>
-      <c r="K52" s="133"/>
-      <c r="L52" s="134"/>
-      <c r="M52" s="134"/>
+      <c r="G52" s="151"/>
+      <c r="H52" s="151"/>
+      <c r="I52" s="151"/>
+      <c r="J52" s="162"/>
+      <c r="K52" s="162"/>
+      <c r="L52" s="154"/>
+      <c r="M52" s="154"/>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="14">
@@ -4972,13 +5376,13 @@
       <c r="D53" s="15"/>
       <c r="E53" s="15"/>
       <c r="F53" s="16"/>
-      <c r="G53" s="132"/>
-      <c r="H53" s="132"/>
-      <c r="I53" s="132"/>
-      <c r="J53" s="133"/>
-      <c r="K53" s="133"/>
-      <c r="L53" s="134"/>
-      <c r="M53" s="134"/>
+      <c r="G53" s="151"/>
+      <c r="H53" s="151"/>
+      <c r="I53" s="151"/>
+      <c r="J53" s="162"/>
+      <c r="K53" s="162"/>
+      <c r="L53" s="154"/>
+      <c r="M53" s="154"/>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="14">
@@ -4989,13 +5393,13 @@
       <c r="D54" s="15"/>
       <c r="E54" s="15"/>
       <c r="F54" s="16"/>
-      <c r="G54" s="132"/>
-      <c r="H54" s="132"/>
-      <c r="I54" s="132"/>
-      <c r="J54" s="133"/>
-      <c r="K54" s="133"/>
-      <c r="L54" s="134"/>
-      <c r="M54" s="134"/>
+      <c r="G54" s="151"/>
+      <c r="H54" s="151"/>
+      <c r="I54" s="151"/>
+      <c r="J54" s="162"/>
+      <c r="K54" s="162"/>
+      <c r="L54" s="154"/>
+      <c r="M54" s="154"/>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="14">
@@ -5006,13 +5410,13 @@
       <c r="D55" s="15"/>
       <c r="E55" s="15"/>
       <c r="F55" s="16"/>
-      <c r="G55" s="132"/>
-      <c r="H55" s="132"/>
-      <c r="I55" s="132"/>
-      <c r="J55" s="133"/>
-      <c r="K55" s="133"/>
-      <c r="L55" s="134"/>
-      <c r="M55" s="134"/>
+      <c r="G55" s="151"/>
+      <c r="H55" s="151"/>
+      <c r="I55" s="151"/>
+      <c r="J55" s="162"/>
+      <c r="K55" s="162"/>
+      <c r="L55" s="154"/>
+      <c r="M55" s="154"/>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="14">
@@ -5023,13 +5427,13 @@
       <c r="D56" s="15"/>
       <c r="E56" s="15"/>
       <c r="F56" s="16"/>
-      <c r="G56" s="132"/>
-      <c r="H56" s="132"/>
-      <c r="I56" s="132"/>
-      <c r="J56" s="133"/>
-      <c r="K56" s="133"/>
-      <c r="L56" s="134"/>
-      <c r="M56" s="134"/>
+      <c r="G56" s="151"/>
+      <c r="H56" s="151"/>
+      <c r="I56" s="151"/>
+      <c r="J56" s="162"/>
+      <c r="K56" s="162"/>
+      <c r="L56" s="154"/>
+      <c r="M56" s="154"/>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="14">
@@ -5040,13 +5444,13 @@
       <c r="D57" s="89"/>
       <c r="E57" s="89"/>
       <c r="F57" s="16"/>
-      <c r="G57" s="132"/>
-      <c r="H57" s="132"/>
-      <c r="I57" s="132"/>
-      <c r="J57" s="133"/>
-      <c r="K57" s="133"/>
-      <c r="L57" s="134"/>
-      <c r="M57" s="134"/>
+      <c r="G57" s="151"/>
+      <c r="H57" s="151"/>
+      <c r="I57" s="151"/>
+      <c r="J57" s="162"/>
+      <c r="K57" s="162"/>
+      <c r="L57" s="154"/>
+      <c r="M57" s="154"/>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="14">
@@ -5057,13 +5461,13 @@
       <c r="D58" s="15"/>
       <c r="E58" s="15"/>
       <c r="F58" s="16"/>
-      <c r="G58" s="132"/>
-      <c r="H58" s="132"/>
-      <c r="I58" s="132"/>
-      <c r="J58" s="133"/>
-      <c r="K58" s="133"/>
-      <c r="L58" s="134"/>
-      <c r="M58" s="134"/>
+      <c r="G58" s="151"/>
+      <c r="H58" s="151"/>
+      <c r="I58" s="151"/>
+      <c r="J58" s="162"/>
+      <c r="K58" s="162"/>
+      <c r="L58" s="154"/>
+      <c r="M58" s="154"/>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="14">
@@ -5074,13 +5478,13 @@
       <c r="D59" s="89"/>
       <c r="E59" s="89"/>
       <c r="F59" s="16"/>
-      <c r="G59" s="132"/>
-      <c r="H59" s="132"/>
-      <c r="I59" s="132"/>
-      <c r="J59" s="133"/>
-      <c r="K59" s="133"/>
-      <c r="L59" s="134"/>
-      <c r="M59" s="134"/>
+      <c r="G59" s="151"/>
+      <c r="H59" s="151"/>
+      <c r="I59" s="151"/>
+      <c r="J59" s="162"/>
+      <c r="K59" s="162"/>
+      <c r="L59" s="154"/>
+      <c r="M59" s="154"/>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="14">
@@ -5091,13 +5495,13 @@
       <c r="D60" s="89"/>
       <c r="E60" s="89"/>
       <c r="F60" s="16"/>
-      <c r="G60" s="132"/>
-      <c r="H60" s="132"/>
-      <c r="I60" s="132"/>
-      <c r="J60" s="133"/>
-      <c r="K60" s="133"/>
-      <c r="L60" s="134"/>
-      <c r="M60" s="134"/>
+      <c r="G60" s="151"/>
+      <c r="H60" s="151"/>
+      <c r="I60" s="151"/>
+      <c r="J60" s="162"/>
+      <c r="K60" s="162"/>
+      <c r="L60" s="154"/>
+      <c r="M60" s="154"/>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="14">
@@ -5108,13 +5512,13 @@
       <c r="D61" s="15"/>
       <c r="E61" s="15"/>
       <c r="F61" s="16"/>
-      <c r="G61" s="132"/>
-      <c r="H61" s="132"/>
-      <c r="I61" s="132"/>
-      <c r="J61" s="133"/>
-      <c r="K61" s="133"/>
-      <c r="L61" s="134"/>
-      <c r="M61" s="134"/>
+      <c r="G61" s="151"/>
+      <c r="H61" s="151"/>
+      <c r="I61" s="151"/>
+      <c r="J61" s="162"/>
+      <c r="K61" s="162"/>
+      <c r="L61" s="154"/>
+      <c r="M61" s="154"/>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="14">
@@ -5125,13 +5529,13 @@
       <c r="D62" s="15"/>
       <c r="E62" s="15"/>
       <c r="F62" s="16"/>
-      <c r="G62" s="132"/>
-      <c r="H62" s="132"/>
-      <c r="I62" s="132"/>
-      <c r="J62" s="133"/>
-      <c r="K62" s="133"/>
-      <c r="L62" s="134"/>
-      <c r="M62" s="134"/>
+      <c r="G62" s="151"/>
+      <c r="H62" s="151"/>
+      <c r="I62" s="151"/>
+      <c r="J62" s="162"/>
+      <c r="K62" s="162"/>
+      <c r="L62" s="154"/>
+      <c r="M62" s="154"/>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="14">
@@ -5142,13 +5546,13 @@
       <c r="D63" s="15"/>
       <c r="E63" s="15"/>
       <c r="F63" s="16"/>
-      <c r="G63" s="132"/>
-      <c r="H63" s="132"/>
-      <c r="I63" s="132"/>
-      <c r="J63" s="133"/>
-      <c r="K63" s="133"/>
-      <c r="L63" s="134"/>
-      <c r="M63" s="134"/>
+      <c r="G63" s="151"/>
+      <c r="H63" s="151"/>
+      <c r="I63" s="151"/>
+      <c r="J63" s="162"/>
+      <c r="K63" s="162"/>
+      <c r="L63" s="154"/>
+      <c r="M63" s="154"/>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="14">
@@ -5159,13 +5563,13 @@
       <c r="D64" s="15"/>
       <c r="E64" s="15"/>
       <c r="F64" s="16"/>
-      <c r="G64" s="132"/>
-      <c r="H64" s="132"/>
-      <c r="I64" s="132"/>
-      <c r="J64" s="133"/>
-      <c r="K64" s="133"/>
-      <c r="L64" s="134"/>
-      <c r="M64" s="134"/>
+      <c r="G64" s="151"/>
+      <c r="H64" s="151"/>
+      <c r="I64" s="151"/>
+      <c r="J64" s="162"/>
+      <c r="K64" s="162"/>
+      <c r="L64" s="154"/>
+      <c r="M64" s="154"/>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="14">
@@ -5176,13 +5580,13 @@
       <c r="D65" s="15"/>
       <c r="E65" s="15"/>
       <c r="F65" s="16"/>
-      <c r="G65" s="132"/>
-      <c r="H65" s="132"/>
-      <c r="I65" s="132"/>
-      <c r="J65" s="133"/>
-      <c r="K65" s="133"/>
-      <c r="L65" s="134"/>
-      <c r="M65" s="134"/>
+      <c r="G65" s="151"/>
+      <c r="H65" s="151"/>
+      <c r="I65" s="151"/>
+      <c r="J65" s="162"/>
+      <c r="K65" s="162"/>
+      <c r="L65" s="154"/>
+      <c r="M65" s="154"/>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="14">
@@ -5193,13 +5597,13 @@
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
       <c r="F66" s="16"/>
-      <c r="G66" s="132"/>
-      <c r="H66" s="132"/>
-      <c r="I66" s="132"/>
-      <c r="J66" s="133"/>
-      <c r="K66" s="133"/>
-      <c r="L66" s="134"/>
-      <c r="M66" s="134"/>
+      <c r="G66" s="151"/>
+      <c r="H66" s="151"/>
+      <c r="I66" s="151"/>
+      <c r="J66" s="162"/>
+      <c r="K66" s="162"/>
+      <c r="L66" s="154"/>
+      <c r="M66" s="154"/>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="14">
@@ -5210,13 +5614,13 @@
       <c r="D67" s="15"/>
       <c r="E67" s="89"/>
       <c r="F67" s="16"/>
-      <c r="G67" s="132"/>
-      <c r="H67" s="132"/>
-      <c r="I67" s="132"/>
-      <c r="J67" s="133"/>
-      <c r="K67" s="133"/>
-      <c r="L67" s="134"/>
-      <c r="M67" s="134"/>
+      <c r="G67" s="151"/>
+      <c r="H67" s="151"/>
+      <c r="I67" s="151"/>
+      <c r="J67" s="162"/>
+      <c r="K67" s="162"/>
+      <c r="L67" s="154"/>
+      <c r="M67" s="154"/>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="14">
@@ -5227,13 +5631,13 @@
       <c r="D68" s="15"/>
       <c r="E68" s="15"/>
       <c r="F68" s="16"/>
-      <c r="G68" s="132"/>
-      <c r="H68" s="132"/>
-      <c r="I68" s="132"/>
-      <c r="J68" s="133"/>
-      <c r="K68" s="133"/>
-      <c r="L68" s="134"/>
-      <c r="M68" s="134"/>
+      <c r="G68" s="151"/>
+      <c r="H68" s="151"/>
+      <c r="I68" s="151"/>
+      <c r="J68" s="162"/>
+      <c r="K68" s="162"/>
+      <c r="L68" s="154"/>
+      <c r="M68" s="154"/>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="14">
@@ -5244,13 +5648,13 @@
       <c r="D69" s="15"/>
       <c r="E69" s="15"/>
       <c r="F69" s="16"/>
-      <c r="G69" s="132"/>
-      <c r="H69" s="132"/>
-      <c r="I69" s="132"/>
-      <c r="J69" s="133"/>
-      <c r="K69" s="133"/>
-      <c r="L69" s="134"/>
-      <c r="M69" s="134"/>
+      <c r="G69" s="151"/>
+      <c r="H69" s="151"/>
+      <c r="I69" s="151"/>
+      <c r="J69" s="162"/>
+      <c r="K69" s="162"/>
+      <c r="L69" s="154"/>
+      <c r="M69" s="154"/>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="14">
@@ -5261,13 +5665,13 @@
       <c r="D70" s="15"/>
       <c r="E70" s="15"/>
       <c r="F70" s="16"/>
-      <c r="G70" s="132"/>
-      <c r="H70" s="132"/>
-      <c r="I70" s="132"/>
-      <c r="J70" s="133"/>
-      <c r="K70" s="133"/>
-      <c r="L70" s="134"/>
-      <c r="M70" s="134"/>
+      <c r="G70" s="151"/>
+      <c r="H70" s="151"/>
+      <c r="I70" s="151"/>
+      <c r="J70" s="162"/>
+      <c r="K70" s="162"/>
+      <c r="L70" s="154"/>
+      <c r="M70" s="154"/>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="14">
@@ -5278,13 +5682,13 @@
       <c r="D71" s="89"/>
       <c r="E71" s="89"/>
       <c r="F71" s="16"/>
-      <c r="G71" s="132"/>
-      <c r="H71" s="132"/>
-      <c r="I71" s="132"/>
-      <c r="J71" s="133"/>
-      <c r="K71" s="133"/>
-      <c r="L71" s="134"/>
-      <c r="M71" s="134"/>
+      <c r="G71" s="151"/>
+      <c r="H71" s="151"/>
+      <c r="I71" s="151"/>
+      <c r="J71" s="162"/>
+      <c r="K71" s="162"/>
+      <c r="L71" s="154"/>
+      <c r="M71" s="154"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -5292,195 +5696,6 @@
     <sortCondition ref="C11:C33"/>
   </sortState>
   <mergeCells count="213">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:I10"/>
-    <mergeCell ref="J9:K10"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L9:M10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="L64:M64"/>
     <mergeCell ref="A5:M5"/>
     <mergeCell ref="A4:M4"/>
     <mergeCell ref="P15:R15"/>
@@ -5505,114 +5720,393 @@
     <mergeCell ref="L67:M67"/>
     <mergeCell ref="G68:I68"/>
     <mergeCell ref="J68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L9:M10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:I10"/>
+    <mergeCell ref="J9:K10"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
   </mergeCells>
   <conditionalFormatting sqref="B23:B71">
-    <cfRule type="cellIs" dxfId="24" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="47" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:B71">
-    <cfRule type="cellIs" dxfId="23" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="48" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C71">
-    <cfRule type="cellIs" dxfId="22" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="46" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C71">
-    <cfRule type="cellIs" dxfId="21" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="45" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:D71">
-    <cfRule type="cellIs" dxfId="20" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="44" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:D71">
-    <cfRule type="cellIs" dxfId="19" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="43" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22:E71">
-    <cfRule type="cellIs" dxfId="18" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="42" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22:E71">
-    <cfRule type="cellIs" dxfId="17" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="41" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B27">
-    <cfRule type="cellIs" dxfId="16" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="31" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B27">
-    <cfRule type="cellIs" dxfId="15" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="32" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C28">
-    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="30" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C28">
-    <cfRule type="cellIs" dxfId="13" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="29" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:D28">
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="28" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:D28">
-    <cfRule type="cellIs" dxfId="11" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="27" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E28">
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E28">
-    <cfRule type="cellIs" dxfId="9" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="25" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:E36">
-    <cfRule type="cellIs" dxfId="8" priority="6" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="B11:E37">
+    <cfRule type="cellIs" dxfId="46" priority="24" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:E36">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+  <conditionalFormatting sqref="B11:E37">
+    <cfRule type="cellIs" dxfId="45" priority="23" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:E36">
-    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="B11:E37">
+    <cfRule type="cellIs" dxfId="44" priority="22" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:E36">
+  <conditionalFormatting sqref="B11:E37">
+    <cfRule type="cellIs" dxfId="43" priority="21" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:E37">
+    <cfRule type="cellIs" dxfId="42" priority="20" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:E37">
+    <cfRule type="cellIs" dxfId="41" priority="19" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37:E37">
+    <cfRule type="cellIs" dxfId="36" priority="18" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37:E37">
+    <cfRule type="cellIs" dxfId="34" priority="17" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37:E37">
+    <cfRule type="cellIs" dxfId="32" priority="16" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37:E37">
+    <cfRule type="cellIs" dxfId="30" priority="15" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37:E37">
+    <cfRule type="cellIs" dxfId="28" priority="14" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37:E37">
+    <cfRule type="cellIs" dxfId="26" priority="13" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="cellIs" dxfId="23" priority="12" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="cellIs" dxfId="21" priority="11" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29">
+    <cfRule type="cellIs" dxfId="19" priority="10" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29">
+    <cfRule type="cellIs" dxfId="17" priority="9" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="cellIs" dxfId="13" priority="7" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38:E38">
+    <cfRule type="cellIs" dxfId="11" priority="6" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38:E38">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38:E38">
+    <cfRule type="cellIs" dxfId="7" priority="4" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38:E38">
     <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:E36">
-    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="B38:E38">
+    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:E36">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+  <conditionalFormatting sqref="B38:E38">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5635,9 +6129,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:CU70"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D9" sqref="D9"/>
+      <selection pane="topRight" activeCell="D10" sqref="D10:D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5651,452 +6145,452 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:99" ht="15" customHeight="1">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="169" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="135"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
-      <c r="M2" s="135"/>
-      <c r="N2" s="135"/>
-      <c r="O2" s="135"/>
-      <c r="P2" s="135"/>
-      <c r="Q2" s="135"/>
-      <c r="R2" s="135"/>
-      <c r="S2" s="135"/>
-      <c r="T2" s="135"/>
-      <c r="U2" s="135"/>
-      <c r="V2" s="135"/>
-      <c r="W2" s="135"/>
-      <c r="X2" s="135"/>
-      <c r="Y2" s="135"/>
-      <c r="Z2" s="135"/>
-      <c r="AA2" s="135"/>
-      <c r="AB2" s="135"/>
-      <c r="AC2" s="135"/>
-      <c r="AD2" s="135"/>
-      <c r="AE2" s="135"/>
-      <c r="AF2" s="135"/>
-      <c r="AG2" s="135"/>
-      <c r="AH2" s="135"/>
-      <c r="AI2" s="135"/>
-      <c r="AJ2" s="135"/>
-      <c r="AK2" s="135"/>
-      <c r="AL2" s="135"/>
-      <c r="AM2" s="135"/>
-      <c r="AN2" s="135"/>
-      <c r="AO2" s="135"/>
-      <c r="AP2" s="135"/>
-      <c r="AQ2" s="135"/>
-      <c r="AR2" s="135"/>
-      <c r="AS2" s="135"/>
-      <c r="AT2" s="135"/>
-      <c r="AU2" s="135"/>
-      <c r="AV2" s="135"/>
-      <c r="AW2" s="135"/>
-      <c r="AX2" s="135"/>
-      <c r="AY2" s="135"/>
-      <c r="AZ2" s="135"/>
-      <c r="BA2" s="135"/>
-      <c r="BB2" s="135"/>
-      <c r="BC2" s="135"/>
-      <c r="BD2" s="135"/>
-      <c r="BE2" s="135"/>
-      <c r="BF2" s="135"/>
-      <c r="BG2" s="135"/>
-      <c r="BH2" s="135"/>
-      <c r="BI2" s="135"/>
-      <c r="BJ2" s="135"/>
-      <c r="BK2" s="135"/>
-      <c r="BL2" s="135"/>
-      <c r="BM2" s="135"/>
-      <c r="BN2" s="135"/>
-      <c r="BO2" s="135"/>
-      <c r="BP2" s="135"/>
-      <c r="BQ2" s="135"/>
-      <c r="BR2" s="135"/>
-      <c r="BS2" s="135"/>
-      <c r="BT2" s="135"/>
-      <c r="BU2" s="135"/>
-      <c r="BV2" s="135"/>
-      <c r="BW2" s="135"/>
-      <c r="BX2" s="135"/>
-      <c r="BY2" s="135"/>
-      <c r="BZ2" s="135"/>
-      <c r="CA2" s="135"/>
-      <c r="CB2" s="135"/>
-      <c r="CC2" s="135"/>
-      <c r="CD2" s="135"/>
-      <c r="CE2" s="135"/>
-      <c r="CF2" s="135"/>
-      <c r="CG2" s="135"/>
-      <c r="CH2" s="135"/>
-      <c r="CI2" s="135"/>
-      <c r="CJ2" s="135"/>
-      <c r="CK2" s="135"/>
-      <c r="CL2" s="135"/>
-      <c r="CM2" s="135"/>
-      <c r="CN2" s="135"/>
-      <c r="CO2" s="135"/>
-      <c r="CP2" s="135"/>
-      <c r="CQ2" s="135"/>
-      <c r="CR2" s="135"/>
-      <c r="CS2" s="135"/>
-      <c r="CT2" s="135"/>
-      <c r="CU2" s="135"/>
+      <c r="B2" s="169"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="169"/>
+      <c r="H2" s="169"/>
+      <c r="I2" s="169"/>
+      <c r="J2" s="169"/>
+      <c r="K2" s="169"/>
+      <c r="L2" s="169"/>
+      <c r="M2" s="169"/>
+      <c r="N2" s="169"/>
+      <c r="O2" s="169"/>
+      <c r="P2" s="169"/>
+      <c r="Q2" s="169"/>
+      <c r="R2" s="169"/>
+      <c r="S2" s="169"/>
+      <c r="T2" s="169"/>
+      <c r="U2" s="169"/>
+      <c r="V2" s="169"/>
+      <c r="W2" s="169"/>
+      <c r="X2" s="169"/>
+      <c r="Y2" s="169"/>
+      <c r="Z2" s="169"/>
+      <c r="AA2" s="169"/>
+      <c r="AB2" s="169"/>
+      <c r="AC2" s="169"/>
+      <c r="AD2" s="169"/>
+      <c r="AE2" s="169"/>
+      <c r="AF2" s="169"/>
+      <c r="AG2" s="169"/>
+      <c r="AH2" s="169"/>
+      <c r="AI2" s="169"/>
+      <c r="AJ2" s="169"/>
+      <c r="AK2" s="169"/>
+      <c r="AL2" s="169"/>
+      <c r="AM2" s="169"/>
+      <c r="AN2" s="169"/>
+      <c r="AO2" s="169"/>
+      <c r="AP2" s="169"/>
+      <c r="AQ2" s="169"/>
+      <c r="AR2" s="169"/>
+      <c r="AS2" s="169"/>
+      <c r="AT2" s="169"/>
+      <c r="AU2" s="169"/>
+      <c r="AV2" s="169"/>
+      <c r="AW2" s="169"/>
+      <c r="AX2" s="169"/>
+      <c r="AY2" s="169"/>
+      <c r="AZ2" s="169"/>
+      <c r="BA2" s="169"/>
+      <c r="BB2" s="169"/>
+      <c r="BC2" s="169"/>
+      <c r="BD2" s="169"/>
+      <c r="BE2" s="169"/>
+      <c r="BF2" s="169"/>
+      <c r="BG2" s="169"/>
+      <c r="BH2" s="169"/>
+      <c r="BI2" s="169"/>
+      <c r="BJ2" s="169"/>
+      <c r="BK2" s="169"/>
+      <c r="BL2" s="169"/>
+      <c r="BM2" s="169"/>
+      <c r="BN2" s="169"/>
+      <c r="BO2" s="169"/>
+      <c r="BP2" s="169"/>
+      <c r="BQ2" s="169"/>
+      <c r="BR2" s="169"/>
+      <c r="BS2" s="169"/>
+      <c r="BT2" s="169"/>
+      <c r="BU2" s="169"/>
+      <c r="BV2" s="169"/>
+      <c r="BW2" s="169"/>
+      <c r="BX2" s="169"/>
+      <c r="BY2" s="169"/>
+      <c r="BZ2" s="169"/>
+      <c r="CA2" s="169"/>
+      <c r="CB2" s="169"/>
+      <c r="CC2" s="169"/>
+      <c r="CD2" s="169"/>
+      <c r="CE2" s="169"/>
+      <c r="CF2" s="169"/>
+      <c r="CG2" s="169"/>
+      <c r="CH2" s="169"/>
+      <c r="CI2" s="169"/>
+      <c r="CJ2" s="169"/>
+      <c r="CK2" s="169"/>
+      <c r="CL2" s="169"/>
+      <c r="CM2" s="169"/>
+      <c r="CN2" s="169"/>
+      <c r="CO2" s="169"/>
+      <c r="CP2" s="169"/>
+      <c r="CQ2" s="169"/>
+      <c r="CR2" s="169"/>
+      <c r="CS2" s="169"/>
+      <c r="CT2" s="169"/>
+      <c r="CU2" s="169"/>
     </row>
     <row r="3" spans="1:99" ht="15" customHeight="1">
-      <c r="A3" s="135"/>
-      <c r="B3" s="135"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
-      <c r="K3" s="135"/>
-      <c r="L3" s="135"/>
-      <c r="M3" s="135"/>
-      <c r="N3" s="135"/>
-      <c r="O3" s="135"/>
-      <c r="P3" s="135"/>
-      <c r="Q3" s="135"/>
-      <c r="R3" s="135"/>
-      <c r="S3" s="135"/>
-      <c r="T3" s="135"/>
-      <c r="U3" s="135"/>
-      <c r="V3" s="135"/>
-      <c r="W3" s="135"/>
-      <c r="X3" s="135"/>
-      <c r="Y3" s="135"/>
-      <c r="Z3" s="135"/>
-      <c r="AA3" s="135"/>
-      <c r="AB3" s="135"/>
-      <c r="AC3" s="135"/>
-      <c r="AD3" s="135"/>
-      <c r="AE3" s="135"/>
-      <c r="AF3" s="135"/>
-      <c r="AG3" s="135"/>
-      <c r="AH3" s="135"/>
-      <c r="AI3" s="135"/>
-      <c r="AJ3" s="135"/>
-      <c r="AK3" s="135"/>
-      <c r="AL3" s="135"/>
-      <c r="AM3" s="135"/>
-      <c r="AN3" s="135"/>
-      <c r="AO3" s="135"/>
-      <c r="AP3" s="135"/>
-      <c r="AQ3" s="135"/>
-      <c r="AR3" s="135"/>
-      <c r="AS3" s="135"/>
-      <c r="AT3" s="135"/>
-      <c r="AU3" s="135"/>
-      <c r="AV3" s="135"/>
-      <c r="AW3" s="135"/>
-      <c r="AX3" s="135"/>
-      <c r="AY3" s="135"/>
-      <c r="AZ3" s="135"/>
-      <c r="BA3" s="135"/>
-      <c r="BB3" s="135"/>
-      <c r="BC3" s="135"/>
-      <c r="BD3" s="135"/>
-      <c r="BE3" s="135"/>
-      <c r="BF3" s="135"/>
-      <c r="BG3" s="135"/>
-      <c r="BH3" s="135"/>
-      <c r="BI3" s="135"/>
-      <c r="BJ3" s="135"/>
-      <c r="BK3" s="135"/>
-      <c r="BL3" s="135"/>
-      <c r="BM3" s="135"/>
-      <c r="BN3" s="135"/>
-      <c r="BO3" s="135"/>
-      <c r="BP3" s="135"/>
-      <c r="BQ3" s="135"/>
-      <c r="BR3" s="135"/>
-      <c r="BS3" s="135"/>
-      <c r="BT3" s="135"/>
-      <c r="BU3" s="135"/>
-      <c r="BV3" s="135"/>
-      <c r="BW3" s="135"/>
-      <c r="BX3" s="135"/>
-      <c r="BY3" s="135"/>
-      <c r="BZ3" s="135"/>
-      <c r="CA3" s="135"/>
-      <c r="CB3" s="135"/>
-      <c r="CC3" s="135"/>
-      <c r="CD3" s="135"/>
-      <c r="CE3" s="135"/>
-      <c r="CF3" s="135"/>
-      <c r="CG3" s="135"/>
-      <c r="CH3" s="135"/>
-      <c r="CI3" s="135"/>
-      <c r="CJ3" s="135"/>
-      <c r="CK3" s="135"/>
-      <c r="CL3" s="135"/>
-      <c r="CM3" s="135"/>
-      <c r="CN3" s="135"/>
-      <c r="CO3" s="135"/>
-      <c r="CP3" s="135"/>
-      <c r="CQ3" s="135"/>
-      <c r="CR3" s="135"/>
-      <c r="CS3" s="135"/>
-      <c r="CT3" s="135"/>
-      <c r="CU3" s="135"/>
+      <c r="A3" s="169"/>
+      <c r="B3" s="169"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="169"/>
+      <c r="H3" s="169"/>
+      <c r="I3" s="169"/>
+      <c r="J3" s="169"/>
+      <c r="K3" s="169"/>
+      <c r="L3" s="169"/>
+      <c r="M3" s="169"/>
+      <c r="N3" s="169"/>
+      <c r="O3" s="169"/>
+      <c r="P3" s="169"/>
+      <c r="Q3" s="169"/>
+      <c r="R3" s="169"/>
+      <c r="S3" s="169"/>
+      <c r="T3" s="169"/>
+      <c r="U3" s="169"/>
+      <c r="V3" s="169"/>
+      <c r="W3" s="169"/>
+      <c r="X3" s="169"/>
+      <c r="Y3" s="169"/>
+      <c r="Z3" s="169"/>
+      <c r="AA3" s="169"/>
+      <c r="AB3" s="169"/>
+      <c r="AC3" s="169"/>
+      <c r="AD3" s="169"/>
+      <c r="AE3" s="169"/>
+      <c r="AF3" s="169"/>
+      <c r="AG3" s="169"/>
+      <c r="AH3" s="169"/>
+      <c r="AI3" s="169"/>
+      <c r="AJ3" s="169"/>
+      <c r="AK3" s="169"/>
+      <c r="AL3" s="169"/>
+      <c r="AM3" s="169"/>
+      <c r="AN3" s="169"/>
+      <c r="AO3" s="169"/>
+      <c r="AP3" s="169"/>
+      <c r="AQ3" s="169"/>
+      <c r="AR3" s="169"/>
+      <c r="AS3" s="169"/>
+      <c r="AT3" s="169"/>
+      <c r="AU3" s="169"/>
+      <c r="AV3" s="169"/>
+      <c r="AW3" s="169"/>
+      <c r="AX3" s="169"/>
+      <c r="AY3" s="169"/>
+      <c r="AZ3" s="169"/>
+      <c r="BA3" s="169"/>
+      <c r="BB3" s="169"/>
+      <c r="BC3" s="169"/>
+      <c r="BD3" s="169"/>
+      <c r="BE3" s="169"/>
+      <c r="BF3" s="169"/>
+      <c r="BG3" s="169"/>
+      <c r="BH3" s="169"/>
+      <c r="BI3" s="169"/>
+      <c r="BJ3" s="169"/>
+      <c r="BK3" s="169"/>
+      <c r="BL3" s="169"/>
+      <c r="BM3" s="169"/>
+      <c r="BN3" s="169"/>
+      <c r="BO3" s="169"/>
+      <c r="BP3" s="169"/>
+      <c r="BQ3" s="169"/>
+      <c r="BR3" s="169"/>
+      <c r="BS3" s="169"/>
+      <c r="BT3" s="169"/>
+      <c r="BU3" s="169"/>
+      <c r="BV3" s="169"/>
+      <c r="BW3" s="169"/>
+      <c r="BX3" s="169"/>
+      <c r="BY3" s="169"/>
+      <c r="BZ3" s="169"/>
+      <c r="CA3" s="169"/>
+      <c r="CB3" s="169"/>
+      <c r="CC3" s="169"/>
+      <c r="CD3" s="169"/>
+      <c r="CE3" s="169"/>
+      <c r="CF3" s="169"/>
+      <c r="CG3" s="169"/>
+      <c r="CH3" s="169"/>
+      <c r="CI3" s="169"/>
+      <c r="CJ3" s="169"/>
+      <c r="CK3" s="169"/>
+      <c r="CL3" s="169"/>
+      <c r="CM3" s="169"/>
+      <c r="CN3" s="169"/>
+      <c r="CO3" s="169"/>
+      <c r="CP3" s="169"/>
+      <c r="CQ3" s="169"/>
+      <c r="CR3" s="169"/>
+      <c r="CS3" s="169"/>
+      <c r="CT3" s="169"/>
+      <c r="CU3" s="169"/>
     </row>
     <row r="4" spans="1:99" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:99" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A5" s="202" t="s">
+      <c r="A5" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="205" t="s">
+      <c r="B5" s="180" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="205" t="s">
+      <c r="C5" s="180" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="206" t="s">
+      <c r="D5" s="181" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="207"/>
-      <c r="F5" s="207"/>
-      <c r="G5" s="207"/>
-      <c r="H5" s="207"/>
-      <c r="I5" s="207"/>
-      <c r="J5" s="207"/>
-      <c r="K5" s="207"/>
-      <c r="L5" s="207"/>
-      <c r="M5" s="207"/>
-      <c r="N5" s="207"/>
-      <c r="O5" s="207"/>
-      <c r="P5" s="207"/>
-      <c r="Q5" s="207"/>
-      <c r="R5" s="207"/>
-      <c r="S5" s="207"/>
-      <c r="T5" s="207"/>
-      <c r="U5" s="207"/>
-      <c r="V5" s="207"/>
-      <c r="W5" s="207"/>
-      <c r="X5" s="207"/>
-      <c r="Y5" s="207"/>
-      <c r="Z5" s="207"/>
-      <c r="AA5" s="207"/>
-      <c r="AB5" s="207"/>
-      <c r="AC5" s="207"/>
-      <c r="AD5" s="207"/>
-      <c r="AE5" s="207"/>
-      <c r="AF5" s="207"/>
-      <c r="AG5" s="207"/>
-      <c r="AH5" s="207"/>
-      <c r="AI5" s="207"/>
-      <c r="AJ5" s="207"/>
-      <c r="AK5" s="207"/>
-      <c r="AL5" s="207"/>
-      <c r="AM5" s="207"/>
-      <c r="AN5" s="207"/>
-      <c r="AO5" s="207"/>
-      <c r="AP5" s="207"/>
-      <c r="AQ5" s="207"/>
-      <c r="AR5" s="207"/>
-      <c r="AS5" s="207"/>
-      <c r="AT5" s="207"/>
-      <c r="AU5" s="207"/>
-      <c r="AV5" s="207"/>
-      <c r="AW5" s="207"/>
-      <c r="AX5" s="207"/>
-      <c r="AY5" s="207"/>
-      <c r="AZ5" s="207"/>
-      <c r="BA5" s="207"/>
-      <c r="BB5" s="207"/>
-      <c r="BC5" s="207"/>
-      <c r="BD5" s="208"/>
-      <c r="BE5" s="209" t="s">
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
+      <c r="J5" s="182"/>
+      <c r="K5" s="182"/>
+      <c r="L5" s="182"/>
+      <c r="M5" s="182"/>
+      <c r="N5" s="182"/>
+      <c r="O5" s="182"/>
+      <c r="P5" s="182"/>
+      <c r="Q5" s="182"/>
+      <c r="R5" s="182"/>
+      <c r="S5" s="182"/>
+      <c r="T5" s="182"/>
+      <c r="U5" s="182"/>
+      <c r="V5" s="182"/>
+      <c r="W5" s="182"/>
+      <c r="X5" s="182"/>
+      <c r="Y5" s="182"/>
+      <c r="Z5" s="182"/>
+      <c r="AA5" s="182"/>
+      <c r="AB5" s="182"/>
+      <c r="AC5" s="182"/>
+      <c r="AD5" s="182"/>
+      <c r="AE5" s="182"/>
+      <c r="AF5" s="182"/>
+      <c r="AG5" s="182"/>
+      <c r="AH5" s="182"/>
+      <c r="AI5" s="182"/>
+      <c r="AJ5" s="182"/>
+      <c r="AK5" s="182"/>
+      <c r="AL5" s="182"/>
+      <c r="AM5" s="182"/>
+      <c r="AN5" s="182"/>
+      <c r="AO5" s="182"/>
+      <c r="AP5" s="182"/>
+      <c r="AQ5" s="182"/>
+      <c r="AR5" s="182"/>
+      <c r="AS5" s="182"/>
+      <c r="AT5" s="182"/>
+      <c r="AU5" s="182"/>
+      <c r="AV5" s="182"/>
+      <c r="AW5" s="182"/>
+      <c r="AX5" s="182"/>
+      <c r="AY5" s="182"/>
+      <c r="AZ5" s="182"/>
+      <c r="BA5" s="182"/>
+      <c r="BB5" s="182"/>
+      <c r="BC5" s="182"/>
+      <c r="BD5" s="183"/>
+      <c r="BE5" s="184" t="s">
         <v>34</v>
       </c>
-      <c r="BF5" s="210"/>
-      <c r="BG5" s="210"/>
-      <c r="BH5" s="210"/>
-      <c r="BI5" s="210"/>
-      <c r="BJ5" s="210"/>
-      <c r="BK5" s="210"/>
-      <c r="BL5" s="210"/>
-      <c r="BM5" s="210"/>
-      <c r="BN5" s="210"/>
-      <c r="BO5" s="210"/>
-      <c r="BP5" s="210"/>
-      <c r="BQ5" s="210"/>
-      <c r="BR5" s="210"/>
-      <c r="BS5" s="210"/>
-      <c r="BT5" s="210"/>
-      <c r="BU5" s="210"/>
-      <c r="BV5" s="210"/>
-      <c r="BW5" s="210"/>
-      <c r="BX5" s="210"/>
-      <c r="BY5" s="210"/>
-      <c r="BZ5" s="210"/>
-      <c r="CA5" s="210"/>
-      <c r="CB5" s="210"/>
-      <c r="CC5" s="210"/>
-      <c r="CD5" s="210"/>
-      <c r="CE5" s="210"/>
-      <c r="CF5" s="210"/>
-      <c r="CG5" s="210"/>
-      <c r="CH5" s="210"/>
-      <c r="CI5" s="210"/>
-      <c r="CJ5" s="210"/>
-      <c r="CK5" s="210"/>
-      <c r="CL5" s="210"/>
-      <c r="CM5" s="210"/>
-      <c r="CN5" s="210"/>
-      <c r="CO5" s="210"/>
-      <c r="CP5" s="210"/>
-      <c r="CQ5" s="210"/>
-      <c r="CR5" s="211"/>
-      <c r="CS5" s="198" t="s">
+      <c r="BF5" s="185"/>
+      <c r="BG5" s="185"/>
+      <c r="BH5" s="185"/>
+      <c r="BI5" s="185"/>
+      <c r="BJ5" s="185"/>
+      <c r="BK5" s="185"/>
+      <c r="BL5" s="185"/>
+      <c r="BM5" s="185"/>
+      <c r="BN5" s="185"/>
+      <c r="BO5" s="185"/>
+      <c r="BP5" s="185"/>
+      <c r="BQ5" s="185"/>
+      <c r="BR5" s="185"/>
+      <c r="BS5" s="185"/>
+      <c r="BT5" s="185"/>
+      <c r="BU5" s="185"/>
+      <c r="BV5" s="185"/>
+      <c r="BW5" s="185"/>
+      <c r="BX5" s="185"/>
+      <c r="BY5" s="185"/>
+      <c r="BZ5" s="185"/>
+      <c r="CA5" s="185"/>
+      <c r="CB5" s="185"/>
+      <c r="CC5" s="185"/>
+      <c r="CD5" s="185"/>
+      <c r="CE5" s="185"/>
+      <c r="CF5" s="185"/>
+      <c r="CG5" s="185"/>
+      <c r="CH5" s="185"/>
+      <c r="CI5" s="185"/>
+      <c r="CJ5" s="185"/>
+      <c r="CK5" s="185"/>
+      <c r="CL5" s="185"/>
+      <c r="CM5" s="185"/>
+      <c r="CN5" s="185"/>
+      <c r="CO5" s="185"/>
+      <c r="CP5" s="185"/>
+      <c r="CQ5" s="185"/>
+      <c r="CR5" s="186"/>
+      <c r="CS5" s="191" t="s">
         <v>35</v>
       </c>
-      <c r="CT5" s="199"/>
-      <c r="CU5" s="200"/>
+      <c r="CT5" s="192"/>
+      <c r="CU5" s="193"/>
     </row>
     <row r="6" spans="1:99" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="203"/>
-      <c r="B6" s="205"/>
-      <c r="C6" s="205"/>
-      <c r="D6" s="181" t="s">
+      <c r="A6" s="178"/>
+      <c r="B6" s="180"/>
+      <c r="C6" s="180"/>
+      <c r="D6" s="211" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
-      <c r="J6" s="184" t="s">
+      <c r="E6" s="212"/>
+      <c r="F6" s="212"/>
+      <c r="G6" s="212"/>
+      <c r="H6" s="212"/>
+      <c r="I6" s="212"/>
+      <c r="J6" s="197" t="s">
         <v>140</v>
       </c>
-      <c r="K6" s="184"/>
-      <c r="L6" s="184"/>
-      <c r="M6" s="184"/>
-      <c r="N6" s="184"/>
-      <c r="O6" s="184"/>
-      <c r="P6" s="184"/>
-      <c r="Q6" s="184"/>
-      <c r="R6" s="184"/>
-      <c r="S6" s="184"/>
-      <c r="T6" s="184"/>
-      <c r="U6" s="184"/>
-      <c r="V6" s="184"/>
-      <c r="W6" s="184"/>
-      <c r="X6" s="184"/>
-      <c r="Y6" s="184"/>
-      <c r="Z6" s="184"/>
-      <c r="AA6" s="184"/>
-      <c r="AB6" s="184"/>
-      <c r="AC6" s="184"/>
-      <c r="AD6" s="184"/>
-      <c r="AE6" s="184"/>
-      <c r="AF6" s="184"/>
-      <c r="AG6" s="184"/>
-      <c r="AH6" s="184"/>
-      <c r="AI6" s="184"/>
-      <c r="AJ6" s="184"/>
-      <c r="AK6" s="184"/>
-      <c r="AL6" s="184"/>
-      <c r="AM6" s="184"/>
-      <c r="AN6" s="184"/>
-      <c r="AO6" s="184" t="s">
+      <c r="K6" s="197"/>
+      <c r="L6" s="197"/>
+      <c r="M6" s="197"/>
+      <c r="N6" s="197"/>
+      <c r="O6" s="197"/>
+      <c r="P6" s="197"/>
+      <c r="Q6" s="197"/>
+      <c r="R6" s="197"/>
+      <c r="S6" s="197"/>
+      <c r="T6" s="197"/>
+      <c r="U6" s="197"/>
+      <c r="V6" s="197"/>
+      <c r="W6" s="197"/>
+      <c r="X6" s="197"/>
+      <c r="Y6" s="197"/>
+      <c r="Z6" s="197"/>
+      <c r="AA6" s="197"/>
+      <c r="AB6" s="197"/>
+      <c r="AC6" s="197"/>
+      <c r="AD6" s="197"/>
+      <c r="AE6" s="197"/>
+      <c r="AF6" s="197"/>
+      <c r="AG6" s="197"/>
+      <c r="AH6" s="197"/>
+      <c r="AI6" s="197"/>
+      <c r="AJ6" s="197"/>
+      <c r="AK6" s="197"/>
+      <c r="AL6" s="197"/>
+      <c r="AM6" s="197"/>
+      <c r="AN6" s="197"/>
+      <c r="AO6" s="197" t="s">
         <v>141</v>
       </c>
-      <c r="AP6" s="184"/>
-      <c r="AQ6" s="184"/>
-      <c r="AR6" s="184"/>
-      <c r="AS6" s="184" t="s">
+      <c r="AP6" s="197"/>
+      <c r="AQ6" s="197"/>
+      <c r="AR6" s="197"/>
+      <c r="AS6" s="197" t="s">
         <v>37</v>
       </c>
-      <c r="AT6" s="184"/>
-      <c r="AU6" s="184"/>
-      <c r="AV6" s="184" t="s">
+      <c r="AT6" s="197"/>
+      <c r="AU6" s="197"/>
+      <c r="AV6" s="197" t="s">
         <v>38</v>
       </c>
-      <c r="AW6" s="184"/>
-      <c r="AX6" s="184"/>
-      <c r="AY6" s="184"/>
-      <c r="AZ6" s="184"/>
-      <c r="BA6" s="184"/>
-      <c r="BB6" s="184"/>
-      <c r="BC6" s="191" t="s">
+      <c r="AW6" s="197"/>
+      <c r="AX6" s="197"/>
+      <c r="AY6" s="197"/>
+      <c r="AZ6" s="197"/>
+      <c r="BA6" s="197"/>
+      <c r="BB6" s="197"/>
+      <c r="BC6" s="201" t="s">
         <v>39</v>
       </c>
-      <c r="BD6" s="192"/>
-      <c r="BE6" s="193" t="s">
+      <c r="BD6" s="202"/>
+      <c r="BE6" s="203" t="s">
         <v>102</v>
       </c>
-      <c r="BF6" s="194"/>
-      <c r="BG6" s="194"/>
-      <c r="BH6" s="194"/>
-      <c r="BI6" s="194"/>
-      <c r="BJ6" s="194"/>
-      <c r="BK6" s="195"/>
-      <c r="BL6" s="196" t="s">
+      <c r="BF6" s="204"/>
+      <c r="BG6" s="204"/>
+      <c r="BH6" s="204"/>
+      <c r="BI6" s="204"/>
+      <c r="BJ6" s="204"/>
+      <c r="BK6" s="205"/>
+      <c r="BL6" s="206" t="s">
         <v>103</v>
       </c>
-      <c r="BM6" s="194"/>
-      <c r="BN6" s="194"/>
-      <c r="BO6" s="194"/>
-      <c r="BP6" s="194"/>
-      <c r="BQ6" s="194"/>
-      <c r="BR6" s="194"/>
-      <c r="BS6" s="194"/>
-      <c r="BT6" s="194"/>
-      <c r="BU6" s="194"/>
-      <c r="BV6" s="194"/>
-      <c r="BW6" s="194"/>
-      <c r="BX6" s="194"/>
-      <c r="BY6" s="194"/>
-      <c r="BZ6" s="194"/>
-      <c r="CA6" s="194"/>
-      <c r="CB6" s="194"/>
-      <c r="CC6" s="194"/>
-      <c r="CD6" s="194"/>
-      <c r="CE6" s="194"/>
-      <c r="CF6" s="194"/>
-      <c r="CG6" s="194"/>
-      <c r="CH6" s="194"/>
-      <c r="CI6" s="194"/>
-      <c r="CJ6" s="194"/>
-      <c r="CK6" s="194"/>
-      <c r="CL6" s="194"/>
-      <c r="CM6" s="194"/>
-      <c r="CN6" s="194"/>
-      <c r="CO6" s="194"/>
-      <c r="CP6" s="194"/>
-      <c r="CQ6" s="201" t="s">
+      <c r="BM6" s="204"/>
+      <c r="BN6" s="204"/>
+      <c r="BO6" s="204"/>
+      <c r="BP6" s="204"/>
+      <c r="BQ6" s="204"/>
+      <c r="BR6" s="204"/>
+      <c r="BS6" s="204"/>
+      <c r="BT6" s="204"/>
+      <c r="BU6" s="204"/>
+      <c r="BV6" s="204"/>
+      <c r="BW6" s="204"/>
+      <c r="BX6" s="204"/>
+      <c r="BY6" s="204"/>
+      <c r="BZ6" s="204"/>
+      <c r="CA6" s="204"/>
+      <c r="CB6" s="204"/>
+      <c r="CC6" s="204"/>
+      <c r="CD6" s="204"/>
+      <c r="CE6" s="204"/>
+      <c r="CF6" s="204"/>
+      <c r="CG6" s="204"/>
+      <c r="CH6" s="204"/>
+      <c r="CI6" s="204"/>
+      <c r="CJ6" s="204"/>
+      <c r="CK6" s="204"/>
+      <c r="CL6" s="204"/>
+      <c r="CM6" s="204"/>
+      <c r="CN6" s="204"/>
+      <c r="CO6" s="204"/>
+      <c r="CP6" s="204"/>
+      <c r="CQ6" s="194" t="s">
         <v>40</v>
       </c>
-      <c r="CR6" s="201"/>
-      <c r="CS6" s="197" t="s">
+      <c r="CR6" s="194"/>
+      <c r="CS6" s="176" t="s">
         <v>41</v>
       </c>
-      <c r="CT6" s="197" t="s">
+      <c r="CT6" s="176" t="s">
         <v>42</v>
       </c>
-      <c r="CU6" s="188" t="s">
+      <c r="CU6" s="198" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A7" s="203"/>
-      <c r="B7" s="205"/>
-      <c r="C7" s="205"/>
+      <c r="A7" s="178"/>
+      <c r="B7" s="180"/>
+      <c r="C7" s="180"/>
       <c r="E7" s="123"/>
       <c r="F7" s="122">
         <v>0.3</v>
@@ -6105,319 +6599,319 @@
       <c r="I7" s="123">
         <v>0.3</v>
       </c>
-      <c r="J7" s="183"/>
-      <c r="K7" s="183"/>
-      <c r="L7" s="183"/>
-      <c r="M7" s="183"/>
-      <c r="N7" s="183"/>
-      <c r="O7" s="183"/>
-      <c r="P7" s="183"/>
-      <c r="Q7" s="183"/>
-      <c r="R7" s="183"/>
-      <c r="S7" s="183"/>
-      <c r="T7" s="187">
+      <c r="J7" s="189"/>
+      <c r="K7" s="189"/>
+      <c r="L7" s="189"/>
+      <c r="M7" s="189"/>
+      <c r="N7" s="189"/>
+      <c r="O7" s="189"/>
+      <c r="P7" s="189"/>
+      <c r="Q7" s="189"/>
+      <c r="R7" s="189"/>
+      <c r="S7" s="189"/>
+      <c r="T7" s="190">
         <f>COUNT(J9,L9,N9,P9,R9,T9)</f>
         <v>0</v>
       </c>
-      <c r="U7" s="187"/>
-      <c r="V7" s="183"/>
-      <c r="W7" s="183"/>
-      <c r="X7" s="183"/>
-      <c r="Y7" s="183"/>
-      <c r="Z7" s="183"/>
-      <c r="AA7" s="183"/>
-      <c r="AB7" s="183"/>
-      <c r="AC7" s="183"/>
-      <c r="AD7" s="183"/>
-      <c r="AE7" s="183"/>
-      <c r="AF7" s="183"/>
-      <c r="AG7" s="183"/>
-      <c r="AH7" s="183"/>
-      <c r="AI7" s="183"/>
-      <c r="AJ7" s="183"/>
-      <c r="AK7" s="183"/>
-      <c r="AL7" s="183"/>
-      <c r="AM7" s="183"/>
+      <c r="U7" s="190"/>
+      <c r="V7" s="189"/>
+      <c r="W7" s="189"/>
+      <c r="X7" s="189"/>
+      <c r="Y7" s="189"/>
+      <c r="Z7" s="189"/>
+      <c r="AA7" s="189"/>
+      <c r="AB7" s="189"/>
+      <c r="AC7" s="189"/>
+      <c r="AD7" s="189"/>
+      <c r="AE7" s="189"/>
+      <c r="AF7" s="189"/>
+      <c r="AG7" s="189"/>
+      <c r="AH7" s="189"/>
+      <c r="AI7" s="189"/>
+      <c r="AJ7" s="189"/>
+      <c r="AK7" s="189"/>
+      <c r="AL7" s="189"/>
+      <c r="AM7" s="189"/>
       <c r="AN7" s="96">
         <v>0.2</v>
       </c>
-      <c r="AO7" s="183"/>
-      <c r="AP7" s="183"/>
-      <c r="AQ7" s="183"/>
-      <c r="AR7" s="183"/>
-      <c r="AS7" s="187">
+      <c r="AO7" s="189"/>
+      <c r="AP7" s="189"/>
+      <c r="AQ7" s="189"/>
+      <c r="AR7" s="189"/>
+      <c r="AS7" s="190">
         <f>COUNT(AO9,AQ9,AS9)</f>
         <v>0</v>
       </c>
-      <c r="AT7" s="187"/>
+      <c r="AT7" s="190"/>
       <c r="AU7" s="20">
         <v>0.1</v>
       </c>
-      <c r="AV7" s="183"/>
-      <c r="AW7" s="183"/>
-      <c r="AX7" s="183"/>
-      <c r="AY7" s="183"/>
-      <c r="AZ7" s="187">
+      <c r="AV7" s="189"/>
+      <c r="AW7" s="189"/>
+      <c r="AX7" s="189"/>
+      <c r="AY7" s="189"/>
+      <c r="AZ7" s="190">
         <f>COUNT(AV9,AX9,AZ9)</f>
         <v>0</v>
       </c>
-      <c r="BA7" s="187"/>
+      <c r="BA7" s="190"/>
       <c r="BB7" s="21">
         <v>0.1</v>
       </c>
-      <c r="BC7" s="191"/>
-      <c r="BD7" s="192"/>
-      <c r="BE7" s="183"/>
-      <c r="BF7" s="183"/>
-      <c r="BG7" s="183"/>
-      <c r="BH7" s="183"/>
-      <c r="BI7" s="187">
+      <c r="BC7" s="201"/>
+      <c r="BD7" s="202"/>
+      <c r="BE7" s="189"/>
+      <c r="BF7" s="189"/>
+      <c r="BG7" s="189"/>
+      <c r="BH7" s="189"/>
+      <c r="BI7" s="190">
         <f>COUNT(BE9,BG9,BI9)</f>
         <v>0</v>
       </c>
-      <c r="BJ7" s="187"/>
+      <c r="BJ7" s="190"/>
       <c r="BK7" s="104">
         <v>0.5</v>
       </c>
-      <c r="BL7" s="183"/>
-      <c r="BM7" s="183"/>
-      <c r="BN7" s="183"/>
-      <c r="BO7" s="183"/>
-      <c r="BP7" s="183"/>
-      <c r="BQ7" s="183"/>
-      <c r="BR7" s="183"/>
-      <c r="BS7" s="183"/>
-      <c r="BT7" s="183"/>
-      <c r="BU7" s="183"/>
-      <c r="BV7" s="183"/>
-      <c r="BW7" s="183"/>
-      <c r="BX7" s="183"/>
-      <c r="BY7" s="183"/>
-      <c r="BZ7" s="183"/>
-      <c r="CA7" s="183"/>
-      <c r="CB7" s="183"/>
-      <c r="CC7" s="183"/>
-      <c r="CD7" s="183"/>
-      <c r="CE7" s="183"/>
-      <c r="CF7" s="183"/>
-      <c r="CG7" s="183"/>
-      <c r="CH7" s="183"/>
-      <c r="CI7" s="183"/>
-      <c r="CJ7" s="183"/>
-      <c r="CK7" s="183"/>
-      <c r="CL7" s="183"/>
-      <c r="CM7" s="183"/>
-      <c r="CN7" s="187">
+      <c r="BL7" s="189"/>
+      <c r="BM7" s="189"/>
+      <c r="BN7" s="189"/>
+      <c r="BO7" s="189"/>
+      <c r="BP7" s="189"/>
+      <c r="BQ7" s="189"/>
+      <c r="BR7" s="189"/>
+      <c r="BS7" s="189"/>
+      <c r="BT7" s="189"/>
+      <c r="BU7" s="189"/>
+      <c r="BV7" s="189"/>
+      <c r="BW7" s="189"/>
+      <c r="BX7" s="189"/>
+      <c r="BY7" s="189"/>
+      <c r="BZ7" s="189"/>
+      <c r="CA7" s="189"/>
+      <c r="CB7" s="189"/>
+      <c r="CC7" s="189"/>
+      <c r="CD7" s="189"/>
+      <c r="CE7" s="189"/>
+      <c r="CF7" s="189"/>
+      <c r="CG7" s="189"/>
+      <c r="CH7" s="189"/>
+      <c r="CI7" s="189"/>
+      <c r="CJ7" s="189"/>
+      <c r="CK7" s="189"/>
+      <c r="CL7" s="189"/>
+      <c r="CM7" s="189"/>
+      <c r="CN7" s="190">
         <f>COUNT(CN9,CL9,CJ9,CH9,CF9,CD9,CB9,BZ9,BX9,BV9,BT9,BR9,BP9,BN9,BL9)</f>
         <v>0</v>
       </c>
-      <c r="CO7" s="187"/>
+      <c r="CO7" s="190"/>
       <c r="CP7" s="105">
         <v>0.5</v>
       </c>
-      <c r="CQ7" s="201"/>
-      <c r="CR7" s="201"/>
-      <c r="CS7" s="197"/>
-      <c r="CT7" s="197"/>
-      <c r="CU7" s="189"/>
+      <c r="CQ7" s="194"/>
+      <c r="CR7" s="194"/>
+      <c r="CS7" s="176"/>
+      <c r="CT7" s="176"/>
+      <c r="CU7" s="199"/>
     </row>
     <row r="8" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A8" s="203"/>
-      <c r="B8" s="205"/>
-      <c r="C8" s="205"/>
-      <c r="D8" s="212" t="s">
+      <c r="A8" s="178"/>
+      <c r="B8" s="180"/>
+      <c r="C8" s="180"/>
+      <c r="D8" s="187" t="s">
         <v>157</v>
       </c>
-      <c r="E8" s="212"/>
-      <c r="F8" s="212"/>
-      <c r="G8" s="212" t="s">
+      <c r="E8" s="187"/>
+      <c r="F8" s="187"/>
+      <c r="G8" s="187" t="s">
         <v>158</v>
       </c>
-      <c r="H8" s="212"/>
-      <c r="I8" s="212"/>
-      <c r="J8" s="176" t="s">
+      <c r="H8" s="187"/>
+      <c r="I8" s="187"/>
+      <c r="J8" s="188" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="176"/>
-      <c r="L8" s="176" t="s">
+      <c r="K8" s="188"/>
+      <c r="L8" s="188" t="s">
         <v>49</v>
       </c>
-      <c r="M8" s="176"/>
-      <c r="N8" s="176" t="s">
+      <c r="M8" s="188"/>
+      <c r="N8" s="188" t="s">
         <v>50</v>
       </c>
-      <c r="O8" s="176"/>
-      <c r="P8" s="176" t="s">
+      <c r="O8" s="188"/>
+      <c r="P8" s="188" t="s">
         <v>51</v>
       </c>
-      <c r="Q8" s="176"/>
-      <c r="R8" s="176" t="s">
+      <c r="Q8" s="188"/>
+      <c r="R8" s="188" t="s">
         <v>52</v>
       </c>
-      <c r="S8" s="176"/>
-      <c r="T8" s="176" t="s">
+      <c r="S8" s="188"/>
+      <c r="T8" s="188" t="s">
         <v>53</v>
       </c>
-      <c r="U8" s="176"/>
-      <c r="V8" s="176" t="s">
+      <c r="U8" s="188"/>
+      <c r="V8" s="188" t="s">
         <v>54</v>
       </c>
-      <c r="W8" s="176"/>
-      <c r="X8" s="176" t="s">
+      <c r="W8" s="188"/>
+      <c r="X8" s="188" t="s">
         <v>55</v>
       </c>
-      <c r="Y8" s="176"/>
-      <c r="Z8" s="176" t="s">
+      <c r="Y8" s="188"/>
+      <c r="Z8" s="188" t="s">
         <v>56</v>
       </c>
-      <c r="AA8" s="176"/>
-      <c r="AB8" s="176" t="s">
+      <c r="AA8" s="188"/>
+      <c r="AB8" s="188" t="s">
         <v>57</v>
       </c>
-      <c r="AC8" s="176"/>
-      <c r="AD8" s="176" t="s">
+      <c r="AC8" s="188"/>
+      <c r="AD8" s="188" t="s">
         <v>58</v>
       </c>
-      <c r="AE8" s="176"/>
-      <c r="AF8" s="176" t="s">
+      <c r="AE8" s="188"/>
+      <c r="AF8" s="188" t="s">
         <v>59</v>
       </c>
-      <c r="AG8" s="176"/>
-      <c r="AH8" s="176" t="s">
+      <c r="AG8" s="188"/>
+      <c r="AH8" s="188" t="s">
         <v>60</v>
       </c>
-      <c r="AI8" s="176"/>
-      <c r="AJ8" s="176" t="s">
+      <c r="AI8" s="188"/>
+      <c r="AJ8" s="188" t="s">
         <v>61</v>
       </c>
-      <c r="AK8" s="176"/>
-      <c r="AL8" s="176" t="s">
+      <c r="AK8" s="188"/>
+      <c r="AL8" s="188" t="s">
         <v>62</v>
       </c>
-      <c r="AM8" s="176"/>
+      <c r="AM8" s="188"/>
       <c r="AN8" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="AO8" s="176" t="s">
+      <c r="AO8" s="188" t="s">
         <v>64</v>
       </c>
-      <c r="AP8" s="176"/>
-      <c r="AQ8" s="176" t="s">
+      <c r="AP8" s="188"/>
+      <c r="AQ8" s="188" t="s">
         <v>65</v>
       </c>
-      <c r="AR8" s="176"/>
-      <c r="AS8" s="176" t="s">
+      <c r="AR8" s="188"/>
+      <c r="AS8" s="188" t="s">
         <v>66</v>
       </c>
-      <c r="AT8" s="176"/>
+      <c r="AT8" s="188"/>
       <c r="AU8" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="AV8" s="176" t="s">
+      <c r="AV8" s="188" t="s">
         <v>68</v>
       </c>
-      <c r="AW8" s="176"/>
-      <c r="AX8" s="176" t="s">
+      <c r="AW8" s="188"/>
+      <c r="AX8" s="188" t="s">
         <v>69</v>
       </c>
-      <c r="AY8" s="176"/>
-      <c r="AZ8" s="176" t="s">
+      <c r="AY8" s="188"/>
+      <c r="AZ8" s="188" t="s">
         <v>70</v>
       </c>
-      <c r="BA8" s="176"/>
+      <c r="BA8" s="188"/>
       <c r="BB8" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="BC8" s="191"/>
-      <c r="BD8" s="192"/>
-      <c r="BE8" s="186" t="s">
+      <c r="BC8" s="201"/>
+      <c r="BD8" s="202"/>
+      <c r="BE8" s="210" t="s">
         <v>44</v>
       </c>
-      <c r="BF8" s="185"/>
-      <c r="BG8" s="185" t="s">
+      <c r="BF8" s="207"/>
+      <c r="BG8" s="207" t="s">
         <v>45</v>
       </c>
-      <c r="BH8" s="185"/>
-      <c r="BI8" s="185" t="s">
+      <c r="BH8" s="207"/>
+      <c r="BI8" s="207" t="s">
         <v>46</v>
       </c>
-      <c r="BJ8" s="185"/>
+      <c r="BJ8" s="207"/>
       <c r="BK8" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="BL8" s="179" t="s">
+      <c r="BL8" s="208" t="s">
         <v>72</v>
       </c>
-      <c r="BM8" s="180"/>
-      <c r="BN8" s="179" t="s">
+      <c r="BM8" s="209"/>
+      <c r="BN8" s="208" t="s">
         <v>73</v>
       </c>
-      <c r="BO8" s="180"/>
-      <c r="BP8" s="179" t="s">
+      <c r="BO8" s="209"/>
+      <c r="BP8" s="208" t="s">
         <v>74</v>
       </c>
-      <c r="BQ8" s="180"/>
-      <c r="BR8" s="179" t="s">
+      <c r="BQ8" s="209"/>
+      <c r="BR8" s="208" t="s">
         <v>75</v>
       </c>
-      <c r="BS8" s="180"/>
-      <c r="BT8" s="179" t="s">
+      <c r="BS8" s="209"/>
+      <c r="BT8" s="208" t="s">
         <v>76</v>
       </c>
-      <c r="BU8" s="180"/>
-      <c r="BV8" s="177" t="s">
+      <c r="BU8" s="209"/>
+      <c r="BV8" s="195" t="s">
         <v>77</v>
       </c>
-      <c r="BW8" s="178"/>
-      <c r="BX8" s="177" t="s">
+      <c r="BW8" s="196"/>
+      <c r="BX8" s="195" t="s">
         <v>78</v>
       </c>
-      <c r="BY8" s="178"/>
-      <c r="BZ8" s="177" t="s">
+      <c r="BY8" s="196"/>
+      <c r="BZ8" s="195" t="s">
         <v>79</v>
       </c>
-      <c r="CA8" s="178"/>
-      <c r="CB8" s="177" t="s">
+      <c r="CA8" s="196"/>
+      <c r="CB8" s="195" t="s">
         <v>80</v>
       </c>
-      <c r="CC8" s="178"/>
-      <c r="CD8" s="177" t="s">
+      <c r="CC8" s="196"/>
+      <c r="CD8" s="195" t="s">
         <v>81</v>
       </c>
-      <c r="CE8" s="178"/>
-      <c r="CF8" s="177" t="s">
+      <c r="CE8" s="196"/>
+      <c r="CF8" s="195" t="s">
         <v>82</v>
       </c>
-      <c r="CG8" s="178"/>
-      <c r="CH8" s="177" t="s">
+      <c r="CG8" s="196"/>
+      <c r="CH8" s="195" t="s">
         <v>83</v>
       </c>
-      <c r="CI8" s="178"/>
-      <c r="CJ8" s="177" t="s">
+      <c r="CI8" s="196"/>
+      <c r="CJ8" s="195" t="s">
         <v>84</v>
       </c>
-      <c r="CK8" s="178"/>
-      <c r="CL8" s="177" t="s">
+      <c r="CK8" s="196"/>
+      <c r="CL8" s="195" t="s">
         <v>85</v>
       </c>
-      <c r="CM8" s="178"/>
-      <c r="CN8" s="177" t="s">
+      <c r="CM8" s="196"/>
+      <c r="CN8" s="195" t="s">
         <v>86</v>
       </c>
-      <c r="CO8" s="178"/>
+      <c r="CO8" s="196"/>
       <c r="CP8" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="CQ8" s="201"/>
-      <c r="CR8" s="201"/>
-      <c r="CS8" s="197"/>
-      <c r="CT8" s="197"/>
-      <c r="CU8" s="189"/>
+      <c r="CQ8" s="194"/>
+      <c r="CR8" s="194"/>
+      <c r="CS8" s="176"/>
+      <c r="CT8" s="176"/>
+      <c r="CU8" s="199"/>
     </row>
     <row r="9" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A9" s="204"/>
-      <c r="B9" s="205"/>
-      <c r="C9" s="205"/>
+      <c r="A9" s="179"/>
+      <c r="B9" s="180"/>
+      <c r="C9" s="180"/>
       <c r="D9" s="26">
         <v>70</v>
       </c>
@@ -6571,9 +7065,9 @@
       <c r="CR9" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="CS9" s="197"/>
-      <c r="CT9" s="197"/>
-      <c r="CU9" s="190"/>
+      <c r="CS9" s="176"/>
+      <c r="CT9" s="176"/>
+      <c r="CU9" s="200"/>
     </row>
     <row r="10" spans="1:99">
       <c r="A10" s="41">
@@ -6588,14 +7082,16 @@
         <f>CONCATENATE(REGISTRATION!C11," ",REGISTRATION!D11," ",REGISTRATION!E11)</f>
         <v>Aguilo Decierenze S</v>
       </c>
-      <c r="D10" s="106"/>
+      <c r="D10" s="106">
+        <v>30</v>
+      </c>
       <c r="E10" s="91">
         <f>(D10/$D$9)*100</f>
-        <v>0</v>
+        <v>42.857142857142854</v>
       </c>
       <c r="F10" s="94">
         <f t="shared" ref="F10:F41" si="0">IFERROR((E10*$F$7), " ")</f>
-        <v>0</v>
+        <v>12.857142857142856</v>
       </c>
       <c r="G10" s="106"/>
       <c r="H10" s="91" t="e">
@@ -6698,11 +7194,11 @@
       </c>
       <c r="BC10" s="97">
         <f>IFERROR(SUM(BB10,AU10,AN10,I10,F10),"")</f>
-        <v>0</v>
+        <v>12.857142857142856</v>
       </c>
       <c r="BD10" s="97">
         <f>IFERROR(ROUND(BC10,2),"")</f>
-        <v>0</v>
+        <v>12.86</v>
       </c>
       <c r="BE10" s="106"/>
       <c r="BF10" s="91" t="str">
@@ -6812,7 +7308,7 @@
       </c>
       <c r="CS10" s="103">
         <f>IFERROR(((CR10*0.6)+(BD10*0.4)),"")</f>
-        <v>0</v>
+        <v>5.1440000000000001</v>
       </c>
       <c r="CT10" s="103">
         <f>IFERROR(VLOOKUP(CS10,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -6836,14 +7332,16 @@
         <f>CONCATENATE(REGISTRATION!C12," ",REGISTRATION!D12," ",REGISTRATION!E12)</f>
         <v xml:space="preserve">Alburo Monique Angela </v>
       </c>
-      <c r="D11" s="107"/>
+      <c r="D11" s="107">
+        <v>40</v>
+      </c>
       <c r="E11" s="91">
         <f>(D11/$D$9)*100</f>
-        <v>0</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="F11" s="94">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17.142857142857142</v>
       </c>
       <c r="G11" s="107"/>
       <c r="H11" s="91" t="e">
@@ -6946,11 +7444,11 @@
       </c>
       <c r="BC11" s="97">
         <f t="shared" ref="BC11:BC70" si="18">IFERROR(SUM(BB11,AU11,AN11,I11,F11),"")</f>
-        <v>0</v>
+        <v>17.142857142857142</v>
       </c>
       <c r="BD11" s="97">
         <f t="shared" ref="BD11:BD70" si="19">IFERROR(ROUND(BC11,2),"")</f>
-        <v>0</v>
+        <v>17.14</v>
       </c>
       <c r="BE11" s="107"/>
       <c r="BF11" s="91" t="str">
@@ -7060,7 +7558,7 @@
       </c>
       <c r="CS11" s="103">
         <f t="shared" ref="CS11:CS22" si="41">IFERROR(((CR11*0.6)+(BD11*0.4)),"")</f>
-        <v>0</v>
+        <v>6.8560000000000008</v>
       </c>
       <c r="CT11" s="103">
         <f>IFERROR(VLOOKUP(CS11,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -7084,14 +7582,16 @@
         <f>CONCATENATE(REGISTRATION!C13," ",REGISTRATION!D13," ",REGISTRATION!E13)</f>
         <v>Ambojia Arianne May D</v>
       </c>
-      <c r="D12" s="107"/>
+      <c r="D12" s="107">
+        <v>38</v>
+      </c>
       <c r="E12" s="91">
         <f t="shared" ref="E12:E70" si="43">(D12/$D$9)*100</f>
-        <v>0</v>
+        <v>54.285714285714285</v>
       </c>
       <c r="F12" s="94">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16.285714285714285</v>
       </c>
       <c r="G12" s="107"/>
       <c r="H12" s="91" t="e">
@@ -7194,11 +7694,11 @@
       </c>
       <c r="BC12" s="97">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>16.285714285714285</v>
       </c>
       <c r="BD12" s="97">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>16.29</v>
       </c>
       <c r="BE12" s="107"/>
       <c r="BF12" s="91" t="str">
@@ -7308,7 +7808,7 @@
       </c>
       <c r="CS12" s="103">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>6.516</v>
       </c>
       <c r="CT12" s="103">
         <f>IFERROR(VLOOKUP(CS12,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -7332,14 +7832,16 @@
         <f>CONCATENATE(REGISTRATION!C14," ",REGISTRATION!D14," ",REGISTRATION!E14)</f>
         <v>Ambos Dyesebel G</v>
       </c>
-      <c r="D13" s="107"/>
+      <c r="D13" s="107">
+        <v>38</v>
+      </c>
       <c r="E13" s="91">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>54.285714285714285</v>
       </c>
       <c r="F13" s="94">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16.285714285714285</v>
       </c>
       <c r="G13" s="107"/>
       <c r="H13" s="91" t="e">
@@ -7442,11 +7944,11 @@
       </c>
       <c r="BC13" s="97">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>16.285714285714285</v>
       </c>
       <c r="BD13" s="97">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>16.29</v>
       </c>
       <c r="BE13" s="107"/>
       <c r="BF13" s="91" t="str">
@@ -7556,7 +8058,7 @@
       </c>
       <c r="CS13" s="103">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>6.516</v>
       </c>
       <c r="CT13" s="103">
         <f>IFERROR(VLOOKUP(CS13,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -7580,14 +8082,16 @@
         <f>CONCATENATE(REGISTRATION!C15," ",REGISTRATION!D15," ",REGISTRATION!E15)</f>
         <v>Andrade Jomer R</v>
       </c>
-      <c r="D14" s="107"/>
+      <c r="D14" s="107">
+        <v>32</v>
+      </c>
       <c r="E14" s="91">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="F14" s="94">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13.714285714285714</v>
       </c>
       <c r="G14" s="107"/>
       <c r="H14" s="91" t="e">
@@ -7690,11 +8194,11 @@
       </c>
       <c r="BC14" s="97">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>13.714285714285714</v>
       </c>
       <c r="BD14" s="97">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>13.71</v>
       </c>
       <c r="BE14" s="107"/>
       <c r="BF14" s="91" t="str">
@@ -7804,7 +8308,7 @@
       </c>
       <c r="CS14" s="103">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>5.4840000000000009</v>
       </c>
       <c r="CT14" s="103">
         <f>IFERROR(VLOOKUP(CS14,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -7828,14 +8332,16 @@
         <f>CONCATENATE(REGISTRATION!C16," ",REGISTRATION!D16," ",REGISTRATION!E16)</f>
         <v>Aspera Jhohn Lloyd S</v>
       </c>
-      <c r="D15" s="107"/>
+      <c r="D15" s="107">
+        <v>40</v>
+      </c>
       <c r="E15" s="91">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="F15" s="94">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17.142857142857142</v>
       </c>
       <c r="G15" s="107"/>
       <c r="H15" s="91" t="e">
@@ -7938,11 +8444,11 @@
       </c>
       <c r="BC15" s="97">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>17.142857142857142</v>
       </c>
       <c r="BD15" s="97">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>17.14</v>
       </c>
       <c r="BE15" s="107"/>
       <c r="BF15" s="91" t="str">
@@ -8052,7 +8558,7 @@
       </c>
       <c r="CS15" s="103">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>6.8560000000000008</v>
       </c>
       <c r="CT15" s="103">
         <f>IFERROR(VLOOKUP(CS15,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -8076,14 +8582,16 @@
         <f>CONCATENATE(REGISTRATION!C17," ",REGISTRATION!D17," ",REGISTRATION!E17)</f>
         <v>Bacongan Jan Allan A</v>
       </c>
-      <c r="D16" s="107"/>
+      <c r="D16" s="107">
+        <v>49</v>
+      </c>
       <c r="E16" s="91">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="F16" s="94">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G16" s="107"/>
       <c r="H16" s="91" t="e">
@@ -8186,11 +8694,11 @@
       </c>
       <c r="BC16" s="97">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="BD16" s="97">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="BE16" s="107"/>
       <c r="BF16" s="91" t="str">
@@ -8300,7 +8808,7 @@
       </c>
       <c r="CS16" s="103">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="CT16" s="103">
         <f>IFERROR(VLOOKUP(CS16,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -8324,14 +8832,16 @@
         <f>CONCATENATE(REGISTRATION!C18," ",REGISTRATION!D18," ",REGISTRATION!E18)</f>
         <v>Belizario Joshua Carl A</v>
       </c>
-      <c r="D17" s="107"/>
+      <c r="D17" s="107">
+        <v>50</v>
+      </c>
       <c r="E17" s="91">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>71.428571428571431</v>
       </c>
       <c r="F17" s="94">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21.428571428571427</v>
       </c>
       <c r="G17" s="107"/>
       <c r="H17" s="91" t="e">
@@ -8434,11 +8944,11 @@
       </c>
       <c r="BC17" s="97">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>21.428571428571427</v>
       </c>
       <c r="BD17" s="97">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>21.43</v>
       </c>
       <c r="BE17" s="107"/>
       <c r="BF17" s="91" t="str">
@@ -8548,7 +9058,7 @@
       </c>
       <c r="CS17" s="103">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>8.572000000000001</v>
       </c>
       <c r="CT17" s="103">
         <f>IFERROR(VLOOKUP(CS17,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -8572,14 +9082,16 @@
         <f>CONCATENATE(REGISTRATION!C19," ",REGISTRATION!D19," ",REGISTRATION!E19)</f>
         <v>Cariño Francis E</v>
       </c>
-      <c r="D18" s="107"/>
+      <c r="D18" s="107">
+        <v>52</v>
+      </c>
       <c r="E18" s="91">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>74.285714285714292</v>
       </c>
       <c r="F18" s="94">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22.285714285714288</v>
       </c>
       <c r="G18" s="107"/>
       <c r="H18" s="91" t="e">
@@ -8682,11 +9194,11 @@
       </c>
       <c r="BC18" s="97">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>22.285714285714288</v>
       </c>
       <c r="BD18" s="97">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>22.29</v>
       </c>
       <c r="BE18" s="107"/>
       <c r="BF18" s="91" t="str">
@@ -8796,7 +9308,7 @@
       </c>
       <c r="CS18" s="103">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>8.9160000000000004</v>
       </c>
       <c r="CT18" s="103">
         <f>IFERROR(VLOOKUP(CS18,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -8820,14 +9332,16 @@
         <f>CONCATENATE(REGISTRATION!C20," ",REGISTRATION!D20," ",REGISTRATION!E20)</f>
         <v>Cobrado Carmela Ruby A</v>
       </c>
-      <c r="D19" s="107"/>
+      <c r="D19" s="107">
+        <v>43</v>
+      </c>
       <c r="E19" s="91">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>61.428571428571431</v>
       </c>
       <c r="F19" s="94">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18.428571428571427</v>
       </c>
       <c r="G19" s="107"/>
       <c r="H19" s="91" t="e">
@@ -8930,11 +9444,11 @@
       </c>
       <c r="BC19" s="97">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>18.428571428571427</v>
       </c>
       <c r="BD19" s="97">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>18.43</v>
       </c>
       <c r="BE19" s="107"/>
       <c r="BF19" s="91" t="str">
@@ -9044,7 +9558,7 @@
       </c>
       <c r="CS19" s="103">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>7.3719999999999999</v>
       </c>
       <c r="CT19" s="103">
         <f>IFERROR(VLOOKUP(CS19,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -9068,14 +9582,16 @@
         <f>CONCATENATE(REGISTRATION!C21," ",REGISTRATION!D21," ",REGISTRATION!E21)</f>
         <v>Cuenca Michael John P</v>
       </c>
-      <c r="D20" s="107"/>
+      <c r="D20" s="107">
+        <v>53</v>
+      </c>
       <c r="E20" s="91">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>75.714285714285708</v>
       </c>
       <c r="F20" s="94">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22.714285714285712</v>
       </c>
       <c r="G20" s="107"/>
       <c r="H20" s="91" t="e">
@@ -9178,11 +9694,11 @@
       </c>
       <c r="BC20" s="97">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>22.714285714285712</v>
       </c>
       <c r="BD20" s="97">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>22.71</v>
       </c>
       <c r="BE20" s="107"/>
       <c r="BF20" s="91" t="str">
@@ -9292,7 +9808,7 @@
       </c>
       <c r="CS20" s="103">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>9.0840000000000014</v>
       </c>
       <c r="CT20" s="103">
         <f>IFERROR(VLOOKUP(CS20,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -9316,14 +9832,16 @@
         <f>CONCATENATE(REGISTRATION!C22," ",REGISTRATION!D22," ",REGISTRATION!E22)</f>
         <v>Custodio Jomari I</v>
       </c>
-      <c r="D21" s="107"/>
+      <c r="D21" s="107">
+        <v>39</v>
+      </c>
       <c r="E21" s="91">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>55.714285714285715</v>
       </c>
       <c r="F21" s="94">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16.714285714285715</v>
       </c>
       <c r="G21" s="107"/>
       <c r="H21" s="91" t="e">
@@ -9426,11 +9944,11 @@
       </c>
       <c r="BC21" s="97">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>16.714285714285715</v>
       </c>
       <c r="BD21" s="97">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>16.71</v>
       </c>
       <c r="BE21" s="107"/>
       <c r="BF21" s="91" t="str">
@@ -9540,7 +10058,7 @@
       </c>
       <c r="CS21" s="103">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>6.6840000000000011</v>
       </c>
       <c r="CT21" s="103">
         <f>IFERROR(VLOOKUP(CS21,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -9564,14 +10082,16 @@
         <f>CONCATENATE(REGISTRATION!C23," ",REGISTRATION!D23," ",REGISTRATION!E23)</f>
         <v>Del Rosario John Roman R</v>
       </c>
-      <c r="D22" s="107"/>
+      <c r="D22" s="107">
+        <v>51</v>
+      </c>
       <c r="E22" s="91">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>72.857142857142847</v>
       </c>
       <c r="F22" s="94">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21.857142857142854</v>
       </c>
       <c r="G22" s="107"/>
       <c r="H22" s="91" t="e">
@@ -9674,11 +10194,11 @@
       </c>
       <c r="BC22" s="97">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>21.857142857142854</v>
       </c>
       <c r="BD22" s="97">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>21.86</v>
       </c>
       <c r="BE22" s="107"/>
       <c r="BF22" s="91" t="str">
@@ -9788,7 +10308,7 @@
       </c>
       <c r="CS22" s="103">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>8.7439999999999998</v>
       </c>
       <c r="CT22" s="103">
         <f>IFERROR(VLOOKUP(CS22,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -9812,14 +10332,16 @@
         <f>CONCATENATE(REGISTRATION!C24," ",REGISTRATION!D24," ",REGISTRATION!E24)</f>
         <v>Dela Masa Ciara Rose D</v>
       </c>
-      <c r="D23" s="107"/>
+      <c r="D23" s="107">
+        <v>55</v>
+      </c>
       <c r="E23" s="91">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>78.571428571428569</v>
       </c>
       <c r="F23" s="94">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23.571428571428569</v>
       </c>
       <c r="G23" s="107"/>
       <c r="H23" s="91" t="e">
@@ -9922,11 +10444,11 @@
       </c>
       <c r="BC23" s="97">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>23.571428571428569</v>
       </c>
       <c r="BD23" s="97">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>23.57</v>
       </c>
       <c r="BE23" s="107"/>
       <c r="BF23" s="91" t="str">
@@ -10036,7 +10558,7 @@
       </c>
       <c r="CS23" s="103">
         <f t="shared" ref="CS23:CS70" si="45">IFERROR(((CR23*0.6)+(BD23*0.4)),"")</f>
-        <v>0</v>
+        <v>9.4280000000000008</v>
       </c>
       <c r="CT23" s="103">
         <f>IFERROR(VLOOKUP(CS23,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -10060,14 +10582,16 @@
         <f>CONCATENATE(REGISTRATION!C25," ",REGISTRATION!D25," ",REGISTRATION!E25)</f>
         <v>Dela Rosa Ariane E</v>
       </c>
-      <c r="D24" s="107"/>
+      <c r="D24" s="107">
+        <v>48</v>
+      </c>
       <c r="E24" s="91">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>68.571428571428569</v>
       </c>
       <c r="F24" s="94">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20.571428571428569</v>
       </c>
       <c r="G24" s="107"/>
       <c r="H24" s="91" t="e">
@@ -10170,11 +10694,11 @@
       </c>
       <c r="BC24" s="97">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>20.571428571428569</v>
       </c>
       <c r="BD24" s="97">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>20.57</v>
       </c>
       <c r="BE24" s="107"/>
       <c r="BF24" s="91" t="str">
@@ -10284,7 +10808,7 @@
       </c>
       <c r="CS24" s="103">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>8.2279999999999998</v>
       </c>
       <c r="CT24" s="103">
         <f>IFERROR(VLOOKUP(CS24,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -10308,14 +10832,16 @@
         <f>CONCATENATE(REGISTRATION!C26," ",REGISTRATION!D26," ",REGISTRATION!E26)</f>
         <v>Eyon Angelica E</v>
       </c>
-      <c r="D25" s="107"/>
+      <c r="D25" s="107">
+        <v>43</v>
+      </c>
       <c r="E25" s="91">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>61.428571428571431</v>
       </c>
       <c r="F25" s="94">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18.428571428571427</v>
       </c>
       <c r="G25" s="107"/>
       <c r="H25" s="91" t="e">
@@ -10418,11 +10944,11 @@
       </c>
       <c r="BC25" s="97">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>18.428571428571427</v>
       </c>
       <c r="BD25" s="97">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>18.43</v>
       </c>
       <c r="BE25" s="107"/>
       <c r="BF25" s="91" t="str">
@@ -10532,7 +11058,7 @@
       </c>
       <c r="CS25" s="103">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>7.3719999999999999</v>
       </c>
       <c r="CT25" s="103">
         <f>IFERROR(VLOOKUP(CS25,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -10556,14 +11082,16 @@
         <f>CONCATENATE(REGISTRATION!C27," ",REGISTRATION!D27," ",REGISTRATION!E27)</f>
         <v>Fermante Christian C</v>
       </c>
-      <c r="D26" s="107"/>
+      <c r="D26" s="107">
+        <v>41</v>
+      </c>
       <c r="E26" s="91">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>58.571428571428577</v>
       </c>
       <c r="F26" s="94">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17.571428571428573</v>
       </c>
       <c r="G26" s="107"/>
       <c r="H26" s="91" t="e">
@@ -10666,11 +11194,11 @@
       </c>
       <c r="BC26" s="97">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>17.571428571428573</v>
       </c>
       <c r="BD26" s="97">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>17.57</v>
       </c>
       <c r="BE26" s="107"/>
       <c r="BF26" s="91" t="str">
@@ -10780,7 +11308,7 @@
       </c>
       <c r="CS26" s="103">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>7.0280000000000005</v>
       </c>
       <c r="CT26" s="103">
         <f>IFERROR(VLOOKUP(CS26,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -10796,22 +11324,24 @@
         <f>REGISTRATION!A28</f>
         <v>18</v>
       </c>
-      <c r="B27" s="40" t="str">
+      <c r="B27" s="40">
         <f>REGISTRATION!B28</f>
-        <v>201701-602</v>
+        <v>0</v>
       </c>
       <c r="C27" s="40" t="str">
         <f>CONCATENATE(REGISTRATION!C28," ",REGISTRATION!D28," ",REGISTRATION!E28)</f>
-        <v>Galido Joy O</v>
-      </c>
-      <c r="D27" s="107"/>
+        <v>Fernandez Shaira T</v>
+      </c>
+      <c r="D27" s="107">
+        <v>48</v>
+      </c>
       <c r="E27" s="91">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>68.571428571428569</v>
       </c>
       <c r="F27" s="94">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20.571428571428569</v>
       </c>
       <c r="G27" s="107"/>
       <c r="H27" s="91" t="e">
@@ -10914,11 +11444,11 @@
       </c>
       <c r="BC27" s="97">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>20.571428571428569</v>
       </c>
       <c r="BD27" s="97">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>20.57</v>
       </c>
       <c r="BE27" s="107"/>
       <c r="BF27" s="91" t="str">
@@ -11028,7 +11558,7 @@
       </c>
       <c r="CS27" s="103">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>8.2279999999999998</v>
       </c>
       <c r="CT27" s="103">
         <f>IFERROR(VLOOKUP(CS27,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -11046,20 +11576,22 @@
       </c>
       <c r="B28" s="40" t="str">
         <f>REGISTRATION!B29</f>
-        <v>201701-640</v>
+        <v>201701-602</v>
       </c>
       <c r="C28" s="40" t="str">
         <f>CONCATENATE(REGISTRATION!C29," ",REGISTRATION!D29," ",REGISTRATION!E29)</f>
-        <v>Ilagan Michael Angelo O</v>
-      </c>
-      <c r="D28" s="107"/>
+        <v>Galido Joy O</v>
+      </c>
+      <c r="D28" s="107">
+        <v>62</v>
+      </c>
       <c r="E28" s="91">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>88.571428571428569</v>
       </c>
       <c r="F28" s="94">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>26.571428571428569</v>
       </c>
       <c r="G28" s="107"/>
       <c r="H28" s="91" t="e">
@@ -11162,11 +11694,11 @@
       </c>
       <c r="BC28" s="97">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>26.571428571428569</v>
       </c>
       <c r="BD28" s="97">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>26.57</v>
       </c>
       <c r="BE28" s="107"/>
       <c r="BF28" s="91" t="str">
@@ -11276,7 +11808,7 @@
       </c>
       <c r="CS28" s="103">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>10.628</v>
       </c>
       <c r="CT28" s="103">
         <f>IFERROR(VLOOKUP(CS28,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -11294,20 +11826,22 @@
       </c>
       <c r="B29" s="40" t="str">
         <f>REGISTRATION!B30</f>
-        <v>201701-554</v>
+        <v>201701-640</v>
       </c>
       <c r="C29" s="40" t="str">
         <f>CONCATENATE(REGISTRATION!C30," ",REGISTRATION!D30," ",REGISTRATION!E30)</f>
-        <v>Lorenzo Ronaline T</v>
-      </c>
-      <c r="D29" s="107"/>
+        <v>Ilagan Michael Angelo O</v>
+      </c>
+      <c r="D29" s="107">
+        <v>60</v>
+      </c>
       <c r="E29" s="91">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>85.714285714285708</v>
       </c>
       <c r="F29" s="94">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25.714285714285712</v>
       </c>
       <c r="G29" s="107"/>
       <c r="H29" s="91" t="e">
@@ -11410,11 +11944,11 @@
       </c>
       <c r="BC29" s="97">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>25.714285714285712</v>
       </c>
       <c r="BD29" s="97">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>25.71</v>
       </c>
       <c r="BE29" s="107"/>
       <c r="BF29" s="91" t="str">
@@ -11524,7 +12058,7 @@
       </c>
       <c r="CS29" s="103">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>10.284000000000001</v>
       </c>
       <c r="CT29" s="103">
         <f>IFERROR(VLOOKUP(CS29,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -11542,20 +12076,22 @@
       </c>
       <c r="B30" s="40" t="str">
         <f>REGISTRATION!B31</f>
-        <v>201701-607</v>
+        <v>201701-554</v>
       </c>
       <c r="C30" s="40" t="str">
         <f>CONCATENATE(REGISTRATION!C31," ",REGISTRATION!D31," ",REGISTRATION!E31)</f>
-        <v>Macaspac Zeus Jandel M</v>
-      </c>
-      <c r="D30" s="107"/>
+        <v>Lorenzo Ronaline T</v>
+      </c>
+      <c r="D30" s="107">
+        <v>48</v>
+      </c>
       <c r="E30" s="91">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>68.571428571428569</v>
       </c>
       <c r="F30" s="94">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20.571428571428569</v>
       </c>
       <c r="G30" s="107"/>
       <c r="H30" s="91" t="e">
@@ -11658,11 +12194,11 @@
       </c>
       <c r="BC30" s="97">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>20.571428571428569</v>
       </c>
       <c r="BD30" s="97">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>20.57</v>
       </c>
       <c r="BE30" s="107"/>
       <c r="BF30" s="91" t="str">
@@ -11772,7 +12308,7 @@
       </c>
       <c r="CS30" s="103">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>8.2279999999999998</v>
       </c>
       <c r="CT30" s="103">
         <f>IFERROR(VLOOKUP(CS30,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -11790,20 +12326,22 @@
       </c>
       <c r="B31" s="40" t="str">
         <f>REGISTRATION!B32</f>
-        <v>201701-061</v>
+        <v>201701-607</v>
       </c>
       <c r="C31" s="40" t="str">
         <f>CONCATENATE(REGISTRATION!C32," ",REGISTRATION!D32," ",REGISTRATION!E32)</f>
-        <v>Melendrez Maria Joshua O</v>
-      </c>
-      <c r="D31" s="107"/>
+        <v>Macaspac Zeus Jandel M</v>
+      </c>
+      <c r="D31" s="107">
+        <v>50</v>
+      </c>
       <c r="E31" s="91">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>71.428571428571431</v>
       </c>
       <c r="F31" s="94">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21.428571428571427</v>
       </c>
       <c r="G31" s="107"/>
       <c r="H31" s="91" t="e">
@@ -11906,11 +12444,11 @@
       </c>
       <c r="BC31" s="97">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>21.428571428571427</v>
       </c>
       <c r="BD31" s="97">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>21.43</v>
       </c>
       <c r="BE31" s="107"/>
       <c r="BF31" s="91" t="str">
@@ -12020,7 +12558,7 @@
       </c>
       <c r="CS31" s="103">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>8.572000000000001</v>
       </c>
       <c r="CT31" s="103">
         <f>IFERROR(VLOOKUP(CS31,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -12038,20 +12576,22 @@
       </c>
       <c r="B32" s="40" t="str">
         <f>REGISTRATION!B33</f>
-        <v>201701-189</v>
+        <v>201701-061</v>
       </c>
       <c r="C32" s="40" t="str">
         <f>CONCATENATE(REGISTRATION!C33," ",REGISTRATION!D33," ",REGISTRATION!E33)</f>
-        <v>Mendoza Bhonnie B</v>
-      </c>
-      <c r="D32" s="107"/>
+        <v>Melendrez Maria Joshua O</v>
+      </c>
+      <c r="D32" s="107">
+        <v>60</v>
+      </c>
       <c r="E32" s="91">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>85.714285714285708</v>
       </c>
       <c r="F32" s="94">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25.714285714285712</v>
       </c>
       <c r="G32" s="107"/>
       <c r="H32" s="91" t="e">
@@ -12154,11 +12694,11 @@
       </c>
       <c r="BC32" s="97">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>25.714285714285712</v>
       </c>
       <c r="BD32" s="97">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>25.71</v>
       </c>
       <c r="BE32" s="107"/>
       <c r="BF32" s="91" t="str">
@@ -12268,7 +12808,7 @@
       </c>
       <c r="CS32" s="103">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>10.284000000000001</v>
       </c>
       <c r="CT32" s="103">
         <f>IFERROR(VLOOKUP(CS32,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -12286,20 +12826,22 @@
       </c>
       <c r="B33" s="40" t="str">
         <f>REGISTRATION!B34</f>
-        <v>201701-404</v>
+        <v>201701-189</v>
       </c>
       <c r="C33" s="40" t="str">
         <f>CONCATENATE(REGISTRATION!C34," ",REGISTRATION!D34," ",REGISTRATION!E34)</f>
-        <v>Monterola Arnold P</v>
-      </c>
-      <c r="D33" s="107"/>
+        <v>Mendoza Bhonnie B</v>
+      </c>
+      <c r="D33" s="107">
+        <v>34</v>
+      </c>
       <c r="E33" s="91">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>48.571428571428569</v>
       </c>
       <c r="F33" s="94">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14.571428571428569</v>
       </c>
       <c r="G33" s="107"/>
       <c r="H33" s="91" t="e">
@@ -12402,11 +12944,11 @@
       </c>
       <c r="BC33" s="97">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>14.571428571428569</v>
       </c>
       <c r="BD33" s="97">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>14.57</v>
       </c>
       <c r="BE33" s="107"/>
       <c r="BF33" s="91" t="str">
@@ -12516,7 +13058,7 @@
       </c>
       <c r="CS33" s="103">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>5.8280000000000003</v>
       </c>
       <c r="CT33" s="103">
         <f>IFERROR(VLOOKUP(CS33,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -12534,20 +13076,22 @@
       </c>
       <c r="B34" s="40" t="str">
         <f>REGISTRATION!B35</f>
-        <v>201701-614</v>
+        <v>201701-404</v>
       </c>
       <c r="C34" s="40" t="str">
         <f>CONCATENATE(REGISTRATION!C35," ",REGISTRATION!D35," ",REGISTRATION!E35)</f>
-        <v>Ollet Allan L</v>
-      </c>
-      <c r="D34" s="107"/>
+        <v>Monterola Arnold P</v>
+      </c>
+      <c r="D34" s="107">
+        <v>42</v>
+      </c>
       <c r="E34" s="91">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F34" s="94">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G34" s="107"/>
       <c r="H34" s="91" t="e">
@@ -12650,11 +13194,11 @@
       </c>
       <c r="BC34" s="97">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="BD34" s="97">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="BE34" s="107"/>
       <c r="BF34" s="91" t="str">
@@ -12764,7 +13308,7 @@
       </c>
       <c r="CS34" s="103">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="CT34" s="103">
         <f>IFERROR(VLOOKUP(CS34,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -12782,20 +13326,22 @@
       </c>
       <c r="B35" s="40" t="str">
         <f>REGISTRATION!B36</f>
-        <v>201701-484</v>
+        <v>201701-614</v>
       </c>
       <c r="C35" s="40" t="str">
         <f>CONCATENATE(REGISTRATION!C36," ",REGISTRATION!D36," ",REGISTRATION!E36)</f>
-        <v xml:space="preserve">Regalario Rose Ann M </v>
-      </c>
-      <c r="D35" s="107"/>
+        <v>Ollet Allan L</v>
+      </c>
+      <c r="D35" s="107">
+        <v>37</v>
+      </c>
       <c r="E35" s="91">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>52.857142857142861</v>
       </c>
       <c r="F35" s="94">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15.857142857142858</v>
       </c>
       <c r="G35" s="107"/>
       <c r="H35" s="91" t="e">
@@ -12898,11 +13444,11 @@
       </c>
       <c r="BC35" s="97">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>15.857142857142858</v>
       </c>
       <c r="BD35" s="97">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>15.86</v>
       </c>
       <c r="BE35" s="107"/>
       <c r="BF35" s="91" t="str">
@@ -13012,7 +13558,7 @@
       </c>
       <c r="CS35" s="103">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>6.3440000000000003</v>
       </c>
       <c r="CT35" s="103">
         <f>IFERROR(VLOOKUP(CS35,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -13028,22 +13574,24 @@
         <f>REGISTRATION!A37</f>
         <v>27</v>
       </c>
-      <c r="B36" s="40" t="str">
+      <c r="B36" s="40">
         <f>REGISTRATION!B37</f>
-        <v>201602-055</v>
+        <v>0</v>
       </c>
       <c r="C36" s="40" t="str">
         <f>CONCATENATE(REGISTRATION!C37," ",REGISTRATION!D37," ",REGISTRATION!E37)</f>
-        <v>Salazar Alfonso Gerald B</v>
-      </c>
-      <c r="D36" s="107"/>
+        <v>Poblete Jan Fritzgerald A</v>
+      </c>
+      <c r="D36" s="107">
+        <v>38</v>
+      </c>
       <c r="E36" s="91">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>54.285714285714285</v>
       </c>
       <c r="F36" s="94">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16.285714285714285</v>
       </c>
       <c r="G36" s="107"/>
       <c r="H36" s="91" t="e">
@@ -13146,11 +13694,11 @@
       </c>
       <c r="BC36" s="97">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>16.285714285714285</v>
       </c>
       <c r="BD36" s="97">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>16.29</v>
       </c>
       <c r="BE36" s="107"/>
       <c r="BF36" s="91" t="str">
@@ -13260,7 +13808,7 @@
       </c>
       <c r="CS36" s="103">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>6.516</v>
       </c>
       <c r="CT36" s="103">
         <f>IFERROR(VLOOKUP(CS36,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -13278,11 +13826,11 @@
       </c>
       <c r="B37" s="40" t="str">
         <f>REGISTRATION!B38</f>
-        <v>201602-118</v>
+        <v>201701-484</v>
       </c>
       <c r="C37" s="40" t="str">
         <f>CONCATENATE(REGISTRATION!C38," ",REGISTRATION!D38," ",REGISTRATION!E38)</f>
-        <v>Siat Diana Corinne G</v>
+        <v xml:space="preserve">Regalario Rose Ann M </v>
       </c>
       <c r="D37" s="107"/>
       <c r="E37" s="91">
@@ -13526,11 +14074,11 @@
       </c>
       <c r="B38" s="40" t="str">
         <f>REGISTRATION!B39</f>
-        <v>201701-605</v>
+        <v>201602-055</v>
       </c>
       <c r="C38" s="40" t="str">
         <f>CONCATENATE(REGISTRATION!C39," ",REGISTRATION!D39," ",REGISTRATION!E39)</f>
-        <v>Tanjusay Jhonafe P</v>
+        <v>Salazar Alfonso Gerald B</v>
       </c>
       <c r="D38" s="107"/>
       <c r="E38" s="91">
@@ -13774,20 +14322,22 @@
       </c>
       <c r="B39" s="40" t="str">
         <f>REGISTRATION!B40</f>
-        <v>201701-683</v>
+        <v>201602-118</v>
       </c>
       <c r="C39" s="40" t="str">
         <f>CONCATENATE(REGISTRATION!C40," ",REGISTRATION!D40," ",REGISTRATION!E40)</f>
-        <v>Toledo John Ronmar S</v>
-      </c>
-      <c r="D39" s="107"/>
+        <v>Siat Diana Corinne G</v>
+      </c>
+      <c r="D39" s="107">
+        <v>44</v>
+      </c>
       <c r="E39" s="91">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>62.857142857142854</v>
       </c>
       <c r="F39" s="94">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18.857142857142854</v>
       </c>
       <c r="G39" s="107"/>
       <c r="H39" s="91" t="e">
@@ -13890,11 +14440,11 @@
       </c>
       <c r="BC39" s="97">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>18.857142857142854</v>
       </c>
       <c r="BD39" s="97">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>18.86</v>
       </c>
       <c r="BE39" s="107"/>
       <c r="BF39" s="91" t="str">
@@ -14004,7 +14554,7 @@
       </c>
       <c r="CS39" s="103">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>7.5440000000000005</v>
       </c>
       <c r="CT39" s="103">
         <f>IFERROR(VLOOKUP(CS39,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -14022,20 +14572,22 @@
       </c>
       <c r="B40" s="40" t="str">
         <f>REGISTRATION!B41</f>
-        <v>201701-282</v>
+        <v>201701-605</v>
       </c>
       <c r="C40" s="40" t="str">
         <f>CONCATENATE(REGISTRATION!C41," ",REGISTRATION!D41," ",REGISTRATION!E41)</f>
-        <v>Tulisana Jerome J</v>
-      </c>
-      <c r="D40" s="107"/>
+        <v>Tanjusay Jhonafe P</v>
+      </c>
+      <c r="D40" s="107">
+        <v>51</v>
+      </c>
       <c r="E40" s="91">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>72.857142857142847</v>
       </c>
       <c r="F40" s="94">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21.857142857142854</v>
       </c>
       <c r="G40" s="107"/>
       <c r="H40" s="91" t="e">
@@ -14138,11 +14690,11 @@
       </c>
       <c r="BC40" s="97">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>21.857142857142854</v>
       </c>
       <c r="BD40" s="97">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>21.86</v>
       </c>
       <c r="BE40" s="107"/>
       <c r="BF40" s="91" t="str">
@@ -14252,7 +14804,7 @@
       </c>
       <c r="CS40" s="103">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>8.7439999999999998</v>
       </c>
       <c r="CT40" s="103">
         <f>IFERROR(VLOOKUP(CS40,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -14270,20 +14822,22 @@
       </c>
       <c r="B41" s="40" t="str">
         <f>REGISTRATION!B42</f>
-        <v>201602-093</v>
+        <v>201701-683</v>
       </c>
       <c r="C41" s="40" t="str">
         <f>CONCATENATE(REGISTRATION!C42," ",REGISTRATION!D42," ",REGISTRATION!E42)</f>
-        <v xml:space="preserve">Vilanuevea Leyi </v>
-      </c>
-      <c r="D41" s="107"/>
+        <v>Toledo John Ronmar S</v>
+      </c>
+      <c r="D41" s="107">
+        <v>48</v>
+      </c>
       <c r="E41" s="91">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>68.571428571428569</v>
       </c>
       <c r="F41" s="94">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20.571428571428569</v>
       </c>
       <c r="G41" s="107"/>
       <c r="H41" s="91" t="e">
@@ -14386,11 +14940,11 @@
       </c>
       <c r="BC41" s="97">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>20.571428571428569</v>
       </c>
       <c r="BD41" s="97">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>20.57</v>
       </c>
       <c r="BE41" s="107"/>
       <c r="BF41" s="91" t="str">
@@ -14500,7 +15054,7 @@
       </c>
       <c r="CS41" s="103">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>8.2279999999999998</v>
       </c>
       <c r="CT41" s="103">
         <f>IFERROR(VLOOKUP(CS41,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -14518,20 +15072,22 @@
       </c>
       <c r="B42" s="40" t="str">
         <f>REGISTRATION!B43</f>
-        <v>201602-088</v>
+        <v>201701-282</v>
       </c>
       <c r="C42" s="40" t="str">
         <f>CONCATENATE(REGISTRATION!C43," ",REGISTRATION!D43," ",REGISTRATION!E43)</f>
-        <v>Yu Rama Krsna dasi P</v>
-      </c>
-      <c r="D42" s="107"/>
+        <v>Tulisana Jerome J</v>
+      </c>
+      <c r="D42" s="107">
+        <v>45</v>
+      </c>
       <c r="E42" s="91">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>64.285714285714292</v>
       </c>
       <c r="F42" s="94">
         <f t="shared" ref="F42:F70" si="46">IFERROR((E42*$F$7), " ")</f>
-        <v>0</v>
+        <v>19.285714285714288</v>
       </c>
       <c r="G42" s="107"/>
       <c r="H42" s="91" t="e">
@@ -14634,11 +15190,11 @@
       </c>
       <c r="BC42" s="97">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>19.285714285714288</v>
       </c>
       <c r="BD42" s="97">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>19.29</v>
       </c>
       <c r="BE42" s="107"/>
       <c r="BF42" s="91" t="str">
@@ -14748,7 +15304,7 @@
       </c>
       <c r="CS42" s="103">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>7.7160000000000002</v>
       </c>
       <c r="CT42" s="103">
         <f>IFERROR(VLOOKUP(CS42,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -14764,13 +15320,13 @@
         <f>REGISTRATION!A44</f>
         <v>34</v>
       </c>
-      <c r="B43" s="40">
+      <c r="B43" s="40" t="str">
         <f>REGISTRATION!B44</f>
-        <v>0</v>
+        <v>201602-093</v>
       </c>
       <c r="C43" s="40" t="str">
         <f>CONCATENATE(REGISTRATION!C44," ",REGISTRATION!D44," ",REGISTRATION!E44)</f>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">Vilanuevea Leyi </v>
       </c>
       <c r="D43" s="107"/>
       <c r="E43" s="91">
@@ -15012,22 +15568,24 @@
         <f>REGISTRATION!A45</f>
         <v>35</v>
       </c>
-      <c r="B44" s="40">
+      <c r="B44" s="40" t="str">
         <f>REGISTRATION!B45</f>
-        <v>0</v>
+        <v>201602-088</v>
       </c>
       <c r="C44" s="40" t="str">
         <f>CONCATENATE(REGISTRATION!C45," ",REGISTRATION!D45," ",REGISTRATION!E45)</f>
-        <v xml:space="preserve">  </v>
-      </c>
-      <c r="D44" s="107"/>
+        <v>Yu Rama Krsna dasi P</v>
+      </c>
+      <c r="D44" s="107">
+        <v>27</v>
+      </c>
       <c r="E44" s="91">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>38.571428571428577</v>
       </c>
       <c r="F44" s="94">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>11.571428571428573</v>
       </c>
       <c r="G44" s="107"/>
       <c r="H44" s="91" t="e">
@@ -15130,11 +15688,11 @@
       </c>
       <c r="BC44" s="97">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>11.571428571428573</v>
       </c>
       <c r="BD44" s="97">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>11.57</v>
       </c>
       <c r="BE44" s="107"/>
       <c r="BF44" s="91" t="str">
@@ -15244,7 +15802,7 @@
       </c>
       <c r="CS44" s="103">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>4.6280000000000001</v>
       </c>
       <c r="CT44" s="103">
         <f>IFERROR(VLOOKUP(CS44,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -21706,6 +22264,88 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="98">
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="AJ8:AK8"/>
+    <mergeCell ref="AV8:AW8"/>
+    <mergeCell ref="AX8:AY8"/>
+    <mergeCell ref="A2:CU3"/>
+    <mergeCell ref="CB8:CC8"/>
+    <mergeCell ref="CD8:CE8"/>
+    <mergeCell ref="CF8:CG8"/>
+    <mergeCell ref="CH8:CI8"/>
+    <mergeCell ref="CJ8:CK8"/>
+    <mergeCell ref="CL8:CM8"/>
+    <mergeCell ref="BP8:BQ8"/>
+    <mergeCell ref="BR8:BS8"/>
+    <mergeCell ref="BT8:BU8"/>
+    <mergeCell ref="BV8:BW8"/>
+    <mergeCell ref="BX8:BY8"/>
+    <mergeCell ref="BZ8:CA8"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="J6:AN6"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="AF8:AG8"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="BI8:BJ8"/>
+    <mergeCell ref="BL8:BM8"/>
+    <mergeCell ref="BN8:BO8"/>
+    <mergeCell ref="AL8:AM8"/>
+    <mergeCell ref="AO8:AP8"/>
+    <mergeCell ref="AQ8:AR8"/>
+    <mergeCell ref="AS8:AT8"/>
+    <mergeCell ref="BE8:BF8"/>
+    <mergeCell ref="AZ8:BA8"/>
+    <mergeCell ref="BG8:BH8"/>
+    <mergeCell ref="BI7:BJ7"/>
+    <mergeCell ref="AH7:AI7"/>
+    <mergeCell ref="AJ7:AK7"/>
+    <mergeCell ref="AL7:AM7"/>
+    <mergeCell ref="AO7:AP7"/>
+    <mergeCell ref="AQ7:AR7"/>
+    <mergeCell ref="AS7:AT7"/>
+    <mergeCell ref="AO6:AU6"/>
+    <mergeCell ref="AV6:BB6"/>
+    <mergeCell ref="CU6:CU9"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="BC6:BD8"/>
+    <mergeCell ref="BE6:BK6"/>
+    <mergeCell ref="BL6:CP6"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="CT6:CT9"/>
+    <mergeCell ref="BE7:BF7"/>
+    <mergeCell ref="CS5:CU5"/>
+    <mergeCell ref="BL7:BM7"/>
+    <mergeCell ref="BN7:BO7"/>
+    <mergeCell ref="BP7:BQ7"/>
+    <mergeCell ref="BR7:BS7"/>
+    <mergeCell ref="CL7:CM7"/>
+    <mergeCell ref="CN7:CO7"/>
+    <mergeCell ref="BT7:BU7"/>
+    <mergeCell ref="BV7:BW7"/>
+    <mergeCell ref="BX7:BY7"/>
+    <mergeCell ref="BZ7:CA7"/>
+    <mergeCell ref="CB7:CC7"/>
+    <mergeCell ref="CJ7:CK7"/>
+    <mergeCell ref="CD7:CE7"/>
+    <mergeCell ref="CQ6:CR8"/>
+    <mergeCell ref="CN8:CO8"/>
     <mergeCell ref="CS6:CS9"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="B5:B9"/>
@@ -21722,91 +22362,9 @@
     <mergeCell ref="BG7:BH7"/>
     <mergeCell ref="CF7:CG7"/>
     <mergeCell ref="CH7:CI7"/>
-    <mergeCell ref="CS5:CU5"/>
-    <mergeCell ref="BL7:BM7"/>
-    <mergeCell ref="BN7:BO7"/>
-    <mergeCell ref="BP7:BQ7"/>
-    <mergeCell ref="BR7:BS7"/>
-    <mergeCell ref="CL7:CM7"/>
-    <mergeCell ref="CN7:CO7"/>
-    <mergeCell ref="BT7:BU7"/>
-    <mergeCell ref="BV7:BW7"/>
-    <mergeCell ref="BX7:BY7"/>
-    <mergeCell ref="BZ7:CA7"/>
-    <mergeCell ref="CB7:CC7"/>
-    <mergeCell ref="CJ7:CK7"/>
-    <mergeCell ref="CD7:CE7"/>
-    <mergeCell ref="CQ6:CR8"/>
-    <mergeCell ref="CN8:CO8"/>
-    <mergeCell ref="AO6:AU6"/>
-    <mergeCell ref="AV6:BB6"/>
-    <mergeCell ref="CU6:CU9"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="BC6:BD8"/>
-    <mergeCell ref="BE6:BK6"/>
-    <mergeCell ref="BL6:CP6"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="CT6:CT9"/>
-    <mergeCell ref="BE7:BF7"/>
-    <mergeCell ref="BI7:BJ7"/>
-    <mergeCell ref="AH7:AI7"/>
-    <mergeCell ref="AJ7:AK7"/>
-    <mergeCell ref="AL7:AM7"/>
-    <mergeCell ref="AO7:AP7"/>
-    <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="AS7:AT7"/>
-    <mergeCell ref="AH8:AI8"/>
-    <mergeCell ref="BI8:BJ8"/>
-    <mergeCell ref="BL8:BM8"/>
-    <mergeCell ref="BN8:BO8"/>
-    <mergeCell ref="AL8:AM8"/>
-    <mergeCell ref="AO8:AP8"/>
-    <mergeCell ref="AQ8:AR8"/>
-    <mergeCell ref="AS8:AT8"/>
-    <mergeCell ref="BE8:BF8"/>
-    <mergeCell ref="AZ8:BA8"/>
-    <mergeCell ref="BG8:BH8"/>
-    <mergeCell ref="BZ8:CA8"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="J6:AN6"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="AF8:AG8"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="AJ8:AK8"/>
-    <mergeCell ref="AV8:AW8"/>
-    <mergeCell ref="AX8:AY8"/>
-    <mergeCell ref="A2:CU3"/>
-    <mergeCell ref="CB8:CC8"/>
-    <mergeCell ref="CD8:CE8"/>
-    <mergeCell ref="CF8:CG8"/>
-    <mergeCell ref="CH8:CI8"/>
-    <mergeCell ref="CJ8:CK8"/>
-    <mergeCell ref="CL8:CM8"/>
-    <mergeCell ref="BP8:BQ8"/>
-    <mergeCell ref="BR8:BS8"/>
-    <mergeCell ref="BT8:BU8"/>
-    <mergeCell ref="BV8:BW8"/>
-    <mergeCell ref="BX8:BY8"/>
   </mergeCells>
   <conditionalFormatting sqref="CU10:CU70">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="1" operator="equal">
       <formula>"FAILED"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22007,7 +22565,7 @@
       </c>
       <c r="C8" s="50">
         <f>'RAW GRADES'!F10</f>
-        <v>0</v>
+        <v>12.857142857142856</v>
       </c>
       <c r="D8" s="88" t="str">
         <f>'RAW GRADES'!I10</f>
@@ -22027,11 +22585,11 @@
       </c>
       <c r="H8" s="52">
         <f>'RAW GRADES'!BC10</f>
-        <v>0</v>
+        <v>12.857142857142856</v>
       </c>
       <c r="I8" s="52">
         <f>'RAW GRADES'!BD10</f>
-        <v>0</v>
+        <v>12.86</v>
       </c>
       <c r="J8" s="51" t="str">
         <f>'RAW GRADES'!BK10</f>
@@ -22051,7 +22609,7 @@
       </c>
       <c r="N8" s="54">
         <f>'RAW GRADES'!CS10</f>
-        <v>0</v>
+        <v>5.1440000000000001</v>
       </c>
       <c r="O8" s="55">
         <f>'RAW GRADES'!CT10</f>
@@ -22072,7 +22630,7 @@
       </c>
       <c r="C9" s="56">
         <f>'RAW GRADES'!F11</f>
-        <v>0</v>
+        <v>17.142857142857142</v>
       </c>
       <c r="D9" s="88" t="str">
         <f>'RAW GRADES'!I11</f>
@@ -22092,11 +22650,11 @@
       </c>
       <c r="H9" s="52">
         <f>'RAW GRADES'!BC11</f>
-        <v>0</v>
+        <v>17.142857142857142</v>
       </c>
       <c r="I9" s="52">
         <f>'RAW GRADES'!BD11</f>
-        <v>0</v>
+        <v>17.14</v>
       </c>
       <c r="J9" s="51" t="str">
         <f>'RAW GRADES'!BK11</f>
@@ -22116,7 +22674,7 @@
       </c>
       <c r="N9" s="57">
         <f>'RAW GRADES'!CS11</f>
-        <v>0</v>
+        <v>6.8560000000000008</v>
       </c>
       <c r="O9" s="55">
         <f>'RAW GRADES'!CT11</f>
@@ -22137,7 +22695,7 @@
       </c>
       <c r="C10" s="56">
         <f>'RAW GRADES'!F12</f>
-        <v>0</v>
+        <v>16.285714285714285</v>
       </c>
       <c r="D10" s="88" t="str">
         <f>'RAW GRADES'!I12</f>
@@ -22157,11 +22715,11 @@
       </c>
       <c r="H10" s="52">
         <f>'RAW GRADES'!BC12</f>
-        <v>0</v>
+        <v>16.285714285714285</v>
       </c>
       <c r="I10" s="52">
         <f>'RAW GRADES'!BD12</f>
-        <v>0</v>
+        <v>16.29</v>
       </c>
       <c r="J10" s="51" t="str">
         <f>'RAW GRADES'!BK12</f>
@@ -22181,7 +22739,7 @@
       </c>
       <c r="N10" s="57">
         <f>'RAW GRADES'!CS12</f>
-        <v>0</v>
+        <v>6.516</v>
       </c>
       <c r="O10" s="55">
         <f>'RAW GRADES'!CT12</f>
@@ -22202,7 +22760,7 @@
       </c>
       <c r="C11" s="56">
         <f>'RAW GRADES'!F13</f>
-        <v>0</v>
+        <v>16.285714285714285</v>
       </c>
       <c r="D11" s="88" t="str">
         <f>'RAW GRADES'!I13</f>
@@ -22222,11 +22780,11 @@
       </c>
       <c r="H11" s="52">
         <f>'RAW GRADES'!BC13</f>
-        <v>0</v>
+        <v>16.285714285714285</v>
       </c>
       <c r="I11" s="52">
         <f>'RAW GRADES'!BD13</f>
-        <v>0</v>
+        <v>16.29</v>
       </c>
       <c r="J11" s="51" t="str">
         <f>'RAW GRADES'!BK13</f>
@@ -22246,7 +22804,7 @@
       </c>
       <c r="N11" s="57">
         <f>'RAW GRADES'!CS13</f>
-        <v>0</v>
+        <v>6.516</v>
       </c>
       <c r="O11" s="55">
         <f>'RAW GRADES'!CT13</f>
@@ -22267,7 +22825,7 @@
       </c>
       <c r="C12" s="56">
         <f>'RAW GRADES'!F14</f>
-        <v>0</v>
+        <v>13.714285714285714</v>
       </c>
       <c r="D12" s="88" t="str">
         <f>'RAW GRADES'!I14</f>
@@ -22287,11 +22845,11 @@
       </c>
       <c r="H12" s="52">
         <f>'RAW GRADES'!BC14</f>
-        <v>0</v>
+        <v>13.714285714285714</v>
       </c>
       <c r="I12" s="52">
         <f>'RAW GRADES'!BD14</f>
-        <v>0</v>
+        <v>13.71</v>
       </c>
       <c r="J12" s="51" t="str">
         <f>'RAW GRADES'!BK14</f>
@@ -22311,7 +22869,7 @@
       </c>
       <c r="N12" s="57">
         <f>'RAW GRADES'!CS14</f>
-        <v>0</v>
+        <v>5.4840000000000009</v>
       </c>
       <c r="O12" s="55">
         <f>'RAW GRADES'!CT14</f>
@@ -22332,7 +22890,7 @@
       </c>
       <c r="C13" s="56">
         <f>'RAW GRADES'!F15</f>
-        <v>0</v>
+        <v>17.142857142857142</v>
       </c>
       <c r="D13" s="88" t="str">
         <f>'RAW GRADES'!I15</f>
@@ -22352,11 +22910,11 @@
       </c>
       <c r="H13" s="52">
         <f>'RAW GRADES'!BC15</f>
-        <v>0</v>
+        <v>17.142857142857142</v>
       </c>
       <c r="I13" s="52">
         <f>'RAW GRADES'!BD15</f>
-        <v>0</v>
+        <v>17.14</v>
       </c>
       <c r="J13" s="51" t="str">
         <f>'RAW GRADES'!BK15</f>
@@ -22376,7 +22934,7 @@
       </c>
       <c r="N13" s="57">
         <f>'RAW GRADES'!CS15</f>
-        <v>0</v>
+        <v>6.8560000000000008</v>
       </c>
       <c r="O13" s="55">
         <f>'RAW GRADES'!CT15</f>
@@ -22397,7 +22955,7 @@
       </c>
       <c r="C14" s="56">
         <f>'RAW GRADES'!F16</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D14" s="88" t="str">
         <f>'RAW GRADES'!I16</f>
@@ -22417,11 +22975,11 @@
       </c>
       <c r="H14" s="52">
         <f>'RAW GRADES'!BC16</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I14" s="52">
         <f>'RAW GRADES'!BD16</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J14" s="51" t="str">
         <f>'RAW GRADES'!BK16</f>
@@ -22441,7 +22999,7 @@
       </c>
       <c r="N14" s="57">
         <f>'RAW GRADES'!CS16</f>
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="O14" s="55">
         <f>'RAW GRADES'!CT16</f>
@@ -22462,7 +23020,7 @@
       </c>
       <c r="C15" s="56">
         <f>'RAW GRADES'!F17</f>
-        <v>0</v>
+        <v>21.428571428571427</v>
       </c>
       <c r="D15" s="88" t="str">
         <f>'RAW GRADES'!I17</f>
@@ -22482,11 +23040,11 @@
       </c>
       <c r="H15" s="52">
         <f>'RAW GRADES'!BC17</f>
-        <v>0</v>
+        <v>21.428571428571427</v>
       </c>
       <c r="I15" s="52">
         <f>'RAW GRADES'!BD17</f>
-        <v>0</v>
+        <v>21.43</v>
       </c>
       <c r="J15" s="51" t="str">
         <f>'RAW GRADES'!BK17</f>
@@ -22506,7 +23064,7 @@
       </c>
       <c r="N15" s="57">
         <f>'RAW GRADES'!CS17</f>
-        <v>0</v>
+        <v>8.572000000000001</v>
       </c>
       <c r="O15" s="55">
         <f>'RAW GRADES'!CT17</f>
@@ -22527,7 +23085,7 @@
       </c>
       <c r="C16" s="56">
         <f>'RAW GRADES'!F18</f>
-        <v>0</v>
+        <v>22.285714285714288</v>
       </c>
       <c r="D16" s="88" t="str">
         <f>'RAW GRADES'!I18</f>
@@ -22547,11 +23105,11 @@
       </c>
       <c r="H16" s="52">
         <f>'RAW GRADES'!BC18</f>
-        <v>0</v>
+        <v>22.285714285714288</v>
       </c>
       <c r="I16" s="52">
         <f>'RAW GRADES'!BD18</f>
-        <v>0</v>
+        <v>22.29</v>
       </c>
       <c r="J16" s="51" t="str">
         <f>'RAW GRADES'!BK18</f>
@@ -22571,7 +23129,7 @@
       </c>
       <c r="N16" s="57">
         <f>'RAW GRADES'!CS18</f>
-        <v>0</v>
+        <v>8.9160000000000004</v>
       </c>
       <c r="O16" s="55">
         <f>'RAW GRADES'!CT18</f>
@@ -22592,7 +23150,7 @@
       </c>
       <c r="C17" s="56">
         <f>'RAW GRADES'!F19</f>
-        <v>0</v>
+        <v>18.428571428571427</v>
       </c>
       <c r="D17" s="88" t="str">
         <f>'RAW GRADES'!I19</f>
@@ -22612,11 +23170,11 @@
       </c>
       <c r="H17" s="52">
         <f>'RAW GRADES'!BC19</f>
-        <v>0</v>
+        <v>18.428571428571427</v>
       </c>
       <c r="I17" s="52">
         <f>'RAW GRADES'!BD19</f>
-        <v>0</v>
+        <v>18.43</v>
       </c>
       <c r="J17" s="51" t="str">
         <f>'RAW GRADES'!BK19</f>
@@ -22636,7 +23194,7 @@
       </c>
       <c r="N17" s="57">
         <f>'RAW GRADES'!CS19</f>
-        <v>0</v>
+        <v>7.3719999999999999</v>
       </c>
       <c r="O17" s="55">
         <f>'RAW GRADES'!CT19</f>
@@ -22657,7 +23215,7 @@
       </c>
       <c r="C18" s="56">
         <f>'RAW GRADES'!F20</f>
-        <v>0</v>
+        <v>22.714285714285712</v>
       </c>
       <c r="D18" s="88" t="str">
         <f>'RAW GRADES'!I20</f>
@@ -22677,11 +23235,11 @@
       </c>
       <c r="H18" s="52">
         <f>'RAW GRADES'!BC20</f>
-        <v>0</v>
+        <v>22.714285714285712</v>
       </c>
       <c r="I18" s="52">
         <f>'RAW GRADES'!BD20</f>
-        <v>0</v>
+        <v>22.71</v>
       </c>
       <c r="J18" s="51" t="str">
         <f>'RAW GRADES'!BK20</f>
@@ -22701,7 +23259,7 @@
       </c>
       <c r="N18" s="57">
         <f>'RAW GRADES'!CS20</f>
-        <v>0</v>
+        <v>9.0840000000000014</v>
       </c>
       <c r="O18" s="55">
         <f>'RAW GRADES'!CT20</f>
@@ -22722,7 +23280,7 @@
       </c>
       <c r="C19" s="56">
         <f>'RAW GRADES'!F21</f>
-        <v>0</v>
+        <v>16.714285714285715</v>
       </c>
       <c r="D19" s="88" t="str">
         <f>'RAW GRADES'!I21</f>
@@ -22742,11 +23300,11 @@
       </c>
       <c r="H19" s="52">
         <f>'RAW GRADES'!BC21</f>
-        <v>0</v>
+        <v>16.714285714285715</v>
       </c>
       <c r="I19" s="52">
         <f>'RAW GRADES'!BD21</f>
-        <v>0</v>
+        <v>16.71</v>
       </c>
       <c r="J19" s="51" t="str">
         <f>'RAW GRADES'!BK21</f>
@@ -22766,7 +23324,7 @@
       </c>
       <c r="N19" s="57">
         <f>'RAW GRADES'!CS21</f>
-        <v>0</v>
+        <v>6.6840000000000011</v>
       </c>
       <c r="O19" s="55">
         <f>'RAW GRADES'!CT21</f>
@@ -22787,7 +23345,7 @@
       </c>
       <c r="C20" s="56">
         <f>'RAW GRADES'!F22</f>
-        <v>0</v>
+        <v>21.857142857142854</v>
       </c>
       <c r="D20" s="88" t="str">
         <f>'RAW GRADES'!I22</f>
@@ -22807,11 +23365,11 @@
       </c>
       <c r="H20" s="52">
         <f>'RAW GRADES'!BC22</f>
-        <v>0</v>
+        <v>21.857142857142854</v>
       </c>
       <c r="I20" s="52">
         <f>'RAW GRADES'!BD22</f>
-        <v>0</v>
+        <v>21.86</v>
       </c>
       <c r="J20" s="51" t="str">
         <f>'RAW GRADES'!BK22</f>
@@ -22831,7 +23389,7 @@
       </c>
       <c r="N20" s="57">
         <f>'RAW GRADES'!CS22</f>
-        <v>0</v>
+        <v>8.7439999999999998</v>
       </c>
       <c r="O20" s="55">
         <f>'RAW GRADES'!CT22</f>
@@ -22852,7 +23410,7 @@
       </c>
       <c r="C21" s="56">
         <f>'RAW GRADES'!F23</f>
-        <v>0</v>
+        <v>23.571428571428569</v>
       </c>
       <c r="D21" s="88" t="str">
         <f>'RAW GRADES'!I23</f>
@@ -22872,11 +23430,11 @@
       </c>
       <c r="H21" s="52">
         <f>'RAW GRADES'!BC23</f>
-        <v>0</v>
+        <v>23.571428571428569</v>
       </c>
       <c r="I21" s="52">
         <f>'RAW GRADES'!BD23</f>
-        <v>0</v>
+        <v>23.57</v>
       </c>
       <c r="J21" s="51" t="str">
         <f>'RAW GRADES'!BK23</f>
@@ -22896,7 +23454,7 @@
       </c>
       <c r="N21" s="57">
         <f>'RAW GRADES'!CS23</f>
-        <v>0</v>
+        <v>9.4280000000000008</v>
       </c>
       <c r="O21" s="55">
         <f>'RAW GRADES'!CT23</f>
@@ -22917,7 +23475,7 @@
       </c>
       <c r="C22" s="56">
         <f>'RAW GRADES'!F24</f>
-        <v>0</v>
+        <v>20.571428571428569</v>
       </c>
       <c r="D22" s="88" t="str">
         <f>'RAW GRADES'!I24</f>
@@ -22937,11 +23495,11 @@
       </c>
       <c r="H22" s="52">
         <f>'RAW GRADES'!BC24</f>
-        <v>0</v>
+        <v>20.571428571428569</v>
       </c>
       <c r="I22" s="52">
         <f>'RAW GRADES'!BD24</f>
-        <v>0</v>
+        <v>20.57</v>
       </c>
       <c r="J22" s="51" t="str">
         <f>'RAW GRADES'!BK24</f>
@@ -22961,7 +23519,7 @@
       </c>
       <c r="N22" s="57">
         <f>'RAW GRADES'!CS24</f>
-        <v>0</v>
+        <v>8.2279999999999998</v>
       </c>
       <c r="O22" s="55">
         <f>'RAW GRADES'!CT24</f>
@@ -22982,7 +23540,7 @@
       </c>
       <c r="C23" s="56">
         <f>'RAW GRADES'!F25</f>
-        <v>0</v>
+        <v>18.428571428571427</v>
       </c>
       <c r="D23" s="88" t="str">
         <f>'RAW GRADES'!I25</f>
@@ -23002,11 +23560,11 @@
       </c>
       <c r="H23" s="52">
         <f>'RAW GRADES'!BC25</f>
-        <v>0</v>
+        <v>18.428571428571427</v>
       </c>
       <c r="I23" s="52">
         <f>'RAW GRADES'!BD25</f>
-        <v>0</v>
+        <v>18.43</v>
       </c>
       <c r="J23" s="51" t="str">
         <f>'RAW GRADES'!BK25</f>
@@ -23026,7 +23584,7 @@
       </c>
       <c r="N23" s="57">
         <f>'RAW GRADES'!CS25</f>
-        <v>0</v>
+        <v>7.3719999999999999</v>
       </c>
       <c r="O23" s="55">
         <f>'RAW GRADES'!CT25</f>
@@ -23047,7 +23605,7 @@
       </c>
       <c r="C24" s="56">
         <f>'RAW GRADES'!F26</f>
-        <v>0</v>
+        <v>17.571428571428573</v>
       </c>
       <c r="D24" s="88" t="str">
         <f>'RAW GRADES'!I26</f>
@@ -23067,11 +23625,11 @@
       </c>
       <c r="H24" s="52">
         <f>'RAW GRADES'!BC26</f>
-        <v>0</v>
+        <v>17.571428571428573</v>
       </c>
       <c r="I24" s="52">
         <f>'RAW GRADES'!BD26</f>
-        <v>0</v>
+        <v>17.57</v>
       </c>
       <c r="J24" s="51" t="str">
         <f>'RAW GRADES'!BK26</f>
@@ -23091,7 +23649,7 @@
       </c>
       <c r="N24" s="57">
         <f>'RAW GRADES'!CS26</f>
-        <v>0</v>
+        <v>7.0280000000000005</v>
       </c>
       <c r="O24" s="55">
         <f>'RAW GRADES'!CT26</f>
@@ -23108,11 +23666,11 @@
       </c>
       <c r="B25" s="49" t="str">
         <f>'RAW GRADES'!C27</f>
-        <v>Galido Joy O</v>
+        <v>Fernandez Shaira T</v>
       </c>
       <c r="C25" s="56">
         <f>'RAW GRADES'!F27</f>
-        <v>0</v>
+        <v>20.571428571428569</v>
       </c>
       <c r="D25" s="88" t="str">
         <f>'RAW GRADES'!I27</f>
@@ -23132,11 +23690,11 @@
       </c>
       <c r="H25" s="52">
         <f>'RAW GRADES'!BC27</f>
-        <v>0</v>
+        <v>20.571428571428569</v>
       </c>
       <c r="I25" s="52">
         <f>'RAW GRADES'!BD27</f>
-        <v>0</v>
+        <v>20.57</v>
       </c>
       <c r="J25" s="51" t="str">
         <f>'RAW GRADES'!BK27</f>
@@ -23156,7 +23714,7 @@
       </c>
       <c r="N25" s="57">
         <f>'RAW GRADES'!CS27</f>
-        <v>0</v>
+        <v>8.2279999999999998</v>
       </c>
       <c r="O25" s="55">
         <f>'RAW GRADES'!CT27</f>
@@ -23173,11 +23731,11 @@
       </c>
       <c r="B26" s="49" t="str">
         <f>'RAW GRADES'!C28</f>
-        <v>Ilagan Michael Angelo O</v>
+        <v>Galido Joy O</v>
       </c>
       <c r="C26" s="56">
         <f>'RAW GRADES'!F28</f>
-        <v>0</v>
+        <v>26.571428571428569</v>
       </c>
       <c r="D26" s="88" t="str">
         <f>'RAW GRADES'!I28</f>
@@ -23197,11 +23755,11 @@
       </c>
       <c r="H26" s="52">
         <f>'RAW GRADES'!BC28</f>
-        <v>0</v>
+        <v>26.571428571428569</v>
       </c>
       <c r="I26" s="52">
         <f>'RAW GRADES'!BD28</f>
-        <v>0</v>
+        <v>26.57</v>
       </c>
       <c r="J26" s="51" t="str">
         <f>'RAW GRADES'!BK28</f>
@@ -23221,7 +23779,7 @@
       </c>
       <c r="N26" s="57">
         <f>'RAW GRADES'!CS28</f>
-        <v>0</v>
+        <v>10.628</v>
       </c>
       <c r="O26" s="55">
         <f>'RAW GRADES'!CT28</f>
@@ -23238,11 +23796,11 @@
       </c>
       <c r="B27" s="49" t="str">
         <f>'RAW GRADES'!C29</f>
-        <v>Lorenzo Ronaline T</v>
+        <v>Ilagan Michael Angelo O</v>
       </c>
       <c r="C27" s="56">
         <f>'RAW GRADES'!F29</f>
-        <v>0</v>
+        <v>25.714285714285712</v>
       </c>
       <c r="D27" s="88" t="str">
         <f>'RAW GRADES'!I29</f>
@@ -23262,11 +23820,11 @@
       </c>
       <c r="H27" s="52">
         <f>'RAW GRADES'!BC29</f>
-        <v>0</v>
+        <v>25.714285714285712</v>
       </c>
       <c r="I27" s="52">
         <f>'RAW GRADES'!BD29</f>
-        <v>0</v>
+        <v>25.71</v>
       </c>
       <c r="J27" s="51" t="str">
         <f>'RAW GRADES'!BK29</f>
@@ -23286,7 +23844,7 @@
       </c>
       <c r="N27" s="57">
         <f>'RAW GRADES'!CS29</f>
-        <v>0</v>
+        <v>10.284000000000001</v>
       </c>
       <c r="O27" s="55">
         <f>'RAW GRADES'!CT29</f>
@@ -23303,11 +23861,11 @@
       </c>
       <c r="B28" s="49" t="str">
         <f>'RAW GRADES'!C30</f>
-        <v>Macaspac Zeus Jandel M</v>
+        <v>Lorenzo Ronaline T</v>
       </c>
       <c r="C28" s="56">
         <f>'RAW GRADES'!F30</f>
-        <v>0</v>
+        <v>20.571428571428569</v>
       </c>
       <c r="D28" s="88" t="str">
         <f>'RAW GRADES'!I30</f>
@@ -23327,11 +23885,11 @@
       </c>
       <c r="H28" s="52">
         <f>'RAW GRADES'!BC30</f>
-        <v>0</v>
+        <v>20.571428571428569</v>
       </c>
       <c r="I28" s="52">
         <f>'RAW GRADES'!BD30</f>
-        <v>0</v>
+        <v>20.57</v>
       </c>
       <c r="J28" s="51" t="str">
         <f>'RAW GRADES'!BK30</f>
@@ -23351,7 +23909,7 @@
       </c>
       <c r="N28" s="57">
         <f>'RAW GRADES'!CS30</f>
-        <v>0</v>
+        <v>8.2279999999999998</v>
       </c>
       <c r="O28" s="55">
         <f>'RAW GRADES'!CT30</f>
@@ -23368,11 +23926,11 @@
       </c>
       <c r="B29" s="49" t="str">
         <f>'RAW GRADES'!C31</f>
-        <v>Melendrez Maria Joshua O</v>
+        <v>Macaspac Zeus Jandel M</v>
       </c>
       <c r="C29" s="56">
         <f>'RAW GRADES'!F31</f>
-        <v>0</v>
+        <v>21.428571428571427</v>
       </c>
       <c r="D29" s="88" t="str">
         <f>'RAW GRADES'!I31</f>
@@ -23392,11 +23950,11 @@
       </c>
       <c r="H29" s="52">
         <f>'RAW GRADES'!BC31</f>
-        <v>0</v>
+        <v>21.428571428571427</v>
       </c>
       <c r="I29" s="52">
         <f>'RAW GRADES'!BD31</f>
-        <v>0</v>
+        <v>21.43</v>
       </c>
       <c r="J29" s="51" t="str">
         <f>'RAW GRADES'!BK31</f>
@@ -23416,7 +23974,7 @@
       </c>
       <c r="N29" s="57">
         <f>'RAW GRADES'!CS31</f>
-        <v>0</v>
+        <v>8.572000000000001</v>
       </c>
       <c r="O29" s="55">
         <f>'RAW GRADES'!CT31</f>
@@ -23433,11 +23991,11 @@
       </c>
       <c r="B30" s="49" t="str">
         <f>'RAW GRADES'!C32</f>
-        <v>Mendoza Bhonnie B</v>
+        <v>Melendrez Maria Joshua O</v>
       </c>
       <c r="C30" s="56">
         <f>'RAW GRADES'!F32</f>
-        <v>0</v>
+        <v>25.714285714285712</v>
       </c>
       <c r="D30" s="88" t="str">
         <f>'RAW GRADES'!I32</f>
@@ -23457,11 +24015,11 @@
       </c>
       <c r="H30" s="52">
         <f>'RAW GRADES'!BC32</f>
-        <v>0</v>
+        <v>25.714285714285712</v>
       </c>
       <c r="I30" s="52">
         <f>'RAW GRADES'!BD32</f>
-        <v>0</v>
+        <v>25.71</v>
       </c>
       <c r="J30" s="51" t="str">
         <f>'RAW GRADES'!BK32</f>
@@ -23481,7 +24039,7 @@
       </c>
       <c r="N30" s="57">
         <f>'RAW GRADES'!CS32</f>
-        <v>0</v>
+        <v>10.284000000000001</v>
       </c>
       <c r="O30" s="55">
         <f>'RAW GRADES'!CT32</f>
@@ -23498,11 +24056,11 @@
       </c>
       <c r="B31" s="49" t="str">
         <f>'RAW GRADES'!C33</f>
-        <v>Monterola Arnold P</v>
+        <v>Mendoza Bhonnie B</v>
       </c>
       <c r="C31" s="56">
         <f>'RAW GRADES'!F33</f>
-        <v>0</v>
+        <v>14.571428571428569</v>
       </c>
       <c r="D31" s="88" t="str">
         <f>'RAW GRADES'!I33</f>
@@ -23522,11 +24080,11 @@
       </c>
       <c r="H31" s="52">
         <f>'RAW GRADES'!BC33</f>
-        <v>0</v>
+        <v>14.571428571428569</v>
       </c>
       <c r="I31" s="52">
         <f>'RAW GRADES'!BD33</f>
-        <v>0</v>
+        <v>14.57</v>
       </c>
       <c r="J31" s="51" t="str">
         <f>'RAW GRADES'!BK33</f>
@@ -23546,7 +24104,7 @@
       </c>
       <c r="N31" s="57">
         <f>'RAW GRADES'!CS33</f>
-        <v>0</v>
+        <v>5.8280000000000003</v>
       </c>
       <c r="O31" s="55">
         <f>'RAW GRADES'!CT33</f>
@@ -23563,11 +24121,11 @@
       </c>
       <c r="B32" s="49" t="str">
         <f>'RAW GRADES'!C34</f>
-        <v>Ollet Allan L</v>
+        <v>Monterola Arnold P</v>
       </c>
       <c r="C32" s="56">
         <f>'RAW GRADES'!F34</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D32" s="88" t="str">
         <f>'RAW GRADES'!I34</f>
@@ -23587,11 +24145,11 @@
       </c>
       <c r="H32" s="52">
         <f>'RAW GRADES'!BC34</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I32" s="52">
         <f>'RAW GRADES'!BD34</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J32" s="51" t="str">
         <f>'RAW GRADES'!BK34</f>
@@ -23611,7 +24169,7 @@
       </c>
       <c r="N32" s="57">
         <f>'RAW GRADES'!CS34</f>
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="O32" s="55">
         <f>'RAW GRADES'!CT34</f>
@@ -23628,11 +24186,11 @@
       </c>
       <c r="B33" s="49" t="str">
         <f>'RAW GRADES'!C35</f>
-        <v xml:space="preserve">Regalario Rose Ann M </v>
+        <v>Ollet Allan L</v>
       </c>
       <c r="C33" s="56">
         <f>'RAW GRADES'!F35</f>
-        <v>0</v>
+        <v>15.857142857142858</v>
       </c>
       <c r="D33" s="88" t="str">
         <f>'RAW GRADES'!I35</f>
@@ -23652,11 +24210,11 @@
       </c>
       <c r="H33" s="52">
         <f>'RAW GRADES'!BC35</f>
-        <v>0</v>
+        <v>15.857142857142858</v>
       </c>
       <c r="I33" s="52">
         <f>'RAW GRADES'!BD35</f>
-        <v>0</v>
+        <v>15.86</v>
       </c>
       <c r="J33" s="51" t="str">
         <f>'RAW GRADES'!BK35</f>
@@ -23676,7 +24234,7 @@
       </c>
       <c r="N33" s="57">
         <f>'RAW GRADES'!CS35</f>
-        <v>0</v>
+        <v>6.3440000000000003</v>
       </c>
       <c r="O33" s="55">
         <f>'RAW GRADES'!CT35</f>
@@ -23693,11 +24251,11 @@
       </c>
       <c r="B34" s="49" t="str">
         <f>'RAW GRADES'!C36</f>
-        <v>Salazar Alfonso Gerald B</v>
+        <v>Poblete Jan Fritzgerald A</v>
       </c>
       <c r="C34" s="56">
         <f>'RAW GRADES'!F36</f>
-        <v>0</v>
+        <v>16.285714285714285</v>
       </c>
       <c r="D34" s="88" t="str">
         <f>'RAW GRADES'!I36</f>
@@ -23717,11 +24275,11 @@
       </c>
       <c r="H34" s="52">
         <f>'RAW GRADES'!BC36</f>
-        <v>0</v>
+        <v>16.285714285714285</v>
       </c>
       <c r="I34" s="52">
         <f>'RAW GRADES'!BD36</f>
-        <v>0</v>
+        <v>16.29</v>
       </c>
       <c r="J34" s="51" t="str">
         <f>'RAW GRADES'!BK36</f>
@@ -23741,7 +24299,7 @@
       </c>
       <c r="N34" s="57">
         <f>'RAW GRADES'!CS36</f>
-        <v>0</v>
+        <v>6.516</v>
       </c>
       <c r="O34" s="55">
         <f>'RAW GRADES'!CT36</f>
@@ -23758,7 +24316,7 @@
       </c>
       <c r="B35" s="49" t="str">
         <f>'RAW GRADES'!C37</f>
-        <v>Siat Diana Corinne G</v>
+        <v xml:space="preserve">Regalario Rose Ann M </v>
       </c>
       <c r="C35" s="56">
         <f>'RAW GRADES'!F37</f>
@@ -23823,7 +24381,7 @@
       </c>
       <c r="B36" s="49" t="str">
         <f>'RAW GRADES'!C38</f>
-        <v>Tanjusay Jhonafe P</v>
+        <v>Salazar Alfonso Gerald B</v>
       </c>
       <c r="C36" s="56">
         <f>'RAW GRADES'!F38</f>
@@ -23888,11 +24446,11 @@
       </c>
       <c r="B37" s="49" t="str">
         <f>'RAW GRADES'!C39</f>
-        <v>Toledo John Ronmar S</v>
+        <v>Siat Diana Corinne G</v>
       </c>
       <c r="C37" s="56">
         <f>'RAW GRADES'!F39</f>
-        <v>0</v>
+        <v>18.857142857142854</v>
       </c>
       <c r="D37" s="88" t="str">
         <f>'RAW GRADES'!I39</f>
@@ -23912,11 +24470,11 @@
       </c>
       <c r="H37" s="52">
         <f>'RAW GRADES'!BC39</f>
-        <v>0</v>
+        <v>18.857142857142854</v>
       </c>
       <c r="I37" s="52">
         <f>'RAW GRADES'!BD39</f>
-        <v>0</v>
+        <v>18.86</v>
       </c>
       <c r="J37" s="51" t="str">
         <f>'RAW GRADES'!BK39</f>
@@ -23936,7 +24494,7 @@
       </c>
       <c r="N37" s="57">
         <f>'RAW GRADES'!CS39</f>
-        <v>0</v>
+        <v>7.5440000000000005</v>
       </c>
       <c r="O37" s="55">
         <f>'RAW GRADES'!CT39</f>
@@ -23953,11 +24511,11 @@
       </c>
       <c r="B38" s="49" t="str">
         <f>'RAW GRADES'!C40</f>
-        <v>Tulisana Jerome J</v>
+        <v>Tanjusay Jhonafe P</v>
       </c>
       <c r="C38" s="56">
         <f>'RAW GRADES'!F40</f>
-        <v>0</v>
+        <v>21.857142857142854</v>
       </c>
       <c r="D38" s="88" t="str">
         <f>'RAW GRADES'!I40</f>
@@ -23977,11 +24535,11 @@
       </c>
       <c r="H38" s="52">
         <f>'RAW GRADES'!BC40</f>
-        <v>0</v>
+        <v>21.857142857142854</v>
       </c>
       <c r="I38" s="52">
         <f>'RAW GRADES'!BD40</f>
-        <v>0</v>
+        <v>21.86</v>
       </c>
       <c r="J38" s="51" t="str">
         <f>'RAW GRADES'!BK40</f>
@@ -24001,7 +24559,7 @@
       </c>
       <c r="N38" s="57">
         <f>'RAW GRADES'!CS40</f>
-        <v>0</v>
+        <v>8.7439999999999998</v>
       </c>
       <c r="O38" s="55">
         <f>'RAW GRADES'!CT40</f>
@@ -24018,11 +24576,11 @@
       </c>
       <c r="B39" s="49" t="str">
         <f>'RAW GRADES'!C41</f>
-        <v xml:space="preserve">Vilanuevea Leyi </v>
+        <v>Toledo John Ronmar S</v>
       </c>
       <c r="C39" s="56">
         <f>'RAW GRADES'!F41</f>
-        <v>0</v>
+        <v>20.571428571428569</v>
       </c>
       <c r="D39" s="88" t="str">
         <f>'RAW GRADES'!I41</f>
@@ -24042,11 +24600,11 @@
       </c>
       <c r="H39" s="52">
         <f>'RAW GRADES'!BC41</f>
-        <v>0</v>
+        <v>20.571428571428569</v>
       </c>
       <c r="I39" s="52">
         <f>'RAW GRADES'!BD41</f>
-        <v>0</v>
+        <v>20.57</v>
       </c>
       <c r="J39" s="51" t="str">
         <f>'RAW GRADES'!BK41</f>
@@ -24066,7 +24624,7 @@
       </c>
       <c r="N39" s="57">
         <f>'RAW GRADES'!CS41</f>
-        <v>0</v>
+        <v>8.2279999999999998</v>
       </c>
       <c r="O39" s="55">
         <f>'RAW GRADES'!CT41</f>
@@ -24083,11 +24641,11 @@
       </c>
       <c r="B40" s="49" t="str">
         <f>'RAW GRADES'!C42</f>
-        <v>Yu Rama Krsna dasi P</v>
+        <v>Tulisana Jerome J</v>
       </c>
       <c r="C40" s="56">
         <f>'RAW GRADES'!F42</f>
-        <v>0</v>
+        <v>19.285714285714288</v>
       </c>
       <c r="D40" s="88" t="str">
         <f>'RAW GRADES'!I42</f>
@@ -24107,11 +24665,11 @@
       </c>
       <c r="H40" s="52">
         <f>'RAW GRADES'!BC42</f>
-        <v>0</v>
+        <v>19.285714285714288</v>
       </c>
       <c r="I40" s="52">
         <f>'RAW GRADES'!BD42</f>
-        <v>0</v>
+        <v>19.29</v>
       </c>
       <c r="J40" s="51" t="str">
         <f>'RAW GRADES'!BK42</f>
@@ -24131,7 +24689,7 @@
       </c>
       <c r="N40" s="57">
         <f>'RAW GRADES'!CS42</f>
-        <v>0</v>
+        <v>7.7160000000000002</v>
       </c>
       <c r="O40" s="55">
         <f>'RAW GRADES'!CT42</f>
@@ -24148,7 +24706,7 @@
       </c>
       <c r="B41" s="49" t="str">
         <f>'RAW GRADES'!C43</f>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">Vilanuevea Leyi </v>
       </c>
       <c r="C41" s="56">
         <f>'RAW GRADES'!F43</f>
@@ -24213,11 +24771,11 @@
       </c>
       <c r="B42" s="49" t="str">
         <f>'RAW GRADES'!C44</f>
-        <v xml:space="preserve">  </v>
+        <v>Yu Rama Krsna dasi P</v>
       </c>
       <c r="C42" s="56">
         <f>'RAW GRADES'!F44</f>
-        <v>0</v>
+        <v>11.571428571428573</v>
       </c>
       <c r="D42" s="88" t="str">
         <f>'RAW GRADES'!I44</f>
@@ -24237,11 +24795,11 @@
       </c>
       <c r="H42" s="52">
         <f>'RAW GRADES'!BC44</f>
-        <v>0</v>
+        <v>11.571428571428573</v>
       </c>
       <c r="I42" s="52">
         <f>'RAW GRADES'!BD44</f>
-        <v>0</v>
+        <v>11.57</v>
       </c>
       <c r="J42" s="51" t="str">
         <f>'RAW GRADES'!BK44</f>
@@ -24261,7 +24819,7 @@
       </c>
       <c r="N42" s="57">
         <f>'RAW GRADES'!CS44</f>
-        <v>0</v>
+        <v>4.6280000000000001</v>
       </c>
       <c r="O42" s="55">
         <f>'RAW GRADES'!CT44</f>
@@ -25976,7 +26534,7 @@
     <mergeCell ref="C5:I5"/>
   </mergeCells>
   <conditionalFormatting sqref="P8:P68">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="1" operator="equal">
       <formula>"FAILED"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26018,106 +26576,106 @@
       <c r="F2" s="59"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="260"/>
-      <c r="B3" s="260"/>
-      <c r="C3" s="260"/>
-      <c r="D3" s="260"/>
-      <c r="E3" s="260"/>
-      <c r="F3" s="260"/>
+      <c r="A3" s="229"/>
+      <c r="B3" s="229"/>
+      <c r="C3" s="229"/>
+      <c r="D3" s="229"/>
+      <c r="E3" s="229"/>
+      <c r="F3" s="229"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="263" t="s">
+      <c r="A4" s="230" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="263"/>
-      <c r="C4" s="263"/>
-      <c r="D4" s="263"/>
-      <c r="E4" s="263"/>
-      <c r="F4" s="263"/>
+      <c r="B4" s="230"/>
+      <c r="C4" s="230"/>
+      <c r="D4" s="230"/>
+      <c r="E4" s="230"/>
+      <c r="F4" s="230"/>
     </row>
     <row r="5" spans="1:6" ht="18">
-      <c r="A5" s="264" t="s">
+      <c r="A5" s="231" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="264"/>
-      <c r="C5" s="264"/>
-      <c r="D5" s="264"/>
-      <c r="E5" s="264"/>
-      <c r="F5" s="264"/>
+      <c r="B5" s="231"/>
+      <c r="C5" s="231"/>
+      <c r="D5" s="231"/>
+      <c r="E5" s="231"/>
+      <c r="F5" s="231"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="263" t="s">
+      <c r="A6" s="230" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="263"/>
-      <c r="C6" s="263"/>
-      <c r="D6" s="263"/>
-      <c r="E6" s="263"/>
-      <c r="F6" s="263"/>
+      <c r="B6" s="230"/>
+      <c r="C6" s="230"/>
+      <c r="D6" s="230"/>
+      <c r="E6" s="230"/>
+      <c r="F6" s="230"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="265" t="s">
+      <c r="A7" s="232" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="265"/>
-      <c r="C7" s="265"/>
-      <c r="D7" s="265"/>
-      <c r="E7" s="265"/>
-      <c r="F7" s="265"/>
+      <c r="B7" s="232"/>
+      <c r="C7" s="232"/>
+      <c r="D7" s="232"/>
+      <c r="E7" s="232"/>
+      <c r="F7" s="232"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="266"/>
-      <c r="B8" s="266"/>
-      <c r="C8" s="266"/>
-      <c r="D8" s="266"/>
-      <c r="E8" s="266"/>
-      <c r="F8" s="266"/>
+      <c r="A8" s="233"/>
+      <c r="B8" s="233"/>
+      <c r="C8" s="233"/>
+      <c r="D8" s="233"/>
+      <c r="E8" s="233"/>
+      <c r="F8" s="233"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="260"/>
-      <c r="B9" s="260"/>
-      <c r="C9" s="260"/>
-      <c r="D9" s="260"/>
-      <c r="E9" s="260"/>
-      <c r="F9" s="260"/>
+      <c r="A9" s="229"/>
+      <c r="B9" s="229"/>
+      <c r="C9" s="229"/>
+      <c r="D9" s="229"/>
+      <c r="E9" s="229"/>
+      <c r="F9" s="229"/>
     </row>
     <row r="10" spans="1:6" ht="18">
-      <c r="A10" s="267"/>
-      <c r="B10" s="267"/>
-      <c r="C10" s="267"/>
-      <c r="D10" s="267"/>
-      <c r="E10" s="267"/>
-      <c r="F10" s="267"/>
+      <c r="A10" s="234"/>
+      <c r="B10" s="234"/>
+      <c r="C10" s="234"/>
+      <c r="D10" s="234"/>
+      <c r="E10" s="234"/>
+      <c r="F10" s="234"/>
     </row>
     <row r="11" spans="1:6" ht="22.5">
-      <c r="A11" s="268" t="s">
+      <c r="A11" s="235" t="s">
         <v>110</v>
       </c>
-      <c r="B11" s="268"/>
-      <c r="C11" s="268"/>
-      <c r="D11" s="268"/>
-      <c r="E11" s="268"/>
-      <c r="F11" s="268"/>
+      <c r="B11" s="235"/>
+      <c r="C11" s="235"/>
+      <c r="D11" s="235"/>
+      <c r="E11" s="235"/>
+      <c r="F11" s="235"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="266"/>
-      <c r="B12" s="266"/>
-      <c r="C12" s="266"/>
-      <c r="D12" s="266"/>
-      <c r="E12" s="266"/>
-      <c r="F12" s="266"/>
+      <c r="A12" s="233"/>
+      <c r="B12" s="233"/>
+      <c r="C12" s="233"/>
+      <c r="D12" s="233"/>
+      <c r="E12" s="233"/>
+      <c r="F12" s="233"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="59"/>
       <c r="B13" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="269" t="str">
+      <c r="C13" s="236" t="str">
         <f>REGISTRATION!C7</f>
         <v>DCIT 21</v>
       </c>
-      <c r="D13" s="269"/>
-      <c r="E13" s="269"/>
+      <c r="D13" s="236"/>
+      <c r="E13" s="236"/>
       <c r="F13" s="61"/>
     </row>
     <row r="14" spans="1:6">
@@ -26125,12 +26683,12 @@
       <c r="B14" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="262" t="str">
+      <c r="C14" s="228" t="str">
         <f>REGISTRATION!C6</f>
         <v>Programming I</v>
       </c>
-      <c r="D14" s="262"/>
-      <c r="E14" s="262"/>
+      <c r="D14" s="228"/>
+      <c r="E14" s="228"/>
       <c r="F14" s="61"/>
     </row>
     <row r="15" spans="1:6">
@@ -26138,12 +26696,12 @@
       <c r="B15" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="248" t="str">
+      <c r="C15" s="239" t="str">
         <f>REGISTRATION!A4</f>
         <v>FIRST YEAR</v>
       </c>
-      <c r="D15" s="248"/>
-      <c r="E15" s="248"/>
+      <c r="D15" s="239"/>
+      <c r="E15" s="239"/>
       <c r="F15" s="62"/>
     </row>
     <row r="16" spans="1:6">
@@ -26151,12 +26709,12 @@
       <c r="B16" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="248" t="str">
+      <c r="C16" s="239" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!C8," ",REGISTRATION!D8))</f>
         <v>IT 1D</v>
       </c>
-      <c r="D16" s="248"/>
-      <c r="E16" s="248"/>
+      <c r="D16" s="239"/>
+      <c r="E16" s="239"/>
       <c r="F16" s="62"/>
     </row>
     <row r="17" spans="1:6">
@@ -26164,12 +26722,12 @@
       <c r="B17" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="248" t="str">
+      <c r="C17" s="239" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!P13," ","SEMESTER"," ","A.Y."," ",REGISTRATION!P12))</f>
         <v>FIRST SEMESTER A.Y. 2017-2018</v>
       </c>
-      <c r="D17" s="248"/>
-      <c r="E17" s="248"/>
+      <c r="D17" s="239"/>
+      <c r="E17" s="239"/>
       <c r="F17" s="62"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1">
@@ -26181,42 +26739,42 @@
       <c r="F18" s="59"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="249" t="s">
+      <c r="A19" s="240" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="252" t="s">
+      <c r="B19" s="243" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="249" t="s">
+      <c r="C19" s="240" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="249" t="s">
+      <c r="D19" s="240" t="s">
         <v>116</v>
       </c>
-      <c r="E19" s="254" t="s">
+      <c r="E19" s="245" t="s">
         <v>117</v>
       </c>
-      <c r="F19" s="249" t="s">
+      <c r="F19" s="240" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="250"/>
-      <c r="B20" s="253"/>
-      <c r="C20" s="250"/>
-      <c r="D20" s="250"/>
-      <c r="E20" s="255"/>
-      <c r="F20" s="257"/>
+      <c r="A20" s="241"/>
+      <c r="B20" s="244"/>
+      <c r="C20" s="241"/>
+      <c r="D20" s="241"/>
+      <c r="E20" s="246"/>
+      <c r="F20" s="248"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A21" s="251"/>
+      <c r="A21" s="242"/>
       <c r="B21" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="C21" s="251"/>
-      <c r="D21" s="251"/>
-      <c r="E21" s="256"/>
-      <c r="F21" s="258"/>
+      <c r="C21" s="242"/>
+      <c r="D21" s="242"/>
+      <c r="E21" s="247"/>
+      <c r="F21" s="249"/>
     </row>
     <row r="22" spans="1:6" ht="18">
       <c r="A22" s="64">
@@ -26649,11 +27207,11 @@
       </c>
       <c r="B39" s="65" t="str">
         <f>'DEPT CHAIR'!B25</f>
-        <v>Galido Joy O</v>
-      </c>
-      <c r="C39" s="66" t="str">
+        <v>Fernandez Shaira T</v>
+      </c>
+      <c r="C39" s="66">
         <f>REGISTRATION!B28</f>
-        <v>201701-602</v>
+        <v>0</v>
       </c>
       <c r="D39" s="67">
         <f>'DEPT CHAIR'!O25</f>
@@ -26674,11 +27232,11 @@
       </c>
       <c r="B40" s="65" t="str">
         <f>'DEPT CHAIR'!B26</f>
-        <v>Ilagan Michael Angelo O</v>
+        <v>Galido Joy O</v>
       </c>
       <c r="C40" s="66" t="str">
         <f>REGISTRATION!B29</f>
-        <v>201701-640</v>
+        <v>201701-602</v>
       </c>
       <c r="D40" s="67">
         <f>'DEPT CHAIR'!O26</f>
@@ -26699,11 +27257,11 @@
       </c>
       <c r="B41" s="65" t="str">
         <f>'DEPT CHAIR'!B27</f>
-        <v>Lorenzo Ronaline T</v>
+        <v>Ilagan Michael Angelo O</v>
       </c>
       <c r="C41" s="66" t="str">
         <f>REGISTRATION!B30</f>
-        <v>201701-554</v>
+        <v>201701-640</v>
       </c>
       <c r="D41" s="67">
         <f>'DEPT CHAIR'!O27</f>
@@ -26724,11 +27282,11 @@
       </c>
       <c r="B42" s="65" t="str">
         <f>'DEPT CHAIR'!B28</f>
-        <v>Macaspac Zeus Jandel M</v>
+        <v>Lorenzo Ronaline T</v>
       </c>
       <c r="C42" s="66" t="str">
         <f>REGISTRATION!B31</f>
-        <v>201701-607</v>
+        <v>201701-554</v>
       </c>
       <c r="D42" s="67">
         <f>'DEPT CHAIR'!O28</f>
@@ -26749,11 +27307,11 @@
       </c>
       <c r="B43" s="65" t="str">
         <f>'DEPT CHAIR'!B29</f>
-        <v>Melendrez Maria Joshua O</v>
+        <v>Macaspac Zeus Jandel M</v>
       </c>
       <c r="C43" s="66" t="str">
         <f>REGISTRATION!B32</f>
-        <v>201701-061</v>
+        <v>201701-607</v>
       </c>
       <c r="D43" s="67">
         <f>'DEPT CHAIR'!O29</f>
@@ -26774,11 +27332,11 @@
       </c>
       <c r="B44" s="65" t="str">
         <f>'DEPT CHAIR'!B30</f>
-        <v>Mendoza Bhonnie B</v>
+        <v>Melendrez Maria Joshua O</v>
       </c>
       <c r="C44" s="66" t="str">
         <f>REGISTRATION!B33</f>
-        <v>201701-189</v>
+        <v>201701-061</v>
       </c>
       <c r="D44" s="67">
         <f>'DEPT CHAIR'!O30</f>
@@ -26799,11 +27357,11 @@
       </c>
       <c r="B45" s="65" t="str">
         <f>'DEPT CHAIR'!B31</f>
-        <v>Monterola Arnold P</v>
+        <v>Mendoza Bhonnie B</v>
       </c>
       <c r="C45" s="66" t="str">
         <f>REGISTRATION!B34</f>
-        <v>201701-404</v>
+        <v>201701-189</v>
       </c>
       <c r="D45" s="67">
         <f>'DEPT CHAIR'!O31</f>
@@ -26824,11 +27382,11 @@
       </c>
       <c r="B46" s="65" t="str">
         <f>'DEPT CHAIR'!B32</f>
-        <v>Ollet Allan L</v>
+        <v>Monterola Arnold P</v>
       </c>
       <c r="C46" s="66" t="str">
         <f>REGISTRATION!B35</f>
-        <v>201701-614</v>
+        <v>201701-404</v>
       </c>
       <c r="D46" s="67">
         <f>'DEPT CHAIR'!O32</f>
@@ -26849,11 +27407,11 @@
       </c>
       <c r="B47" s="65" t="str">
         <f>'DEPT CHAIR'!B33</f>
-        <v xml:space="preserve">Regalario Rose Ann M </v>
+        <v>Ollet Allan L</v>
       </c>
       <c r="C47" s="66" t="str">
         <f>REGISTRATION!B36</f>
-        <v>201701-484</v>
+        <v>201701-614</v>
       </c>
       <c r="D47" s="67">
         <f>'DEPT CHAIR'!O33</f>
@@ -26874,11 +27432,11 @@
       </c>
       <c r="B48" s="65" t="str">
         <f>'DEPT CHAIR'!B34</f>
-        <v>Salazar Alfonso Gerald B</v>
-      </c>
-      <c r="C48" s="66" t="str">
+        <v>Poblete Jan Fritzgerald A</v>
+      </c>
+      <c r="C48" s="66">
         <f>REGISTRATION!B37</f>
-        <v>201602-055</v>
+        <v>0</v>
       </c>
       <c r="D48" s="67">
         <f>'DEPT CHAIR'!O34</f>
@@ -26899,11 +27457,11 @@
       </c>
       <c r="B49" s="65" t="str">
         <f>'DEPT CHAIR'!B35</f>
-        <v>Siat Diana Corinne G</v>
+        <v xml:space="preserve">Regalario Rose Ann M </v>
       </c>
       <c r="C49" s="66" t="str">
         <f>REGISTRATION!B38</f>
-        <v>201602-118</v>
+        <v>201701-484</v>
       </c>
       <c r="D49" s="67">
         <f>'DEPT CHAIR'!O35</f>
@@ -26924,11 +27482,11 @@
       </c>
       <c r="B50" s="65" t="str">
         <f>'DEPT CHAIR'!B36</f>
-        <v>Tanjusay Jhonafe P</v>
+        <v>Salazar Alfonso Gerald B</v>
       </c>
       <c r="C50" s="66" t="str">
         <f>REGISTRATION!B39</f>
-        <v>201701-605</v>
+        <v>201602-055</v>
       </c>
       <c r="D50" s="67">
         <f>'DEPT CHAIR'!O36</f>
@@ -26949,11 +27507,11 @@
       </c>
       <c r="B51" s="65" t="str">
         <f>'DEPT CHAIR'!B37</f>
-        <v>Toledo John Ronmar S</v>
+        <v>Siat Diana Corinne G</v>
       </c>
       <c r="C51" s="66" t="str">
         <f>REGISTRATION!B40</f>
-        <v>201701-683</v>
+        <v>201602-118</v>
       </c>
       <c r="D51" s="67">
         <f>'DEPT CHAIR'!O37</f>
@@ -26974,11 +27532,11 @@
       </c>
       <c r="B52" s="65" t="str">
         <f>'DEPT CHAIR'!B38</f>
-        <v>Tulisana Jerome J</v>
+        <v>Tanjusay Jhonafe P</v>
       </c>
       <c r="C52" s="66" t="str">
         <f>REGISTRATION!B41</f>
-        <v>201701-282</v>
+        <v>201701-605</v>
       </c>
       <c r="D52" s="67">
         <f>'DEPT CHAIR'!O38</f>
@@ -26999,11 +27557,11 @@
       </c>
       <c r="B53" s="65" t="str">
         <f>'DEPT CHAIR'!B39</f>
-        <v xml:space="preserve">Vilanuevea Leyi </v>
+        <v>Toledo John Ronmar S</v>
       </c>
       <c r="C53" s="66" t="str">
         <f>REGISTRATION!B42</f>
-        <v>201602-093</v>
+        <v>201701-683</v>
       </c>
       <c r="D53" s="67">
         <f>'DEPT CHAIR'!O39</f>
@@ -27024,11 +27582,11 @@
       </c>
       <c r="B54" s="65" t="str">
         <f>'DEPT CHAIR'!B40</f>
-        <v>Yu Rama Krsna dasi P</v>
+        <v>Tulisana Jerome J</v>
       </c>
       <c r="C54" s="66" t="str">
         <f>REGISTRATION!B43</f>
-        <v>201602-088</v>
+        <v>201701-282</v>
       </c>
       <c r="D54" s="67">
         <f>'DEPT CHAIR'!O40</f>
@@ -27049,11 +27607,11 @@
       </c>
       <c r="B55" s="65" t="str">
         <f>'DEPT CHAIR'!B41</f>
-        <v xml:space="preserve">  </v>
-      </c>
-      <c r="C55" s="66">
+        <v xml:space="preserve">Vilanuevea Leyi </v>
+      </c>
+      <c r="C55" s="66" t="str">
         <f>REGISTRATION!B44</f>
-        <v>0</v>
+        <v>201602-093</v>
       </c>
       <c r="D55" s="67">
         <f>'DEPT CHAIR'!O41</f>
@@ -27074,11 +27632,11 @@
       </c>
       <c r="B56" s="65" t="str">
         <f>'DEPT CHAIR'!B42</f>
-        <v xml:space="preserve">  </v>
-      </c>
-      <c r="C56" s="66">
+        <v>Yu Rama Krsna dasi P</v>
+      </c>
+      <c r="C56" s="66" t="str">
         <f>REGISTRATION!B45</f>
-        <v>0</v>
+        <v>201602-088</v>
       </c>
       <c r="D56" s="67">
         <f>'DEPT CHAIR'!O42</f>
@@ -27729,14 +28287,14 @@
       <c r="F82" s="83"/>
     </row>
     <row r="83" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A83" s="232" t="s">
+      <c r="A83" s="256" t="s">
         <v>119</v>
       </c>
-      <c r="B83" s="233"/>
-      <c r="C83" s="233"/>
-      <c r="D83" s="233"/>
-      <c r="E83" s="233"/>
-      <c r="F83" s="234"/>
+      <c r="B83" s="257"/>
+      <c r="C83" s="257"/>
+      <c r="D83" s="257"/>
+      <c r="E83" s="257"/>
+      <c r="F83" s="258"/>
     </row>
     <row r="84" spans="1:6" ht="15.75">
       <c r="A84" s="61"/>
@@ -27769,11 +28327,11 @@
       </c>
       <c r="C87" s="59"/>
       <c r="D87" s="59"/>
-      <c r="E87" s="259">
+      <c r="E87" s="250">
         <f ca="1">NOW()</f>
-        <v>43004.407706134261</v>
-      </c>
-      <c r="F87" s="259"/>
+        <v>43014.516310763887</v>
+      </c>
+      <c r="F87" s="250"/>
     </row>
     <row r="88" spans="1:6" ht="15.75">
       <c r="A88" s="59"/>
@@ -27783,10 +28341,10 @@
       </c>
       <c r="C88" s="72"/>
       <c r="D88" s="72"/>
-      <c r="E88" s="260" t="s">
+      <c r="E88" s="229" t="s">
         <v>121</v>
       </c>
-      <c r="F88" s="260"/>
+      <c r="F88" s="229"/>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="59"/>
@@ -27803,8 +28361,8 @@
       <c r="B90" s="73"/>
       <c r="C90" s="73"/>
       <c r="D90" s="73"/>
-      <c r="E90" s="260"/>
-      <c r="F90" s="260"/>
+      <c r="E90" s="229"/>
+      <c r="F90" s="229"/>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="59"/>
@@ -27920,14 +28478,14 @@
       <c r="F104" s="59"/>
     </row>
     <row r="105" spans="1:7" ht="15.75">
-      <c r="A105" s="261" t="s">
+      <c r="A105" s="251" t="s">
         <v>136</v>
       </c>
-      <c r="B105" s="261"/>
-      <c r="C105" s="261"/>
-      <c r="D105" s="261"/>
-      <c r="E105" s="261"/>
-      <c r="F105" s="261"/>
+      <c r="B105" s="251"/>
+      <c r="C105" s="251"/>
+      <c r="D105" s="251"/>
+      <c r="E105" s="251"/>
+      <c r="F105" s="251"/>
     </row>
     <row r="106" spans="1:7" ht="15.75" thickBot="1">
       <c r="A106" s="59"/>
@@ -27942,124 +28500,124 @@
       <c r="B107" s="77" t="s">
         <v>137</v>
       </c>
-      <c r="C107" s="245" t="s">
+      <c r="C107" s="269" t="s">
         <v>138</v>
       </c>
-      <c r="D107" s="246"/>
-      <c r="E107" s="247" t="s">
+      <c r="D107" s="238"/>
+      <c r="E107" s="237" t="s">
         <v>139</v>
       </c>
-      <c r="F107" s="246"/>
+      <c r="F107" s="238"/>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="59"/>
       <c r="B108" s="85" t="s">
         <v>123</v>
       </c>
-      <c r="C108" s="241">
+      <c r="C108" s="265">
         <f>COUNTIF($D$22:$D$82,"=1.0")+COUNTIF($D$22:$D$82,"=1.25")+(COUNTIF($D$22:$D$82,"=1.50")+COUNTIF($D$22:$D$82,"=1.75"))</f>
         <v>0</v>
       </c>
-      <c r="D108" s="242"/>
-      <c r="E108" s="243">
+      <c r="D108" s="266"/>
+      <c r="E108" s="267">
         <f>(C108/$C$114)*100</f>
         <v>0</v>
       </c>
-      <c r="F108" s="244"/>
+      <c r="F108" s="268"/>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="59"/>
       <c r="B109" s="86" t="s">
         <v>124</v>
       </c>
-      <c r="C109" s="235">
+      <c r="C109" s="259">
         <f>COUNTIF($D$22:$D$82,"=2.0")+COUNTIF($D$22:$D$82,"=2.25")+(COUNTIF($D$22:$D$82,"=2.50")+COUNTIF($D$22:$D$82,"=2.75"))</f>
         <v>0</v>
       </c>
-      <c r="D109" s="236"/>
-      <c r="E109" s="237">
+      <c r="D109" s="260"/>
+      <c r="E109" s="261">
         <f>(C109/$C$114)*100</f>
         <v>0</v>
       </c>
-      <c r="F109" s="238"/>
+      <c r="F109" s="262"/>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="59"/>
       <c r="B110" s="86" t="s">
         <v>125</v>
       </c>
-      <c r="C110" s="235">
+      <c r="C110" s="259">
         <f>COUNTIF($D$22:$D$82,"=3.0")</f>
         <v>0</v>
       </c>
-      <c r="D110" s="236"/>
-      <c r="E110" s="237">
+      <c r="D110" s="260"/>
+      <c r="E110" s="261">
         <f t="shared" ref="E110:E113" si="1">(C110/$C$114)*100</f>
         <v>0</v>
       </c>
-      <c r="F110" s="238"/>
+      <c r="F110" s="262"/>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="59"/>
       <c r="B111" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="C111" s="235">
+      <c r="C111" s="259">
         <f>COUNTIF($D$22:$D$82,"=5.0")</f>
         <v>60</v>
       </c>
-      <c r="D111" s="236"/>
-      <c r="E111" s="237">
+      <c r="D111" s="260"/>
+      <c r="E111" s="261">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="F111" s="238"/>
+      <c r="F111" s="262"/>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="59"/>
       <c r="B112" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="C112" s="239">
-        <v>0</v>
-      </c>
-      <c r="D112" s="240"/>
-      <c r="E112" s="237">
+      <c r="C112" s="263">
+        <v>0</v>
+      </c>
+      <c r="D112" s="264"/>
+      <c r="E112" s="261">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F112" s="238"/>
+      <c r="F112" s="262"/>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="59"/>
       <c r="B113" s="86" t="s">
         <v>128</v>
       </c>
-      <c r="C113" s="239">
-        <v>0</v>
-      </c>
-      <c r="D113" s="240"/>
-      <c r="E113" s="237">
+      <c r="C113" s="263">
+        <v>0</v>
+      </c>
+      <c r="D113" s="264"/>
+      <c r="E113" s="261">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F113" s="238"/>
+      <c r="F113" s="262"/>
     </row>
     <row r="114" spans="1:6" ht="16.5" thickBot="1">
       <c r="A114" s="59"/>
       <c r="B114" s="87" t="s">
         <v>129</v>
       </c>
-      <c r="C114" s="228">
+      <c r="C114" s="252">
         <f>SUM(C108:D113)</f>
         <v>60</v>
       </c>
-      <c r="D114" s="229"/>
-      <c r="E114" s="230">
+      <c r="D114" s="253"/>
+      <c r="E114" s="254">
         <f>SUM(E108:F113)</f>
         <v>100</v>
       </c>
-      <c r="F114" s="231"/>
+      <c r="F114" s="255"/>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="59"/>
@@ -28227,32 +28785,6 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="42">
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="A105:F105"/>
     <mergeCell ref="C114:D114"/>
     <mergeCell ref="E114:F114"/>
     <mergeCell ref="A83:F83"/>
@@ -28269,9 +28801,35 @@
     <mergeCell ref="C110:D110"/>
     <mergeCell ref="E110:F110"/>
     <mergeCell ref="C107:D107"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="C13:E13"/>
   </mergeCells>
   <conditionalFormatting sqref="F22:F81">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="1" operator="equal">
       <formula>"FAILED"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28882,13 +29440,13 @@
       <c r="A21" s="115">
         <v>18</v>
       </c>
-      <c r="B21" s="110" t="str">
+      <c r="B21" s="110">
         <f>'SEMESTRAL GRADE'!C39</f>
-        <v>201701-602</v>
+        <v>0</v>
       </c>
       <c r="C21" s="112" t="str">
         <f>'SEMESTRAL GRADE'!B39</f>
-        <v>Galido Joy O</v>
+        <v>Fernandez Shaira T</v>
       </c>
       <c r="D21" s="115"/>
       <c r="E21" s="40"/>
@@ -28912,11 +29470,11 @@
       </c>
       <c r="B22" s="110" t="str">
         <f>'SEMESTRAL GRADE'!C40</f>
-        <v>201701-640</v>
+        <v>201701-602</v>
       </c>
       <c r="C22" s="112" t="str">
         <f>'SEMESTRAL GRADE'!B40</f>
-        <v>Ilagan Michael Angelo O</v>
+        <v>Galido Joy O</v>
       </c>
       <c r="D22" s="115"/>
       <c r="E22" s="40"/>
@@ -28940,11 +29498,11 @@
       </c>
       <c r="B23" s="110" t="str">
         <f>'SEMESTRAL GRADE'!C41</f>
-        <v>201701-554</v>
+        <v>201701-640</v>
       </c>
       <c r="C23" s="112" t="str">
         <f>'SEMESTRAL GRADE'!B41</f>
-        <v>Lorenzo Ronaline T</v>
+        <v>Ilagan Michael Angelo O</v>
       </c>
       <c r="D23" s="115"/>
       <c r="E23" s="40"/>
@@ -28968,11 +29526,11 @@
       </c>
       <c r="B24" s="110" t="str">
         <f>'SEMESTRAL GRADE'!C42</f>
-        <v>201701-607</v>
+        <v>201701-554</v>
       </c>
       <c r="C24" s="112" t="str">
         <f>'SEMESTRAL GRADE'!B42</f>
-        <v>Macaspac Zeus Jandel M</v>
+        <v>Lorenzo Ronaline T</v>
       </c>
       <c r="D24" s="115"/>
       <c r="E24" s="40"/>
@@ -28996,11 +29554,11 @@
       </c>
       <c r="B25" s="110" t="str">
         <f>'SEMESTRAL GRADE'!C43</f>
-        <v>201701-061</v>
+        <v>201701-607</v>
       </c>
       <c r="C25" s="112" t="str">
         <f>'SEMESTRAL GRADE'!B43</f>
-        <v>Melendrez Maria Joshua O</v>
+        <v>Macaspac Zeus Jandel M</v>
       </c>
       <c r="D25" s="115"/>
       <c r="E25" s="40"/>
@@ -29024,11 +29582,11 @@
       </c>
       <c r="B26" s="110" t="str">
         <f>'SEMESTRAL GRADE'!C44</f>
-        <v>201701-189</v>
+        <v>201701-061</v>
       </c>
       <c r="C26" s="112" t="str">
         <f>'SEMESTRAL GRADE'!B44</f>
-        <v>Mendoza Bhonnie B</v>
+        <v>Melendrez Maria Joshua O</v>
       </c>
       <c r="D26" s="115"/>
       <c r="E26" s="40"/>
@@ -29052,11 +29610,11 @@
       </c>
       <c r="B27" s="110" t="str">
         <f>'SEMESTRAL GRADE'!C45</f>
-        <v>201701-404</v>
+        <v>201701-189</v>
       </c>
       <c r="C27" s="112" t="str">
         <f>'SEMESTRAL GRADE'!B45</f>
-        <v>Monterola Arnold P</v>
+        <v>Mendoza Bhonnie B</v>
       </c>
       <c r="D27" s="115"/>
       <c r="E27" s="40"/>
@@ -29080,11 +29638,11 @@
       </c>
       <c r="B28" s="110" t="str">
         <f>'SEMESTRAL GRADE'!C46</f>
-        <v>201701-614</v>
+        <v>201701-404</v>
       </c>
       <c r="C28" s="112" t="str">
         <f>'SEMESTRAL GRADE'!B46</f>
-        <v>Ollet Allan L</v>
+        <v>Monterola Arnold P</v>
       </c>
       <c r="D28" s="115"/>
       <c r="E28" s="40"/>
@@ -29108,11 +29666,11 @@
       </c>
       <c r="B29" s="110" t="str">
         <f>'SEMESTRAL GRADE'!C47</f>
-        <v>201701-484</v>
+        <v>201701-614</v>
       </c>
       <c r="C29" s="112" t="str">
         <f>'SEMESTRAL GRADE'!B47</f>
-        <v xml:space="preserve">Regalario Rose Ann M </v>
+        <v>Ollet Allan L</v>
       </c>
       <c r="D29" s="115"/>
       <c r="E29" s="40"/>
@@ -29134,13 +29692,13 @@
       <c r="A30" s="115">
         <v>27</v>
       </c>
-      <c r="B30" s="110" t="str">
+      <c r="B30" s="110">
         <f>'SEMESTRAL GRADE'!C48</f>
-        <v>201602-055</v>
+        <v>0</v>
       </c>
       <c r="C30" s="112" t="str">
         <f>'SEMESTRAL GRADE'!B48</f>
-        <v>Salazar Alfonso Gerald B</v>
+        <v>Poblete Jan Fritzgerald A</v>
       </c>
       <c r="D30" s="115"/>
       <c r="E30" s="40"/>
@@ -29164,11 +29722,11 @@
       </c>
       <c r="B31" s="110" t="str">
         <f>'SEMESTRAL GRADE'!C49</f>
-        <v>201602-118</v>
+        <v>201701-484</v>
       </c>
       <c r="C31" s="112" t="str">
         <f>'SEMESTRAL GRADE'!B49</f>
-        <v>Siat Diana Corinne G</v>
+        <v xml:space="preserve">Regalario Rose Ann M </v>
       </c>
       <c r="D31" s="115"/>
       <c r="E31" s="40"/>
@@ -29192,11 +29750,11 @@
       </c>
       <c r="B32" s="110" t="str">
         <f>'SEMESTRAL GRADE'!C50</f>
-        <v>201701-605</v>
+        <v>201602-055</v>
       </c>
       <c r="C32" s="112" t="str">
         <f>'SEMESTRAL GRADE'!B50</f>
-        <v>Tanjusay Jhonafe P</v>
+        <v>Salazar Alfonso Gerald B</v>
       </c>
       <c r="D32" s="115"/>
       <c r="E32" s="40"/>

--- a/DCIT 21 - IT 1D/LEC AND LAB - IT1D.xlsx
+++ b/DCIT 21 - IT 1D/LEC AND LAB - IT1D.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650"/>
   </bookViews>
   <sheets>
     <sheet name="REGISTRATION" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="293">
   <si>
     <t>Subject:</t>
   </si>
@@ -918,12 +918,6 @@
     <t>201701-282</t>
   </si>
   <si>
-    <t>Vilanuevea</t>
-  </si>
-  <si>
-    <t>Leyi</t>
-  </si>
-  <si>
     <t>201602-093</t>
   </si>
   <si>
@@ -952,6 +946,24 @@
   </si>
   <si>
     <t>Shaira</t>
+  </si>
+  <si>
+    <t>Recitation</t>
+  </si>
+  <si>
+    <t>Assignment</t>
+  </si>
+  <si>
+    <t>201601-051</t>
+  </si>
+  <si>
+    <t>Levi</t>
+  </si>
+  <si>
+    <t>Villanueva</t>
+  </si>
+  <si>
+    <t>201701-382</t>
   </si>
 </sst>
 </file>
@@ -2948,7 +2960,24 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="63">
+  <dxfs count="43">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2956,6 +2985,36 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3005,26 +3064,6 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -3036,126 +3075,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3215,37 +3134,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3268,83 +3157,6 @@
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -3976,8 +3788,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:R71"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B45" sqref="B11:B45"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4718,7 +4530,7 @@
         <v>17</v>
       </c>
       <c r="B27" s="125" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C27" s="125" t="s">
         <v>226</v>
@@ -4750,12 +4562,14 @@
       <c r="A28" s="14">
         <v>18</v>
       </c>
-      <c r="B28" s="125"/>
+      <c r="B28" s="125" t="s">
+        <v>289</v>
+      </c>
       <c r="C28" s="125" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D28" s="125" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E28" s="125" t="s">
         <v>237</v>
@@ -4821,7 +4635,7 @@
         <v>233</v>
       </c>
       <c r="D30" s="125" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E30" s="125" t="s">
         <v>231</v>
@@ -5017,12 +4831,14 @@
       <c r="A37" s="14">
         <v>27</v>
       </c>
-      <c r="B37" s="125"/>
+      <c r="B37" s="125" t="s">
+        <v>292</v>
+      </c>
       <c r="C37" s="125" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D37" s="125" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E37" s="125" t="s">
         <v>194</v>
@@ -5205,13 +5021,13 @@
         <v>34</v>
       </c>
       <c r="B44" s="125" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C44" s="125" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D44" s="125" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="E44" s="125"/>
       <c r="F44" s="16"/>
@@ -5228,13 +5044,13 @@
         <v>35</v>
       </c>
       <c r="B45" s="125" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C45" s="125" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D45" s="125" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E45" s="125" t="s">
         <v>208</v>
@@ -5911,187 +5727,187 @@
     <mergeCell ref="L7:M7"/>
   </mergeCells>
   <conditionalFormatting sqref="B23:B71">
-    <cfRule type="cellIs" dxfId="62" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="47" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:B71">
-    <cfRule type="cellIs" dxfId="61" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="48" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C71">
-    <cfRule type="cellIs" dxfId="60" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="46" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C71">
-    <cfRule type="cellIs" dxfId="59" priority="45" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="45" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:D71">
-    <cfRule type="cellIs" dxfId="58" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="44" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:D71">
-    <cfRule type="cellIs" dxfId="57" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="43" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22:E71">
-    <cfRule type="cellIs" dxfId="56" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="42" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22:E71">
-    <cfRule type="cellIs" dxfId="55" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="41" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B27">
-    <cfRule type="cellIs" dxfId="54" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="31" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B27">
-    <cfRule type="cellIs" dxfId="53" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="32" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C28">
-    <cfRule type="cellIs" dxfId="52" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="30" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C28">
-    <cfRule type="cellIs" dxfId="51" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="29" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:D28">
-    <cfRule type="cellIs" dxfId="50" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="28" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:D28">
-    <cfRule type="cellIs" dxfId="49" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="27" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E28">
-    <cfRule type="cellIs" dxfId="48" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E28">
-    <cfRule type="cellIs" dxfId="47" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="25" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:E37">
-    <cfRule type="cellIs" dxfId="46" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="24" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:E37">
-    <cfRule type="cellIs" dxfId="45" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="23" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:E37">
-    <cfRule type="cellIs" dxfId="44" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="22" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:E37">
-    <cfRule type="cellIs" dxfId="43" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:E37">
-    <cfRule type="cellIs" dxfId="42" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="20" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:E37">
-    <cfRule type="cellIs" dxfId="41" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37:E37">
-    <cfRule type="cellIs" dxfId="36" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="18" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37:E37">
-    <cfRule type="cellIs" dxfId="34" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37:E37">
-    <cfRule type="cellIs" dxfId="32" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="16" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37:E37">
-    <cfRule type="cellIs" dxfId="30" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37:E37">
-    <cfRule type="cellIs" dxfId="28" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="14" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37:E37">
-    <cfRule type="cellIs" dxfId="26" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="cellIs" dxfId="23" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="cellIs" dxfId="21" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="11" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="19" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="17" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="9" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="13" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="7" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38:E38">
-    <cfRule type="cellIs" dxfId="11" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="6" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38:E38">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38:E38">
-    <cfRule type="cellIs" dxfId="7" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6101,12 +5917,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38:E38">
-    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38:E38">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6129,9 +5945,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:CU70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D10" sqref="D10:D44"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6611,7 +6427,7 @@
       <c r="S7" s="189"/>
       <c r="T7" s="190">
         <f>COUNT(J9,L9,N9,P9,R9,T9)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U7" s="190"/>
       <c r="V7" s="189"/>
@@ -6635,7 +6451,9 @@
       <c r="AN7" s="96">
         <v>0.2</v>
       </c>
-      <c r="AO7" s="189"/>
+      <c r="AO7" s="189" t="s">
+        <v>287</v>
+      </c>
       <c r="AP7" s="189"/>
       <c r="AQ7" s="189"/>
       <c r="AR7" s="189"/>
@@ -6647,7 +6465,9 @@
       <c r="AU7" s="20">
         <v>0.1</v>
       </c>
-      <c r="AV7" s="189"/>
+      <c r="AV7" s="189" t="s">
+        <v>288</v>
+      </c>
       <c r="AW7" s="189"/>
       <c r="AX7" s="189"/>
       <c r="AY7" s="189"/>
@@ -6924,9 +6744,13 @@
       <c r="I9" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="J9" s="26"/>
+      <c r="J9" s="26">
+        <v>20</v>
+      </c>
       <c r="K9" s="28"/>
-      <c r="L9" s="26"/>
+      <c r="L9" s="26">
+        <v>25</v>
+      </c>
       <c r="M9" s="28"/>
       <c r="N9" s="26"/>
       <c r="O9" s="28"/>
@@ -7102,15 +6926,19 @@
         <f t="shared" ref="I10:I41" si="1">IFERROR((H10*$I$7), "")</f>
         <v/>
       </c>
-      <c r="J10" s="106"/>
-      <c r="K10" s="91" t="str">
+      <c r="J10" s="106">
+        <v>12</v>
+      </c>
+      <c r="K10" s="91">
         <f>IFERROR(((J10/$J$9)*100), "")</f>
-        <v/>
-      </c>
-      <c r="L10" s="106"/>
-      <c r="M10" s="91" t="str">
+        <v>60</v>
+      </c>
+      <c r="L10" s="106">
+        <v>10</v>
+      </c>
+      <c r="M10" s="91">
         <f>IFERROR(((L10/$L$9)*100),"")</f>
-        <v/>
+        <v>40</v>
       </c>
       <c r="N10" s="106"/>
       <c r="O10" s="91" t="str">
@@ -7150,9 +6978,9 @@
       <c r="AK10" s="92"/>
       <c r="AL10" s="92"/>
       <c r="AM10" s="92"/>
-      <c r="AN10" s="94" t="str">
+      <c r="AN10" s="94">
         <f>IFERROR((((SUM(K10,M10,O10,Q10,S10,U10)/$T$7))*$AN$7),"")</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="AO10" s="106"/>
       <c r="AP10" s="91" t="str">
@@ -7194,11 +7022,11 @@
       </c>
       <c r="BC10" s="97">
         <f>IFERROR(SUM(BB10,AU10,AN10,I10,F10),"")</f>
-        <v>12.857142857142856</v>
+        <v>22.857142857142854</v>
       </c>
       <c r="BD10" s="97">
         <f>IFERROR(ROUND(BC10,2),"")</f>
-        <v>12.86</v>
+        <v>22.86</v>
       </c>
       <c r="BE10" s="106"/>
       <c r="BF10" s="91" t="str">
@@ -7308,7 +7136,7 @@
       </c>
       <c r="CS10" s="103">
         <f>IFERROR(((CR10*0.6)+(BD10*0.4)),"")</f>
-        <v>5.1440000000000001</v>
+        <v>9.1440000000000001</v>
       </c>
       <c r="CT10" s="103">
         <f>IFERROR(VLOOKUP(CS10,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -7352,15 +7180,19 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J11" s="107"/>
-      <c r="K11" s="91" t="str">
+      <c r="J11" s="107">
+        <v>11</v>
+      </c>
+      <c r="K11" s="91">
         <f t="shared" ref="K11:K70" si="3">IFERROR(((J11/$J$9)*100), "")</f>
-        <v/>
-      </c>
-      <c r="L11" s="107"/>
-      <c r="M11" s="91" t="str">
+        <v>55.000000000000007</v>
+      </c>
+      <c r="L11" s="107">
+        <v>12</v>
+      </c>
+      <c r="M11" s="91">
         <f t="shared" ref="M11:M70" si="4">IFERROR(((L11/$L$9)*100),"")</f>
-        <v/>
+        <v>48</v>
       </c>
       <c r="N11" s="107"/>
       <c r="O11" s="91" t="str">
@@ -7400,9 +7232,9 @@
       <c r="AK11" s="93"/>
       <c r="AL11" s="93"/>
       <c r="AM11" s="93"/>
-      <c r="AN11" s="94" t="str">
+      <c r="AN11" s="94">
         <f t="shared" ref="AN11:AN70" si="9">IFERROR((((SUM(K11,M11,O11,Q11,S11,U11)/$T$7))*$AN$7),"")</f>
-        <v/>
+        <v>10.3</v>
       </c>
       <c r="AO11" s="107"/>
       <c r="AP11" s="91" t="str">
@@ -7444,11 +7276,11 @@
       </c>
       <c r="BC11" s="97">
         <f t="shared" ref="BC11:BC70" si="18">IFERROR(SUM(BB11,AU11,AN11,I11,F11),"")</f>
-        <v>17.142857142857142</v>
+        <v>27.442857142857143</v>
       </c>
       <c r="BD11" s="97">
         <f t="shared" ref="BD11:BD70" si="19">IFERROR(ROUND(BC11,2),"")</f>
-        <v>17.14</v>
+        <v>27.44</v>
       </c>
       <c r="BE11" s="107"/>
       <c r="BF11" s="91" t="str">
@@ -7558,7 +7390,7 @@
       </c>
       <c r="CS11" s="103">
         <f t="shared" ref="CS11:CS22" si="41">IFERROR(((CR11*0.6)+(BD11*0.4)),"")</f>
-        <v>6.8560000000000008</v>
+        <v>10.976000000000001</v>
       </c>
       <c r="CT11" s="103">
         <f>IFERROR(VLOOKUP(CS11,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -7602,15 +7434,19 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J12" s="107"/>
-      <c r="K12" s="91" t="str">
+      <c r="J12" s="107">
+        <v>15</v>
+      </c>
+      <c r="K12" s="91">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L12" s="107"/>
-      <c r="M12" s="91" t="str">
+        <v>75</v>
+      </c>
+      <c r="L12" s="107">
+        <v>11</v>
+      </c>
+      <c r="M12" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>44</v>
       </c>
       <c r="N12" s="107"/>
       <c r="O12" s="91" t="str">
@@ -7650,9 +7486,9 @@
       <c r="AK12" s="93"/>
       <c r="AL12" s="93"/>
       <c r="AM12" s="93"/>
-      <c r="AN12" s="94" t="str">
+      <c r="AN12" s="94">
         <f t="shared" si="9"/>
-        <v/>
+        <v>11.9</v>
       </c>
       <c r="AO12" s="107"/>
       <c r="AP12" s="91" t="str">
@@ -7694,11 +7530,11 @@
       </c>
       <c r="BC12" s="97">
         <f t="shared" si="18"/>
-        <v>16.285714285714285</v>
+        <v>28.185714285714283</v>
       </c>
       <c r="BD12" s="97">
         <f t="shared" si="19"/>
-        <v>16.29</v>
+        <v>28.19</v>
       </c>
       <c r="BE12" s="107"/>
       <c r="BF12" s="91" t="str">
@@ -7808,7 +7644,7 @@
       </c>
       <c r="CS12" s="103">
         <f t="shared" si="41"/>
-        <v>6.516</v>
+        <v>11.276000000000002</v>
       </c>
       <c r="CT12" s="103">
         <f>IFERROR(VLOOKUP(CS12,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -7852,15 +7688,19 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J13" s="107"/>
-      <c r="K13" s="91" t="str">
+      <c r="J13" s="107">
+        <v>13</v>
+      </c>
+      <c r="K13" s="91">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L13" s="107"/>
-      <c r="M13" s="91" t="str">
+        <v>65</v>
+      </c>
+      <c r="L13" s="107">
+        <v>13</v>
+      </c>
+      <c r="M13" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>52</v>
       </c>
       <c r="N13" s="107"/>
       <c r="O13" s="91" t="str">
@@ -7900,9 +7740,9 @@
       <c r="AK13" s="93"/>
       <c r="AL13" s="93"/>
       <c r="AM13" s="93"/>
-      <c r="AN13" s="94" t="str">
+      <c r="AN13" s="94">
         <f t="shared" si="9"/>
-        <v/>
+        <v>11.700000000000001</v>
       </c>
       <c r="AO13" s="107"/>
       <c r="AP13" s="91" t="str">
@@ -7944,11 +7784,11 @@
       </c>
       <c r="BC13" s="97">
         <f t="shared" si="18"/>
-        <v>16.285714285714285</v>
+        <v>27.985714285714288</v>
       </c>
       <c r="BD13" s="97">
         <f t="shared" si="19"/>
-        <v>16.29</v>
+        <v>27.99</v>
       </c>
       <c r="BE13" s="107"/>
       <c r="BF13" s="91" t="str">
@@ -8058,7 +7898,7 @@
       </c>
       <c r="CS13" s="103">
         <f t="shared" si="41"/>
-        <v>6.516</v>
+        <v>11.196</v>
       </c>
       <c r="CT13" s="103">
         <f>IFERROR(VLOOKUP(CS13,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -8102,15 +7942,19 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J14" s="107"/>
-      <c r="K14" s="91" t="str">
+      <c r="J14" s="107">
+        <v>12</v>
+      </c>
+      <c r="K14" s="91">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L14" s="107"/>
-      <c r="M14" s="91" t="str">
+        <v>60</v>
+      </c>
+      <c r="L14" s="107">
+        <v>10</v>
+      </c>
+      <c r="M14" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>40</v>
       </c>
       <c r="N14" s="107"/>
       <c r="O14" s="91" t="str">
@@ -8150,9 +7994,9 @@
       <c r="AK14" s="93"/>
       <c r="AL14" s="93"/>
       <c r="AM14" s="93"/>
-      <c r="AN14" s="94" t="str">
+      <c r="AN14" s="94">
         <f t="shared" si="9"/>
-        <v/>
+        <v>10</v>
       </c>
       <c r="AO14" s="107"/>
       <c r="AP14" s="91" t="str">
@@ -8194,11 +8038,11 @@
       </c>
       <c r="BC14" s="97">
         <f t="shared" si="18"/>
-        <v>13.714285714285714</v>
+        <v>23.714285714285715</v>
       </c>
       <c r="BD14" s="97">
         <f t="shared" si="19"/>
-        <v>13.71</v>
+        <v>23.71</v>
       </c>
       <c r="BE14" s="107"/>
       <c r="BF14" s="91" t="str">
@@ -8308,7 +8152,7 @@
       </c>
       <c r="CS14" s="103">
         <f t="shared" si="41"/>
-        <v>5.4840000000000009</v>
+        <v>9.484</v>
       </c>
       <c r="CT14" s="103">
         <f>IFERROR(VLOOKUP(CS14,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -8352,15 +8196,19 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J15" s="107"/>
-      <c r="K15" s="91" t="str">
+      <c r="J15" s="107">
+        <v>14</v>
+      </c>
+      <c r="K15" s="91">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L15" s="107"/>
-      <c r="M15" s="91" t="str">
+        <v>70</v>
+      </c>
+      <c r="L15" s="107">
+        <v>13</v>
+      </c>
+      <c r="M15" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>52</v>
       </c>
       <c r="N15" s="107"/>
       <c r="O15" s="91" t="str">
@@ -8400,9 +8248,9 @@
       <c r="AK15" s="93"/>
       <c r="AL15" s="93"/>
       <c r="AM15" s="93"/>
-      <c r="AN15" s="94" t="str">
+      <c r="AN15" s="94">
         <f t="shared" si="9"/>
-        <v/>
+        <v>12.200000000000001</v>
       </c>
       <c r="AO15" s="107"/>
       <c r="AP15" s="91" t="str">
@@ -8444,11 +8292,11 @@
       </c>
       <c r="BC15" s="97">
         <f t="shared" si="18"/>
-        <v>17.142857142857142</v>
+        <v>29.342857142857142</v>
       </c>
       <c r="BD15" s="97">
         <f t="shared" si="19"/>
-        <v>17.14</v>
+        <v>29.34</v>
       </c>
       <c r="BE15" s="107"/>
       <c r="BF15" s="91" t="str">
@@ -8558,7 +8406,7 @@
       </c>
       <c r="CS15" s="103">
         <f t="shared" si="41"/>
-        <v>6.8560000000000008</v>
+        <v>11.736000000000001</v>
       </c>
       <c r="CT15" s="103">
         <f>IFERROR(VLOOKUP(CS15,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -8602,15 +8450,19 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J16" s="107"/>
-      <c r="K16" s="91" t="str">
+      <c r="J16" s="107">
+        <v>15</v>
+      </c>
+      <c r="K16" s="91">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L16" s="107"/>
-      <c r="M16" s="91" t="str">
+        <v>75</v>
+      </c>
+      <c r="L16" s="107">
+        <v>13</v>
+      </c>
+      <c r="M16" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>52</v>
       </c>
       <c r="N16" s="107"/>
       <c r="O16" s="91" t="str">
@@ -8650,9 +8502,9 @@
       <c r="AK16" s="93"/>
       <c r="AL16" s="93"/>
       <c r="AM16" s="93"/>
-      <c r="AN16" s="94" t="str">
+      <c r="AN16" s="94">
         <f t="shared" si="9"/>
-        <v/>
+        <v>12.700000000000001</v>
       </c>
       <c r="AO16" s="107"/>
       <c r="AP16" s="91" t="str">
@@ -8694,11 +8546,11 @@
       </c>
       <c r="BC16" s="97">
         <f t="shared" si="18"/>
-        <v>21</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="BD16" s="97">
         <f t="shared" si="19"/>
-        <v>21</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="BE16" s="107"/>
       <c r="BF16" s="91" t="str">
@@ -8808,7 +8660,7 @@
       </c>
       <c r="CS16" s="103">
         <f t="shared" si="41"/>
-        <v>8.4</v>
+        <v>13.480000000000002</v>
       </c>
       <c r="CT16" s="103">
         <f>IFERROR(VLOOKUP(CS16,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -8852,15 +8704,19 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J17" s="107"/>
-      <c r="K17" s="91" t="str">
+      <c r="J17" s="107">
+        <v>15</v>
+      </c>
+      <c r="K17" s="91">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L17" s="107"/>
-      <c r="M17" s="91" t="str">
+        <v>75</v>
+      </c>
+      <c r="L17" s="107">
+        <v>19</v>
+      </c>
+      <c r="M17" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>76</v>
       </c>
       <c r="N17" s="107"/>
       <c r="O17" s="91" t="str">
@@ -8900,9 +8756,9 @@
       <c r="AK17" s="93"/>
       <c r="AL17" s="93"/>
       <c r="AM17" s="93"/>
-      <c r="AN17" s="94" t="str">
+      <c r="AN17" s="94">
         <f t="shared" si="9"/>
-        <v/>
+        <v>15.100000000000001</v>
       </c>
       <c r="AO17" s="107"/>
       <c r="AP17" s="91" t="str">
@@ -8944,11 +8800,11 @@
       </c>
       <c r="BC17" s="97">
         <f t="shared" si="18"/>
-        <v>21.428571428571427</v>
+        <v>36.528571428571425</v>
       </c>
       <c r="BD17" s="97">
         <f t="shared" si="19"/>
-        <v>21.43</v>
+        <v>36.53</v>
       </c>
       <c r="BE17" s="107"/>
       <c r="BF17" s="91" t="str">
@@ -9058,7 +8914,7 @@
       </c>
       <c r="CS17" s="103">
         <f t="shared" si="41"/>
-        <v>8.572000000000001</v>
+        <v>14.612000000000002</v>
       </c>
       <c r="CT17" s="103">
         <f>IFERROR(VLOOKUP(CS17,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -9102,15 +8958,19 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J18" s="107"/>
-      <c r="K18" s="91" t="str">
+      <c r="J18" s="107">
+        <v>16</v>
+      </c>
+      <c r="K18" s="91">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L18" s="107"/>
-      <c r="M18" s="91" t="str">
+        <v>80</v>
+      </c>
+      <c r="L18" s="107">
+        <v>19</v>
+      </c>
+      <c r="M18" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>76</v>
       </c>
       <c r="N18" s="107"/>
       <c r="O18" s="91" t="str">
@@ -9150,9 +9010,9 @@
       <c r="AK18" s="93"/>
       <c r="AL18" s="93"/>
       <c r="AM18" s="93"/>
-      <c r="AN18" s="94" t="str">
+      <c r="AN18" s="94">
         <f t="shared" si="9"/>
-        <v/>
+        <v>15.600000000000001</v>
       </c>
       <c r="AO18" s="107"/>
       <c r="AP18" s="91" t="str">
@@ -9194,11 +9054,11 @@
       </c>
       <c r="BC18" s="97">
         <f t="shared" si="18"/>
-        <v>22.285714285714288</v>
+        <v>37.885714285714286</v>
       </c>
       <c r="BD18" s="97">
         <f t="shared" si="19"/>
-        <v>22.29</v>
+        <v>37.89</v>
       </c>
       <c r="BE18" s="107"/>
       <c r="BF18" s="91" t="str">
@@ -9308,7 +9168,7 @@
       </c>
       <c r="CS18" s="103">
         <f t="shared" si="41"/>
-        <v>8.9160000000000004</v>
+        <v>15.156000000000001</v>
       </c>
       <c r="CT18" s="103">
         <f>IFERROR(VLOOKUP(CS18,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -9352,15 +9212,19 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J19" s="107"/>
-      <c r="K19" s="91" t="str">
+      <c r="J19" s="107">
+        <v>16</v>
+      </c>
+      <c r="K19" s="91">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L19" s="107"/>
-      <c r="M19" s="91" t="str">
+        <v>80</v>
+      </c>
+      <c r="L19" s="107">
+        <v>14</v>
+      </c>
+      <c r="M19" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>56.000000000000007</v>
       </c>
       <c r="N19" s="107"/>
       <c r="O19" s="91" t="str">
@@ -9400,9 +9264,9 @@
       <c r="AK19" s="93"/>
       <c r="AL19" s="93"/>
       <c r="AM19" s="93"/>
-      <c r="AN19" s="94" t="str">
+      <c r="AN19" s="94">
         <f t="shared" si="9"/>
-        <v/>
+        <v>13.600000000000001</v>
       </c>
       <c r="AO19" s="107"/>
       <c r="AP19" s="91" t="str">
@@ -9444,11 +9308,11 @@
       </c>
       <c r="BC19" s="97">
         <f t="shared" si="18"/>
-        <v>18.428571428571427</v>
+        <v>32.028571428571425</v>
       </c>
       <c r="BD19" s="97">
         <f t="shared" si="19"/>
-        <v>18.43</v>
+        <v>32.03</v>
       </c>
       <c r="BE19" s="107"/>
       <c r="BF19" s="91" t="str">
@@ -9558,7 +9422,7 @@
       </c>
       <c r="CS19" s="103">
         <f t="shared" si="41"/>
-        <v>7.3719999999999999</v>
+        <v>12.812000000000001</v>
       </c>
       <c r="CT19" s="103">
         <f>IFERROR(VLOOKUP(CS19,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -9603,14 +9467,14 @@
         <v/>
       </c>
       <c r="J20" s="107"/>
-      <c r="K20" s="91" t="str">
+      <c r="K20" s="91">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L20" s="107"/>
-      <c r="M20" s="91" t="str">
+      <c r="M20" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N20" s="107"/>
       <c r="O20" s="91" t="str">
@@ -9650,9 +9514,9 @@
       <c r="AK20" s="93"/>
       <c r="AL20" s="93"/>
       <c r="AM20" s="93"/>
-      <c r="AN20" s="94" t="str">
+      <c r="AN20" s="94">
         <f t="shared" si="9"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AO20" s="107"/>
       <c r="AP20" s="91" t="str">
@@ -9852,15 +9716,19 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J21" s="107"/>
-      <c r="K21" s="91" t="str">
+      <c r="J21" s="107">
+        <v>15</v>
+      </c>
+      <c r="K21" s="91">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L21" s="107"/>
-      <c r="M21" s="91" t="str">
+        <v>75</v>
+      </c>
+      <c r="L21" s="107">
+        <v>12</v>
+      </c>
+      <c r="M21" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>48</v>
       </c>
       <c r="N21" s="107"/>
       <c r="O21" s="91" t="str">
@@ -9900,9 +9768,9 @@
       <c r="AK21" s="93"/>
       <c r="AL21" s="93"/>
       <c r="AM21" s="93"/>
-      <c r="AN21" s="94" t="str">
+      <c r="AN21" s="94">
         <f t="shared" si="9"/>
-        <v/>
+        <v>12.3</v>
       </c>
       <c r="AO21" s="107"/>
       <c r="AP21" s="91" t="str">
@@ -9944,11 +9812,11 @@
       </c>
       <c r="BC21" s="97">
         <f t="shared" si="18"/>
-        <v>16.714285714285715</v>
+        <v>29.014285714285716</v>
       </c>
       <c r="BD21" s="97">
         <f t="shared" si="19"/>
-        <v>16.71</v>
+        <v>29.01</v>
       </c>
       <c r="BE21" s="107"/>
       <c r="BF21" s="91" t="str">
@@ -10058,7 +9926,7 @@
       </c>
       <c r="CS21" s="103">
         <f t="shared" si="41"/>
-        <v>6.6840000000000011</v>
+        <v>11.604000000000001</v>
       </c>
       <c r="CT21" s="103">
         <f>IFERROR(VLOOKUP(CS21,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -10102,15 +9970,19 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J22" s="107"/>
-      <c r="K22" s="91" t="str">
+      <c r="J22" s="107">
+        <v>13</v>
+      </c>
+      <c r="K22" s="91">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L22" s="107"/>
-      <c r="M22" s="91" t="str">
+        <v>65</v>
+      </c>
+      <c r="L22" s="107">
+        <v>17</v>
+      </c>
+      <c r="M22" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>68</v>
       </c>
       <c r="N22" s="107"/>
       <c r="O22" s="91" t="str">
@@ -10150,9 +10022,9 @@
       <c r="AK22" s="93"/>
       <c r="AL22" s="93"/>
       <c r="AM22" s="93"/>
-      <c r="AN22" s="94" t="str">
+      <c r="AN22" s="94">
         <f t="shared" si="9"/>
-        <v/>
+        <v>13.3</v>
       </c>
       <c r="AO22" s="107"/>
       <c r="AP22" s="91" t="str">
@@ -10194,11 +10066,11 @@
       </c>
       <c r="BC22" s="97">
         <f t="shared" si="18"/>
-        <v>21.857142857142854</v>
+        <v>35.157142857142858</v>
       </c>
       <c r="BD22" s="97">
         <f t="shared" si="19"/>
-        <v>21.86</v>
+        <v>35.159999999999997</v>
       </c>
       <c r="BE22" s="107"/>
       <c r="BF22" s="91" t="str">
@@ -10308,7 +10180,7 @@
       </c>
       <c r="CS22" s="103">
         <f t="shared" si="41"/>
-        <v>8.7439999999999998</v>
+        <v>14.064</v>
       </c>
       <c r="CT22" s="103">
         <f>IFERROR(VLOOKUP(CS22,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -10352,15 +10224,19 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J23" s="107"/>
-      <c r="K23" s="91" t="str">
+      <c r="J23" s="107">
+        <v>18</v>
+      </c>
+      <c r="K23" s="91">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L23" s="107"/>
-      <c r="M23" s="91" t="str">
+        <v>90</v>
+      </c>
+      <c r="L23" s="107">
+        <v>17</v>
+      </c>
+      <c r="M23" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>68</v>
       </c>
       <c r="N23" s="107"/>
       <c r="O23" s="91" t="str">
@@ -10400,9 +10276,9 @@
       <c r="AK23" s="93"/>
       <c r="AL23" s="93"/>
       <c r="AM23" s="93"/>
-      <c r="AN23" s="94" t="str">
+      <c r="AN23" s="94">
         <f t="shared" si="9"/>
-        <v/>
+        <v>15.8</v>
       </c>
       <c r="AO23" s="107"/>
       <c r="AP23" s="91" t="str">
@@ -10444,11 +10320,11 @@
       </c>
       <c r="BC23" s="97">
         <f t="shared" si="18"/>
-        <v>23.571428571428569</v>
+        <v>39.371428571428567</v>
       </c>
       <c r="BD23" s="97">
         <f t="shared" si="19"/>
-        <v>23.57</v>
+        <v>39.369999999999997</v>
       </c>
       <c r="BE23" s="107"/>
       <c r="BF23" s="91" t="str">
@@ -10558,7 +10434,7 @@
       </c>
       <c r="CS23" s="103">
         <f t="shared" ref="CS23:CS70" si="45">IFERROR(((CR23*0.6)+(BD23*0.4)),"")</f>
-        <v>9.4280000000000008</v>
+        <v>15.747999999999999</v>
       </c>
       <c r="CT23" s="103">
         <f>IFERROR(VLOOKUP(CS23,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -10602,15 +10478,19 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J24" s="107"/>
-      <c r="K24" s="91" t="str">
+      <c r="J24" s="107">
+        <v>14</v>
+      </c>
+      <c r="K24" s="91">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L24" s="107"/>
-      <c r="M24" s="91" t="str">
+        <v>70</v>
+      </c>
+      <c r="L24" s="107">
+        <v>15</v>
+      </c>
+      <c r="M24" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>60</v>
       </c>
       <c r="N24" s="107"/>
       <c r="O24" s="91" t="str">
@@ -10650,9 +10530,9 @@
       <c r="AK24" s="93"/>
       <c r="AL24" s="93"/>
       <c r="AM24" s="93"/>
-      <c r="AN24" s="94" t="str">
+      <c r="AN24" s="94">
         <f t="shared" si="9"/>
-        <v/>
+        <v>13</v>
       </c>
       <c r="AO24" s="107"/>
       <c r="AP24" s="91" t="str">
@@ -10694,11 +10574,11 @@
       </c>
       <c r="BC24" s="97">
         <f t="shared" si="18"/>
-        <v>20.571428571428569</v>
+        <v>33.571428571428569</v>
       </c>
       <c r="BD24" s="97">
         <f t="shared" si="19"/>
-        <v>20.57</v>
+        <v>33.57</v>
       </c>
       <c r="BE24" s="107"/>
       <c r="BF24" s="91" t="str">
@@ -10808,7 +10688,7 @@
       </c>
       <c r="CS24" s="103">
         <f t="shared" si="45"/>
-        <v>8.2279999999999998</v>
+        <v>13.428000000000001</v>
       </c>
       <c r="CT24" s="103">
         <f>IFERROR(VLOOKUP(CS24,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -10852,15 +10732,19 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J25" s="107"/>
-      <c r="K25" s="91" t="str">
+      <c r="J25" s="107">
+        <v>13</v>
+      </c>
+      <c r="K25" s="91">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L25" s="107"/>
-      <c r="M25" s="91" t="str">
+        <v>65</v>
+      </c>
+      <c r="L25" s="107">
+        <v>10</v>
+      </c>
+      <c r="M25" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>40</v>
       </c>
       <c r="N25" s="107"/>
       <c r="O25" s="91" t="str">
@@ -10900,9 +10784,9 @@
       <c r="AK25" s="93"/>
       <c r="AL25" s="93"/>
       <c r="AM25" s="93"/>
-      <c r="AN25" s="94" t="str">
+      <c r="AN25" s="94">
         <f t="shared" si="9"/>
-        <v/>
+        <v>10.5</v>
       </c>
       <c r="AO25" s="107"/>
       <c r="AP25" s="91" t="str">
@@ -10944,11 +10828,11 @@
       </c>
       <c r="BC25" s="97">
         <f t="shared" si="18"/>
-        <v>18.428571428571427</v>
+        <v>28.928571428571427</v>
       </c>
       <c r="BD25" s="97">
         <f t="shared" si="19"/>
-        <v>18.43</v>
+        <v>28.93</v>
       </c>
       <c r="BE25" s="107"/>
       <c r="BF25" s="91" t="str">
@@ -11058,7 +10942,7 @@
       </c>
       <c r="CS25" s="103">
         <f t="shared" si="45"/>
-        <v>7.3719999999999999</v>
+        <v>11.572000000000001</v>
       </c>
       <c r="CT25" s="103">
         <f>IFERROR(VLOOKUP(CS25,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -11103,14 +10987,14 @@
         <v/>
       </c>
       <c r="J26" s="107"/>
-      <c r="K26" s="91" t="str">
+      <c r="K26" s="91">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L26" s="107"/>
-      <c r="M26" s="91" t="str">
+      <c r="M26" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N26" s="107"/>
       <c r="O26" s="91" t="str">
@@ -11150,9 +11034,9 @@
       <c r="AK26" s="93"/>
       <c r="AL26" s="93"/>
       <c r="AM26" s="93"/>
-      <c r="AN26" s="94" t="str">
+      <c r="AN26" s="94">
         <f t="shared" si="9"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AO26" s="107"/>
       <c r="AP26" s="91" t="str">
@@ -11324,9 +11208,9 @@
         <f>REGISTRATION!A28</f>
         <v>18</v>
       </c>
-      <c r="B27" s="40">
+      <c r="B27" s="40" t="str">
         <f>REGISTRATION!B28</f>
-        <v>0</v>
+        <v>201601-051</v>
       </c>
       <c r="C27" s="40" t="str">
         <f>CONCATENATE(REGISTRATION!C28," ",REGISTRATION!D28," ",REGISTRATION!E28)</f>
@@ -11352,15 +11236,19 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J27" s="107"/>
-      <c r="K27" s="91" t="str">
+      <c r="J27" s="107">
+        <v>11</v>
+      </c>
+      <c r="K27" s="91">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L27" s="107"/>
-      <c r="M27" s="91" t="str">
+        <v>55.000000000000007</v>
+      </c>
+      <c r="L27" s="107">
+        <v>16</v>
+      </c>
+      <c r="M27" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>64</v>
       </c>
       <c r="N27" s="107"/>
       <c r="O27" s="91" t="str">
@@ -11400,9 +11288,9 @@
       <c r="AK27" s="93"/>
       <c r="AL27" s="93"/>
       <c r="AM27" s="93"/>
-      <c r="AN27" s="94" t="str">
+      <c r="AN27" s="94">
         <f t="shared" si="9"/>
-        <v/>
+        <v>11.9</v>
       </c>
       <c r="AO27" s="107"/>
       <c r="AP27" s="91" t="str">
@@ -11444,11 +11332,11 @@
       </c>
       <c r="BC27" s="97">
         <f t="shared" si="18"/>
-        <v>20.571428571428569</v>
+        <v>32.471428571428568</v>
       </c>
       <c r="BD27" s="97">
         <f t="shared" si="19"/>
-        <v>20.57</v>
+        <v>32.47</v>
       </c>
       <c r="BE27" s="107"/>
       <c r="BF27" s="91" t="str">
@@ -11558,7 +11446,7 @@
       </c>
       <c r="CS27" s="103">
         <f t="shared" si="45"/>
-        <v>8.2279999999999998</v>
+        <v>12.988</v>
       </c>
       <c r="CT27" s="103">
         <f>IFERROR(VLOOKUP(CS27,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -11602,15 +11490,19 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J28" s="107"/>
-      <c r="K28" s="91" t="str">
+      <c r="J28" s="107">
+        <v>18</v>
+      </c>
+      <c r="K28" s="91">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L28" s="107"/>
-      <c r="M28" s="91" t="str">
+        <v>90</v>
+      </c>
+      <c r="L28" s="107">
+        <v>21</v>
+      </c>
+      <c r="M28" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>84</v>
       </c>
       <c r="N28" s="107"/>
       <c r="O28" s="91" t="str">
@@ -11650,9 +11542,9 @@
       <c r="AK28" s="93"/>
       <c r="AL28" s="93"/>
       <c r="AM28" s="93"/>
-      <c r="AN28" s="94" t="str">
+      <c r="AN28" s="94">
         <f t="shared" si="9"/>
-        <v/>
+        <v>17.400000000000002</v>
       </c>
       <c r="AO28" s="107"/>
       <c r="AP28" s="91" t="str">
@@ -11694,11 +11586,11 @@
       </c>
       <c r="BC28" s="97">
         <f t="shared" si="18"/>
-        <v>26.571428571428569</v>
+        <v>43.971428571428575</v>
       </c>
       <c r="BD28" s="97">
         <f t="shared" si="19"/>
-        <v>26.57</v>
+        <v>43.97</v>
       </c>
       <c r="BE28" s="107"/>
       <c r="BF28" s="91" t="str">
@@ -11808,7 +11700,7 @@
       </c>
       <c r="CS28" s="103">
         <f t="shared" si="45"/>
-        <v>10.628</v>
+        <v>17.588000000000001</v>
       </c>
       <c r="CT28" s="103">
         <f>IFERROR(VLOOKUP(CS28,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -11852,15 +11744,19 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J29" s="107"/>
-      <c r="K29" s="91" t="str">
+      <c r="J29" s="107">
+        <v>19</v>
+      </c>
+      <c r="K29" s="91">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L29" s="107"/>
-      <c r="M29" s="91" t="str">
+        <v>95</v>
+      </c>
+      <c r="L29" s="107">
+        <v>21</v>
+      </c>
+      <c r="M29" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>84</v>
       </c>
       <c r="N29" s="107"/>
       <c r="O29" s="91" t="str">
@@ -11900,9 +11796,9 @@
       <c r="AK29" s="93"/>
       <c r="AL29" s="93"/>
       <c r="AM29" s="93"/>
-      <c r="AN29" s="94" t="str">
+      <c r="AN29" s="94">
         <f t="shared" si="9"/>
-        <v/>
+        <v>17.900000000000002</v>
       </c>
       <c r="AO29" s="107"/>
       <c r="AP29" s="91" t="str">
@@ -11944,11 +11840,11 @@
       </c>
       <c r="BC29" s="97">
         <f t="shared" si="18"/>
-        <v>25.714285714285712</v>
+        <v>43.614285714285714</v>
       </c>
       <c r="BD29" s="97">
         <f t="shared" si="19"/>
-        <v>25.71</v>
+        <v>43.61</v>
       </c>
       <c r="BE29" s="107"/>
       <c r="BF29" s="91" t="str">
@@ -12058,7 +11954,7 @@
       </c>
       <c r="CS29" s="103">
         <f t="shared" si="45"/>
-        <v>10.284000000000001</v>
+        <v>17.443999999999999</v>
       </c>
       <c r="CT29" s="103">
         <f>IFERROR(VLOOKUP(CS29,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -12102,15 +11998,19 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J30" s="107"/>
-      <c r="K30" s="91" t="str">
+      <c r="J30" s="107">
+        <v>13</v>
+      </c>
+      <c r="K30" s="91">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L30" s="107"/>
-      <c r="M30" s="91" t="str">
+        <v>65</v>
+      </c>
+      <c r="L30" s="107">
+        <v>17</v>
+      </c>
+      <c r="M30" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>68</v>
       </c>
       <c r="N30" s="107"/>
       <c r="O30" s="91" t="str">
@@ -12150,9 +12050,9 @@
       <c r="AK30" s="93"/>
       <c r="AL30" s="93"/>
       <c r="AM30" s="93"/>
-      <c r="AN30" s="94" t="str">
+      <c r="AN30" s="94">
         <f t="shared" si="9"/>
-        <v/>
+        <v>13.3</v>
       </c>
       <c r="AO30" s="107"/>
       <c r="AP30" s="91" t="str">
@@ -12194,11 +12094,11 @@
       </c>
       <c r="BC30" s="97">
         <f t="shared" si="18"/>
-        <v>20.571428571428569</v>
+        <v>33.871428571428567</v>
       </c>
       <c r="BD30" s="97">
         <f t="shared" si="19"/>
-        <v>20.57</v>
+        <v>33.869999999999997</v>
       </c>
       <c r="BE30" s="107"/>
       <c r="BF30" s="91" t="str">
@@ -12308,7 +12208,7 @@
       </c>
       <c r="CS30" s="103">
         <f t="shared" si="45"/>
-        <v>8.2279999999999998</v>
+        <v>13.548</v>
       </c>
       <c r="CT30" s="103">
         <f>IFERROR(VLOOKUP(CS30,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -12352,15 +12252,19 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J31" s="107"/>
-      <c r="K31" s="91" t="str">
+      <c r="J31" s="107">
+        <v>11</v>
+      </c>
+      <c r="K31" s="91">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L31" s="107"/>
-      <c r="M31" s="91" t="str">
+        <v>55.000000000000007</v>
+      </c>
+      <c r="L31" s="107">
+        <v>19</v>
+      </c>
+      <c r="M31" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>76</v>
       </c>
       <c r="N31" s="107"/>
       <c r="O31" s="91" t="str">
@@ -12400,9 +12304,9 @@
       <c r="AK31" s="93"/>
       <c r="AL31" s="93"/>
       <c r="AM31" s="93"/>
-      <c r="AN31" s="94" t="str">
+      <c r="AN31" s="94">
         <f t="shared" si="9"/>
-        <v/>
+        <v>13.100000000000001</v>
       </c>
       <c r="AO31" s="107"/>
       <c r="AP31" s="91" t="str">
@@ -12444,11 +12348,11 @@
       </c>
       <c r="BC31" s="97">
         <f t="shared" si="18"/>
-        <v>21.428571428571427</v>
+        <v>34.528571428571425</v>
       </c>
       <c r="BD31" s="97">
         <f t="shared" si="19"/>
-        <v>21.43</v>
+        <v>34.53</v>
       </c>
       <c r="BE31" s="107"/>
       <c r="BF31" s="91" t="str">
@@ -12558,7 +12462,7 @@
       </c>
       <c r="CS31" s="103">
         <f t="shared" si="45"/>
-        <v>8.572000000000001</v>
+        <v>13.812000000000001</v>
       </c>
       <c r="CT31" s="103">
         <f>IFERROR(VLOOKUP(CS31,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -12602,15 +12506,19 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J32" s="107"/>
-      <c r="K32" s="91" t="str">
+      <c r="J32" s="107">
+        <v>18</v>
+      </c>
+      <c r="K32" s="91">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L32" s="107"/>
-      <c r="M32" s="91" t="str">
+        <v>90</v>
+      </c>
+      <c r="L32" s="107">
+        <v>19</v>
+      </c>
+      <c r="M32" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>76</v>
       </c>
       <c r="N32" s="107"/>
       <c r="O32" s="91" t="str">
@@ -12650,9 +12558,9 @@
       <c r="AK32" s="93"/>
       <c r="AL32" s="93"/>
       <c r="AM32" s="93"/>
-      <c r="AN32" s="94" t="str">
+      <c r="AN32" s="94">
         <f t="shared" si="9"/>
-        <v/>
+        <v>16.600000000000001</v>
       </c>
       <c r="AO32" s="107"/>
       <c r="AP32" s="91" t="str">
@@ -12694,11 +12602,11 @@
       </c>
       <c r="BC32" s="97">
         <f t="shared" si="18"/>
-        <v>25.714285714285712</v>
+        <v>42.314285714285717</v>
       </c>
       <c r="BD32" s="97">
         <f t="shared" si="19"/>
-        <v>25.71</v>
+        <v>42.31</v>
       </c>
       <c r="BE32" s="107"/>
       <c r="BF32" s="91" t="str">
@@ -12808,7 +12716,7 @@
       </c>
       <c r="CS32" s="103">
         <f t="shared" si="45"/>
-        <v>10.284000000000001</v>
+        <v>16.924000000000003</v>
       </c>
       <c r="CT32" s="103">
         <f>IFERROR(VLOOKUP(CS32,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -12852,15 +12760,19 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J33" s="107"/>
-      <c r="K33" s="91" t="str">
+      <c r="J33" s="107">
+        <v>10</v>
+      </c>
+      <c r="K33" s="91">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L33" s="107"/>
-      <c r="M33" s="91" t="str">
+        <v>50</v>
+      </c>
+      <c r="L33" s="107">
+        <v>11</v>
+      </c>
+      <c r="M33" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>44</v>
       </c>
       <c r="N33" s="107"/>
       <c r="O33" s="91" t="str">
@@ -12900,9 +12812,9 @@
       <c r="AK33" s="93"/>
       <c r="AL33" s="93"/>
       <c r="AM33" s="93"/>
-      <c r="AN33" s="94" t="str">
+      <c r="AN33" s="94">
         <f t="shared" si="9"/>
-        <v/>
+        <v>9.4</v>
       </c>
       <c r="AO33" s="107"/>
       <c r="AP33" s="91" t="str">
@@ -12944,11 +12856,11 @@
       </c>
       <c r="BC33" s="97">
         <f t="shared" si="18"/>
-        <v>14.571428571428569</v>
+        <v>23.971428571428568</v>
       </c>
       <c r="BD33" s="97">
         <f t="shared" si="19"/>
-        <v>14.57</v>
+        <v>23.97</v>
       </c>
       <c r="BE33" s="107"/>
       <c r="BF33" s="91" t="str">
@@ -13058,7 +12970,7 @@
       </c>
       <c r="CS33" s="103">
         <f t="shared" si="45"/>
-        <v>5.8280000000000003</v>
+        <v>9.5879999999999992</v>
       </c>
       <c r="CT33" s="103">
         <f>IFERROR(VLOOKUP(CS33,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -13102,15 +13014,19 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J34" s="107"/>
-      <c r="K34" s="91" t="str">
+      <c r="J34" s="107">
+        <v>12</v>
+      </c>
+      <c r="K34" s="91">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L34" s="107"/>
-      <c r="M34" s="91" t="str">
+        <v>60</v>
+      </c>
+      <c r="L34" s="107">
+        <v>14</v>
+      </c>
+      <c r="M34" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>56.000000000000007</v>
       </c>
       <c r="N34" s="107"/>
       <c r="O34" s="91" t="str">
@@ -13150,9 +13066,9 @@
       <c r="AK34" s="93"/>
       <c r="AL34" s="93"/>
       <c r="AM34" s="93"/>
-      <c r="AN34" s="94" t="str">
+      <c r="AN34" s="94">
         <f t="shared" si="9"/>
-        <v/>
+        <v>11.600000000000001</v>
       </c>
       <c r="AO34" s="107"/>
       <c r="AP34" s="91" t="str">
@@ -13194,11 +13110,11 @@
       </c>
       <c r="BC34" s="97">
         <f t="shared" si="18"/>
-        <v>18</v>
+        <v>29.6</v>
       </c>
       <c r="BD34" s="97">
         <f t="shared" si="19"/>
-        <v>18</v>
+        <v>29.6</v>
       </c>
       <c r="BE34" s="107"/>
       <c r="BF34" s="91" t="str">
@@ -13308,7 +13224,7 @@
       </c>
       <c r="CS34" s="103">
         <f t="shared" si="45"/>
-        <v>7.2</v>
+        <v>11.840000000000002</v>
       </c>
       <c r="CT34" s="103">
         <f>IFERROR(VLOOKUP(CS34,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -13352,15 +13268,19 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J35" s="107"/>
-      <c r="K35" s="91" t="str">
+      <c r="J35" s="107">
+        <v>13</v>
+      </c>
+      <c r="K35" s="91">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L35" s="107"/>
-      <c r="M35" s="91" t="str">
+        <v>65</v>
+      </c>
+      <c r="L35" s="107">
+        <v>14</v>
+      </c>
+      <c r="M35" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>56.000000000000007</v>
       </c>
       <c r="N35" s="107"/>
       <c r="O35" s="91" t="str">
@@ -13400,9 +13320,9 @@
       <c r="AK35" s="93"/>
       <c r="AL35" s="93"/>
       <c r="AM35" s="93"/>
-      <c r="AN35" s="94" t="str">
+      <c r="AN35" s="94">
         <f t="shared" si="9"/>
-        <v/>
+        <v>12.100000000000001</v>
       </c>
       <c r="AO35" s="107"/>
       <c r="AP35" s="91" t="str">
@@ -13444,11 +13364,11 @@
       </c>
       <c r="BC35" s="97">
         <f t="shared" si="18"/>
-        <v>15.857142857142858</v>
+        <v>27.957142857142859</v>
       </c>
       <c r="BD35" s="97">
         <f t="shared" si="19"/>
-        <v>15.86</v>
+        <v>27.96</v>
       </c>
       <c r="BE35" s="107"/>
       <c r="BF35" s="91" t="str">
@@ -13558,7 +13478,7 @@
       </c>
       <c r="CS35" s="103">
         <f t="shared" si="45"/>
-        <v>6.3440000000000003</v>
+        <v>11.184000000000001</v>
       </c>
       <c r="CT35" s="103">
         <f>IFERROR(VLOOKUP(CS35,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -13574,9 +13494,9 @@
         <f>REGISTRATION!A37</f>
         <v>27</v>
       </c>
-      <c r="B36" s="40">
+      <c r="B36" s="40" t="str">
         <f>REGISTRATION!B37</f>
-        <v>0</v>
+        <v>201701-382</v>
       </c>
       <c r="C36" s="40" t="str">
         <f>CONCATENATE(REGISTRATION!C37," ",REGISTRATION!D37," ",REGISTRATION!E37)</f>
@@ -13603,14 +13523,14 @@
         <v/>
       </c>
       <c r="J36" s="107"/>
-      <c r="K36" s="91" t="str">
+      <c r="K36" s="91">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L36" s="107"/>
-      <c r="M36" s="91" t="str">
+      <c r="M36" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N36" s="107"/>
       <c r="O36" s="91" t="str">
@@ -13650,9 +13570,9 @@
       <c r="AK36" s="93"/>
       <c r="AL36" s="93"/>
       <c r="AM36" s="93"/>
-      <c r="AN36" s="94" t="str">
+      <c r="AN36" s="94">
         <f t="shared" si="9"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AO36" s="107"/>
       <c r="AP36" s="91" t="str">
@@ -13851,14 +13771,14 @@
         <v/>
       </c>
       <c r="J37" s="107"/>
-      <c r="K37" s="91" t="str">
+      <c r="K37" s="91">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L37" s="107"/>
-      <c r="M37" s="91" t="str">
+      <c r="M37" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N37" s="107"/>
       <c r="O37" s="91" t="str">
@@ -13898,9 +13818,9 @@
       <c r="AK37" s="93"/>
       <c r="AL37" s="93"/>
       <c r="AM37" s="93"/>
-      <c r="AN37" s="94" t="str">
+      <c r="AN37" s="94">
         <f t="shared" si="9"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AO37" s="107"/>
       <c r="AP37" s="91" t="str">
@@ -14099,14 +14019,14 @@
         <v/>
       </c>
       <c r="J38" s="107"/>
-      <c r="K38" s="91" t="str">
+      <c r="K38" s="91">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L38" s="107"/>
-      <c r="M38" s="91" t="str">
+      <c r="M38" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N38" s="107"/>
       <c r="O38" s="91" t="str">
@@ -14146,9 +14066,9 @@
       <c r="AK38" s="93"/>
       <c r="AL38" s="93"/>
       <c r="AM38" s="93"/>
-      <c r="AN38" s="94" t="str">
+      <c r="AN38" s="94">
         <f t="shared" si="9"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AO38" s="107"/>
       <c r="AP38" s="91" t="str">
@@ -14348,15 +14268,19 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J39" s="107"/>
-      <c r="K39" s="91" t="str">
+      <c r="J39" s="107">
+        <v>15</v>
+      </c>
+      <c r="K39" s="91">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L39" s="107"/>
-      <c r="M39" s="91" t="str">
+        <v>75</v>
+      </c>
+      <c r="L39" s="107">
+        <v>15</v>
+      </c>
+      <c r="M39" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>60</v>
       </c>
       <c r="N39" s="107"/>
       <c r="O39" s="91" t="str">
@@ -14396,9 +14320,9 @@
       <c r="AK39" s="93"/>
       <c r="AL39" s="93"/>
       <c r="AM39" s="93"/>
-      <c r="AN39" s="94" t="str">
+      <c r="AN39" s="94">
         <f t="shared" si="9"/>
-        <v/>
+        <v>13.5</v>
       </c>
       <c r="AO39" s="107"/>
       <c r="AP39" s="91" t="str">
@@ -14440,11 +14364,11 @@
       </c>
       <c r="BC39" s="97">
         <f t="shared" si="18"/>
-        <v>18.857142857142854</v>
+        <v>32.357142857142854</v>
       </c>
       <c r="BD39" s="97">
         <f t="shared" si="19"/>
-        <v>18.86</v>
+        <v>32.36</v>
       </c>
       <c r="BE39" s="107"/>
       <c r="BF39" s="91" t="str">
@@ -14554,7 +14478,7 @@
       </c>
       <c r="CS39" s="103">
         <f t="shared" si="45"/>
-        <v>7.5440000000000005</v>
+        <v>12.944000000000001</v>
       </c>
       <c r="CT39" s="103">
         <f>IFERROR(VLOOKUP(CS39,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -14598,15 +14522,19 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J40" s="107"/>
-      <c r="K40" s="91" t="str">
+      <c r="J40" s="107">
+        <v>12</v>
+      </c>
+      <c r="K40" s="91">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L40" s="107"/>
-      <c r="M40" s="91" t="str">
+        <v>60</v>
+      </c>
+      <c r="L40" s="107">
+        <v>18</v>
+      </c>
+      <c r="M40" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>72</v>
       </c>
       <c r="N40" s="107"/>
       <c r="O40" s="91" t="str">
@@ -14646,9 +14574,9 @@
       <c r="AK40" s="93"/>
       <c r="AL40" s="93"/>
       <c r="AM40" s="93"/>
-      <c r="AN40" s="94" t="str">
+      <c r="AN40" s="94">
         <f t="shared" si="9"/>
-        <v/>
+        <v>13.200000000000001</v>
       </c>
       <c r="AO40" s="107"/>
       <c r="AP40" s="91" t="str">
@@ -14690,11 +14618,11 @@
       </c>
       <c r="BC40" s="97">
         <f t="shared" si="18"/>
-        <v>21.857142857142854</v>
+        <v>35.057142857142857</v>
       </c>
       <c r="BD40" s="97">
         <f t="shared" si="19"/>
-        <v>21.86</v>
+        <v>35.06</v>
       </c>
       <c r="BE40" s="107"/>
       <c r="BF40" s="91" t="str">
@@ -14804,7 +14732,7 @@
       </c>
       <c r="CS40" s="103">
         <f t="shared" si="45"/>
-        <v>8.7439999999999998</v>
+        <v>14.024000000000001</v>
       </c>
       <c r="CT40" s="103">
         <f>IFERROR(VLOOKUP(CS40,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -14848,15 +14776,19 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J41" s="107"/>
-      <c r="K41" s="91" t="str">
+      <c r="J41" s="107">
+        <v>13</v>
+      </c>
+      <c r="K41" s="91">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L41" s="107"/>
-      <c r="M41" s="91" t="str">
+        <v>65</v>
+      </c>
+      <c r="L41" s="107">
+        <v>20</v>
+      </c>
+      <c r="M41" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>80</v>
       </c>
       <c r="N41" s="107"/>
       <c r="O41" s="91" t="str">
@@ -14896,9 +14828,9 @@
       <c r="AK41" s="93"/>
       <c r="AL41" s="93"/>
       <c r="AM41" s="93"/>
-      <c r="AN41" s="94" t="str">
+      <c r="AN41" s="94">
         <f t="shared" si="9"/>
-        <v/>
+        <v>14.5</v>
       </c>
       <c r="AO41" s="107"/>
       <c r="AP41" s="91" t="str">
@@ -14940,11 +14872,11 @@
       </c>
       <c r="BC41" s="97">
         <f t="shared" si="18"/>
-        <v>20.571428571428569</v>
+        <v>35.071428571428569</v>
       </c>
       <c r="BD41" s="97">
         <f t="shared" si="19"/>
-        <v>20.57</v>
+        <v>35.07</v>
       </c>
       <c r="BE41" s="107"/>
       <c r="BF41" s="91" t="str">
@@ -15054,7 +14986,7 @@
       </c>
       <c r="CS41" s="103">
         <f t="shared" si="45"/>
-        <v>8.2279999999999998</v>
+        <v>14.028</v>
       </c>
       <c r="CT41" s="103">
         <f>IFERROR(VLOOKUP(CS41,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -15099,14 +15031,14 @@
         <v/>
       </c>
       <c r="J42" s="107"/>
-      <c r="K42" s="91" t="str">
+      <c r="K42" s="91">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L42" s="107"/>
-      <c r="M42" s="91" t="str">
+      <c r="M42" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N42" s="107"/>
       <c r="O42" s="91" t="str">
@@ -15146,9 +15078,9 @@
       <c r="AK42" s="93"/>
       <c r="AL42" s="93"/>
       <c r="AM42" s="93"/>
-      <c r="AN42" s="94" t="str">
+      <c r="AN42" s="94">
         <f t="shared" si="9"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AO42" s="107"/>
       <c r="AP42" s="91" t="str">
@@ -15326,16 +15258,18 @@
       </c>
       <c r="C43" s="40" t="str">
         <f>CONCATENATE(REGISTRATION!C44," ",REGISTRATION!D44," ",REGISTRATION!E44)</f>
-        <v xml:space="preserve">Vilanuevea Leyi </v>
-      </c>
-      <c r="D43" s="107"/>
+        <v xml:space="preserve">Villanueva Levi </v>
+      </c>
+      <c r="D43" s="107">
+        <v>54</v>
+      </c>
       <c r="E43" s="91">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>77.142857142857153</v>
       </c>
       <c r="F43" s="94">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>23.142857142857146</v>
       </c>
       <c r="G43" s="107"/>
       <c r="H43" s="91" t="e">
@@ -15346,15 +15280,19 @@
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J43" s="107"/>
-      <c r="K43" s="91" t="str">
+      <c r="J43" s="107">
+        <v>16</v>
+      </c>
+      <c r="K43" s="91">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L43" s="107"/>
-      <c r="M43" s="91" t="str">
+        <v>80</v>
+      </c>
+      <c r="L43" s="107">
+        <v>17</v>
+      </c>
+      <c r="M43" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>68</v>
       </c>
       <c r="N43" s="107"/>
       <c r="O43" s="91" t="str">
@@ -15394,9 +15332,9 @@
       <c r="AK43" s="93"/>
       <c r="AL43" s="93"/>
       <c r="AM43" s="93"/>
-      <c r="AN43" s="94" t="str">
+      <c r="AN43" s="94">
         <f t="shared" si="9"/>
-        <v/>
+        <v>14.8</v>
       </c>
       <c r="AO43" s="107"/>
       <c r="AP43" s="91" t="str">
@@ -15438,11 +15376,11 @@
       </c>
       <c r="BC43" s="97">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>37.94285714285715</v>
       </c>
       <c r="BD43" s="97">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>37.94</v>
       </c>
       <c r="BE43" s="107"/>
       <c r="BF43" s="91" t="str">
@@ -15552,7 +15490,7 @@
       </c>
       <c r="CS43" s="103">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>15.176</v>
       </c>
       <c r="CT43" s="103">
         <f>IFERROR(VLOOKUP(CS43,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -15596,15 +15534,19 @@
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J44" s="107"/>
-      <c r="K44" s="91" t="str">
+      <c r="J44" s="107">
+        <v>9</v>
+      </c>
+      <c r="K44" s="91">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L44" s="107"/>
-      <c r="M44" s="91" t="str">
+        <v>45</v>
+      </c>
+      <c r="L44" s="107">
+        <v>8</v>
+      </c>
+      <c r="M44" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>32</v>
       </c>
       <c r="N44" s="107"/>
       <c r="O44" s="91" t="str">
@@ -15644,9 +15586,9 @@
       <c r="AK44" s="93"/>
       <c r="AL44" s="93"/>
       <c r="AM44" s="93"/>
-      <c r="AN44" s="94" t="str">
+      <c r="AN44" s="94">
         <f t="shared" si="9"/>
-        <v/>
+        <v>7.7</v>
       </c>
       <c r="AO44" s="107"/>
       <c r="AP44" s="91" t="str">
@@ -15688,11 +15630,11 @@
       </c>
       <c r="BC44" s="97">
         <f t="shared" si="18"/>
-        <v>11.571428571428573</v>
+        <v>19.271428571428572</v>
       </c>
       <c r="BD44" s="97">
         <f t="shared" si="19"/>
-        <v>11.57</v>
+        <v>19.27</v>
       </c>
       <c r="BE44" s="107"/>
       <c r="BF44" s="91" t="str">
@@ -15802,7 +15744,7 @@
       </c>
       <c r="CS44" s="103">
         <f t="shared" si="45"/>
-        <v>4.6280000000000001</v>
+        <v>7.7080000000000002</v>
       </c>
       <c r="CT44" s="103">
         <f>IFERROR(VLOOKUP(CS44,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -15845,14 +15787,14 @@
         <v/>
       </c>
       <c r="J45" s="107"/>
-      <c r="K45" s="91" t="str">
+      <c r="K45" s="91">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L45" s="107"/>
-      <c r="M45" s="91" t="str">
+      <c r="M45" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N45" s="107"/>
       <c r="O45" s="91" t="str">
@@ -15892,9 +15834,9 @@
       <c r="AK45" s="93"/>
       <c r="AL45" s="93"/>
       <c r="AM45" s="93"/>
-      <c r="AN45" s="94" t="str">
+      <c r="AN45" s="94">
         <f t="shared" si="9"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AO45" s="107"/>
       <c r="AP45" s="91" t="str">
@@ -16093,14 +16035,14 @@
         <v/>
       </c>
       <c r="J46" s="107"/>
-      <c r="K46" s="91" t="str">
+      <c r="K46" s="91">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L46" s="107"/>
-      <c r="M46" s="91" t="str">
+      <c r="M46" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N46" s="107"/>
       <c r="O46" s="91" t="str">
@@ -16140,9 +16082,9 @@
       <c r="AK46" s="93"/>
       <c r="AL46" s="93"/>
       <c r="AM46" s="93"/>
-      <c r="AN46" s="94" t="str">
+      <c r="AN46" s="94">
         <f t="shared" si="9"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AO46" s="107"/>
       <c r="AP46" s="91" t="str">
@@ -16341,14 +16283,14 @@
         <v/>
       </c>
       <c r="J47" s="107"/>
-      <c r="K47" s="91" t="str">
+      <c r="K47" s="91">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L47" s="107"/>
-      <c r="M47" s="91" t="str">
+      <c r="M47" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N47" s="107"/>
       <c r="O47" s="91" t="str">
@@ -16388,9 +16330,9 @@
       <c r="AK47" s="93"/>
       <c r="AL47" s="93"/>
       <c r="AM47" s="93"/>
-      <c r="AN47" s="94" t="str">
+      <c r="AN47" s="94">
         <f t="shared" si="9"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AO47" s="107"/>
       <c r="AP47" s="91" t="str">
@@ -16589,14 +16531,14 @@
         <v/>
       </c>
       <c r="J48" s="107"/>
-      <c r="K48" s="91" t="str">
+      <c r="K48" s="91">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L48" s="107"/>
-      <c r="M48" s="91" t="str">
+      <c r="M48" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N48" s="107"/>
       <c r="O48" s="91" t="str">
@@ -16636,9 +16578,9 @@
       <c r="AK48" s="93"/>
       <c r="AL48" s="93"/>
       <c r="AM48" s="93"/>
-      <c r="AN48" s="94" t="str">
+      <c r="AN48" s="94">
         <f t="shared" si="9"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AO48" s="107"/>
       <c r="AP48" s="91" t="str">
@@ -16837,14 +16779,14 @@
         <v/>
       </c>
       <c r="J49" s="107"/>
-      <c r="K49" s="91" t="str">
+      <c r="K49" s="91">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L49" s="107"/>
-      <c r="M49" s="91" t="str">
+      <c r="M49" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N49" s="107"/>
       <c r="O49" s="91" t="str">
@@ -16884,9 +16826,9 @@
       <c r="AK49" s="93"/>
       <c r="AL49" s="93"/>
       <c r="AM49" s="93"/>
-      <c r="AN49" s="94" t="str">
+      <c r="AN49" s="94">
         <f t="shared" si="9"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AO49" s="107"/>
       <c r="AP49" s="91" t="str">
@@ -17085,14 +17027,14 @@
         <v/>
       </c>
       <c r="J50" s="107"/>
-      <c r="K50" s="91" t="str">
+      <c r="K50" s="91">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L50" s="107"/>
-      <c r="M50" s="91" t="str">
+      <c r="M50" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N50" s="107"/>
       <c r="O50" s="91" t="str">
@@ -17132,9 +17074,9 @@
       <c r="AK50" s="93"/>
       <c r="AL50" s="93"/>
       <c r="AM50" s="93"/>
-      <c r="AN50" s="94" t="str">
+      <c r="AN50" s="94">
         <f t="shared" si="9"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AO50" s="107"/>
       <c r="AP50" s="91" t="str">
@@ -17333,14 +17275,14 @@
         <v/>
       </c>
       <c r="J51" s="107"/>
-      <c r="K51" s="91" t="str">
+      <c r="K51" s="91">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L51" s="107"/>
-      <c r="M51" s="91" t="str">
+      <c r="M51" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N51" s="107"/>
       <c r="O51" s="91" t="str">
@@ -17380,9 +17322,9 @@
       <c r="AK51" s="93"/>
       <c r="AL51" s="93"/>
       <c r="AM51" s="93"/>
-      <c r="AN51" s="94" t="str">
+      <c r="AN51" s="94">
         <f t="shared" si="9"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AO51" s="107"/>
       <c r="AP51" s="91" t="str">
@@ -17581,14 +17523,14 @@
         <v/>
       </c>
       <c r="J52" s="107"/>
-      <c r="K52" s="91" t="str">
+      <c r="K52" s="91">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L52" s="107"/>
-      <c r="M52" s="91" t="str">
+      <c r="M52" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N52" s="107"/>
       <c r="O52" s="91" t="str">
@@ -17628,9 +17570,9 @@
       <c r="AK52" s="93"/>
       <c r="AL52" s="93"/>
       <c r="AM52" s="93"/>
-      <c r="AN52" s="94" t="str">
+      <c r="AN52" s="94">
         <f t="shared" si="9"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AO52" s="107"/>
       <c r="AP52" s="91" t="str">
@@ -17829,14 +17771,14 @@
         <v/>
       </c>
       <c r="J53" s="107"/>
-      <c r="K53" s="91" t="str">
+      <c r="K53" s="91">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L53" s="107"/>
-      <c r="M53" s="91" t="str">
+      <c r="M53" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N53" s="107"/>
       <c r="O53" s="91" t="str">
@@ -17876,9 +17818,9 @@
       <c r="AK53" s="93"/>
       <c r="AL53" s="93"/>
       <c r="AM53" s="93"/>
-      <c r="AN53" s="94" t="str">
+      <c r="AN53" s="94">
         <f t="shared" si="9"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AO53" s="107"/>
       <c r="AP53" s="91" t="str">
@@ -18077,14 +18019,14 @@
         <v/>
       </c>
       <c r="J54" s="107"/>
-      <c r="K54" s="91" t="str">
+      <c r="K54" s="91">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L54" s="107"/>
-      <c r="M54" s="91" t="str">
+      <c r="M54" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N54" s="107"/>
       <c r="O54" s="91" t="str">
@@ -18124,9 +18066,9 @@
       <c r="AK54" s="93"/>
       <c r="AL54" s="93"/>
       <c r="AM54" s="93"/>
-      <c r="AN54" s="94" t="str">
+      <c r="AN54" s="94">
         <f t="shared" si="9"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AO54" s="107"/>
       <c r="AP54" s="91" t="str">
@@ -18325,14 +18267,14 @@
         <v/>
       </c>
       <c r="J55" s="107"/>
-      <c r="K55" s="91" t="str">
+      <c r="K55" s="91">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L55" s="107"/>
-      <c r="M55" s="91" t="str">
+      <c r="M55" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N55" s="107"/>
       <c r="O55" s="91" t="str">
@@ -18372,9 +18314,9 @@
       <c r="AK55" s="93"/>
       <c r="AL55" s="93"/>
       <c r="AM55" s="93"/>
-      <c r="AN55" s="94" t="str">
+      <c r="AN55" s="94">
         <f t="shared" si="9"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AO55" s="107"/>
       <c r="AP55" s="91" t="str">
@@ -18573,14 +18515,14 @@
         <v/>
       </c>
       <c r="J56" s="107"/>
-      <c r="K56" s="91" t="str">
+      <c r="K56" s="91">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L56" s="107"/>
-      <c r="M56" s="91" t="str">
+      <c r="M56" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N56" s="107"/>
       <c r="O56" s="91" t="str">
@@ -18620,9 +18562,9 @@
       <c r="AK56" s="93"/>
       <c r="AL56" s="93"/>
       <c r="AM56" s="93"/>
-      <c r="AN56" s="94" t="str">
+      <c r="AN56" s="94">
         <f t="shared" si="9"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AO56" s="107"/>
       <c r="AP56" s="91" t="str">
@@ -18821,14 +18763,14 @@
         <v/>
       </c>
       <c r="J57" s="107"/>
-      <c r="K57" s="91" t="str">
+      <c r="K57" s="91">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L57" s="107"/>
-      <c r="M57" s="91" t="str">
+      <c r="M57" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N57" s="107"/>
       <c r="O57" s="91" t="str">
@@ -18868,9 +18810,9 @@
       <c r="AK57" s="93"/>
       <c r="AL57" s="93"/>
       <c r="AM57" s="93"/>
-      <c r="AN57" s="94" t="str">
+      <c r="AN57" s="94">
         <f t="shared" si="9"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AO57" s="107"/>
       <c r="AP57" s="91" t="str">
@@ -19069,14 +19011,14 @@
         <v/>
       </c>
       <c r="J58" s="107"/>
-      <c r="K58" s="91" t="str">
+      <c r="K58" s="91">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L58" s="107"/>
-      <c r="M58" s="91" t="str">
+      <c r="M58" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N58" s="107"/>
       <c r="O58" s="91" t="str">
@@ -19116,9 +19058,9 @@
       <c r="AK58" s="93"/>
       <c r="AL58" s="93"/>
       <c r="AM58" s="93"/>
-      <c r="AN58" s="94" t="str">
+      <c r="AN58" s="94">
         <f t="shared" si="9"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AO58" s="107"/>
       <c r="AP58" s="91" t="str">
@@ -19317,14 +19259,14 @@
         <v/>
       </c>
       <c r="J59" s="107"/>
-      <c r="K59" s="91" t="str">
+      <c r="K59" s="91">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L59" s="107"/>
-      <c r="M59" s="91" t="str">
+      <c r="M59" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N59" s="107"/>
       <c r="O59" s="91" t="str">
@@ -19364,9 +19306,9 @@
       <c r="AK59" s="93"/>
       <c r="AL59" s="93"/>
       <c r="AM59" s="93"/>
-      <c r="AN59" s="94" t="str">
+      <c r="AN59" s="94">
         <f t="shared" si="9"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AO59" s="107"/>
       <c r="AP59" s="91" t="str">
@@ -19565,14 +19507,14 @@
         <v/>
       </c>
       <c r="J60" s="107"/>
-      <c r="K60" s="91" t="str">
+      <c r="K60" s="91">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L60" s="107"/>
-      <c r="M60" s="91" t="str">
+      <c r="M60" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N60" s="107"/>
       <c r="O60" s="91" t="str">
@@ -19612,9 +19554,9 @@
       <c r="AK60" s="93"/>
       <c r="AL60" s="93"/>
       <c r="AM60" s="93"/>
-      <c r="AN60" s="94" t="str">
+      <c r="AN60" s="94">
         <f t="shared" si="9"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AO60" s="107"/>
       <c r="AP60" s="91" t="str">
@@ -19813,14 +19755,14 @@
         <v/>
       </c>
       <c r="J61" s="107"/>
-      <c r="K61" s="91" t="str">
+      <c r="K61" s="91">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L61" s="107"/>
-      <c r="M61" s="91" t="str">
+      <c r="M61" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N61" s="107"/>
       <c r="O61" s="91" t="str">
@@ -19860,9 +19802,9 @@
       <c r="AK61" s="93"/>
       <c r="AL61" s="93"/>
       <c r="AM61" s="93"/>
-      <c r="AN61" s="94" t="str">
+      <c r="AN61" s="94">
         <f t="shared" si="9"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AO61" s="107"/>
       <c r="AP61" s="91" t="str">
@@ -20061,14 +20003,14 @@
         <v/>
       </c>
       <c r="J62" s="107"/>
-      <c r="K62" s="91" t="str">
+      <c r="K62" s="91">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L62" s="107"/>
-      <c r="M62" s="91" t="str">
+      <c r="M62" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N62" s="107"/>
       <c r="O62" s="91" t="str">
@@ -20108,9 +20050,9 @@
       <c r="AK62" s="93"/>
       <c r="AL62" s="93"/>
       <c r="AM62" s="93"/>
-      <c r="AN62" s="94" t="str">
+      <c r="AN62" s="94">
         <f t="shared" si="9"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AO62" s="107"/>
       <c r="AP62" s="91" t="str">
@@ -20309,14 +20251,14 @@
         <v/>
       </c>
       <c r="J63" s="107"/>
-      <c r="K63" s="91" t="str">
+      <c r="K63" s="91">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L63" s="107"/>
-      <c r="M63" s="91" t="str">
+      <c r="M63" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N63" s="107"/>
       <c r="O63" s="91" t="str">
@@ -20356,9 +20298,9 @@
       <c r="AK63" s="93"/>
       <c r="AL63" s="93"/>
       <c r="AM63" s="93"/>
-      <c r="AN63" s="94" t="str">
+      <c r="AN63" s="94">
         <f t="shared" si="9"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AO63" s="107"/>
       <c r="AP63" s="91" t="str">
@@ -20557,14 +20499,14 @@
         <v/>
       </c>
       <c r="J64" s="107"/>
-      <c r="K64" s="91" t="str">
+      <c r="K64" s="91">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L64" s="107"/>
-      <c r="M64" s="91" t="str">
+      <c r="M64" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N64" s="107"/>
       <c r="O64" s="91" t="str">
@@ -20604,9 +20546,9 @@
       <c r="AK64" s="93"/>
       <c r="AL64" s="93"/>
       <c r="AM64" s="93"/>
-      <c r="AN64" s="94" t="str">
+      <c r="AN64" s="94">
         <f t="shared" si="9"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AO64" s="107"/>
       <c r="AP64" s="91" t="str">
@@ -20805,14 +20747,14 @@
         <v/>
       </c>
       <c r="J65" s="107"/>
-      <c r="K65" s="91" t="str">
+      <c r="K65" s="91">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L65" s="107"/>
-      <c r="M65" s="91" t="str">
+      <c r="M65" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N65" s="107"/>
       <c r="O65" s="91" t="str">
@@ -20852,9 +20794,9 @@
       <c r="AK65" s="93"/>
       <c r="AL65" s="93"/>
       <c r="AM65" s="93"/>
-      <c r="AN65" s="94" t="str">
+      <c r="AN65" s="94">
         <f t="shared" si="9"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AO65" s="107"/>
       <c r="AP65" s="91" t="str">
@@ -21053,14 +20995,14 @@
         <v/>
       </c>
       <c r="J66" s="107"/>
-      <c r="K66" s="91" t="str">
+      <c r="K66" s="91">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L66" s="107"/>
-      <c r="M66" s="91" t="str">
+      <c r="M66" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N66" s="107"/>
       <c r="O66" s="91" t="str">
@@ -21100,9 +21042,9 @@
       <c r="AK66" s="93"/>
       <c r="AL66" s="93"/>
       <c r="AM66" s="93"/>
-      <c r="AN66" s="94" t="str">
+      <c r="AN66" s="94">
         <f t="shared" si="9"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AO66" s="107"/>
       <c r="AP66" s="91" t="str">
@@ -21301,14 +21243,14 @@
         <v/>
       </c>
       <c r="J67" s="107"/>
-      <c r="K67" s="91" t="str">
+      <c r="K67" s="91">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L67" s="107"/>
-      <c r="M67" s="91" t="str">
+      <c r="M67" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N67" s="107"/>
       <c r="O67" s="91" t="str">
@@ -21348,9 +21290,9 @@
       <c r="AK67" s="93"/>
       <c r="AL67" s="93"/>
       <c r="AM67" s="93"/>
-      <c r="AN67" s="94" t="str">
+      <c r="AN67" s="94">
         <f t="shared" si="9"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AO67" s="107"/>
       <c r="AP67" s="91" t="str">
@@ -21549,14 +21491,14 @@
         <v/>
       </c>
       <c r="J68" s="107"/>
-      <c r="K68" s="91" t="str">
+      <c r="K68" s="91">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L68" s="107"/>
-      <c r="M68" s="91" t="str">
+      <c r="M68" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N68" s="107"/>
       <c r="O68" s="91" t="str">
@@ -21596,9 +21538,9 @@
       <c r="AK68" s="93"/>
       <c r="AL68" s="93"/>
       <c r="AM68" s="93"/>
-      <c r="AN68" s="94" t="str">
+      <c r="AN68" s="94">
         <f t="shared" si="9"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AO68" s="107"/>
       <c r="AP68" s="91" t="str">
@@ -21797,14 +21739,14 @@
         <v/>
       </c>
       <c r="J69" s="107"/>
-      <c r="K69" s="91" t="str">
+      <c r="K69" s="91">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L69" s="107"/>
-      <c r="M69" s="91" t="str">
+      <c r="M69" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N69" s="107"/>
       <c r="O69" s="91" t="str">
@@ -21844,9 +21786,9 @@
       <c r="AK69" s="93"/>
       <c r="AL69" s="93"/>
       <c r="AM69" s="93"/>
-      <c r="AN69" s="94" t="str">
+      <c r="AN69" s="94">
         <f t="shared" si="9"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AO69" s="107"/>
       <c r="AP69" s="91" t="str">
@@ -22045,14 +21987,14 @@
         <v/>
       </c>
       <c r="J70" s="107"/>
-      <c r="K70" s="91" t="str">
+      <c r="K70" s="91">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L70" s="107"/>
-      <c r="M70" s="91" t="str">
+      <c r="M70" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N70" s="107"/>
       <c r="O70" s="91" t="str">
@@ -22092,9 +22034,9 @@
       <c r="AK70" s="93"/>
       <c r="AL70" s="93"/>
       <c r="AM70" s="93"/>
-      <c r="AN70" s="94" t="str">
+      <c r="AN70" s="94">
         <f t="shared" si="9"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AO70" s="107"/>
       <c r="AP70" s="91" t="str">
@@ -22364,7 +22306,7 @@
     <mergeCell ref="CH7:CI7"/>
   </mergeCells>
   <conditionalFormatting sqref="CU10:CU70">
-    <cfRule type="cellIs" dxfId="40" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"FAILED"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22571,9 +22513,9 @@
         <f>'RAW GRADES'!I10</f>
         <v/>
       </c>
-      <c r="E8" s="51" t="str">
+      <c r="E8" s="51">
         <f>'RAW GRADES'!AN10</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="F8" s="51" t="str">
         <f>'RAW GRADES'!AU10</f>
@@ -22585,11 +22527,11 @@
       </c>
       <c r="H8" s="52">
         <f>'RAW GRADES'!BC10</f>
-        <v>12.857142857142856</v>
+        <v>22.857142857142854</v>
       </c>
       <c r="I8" s="52">
         <f>'RAW GRADES'!BD10</f>
-        <v>12.86</v>
+        <v>22.86</v>
       </c>
       <c r="J8" s="51" t="str">
         <f>'RAW GRADES'!BK10</f>
@@ -22609,7 +22551,7 @@
       </c>
       <c r="N8" s="54">
         <f>'RAW GRADES'!CS10</f>
-        <v>5.1440000000000001</v>
+        <v>9.1440000000000001</v>
       </c>
       <c r="O8" s="55">
         <f>'RAW GRADES'!CT10</f>
@@ -22636,9 +22578,9 @@
         <f>'RAW GRADES'!I11</f>
         <v/>
       </c>
-      <c r="E9" s="51" t="str">
+      <c r="E9" s="51">
         <f>'RAW GRADES'!AN11</f>
-        <v/>
+        <v>10.3</v>
       </c>
       <c r="F9" s="51" t="str">
         <f>'RAW GRADES'!AU11</f>
@@ -22650,11 +22592,11 @@
       </c>
       <c r="H9" s="52">
         <f>'RAW GRADES'!BC11</f>
-        <v>17.142857142857142</v>
+        <v>27.442857142857143</v>
       </c>
       <c r="I9" s="52">
         <f>'RAW GRADES'!BD11</f>
-        <v>17.14</v>
+        <v>27.44</v>
       </c>
       <c r="J9" s="51" t="str">
         <f>'RAW GRADES'!BK11</f>
@@ -22674,7 +22616,7 @@
       </c>
       <c r="N9" s="57">
         <f>'RAW GRADES'!CS11</f>
-        <v>6.8560000000000008</v>
+        <v>10.976000000000001</v>
       </c>
       <c r="O9" s="55">
         <f>'RAW GRADES'!CT11</f>
@@ -22701,9 +22643,9 @@
         <f>'RAW GRADES'!I12</f>
         <v/>
       </c>
-      <c r="E10" s="51" t="str">
+      <c r="E10" s="51">
         <f>'RAW GRADES'!AN12</f>
-        <v/>
+        <v>11.9</v>
       </c>
       <c r="F10" s="51" t="str">
         <f>'RAW GRADES'!AU12</f>
@@ -22715,11 +22657,11 @@
       </c>
       <c r="H10" s="52">
         <f>'RAW GRADES'!BC12</f>
-        <v>16.285714285714285</v>
+        <v>28.185714285714283</v>
       </c>
       <c r="I10" s="52">
         <f>'RAW GRADES'!BD12</f>
-        <v>16.29</v>
+        <v>28.19</v>
       </c>
       <c r="J10" s="51" t="str">
         <f>'RAW GRADES'!BK12</f>
@@ -22739,7 +22681,7 @@
       </c>
       <c r="N10" s="57">
         <f>'RAW GRADES'!CS12</f>
-        <v>6.516</v>
+        <v>11.276000000000002</v>
       </c>
       <c r="O10" s="55">
         <f>'RAW GRADES'!CT12</f>
@@ -22766,9 +22708,9 @@
         <f>'RAW GRADES'!I13</f>
         <v/>
       </c>
-      <c r="E11" s="51" t="str">
+      <c r="E11" s="51">
         <f>'RAW GRADES'!AN13</f>
-        <v/>
+        <v>11.700000000000001</v>
       </c>
       <c r="F11" s="51" t="str">
         <f>'RAW GRADES'!AU13</f>
@@ -22780,11 +22722,11 @@
       </c>
       <c r="H11" s="52">
         <f>'RAW GRADES'!BC13</f>
-        <v>16.285714285714285</v>
+        <v>27.985714285714288</v>
       </c>
       <c r="I11" s="52">
         <f>'RAW GRADES'!BD13</f>
-        <v>16.29</v>
+        <v>27.99</v>
       </c>
       <c r="J11" s="51" t="str">
         <f>'RAW GRADES'!BK13</f>
@@ -22804,7 +22746,7 @@
       </c>
       <c r="N11" s="57">
         <f>'RAW GRADES'!CS13</f>
-        <v>6.516</v>
+        <v>11.196</v>
       </c>
       <c r="O11" s="55">
         <f>'RAW GRADES'!CT13</f>
@@ -22831,9 +22773,9 @@
         <f>'RAW GRADES'!I14</f>
         <v/>
       </c>
-      <c r="E12" s="51" t="str">
+      <c r="E12" s="51">
         <f>'RAW GRADES'!AN14</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="F12" s="51" t="str">
         <f>'RAW GRADES'!AU14</f>
@@ -22845,11 +22787,11 @@
       </c>
       <c r="H12" s="52">
         <f>'RAW GRADES'!BC14</f>
-        <v>13.714285714285714</v>
+        <v>23.714285714285715</v>
       </c>
       <c r="I12" s="52">
         <f>'RAW GRADES'!BD14</f>
-        <v>13.71</v>
+        <v>23.71</v>
       </c>
       <c r="J12" s="51" t="str">
         <f>'RAW GRADES'!BK14</f>
@@ -22869,7 +22811,7 @@
       </c>
       <c r="N12" s="57">
         <f>'RAW GRADES'!CS14</f>
-        <v>5.4840000000000009</v>
+        <v>9.484</v>
       </c>
       <c r="O12" s="55">
         <f>'RAW GRADES'!CT14</f>
@@ -22896,9 +22838,9 @@
         <f>'RAW GRADES'!I15</f>
         <v/>
       </c>
-      <c r="E13" s="51" t="str">
+      <c r="E13" s="51">
         <f>'RAW GRADES'!AN15</f>
-        <v/>
+        <v>12.200000000000001</v>
       </c>
       <c r="F13" s="51" t="str">
         <f>'RAW GRADES'!AU15</f>
@@ -22910,11 +22852,11 @@
       </c>
       <c r="H13" s="52">
         <f>'RAW GRADES'!BC15</f>
-        <v>17.142857142857142</v>
+        <v>29.342857142857142</v>
       </c>
       <c r="I13" s="52">
         <f>'RAW GRADES'!BD15</f>
-        <v>17.14</v>
+        <v>29.34</v>
       </c>
       <c r="J13" s="51" t="str">
         <f>'RAW GRADES'!BK15</f>
@@ -22934,7 +22876,7 @@
       </c>
       <c r="N13" s="57">
         <f>'RAW GRADES'!CS15</f>
-        <v>6.8560000000000008</v>
+        <v>11.736000000000001</v>
       </c>
       <c r="O13" s="55">
         <f>'RAW GRADES'!CT15</f>
@@ -22961,9 +22903,9 @@
         <f>'RAW GRADES'!I16</f>
         <v/>
       </c>
-      <c r="E14" s="51" t="str">
+      <c r="E14" s="51">
         <f>'RAW GRADES'!AN16</f>
-        <v/>
+        <v>12.700000000000001</v>
       </c>
       <c r="F14" s="51" t="str">
         <f>'RAW GRADES'!AU16</f>
@@ -22975,11 +22917,11 @@
       </c>
       <c r="H14" s="52">
         <f>'RAW GRADES'!BC16</f>
-        <v>21</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="I14" s="52">
         <f>'RAW GRADES'!BD16</f>
-        <v>21</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="J14" s="51" t="str">
         <f>'RAW GRADES'!BK16</f>
@@ -22999,7 +22941,7 @@
       </c>
       <c r="N14" s="57">
         <f>'RAW GRADES'!CS16</f>
-        <v>8.4</v>
+        <v>13.480000000000002</v>
       </c>
       <c r="O14" s="55">
         <f>'RAW GRADES'!CT16</f>
@@ -23026,9 +22968,9 @@
         <f>'RAW GRADES'!I17</f>
         <v/>
       </c>
-      <c r="E15" s="51" t="str">
+      <c r="E15" s="51">
         <f>'RAW GRADES'!AN17</f>
-        <v/>
+        <v>15.100000000000001</v>
       </c>
       <c r="F15" s="51" t="str">
         <f>'RAW GRADES'!AU17</f>
@@ -23040,11 +22982,11 @@
       </c>
       <c r="H15" s="52">
         <f>'RAW GRADES'!BC17</f>
-        <v>21.428571428571427</v>
+        <v>36.528571428571425</v>
       </c>
       <c r="I15" s="52">
         <f>'RAW GRADES'!BD17</f>
-        <v>21.43</v>
+        <v>36.53</v>
       </c>
       <c r="J15" s="51" t="str">
         <f>'RAW GRADES'!BK17</f>
@@ -23064,7 +23006,7 @@
       </c>
       <c r="N15" s="57">
         <f>'RAW GRADES'!CS17</f>
-        <v>8.572000000000001</v>
+        <v>14.612000000000002</v>
       </c>
       <c r="O15" s="55">
         <f>'RAW GRADES'!CT17</f>
@@ -23091,9 +23033,9 @@
         <f>'RAW GRADES'!I18</f>
         <v/>
       </c>
-      <c r="E16" s="51" t="str">
+      <c r="E16" s="51">
         <f>'RAW GRADES'!AN18</f>
-        <v/>
+        <v>15.600000000000001</v>
       </c>
       <c r="F16" s="51" t="str">
         <f>'RAW GRADES'!AU18</f>
@@ -23105,11 +23047,11 @@
       </c>
       <c r="H16" s="52">
         <f>'RAW GRADES'!BC18</f>
-        <v>22.285714285714288</v>
+        <v>37.885714285714286</v>
       </c>
       <c r="I16" s="52">
         <f>'RAW GRADES'!BD18</f>
-        <v>22.29</v>
+        <v>37.89</v>
       </c>
       <c r="J16" s="51" t="str">
         <f>'RAW GRADES'!BK18</f>
@@ -23129,7 +23071,7 @@
       </c>
       <c r="N16" s="57">
         <f>'RAW GRADES'!CS18</f>
-        <v>8.9160000000000004</v>
+        <v>15.156000000000001</v>
       </c>
       <c r="O16" s="55">
         <f>'RAW GRADES'!CT18</f>
@@ -23156,9 +23098,9 @@
         <f>'RAW GRADES'!I19</f>
         <v/>
       </c>
-      <c r="E17" s="51" t="str">
+      <c r="E17" s="51">
         <f>'RAW GRADES'!AN19</f>
-        <v/>
+        <v>13.600000000000001</v>
       </c>
       <c r="F17" s="51" t="str">
         <f>'RAW GRADES'!AU19</f>
@@ -23170,11 +23112,11 @@
       </c>
       <c r="H17" s="52">
         <f>'RAW GRADES'!BC19</f>
-        <v>18.428571428571427</v>
+        <v>32.028571428571425</v>
       </c>
       <c r="I17" s="52">
         <f>'RAW GRADES'!BD19</f>
-        <v>18.43</v>
+        <v>32.03</v>
       </c>
       <c r="J17" s="51" t="str">
         <f>'RAW GRADES'!BK19</f>
@@ -23194,7 +23136,7 @@
       </c>
       <c r="N17" s="57">
         <f>'RAW GRADES'!CS19</f>
-        <v>7.3719999999999999</v>
+        <v>12.812000000000001</v>
       </c>
       <c r="O17" s="55">
         <f>'RAW GRADES'!CT19</f>
@@ -23221,9 +23163,9 @@
         <f>'RAW GRADES'!I20</f>
         <v/>
       </c>
-      <c r="E18" s="51" t="str">
+      <c r="E18" s="51">
         <f>'RAW GRADES'!AN20</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F18" s="51" t="str">
         <f>'RAW GRADES'!AU20</f>
@@ -23286,9 +23228,9 @@
         <f>'RAW GRADES'!I21</f>
         <v/>
       </c>
-      <c r="E19" s="51" t="str">
+      <c r="E19" s="51">
         <f>'RAW GRADES'!AN21</f>
-        <v/>
+        <v>12.3</v>
       </c>
       <c r="F19" s="51" t="str">
         <f>'RAW GRADES'!AU21</f>
@@ -23300,11 +23242,11 @@
       </c>
       <c r="H19" s="52">
         <f>'RAW GRADES'!BC21</f>
-        <v>16.714285714285715</v>
+        <v>29.014285714285716</v>
       </c>
       <c r="I19" s="52">
         <f>'RAW GRADES'!BD21</f>
-        <v>16.71</v>
+        <v>29.01</v>
       </c>
       <c r="J19" s="51" t="str">
         <f>'RAW GRADES'!BK21</f>
@@ -23324,7 +23266,7 @@
       </c>
       <c r="N19" s="57">
         <f>'RAW GRADES'!CS21</f>
-        <v>6.6840000000000011</v>
+        <v>11.604000000000001</v>
       </c>
       <c r="O19" s="55">
         <f>'RAW GRADES'!CT21</f>
@@ -23351,9 +23293,9 @@
         <f>'RAW GRADES'!I22</f>
         <v/>
       </c>
-      <c r="E20" s="51" t="str">
+      <c r="E20" s="51">
         <f>'RAW GRADES'!AN22</f>
-        <v/>
+        <v>13.3</v>
       </c>
       <c r="F20" s="51" t="str">
         <f>'RAW GRADES'!AU22</f>
@@ -23365,11 +23307,11 @@
       </c>
       <c r="H20" s="52">
         <f>'RAW GRADES'!BC22</f>
-        <v>21.857142857142854</v>
+        <v>35.157142857142858</v>
       </c>
       <c r="I20" s="52">
         <f>'RAW GRADES'!BD22</f>
-        <v>21.86</v>
+        <v>35.159999999999997</v>
       </c>
       <c r="J20" s="51" t="str">
         <f>'RAW GRADES'!BK22</f>
@@ -23389,7 +23331,7 @@
       </c>
       <c r="N20" s="57">
         <f>'RAW GRADES'!CS22</f>
-        <v>8.7439999999999998</v>
+        <v>14.064</v>
       </c>
       <c r="O20" s="55">
         <f>'RAW GRADES'!CT22</f>
@@ -23416,9 +23358,9 @@
         <f>'RAW GRADES'!I23</f>
         <v/>
       </c>
-      <c r="E21" s="51" t="str">
+      <c r="E21" s="51">
         <f>'RAW GRADES'!AN23</f>
-        <v/>
+        <v>15.8</v>
       </c>
       <c r="F21" s="51" t="str">
         <f>'RAW GRADES'!AU23</f>
@@ -23430,11 +23372,11 @@
       </c>
       <c r="H21" s="52">
         <f>'RAW GRADES'!BC23</f>
-        <v>23.571428571428569</v>
+        <v>39.371428571428567</v>
       </c>
       <c r="I21" s="52">
         <f>'RAW GRADES'!BD23</f>
-        <v>23.57</v>
+        <v>39.369999999999997</v>
       </c>
       <c r="J21" s="51" t="str">
         <f>'RAW GRADES'!BK23</f>
@@ -23454,7 +23396,7 @@
       </c>
       <c r="N21" s="57">
         <f>'RAW GRADES'!CS23</f>
-        <v>9.4280000000000008</v>
+        <v>15.747999999999999</v>
       </c>
       <c r="O21" s="55">
         <f>'RAW GRADES'!CT23</f>
@@ -23481,9 +23423,9 @@
         <f>'RAW GRADES'!I24</f>
         <v/>
       </c>
-      <c r="E22" s="51" t="str">
+      <c r="E22" s="51">
         <f>'RAW GRADES'!AN24</f>
-        <v/>
+        <v>13</v>
       </c>
       <c r="F22" s="51" t="str">
         <f>'RAW GRADES'!AU24</f>
@@ -23495,11 +23437,11 @@
       </c>
       <c r="H22" s="52">
         <f>'RAW GRADES'!BC24</f>
-        <v>20.571428571428569</v>
+        <v>33.571428571428569</v>
       </c>
       <c r="I22" s="52">
         <f>'RAW GRADES'!BD24</f>
-        <v>20.57</v>
+        <v>33.57</v>
       </c>
       <c r="J22" s="51" t="str">
         <f>'RAW GRADES'!BK24</f>
@@ -23519,7 +23461,7 @@
       </c>
       <c r="N22" s="57">
         <f>'RAW GRADES'!CS24</f>
-        <v>8.2279999999999998</v>
+        <v>13.428000000000001</v>
       </c>
       <c r="O22" s="55">
         <f>'RAW GRADES'!CT24</f>
@@ -23546,9 +23488,9 @@
         <f>'RAW GRADES'!I25</f>
         <v/>
       </c>
-      <c r="E23" s="51" t="str">
+      <c r="E23" s="51">
         <f>'RAW GRADES'!AN25</f>
-        <v/>
+        <v>10.5</v>
       </c>
       <c r="F23" s="51" t="str">
         <f>'RAW GRADES'!AU25</f>
@@ -23560,11 +23502,11 @@
       </c>
       <c r="H23" s="52">
         <f>'RAW GRADES'!BC25</f>
-        <v>18.428571428571427</v>
+        <v>28.928571428571427</v>
       </c>
       <c r="I23" s="52">
         <f>'RAW GRADES'!BD25</f>
-        <v>18.43</v>
+        <v>28.93</v>
       </c>
       <c r="J23" s="51" t="str">
         <f>'RAW GRADES'!BK25</f>
@@ -23584,7 +23526,7 @@
       </c>
       <c r="N23" s="57">
         <f>'RAW GRADES'!CS25</f>
-        <v>7.3719999999999999</v>
+        <v>11.572000000000001</v>
       </c>
       <c r="O23" s="55">
         <f>'RAW GRADES'!CT25</f>
@@ -23611,9 +23553,9 @@
         <f>'RAW GRADES'!I26</f>
         <v/>
       </c>
-      <c r="E24" s="51" t="str">
+      <c r="E24" s="51">
         <f>'RAW GRADES'!AN26</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F24" s="51" t="str">
         <f>'RAW GRADES'!AU26</f>
@@ -23676,9 +23618,9 @@
         <f>'RAW GRADES'!I27</f>
         <v/>
       </c>
-      <c r="E25" s="51" t="str">
+      <c r="E25" s="51">
         <f>'RAW GRADES'!AN27</f>
-        <v/>
+        <v>11.9</v>
       </c>
       <c r="F25" s="51" t="str">
         <f>'RAW GRADES'!AU27</f>
@@ -23690,11 +23632,11 @@
       </c>
       <c r="H25" s="52">
         <f>'RAW GRADES'!BC27</f>
-        <v>20.571428571428569</v>
+        <v>32.471428571428568</v>
       </c>
       <c r="I25" s="52">
         <f>'RAW GRADES'!BD27</f>
-        <v>20.57</v>
+        <v>32.47</v>
       </c>
       <c r="J25" s="51" t="str">
         <f>'RAW GRADES'!BK27</f>
@@ -23714,7 +23656,7 @@
       </c>
       <c r="N25" s="57">
         <f>'RAW GRADES'!CS27</f>
-        <v>8.2279999999999998</v>
+        <v>12.988</v>
       </c>
       <c r="O25" s="55">
         <f>'RAW GRADES'!CT27</f>
@@ -23741,9 +23683,9 @@
         <f>'RAW GRADES'!I28</f>
         <v/>
       </c>
-      <c r="E26" s="51" t="str">
+      <c r="E26" s="51">
         <f>'RAW GRADES'!AN28</f>
-        <v/>
+        <v>17.400000000000002</v>
       </c>
       <c r="F26" s="51" t="str">
         <f>'RAW GRADES'!AU28</f>
@@ -23755,11 +23697,11 @@
       </c>
       <c r="H26" s="52">
         <f>'RAW GRADES'!BC28</f>
-        <v>26.571428571428569</v>
+        <v>43.971428571428575</v>
       </c>
       <c r="I26" s="52">
         <f>'RAW GRADES'!BD28</f>
-        <v>26.57</v>
+        <v>43.97</v>
       </c>
       <c r="J26" s="51" t="str">
         <f>'RAW GRADES'!BK28</f>
@@ -23779,7 +23721,7 @@
       </c>
       <c r="N26" s="57">
         <f>'RAW GRADES'!CS28</f>
-        <v>10.628</v>
+        <v>17.588000000000001</v>
       </c>
       <c r="O26" s="55">
         <f>'RAW GRADES'!CT28</f>
@@ -23806,9 +23748,9 @@
         <f>'RAW GRADES'!I29</f>
         <v/>
       </c>
-      <c r="E27" s="51" t="str">
+      <c r="E27" s="51">
         <f>'RAW GRADES'!AN29</f>
-        <v/>
+        <v>17.900000000000002</v>
       </c>
       <c r="F27" s="51" t="str">
         <f>'RAW GRADES'!AU29</f>
@@ -23820,11 +23762,11 @@
       </c>
       <c r="H27" s="52">
         <f>'RAW GRADES'!BC29</f>
-        <v>25.714285714285712</v>
+        <v>43.614285714285714</v>
       </c>
       <c r="I27" s="52">
         <f>'RAW GRADES'!BD29</f>
-        <v>25.71</v>
+        <v>43.61</v>
       </c>
       <c r="J27" s="51" t="str">
         <f>'RAW GRADES'!BK29</f>
@@ -23844,7 +23786,7 @@
       </c>
       <c r="N27" s="57">
         <f>'RAW GRADES'!CS29</f>
-        <v>10.284000000000001</v>
+        <v>17.443999999999999</v>
       </c>
       <c r="O27" s="55">
         <f>'RAW GRADES'!CT29</f>
@@ -23871,9 +23813,9 @@
         <f>'RAW GRADES'!I30</f>
         <v/>
       </c>
-      <c r="E28" s="51" t="str">
+      <c r="E28" s="51">
         <f>'RAW GRADES'!AN30</f>
-        <v/>
+        <v>13.3</v>
       </c>
       <c r="F28" s="51" t="str">
         <f>'RAW GRADES'!AU30</f>
@@ -23885,11 +23827,11 @@
       </c>
       <c r="H28" s="52">
         <f>'RAW GRADES'!BC30</f>
-        <v>20.571428571428569</v>
+        <v>33.871428571428567</v>
       </c>
       <c r="I28" s="52">
         <f>'RAW GRADES'!BD30</f>
-        <v>20.57</v>
+        <v>33.869999999999997</v>
       </c>
       <c r="J28" s="51" t="str">
         <f>'RAW GRADES'!BK30</f>
@@ -23909,7 +23851,7 @@
       </c>
       <c r="N28" s="57">
         <f>'RAW GRADES'!CS30</f>
-        <v>8.2279999999999998</v>
+        <v>13.548</v>
       </c>
       <c r="O28" s="55">
         <f>'RAW GRADES'!CT30</f>
@@ -23936,9 +23878,9 @@
         <f>'RAW GRADES'!I31</f>
         <v/>
       </c>
-      <c r="E29" s="51" t="str">
+      <c r="E29" s="51">
         <f>'RAW GRADES'!AN31</f>
-        <v/>
+        <v>13.100000000000001</v>
       </c>
       <c r="F29" s="51" t="str">
         <f>'RAW GRADES'!AU31</f>
@@ -23950,11 +23892,11 @@
       </c>
       <c r="H29" s="52">
         <f>'RAW GRADES'!BC31</f>
-        <v>21.428571428571427</v>
+        <v>34.528571428571425</v>
       </c>
       <c r="I29" s="52">
         <f>'RAW GRADES'!BD31</f>
-        <v>21.43</v>
+        <v>34.53</v>
       </c>
       <c r="J29" s="51" t="str">
         <f>'RAW GRADES'!BK31</f>
@@ -23974,7 +23916,7 @@
       </c>
       <c r="N29" s="57">
         <f>'RAW GRADES'!CS31</f>
-        <v>8.572000000000001</v>
+        <v>13.812000000000001</v>
       </c>
       <c r="O29" s="55">
         <f>'RAW GRADES'!CT31</f>
@@ -24001,9 +23943,9 @@
         <f>'RAW GRADES'!I32</f>
         <v/>
       </c>
-      <c r="E30" s="51" t="str">
+      <c r="E30" s="51">
         <f>'RAW GRADES'!AN32</f>
-        <v/>
+        <v>16.600000000000001</v>
       </c>
       <c r="F30" s="51" t="str">
         <f>'RAW GRADES'!AU32</f>
@@ -24015,11 +23957,11 @@
       </c>
       <c r="H30" s="52">
         <f>'RAW GRADES'!BC32</f>
-        <v>25.714285714285712</v>
+        <v>42.314285714285717</v>
       </c>
       <c r="I30" s="52">
         <f>'RAW GRADES'!BD32</f>
-        <v>25.71</v>
+        <v>42.31</v>
       </c>
       <c r="J30" s="51" t="str">
         <f>'RAW GRADES'!BK32</f>
@@ -24039,7 +23981,7 @@
       </c>
       <c r="N30" s="57">
         <f>'RAW GRADES'!CS32</f>
-        <v>10.284000000000001</v>
+        <v>16.924000000000003</v>
       </c>
       <c r="O30" s="55">
         <f>'RAW GRADES'!CT32</f>
@@ -24066,9 +24008,9 @@
         <f>'RAW GRADES'!I33</f>
         <v/>
       </c>
-      <c r="E31" s="51" t="str">
+      <c r="E31" s="51">
         <f>'RAW GRADES'!AN33</f>
-        <v/>
+        <v>9.4</v>
       </c>
       <c r="F31" s="51" t="str">
         <f>'RAW GRADES'!AU33</f>
@@ -24080,11 +24022,11 @@
       </c>
       <c r="H31" s="52">
         <f>'RAW GRADES'!BC33</f>
-        <v>14.571428571428569</v>
+        <v>23.971428571428568</v>
       </c>
       <c r="I31" s="52">
         <f>'RAW GRADES'!BD33</f>
-        <v>14.57</v>
+        <v>23.97</v>
       </c>
       <c r="J31" s="51" t="str">
         <f>'RAW GRADES'!BK33</f>
@@ -24104,7 +24046,7 @@
       </c>
       <c r="N31" s="57">
         <f>'RAW GRADES'!CS33</f>
-        <v>5.8280000000000003</v>
+        <v>9.5879999999999992</v>
       </c>
       <c r="O31" s="55">
         <f>'RAW GRADES'!CT33</f>
@@ -24131,9 +24073,9 @@
         <f>'RAW GRADES'!I34</f>
         <v/>
       </c>
-      <c r="E32" s="51" t="str">
+      <c r="E32" s="51">
         <f>'RAW GRADES'!AN34</f>
-        <v/>
+        <v>11.600000000000001</v>
       </c>
       <c r="F32" s="51" t="str">
         <f>'RAW GRADES'!AU34</f>
@@ -24145,11 +24087,11 @@
       </c>
       <c r="H32" s="52">
         <f>'RAW GRADES'!BC34</f>
-        <v>18</v>
+        <v>29.6</v>
       </c>
       <c r="I32" s="52">
         <f>'RAW GRADES'!BD34</f>
-        <v>18</v>
+        <v>29.6</v>
       </c>
       <c r="J32" s="51" t="str">
         <f>'RAW GRADES'!BK34</f>
@@ -24169,7 +24111,7 @@
       </c>
       <c r="N32" s="57">
         <f>'RAW GRADES'!CS34</f>
-        <v>7.2</v>
+        <v>11.840000000000002</v>
       </c>
       <c r="O32" s="55">
         <f>'RAW GRADES'!CT34</f>
@@ -24196,9 +24138,9 @@
         <f>'RAW GRADES'!I35</f>
         <v/>
       </c>
-      <c r="E33" s="51" t="str">
+      <c r="E33" s="51">
         <f>'RAW GRADES'!AN35</f>
-        <v/>
+        <v>12.100000000000001</v>
       </c>
       <c r="F33" s="51" t="str">
         <f>'RAW GRADES'!AU35</f>
@@ -24210,11 +24152,11 @@
       </c>
       <c r="H33" s="52">
         <f>'RAW GRADES'!BC35</f>
-        <v>15.857142857142858</v>
+        <v>27.957142857142859</v>
       </c>
       <c r="I33" s="52">
         <f>'RAW GRADES'!BD35</f>
-        <v>15.86</v>
+        <v>27.96</v>
       </c>
       <c r="J33" s="51" t="str">
         <f>'RAW GRADES'!BK35</f>
@@ -24234,7 +24176,7 @@
       </c>
       <c r="N33" s="57">
         <f>'RAW GRADES'!CS35</f>
-        <v>6.3440000000000003</v>
+        <v>11.184000000000001</v>
       </c>
       <c r="O33" s="55">
         <f>'RAW GRADES'!CT35</f>
@@ -24261,9 +24203,9 @@
         <f>'RAW GRADES'!I36</f>
         <v/>
       </c>
-      <c r="E34" s="51" t="str">
+      <c r="E34" s="51">
         <f>'RAW GRADES'!AN36</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F34" s="51" t="str">
         <f>'RAW GRADES'!AU36</f>
@@ -24326,9 +24268,9 @@
         <f>'RAW GRADES'!I37</f>
         <v/>
       </c>
-      <c r="E35" s="51" t="str">
+      <c r="E35" s="51">
         <f>'RAW GRADES'!AN37</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F35" s="51" t="str">
         <f>'RAW GRADES'!AU37</f>
@@ -24391,9 +24333,9 @@
         <f>'RAW GRADES'!I38</f>
         <v/>
       </c>
-      <c r="E36" s="51" t="str">
+      <c r="E36" s="51">
         <f>'RAW GRADES'!AN38</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F36" s="51" t="str">
         <f>'RAW GRADES'!AU38</f>
@@ -24456,9 +24398,9 @@
         <f>'RAW GRADES'!I39</f>
         <v/>
       </c>
-      <c r="E37" s="51" t="str">
+      <c r="E37" s="51">
         <f>'RAW GRADES'!AN39</f>
-        <v/>
+        <v>13.5</v>
       </c>
       <c r="F37" s="51" t="str">
         <f>'RAW GRADES'!AU39</f>
@@ -24470,11 +24412,11 @@
       </c>
       <c r="H37" s="52">
         <f>'RAW GRADES'!BC39</f>
-        <v>18.857142857142854</v>
+        <v>32.357142857142854</v>
       </c>
       <c r="I37" s="52">
         <f>'RAW GRADES'!BD39</f>
-        <v>18.86</v>
+        <v>32.36</v>
       </c>
       <c r="J37" s="51" t="str">
         <f>'RAW GRADES'!BK39</f>
@@ -24494,7 +24436,7 @@
       </c>
       <c r="N37" s="57">
         <f>'RAW GRADES'!CS39</f>
-        <v>7.5440000000000005</v>
+        <v>12.944000000000001</v>
       </c>
       <c r="O37" s="55">
         <f>'RAW GRADES'!CT39</f>
@@ -24521,9 +24463,9 @@
         <f>'RAW GRADES'!I40</f>
         <v/>
       </c>
-      <c r="E38" s="51" t="str">
+      <c r="E38" s="51">
         <f>'RAW GRADES'!AN40</f>
-        <v/>
+        <v>13.200000000000001</v>
       </c>
       <c r="F38" s="51" t="str">
         <f>'RAW GRADES'!AU40</f>
@@ -24535,11 +24477,11 @@
       </c>
       <c r="H38" s="52">
         <f>'RAW GRADES'!BC40</f>
-        <v>21.857142857142854</v>
+        <v>35.057142857142857</v>
       </c>
       <c r="I38" s="52">
         <f>'RAW GRADES'!BD40</f>
-        <v>21.86</v>
+        <v>35.06</v>
       </c>
       <c r="J38" s="51" t="str">
         <f>'RAW GRADES'!BK40</f>
@@ -24559,7 +24501,7 @@
       </c>
       <c r="N38" s="57">
         <f>'RAW GRADES'!CS40</f>
-        <v>8.7439999999999998</v>
+        <v>14.024000000000001</v>
       </c>
       <c r="O38" s="55">
         <f>'RAW GRADES'!CT40</f>
@@ -24586,9 +24528,9 @@
         <f>'RAW GRADES'!I41</f>
         <v/>
       </c>
-      <c r="E39" s="51" t="str">
+      <c r="E39" s="51">
         <f>'RAW GRADES'!AN41</f>
-        <v/>
+        <v>14.5</v>
       </c>
       <c r="F39" s="51" t="str">
         <f>'RAW GRADES'!AU41</f>
@@ -24600,11 +24542,11 @@
       </c>
       <c r="H39" s="52">
         <f>'RAW GRADES'!BC41</f>
-        <v>20.571428571428569</v>
+        <v>35.071428571428569</v>
       </c>
       <c r="I39" s="52">
         <f>'RAW GRADES'!BD41</f>
-        <v>20.57</v>
+        <v>35.07</v>
       </c>
       <c r="J39" s="51" t="str">
         <f>'RAW GRADES'!BK41</f>
@@ -24624,7 +24566,7 @@
       </c>
       <c r="N39" s="57">
         <f>'RAW GRADES'!CS41</f>
-        <v>8.2279999999999998</v>
+        <v>14.028</v>
       </c>
       <c r="O39" s="55">
         <f>'RAW GRADES'!CT41</f>
@@ -24651,9 +24593,9 @@
         <f>'RAW GRADES'!I42</f>
         <v/>
       </c>
-      <c r="E40" s="51" t="str">
+      <c r="E40" s="51">
         <f>'RAW GRADES'!AN42</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F40" s="51" t="str">
         <f>'RAW GRADES'!AU42</f>
@@ -24706,19 +24648,19 @@
       </c>
       <c r="B41" s="49" t="str">
         <f>'RAW GRADES'!C43</f>
-        <v xml:space="preserve">Vilanuevea Leyi </v>
+        <v xml:space="preserve">Villanueva Levi </v>
       </c>
       <c r="C41" s="56">
         <f>'RAW GRADES'!F43</f>
-        <v>0</v>
+        <v>23.142857142857146</v>
       </c>
       <c r="D41" s="88" t="str">
         <f>'RAW GRADES'!I43</f>
         <v/>
       </c>
-      <c r="E41" s="51" t="str">
+      <c r="E41" s="51">
         <f>'RAW GRADES'!AN43</f>
-        <v/>
+        <v>14.8</v>
       </c>
       <c r="F41" s="51" t="str">
         <f>'RAW GRADES'!AU43</f>
@@ -24730,11 +24672,11 @@
       </c>
       <c r="H41" s="52">
         <f>'RAW GRADES'!BC43</f>
-        <v>0</v>
+        <v>37.94285714285715</v>
       </c>
       <c r="I41" s="52">
         <f>'RAW GRADES'!BD43</f>
-        <v>0</v>
+        <v>37.94</v>
       </c>
       <c r="J41" s="51" t="str">
         <f>'RAW GRADES'!BK43</f>
@@ -24754,7 +24696,7 @@
       </c>
       <c r="N41" s="57">
         <f>'RAW GRADES'!CS43</f>
-        <v>0</v>
+        <v>15.176</v>
       </c>
       <c r="O41" s="55">
         <f>'RAW GRADES'!CT43</f>
@@ -24781,9 +24723,9 @@
         <f>'RAW GRADES'!I44</f>
         <v/>
       </c>
-      <c r="E42" s="51" t="str">
+      <c r="E42" s="51">
         <f>'RAW GRADES'!AN44</f>
-        <v/>
+        <v>7.7</v>
       </c>
       <c r="F42" s="51" t="str">
         <f>'RAW GRADES'!AU44</f>
@@ -24795,11 +24737,11 @@
       </c>
       <c r="H42" s="52">
         <f>'RAW GRADES'!BC44</f>
-        <v>11.571428571428573</v>
+        <v>19.271428571428572</v>
       </c>
       <c r="I42" s="52">
         <f>'RAW GRADES'!BD44</f>
-        <v>11.57</v>
+        <v>19.27</v>
       </c>
       <c r="J42" s="51" t="str">
         <f>'RAW GRADES'!BK44</f>
@@ -24819,7 +24761,7 @@
       </c>
       <c r="N42" s="57">
         <f>'RAW GRADES'!CS44</f>
-        <v>4.6280000000000001</v>
+        <v>7.7080000000000002</v>
       </c>
       <c r="O42" s="55">
         <f>'RAW GRADES'!CT44</f>
@@ -24846,9 +24788,9 @@
         <f>'RAW GRADES'!I45</f>
         <v/>
       </c>
-      <c r="E43" s="51" t="str">
+      <c r="E43" s="51">
         <f>'RAW GRADES'!AN45</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F43" s="51" t="str">
         <f>'RAW GRADES'!AU45</f>
@@ -24911,9 +24853,9 @@
         <f>'RAW GRADES'!I46</f>
         <v/>
       </c>
-      <c r="E44" s="51" t="str">
+      <c r="E44" s="51">
         <f>'RAW GRADES'!AN46</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F44" s="51" t="str">
         <f>'RAW GRADES'!AU46</f>
@@ -24976,9 +24918,9 @@
         <f>'RAW GRADES'!I47</f>
         <v/>
       </c>
-      <c r="E45" s="51" t="str">
+      <c r="E45" s="51">
         <f>'RAW GRADES'!AN47</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F45" s="51" t="str">
         <f>'RAW GRADES'!AU47</f>
@@ -25041,9 +24983,9 @@
         <f>'RAW GRADES'!I48</f>
         <v/>
       </c>
-      <c r="E46" s="51" t="str">
+      <c r="E46" s="51">
         <f>'RAW GRADES'!AN48</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F46" s="51" t="str">
         <f>'RAW GRADES'!AU48</f>
@@ -25106,9 +25048,9 @@
         <f>'RAW GRADES'!I49</f>
         <v/>
       </c>
-      <c r="E47" s="51" t="str">
+      <c r="E47" s="51">
         <f>'RAW GRADES'!AN49</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F47" s="51" t="str">
         <f>'RAW GRADES'!AU49</f>
@@ -25171,9 +25113,9 @@
         <f>'RAW GRADES'!I50</f>
         <v/>
       </c>
-      <c r="E48" s="51" t="str">
+      <c r="E48" s="51">
         <f>'RAW GRADES'!AN50</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F48" s="51" t="str">
         <f>'RAW GRADES'!AU50</f>
@@ -25236,9 +25178,9 @@
         <f>'RAW GRADES'!I51</f>
         <v/>
       </c>
-      <c r="E49" s="51" t="str">
+      <c r="E49" s="51">
         <f>'RAW GRADES'!AN51</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F49" s="51" t="str">
         <f>'RAW GRADES'!AU51</f>
@@ -25301,9 +25243,9 @@
         <f>'RAW GRADES'!I52</f>
         <v/>
       </c>
-      <c r="E50" s="51" t="str">
+      <c r="E50" s="51">
         <f>'RAW GRADES'!AN52</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F50" s="51" t="str">
         <f>'RAW GRADES'!AU52</f>
@@ -25366,9 +25308,9 @@
         <f>'RAW GRADES'!I53</f>
         <v/>
       </c>
-      <c r="E51" s="51" t="str">
+      <c r="E51" s="51">
         <f>'RAW GRADES'!AN53</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F51" s="51" t="str">
         <f>'RAW GRADES'!AU53</f>
@@ -25431,9 +25373,9 @@
         <f>'RAW GRADES'!I54</f>
         <v/>
       </c>
-      <c r="E52" s="51" t="str">
+      <c r="E52" s="51">
         <f>'RAW GRADES'!AN54</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F52" s="51" t="str">
         <f>'RAW GRADES'!AU54</f>
@@ -25496,9 +25438,9 @@
         <f>'RAW GRADES'!I55</f>
         <v/>
       </c>
-      <c r="E53" s="51" t="str">
+      <c r="E53" s="51">
         <f>'RAW GRADES'!AN55</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F53" s="51" t="str">
         <f>'RAW GRADES'!AU55</f>
@@ -25561,9 +25503,9 @@
         <f>'RAW GRADES'!I56</f>
         <v/>
       </c>
-      <c r="E54" s="51" t="str">
+      <c r="E54" s="51">
         <f>'RAW GRADES'!AN56</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F54" s="51" t="str">
         <f>'RAW GRADES'!AU56</f>
@@ -25626,9 +25568,9 @@
         <f>'RAW GRADES'!I57</f>
         <v/>
       </c>
-      <c r="E55" s="51" t="str">
+      <c r="E55" s="51">
         <f>'RAW GRADES'!AN57</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F55" s="51" t="str">
         <f>'RAW GRADES'!AU57</f>
@@ -25691,9 +25633,9 @@
         <f>'RAW GRADES'!I58</f>
         <v/>
       </c>
-      <c r="E56" s="51" t="str">
+      <c r="E56" s="51">
         <f>'RAW GRADES'!AN58</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F56" s="51" t="str">
         <f>'RAW GRADES'!AU58</f>
@@ -25756,9 +25698,9 @@
         <f>'RAW GRADES'!I59</f>
         <v/>
       </c>
-      <c r="E57" s="51" t="str">
+      <c r="E57" s="51">
         <f>'RAW GRADES'!AN59</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F57" s="51" t="str">
         <f>'RAW GRADES'!AU59</f>
@@ -25821,9 +25763,9 @@
         <f>'RAW GRADES'!I60</f>
         <v/>
       </c>
-      <c r="E58" s="51" t="str">
+      <c r="E58" s="51">
         <f>'RAW GRADES'!AN60</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F58" s="51" t="str">
         <f>'RAW GRADES'!AU60</f>
@@ -25886,9 +25828,9 @@
         <f>'RAW GRADES'!I61</f>
         <v/>
       </c>
-      <c r="E59" s="51" t="str">
+      <c r="E59" s="51">
         <f>'RAW GRADES'!AN61</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F59" s="51" t="str">
         <f>'RAW GRADES'!AU61</f>
@@ -25951,9 +25893,9 @@
         <f>'RAW GRADES'!I62</f>
         <v/>
       </c>
-      <c r="E60" s="51" t="str">
+      <c r="E60" s="51">
         <f>'RAW GRADES'!AN62</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F60" s="51" t="str">
         <f>'RAW GRADES'!AU62</f>
@@ -26016,9 +25958,9 @@
         <f>'RAW GRADES'!I63</f>
         <v/>
       </c>
-      <c r="E61" s="51" t="str">
+      <c r="E61" s="51">
         <f>'RAW GRADES'!AN63</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F61" s="51" t="str">
         <f>'RAW GRADES'!AU63</f>
@@ -26081,9 +26023,9 @@
         <f>'RAW GRADES'!I64</f>
         <v/>
       </c>
-      <c r="E62" s="51" t="str">
+      <c r="E62" s="51">
         <f>'RAW GRADES'!AN64</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F62" s="51" t="str">
         <f>'RAW GRADES'!AU64</f>
@@ -26146,9 +26088,9 @@
         <f>'RAW GRADES'!I65</f>
         <v/>
       </c>
-      <c r="E63" s="51" t="str">
+      <c r="E63" s="51">
         <f>'RAW GRADES'!AN65</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F63" s="51" t="str">
         <f>'RAW GRADES'!AU65</f>
@@ -26211,9 +26153,9 @@
         <f>'RAW GRADES'!I66</f>
         <v/>
       </c>
-      <c r="E64" s="51" t="str">
+      <c r="E64" s="51">
         <f>'RAW GRADES'!AN66</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F64" s="51" t="str">
         <f>'RAW GRADES'!AU66</f>
@@ -26276,9 +26218,9 @@
         <f>'RAW GRADES'!I67</f>
         <v/>
       </c>
-      <c r="E65" s="51" t="str">
+      <c r="E65" s="51">
         <f>'RAW GRADES'!AN67</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F65" s="51" t="str">
         <f>'RAW GRADES'!AU67</f>
@@ -26341,9 +26283,9 @@
         <f>'RAW GRADES'!I68</f>
         <v/>
       </c>
-      <c r="E66" s="51" t="str">
+      <c r="E66" s="51">
         <f>'RAW GRADES'!AN68</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F66" s="51" t="str">
         <f>'RAW GRADES'!AU68</f>
@@ -26406,9 +26348,9 @@
         <f>'RAW GRADES'!I69</f>
         <v/>
       </c>
-      <c r="E67" s="51" t="str">
+      <c r="E67" s="51">
         <f>'RAW GRADES'!AN69</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F67" s="51" t="str">
         <f>'RAW GRADES'!AU69</f>
@@ -26471,9 +26413,9 @@
         <f>'RAW GRADES'!I70</f>
         <v/>
       </c>
-      <c r="E68" s="51" t="str">
+      <c r="E68" s="51">
         <f>'RAW GRADES'!AN70</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F68" s="51" t="str">
         <f>'RAW GRADES'!AU70</f>
@@ -26534,7 +26476,7 @@
     <mergeCell ref="C5:I5"/>
   </mergeCells>
   <conditionalFormatting sqref="P8:P68">
-    <cfRule type="cellIs" dxfId="39" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"FAILED"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27209,9 +27151,9 @@
         <f>'DEPT CHAIR'!B25</f>
         <v>Fernandez Shaira T</v>
       </c>
-      <c r="C39" s="66">
+      <c r="C39" s="66" t="str">
         <f>REGISTRATION!B28</f>
-        <v>0</v>
+        <v>201601-051</v>
       </c>
       <c r="D39" s="67">
         <f>'DEPT CHAIR'!O25</f>
@@ -27434,9 +27376,9 @@
         <f>'DEPT CHAIR'!B34</f>
         <v>Poblete Jan Fritzgerald A</v>
       </c>
-      <c r="C48" s="66">
+      <c r="C48" s="66" t="str">
         <f>REGISTRATION!B37</f>
-        <v>0</v>
+        <v>201701-382</v>
       </c>
       <c r="D48" s="67">
         <f>'DEPT CHAIR'!O34</f>
@@ -27607,7 +27549,7 @@
       </c>
       <c r="B55" s="65" t="str">
         <f>'DEPT CHAIR'!B41</f>
-        <v xml:space="preserve">Vilanuevea Leyi </v>
+        <v xml:space="preserve">Villanueva Levi </v>
       </c>
       <c r="C55" s="66" t="str">
         <f>REGISTRATION!B44</f>
@@ -28329,7 +28271,7 @@
       <c r="D87" s="59"/>
       <c r="E87" s="250">
         <f ca="1">NOW()</f>
-        <v>43014.516310763887</v>
+        <v>43060.421242245371</v>
       </c>
       <c r="F87" s="250"/>
     </row>
@@ -28829,7 +28771,7 @@
     <mergeCell ref="C13:E13"/>
   </mergeCells>
   <conditionalFormatting sqref="F22:F81">
-    <cfRule type="cellIs" dxfId="38" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"FAILED"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29440,9 +29382,9 @@
       <c r="A21" s="115">
         <v>18</v>
       </c>
-      <c r="B21" s="110">
+      <c r="B21" s="110" t="str">
         <f>'SEMESTRAL GRADE'!C39</f>
-        <v>0</v>
+        <v>201601-051</v>
       </c>
       <c r="C21" s="112" t="str">
         <f>'SEMESTRAL GRADE'!B39</f>
@@ -29692,9 +29634,9 @@
       <c r="A30" s="115">
         <v>27</v>
       </c>
-      <c r="B30" s="110">
+      <c r="B30" s="110" t="str">
         <f>'SEMESTRAL GRADE'!C48</f>
-        <v>0</v>
+        <v>201701-382</v>
       </c>
       <c r="C30" s="112" t="str">
         <f>'SEMESTRAL GRADE'!B48</f>

--- a/DCIT 21 - IT 1D/LEC AND LAB - IT1D.xlsx
+++ b/DCIT 21 - IT 1D/LEC AND LAB - IT1D.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="REGISTRATION" sheetId="1" r:id="rId1"/>
@@ -3788,7 +3788,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:R71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
@@ -5945,9 +5945,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:CU70"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <pane xSplit="3" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L11" sqref="L11"/>
+      <selection pane="topRight" activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28271,7 +28271,7 @@
       <c r="D87" s="59"/>
       <c r="E87" s="250">
         <f ca="1">NOW()</f>
-        <v>43060.421242245371</v>
+        <v>43067.725441087961</v>
       </c>
       <c r="F87" s="250"/>
     </row>

--- a/DCIT 21 - IT 1D/LEC AND LAB - IT1D.xlsx
+++ b/DCIT 21 - IT 1D/LEC AND LAB - IT1D.xlsx
@@ -933,9 +933,6 @@
     <t>201701-633</t>
   </si>
   <si>
-    <t>Rama Krsna dasi</t>
-  </si>
-  <si>
     <t>Poblete</t>
   </si>
   <si>
@@ -964,6 +961,9 @@
   </si>
   <si>
     <t>201701-382</t>
+  </si>
+  <si>
+    <t>Rama Krsna Dasi</t>
   </si>
 </sst>
 </file>
@@ -3788,8 +3788,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:R71"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4563,13 +4563,13 @@
         <v>18</v>
       </c>
       <c r="B28" s="125" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C28" s="125" t="s">
+        <v>284</v>
+      </c>
+      <c r="D28" s="125" t="s">
         <v>285</v>
-      </c>
-      <c r="D28" s="125" t="s">
-        <v>286</v>
       </c>
       <c r="E28" s="125" t="s">
         <v>237</v>
@@ -4832,13 +4832,13 @@
         <v>27</v>
       </c>
       <c r="B37" s="125" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C37" s="125" t="s">
+        <v>282</v>
+      </c>
+      <c r="D37" s="125" t="s">
         <v>283</v>
-      </c>
-      <c r="D37" s="125" t="s">
-        <v>284</v>
       </c>
       <c r="E37" s="125" t="s">
         <v>194</v>
@@ -5024,10 +5024,10 @@
         <v>277</v>
       </c>
       <c r="C44" s="125" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D44" s="125" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E44" s="125"/>
       <c r="F44" s="16"/>
@@ -5050,7 +5050,7 @@
         <v>278</v>
       </c>
       <c r="D45" s="125" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="E45" s="125" t="s">
         <v>208</v>
@@ -5945,9 +5945,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:CU70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L49" sqref="L49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6415,19 +6415,27 @@
       <c r="I7" s="123">
         <v>0.3</v>
       </c>
-      <c r="J7" s="189"/>
+      <c r="J7" s="189">
+        <v>43004</v>
+      </c>
       <c r="K7" s="189"/>
-      <c r="L7" s="189"/>
+      <c r="L7" s="189">
+        <v>43011</v>
+      </c>
       <c r="M7" s="189"/>
-      <c r="N7" s="189"/>
+      <c r="N7" s="189">
+        <v>43068</v>
+      </c>
       <c r="O7" s="189"/>
-      <c r="P7" s="189"/>
+      <c r="P7" s="189">
+        <v>43068</v>
+      </c>
       <c r="Q7" s="189"/>
       <c r="R7" s="189"/>
       <c r="S7" s="189"/>
       <c r="T7" s="190">
         <f>COUNT(J9,L9,N9,P9,R9,T9)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U7" s="190"/>
       <c r="V7" s="189"/>
@@ -6452,28 +6460,28 @@
         <v>0.2</v>
       </c>
       <c r="AO7" s="189" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AP7" s="189"/>
       <c r="AQ7" s="189"/>
       <c r="AR7" s="189"/>
       <c r="AS7" s="190">
         <f>COUNT(AO9,AQ9,AS9)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT7" s="190"/>
       <c r="AU7" s="20">
         <v>0.1</v>
       </c>
       <c r="AV7" s="189" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AW7" s="189"/>
       <c r="AX7" s="189"/>
       <c r="AY7" s="189"/>
       <c r="AZ7" s="190">
         <f>COUNT(AV9,AX9,AZ9)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA7" s="190"/>
       <c r="BB7" s="21">
@@ -6739,7 +6747,9 @@
       <c r="F9" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="G9" s="26"/>
+      <c r="G9" s="26">
+        <v>80</v>
+      </c>
       <c r="H9" s="90"/>
       <c r="I9" s="95" t="s">
         <v>87</v>
@@ -6752,9 +6762,13 @@
         <v>25</v>
       </c>
       <c r="M9" s="28"/>
-      <c r="N9" s="26"/>
+      <c r="N9" s="26">
+        <v>35</v>
+      </c>
       <c r="O9" s="28"/>
-      <c r="P9" s="26"/>
+      <c r="P9" s="26">
+        <v>15</v>
+      </c>
       <c r="Q9" s="29"/>
       <c r="R9" s="26"/>
       <c r="S9" s="29"/>
@@ -6781,7 +6795,9 @@
       <c r="AN9" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="AO9" s="26"/>
+      <c r="AO9" s="26">
+        <v>100</v>
+      </c>
       <c r="AP9" s="31"/>
       <c r="AQ9" s="26"/>
       <c r="AR9" s="31"/>
@@ -6790,7 +6806,9 @@
       <c r="AU9" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="AV9" s="33"/>
+      <c r="AV9" s="33">
+        <v>100</v>
+      </c>
       <c r="AW9" s="34"/>
       <c r="AX9" s="33"/>
       <c r="AY9" s="34"/>
@@ -6918,13 +6936,13 @@
         <v>12.857142857142856</v>
       </c>
       <c r="G10" s="106"/>
-      <c r="H10" s="91" t="e">
+      <c r="H10" s="91">
         <f>(G10/$G$9)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I10" s="94" t="str">
+        <v>0</v>
+      </c>
+      <c r="I10" s="94">
         <f t="shared" ref="I10:I41" si="1">IFERROR((H10*$I$7), "")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J10" s="106">
         <v>12</v>
@@ -6940,15 +6958,19 @@
         <f>IFERROR(((L10/$L$9)*100),"")</f>
         <v>40</v>
       </c>
-      <c r="N10" s="106"/>
-      <c r="O10" s="91" t="str">
+      <c r="N10" s="106">
+        <v>12</v>
+      </c>
+      <c r="O10" s="91">
         <f>IFERROR(((N10/$N$9)*100),"")</f>
-        <v/>
-      </c>
-      <c r="P10" s="106"/>
-      <c r="Q10" s="91" t="str">
+        <v>34.285714285714285</v>
+      </c>
+      <c r="P10" s="106">
+        <v>6</v>
+      </c>
+      <c r="Q10" s="91">
         <f>IFERROR(((P10/$P$9)*100),"")</f>
-        <v/>
+        <v>40</v>
       </c>
       <c r="R10" s="106"/>
       <c r="S10" s="91" t="str">
@@ -6980,12 +7002,12 @@
       <c r="AM10" s="92"/>
       <c r="AN10" s="94">
         <f>IFERROR((((SUM(K10,M10,O10,Q10,S10,U10)/$T$7))*$AN$7),"")</f>
-        <v>10</v>
+        <v>8.7142857142857135</v>
       </c>
       <c r="AO10" s="106"/>
-      <c r="AP10" s="91" t="str">
+      <c r="AP10" s="91">
         <f>IFERROR(((AO10/$AO$9)*100),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AQ10" s="106"/>
       <c r="AR10" s="91" t="str">
@@ -6997,14 +7019,16 @@
         <f>IFERROR(((AS10/$AS$9)*100),"")</f>
         <v/>
       </c>
-      <c r="AU10" s="94" t="str">
+      <c r="AU10" s="94">
         <f>IFERROR(((SUM(AP10,AR10,AT10)/$AS$7)*$AU$7),"")</f>
-        <v/>
-      </c>
-      <c r="AV10" s="106"/>
-      <c r="AW10" s="91" t="str">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="106">
+        <v>100</v>
+      </c>
+      <c r="AW10" s="91">
         <f>IFERROR(((AV10/$AV$9)*100),"")</f>
-        <v/>
+        <v>100</v>
       </c>
       <c r="AX10" s="106"/>
       <c r="AY10" s="91" t="str">
@@ -7016,17 +7040,17 @@
         <f>IFERROR(((AZ10/$AZ$9)*100),"")</f>
         <v/>
       </c>
-      <c r="BB10" s="94" t="str">
+      <c r="BB10" s="94">
         <f>IFERROR(((SUM(AW10,AY10,BA10)/$AZ$7)*$BB$7),"")</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="BC10" s="97">
         <f>IFERROR(SUM(BB10,AU10,AN10,I10,F10),"")</f>
-        <v>22.857142857142854</v>
+        <v>31.571428571428569</v>
       </c>
       <c r="BD10" s="97">
         <f>IFERROR(ROUND(BC10,2),"")</f>
-        <v>22.86</v>
+        <v>31.57</v>
       </c>
       <c r="BE10" s="106"/>
       <c r="BF10" s="91" t="str">
@@ -7136,7 +7160,7 @@
       </c>
       <c r="CS10" s="103">
         <f>IFERROR(((CR10*0.6)+(BD10*0.4)),"")</f>
-        <v>9.1440000000000001</v>
+        <v>12.628</v>
       </c>
       <c r="CT10" s="103">
         <f>IFERROR(VLOOKUP(CS10,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -7172,13 +7196,13 @@
         <v>17.142857142857142</v>
       </c>
       <c r="G11" s="107"/>
-      <c r="H11" s="91" t="e">
+      <c r="H11" s="91">
         <f t="shared" ref="H11:H70" si="2">(G11/$G$9)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I11" s="94" t="str">
+        <v>0</v>
+      </c>
+      <c r="I11" s="94">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J11" s="107">
         <v>11</v>
@@ -7194,15 +7218,19 @@
         <f t="shared" ref="M11:M70" si="4">IFERROR(((L11/$L$9)*100),"")</f>
         <v>48</v>
       </c>
-      <c r="N11" s="107"/>
-      <c r="O11" s="91" t="str">
+      <c r="N11" s="107">
+        <v>32</v>
+      </c>
+      <c r="O11" s="91">
         <f t="shared" ref="O11:O70" si="5">IFERROR(((N11/$N$9)*100),"")</f>
-        <v/>
-      </c>
-      <c r="P11" s="107"/>
-      <c r="Q11" s="91" t="str">
+        <v>91.428571428571431</v>
+      </c>
+      <c r="P11" s="107">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="91">
         <f t="shared" ref="Q11:Q70" si="6">IFERROR(((P11/$P$9)*100),"")</f>
-        <v/>
+        <v>66.666666666666657</v>
       </c>
       <c r="R11" s="107"/>
       <c r="S11" s="91" t="str">
@@ -7234,12 +7262,12 @@
       <c r="AM11" s="93"/>
       <c r="AN11" s="94">
         <f t="shared" ref="AN11:AN70" si="9">IFERROR((((SUM(K11,M11,O11,Q11,S11,U11)/$T$7))*$AN$7),"")</f>
-        <v>10.3</v>
+        <v>13.054761904761904</v>
       </c>
       <c r="AO11" s="107"/>
-      <c r="AP11" s="91" t="str">
+      <c r="AP11" s="91">
         <f t="shared" ref="AP11:AP70" si="10">IFERROR(((AO11/$AO$9)*100),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AQ11" s="107"/>
       <c r="AR11" s="91" t="str">
@@ -7251,14 +7279,16 @@
         <f t="shared" ref="AT11:AT70" si="12">IFERROR(((AS11/$AS$9)*100),"")</f>
         <v/>
       </c>
-      <c r="AU11" s="94" t="str">
+      <c r="AU11" s="94">
         <f t="shared" ref="AU11:AU70" si="13">IFERROR(((SUM(AP11,AR11,AT11)/$AS$7)*$AU$7),"")</f>
-        <v/>
-      </c>
-      <c r="AV11" s="107"/>
-      <c r="AW11" s="91" t="str">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="106">
+        <v>100</v>
+      </c>
+      <c r="AW11" s="91">
         <f t="shared" ref="AW11:AW70" si="14">IFERROR(((AV11/$AV$9)*100),"")</f>
-        <v/>
+        <v>100</v>
       </c>
       <c r="AX11" s="107"/>
       <c r="AY11" s="91" t="str">
@@ -7270,17 +7300,17 @@
         <f t="shared" ref="BA11:BA70" si="16">IFERROR(((AZ11/$AZ$9)*100),"")</f>
         <v/>
       </c>
-      <c r="BB11" s="94" t="str">
+      <c r="BB11" s="94">
         <f t="shared" ref="BB11:BB70" si="17">IFERROR(((SUM(AW11,AY11,BA11)/$AZ$7)*$BB$7),"")</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="BC11" s="97">
         <f t="shared" ref="BC11:BC70" si="18">IFERROR(SUM(BB11,AU11,AN11,I11,F11),"")</f>
-        <v>27.442857142857143</v>
+        <v>40.197619047619042</v>
       </c>
       <c r="BD11" s="97">
         <f t="shared" ref="BD11:BD70" si="19">IFERROR(ROUND(BC11,2),"")</f>
-        <v>27.44</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="BE11" s="107"/>
       <c r="BF11" s="91" t="str">
@@ -7390,7 +7420,7 @@
       </c>
       <c r="CS11" s="103">
         <f t="shared" ref="CS11:CS22" si="41">IFERROR(((CR11*0.6)+(BD11*0.4)),"")</f>
-        <v>10.976000000000001</v>
+        <v>16.080000000000002</v>
       </c>
       <c r="CT11" s="103">
         <f>IFERROR(VLOOKUP(CS11,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -7426,13 +7456,13 @@
         <v>16.285714285714285</v>
       </c>
       <c r="G12" s="107"/>
-      <c r="H12" s="91" t="e">
+      <c r="H12" s="91">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I12" s="94" t="str">
+        <v>0</v>
+      </c>
+      <c r="I12" s="94">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J12" s="107">
         <v>15</v>
@@ -7448,15 +7478,19 @@
         <f t="shared" si="4"/>
         <v>44</v>
       </c>
-      <c r="N12" s="107"/>
-      <c r="O12" s="91" t="str">
+      <c r="N12" s="107">
+        <v>32</v>
+      </c>
+      <c r="O12" s="91">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P12" s="107"/>
-      <c r="Q12" s="91" t="str">
+        <v>91.428571428571431</v>
+      </c>
+      <c r="P12" s="107">
+        <v>15</v>
+      </c>
+      <c r="Q12" s="91">
         <f t="shared" si="6"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="R12" s="107"/>
       <c r="S12" s="91" t="str">
@@ -7488,12 +7522,12 @@
       <c r="AM12" s="93"/>
       <c r="AN12" s="94">
         <f t="shared" si="9"/>
-        <v>11.9</v>
+        <v>15.521428571428572</v>
       </c>
       <c r="AO12" s="107"/>
-      <c r="AP12" s="91" t="str">
+      <c r="AP12" s="91">
         <f t="shared" si="10"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AQ12" s="107"/>
       <c r="AR12" s="91" t="str">
@@ -7505,14 +7539,16 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AU12" s="94" t="str">
+      <c r="AU12" s="94">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AV12" s="107"/>
-      <c r="AW12" s="91" t="str">
+        <v>0</v>
+      </c>
+      <c r="AV12" s="106">
+        <v>100</v>
+      </c>
+      <c r="AW12" s="91">
         <f t="shared" si="14"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="AX12" s="107"/>
       <c r="AY12" s="91" t="str">
@@ -7524,17 +7560,17 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="BB12" s="94" t="str">
+      <c r="BB12" s="94">
         <f t="shared" si="17"/>
-        <v/>
+        <v>10</v>
       </c>
       <c r="BC12" s="97">
         <f t="shared" si="18"/>
-        <v>28.185714285714283</v>
+        <v>41.807142857142857</v>
       </c>
       <c r="BD12" s="97">
         <f t="shared" si="19"/>
-        <v>28.19</v>
+        <v>41.81</v>
       </c>
       <c r="BE12" s="107"/>
       <c r="BF12" s="91" t="str">
@@ -7644,7 +7680,7 @@
       </c>
       <c r="CS12" s="103">
         <f t="shared" si="41"/>
-        <v>11.276000000000002</v>
+        <v>16.724</v>
       </c>
       <c r="CT12" s="103">
         <f>IFERROR(VLOOKUP(CS12,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -7680,13 +7716,13 @@
         <v>16.285714285714285</v>
       </c>
       <c r="G13" s="107"/>
-      <c r="H13" s="91" t="e">
+      <c r="H13" s="91">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I13" s="94" t="str">
+        <v>0</v>
+      </c>
+      <c r="I13" s="94">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J13" s="107">
         <v>13</v>
@@ -7703,14 +7739,14 @@
         <v>52</v>
       </c>
       <c r="N13" s="107"/>
-      <c r="O13" s="91" t="str">
+      <c r="O13" s="91">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P13" s="107"/>
-      <c r="Q13" s="91" t="str">
+      <c r="Q13" s="91">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R13" s="107"/>
       <c r="S13" s="91" t="str">
@@ -7742,12 +7778,12 @@
       <c r="AM13" s="93"/>
       <c r="AN13" s="94">
         <f t="shared" si="9"/>
-        <v>11.700000000000001</v>
+        <v>5.8500000000000005</v>
       </c>
       <c r="AO13" s="107"/>
-      <c r="AP13" s="91" t="str">
+      <c r="AP13" s="91">
         <f t="shared" si="10"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AQ13" s="107"/>
       <c r="AR13" s="91" t="str">
@@ -7759,14 +7795,16 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AU13" s="94" t="str">
+      <c r="AU13" s="94">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AV13" s="107"/>
-      <c r="AW13" s="91" t="str">
+        <v>0</v>
+      </c>
+      <c r="AV13" s="106">
+        <v>100</v>
+      </c>
+      <c r="AW13" s="91">
         <f t="shared" si="14"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="AX13" s="107"/>
       <c r="AY13" s="91" t="str">
@@ -7778,17 +7816,17 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="BB13" s="94" t="str">
+      <c r="BB13" s="94">
         <f t="shared" si="17"/>
-        <v/>
+        <v>10</v>
       </c>
       <c r="BC13" s="97">
         <f t="shared" si="18"/>
-        <v>27.985714285714288</v>
+        <v>32.135714285714286</v>
       </c>
       <c r="BD13" s="97">
         <f t="shared" si="19"/>
-        <v>27.99</v>
+        <v>32.14</v>
       </c>
       <c r="BE13" s="107"/>
       <c r="BF13" s="91" t="str">
@@ -7898,7 +7936,7 @@
       </c>
       <c r="CS13" s="103">
         <f t="shared" si="41"/>
-        <v>11.196</v>
+        <v>12.856000000000002</v>
       </c>
       <c r="CT13" s="103">
         <f>IFERROR(VLOOKUP(CS13,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -7934,13 +7972,13 @@
         <v>13.714285714285714</v>
       </c>
       <c r="G14" s="107"/>
-      <c r="H14" s="91" t="e">
+      <c r="H14" s="91">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I14" s="94" t="str">
+        <v>0</v>
+      </c>
+      <c r="I14" s="94">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J14" s="107">
         <v>12</v>
@@ -7957,14 +7995,14 @@
         <v>40</v>
       </c>
       <c r="N14" s="107"/>
-      <c r="O14" s="91" t="str">
+      <c r="O14" s="91">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P14" s="107"/>
-      <c r="Q14" s="91" t="str">
+      <c r="Q14" s="91">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R14" s="107"/>
       <c r="S14" s="91" t="str">
@@ -7996,12 +8034,12 @@
       <c r="AM14" s="93"/>
       <c r="AN14" s="94">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AO14" s="107"/>
-      <c r="AP14" s="91" t="str">
+      <c r="AP14" s="91">
         <f t="shared" si="10"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AQ14" s="107"/>
       <c r="AR14" s="91" t="str">
@@ -8013,14 +8051,16 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AU14" s="94" t="str">
+      <c r="AU14" s="94">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AV14" s="107"/>
-      <c r="AW14" s="91" t="str">
+        <v>0</v>
+      </c>
+      <c r="AV14" s="106">
+        <v>100</v>
+      </c>
+      <c r="AW14" s="91">
         <f t="shared" si="14"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="AX14" s="107"/>
       <c r="AY14" s="91" t="str">
@@ -8032,17 +8072,17 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="BB14" s="94" t="str">
+      <c r="BB14" s="94">
         <f t="shared" si="17"/>
-        <v/>
+        <v>10</v>
       </c>
       <c r="BC14" s="97">
         <f t="shared" si="18"/>
-        <v>23.714285714285715</v>
+        <v>28.714285714285715</v>
       </c>
       <c r="BD14" s="97">
         <f t="shared" si="19"/>
-        <v>23.71</v>
+        <v>28.71</v>
       </c>
       <c r="BE14" s="107"/>
       <c r="BF14" s="91" t="str">
@@ -8152,7 +8192,7 @@
       </c>
       <c r="CS14" s="103">
         <f t="shared" si="41"/>
-        <v>9.484</v>
+        <v>11.484000000000002</v>
       </c>
       <c r="CT14" s="103">
         <f>IFERROR(VLOOKUP(CS14,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -8188,13 +8228,13 @@
         <v>17.142857142857142</v>
       </c>
       <c r="G15" s="107"/>
-      <c r="H15" s="91" t="e">
+      <c r="H15" s="91">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I15" s="94" t="str">
+        <v>0</v>
+      </c>
+      <c r="I15" s="94">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J15" s="107">
         <v>14</v>
@@ -8211,14 +8251,14 @@
         <v>52</v>
       </c>
       <c r="N15" s="107"/>
-      <c r="O15" s="91" t="str">
+      <c r="O15" s="91">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P15" s="107"/>
-      <c r="Q15" s="91" t="str">
+      <c r="Q15" s="91">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R15" s="107"/>
       <c r="S15" s="91" t="str">
@@ -8250,12 +8290,12 @@
       <c r="AM15" s="93"/>
       <c r="AN15" s="94">
         <f t="shared" si="9"/>
-        <v>12.200000000000001</v>
+        <v>6.1000000000000005</v>
       </c>
       <c r="AO15" s="107"/>
-      <c r="AP15" s="91" t="str">
+      <c r="AP15" s="91">
         <f t="shared" si="10"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AQ15" s="107"/>
       <c r="AR15" s="91" t="str">
@@ -8267,14 +8307,16 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AU15" s="94" t="str">
+      <c r="AU15" s="94">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AV15" s="107"/>
-      <c r="AW15" s="91" t="str">
+        <v>0</v>
+      </c>
+      <c r="AV15" s="106">
+        <v>100</v>
+      </c>
+      <c r="AW15" s="91">
         <f t="shared" si="14"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="AX15" s="107"/>
       <c r="AY15" s="91" t="str">
@@ -8286,17 +8328,17 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="BB15" s="94" t="str">
+      <c r="BB15" s="94">
         <f t="shared" si="17"/>
-        <v/>
+        <v>10</v>
       </c>
       <c r="BC15" s="97">
         <f t="shared" si="18"/>
-        <v>29.342857142857142</v>
+        <v>33.242857142857147</v>
       </c>
       <c r="BD15" s="97">
         <f t="shared" si="19"/>
-        <v>29.34</v>
+        <v>33.24</v>
       </c>
       <c r="BE15" s="107"/>
       <c r="BF15" s="91" t="str">
@@ -8406,7 +8448,7 @@
       </c>
       <c r="CS15" s="103">
         <f t="shared" si="41"/>
-        <v>11.736000000000001</v>
+        <v>13.296000000000001</v>
       </c>
       <c r="CT15" s="103">
         <f>IFERROR(VLOOKUP(CS15,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -8442,13 +8484,13 @@
         <v>21</v>
       </c>
       <c r="G16" s="107"/>
-      <c r="H16" s="91" t="e">
+      <c r="H16" s="91">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I16" s="94" t="str">
+        <v>0</v>
+      </c>
+      <c r="I16" s="94">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J16" s="107">
         <v>15</v>
@@ -8464,15 +8506,19 @@
         <f t="shared" si="4"/>
         <v>52</v>
       </c>
-      <c r="N16" s="107"/>
-      <c r="O16" s="91" t="str">
+      <c r="N16" s="107">
+        <v>14</v>
+      </c>
+      <c r="O16" s="91">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P16" s="107"/>
-      <c r="Q16" s="91" t="str">
+        <v>40</v>
+      </c>
+      <c r="P16" s="107">
+        <v>7</v>
+      </c>
+      <c r="Q16" s="91">
         <f t="shared" si="6"/>
-        <v/>
+        <v>46.666666666666664</v>
       </c>
       <c r="R16" s="107"/>
       <c r="S16" s="91" t="str">
@@ -8504,12 +8550,12 @@
       <c r="AM16" s="93"/>
       <c r="AN16" s="94">
         <f t="shared" si="9"/>
-        <v>12.700000000000001</v>
+        <v>10.683333333333334</v>
       </c>
       <c r="AO16" s="107"/>
-      <c r="AP16" s="91" t="str">
+      <c r="AP16" s="91">
         <f t="shared" si="10"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AQ16" s="107"/>
       <c r="AR16" s="91" t="str">
@@ -8521,14 +8567,16 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AU16" s="94" t="str">
+      <c r="AU16" s="94">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AV16" s="107"/>
-      <c r="AW16" s="91" t="str">
+        <v>0</v>
+      </c>
+      <c r="AV16" s="106">
+        <v>100</v>
+      </c>
+      <c r="AW16" s="91">
         <f t="shared" si="14"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="AX16" s="107"/>
       <c r="AY16" s="91" t="str">
@@ -8540,17 +8588,17 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="BB16" s="94" t="str">
+      <c r="BB16" s="94">
         <f t="shared" si="17"/>
-        <v/>
+        <v>10</v>
       </c>
       <c r="BC16" s="97">
         <f t="shared" si="18"/>
-        <v>33.700000000000003</v>
+        <v>41.683333333333337</v>
       </c>
       <c r="BD16" s="97">
         <f t="shared" si="19"/>
-        <v>33.700000000000003</v>
+        <v>41.68</v>
       </c>
       <c r="BE16" s="107"/>
       <c r="BF16" s="91" t="str">
@@ -8660,7 +8708,7 @@
       </c>
       <c r="CS16" s="103">
         <f t="shared" si="41"/>
-        <v>13.480000000000002</v>
+        <v>16.672000000000001</v>
       </c>
       <c r="CT16" s="103">
         <f>IFERROR(VLOOKUP(CS16,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -8696,13 +8744,13 @@
         <v>21.428571428571427</v>
       </c>
       <c r="G17" s="107"/>
-      <c r="H17" s="91" t="e">
+      <c r="H17" s="91">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I17" s="94" t="str">
+        <v>0</v>
+      </c>
+      <c r="I17" s="94">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J17" s="107">
         <v>15</v>
@@ -8718,15 +8766,19 @@
         <f t="shared" si="4"/>
         <v>76</v>
       </c>
-      <c r="N17" s="107"/>
-      <c r="O17" s="91" t="str">
+      <c r="N17" s="107">
+        <v>31</v>
+      </c>
+      <c r="O17" s="91">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P17" s="107"/>
-      <c r="Q17" s="91" t="str">
+        <v>88.571428571428569</v>
+      </c>
+      <c r="P17" s="107">
+        <v>13</v>
+      </c>
+      <c r="Q17" s="91">
         <f t="shared" si="6"/>
-        <v/>
+        <v>86.666666666666671</v>
       </c>
       <c r="R17" s="107"/>
       <c r="S17" s="91" t="str">
@@ -8758,12 +8810,12 @@
       <c r="AM17" s="93"/>
       <c r="AN17" s="94">
         <f t="shared" si="9"/>
-        <v>15.100000000000001</v>
+        <v>16.311904761904763</v>
       </c>
       <c r="AO17" s="107"/>
-      <c r="AP17" s="91" t="str">
+      <c r="AP17" s="91">
         <f t="shared" si="10"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AQ17" s="107"/>
       <c r="AR17" s="91" t="str">
@@ -8775,14 +8827,16 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AU17" s="94" t="str">
+      <c r="AU17" s="94">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AV17" s="107"/>
-      <c r="AW17" s="91" t="str">
+        <v>0</v>
+      </c>
+      <c r="AV17" s="106">
+        <v>100</v>
+      </c>
+      <c r="AW17" s="91">
         <f t="shared" si="14"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="AX17" s="107"/>
       <c r="AY17" s="91" t="str">
@@ -8794,17 +8848,17 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="BB17" s="94" t="str">
+      <c r="BB17" s="94">
         <f t="shared" si="17"/>
-        <v/>
+        <v>10</v>
       </c>
       <c r="BC17" s="97">
         <f t="shared" si="18"/>
-        <v>36.528571428571425</v>
+        <v>47.740476190476187</v>
       </c>
       <c r="BD17" s="97">
         <f t="shared" si="19"/>
-        <v>36.53</v>
+        <v>47.74</v>
       </c>
       <c r="BE17" s="107"/>
       <c r="BF17" s="91" t="str">
@@ -8914,7 +8968,7 @@
       </c>
       <c r="CS17" s="103">
         <f t="shared" si="41"/>
-        <v>14.612000000000002</v>
+        <v>19.096</v>
       </c>
       <c r="CT17" s="103">
         <f>IFERROR(VLOOKUP(CS17,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -8950,13 +9004,13 @@
         <v>22.285714285714288</v>
       </c>
       <c r="G18" s="107"/>
-      <c r="H18" s="91" t="e">
+      <c r="H18" s="91">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I18" s="94" t="str">
+        <v>0</v>
+      </c>
+      <c r="I18" s="94">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J18" s="107">
         <v>16</v>
@@ -8972,15 +9026,19 @@
         <f t="shared" si="4"/>
         <v>76</v>
       </c>
-      <c r="N18" s="107"/>
-      <c r="O18" s="91" t="str">
+      <c r="N18" s="107">
+        <v>27</v>
+      </c>
+      <c r="O18" s="91">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P18" s="107"/>
-      <c r="Q18" s="91" t="str">
+        <v>77.142857142857153</v>
+      </c>
+      <c r="P18" s="107">
+        <v>11</v>
+      </c>
+      <c r="Q18" s="91">
         <f t="shared" si="6"/>
-        <v/>
+        <v>73.333333333333329</v>
       </c>
       <c r="R18" s="107"/>
       <c r="S18" s="91" t="str">
@@ -9012,12 +9070,12 @@
       <c r="AM18" s="93"/>
       <c r="AN18" s="94">
         <f t="shared" si="9"/>
-        <v>15.600000000000001</v>
+        <v>15.323809523809524</v>
       </c>
       <c r="AO18" s="107"/>
-      <c r="AP18" s="91" t="str">
+      <c r="AP18" s="91">
         <f t="shared" si="10"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AQ18" s="107"/>
       <c r="AR18" s="91" t="str">
@@ -9029,14 +9087,16 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AU18" s="94" t="str">
+      <c r="AU18" s="94">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AV18" s="107"/>
-      <c r="AW18" s="91" t="str">
+        <v>0</v>
+      </c>
+      <c r="AV18" s="106">
+        <v>100</v>
+      </c>
+      <c r="AW18" s="91">
         <f t="shared" si="14"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="AX18" s="107"/>
       <c r="AY18" s="91" t="str">
@@ -9048,17 +9108,17 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="BB18" s="94" t="str">
+      <c r="BB18" s="94">
         <f t="shared" si="17"/>
-        <v/>
+        <v>10</v>
       </c>
       <c r="BC18" s="97">
         <f t="shared" si="18"/>
-        <v>37.885714285714286</v>
+        <v>47.609523809523807</v>
       </c>
       <c r="BD18" s="97">
         <f t="shared" si="19"/>
-        <v>37.89</v>
+        <v>47.61</v>
       </c>
       <c r="BE18" s="107"/>
       <c r="BF18" s="91" t="str">
@@ -9168,7 +9228,7 @@
       </c>
       <c r="CS18" s="103">
         <f t="shared" si="41"/>
-        <v>15.156000000000001</v>
+        <v>19.044</v>
       </c>
       <c r="CT18" s="103">
         <f>IFERROR(VLOOKUP(CS18,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -9204,13 +9264,13 @@
         <v>18.428571428571427</v>
       </c>
       <c r="G19" s="107"/>
-      <c r="H19" s="91" t="e">
+      <c r="H19" s="91">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I19" s="94" t="str">
+        <v>0</v>
+      </c>
+      <c r="I19" s="94">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J19" s="107">
         <v>16</v>
@@ -9226,15 +9286,19 @@
         <f t="shared" si="4"/>
         <v>56.000000000000007</v>
       </c>
-      <c r="N19" s="107"/>
-      <c r="O19" s="91" t="str">
+      <c r="N19" s="107">
+        <v>14</v>
+      </c>
+      <c r="O19" s="91">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P19" s="107"/>
-      <c r="Q19" s="91" t="str">
+        <v>40</v>
+      </c>
+      <c r="P19" s="107">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="91">
         <f t="shared" si="6"/>
-        <v/>
+        <v>6.666666666666667</v>
       </c>
       <c r="R19" s="107"/>
       <c r="S19" s="91" t="str">
@@ -9266,12 +9330,12 @@
       <c r="AM19" s="93"/>
       <c r="AN19" s="94">
         <f t="shared" si="9"/>
-        <v>13.600000000000001</v>
+        <v>9.1333333333333329</v>
       </c>
       <c r="AO19" s="107"/>
-      <c r="AP19" s="91" t="str">
+      <c r="AP19" s="91">
         <f t="shared" si="10"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AQ19" s="107"/>
       <c r="AR19" s="91" t="str">
@@ -9283,14 +9347,16 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AU19" s="94" t="str">
+      <c r="AU19" s="94">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AV19" s="107"/>
-      <c r="AW19" s="91" t="str">
+        <v>0</v>
+      </c>
+      <c r="AV19" s="106">
+        <v>100</v>
+      </c>
+      <c r="AW19" s="91">
         <f t="shared" si="14"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="AX19" s="107"/>
       <c r="AY19" s="91" t="str">
@@ -9302,17 +9368,17 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="BB19" s="94" t="str">
+      <c r="BB19" s="94">
         <f t="shared" si="17"/>
-        <v/>
+        <v>10</v>
       </c>
       <c r="BC19" s="97">
         <f t="shared" si="18"/>
-        <v>32.028571428571425</v>
+        <v>37.561904761904756</v>
       </c>
       <c r="BD19" s="97">
         <f t="shared" si="19"/>
-        <v>32.03</v>
+        <v>37.56</v>
       </c>
       <c r="BE19" s="107"/>
       <c r="BF19" s="91" t="str">
@@ -9422,7 +9488,7 @@
       </c>
       <c r="CS19" s="103">
         <f t="shared" si="41"/>
-        <v>12.812000000000001</v>
+        <v>15.024000000000001</v>
       </c>
       <c r="CT19" s="103">
         <f>IFERROR(VLOOKUP(CS19,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -9458,33 +9524,41 @@
         <v>22.714285714285712</v>
       </c>
       <c r="G20" s="107"/>
-      <c r="H20" s="91" t="e">
+      <c r="H20" s="91">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I20" s="94" t="str">
+        <v>0</v>
+      </c>
+      <c r="I20" s="94">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J20" s="107"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="107">
+        <v>17</v>
+      </c>
       <c r="K20" s="91">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="107"/>
+        <v>85</v>
+      </c>
+      <c r="L20" s="107">
+        <v>15</v>
+      </c>
       <c r="M20" s="91">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N20" s="107"/>
-      <c r="O20" s="91" t="str">
+        <v>60</v>
+      </c>
+      <c r="N20" s="107">
+        <v>24</v>
+      </c>
+      <c r="O20" s="91">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P20" s="107"/>
-      <c r="Q20" s="91" t="str">
+        <v>68.571428571428569</v>
+      </c>
+      <c r="P20" s="107">
+        <v>10</v>
+      </c>
+      <c r="Q20" s="91">
         <f t="shared" si="6"/>
-        <v/>
+        <v>66.666666666666657</v>
       </c>
       <c r="R20" s="107"/>
       <c r="S20" s="91" t="str">
@@ -9516,12 +9590,12 @@
       <c r="AM20" s="93"/>
       <c r="AN20" s="94">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>14.011904761904759</v>
       </c>
       <c r="AO20" s="107"/>
-      <c r="AP20" s="91" t="str">
+      <c r="AP20" s="91">
         <f t="shared" si="10"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AQ20" s="107"/>
       <c r="AR20" s="91" t="str">
@@ -9533,14 +9607,16 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AU20" s="94" t="str">
+      <c r="AU20" s="94">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AV20" s="107"/>
-      <c r="AW20" s="91" t="str">
+        <v>0</v>
+      </c>
+      <c r="AV20" s="106">
+        <v>100</v>
+      </c>
+      <c r="AW20" s="91">
         <f t="shared" si="14"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="AX20" s="107"/>
       <c r="AY20" s="91" t="str">
@@ -9552,17 +9628,17 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="BB20" s="94" t="str">
+      <c r="BB20" s="94">
         <f t="shared" si="17"/>
-        <v/>
+        <v>10</v>
       </c>
       <c r="BC20" s="97">
         <f t="shared" si="18"/>
-        <v>22.714285714285712</v>
+        <v>46.726190476190467</v>
       </c>
       <c r="BD20" s="97">
         <f t="shared" si="19"/>
-        <v>22.71</v>
+        <v>46.73</v>
       </c>
       <c r="BE20" s="107"/>
       <c r="BF20" s="91" t="str">
@@ -9672,7 +9748,7 @@
       </c>
       <c r="CS20" s="103">
         <f t="shared" si="41"/>
-        <v>9.0840000000000014</v>
+        <v>18.692</v>
       </c>
       <c r="CT20" s="103">
         <f>IFERROR(VLOOKUP(CS20,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -9708,13 +9784,13 @@
         <v>16.714285714285715</v>
       </c>
       <c r="G21" s="107"/>
-      <c r="H21" s="91" t="e">
+      <c r="H21" s="91">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I21" s="94" t="str">
+        <v>0</v>
+      </c>
+      <c r="I21" s="94">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J21" s="107">
         <v>15</v>
@@ -9730,15 +9806,19 @@
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
-      <c r="N21" s="107"/>
-      <c r="O21" s="91" t="str">
+      <c r="N21" s="107">
+        <v>14</v>
+      </c>
+      <c r="O21" s="91">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P21" s="107"/>
-      <c r="Q21" s="91" t="str">
+        <v>40</v>
+      </c>
+      <c r="P21" s="107">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="91">
         <f t="shared" si="6"/>
-        <v/>
+        <v>20</v>
       </c>
       <c r="R21" s="107"/>
       <c r="S21" s="91" t="str">
@@ -9770,12 +9850,12 @@
       <c r="AM21" s="93"/>
       <c r="AN21" s="94">
         <f t="shared" si="9"/>
-        <v>12.3</v>
+        <v>9.15</v>
       </c>
       <c r="AO21" s="107"/>
-      <c r="AP21" s="91" t="str">
+      <c r="AP21" s="91">
         <f t="shared" si="10"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AQ21" s="107"/>
       <c r="AR21" s="91" t="str">
@@ -9787,14 +9867,16 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AU21" s="94" t="str">
+      <c r="AU21" s="94">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AV21" s="107"/>
-      <c r="AW21" s="91" t="str">
+        <v>0</v>
+      </c>
+      <c r="AV21" s="106">
+        <v>100</v>
+      </c>
+      <c r="AW21" s="91">
         <f t="shared" si="14"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="AX21" s="107"/>
       <c r="AY21" s="91" t="str">
@@ -9806,17 +9888,17 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="BB21" s="94" t="str">
+      <c r="BB21" s="94">
         <f t="shared" si="17"/>
-        <v/>
+        <v>10</v>
       </c>
       <c r="BC21" s="97">
         <f t="shared" si="18"/>
-        <v>29.014285714285716</v>
+        <v>35.864285714285714</v>
       </c>
       <c r="BD21" s="97">
         <f t="shared" si="19"/>
-        <v>29.01</v>
+        <v>35.86</v>
       </c>
       <c r="BE21" s="107"/>
       <c r="BF21" s="91" t="str">
@@ -9926,7 +10008,7 @@
       </c>
       <c r="CS21" s="103">
         <f t="shared" si="41"/>
-        <v>11.604000000000001</v>
+        <v>14.344000000000001</v>
       </c>
       <c r="CT21" s="103">
         <f>IFERROR(VLOOKUP(CS21,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -9962,13 +10044,13 @@
         <v>21.857142857142854</v>
       </c>
       <c r="G22" s="107"/>
-      <c r="H22" s="91" t="e">
+      <c r="H22" s="91">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I22" s="94" t="str">
+        <v>0</v>
+      </c>
+      <c r="I22" s="94">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J22" s="107">
         <v>13</v>
@@ -9984,15 +10066,19 @@
         <f t="shared" si="4"/>
         <v>68</v>
       </c>
-      <c r="N22" s="107"/>
-      <c r="O22" s="91" t="str">
+      <c r="N22" s="107">
+        <v>5</v>
+      </c>
+      <c r="O22" s="91">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P22" s="107"/>
-      <c r="Q22" s="91" t="str">
+        <v>14.285714285714285</v>
+      </c>
+      <c r="P22" s="107">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="91">
         <f t="shared" si="6"/>
-        <v/>
+        <v>20</v>
       </c>
       <c r="R22" s="107"/>
       <c r="S22" s="91" t="str">
@@ -10024,12 +10110,12 @@
       <c r="AM22" s="93"/>
       <c r="AN22" s="94">
         <f t="shared" si="9"/>
-        <v>13.3</v>
+        <v>8.3642857142857139</v>
       </c>
       <c r="AO22" s="107"/>
-      <c r="AP22" s="91" t="str">
+      <c r="AP22" s="91">
         <f t="shared" si="10"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AQ22" s="107"/>
       <c r="AR22" s="91" t="str">
@@ -10041,14 +10127,16 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AU22" s="94" t="str">
+      <c r="AU22" s="94">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AV22" s="107"/>
-      <c r="AW22" s="91" t="str">
+        <v>0</v>
+      </c>
+      <c r="AV22" s="106">
+        <v>100</v>
+      </c>
+      <c r="AW22" s="91">
         <f t="shared" si="14"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="AX22" s="107"/>
       <c r="AY22" s="91" t="str">
@@ -10060,17 +10148,17 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="BB22" s="94" t="str">
+      <c r="BB22" s="94">
         <f t="shared" si="17"/>
-        <v/>
+        <v>10</v>
       </c>
       <c r="BC22" s="97">
         <f t="shared" si="18"/>
-        <v>35.157142857142858</v>
+        <v>40.221428571428568</v>
       </c>
       <c r="BD22" s="97">
         <f t="shared" si="19"/>
-        <v>35.159999999999997</v>
+        <v>40.22</v>
       </c>
       <c r="BE22" s="107"/>
       <c r="BF22" s="91" t="str">
@@ -10180,7 +10268,7 @@
       </c>
       <c r="CS22" s="103">
         <f t="shared" si="41"/>
-        <v>14.064</v>
+        <v>16.088000000000001</v>
       </c>
       <c r="CT22" s="103">
         <f>IFERROR(VLOOKUP(CS22,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -10216,13 +10304,13 @@
         <v>23.571428571428569</v>
       </c>
       <c r="G23" s="107"/>
-      <c r="H23" s="91" t="e">
+      <c r="H23" s="91">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I23" s="94" t="str">
+        <v>0</v>
+      </c>
+      <c r="I23" s="94">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J23" s="107">
         <v>18</v>
@@ -10238,15 +10326,19 @@
         <f t="shared" si="4"/>
         <v>68</v>
       </c>
-      <c r="N23" s="107"/>
-      <c r="O23" s="91" t="str">
+      <c r="N23" s="107">
+        <v>28</v>
+      </c>
+      <c r="O23" s="91">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P23" s="107"/>
-      <c r="Q23" s="91" t="str">
+        <v>80</v>
+      </c>
+      <c r="P23" s="107">
+        <v>13</v>
+      </c>
+      <c r="Q23" s="91">
         <f t="shared" si="6"/>
-        <v/>
+        <v>86.666666666666671</v>
       </c>
       <c r="R23" s="107"/>
       <c r="S23" s="91" t="str">
@@ -10278,12 +10370,12 @@
       <c r="AM23" s="93"/>
       <c r="AN23" s="94">
         <f t="shared" si="9"/>
-        <v>15.8</v>
+        <v>16.233333333333334</v>
       </c>
       <c r="AO23" s="107"/>
-      <c r="AP23" s="91" t="str">
+      <c r="AP23" s="91">
         <f t="shared" si="10"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AQ23" s="107"/>
       <c r="AR23" s="91" t="str">
@@ -10295,14 +10387,16 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AU23" s="94" t="str">
+      <c r="AU23" s="94">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AV23" s="107"/>
-      <c r="AW23" s="91" t="str">
+        <v>0</v>
+      </c>
+      <c r="AV23" s="106">
+        <v>100</v>
+      </c>
+      <c r="AW23" s="91">
         <f t="shared" si="14"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="AX23" s="107"/>
       <c r="AY23" s="91" t="str">
@@ -10314,17 +10408,17 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="BB23" s="94" t="str">
+      <c r="BB23" s="94">
         <f t="shared" si="17"/>
-        <v/>
+        <v>10</v>
       </c>
       <c r="BC23" s="97">
         <f t="shared" si="18"/>
-        <v>39.371428571428567</v>
+        <v>49.804761904761904</v>
       </c>
       <c r="BD23" s="97">
         <f t="shared" si="19"/>
-        <v>39.369999999999997</v>
+        <v>49.8</v>
       </c>
       <c r="BE23" s="107"/>
       <c r="BF23" s="91" t="str">
@@ -10434,7 +10528,7 @@
       </c>
       <c r="CS23" s="103">
         <f t="shared" ref="CS23:CS70" si="45">IFERROR(((CR23*0.6)+(BD23*0.4)),"")</f>
-        <v>15.747999999999999</v>
+        <v>19.920000000000002</v>
       </c>
       <c r="CT23" s="103">
         <f>IFERROR(VLOOKUP(CS23,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -10470,13 +10564,13 @@
         <v>20.571428571428569</v>
       </c>
       <c r="G24" s="107"/>
-      <c r="H24" s="91" t="e">
+      <c r="H24" s="91">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I24" s="94" t="str">
+        <v>0</v>
+      </c>
+      <c r="I24" s="94">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J24" s="107">
         <v>14</v>
@@ -10492,15 +10586,19 @@
         <f t="shared" si="4"/>
         <v>60</v>
       </c>
-      <c r="N24" s="107"/>
-      <c r="O24" s="91" t="str">
+      <c r="N24" s="107">
+        <v>23</v>
+      </c>
+      <c r="O24" s="91">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P24" s="107"/>
-      <c r="Q24" s="91" t="str">
+        <v>65.714285714285708</v>
+      </c>
+      <c r="P24" s="107">
+        <v>8</v>
+      </c>
+      <c r="Q24" s="91">
         <f t="shared" si="6"/>
-        <v/>
+        <v>53.333333333333336</v>
       </c>
       <c r="R24" s="107"/>
       <c r="S24" s="91" t="str">
@@ -10532,12 +10630,12 @@
       <c r="AM24" s="93"/>
       <c r="AN24" s="94">
         <f t="shared" si="9"/>
-        <v>13</v>
+        <v>12.452380952380954</v>
       </c>
       <c r="AO24" s="107"/>
-      <c r="AP24" s="91" t="str">
+      <c r="AP24" s="91">
         <f t="shared" si="10"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AQ24" s="107"/>
       <c r="AR24" s="91" t="str">
@@ -10549,14 +10647,16 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AU24" s="94" t="str">
+      <c r="AU24" s="94">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AV24" s="107"/>
-      <c r="AW24" s="91" t="str">
+        <v>0</v>
+      </c>
+      <c r="AV24" s="106">
+        <v>100</v>
+      </c>
+      <c r="AW24" s="91">
         <f t="shared" si="14"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="AX24" s="107"/>
       <c r="AY24" s="91" t="str">
@@ -10568,17 +10668,17 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="BB24" s="94" t="str">
+      <c r="BB24" s="94">
         <f t="shared" si="17"/>
-        <v/>
+        <v>10</v>
       </c>
       <c r="BC24" s="97">
         <f t="shared" si="18"/>
-        <v>33.571428571428569</v>
+        <v>43.023809523809526</v>
       </c>
       <c r="BD24" s="97">
         <f t="shared" si="19"/>
-        <v>33.57</v>
+        <v>43.02</v>
       </c>
       <c r="BE24" s="107"/>
       <c r="BF24" s="91" t="str">
@@ -10688,7 +10788,7 @@
       </c>
       <c r="CS24" s="103">
         <f t="shared" si="45"/>
-        <v>13.428000000000001</v>
+        <v>17.208000000000002</v>
       </c>
       <c r="CT24" s="103">
         <f>IFERROR(VLOOKUP(CS24,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -10724,13 +10824,13 @@
         <v>18.428571428571427</v>
       </c>
       <c r="G25" s="107"/>
-      <c r="H25" s="91" t="e">
+      <c r="H25" s="91">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I25" s="94" t="str">
+        <v>0</v>
+      </c>
+      <c r="I25" s="94">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J25" s="107">
         <v>13</v>
@@ -10746,15 +10846,19 @@
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
-      <c r="N25" s="107"/>
-      <c r="O25" s="91" t="str">
+      <c r="N25" s="107">
+        <v>26</v>
+      </c>
+      <c r="O25" s="91">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P25" s="107"/>
-      <c r="Q25" s="91" t="str">
+        <v>74.285714285714292</v>
+      </c>
+      <c r="P25" s="107">
+        <v>9</v>
+      </c>
+      <c r="Q25" s="91">
         <f t="shared" si="6"/>
-        <v/>
+        <v>60</v>
       </c>
       <c r="R25" s="107"/>
       <c r="S25" s="91" t="str">
@@ -10786,12 +10890,12 @@
       <c r="AM25" s="93"/>
       <c r="AN25" s="94">
         <f t="shared" si="9"/>
-        <v>10.5</v>
+        <v>11.964285714285715</v>
       </c>
       <c r="AO25" s="107"/>
-      <c r="AP25" s="91" t="str">
+      <c r="AP25" s="91">
         <f t="shared" si="10"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AQ25" s="107"/>
       <c r="AR25" s="91" t="str">
@@ -10803,14 +10907,16 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AU25" s="94" t="str">
+      <c r="AU25" s="94">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AV25" s="107"/>
-      <c r="AW25" s="91" t="str">
+        <v>0</v>
+      </c>
+      <c r="AV25" s="106">
+        <v>100</v>
+      </c>
+      <c r="AW25" s="91">
         <f t="shared" si="14"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="AX25" s="107"/>
       <c r="AY25" s="91" t="str">
@@ -10822,17 +10928,17 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="BB25" s="94" t="str">
+      <c r="BB25" s="94">
         <f t="shared" si="17"/>
-        <v/>
+        <v>10</v>
       </c>
       <c r="BC25" s="97">
         <f t="shared" si="18"/>
-        <v>28.928571428571427</v>
+        <v>40.392857142857139</v>
       </c>
       <c r="BD25" s="97">
         <f t="shared" si="19"/>
-        <v>28.93</v>
+        <v>40.39</v>
       </c>
       <c r="BE25" s="107"/>
       <c r="BF25" s="91" t="str">
@@ -10942,7 +11048,7 @@
       </c>
       <c r="CS25" s="103">
         <f t="shared" si="45"/>
-        <v>11.572000000000001</v>
+        <v>16.156000000000002</v>
       </c>
       <c r="CT25" s="103">
         <f>IFERROR(VLOOKUP(CS25,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -10978,33 +11084,41 @@
         <v>17.571428571428573</v>
       </c>
       <c r="G26" s="107"/>
-      <c r="H26" s="91" t="e">
+      <c r="H26" s="91">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I26" s="94" t="str">
+        <v>0</v>
+      </c>
+      <c r="I26" s="94">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J26" s="107"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="107">
+        <v>17</v>
+      </c>
       <c r="K26" s="91">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L26" s="107"/>
+        <v>85</v>
+      </c>
+      <c r="L26" s="107">
+        <v>12</v>
+      </c>
       <c r="M26" s="91">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N26" s="107"/>
-      <c r="O26" s="91" t="str">
+        <v>48</v>
+      </c>
+      <c r="N26" s="107">
+        <v>29</v>
+      </c>
+      <c r="O26" s="91">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P26" s="107"/>
-      <c r="Q26" s="91" t="str">
+        <v>82.857142857142861</v>
+      </c>
+      <c r="P26" s="107">
+        <v>12</v>
+      </c>
+      <c r="Q26" s="91">
         <f t="shared" si="6"/>
-        <v/>
+        <v>80</v>
       </c>
       <c r="R26" s="107"/>
       <c r="S26" s="91" t="str">
@@ -11036,12 +11150,12 @@
       <c r="AM26" s="93"/>
       <c r="AN26" s="94">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>14.792857142857144</v>
       </c>
       <c r="AO26" s="107"/>
-      <c r="AP26" s="91" t="str">
+      <c r="AP26" s="91">
         <f t="shared" si="10"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AQ26" s="107"/>
       <c r="AR26" s="91" t="str">
@@ -11053,14 +11167,16 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AU26" s="94" t="str">
+      <c r="AU26" s="94">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AV26" s="107"/>
-      <c r="AW26" s="91" t="str">
+        <v>0</v>
+      </c>
+      <c r="AV26" s="106">
+        <v>100</v>
+      </c>
+      <c r="AW26" s="91">
         <f t="shared" si="14"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="AX26" s="107"/>
       <c r="AY26" s="91" t="str">
@@ -11072,17 +11188,17 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="BB26" s="94" t="str">
+      <c r="BB26" s="94">
         <f t="shared" si="17"/>
-        <v/>
+        <v>10</v>
       </c>
       <c r="BC26" s="97">
         <f t="shared" si="18"/>
-        <v>17.571428571428573</v>
+        <v>42.364285714285714</v>
       </c>
       <c r="BD26" s="97">
         <f t="shared" si="19"/>
-        <v>17.57</v>
+        <v>42.36</v>
       </c>
       <c r="BE26" s="107"/>
       <c r="BF26" s="91" t="str">
@@ -11192,7 +11308,7 @@
       </c>
       <c r="CS26" s="103">
         <f t="shared" si="45"/>
-        <v>7.0280000000000005</v>
+        <v>16.943999999999999</v>
       </c>
       <c r="CT26" s="103">
         <f>IFERROR(VLOOKUP(CS26,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -11228,13 +11344,13 @@
         <v>20.571428571428569</v>
       </c>
       <c r="G27" s="107"/>
-      <c r="H27" s="91" t="e">
+      <c r="H27" s="91">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I27" s="94" t="str">
+        <v>0</v>
+      </c>
+      <c r="I27" s="94">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J27" s="107">
         <v>11</v>
@@ -11250,15 +11366,19 @@
         <f t="shared" si="4"/>
         <v>64</v>
       </c>
-      <c r="N27" s="107"/>
-      <c r="O27" s="91" t="str">
+      <c r="N27" s="107">
+        <v>33</v>
+      </c>
+      <c r="O27" s="91">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P27" s="107"/>
-      <c r="Q27" s="91" t="str">
+        <v>94.285714285714278</v>
+      </c>
+      <c r="P27" s="107">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="91">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R27" s="107"/>
       <c r="S27" s="91" t="str">
@@ -11290,12 +11410,12 @@
       <c r="AM27" s="93"/>
       <c r="AN27" s="94">
         <f t="shared" si="9"/>
-        <v>11.9</v>
+        <v>10.664285714285715</v>
       </c>
       <c r="AO27" s="107"/>
-      <c r="AP27" s="91" t="str">
+      <c r="AP27" s="91">
         <f t="shared" si="10"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AQ27" s="107"/>
       <c r="AR27" s="91" t="str">
@@ -11307,14 +11427,16 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AU27" s="94" t="str">
+      <c r="AU27" s="94">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AV27" s="107"/>
-      <c r="AW27" s="91" t="str">
+        <v>0</v>
+      </c>
+      <c r="AV27" s="106">
+        <v>100</v>
+      </c>
+      <c r="AW27" s="91">
         <f t="shared" si="14"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="AX27" s="107"/>
       <c r="AY27" s="91" t="str">
@@ -11326,17 +11448,17 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="BB27" s="94" t="str">
+      <c r="BB27" s="94">
         <f t="shared" si="17"/>
-        <v/>
+        <v>10</v>
       </c>
       <c r="BC27" s="97">
         <f t="shared" si="18"/>
-        <v>32.471428571428568</v>
+        <v>41.23571428571428</v>
       </c>
       <c r="BD27" s="97">
         <f t="shared" si="19"/>
-        <v>32.47</v>
+        <v>41.24</v>
       </c>
       <c r="BE27" s="107"/>
       <c r="BF27" s="91" t="str">
@@ -11446,7 +11568,7 @@
       </c>
       <c r="CS27" s="103">
         <f t="shared" si="45"/>
-        <v>12.988</v>
+        <v>16.496000000000002</v>
       </c>
       <c r="CT27" s="103">
         <f>IFERROR(VLOOKUP(CS27,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -11482,13 +11604,13 @@
         <v>26.571428571428569</v>
       </c>
       <c r="G28" s="107"/>
-      <c r="H28" s="91" t="e">
+      <c r="H28" s="91">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I28" s="94" t="str">
+        <v>0</v>
+      </c>
+      <c r="I28" s="94">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J28" s="107">
         <v>18</v>
@@ -11504,15 +11626,19 @@
         <f t="shared" si="4"/>
         <v>84</v>
       </c>
-      <c r="N28" s="107"/>
-      <c r="O28" s="91" t="str">
+      <c r="N28" s="107">
+        <v>32</v>
+      </c>
+      <c r="O28" s="91">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P28" s="107"/>
-      <c r="Q28" s="91" t="str">
+        <v>91.428571428571431</v>
+      </c>
+      <c r="P28" s="107">
+        <v>13</v>
+      </c>
+      <c r="Q28" s="91">
         <f t="shared" si="6"/>
-        <v/>
+        <v>86.666666666666671</v>
       </c>
       <c r="R28" s="107"/>
       <c r="S28" s="91" t="str">
@@ -11544,12 +11670,12 @@
       <c r="AM28" s="93"/>
       <c r="AN28" s="94">
         <f t="shared" si="9"/>
-        <v>17.400000000000002</v>
+        <v>17.604761904761908</v>
       </c>
       <c r="AO28" s="107"/>
-      <c r="AP28" s="91" t="str">
+      <c r="AP28" s="91">
         <f t="shared" si="10"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AQ28" s="107"/>
       <c r="AR28" s="91" t="str">
@@ -11561,14 +11687,16 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AU28" s="94" t="str">
+      <c r="AU28" s="94">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AV28" s="107"/>
-      <c r="AW28" s="91" t="str">
+        <v>0</v>
+      </c>
+      <c r="AV28" s="106">
+        <v>100</v>
+      </c>
+      <c r="AW28" s="91">
         <f t="shared" si="14"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="AX28" s="107"/>
       <c r="AY28" s="91" t="str">
@@ -11580,17 +11708,17 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="BB28" s="94" t="str">
+      <c r="BB28" s="94">
         <f t="shared" si="17"/>
-        <v/>
+        <v>10</v>
       </c>
       <c r="BC28" s="97">
         <f t="shared" si="18"/>
-        <v>43.971428571428575</v>
+        <v>54.176190476190477</v>
       </c>
       <c r="BD28" s="97">
         <f t="shared" si="19"/>
-        <v>43.97</v>
+        <v>54.18</v>
       </c>
       <c r="BE28" s="107"/>
       <c r="BF28" s="91" t="str">
@@ -11700,7 +11828,7 @@
       </c>
       <c r="CS28" s="103">
         <f t="shared" si="45"/>
-        <v>17.588000000000001</v>
+        <v>21.672000000000001</v>
       </c>
       <c r="CT28" s="103">
         <f>IFERROR(VLOOKUP(CS28,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -11736,13 +11864,13 @@
         <v>25.714285714285712</v>
       </c>
       <c r="G29" s="107"/>
-      <c r="H29" s="91" t="e">
+      <c r="H29" s="91">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I29" s="94" t="str">
+        <v>0</v>
+      </c>
+      <c r="I29" s="94">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J29" s="107">
         <v>19</v>
@@ -11758,15 +11886,19 @@
         <f t="shared" si="4"/>
         <v>84</v>
       </c>
-      <c r="N29" s="107"/>
-      <c r="O29" s="91" t="str">
+      <c r="N29" s="107">
+        <v>16</v>
+      </c>
+      <c r="O29" s="91">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P29" s="107"/>
-      <c r="Q29" s="91" t="str">
+        <v>45.714285714285715</v>
+      </c>
+      <c r="P29" s="107">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="91">
         <f t="shared" si="6"/>
-        <v/>
+        <v>53.333333333333336</v>
       </c>
       <c r="R29" s="107"/>
       <c r="S29" s="91" t="str">
@@ -11798,12 +11930,12 @@
       <c r="AM29" s="93"/>
       <c r="AN29" s="94">
         <f t="shared" si="9"/>
-        <v>17.900000000000002</v>
+        <v>13.902380952380952</v>
       </c>
       <c r="AO29" s="107"/>
-      <c r="AP29" s="91" t="str">
+      <c r="AP29" s="91">
         <f t="shared" si="10"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AQ29" s="107"/>
       <c r="AR29" s="91" t="str">
@@ -11815,14 +11947,16 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AU29" s="94" t="str">
+      <c r="AU29" s="94">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AV29" s="107"/>
-      <c r="AW29" s="91" t="str">
+        <v>0</v>
+      </c>
+      <c r="AV29" s="106">
+        <v>100</v>
+      </c>
+      <c r="AW29" s="91">
         <f t="shared" si="14"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="AX29" s="107"/>
       <c r="AY29" s="91" t="str">
@@ -11834,17 +11968,17 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="BB29" s="94" t="str">
+      <c r="BB29" s="94">
         <f t="shared" si="17"/>
-        <v/>
+        <v>10</v>
       </c>
       <c r="BC29" s="97">
         <f t="shared" si="18"/>
-        <v>43.614285714285714</v>
+        <v>49.61666666666666</v>
       </c>
       <c r="BD29" s="97">
         <f t="shared" si="19"/>
-        <v>43.61</v>
+        <v>49.62</v>
       </c>
       <c r="BE29" s="107"/>
       <c r="BF29" s="91" t="str">
@@ -11954,7 +12088,7 @@
       </c>
       <c r="CS29" s="103">
         <f t="shared" si="45"/>
-        <v>17.443999999999999</v>
+        <v>19.847999999999999</v>
       </c>
       <c r="CT29" s="103">
         <f>IFERROR(VLOOKUP(CS29,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -11990,13 +12124,13 @@
         <v>20.571428571428569</v>
       </c>
       <c r="G30" s="107"/>
-      <c r="H30" s="91" t="e">
+      <c r="H30" s="91">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I30" s="94" t="str">
+        <v>0</v>
+      </c>
+      <c r="I30" s="94">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J30" s="107">
         <v>13</v>
@@ -12012,15 +12146,19 @@
         <f t="shared" si="4"/>
         <v>68</v>
       </c>
-      <c r="N30" s="107"/>
-      <c r="O30" s="91" t="str">
+      <c r="N30" s="107">
+        <v>25</v>
+      </c>
+      <c r="O30" s="91">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P30" s="107"/>
-      <c r="Q30" s="91" t="str">
+        <v>71.428571428571431</v>
+      </c>
+      <c r="P30" s="107">
+        <v>15</v>
+      </c>
+      <c r="Q30" s="91">
         <f t="shared" si="6"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="R30" s="107"/>
       <c r="S30" s="91" t="str">
@@ -12052,12 +12190,12 @@
       <c r="AM30" s="93"/>
       <c r="AN30" s="94">
         <f t="shared" si="9"/>
-        <v>13.3</v>
+        <v>15.221428571428573</v>
       </c>
       <c r="AO30" s="107"/>
-      <c r="AP30" s="91" t="str">
+      <c r="AP30" s="91">
         <f t="shared" si="10"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AQ30" s="107"/>
       <c r="AR30" s="91" t="str">
@@ -12069,14 +12207,16 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AU30" s="94" t="str">
+      <c r="AU30" s="94">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AV30" s="107"/>
-      <c r="AW30" s="91" t="str">
+        <v>0</v>
+      </c>
+      <c r="AV30" s="106">
+        <v>100</v>
+      </c>
+      <c r="AW30" s="91">
         <f t="shared" si="14"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="AX30" s="107"/>
       <c r="AY30" s="91" t="str">
@@ -12088,17 +12228,17 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="BB30" s="94" t="str">
+      <c r="BB30" s="94">
         <f t="shared" si="17"/>
-        <v/>
+        <v>10</v>
       </c>
       <c r="BC30" s="97">
         <f t="shared" si="18"/>
-        <v>33.871428571428567</v>
+        <v>45.792857142857144</v>
       </c>
       <c r="BD30" s="97">
         <f t="shared" si="19"/>
-        <v>33.869999999999997</v>
+        <v>45.79</v>
       </c>
       <c r="BE30" s="107"/>
       <c r="BF30" s="91" t="str">
@@ -12208,7 +12348,7 @@
       </c>
       <c r="CS30" s="103">
         <f t="shared" si="45"/>
-        <v>13.548</v>
+        <v>18.315999999999999</v>
       </c>
       <c r="CT30" s="103">
         <f>IFERROR(VLOOKUP(CS30,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -12244,13 +12384,13 @@
         <v>21.428571428571427</v>
       </c>
       <c r="G31" s="107"/>
-      <c r="H31" s="91" t="e">
+      <c r="H31" s="91">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I31" s="94" t="str">
+        <v>0</v>
+      </c>
+      <c r="I31" s="94">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J31" s="107">
         <v>11</v>
@@ -12266,15 +12406,19 @@
         <f t="shared" si="4"/>
         <v>76</v>
       </c>
-      <c r="N31" s="107"/>
-      <c r="O31" s="91" t="str">
+      <c r="N31" s="107">
+        <v>31</v>
+      </c>
+      <c r="O31" s="91">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P31" s="107"/>
-      <c r="Q31" s="91" t="str">
+        <v>88.571428571428569</v>
+      </c>
+      <c r="P31" s="107">
+        <v>10</v>
+      </c>
+      <c r="Q31" s="91">
         <f t="shared" si="6"/>
-        <v/>
+        <v>66.666666666666657</v>
       </c>
       <c r="R31" s="107"/>
       <c r="S31" s="91" t="str">
@@ -12306,12 +12450,12 @@
       <c r="AM31" s="93"/>
       <c r="AN31" s="94">
         <f t="shared" si="9"/>
-        <v>13.100000000000001</v>
+        <v>14.31190476190476</v>
       </c>
       <c r="AO31" s="107"/>
-      <c r="AP31" s="91" t="str">
+      <c r="AP31" s="91">
         <f t="shared" si="10"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AQ31" s="107"/>
       <c r="AR31" s="91" t="str">
@@ -12323,14 +12467,16 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AU31" s="94" t="str">
+      <c r="AU31" s="94">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AV31" s="107"/>
-      <c r="AW31" s="91" t="str">
+        <v>0</v>
+      </c>
+      <c r="AV31" s="106">
+        <v>100</v>
+      </c>
+      <c r="AW31" s="91">
         <f t="shared" si="14"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="AX31" s="107"/>
       <c r="AY31" s="91" t="str">
@@ -12342,17 +12488,17 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="BB31" s="94" t="str">
+      <c r="BB31" s="94">
         <f t="shared" si="17"/>
-        <v/>
+        <v>10</v>
       </c>
       <c r="BC31" s="97">
         <f t="shared" si="18"/>
-        <v>34.528571428571425</v>
+        <v>45.740476190476187</v>
       </c>
       <c r="BD31" s="97">
         <f t="shared" si="19"/>
-        <v>34.53</v>
+        <v>45.74</v>
       </c>
       <c r="BE31" s="107"/>
       <c r="BF31" s="91" t="str">
@@ -12462,7 +12608,7 @@
       </c>
       <c r="CS31" s="103">
         <f t="shared" si="45"/>
-        <v>13.812000000000001</v>
+        <v>18.296000000000003</v>
       </c>
       <c r="CT31" s="103">
         <f>IFERROR(VLOOKUP(CS31,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -12498,13 +12644,13 @@
         <v>25.714285714285712</v>
       </c>
       <c r="G32" s="107"/>
-      <c r="H32" s="91" t="e">
+      <c r="H32" s="91">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I32" s="94" t="str">
+        <v>0</v>
+      </c>
+      <c r="I32" s="94">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J32" s="107">
         <v>18</v>
@@ -12520,15 +12666,19 @@
         <f t="shared" si="4"/>
         <v>76</v>
       </c>
-      <c r="N32" s="107"/>
-      <c r="O32" s="91" t="str">
+      <c r="N32" s="107">
+        <v>28</v>
+      </c>
+      <c r="O32" s="91">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P32" s="107"/>
-      <c r="Q32" s="91" t="str">
+        <v>80</v>
+      </c>
+      <c r="P32" s="107">
+        <v>13</v>
+      </c>
+      <c r="Q32" s="91">
         <f t="shared" si="6"/>
-        <v/>
+        <v>86.666666666666671</v>
       </c>
       <c r="R32" s="107"/>
       <c r="S32" s="91" t="str">
@@ -12560,12 +12710,12 @@
       <c r="AM32" s="93"/>
       <c r="AN32" s="94">
         <f t="shared" si="9"/>
-        <v>16.600000000000001</v>
+        <v>16.633333333333336</v>
       </c>
       <c r="AO32" s="107"/>
-      <c r="AP32" s="91" t="str">
+      <c r="AP32" s="91">
         <f t="shared" si="10"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AQ32" s="107"/>
       <c r="AR32" s="91" t="str">
@@ -12577,14 +12727,16 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AU32" s="94" t="str">
+      <c r="AU32" s="94">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AV32" s="107"/>
-      <c r="AW32" s="91" t="str">
+        <v>0</v>
+      </c>
+      <c r="AV32" s="106">
+        <v>100</v>
+      </c>
+      <c r="AW32" s="91">
         <f t="shared" si="14"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="AX32" s="107"/>
       <c r="AY32" s="91" t="str">
@@ -12596,17 +12748,17 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="BB32" s="94" t="str">
+      <c r="BB32" s="94">
         <f t="shared" si="17"/>
-        <v/>
+        <v>10</v>
       </c>
       <c r="BC32" s="97">
         <f t="shared" si="18"/>
-        <v>42.314285714285717</v>
+        <v>52.347619047619048</v>
       </c>
       <c r="BD32" s="97">
         <f t="shared" si="19"/>
-        <v>42.31</v>
+        <v>52.35</v>
       </c>
       <c r="BE32" s="107"/>
       <c r="BF32" s="91" t="str">
@@ -12716,7 +12868,7 @@
       </c>
       <c r="CS32" s="103">
         <f t="shared" si="45"/>
-        <v>16.924000000000003</v>
+        <v>20.94</v>
       </c>
       <c r="CT32" s="103">
         <f>IFERROR(VLOOKUP(CS32,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -12752,37 +12904,41 @@
         <v>14.571428571428569</v>
       </c>
       <c r="G33" s="107"/>
-      <c r="H33" s="91" t="e">
+      <c r="H33" s="91">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I33" s="94" t="str">
+        <v>0</v>
+      </c>
+      <c r="I33" s="94">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J33" s="107">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K33" s="91">
         <f t="shared" si="3"/>
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="L33" s="107">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="M33" s="91">
         <f t="shared" si="4"/>
-        <v>44</v>
-      </c>
-      <c r="N33" s="107"/>
-      <c r="O33" s="91" t="str">
+        <v>72</v>
+      </c>
+      <c r="N33" s="107">
+        <v>33</v>
+      </c>
+      <c r="O33" s="91">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P33" s="107"/>
-      <c r="Q33" s="91" t="str">
+        <v>94.285714285714278</v>
+      </c>
+      <c r="P33" s="107">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="91">
         <f t="shared" si="6"/>
-        <v/>
+        <v>20</v>
       </c>
       <c r="R33" s="107"/>
       <c r="S33" s="91" t="str">
@@ -12814,12 +12970,12 @@
       <c r="AM33" s="93"/>
       <c r="AN33" s="94">
         <f t="shared" si="9"/>
-        <v>9.4</v>
+        <v>13.064285714285715</v>
       </c>
       <c r="AO33" s="107"/>
-      <c r="AP33" s="91" t="str">
+      <c r="AP33" s="91">
         <f t="shared" si="10"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AQ33" s="107"/>
       <c r="AR33" s="91" t="str">
@@ -12831,14 +12987,16 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AU33" s="94" t="str">
+      <c r="AU33" s="94">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AV33" s="107"/>
-      <c r="AW33" s="91" t="str">
+        <v>0</v>
+      </c>
+      <c r="AV33" s="106">
+        <v>100</v>
+      </c>
+      <c r="AW33" s="91">
         <f t="shared" si="14"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="AX33" s="107"/>
       <c r="AY33" s="91" t="str">
@@ -12850,17 +13008,17 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="BB33" s="94" t="str">
+      <c r="BB33" s="94">
         <f t="shared" si="17"/>
-        <v/>
+        <v>10</v>
       </c>
       <c r="BC33" s="97">
         <f t="shared" si="18"/>
-        <v>23.971428571428568</v>
+        <v>37.635714285714286</v>
       </c>
       <c r="BD33" s="97">
         <f t="shared" si="19"/>
-        <v>23.97</v>
+        <v>37.64</v>
       </c>
       <c r="BE33" s="107"/>
       <c r="BF33" s="91" t="str">
@@ -12970,7 +13128,7 @@
       </c>
       <c r="CS33" s="103">
         <f t="shared" si="45"/>
-        <v>9.5879999999999992</v>
+        <v>15.056000000000001</v>
       </c>
       <c r="CT33" s="103">
         <f>IFERROR(VLOOKUP(CS33,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -13006,13 +13164,13 @@
         <v>18</v>
       </c>
       <c r="G34" s="107"/>
-      <c r="H34" s="91" t="e">
+      <c r="H34" s="91">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I34" s="94" t="str">
+        <v>0</v>
+      </c>
+      <c r="I34" s="94">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J34" s="107">
         <v>12</v>
@@ -13028,15 +13186,19 @@
         <f t="shared" si="4"/>
         <v>56.000000000000007</v>
       </c>
-      <c r="N34" s="107"/>
-      <c r="O34" s="91" t="str">
+      <c r="N34" s="107">
+        <v>9</v>
+      </c>
+      <c r="O34" s="91">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P34" s="107"/>
-      <c r="Q34" s="91" t="str">
+        <v>25.714285714285712</v>
+      </c>
+      <c r="P34" s="107">
+        <v>8</v>
+      </c>
+      <c r="Q34" s="91">
         <f t="shared" si="6"/>
-        <v/>
+        <v>53.333333333333336</v>
       </c>
       <c r="R34" s="107"/>
       <c r="S34" s="91" t="str">
@@ -13068,12 +13230,12 @@
       <c r="AM34" s="93"/>
       <c r="AN34" s="94">
         <f t="shared" si="9"/>
-        <v>11.600000000000001</v>
+        <v>9.7523809523809533</v>
       </c>
       <c r="AO34" s="107"/>
-      <c r="AP34" s="91" t="str">
+      <c r="AP34" s="91">
         <f t="shared" si="10"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AQ34" s="107"/>
       <c r="AR34" s="91" t="str">
@@ -13085,14 +13247,16 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AU34" s="94" t="str">
+      <c r="AU34" s="94">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AV34" s="107"/>
-      <c r="AW34" s="91" t="str">
+        <v>0</v>
+      </c>
+      <c r="AV34" s="106">
+        <v>100</v>
+      </c>
+      <c r="AW34" s="91">
         <f t="shared" si="14"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="AX34" s="107"/>
       <c r="AY34" s="91" t="str">
@@ -13104,17 +13268,17 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="BB34" s="94" t="str">
+      <c r="BB34" s="94">
         <f t="shared" si="17"/>
-        <v/>
+        <v>10</v>
       </c>
       <c r="BC34" s="97">
         <f t="shared" si="18"/>
-        <v>29.6</v>
+        <v>37.752380952380953</v>
       </c>
       <c r="BD34" s="97">
         <f t="shared" si="19"/>
-        <v>29.6</v>
+        <v>37.75</v>
       </c>
       <c r="BE34" s="107"/>
       <c r="BF34" s="91" t="str">
@@ -13224,7 +13388,7 @@
       </c>
       <c r="CS34" s="103">
         <f t="shared" si="45"/>
-        <v>11.840000000000002</v>
+        <v>15.100000000000001</v>
       </c>
       <c r="CT34" s="103">
         <f>IFERROR(VLOOKUP(CS34,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -13260,13 +13424,13 @@
         <v>15.857142857142858</v>
       </c>
       <c r="G35" s="107"/>
-      <c r="H35" s="91" t="e">
+      <c r="H35" s="91">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I35" s="94" t="str">
+        <v>0</v>
+      </c>
+      <c r="I35" s="94">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J35" s="107">
         <v>13</v>
@@ -13283,14 +13447,16 @@
         <v>56.000000000000007</v>
       </c>
       <c r="N35" s="107"/>
-      <c r="O35" s="91" t="str">
+      <c r="O35" s="91">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P35" s="107"/>
-      <c r="Q35" s="91" t="str">
+        <v>0</v>
+      </c>
+      <c r="P35" s="107">
+        <v>7</v>
+      </c>
+      <c r="Q35" s="91">
         <f t="shared" si="6"/>
-        <v/>
+        <v>46.666666666666664</v>
       </c>
       <c r="R35" s="107"/>
       <c r="S35" s="91" t="str">
@@ -13322,12 +13488,12 @@
       <c r="AM35" s="93"/>
       <c r="AN35" s="94">
         <f t="shared" si="9"/>
-        <v>12.100000000000001</v>
+        <v>8.3833333333333329</v>
       </c>
       <c r="AO35" s="107"/>
-      <c r="AP35" s="91" t="str">
+      <c r="AP35" s="91">
         <f t="shared" si="10"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AQ35" s="107"/>
       <c r="AR35" s="91" t="str">
@@ -13339,14 +13505,16 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AU35" s="94" t="str">
+      <c r="AU35" s="94">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AV35" s="107"/>
-      <c r="AW35" s="91" t="str">
+        <v>0</v>
+      </c>
+      <c r="AV35" s="106">
+        <v>100</v>
+      </c>
+      <c r="AW35" s="91">
         <f t="shared" si="14"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="AX35" s="107"/>
       <c r="AY35" s="91" t="str">
@@ -13358,17 +13526,17 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="BB35" s="94" t="str">
+      <c r="BB35" s="94">
         <f t="shared" si="17"/>
-        <v/>
+        <v>10</v>
       </c>
       <c r="BC35" s="97">
         <f t="shared" si="18"/>
-        <v>27.957142857142859</v>
+        <v>34.240476190476187</v>
       </c>
       <c r="BD35" s="97">
         <f t="shared" si="19"/>
-        <v>27.96</v>
+        <v>34.24</v>
       </c>
       <c r="BE35" s="107"/>
       <c r="BF35" s="91" t="str">
@@ -13478,7 +13646,7 @@
       </c>
       <c r="CS35" s="103">
         <f t="shared" si="45"/>
-        <v>11.184000000000001</v>
+        <v>13.696000000000002</v>
       </c>
       <c r="CT35" s="103">
         <f>IFERROR(VLOOKUP(CS35,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -13514,33 +13682,37 @@
         <v>16.285714285714285</v>
       </c>
       <c r="G36" s="107"/>
-      <c r="H36" s="91" t="e">
+      <c r="H36" s="91">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I36" s="94" t="str">
+        <v>0</v>
+      </c>
+      <c r="I36" s="94">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J36" s="107"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="107">
+        <v>13</v>
+      </c>
       <c r="K36" s="91">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L36" s="107"/>
+        <v>65</v>
+      </c>
+      <c r="L36" s="107">
+        <v>13</v>
+      </c>
       <c r="M36" s="91">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="N36" s="107"/>
-      <c r="O36" s="91" t="str">
+      <c r="O36" s="91">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P36" s="107"/>
-      <c r="Q36" s="91" t="str">
+      <c r="Q36" s="91">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R36" s="107"/>
       <c r="S36" s="91" t="str">
@@ -13572,12 +13744,12 @@
       <c r="AM36" s="93"/>
       <c r="AN36" s="94">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>5.8500000000000005</v>
       </c>
       <c r="AO36" s="107"/>
-      <c r="AP36" s="91" t="str">
+      <c r="AP36" s="91">
         <f t="shared" si="10"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AQ36" s="107"/>
       <c r="AR36" s="91" t="str">
@@ -13589,14 +13761,16 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AU36" s="94" t="str">
+      <c r="AU36" s="94">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AV36" s="107"/>
-      <c r="AW36" s="91" t="str">
+        <v>0</v>
+      </c>
+      <c r="AV36" s="106">
+        <v>100</v>
+      </c>
+      <c r="AW36" s="91">
         <f t="shared" si="14"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="AX36" s="107"/>
       <c r="AY36" s="91" t="str">
@@ -13608,17 +13782,17 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="BB36" s="94" t="str">
+      <c r="BB36" s="94">
         <f t="shared" si="17"/>
-        <v/>
+        <v>10</v>
       </c>
       <c r="BC36" s="97">
         <f t="shared" si="18"/>
-        <v>16.285714285714285</v>
+        <v>32.135714285714286</v>
       </c>
       <c r="BD36" s="97">
         <f t="shared" si="19"/>
-        <v>16.29</v>
+        <v>32.14</v>
       </c>
       <c r="BE36" s="107"/>
       <c r="BF36" s="91" t="str">
@@ -13728,7 +13902,7 @@
       </c>
       <c r="CS36" s="103">
         <f t="shared" si="45"/>
-        <v>6.516</v>
+        <v>12.856000000000002</v>
       </c>
       <c r="CT36" s="103">
         <f>IFERROR(VLOOKUP(CS36,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -13762,13 +13936,13 @@
         <v>0</v>
       </c>
       <c r="G37" s="107"/>
-      <c r="H37" s="91" t="e">
+      <c r="H37" s="91">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I37" s="94" t="str">
+        <v>0</v>
+      </c>
+      <c r="I37" s="94">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J37" s="107"/>
       <c r="K37" s="91">
@@ -13780,15 +13954,19 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N37" s="107"/>
-      <c r="O37" s="91" t="str">
+      <c r="N37" s="107">
+        <v>23</v>
+      </c>
+      <c r="O37" s="91">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P37" s="107"/>
-      <c r="Q37" s="91" t="str">
+        <v>65.714285714285708</v>
+      </c>
+      <c r="P37" s="107">
+        <v>9</v>
+      </c>
+      <c r="Q37" s="91">
         <f t="shared" si="6"/>
-        <v/>
+        <v>60</v>
       </c>
       <c r="R37" s="107"/>
       <c r="S37" s="91" t="str">
@@ -13820,12 +13998,12 @@
       <c r="AM37" s="93"/>
       <c r="AN37" s="94">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>6.2857142857142856</v>
       </c>
       <c r="AO37" s="107"/>
-      <c r="AP37" s="91" t="str">
+      <c r="AP37" s="91">
         <f t="shared" si="10"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AQ37" s="107"/>
       <c r="AR37" s="91" t="str">
@@ -13837,14 +14015,16 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AU37" s="94" t="str">
+      <c r="AU37" s="94">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AV37" s="107"/>
-      <c r="AW37" s="91" t="str">
+        <v>0</v>
+      </c>
+      <c r="AV37" s="106">
+        <v>100</v>
+      </c>
+      <c r="AW37" s="91">
         <f t="shared" si="14"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="AX37" s="107"/>
       <c r="AY37" s="91" t="str">
@@ -13856,17 +14036,17 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="BB37" s="94" t="str">
+      <c r="BB37" s="94">
         <f t="shared" si="17"/>
-        <v/>
+        <v>10</v>
       </c>
       <c r="BC37" s="97">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>16.285714285714285</v>
       </c>
       <c r="BD37" s="97">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>16.29</v>
       </c>
       <c r="BE37" s="107"/>
       <c r="BF37" s="91" t="str">
@@ -13976,7 +14156,7 @@
       </c>
       <c r="CS37" s="103">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>6.516</v>
       </c>
       <c r="CT37" s="103">
         <f>IFERROR(VLOOKUP(CS37,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -14010,13 +14190,13 @@
         <v>0</v>
       </c>
       <c r="G38" s="107"/>
-      <c r="H38" s="91" t="e">
+      <c r="H38" s="91">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I38" s="94" t="str">
+        <v>0</v>
+      </c>
+      <c r="I38" s="94">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J38" s="107"/>
       <c r="K38" s="91">
@@ -14029,14 +14209,14 @@
         <v>0</v>
       </c>
       <c r="N38" s="107"/>
-      <c r="O38" s="91" t="str">
+      <c r="O38" s="91">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P38" s="107"/>
-      <c r="Q38" s="91" t="str">
+      <c r="Q38" s="91">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R38" s="107"/>
       <c r="S38" s="91" t="str">
@@ -14071,9 +14251,9 @@
         <v>0</v>
       </c>
       <c r="AO38" s="107"/>
-      <c r="AP38" s="91" t="str">
+      <c r="AP38" s="91">
         <f t="shared" si="10"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AQ38" s="107"/>
       <c r="AR38" s="91" t="str">
@@ -14085,14 +14265,16 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AU38" s="94" t="str">
+      <c r="AU38" s="94">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AV38" s="107"/>
-      <c r="AW38" s="91" t="str">
+        <v>0</v>
+      </c>
+      <c r="AV38" s="107">
+        <v>0</v>
+      </c>
+      <c r="AW38" s="91">
         <f t="shared" si="14"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AX38" s="107"/>
       <c r="AY38" s="91" t="str">
@@ -14104,9 +14286,9 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="BB38" s="94" t="str">
+      <c r="BB38" s="94">
         <f t="shared" si="17"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BC38" s="97">
         <f t="shared" si="18"/>
@@ -14260,13 +14442,13 @@
         <v>18.857142857142854</v>
       </c>
       <c r="G39" s="107"/>
-      <c r="H39" s="91" t="e">
+      <c r="H39" s="91">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I39" s="94" t="str">
+        <v>0</v>
+      </c>
+      <c r="I39" s="94">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J39" s="107">
         <v>15</v>
@@ -14283,14 +14465,16 @@
         <v>60</v>
       </c>
       <c r="N39" s="107"/>
-      <c r="O39" s="91" t="str">
+      <c r="O39" s="91">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P39" s="107"/>
-      <c r="Q39" s="91" t="str">
+        <v>0</v>
+      </c>
+      <c r="P39" s="107">
+        <v>9</v>
+      </c>
+      <c r="Q39" s="91">
         <f t="shared" si="6"/>
-        <v/>
+        <v>60</v>
       </c>
       <c r="R39" s="107"/>
       <c r="S39" s="91" t="str">
@@ -14322,12 +14506,12 @@
       <c r="AM39" s="93"/>
       <c r="AN39" s="94">
         <f t="shared" si="9"/>
-        <v>13.5</v>
+        <v>9.75</v>
       </c>
       <c r="AO39" s="107"/>
-      <c r="AP39" s="91" t="str">
+      <c r="AP39" s="91">
         <f t="shared" si="10"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AQ39" s="107"/>
       <c r="AR39" s="91" t="str">
@@ -14339,14 +14523,16 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AU39" s="94" t="str">
+      <c r="AU39" s="94">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AV39" s="107"/>
-      <c r="AW39" s="91" t="str">
+        <v>0</v>
+      </c>
+      <c r="AV39" s="107">
+        <v>100</v>
+      </c>
+      <c r="AW39" s="91">
         <f t="shared" si="14"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="AX39" s="107"/>
       <c r="AY39" s="91" t="str">
@@ -14358,17 +14544,17 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="BB39" s="94" t="str">
+      <c r="BB39" s="94">
         <f t="shared" si="17"/>
-        <v/>
+        <v>10</v>
       </c>
       <c r="BC39" s="97">
         <f t="shared" si="18"/>
-        <v>32.357142857142854</v>
+        <v>38.607142857142854</v>
       </c>
       <c r="BD39" s="97">
         <f t="shared" si="19"/>
-        <v>32.36</v>
+        <v>38.61</v>
       </c>
       <c r="BE39" s="107"/>
       <c r="BF39" s="91" t="str">
@@ -14478,7 +14664,7 @@
       </c>
       <c r="CS39" s="103">
         <f t="shared" si="45"/>
-        <v>12.944000000000001</v>
+        <v>15.444000000000001</v>
       </c>
       <c r="CT39" s="103">
         <f>IFERROR(VLOOKUP(CS39,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -14514,13 +14700,13 @@
         <v>21.857142857142854</v>
       </c>
       <c r="G40" s="107"/>
-      <c r="H40" s="91" t="e">
+      <c r="H40" s="91">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I40" s="94" t="str">
+        <v>0</v>
+      </c>
+      <c r="I40" s="94">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J40" s="107">
         <v>12</v>
@@ -14536,15 +14722,19 @@
         <f t="shared" si="4"/>
         <v>72</v>
       </c>
-      <c r="N40" s="107"/>
-      <c r="O40" s="91" t="str">
+      <c r="N40" s="107">
+        <v>33</v>
+      </c>
+      <c r="O40" s="91">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P40" s="107"/>
-      <c r="Q40" s="91" t="str">
+        <v>94.285714285714278</v>
+      </c>
+      <c r="P40" s="107">
+        <v>11</v>
+      </c>
+      <c r="Q40" s="91">
         <f t="shared" si="6"/>
-        <v/>
+        <v>73.333333333333329</v>
       </c>
       <c r="R40" s="107"/>
       <c r="S40" s="91" t="str">
@@ -14576,12 +14766,12 @@
       <c r="AM40" s="93"/>
       <c r="AN40" s="94">
         <f t="shared" si="9"/>
-        <v>13.200000000000001</v>
+        <v>14.980952380952381</v>
       </c>
       <c r="AO40" s="107"/>
-      <c r="AP40" s="91" t="str">
+      <c r="AP40" s="91">
         <f t="shared" si="10"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AQ40" s="107"/>
       <c r="AR40" s="91" t="str">
@@ -14593,14 +14783,16 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AU40" s="94" t="str">
+      <c r="AU40" s="94">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AV40" s="107"/>
-      <c r="AW40" s="91" t="str">
+        <v>0</v>
+      </c>
+      <c r="AV40" s="107">
+        <v>100</v>
+      </c>
+      <c r="AW40" s="91">
         <f t="shared" si="14"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="AX40" s="107"/>
       <c r="AY40" s="91" t="str">
@@ -14612,17 +14804,17 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="BB40" s="94" t="str">
+      <c r="BB40" s="94">
         <f t="shared" si="17"/>
-        <v/>
+        <v>10</v>
       </c>
       <c r="BC40" s="97">
         <f t="shared" si="18"/>
-        <v>35.057142857142857</v>
+        <v>46.838095238095235</v>
       </c>
       <c r="BD40" s="97">
         <f t="shared" si="19"/>
-        <v>35.06</v>
+        <v>46.84</v>
       </c>
       <c r="BE40" s="107"/>
       <c r="BF40" s="91" t="str">
@@ -14732,7 +14924,7 @@
       </c>
       <c r="CS40" s="103">
         <f t="shared" si="45"/>
-        <v>14.024000000000001</v>
+        <v>18.736000000000001</v>
       </c>
       <c r="CT40" s="103">
         <f>IFERROR(VLOOKUP(CS40,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -14768,13 +14960,13 @@
         <v>20.571428571428569</v>
       </c>
       <c r="G41" s="107"/>
-      <c r="H41" s="91" t="e">
+      <c r="H41" s="91">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I41" s="94" t="str">
+        <v>0</v>
+      </c>
+      <c r="I41" s="94">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J41" s="107">
         <v>13</v>
@@ -14790,15 +14982,19 @@
         <f t="shared" si="4"/>
         <v>80</v>
       </c>
-      <c r="N41" s="107"/>
-      <c r="O41" s="91" t="str">
+      <c r="N41" s="107">
+        <v>27</v>
+      </c>
+      <c r="O41" s="91">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P41" s="107"/>
-      <c r="Q41" s="91" t="str">
+        <v>77.142857142857153</v>
+      </c>
+      <c r="P41" s="107">
+        <v>9</v>
+      </c>
+      <c r="Q41" s="91">
         <f t="shared" si="6"/>
-        <v/>
+        <v>60</v>
       </c>
       <c r="R41" s="107"/>
       <c r="S41" s="91" t="str">
@@ -14830,12 +15026,12 @@
       <c r="AM41" s="93"/>
       <c r="AN41" s="94">
         <f t="shared" si="9"/>
-        <v>14.5</v>
+        <v>14.107142857142859</v>
       </c>
       <c r="AO41" s="107"/>
-      <c r="AP41" s="91" t="str">
+      <c r="AP41" s="91">
         <f t="shared" si="10"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AQ41" s="107"/>
       <c r="AR41" s="91" t="str">
@@ -14847,14 +15043,16 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AU41" s="94" t="str">
+      <c r="AU41" s="94">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AV41" s="107"/>
-      <c r="AW41" s="91" t="str">
+        <v>0</v>
+      </c>
+      <c r="AV41" s="107">
+        <v>100</v>
+      </c>
+      <c r="AW41" s="91">
         <f t="shared" si="14"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="AX41" s="107"/>
       <c r="AY41" s="91" t="str">
@@ -14866,17 +15064,17 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="BB41" s="94" t="str">
+      <c r="BB41" s="94">
         <f t="shared" si="17"/>
-        <v/>
+        <v>10</v>
       </c>
       <c r="BC41" s="97">
         <f t="shared" si="18"/>
-        <v>35.071428571428569</v>
+        <v>44.678571428571431</v>
       </c>
       <c r="BD41" s="97">
         <f t="shared" si="19"/>
-        <v>35.07</v>
+        <v>44.68</v>
       </c>
       <c r="BE41" s="107"/>
       <c r="BF41" s="91" t="str">
@@ -14986,7 +15184,7 @@
       </c>
       <c r="CS41" s="103">
         <f t="shared" si="45"/>
-        <v>14.028</v>
+        <v>17.872</v>
       </c>
       <c r="CT41" s="103">
         <f>IFERROR(VLOOKUP(CS41,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -15022,33 +15220,39 @@
         <v>19.285714285714288</v>
       </c>
       <c r="G42" s="107"/>
-      <c r="H42" s="91" t="e">
+      <c r="H42" s="91">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I42" s="94" t="str">
+        <v>0</v>
+      </c>
+      <c r="I42" s="94">
         <f t="shared" ref="I42:I70" si="47">IFERROR((H42*$I$7), "")</f>
-        <v/>
-      </c>
-      <c r="J42" s="107"/>
+        <v>0</v>
+      </c>
+      <c r="J42" s="107">
+        <v>13</v>
+      </c>
       <c r="K42" s="91">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L42" s="107"/>
+        <v>65</v>
+      </c>
+      <c r="L42" s="107">
+        <v>16</v>
+      </c>
       <c r="M42" s="91">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N42" s="107"/>
-      <c r="O42" s="91" t="str">
+        <v>64</v>
+      </c>
+      <c r="N42" s="107">
+        <v>25</v>
+      </c>
+      <c r="O42" s="91">
         <f t="shared" si="5"/>
-        <v/>
+        <v>71.428571428571431</v>
       </c>
       <c r="P42" s="107"/>
-      <c r="Q42" s="91" t="str">
+      <c r="Q42" s="91">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R42" s="107"/>
       <c r="S42" s="91" t="str">
@@ -15080,12 +15284,12 @@
       <c r="AM42" s="93"/>
       <c r="AN42" s="94">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>10.021428571428572</v>
       </c>
       <c r="AO42" s="107"/>
-      <c r="AP42" s="91" t="str">
+      <c r="AP42" s="91">
         <f t="shared" si="10"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AQ42" s="107"/>
       <c r="AR42" s="91" t="str">
@@ -15097,14 +15301,16 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AU42" s="94" t="str">
+      <c r="AU42" s="94">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AV42" s="107"/>
-      <c r="AW42" s="91" t="str">
+        <v>0</v>
+      </c>
+      <c r="AV42" s="107">
+        <v>100</v>
+      </c>
+      <c r="AW42" s="91">
         <f t="shared" si="14"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="AX42" s="107"/>
       <c r="AY42" s="91" t="str">
@@ -15116,17 +15322,17 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="BB42" s="94" t="str">
+      <c r="BB42" s="94">
         <f t="shared" si="17"/>
-        <v/>
+        <v>10</v>
       </c>
       <c r="BC42" s="97">
         <f t="shared" si="18"/>
-        <v>19.285714285714288</v>
+        <v>39.307142857142864</v>
       </c>
       <c r="BD42" s="97">
         <f t="shared" si="19"/>
-        <v>19.29</v>
+        <v>39.31</v>
       </c>
       <c r="BE42" s="107"/>
       <c r="BF42" s="91" t="str">
@@ -15236,7 +15442,7 @@
       </c>
       <c r="CS42" s="103">
         <f t="shared" si="45"/>
-        <v>7.7160000000000002</v>
+        <v>15.724000000000002</v>
       </c>
       <c r="CT42" s="103">
         <f>IFERROR(VLOOKUP(CS42,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -15272,13 +15478,13 @@
         <v>23.142857142857146</v>
       </c>
       <c r="G43" s="107"/>
-      <c r="H43" s="91" t="e">
+      <c r="H43" s="91">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I43" s="94" t="str">
+        <v>0</v>
+      </c>
+      <c r="I43" s="94">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J43" s="107">
         <v>16</v>
@@ -15294,15 +15500,19 @@
         <f t="shared" si="4"/>
         <v>68</v>
       </c>
-      <c r="N43" s="107"/>
-      <c r="O43" s="91" t="str">
+      <c r="N43" s="107">
+        <v>25</v>
+      </c>
+      <c r="O43" s="91">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P43" s="107"/>
-      <c r="Q43" s="91" t="str">
+        <v>71.428571428571431</v>
+      </c>
+      <c r="P43" s="107">
+        <v>9</v>
+      </c>
+      <c r="Q43" s="91">
         <f t="shared" si="6"/>
-        <v/>
+        <v>60</v>
       </c>
       <c r="R43" s="107"/>
       <c r="S43" s="91" t="str">
@@ -15334,12 +15544,12 @@
       <c r="AM43" s="93"/>
       <c r="AN43" s="94">
         <f t="shared" si="9"/>
-        <v>14.8</v>
+        <v>13.971428571428573</v>
       </c>
       <c r="AO43" s="107"/>
-      <c r="AP43" s="91" t="str">
+      <c r="AP43" s="91">
         <f t="shared" si="10"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AQ43" s="107"/>
       <c r="AR43" s="91" t="str">
@@ -15351,14 +15561,16 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AU43" s="94" t="str">
+      <c r="AU43" s="94">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AV43" s="107"/>
-      <c r="AW43" s="91" t="str">
+        <v>0</v>
+      </c>
+      <c r="AV43" s="107">
+        <v>100</v>
+      </c>
+      <c r="AW43" s="91">
         <f t="shared" si="14"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="AX43" s="107"/>
       <c r="AY43" s="91" t="str">
@@ -15370,17 +15582,17 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="BB43" s="94" t="str">
+      <c r="BB43" s="94">
         <f t="shared" si="17"/>
-        <v/>
+        <v>10</v>
       </c>
       <c r="BC43" s="97">
         <f t="shared" si="18"/>
-        <v>37.94285714285715</v>
+        <v>47.114285714285721</v>
       </c>
       <c r="BD43" s="97">
         <f t="shared" si="19"/>
-        <v>37.94</v>
+        <v>47.11</v>
       </c>
       <c r="BE43" s="107"/>
       <c r="BF43" s="91" t="str">
@@ -15490,7 +15702,7 @@
       </c>
       <c r="CS43" s="103">
         <f t="shared" si="45"/>
-        <v>15.176</v>
+        <v>18.844000000000001</v>
       </c>
       <c r="CT43" s="103">
         <f>IFERROR(VLOOKUP(CS43,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -15512,7 +15724,7 @@
       </c>
       <c r="C44" s="40" t="str">
         <f>CONCATENATE(REGISTRATION!C45," ",REGISTRATION!D45," ",REGISTRATION!E45)</f>
-        <v>Yu Rama Krsna dasi P</v>
+        <v>Yu Rama Krsna Dasi P</v>
       </c>
       <c r="D44" s="107">
         <v>27</v>
@@ -15526,13 +15738,13 @@
         <v>11.571428571428573</v>
       </c>
       <c r="G44" s="107"/>
-      <c r="H44" s="91" t="e">
+      <c r="H44" s="91">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I44" s="94" t="str">
+        <v>0</v>
+      </c>
+      <c r="I44" s="94">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J44" s="107">
         <v>9</v>
@@ -15548,15 +15760,19 @@
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
-      <c r="N44" s="107"/>
-      <c r="O44" s="91" t="str">
+      <c r="N44" s="107">
+        <v>29</v>
+      </c>
+      <c r="O44" s="91">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P44" s="107"/>
-      <c r="Q44" s="91" t="str">
+        <v>82.857142857142861</v>
+      </c>
+      <c r="P44" s="107">
+        <v>8</v>
+      </c>
+      <c r="Q44" s="91">
         <f t="shared" si="6"/>
-        <v/>
+        <v>53.333333333333336</v>
       </c>
       <c r="R44" s="107"/>
       <c r="S44" s="91" t="str">
@@ -15588,12 +15804,12 @@
       <c r="AM44" s="93"/>
       <c r="AN44" s="94">
         <f t="shared" si="9"/>
-        <v>7.7</v>
+        <v>10.659523809523812</v>
       </c>
       <c r="AO44" s="107"/>
-      <c r="AP44" s="91" t="str">
+      <c r="AP44" s="91">
         <f t="shared" si="10"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AQ44" s="107"/>
       <c r="AR44" s="91" t="str">
@@ -15605,14 +15821,16 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AU44" s="94" t="str">
+      <c r="AU44" s="94">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AV44" s="107"/>
-      <c r="AW44" s="91" t="str">
+        <v>0</v>
+      </c>
+      <c r="AV44" s="107">
+        <v>100</v>
+      </c>
+      <c r="AW44" s="91">
         <f t="shared" si="14"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="AX44" s="107"/>
       <c r="AY44" s="91" t="str">
@@ -15624,17 +15842,17 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="BB44" s="94" t="str">
+      <c r="BB44" s="94">
         <f t="shared" si="17"/>
-        <v/>
+        <v>10</v>
       </c>
       <c r="BC44" s="97">
         <f t="shared" si="18"/>
-        <v>19.271428571428572</v>
+        <v>32.230952380952388</v>
       </c>
       <c r="BD44" s="97">
         <f t="shared" si="19"/>
-        <v>19.27</v>
+        <v>32.229999999999997</v>
       </c>
       <c r="BE44" s="107"/>
       <c r="BF44" s="91" t="str">
@@ -15744,7 +15962,7 @@
       </c>
       <c r="CS44" s="103">
         <f t="shared" si="45"/>
-        <v>7.7080000000000002</v>
+        <v>12.891999999999999</v>
       </c>
       <c r="CT44" s="103">
         <f>IFERROR(VLOOKUP(CS44,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -15778,13 +15996,13 @@
         <v>0</v>
       </c>
       <c r="G45" s="107"/>
-      <c r="H45" s="91" t="e">
+      <c r="H45" s="91">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I45" s="94" t="str">
+        <v>0</v>
+      </c>
+      <c r="I45" s="94">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J45" s="107"/>
       <c r="K45" s="91">
@@ -15797,14 +16015,14 @@
         <v>0</v>
       </c>
       <c r="N45" s="107"/>
-      <c r="O45" s="91" t="str">
+      <c r="O45" s="91">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P45" s="107"/>
-      <c r="Q45" s="91" t="str">
+      <c r="Q45" s="91">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R45" s="107"/>
       <c r="S45" s="91" t="str">
@@ -15839,9 +16057,9 @@
         <v>0</v>
       </c>
       <c r="AO45" s="107"/>
-      <c r="AP45" s="91" t="str">
+      <c r="AP45" s="91">
         <f t="shared" si="10"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AQ45" s="107"/>
       <c r="AR45" s="91" t="str">
@@ -15853,14 +16071,14 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AU45" s="94" t="str">
+      <c r="AU45" s="94">
         <f t="shared" si="13"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AV45" s="107"/>
-      <c r="AW45" s="91" t="str">
+      <c r="AW45" s="91">
         <f t="shared" si="14"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AX45" s="107"/>
       <c r="AY45" s="91" t="str">
@@ -15872,9 +16090,9 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="BB45" s="94" t="str">
+      <c r="BB45" s="94">
         <f t="shared" si="17"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BC45" s="97">
         <f t="shared" si="18"/>
@@ -16026,13 +16244,13 @@
         <v>0</v>
       </c>
       <c r="G46" s="107"/>
-      <c r="H46" s="91" t="e">
+      <c r="H46" s="91">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I46" s="94" t="str">
+        <v>0</v>
+      </c>
+      <c r="I46" s="94">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J46" s="107"/>
       <c r="K46" s="91">
@@ -16045,14 +16263,14 @@
         <v>0</v>
       </c>
       <c r="N46" s="107"/>
-      <c r="O46" s="91" t="str">
+      <c r="O46" s="91">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P46" s="107"/>
-      <c r="Q46" s="91" t="str">
+      <c r="Q46" s="91">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R46" s="107"/>
       <c r="S46" s="91" t="str">
@@ -16087,9 +16305,9 @@
         <v>0</v>
       </c>
       <c r="AO46" s="107"/>
-      <c r="AP46" s="91" t="str">
+      <c r="AP46" s="91">
         <f t="shared" si="10"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AQ46" s="107"/>
       <c r="AR46" s="91" t="str">
@@ -16101,14 +16319,14 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AU46" s="94" t="str">
+      <c r="AU46" s="94">
         <f t="shared" si="13"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AV46" s="107"/>
-      <c r="AW46" s="91" t="str">
+      <c r="AW46" s="91">
         <f t="shared" si="14"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AX46" s="107"/>
       <c r="AY46" s="91" t="str">
@@ -16120,9 +16338,9 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="BB46" s="94" t="str">
+      <c r="BB46" s="94">
         <f t="shared" si="17"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BC46" s="97">
         <f t="shared" si="18"/>
@@ -16274,13 +16492,13 @@
         <v>0</v>
       </c>
       <c r="G47" s="107"/>
-      <c r="H47" s="91" t="e">
+      <c r="H47" s="91">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I47" s="94" t="str">
+        <v>0</v>
+      </c>
+      <c r="I47" s="94">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J47" s="107"/>
       <c r="K47" s="91">
@@ -16293,14 +16511,14 @@
         <v>0</v>
       </c>
       <c r="N47" s="107"/>
-      <c r="O47" s="91" t="str">
+      <c r="O47" s="91">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P47" s="107"/>
-      <c r="Q47" s="91" t="str">
+      <c r="Q47" s="91">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R47" s="107"/>
       <c r="S47" s="91" t="str">
@@ -16335,9 +16553,9 @@
         <v>0</v>
       </c>
       <c r="AO47" s="107"/>
-      <c r="AP47" s="91" t="str">
+      <c r="AP47" s="91">
         <f t="shared" si="10"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AQ47" s="107"/>
       <c r="AR47" s="91" t="str">
@@ -16349,14 +16567,14 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AU47" s="94" t="str">
+      <c r="AU47" s="94">
         <f t="shared" si="13"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AV47" s="107"/>
-      <c r="AW47" s="91" t="str">
+      <c r="AW47" s="91">
         <f t="shared" si="14"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AX47" s="107"/>
       <c r="AY47" s="91" t="str">
@@ -16368,9 +16586,9 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="BB47" s="94" t="str">
+      <c r="BB47" s="94">
         <f t="shared" si="17"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BC47" s="97">
         <f t="shared" si="18"/>
@@ -16522,13 +16740,13 @@
         <v>0</v>
       </c>
       <c r="G48" s="107"/>
-      <c r="H48" s="91" t="e">
+      <c r="H48" s="91">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I48" s="94" t="str">
+        <v>0</v>
+      </c>
+      <c r="I48" s="94">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J48" s="107"/>
       <c r="K48" s="91">
@@ -16541,14 +16759,14 @@
         <v>0</v>
       </c>
       <c r="N48" s="107"/>
-      <c r="O48" s="91" t="str">
+      <c r="O48" s="91">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P48" s="107"/>
-      <c r="Q48" s="91" t="str">
+      <c r="Q48" s="91">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R48" s="107"/>
       <c r="S48" s="91" t="str">
@@ -16583,9 +16801,9 @@
         <v>0</v>
       </c>
       <c r="AO48" s="107"/>
-      <c r="AP48" s="91" t="str">
+      <c r="AP48" s="91">
         <f t="shared" si="10"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AQ48" s="107"/>
       <c r="AR48" s="91" t="str">
@@ -16597,14 +16815,14 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AU48" s="94" t="str">
+      <c r="AU48" s="94">
         <f t="shared" si="13"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AV48" s="107"/>
-      <c r="AW48" s="91" t="str">
+      <c r="AW48" s="91">
         <f t="shared" si="14"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AX48" s="107"/>
       <c r="AY48" s="91" t="str">
@@ -16616,9 +16834,9 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="BB48" s="94" t="str">
+      <c r="BB48" s="94">
         <f t="shared" si="17"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BC48" s="97">
         <f t="shared" si="18"/>
@@ -16770,13 +16988,13 @@
         <v>0</v>
       </c>
       <c r="G49" s="107"/>
-      <c r="H49" s="91" t="e">
+      <c r="H49" s="91">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I49" s="94" t="str">
+        <v>0</v>
+      </c>
+      <c r="I49" s="94">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J49" s="107"/>
       <c r="K49" s="91">
@@ -16789,14 +17007,14 @@
         <v>0</v>
       </c>
       <c r="N49" s="107"/>
-      <c r="O49" s="91" t="str">
+      <c r="O49" s="91">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P49" s="107"/>
-      <c r="Q49" s="91" t="str">
+      <c r="Q49" s="91">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R49" s="107"/>
       <c r="S49" s="91" t="str">
@@ -16831,9 +17049,9 @@
         <v>0</v>
       </c>
       <c r="AO49" s="107"/>
-      <c r="AP49" s="91" t="str">
+      <c r="AP49" s="91">
         <f t="shared" si="10"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AQ49" s="107"/>
       <c r="AR49" s="91" t="str">
@@ -16845,14 +17063,14 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AU49" s="94" t="str">
+      <c r="AU49" s="94">
         <f t="shared" si="13"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AV49" s="107"/>
-      <c r="AW49" s="91" t="str">
+      <c r="AW49" s="91">
         <f t="shared" si="14"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AX49" s="107"/>
       <c r="AY49" s="91" t="str">
@@ -16864,9 +17082,9 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="BB49" s="94" t="str">
+      <c r="BB49" s="94">
         <f t="shared" si="17"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BC49" s="97">
         <f t="shared" si="18"/>
@@ -17018,13 +17236,13 @@
         <v>0</v>
       </c>
       <c r="G50" s="107"/>
-      <c r="H50" s="91" t="e">
+      <c r="H50" s="91">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I50" s="94" t="str">
+        <v>0</v>
+      </c>
+      <c r="I50" s="94">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J50" s="107"/>
       <c r="K50" s="91">
@@ -17037,14 +17255,14 @@
         <v>0</v>
       </c>
       <c r="N50" s="107"/>
-      <c r="O50" s="91" t="str">
+      <c r="O50" s="91">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P50" s="107"/>
-      <c r="Q50" s="91" t="str">
+      <c r="Q50" s="91">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R50" s="107"/>
       <c r="S50" s="91" t="str">
@@ -17079,9 +17297,9 @@
         <v>0</v>
       </c>
       <c r="AO50" s="107"/>
-      <c r="AP50" s="91" t="str">
+      <c r="AP50" s="91">
         <f t="shared" si="10"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AQ50" s="107"/>
       <c r="AR50" s="91" t="str">
@@ -17093,14 +17311,14 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AU50" s="94" t="str">
+      <c r="AU50" s="94">
         <f t="shared" si="13"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AV50" s="107"/>
-      <c r="AW50" s="91" t="str">
+      <c r="AW50" s="91">
         <f t="shared" si="14"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AX50" s="107"/>
       <c r="AY50" s="91" t="str">
@@ -17112,9 +17330,9 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="BB50" s="94" t="str">
+      <c r="BB50" s="94">
         <f t="shared" si="17"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BC50" s="97">
         <f t="shared" si="18"/>
@@ -17266,13 +17484,13 @@
         <v>0</v>
       </c>
       <c r="G51" s="107"/>
-      <c r="H51" s="91" t="e">
+      <c r="H51" s="91">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I51" s="94" t="str">
+        <v>0</v>
+      </c>
+      <c r="I51" s="94">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J51" s="107"/>
       <c r="K51" s="91">
@@ -17285,14 +17503,14 @@
         <v>0</v>
       </c>
       <c r="N51" s="107"/>
-      <c r="O51" s="91" t="str">
+      <c r="O51" s="91">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P51" s="107"/>
-      <c r="Q51" s="91" t="str">
+      <c r="Q51" s="91">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R51" s="107"/>
       <c r="S51" s="91" t="str">
@@ -17327,9 +17545,9 @@
         <v>0</v>
       </c>
       <c r="AO51" s="107"/>
-      <c r="AP51" s="91" t="str">
+      <c r="AP51" s="91">
         <f t="shared" si="10"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AQ51" s="107"/>
       <c r="AR51" s="91" t="str">
@@ -17341,14 +17559,14 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AU51" s="94" t="str">
+      <c r="AU51" s="94">
         <f t="shared" si="13"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AV51" s="107"/>
-      <c r="AW51" s="91" t="str">
+      <c r="AW51" s="91">
         <f t="shared" si="14"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AX51" s="107"/>
       <c r="AY51" s="91" t="str">
@@ -17360,9 +17578,9 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="BB51" s="94" t="str">
+      <c r="BB51" s="94">
         <f t="shared" si="17"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BC51" s="97">
         <f t="shared" si="18"/>
@@ -17514,13 +17732,13 @@
         <v>0</v>
       </c>
       <c r="G52" s="107"/>
-      <c r="H52" s="91" t="e">
+      <c r="H52" s="91">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I52" s="94" t="str">
+        <v>0</v>
+      </c>
+      <c r="I52" s="94">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J52" s="107"/>
       <c r="K52" s="91">
@@ -17533,14 +17751,14 @@
         <v>0</v>
       </c>
       <c r="N52" s="107"/>
-      <c r="O52" s="91" t="str">
+      <c r="O52" s="91">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P52" s="107"/>
-      <c r="Q52" s="91" t="str">
+      <c r="Q52" s="91">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R52" s="107"/>
       <c r="S52" s="91" t="str">
@@ -17575,9 +17793,9 @@
         <v>0</v>
       </c>
       <c r="AO52" s="107"/>
-      <c r="AP52" s="91" t="str">
+      <c r="AP52" s="91">
         <f t="shared" si="10"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AQ52" s="107"/>
       <c r="AR52" s="91" t="str">
@@ -17589,14 +17807,14 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AU52" s="94" t="str">
+      <c r="AU52" s="94">
         <f t="shared" si="13"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AV52" s="107"/>
-      <c r="AW52" s="91" t="str">
+      <c r="AW52" s="91">
         <f t="shared" si="14"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AX52" s="107"/>
       <c r="AY52" s="91" t="str">
@@ -17608,9 +17826,9 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="BB52" s="94" t="str">
+      <c r="BB52" s="94">
         <f t="shared" si="17"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BC52" s="97">
         <f t="shared" si="18"/>
@@ -17762,13 +17980,13 @@
         <v>0</v>
       </c>
       <c r="G53" s="107"/>
-      <c r="H53" s="91" t="e">
+      <c r="H53" s="91">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I53" s="94" t="str">
+        <v>0</v>
+      </c>
+      <c r="I53" s="94">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J53" s="107"/>
       <c r="K53" s="91">
@@ -17781,14 +17999,14 @@
         <v>0</v>
       </c>
       <c r="N53" s="107"/>
-      <c r="O53" s="91" t="str">
+      <c r="O53" s="91">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P53" s="107"/>
-      <c r="Q53" s="91" t="str">
+      <c r="Q53" s="91">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R53" s="107"/>
       <c r="S53" s="91" t="str">
@@ -17823,9 +18041,9 @@
         <v>0</v>
       </c>
       <c r="AO53" s="107"/>
-      <c r="AP53" s="91" t="str">
+      <c r="AP53" s="91">
         <f t="shared" si="10"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AQ53" s="107"/>
       <c r="AR53" s="91" t="str">
@@ -17837,14 +18055,14 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AU53" s="94" t="str">
+      <c r="AU53" s="94">
         <f t="shared" si="13"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AV53" s="107"/>
-      <c r="AW53" s="91" t="str">
+      <c r="AW53" s="91">
         <f t="shared" si="14"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AX53" s="107"/>
       <c r="AY53" s="91" t="str">
@@ -17856,9 +18074,9 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="BB53" s="94" t="str">
+      <c r="BB53" s="94">
         <f t="shared" si="17"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BC53" s="97">
         <f t="shared" si="18"/>
@@ -18010,13 +18228,13 @@
         <v>0</v>
       </c>
       <c r="G54" s="107"/>
-      <c r="H54" s="91" t="e">
+      <c r="H54" s="91">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I54" s="94" t="str">
+        <v>0</v>
+      </c>
+      <c r="I54" s="94">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J54" s="107"/>
       <c r="K54" s="91">
@@ -18029,14 +18247,14 @@
         <v>0</v>
       </c>
       <c r="N54" s="107"/>
-      <c r="O54" s="91" t="str">
+      <c r="O54" s="91">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P54" s="107"/>
-      <c r="Q54" s="91" t="str">
+      <c r="Q54" s="91">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R54" s="107"/>
       <c r="S54" s="91" t="str">
@@ -18071,9 +18289,9 @@
         <v>0</v>
       </c>
       <c r="AO54" s="107"/>
-      <c r="AP54" s="91" t="str">
+      <c r="AP54" s="91">
         <f t="shared" si="10"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AQ54" s="107"/>
       <c r="AR54" s="91" t="str">
@@ -18085,14 +18303,14 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AU54" s="94" t="str">
+      <c r="AU54" s="94">
         <f t="shared" si="13"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AV54" s="107"/>
-      <c r="AW54" s="91" t="str">
+      <c r="AW54" s="91">
         <f t="shared" si="14"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AX54" s="107"/>
       <c r="AY54" s="91" t="str">
@@ -18104,9 +18322,9 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="BB54" s="94" t="str">
+      <c r="BB54" s="94">
         <f t="shared" si="17"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BC54" s="97">
         <f t="shared" si="18"/>
@@ -18258,13 +18476,13 @@
         <v>0</v>
       </c>
       <c r="G55" s="107"/>
-      <c r="H55" s="91" t="e">
+      <c r="H55" s="91">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I55" s="94" t="str">
+        <v>0</v>
+      </c>
+      <c r="I55" s="94">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J55" s="107"/>
       <c r="K55" s="91">
@@ -18277,14 +18495,14 @@
         <v>0</v>
       </c>
       <c r="N55" s="107"/>
-      <c r="O55" s="91" t="str">
+      <c r="O55" s="91">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P55" s="107"/>
-      <c r="Q55" s="91" t="str">
+      <c r="Q55" s="91">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R55" s="107"/>
       <c r="S55" s="91" t="str">
@@ -18319,9 +18537,9 @@
         <v>0</v>
       </c>
       <c r="AO55" s="107"/>
-      <c r="AP55" s="91" t="str">
+      <c r="AP55" s="91">
         <f t="shared" si="10"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AQ55" s="107"/>
       <c r="AR55" s="91" t="str">
@@ -18333,14 +18551,14 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AU55" s="94" t="str">
+      <c r="AU55" s="94">
         <f t="shared" si="13"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AV55" s="107"/>
-      <c r="AW55" s="91" t="str">
+      <c r="AW55" s="91">
         <f t="shared" si="14"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AX55" s="107"/>
       <c r="AY55" s="91" t="str">
@@ -18352,9 +18570,9 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="BB55" s="94" t="str">
+      <c r="BB55" s="94">
         <f t="shared" si="17"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BC55" s="97">
         <f t="shared" si="18"/>
@@ -18506,13 +18724,13 @@
         <v>0</v>
       </c>
       <c r="G56" s="107"/>
-      <c r="H56" s="91" t="e">
+      <c r="H56" s="91">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I56" s="94" t="str">
+        <v>0</v>
+      </c>
+      <c r="I56" s="94">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J56" s="107"/>
       <c r="K56" s="91">
@@ -18525,14 +18743,14 @@
         <v>0</v>
       </c>
       <c r="N56" s="107"/>
-      <c r="O56" s="91" t="str">
+      <c r="O56" s="91">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P56" s="107"/>
-      <c r="Q56" s="91" t="str">
+      <c r="Q56" s="91">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R56" s="107"/>
       <c r="S56" s="91" t="str">
@@ -18567,9 +18785,9 @@
         <v>0</v>
       </c>
       <c r="AO56" s="107"/>
-      <c r="AP56" s="91" t="str">
+      <c r="AP56" s="91">
         <f t="shared" si="10"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AQ56" s="107"/>
       <c r="AR56" s="91" t="str">
@@ -18581,14 +18799,14 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AU56" s="94" t="str">
+      <c r="AU56" s="94">
         <f t="shared" si="13"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AV56" s="107"/>
-      <c r="AW56" s="91" t="str">
+      <c r="AW56" s="91">
         <f t="shared" si="14"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AX56" s="107"/>
       <c r="AY56" s="91" t="str">
@@ -18600,9 +18818,9 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="BB56" s="94" t="str">
+      <c r="BB56" s="94">
         <f t="shared" si="17"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BC56" s="97">
         <f t="shared" si="18"/>
@@ -18754,13 +18972,13 @@
         <v>0</v>
       </c>
       <c r="G57" s="107"/>
-      <c r="H57" s="91" t="e">
+      <c r="H57" s="91">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I57" s="94" t="str">
+        <v>0</v>
+      </c>
+      <c r="I57" s="94">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J57" s="107"/>
       <c r="K57" s="91">
@@ -18773,14 +18991,14 @@
         <v>0</v>
       </c>
       <c r="N57" s="107"/>
-      <c r="O57" s="91" t="str">
+      <c r="O57" s="91">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P57" s="107"/>
-      <c r="Q57" s="91" t="str">
+      <c r="Q57" s="91">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R57" s="107"/>
       <c r="S57" s="91" t="str">
@@ -18815,9 +19033,9 @@
         <v>0</v>
       </c>
       <c r="AO57" s="107"/>
-      <c r="AP57" s="91" t="str">
+      <c r="AP57" s="91">
         <f t="shared" si="10"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AQ57" s="107"/>
       <c r="AR57" s="91" t="str">
@@ -18829,14 +19047,14 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AU57" s="94" t="str">
+      <c r="AU57" s="94">
         <f t="shared" si="13"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AV57" s="107"/>
-      <c r="AW57" s="91" t="str">
+      <c r="AW57" s="91">
         <f t="shared" si="14"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AX57" s="107"/>
       <c r="AY57" s="91" t="str">
@@ -18848,9 +19066,9 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="BB57" s="94" t="str">
+      <c r="BB57" s="94">
         <f t="shared" si="17"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BC57" s="97">
         <f t="shared" si="18"/>
@@ -19002,13 +19220,13 @@
         <v>0</v>
       </c>
       <c r="G58" s="107"/>
-      <c r="H58" s="91" t="e">
+      <c r="H58" s="91">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I58" s="94" t="str">
+        <v>0</v>
+      </c>
+      <c r="I58" s="94">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J58" s="107"/>
       <c r="K58" s="91">
@@ -19021,14 +19239,14 @@
         <v>0</v>
       </c>
       <c r="N58" s="107"/>
-      <c r="O58" s="91" t="str">
+      <c r="O58" s="91">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P58" s="107"/>
-      <c r="Q58" s="91" t="str">
+      <c r="Q58" s="91">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R58" s="107"/>
       <c r="S58" s="91" t="str">
@@ -19063,9 +19281,9 @@
         <v>0</v>
       </c>
       <c r="AO58" s="107"/>
-      <c r="AP58" s="91" t="str">
+      <c r="AP58" s="91">
         <f t="shared" si="10"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AQ58" s="107"/>
       <c r="AR58" s="91" t="str">
@@ -19077,14 +19295,14 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AU58" s="94" t="str">
+      <c r="AU58" s="94">
         <f t="shared" si="13"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AV58" s="107"/>
-      <c r="AW58" s="91" t="str">
+      <c r="AW58" s="91">
         <f t="shared" si="14"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AX58" s="107"/>
       <c r="AY58" s="91" t="str">
@@ -19096,9 +19314,9 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="BB58" s="94" t="str">
+      <c r="BB58" s="94">
         <f t="shared" si="17"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BC58" s="97">
         <f t="shared" si="18"/>
@@ -19250,13 +19468,13 @@
         <v>0</v>
       </c>
       <c r="G59" s="107"/>
-      <c r="H59" s="91" t="e">
+      <c r="H59" s="91">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I59" s="94" t="str">
+        <v>0</v>
+      </c>
+      <c r="I59" s="94">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J59" s="107"/>
       <c r="K59" s="91">
@@ -19269,14 +19487,14 @@
         <v>0</v>
       </c>
       <c r="N59" s="107"/>
-      <c r="O59" s="91" t="str">
+      <c r="O59" s="91">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P59" s="107"/>
-      <c r="Q59" s="91" t="str">
+      <c r="Q59" s="91">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R59" s="107"/>
       <c r="S59" s="91" t="str">
@@ -19311,9 +19529,9 @@
         <v>0</v>
       </c>
       <c r="AO59" s="107"/>
-      <c r="AP59" s="91" t="str">
+      <c r="AP59" s="91">
         <f t="shared" si="10"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AQ59" s="107"/>
       <c r="AR59" s="91" t="str">
@@ -19325,14 +19543,14 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AU59" s="94" t="str">
+      <c r="AU59" s="94">
         <f t="shared" si="13"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AV59" s="107"/>
-      <c r="AW59" s="91" t="str">
+      <c r="AW59" s="91">
         <f t="shared" si="14"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AX59" s="107"/>
       <c r="AY59" s="91" t="str">
@@ -19344,9 +19562,9 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="BB59" s="94" t="str">
+      <c r="BB59" s="94">
         <f t="shared" si="17"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BC59" s="97">
         <f t="shared" si="18"/>
@@ -19498,13 +19716,13 @@
         <v>0</v>
       </c>
       <c r="G60" s="107"/>
-      <c r="H60" s="91" t="e">
+      <c r="H60" s="91">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I60" s="94" t="str">
+        <v>0</v>
+      </c>
+      <c r="I60" s="94">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J60" s="107"/>
       <c r="K60" s="91">
@@ -19517,14 +19735,14 @@
         <v>0</v>
       </c>
       <c r="N60" s="107"/>
-      <c r="O60" s="91" t="str">
+      <c r="O60" s="91">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P60" s="107"/>
-      <c r="Q60" s="91" t="str">
+      <c r="Q60" s="91">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R60" s="107"/>
       <c r="S60" s="91" t="str">
@@ -19559,9 +19777,9 @@
         <v>0</v>
       </c>
       <c r="AO60" s="107"/>
-      <c r="AP60" s="91" t="str">
+      <c r="AP60" s="91">
         <f t="shared" si="10"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AQ60" s="107"/>
       <c r="AR60" s="91" t="str">
@@ -19573,14 +19791,14 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AU60" s="94" t="str">
+      <c r="AU60" s="94">
         <f t="shared" si="13"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AV60" s="107"/>
-      <c r="AW60" s="91" t="str">
+      <c r="AW60" s="91">
         <f t="shared" si="14"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AX60" s="107"/>
       <c r="AY60" s="91" t="str">
@@ -19592,9 +19810,9 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="BB60" s="94" t="str">
+      <c r="BB60" s="94">
         <f t="shared" si="17"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BC60" s="97">
         <f t="shared" si="18"/>
@@ -19746,13 +19964,13 @@
         <v>0</v>
       </c>
       <c r="G61" s="107"/>
-      <c r="H61" s="91" t="e">
+      <c r="H61" s="91">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I61" s="94" t="str">
+        <v>0</v>
+      </c>
+      <c r="I61" s="94">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J61" s="107"/>
       <c r="K61" s="91">
@@ -19765,14 +19983,14 @@
         <v>0</v>
       </c>
       <c r="N61" s="107"/>
-      <c r="O61" s="91" t="str">
+      <c r="O61" s="91">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P61" s="107"/>
-      <c r="Q61" s="91" t="str">
+      <c r="Q61" s="91">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R61" s="107"/>
       <c r="S61" s="91" t="str">
@@ -19807,9 +20025,9 @@
         <v>0</v>
       </c>
       <c r="AO61" s="107"/>
-      <c r="AP61" s="91" t="str">
+      <c r="AP61" s="91">
         <f t="shared" si="10"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AQ61" s="107"/>
       <c r="AR61" s="91" t="str">
@@ -19821,14 +20039,14 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AU61" s="94" t="str">
+      <c r="AU61" s="94">
         <f t="shared" si="13"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AV61" s="107"/>
-      <c r="AW61" s="91" t="str">
+      <c r="AW61" s="91">
         <f t="shared" si="14"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AX61" s="107"/>
       <c r="AY61" s="91" t="str">
@@ -19840,9 +20058,9 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="BB61" s="94" t="str">
+      <c r="BB61" s="94">
         <f t="shared" si="17"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BC61" s="97">
         <f t="shared" si="18"/>
@@ -19994,13 +20212,13 @@
         <v>0</v>
       </c>
       <c r="G62" s="107"/>
-      <c r="H62" s="91" t="e">
+      <c r="H62" s="91">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I62" s="94" t="str">
+        <v>0</v>
+      </c>
+      <c r="I62" s="94">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J62" s="107"/>
       <c r="K62" s="91">
@@ -20013,14 +20231,14 @@
         <v>0</v>
       </c>
       <c r="N62" s="107"/>
-      <c r="O62" s="91" t="str">
+      <c r="O62" s="91">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P62" s="107"/>
-      <c r="Q62" s="91" t="str">
+      <c r="Q62" s="91">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R62" s="107"/>
       <c r="S62" s="91" t="str">
@@ -20055,9 +20273,9 @@
         <v>0</v>
       </c>
       <c r="AO62" s="107"/>
-      <c r="AP62" s="91" t="str">
+      <c r="AP62" s="91">
         <f t="shared" si="10"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AQ62" s="107"/>
       <c r="AR62" s="91" t="str">
@@ -20069,14 +20287,14 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AU62" s="94" t="str">
+      <c r="AU62" s="94">
         <f t="shared" si="13"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AV62" s="107"/>
-      <c r="AW62" s="91" t="str">
+      <c r="AW62" s="91">
         <f t="shared" si="14"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AX62" s="107"/>
       <c r="AY62" s="91" t="str">
@@ -20088,9 +20306,9 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="BB62" s="94" t="str">
+      <c r="BB62" s="94">
         <f t="shared" si="17"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BC62" s="97">
         <f t="shared" si="18"/>
@@ -20242,13 +20460,13 @@
         <v>0</v>
       </c>
       <c r="G63" s="107"/>
-      <c r="H63" s="91" t="e">
+      <c r="H63" s="91">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I63" s="94" t="str">
+        <v>0</v>
+      </c>
+      <c r="I63" s="94">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J63" s="107"/>
       <c r="K63" s="91">
@@ -20261,14 +20479,14 @@
         <v>0</v>
       </c>
       <c r="N63" s="107"/>
-      <c r="O63" s="91" t="str">
+      <c r="O63" s="91">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P63" s="107"/>
-      <c r="Q63" s="91" t="str">
+      <c r="Q63" s="91">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R63" s="107"/>
       <c r="S63" s="91" t="str">
@@ -20303,9 +20521,9 @@
         <v>0</v>
       </c>
       <c r="AO63" s="107"/>
-      <c r="AP63" s="91" t="str">
+      <c r="AP63" s="91">
         <f t="shared" si="10"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AQ63" s="107"/>
       <c r="AR63" s="91" t="str">
@@ -20317,14 +20535,14 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AU63" s="94" t="str">
+      <c r="AU63" s="94">
         <f t="shared" si="13"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AV63" s="107"/>
-      <c r="AW63" s="91" t="str">
+      <c r="AW63" s="91">
         <f t="shared" si="14"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AX63" s="107"/>
       <c r="AY63" s="91" t="str">
@@ -20336,9 +20554,9 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="BB63" s="94" t="str">
+      <c r="BB63" s="94">
         <f t="shared" si="17"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BC63" s="97">
         <f t="shared" si="18"/>
@@ -20490,13 +20708,13 @@
         <v>0</v>
       </c>
       <c r="G64" s="107"/>
-      <c r="H64" s="91" t="e">
+      <c r="H64" s="91">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I64" s="94" t="str">
+        <v>0</v>
+      </c>
+      <c r="I64" s="94">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J64" s="107"/>
       <c r="K64" s="91">
@@ -20509,14 +20727,14 @@
         <v>0</v>
       </c>
       <c r="N64" s="107"/>
-      <c r="O64" s="91" t="str">
+      <c r="O64" s="91">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P64" s="107"/>
-      <c r="Q64" s="91" t="str">
+      <c r="Q64" s="91">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R64" s="107"/>
       <c r="S64" s="91" t="str">
@@ -20551,9 +20769,9 @@
         <v>0</v>
       </c>
       <c r="AO64" s="107"/>
-      <c r="AP64" s="91" t="str">
+      <c r="AP64" s="91">
         <f t="shared" si="10"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AQ64" s="107"/>
       <c r="AR64" s="91" t="str">
@@ -20565,14 +20783,14 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AU64" s="94" t="str">
+      <c r="AU64" s="94">
         <f t="shared" si="13"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AV64" s="107"/>
-      <c r="AW64" s="91" t="str">
+      <c r="AW64" s="91">
         <f t="shared" si="14"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AX64" s="107"/>
       <c r="AY64" s="91" t="str">
@@ -20584,9 +20802,9 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="BB64" s="94" t="str">
+      <c r="BB64" s="94">
         <f t="shared" si="17"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BC64" s="97">
         <f t="shared" si="18"/>
@@ -20738,13 +20956,13 @@
         <v>0</v>
       </c>
       <c r="G65" s="107"/>
-      <c r="H65" s="91" t="e">
+      <c r="H65" s="91">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I65" s="94" t="str">
+        <v>0</v>
+      </c>
+      <c r="I65" s="94">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J65" s="107"/>
       <c r="K65" s="91">
@@ -20757,14 +20975,14 @@
         <v>0</v>
       </c>
       <c r="N65" s="107"/>
-      <c r="O65" s="91" t="str">
+      <c r="O65" s="91">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P65" s="107"/>
-      <c r="Q65" s="91" t="str">
+      <c r="Q65" s="91">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R65" s="107"/>
       <c r="S65" s="91" t="str">
@@ -20799,9 +21017,9 @@
         <v>0</v>
       </c>
       <c r="AO65" s="107"/>
-      <c r="AP65" s="91" t="str">
+      <c r="AP65" s="91">
         <f t="shared" si="10"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AQ65" s="107"/>
       <c r="AR65" s="91" t="str">
@@ -20813,14 +21031,14 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AU65" s="94" t="str">
+      <c r="AU65" s="94">
         <f t="shared" si="13"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AV65" s="107"/>
-      <c r="AW65" s="91" t="str">
+      <c r="AW65" s="91">
         <f t="shared" si="14"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AX65" s="107"/>
       <c r="AY65" s="91" t="str">
@@ -20832,9 +21050,9 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="BB65" s="94" t="str">
+      <c r="BB65" s="94">
         <f t="shared" si="17"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BC65" s="97">
         <f t="shared" si="18"/>
@@ -20986,13 +21204,13 @@
         <v>0</v>
       </c>
       <c r="G66" s="107"/>
-      <c r="H66" s="91" t="e">
+      <c r="H66" s="91">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I66" s="94" t="str">
+        <v>0</v>
+      </c>
+      <c r="I66" s="94">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J66" s="107"/>
       <c r="K66" s="91">
@@ -21005,14 +21223,14 @@
         <v>0</v>
       </c>
       <c r="N66" s="107"/>
-      <c r="O66" s="91" t="str">
+      <c r="O66" s="91">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P66" s="107"/>
-      <c r="Q66" s="91" t="str">
+      <c r="Q66" s="91">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R66" s="107"/>
       <c r="S66" s="91" t="str">
@@ -21047,9 +21265,9 @@
         <v>0</v>
       </c>
       <c r="AO66" s="107"/>
-      <c r="AP66" s="91" t="str">
+      <c r="AP66" s="91">
         <f t="shared" si="10"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AQ66" s="107"/>
       <c r="AR66" s="91" t="str">
@@ -21061,14 +21279,14 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AU66" s="94" t="str">
+      <c r="AU66" s="94">
         <f t="shared" si="13"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AV66" s="107"/>
-      <c r="AW66" s="91" t="str">
+      <c r="AW66" s="91">
         <f t="shared" si="14"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AX66" s="107"/>
       <c r="AY66" s="91" t="str">
@@ -21080,9 +21298,9 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="BB66" s="94" t="str">
+      <c r="BB66" s="94">
         <f t="shared" si="17"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BC66" s="97">
         <f t="shared" si="18"/>
@@ -21234,13 +21452,13 @@
         <v>0</v>
       </c>
       <c r="G67" s="107"/>
-      <c r="H67" s="91" t="e">
+      <c r="H67" s="91">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I67" s="94" t="str">
+        <v>0</v>
+      </c>
+      <c r="I67" s="94">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J67" s="107"/>
       <c r="K67" s="91">
@@ -21253,14 +21471,14 @@
         <v>0</v>
       </c>
       <c r="N67" s="107"/>
-      <c r="O67" s="91" t="str">
+      <c r="O67" s="91">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P67" s="107"/>
-      <c r="Q67" s="91" t="str">
+      <c r="Q67" s="91">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R67" s="107"/>
       <c r="S67" s="91" t="str">
@@ -21295,9 +21513,9 @@
         <v>0</v>
       </c>
       <c r="AO67" s="107"/>
-      <c r="AP67" s="91" t="str">
+      <c r="AP67" s="91">
         <f t="shared" si="10"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AQ67" s="107"/>
       <c r="AR67" s="91" t="str">
@@ -21309,14 +21527,14 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AU67" s="94" t="str">
+      <c r="AU67" s="94">
         <f t="shared" si="13"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AV67" s="107"/>
-      <c r="AW67" s="91" t="str">
+      <c r="AW67" s="91">
         <f t="shared" si="14"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AX67" s="107"/>
       <c r="AY67" s="91" t="str">
@@ -21328,9 +21546,9 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="BB67" s="94" t="str">
+      <c r="BB67" s="94">
         <f t="shared" si="17"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BC67" s="97">
         <f t="shared" si="18"/>
@@ -21482,13 +21700,13 @@
         <v>0</v>
       </c>
       <c r="G68" s="107"/>
-      <c r="H68" s="91" t="e">
+      <c r="H68" s="91">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I68" s="94" t="str">
+        <v>0</v>
+      </c>
+      <c r="I68" s="94">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J68" s="107"/>
       <c r="K68" s="91">
@@ -21501,14 +21719,14 @@
         <v>0</v>
       </c>
       <c r="N68" s="107"/>
-      <c r="O68" s="91" t="str">
+      <c r="O68" s="91">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P68" s="107"/>
-      <c r="Q68" s="91" t="str">
+      <c r="Q68" s="91">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R68" s="107"/>
       <c r="S68" s="91" t="str">
@@ -21543,9 +21761,9 @@
         <v>0</v>
       </c>
       <c r="AO68" s="107"/>
-      <c r="AP68" s="91" t="str">
+      <c r="AP68" s="91">
         <f t="shared" si="10"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AQ68" s="107"/>
       <c r="AR68" s="91" t="str">
@@ -21557,14 +21775,14 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AU68" s="94" t="str">
+      <c r="AU68" s="94">
         <f t="shared" si="13"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AV68" s="107"/>
-      <c r="AW68" s="91" t="str">
+      <c r="AW68" s="91">
         <f t="shared" si="14"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AX68" s="107"/>
       <c r="AY68" s="91" t="str">
@@ -21576,9 +21794,9 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="BB68" s="94" t="str">
+      <c r="BB68" s="94">
         <f t="shared" si="17"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BC68" s="97">
         <f t="shared" si="18"/>
@@ -21730,13 +21948,13 @@
         <v>0</v>
       </c>
       <c r="G69" s="107"/>
-      <c r="H69" s="91" t="e">
+      <c r="H69" s="91">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I69" s="94" t="str">
+        <v>0</v>
+      </c>
+      <c r="I69" s="94">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J69" s="107"/>
       <c r="K69" s="91">
@@ -21749,14 +21967,14 @@
         <v>0</v>
       </c>
       <c r="N69" s="107"/>
-      <c r="O69" s="91" t="str">
+      <c r="O69" s="91">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P69" s="107"/>
-      <c r="Q69" s="91" t="str">
+      <c r="Q69" s="91">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R69" s="107"/>
       <c r="S69" s="91" t="str">
@@ -21791,9 +22009,9 @@
         <v>0</v>
       </c>
       <c r="AO69" s="107"/>
-      <c r="AP69" s="91" t="str">
+      <c r="AP69" s="91">
         <f t="shared" si="10"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AQ69" s="107"/>
       <c r="AR69" s="91" t="str">
@@ -21805,14 +22023,14 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AU69" s="94" t="str">
+      <c r="AU69" s="94">
         <f t="shared" si="13"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AV69" s="107"/>
-      <c r="AW69" s="91" t="str">
+      <c r="AW69" s="91">
         <f t="shared" si="14"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AX69" s="107"/>
       <c r="AY69" s="91" t="str">
@@ -21824,9 +22042,9 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="BB69" s="94" t="str">
+      <c r="BB69" s="94">
         <f t="shared" si="17"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BC69" s="97">
         <f t="shared" si="18"/>
@@ -21978,13 +22196,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="107"/>
-      <c r="H70" s="91" t="e">
+      <c r="H70" s="91">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I70" s="94" t="str">
+        <v>0</v>
+      </c>
+      <c r="I70" s="94">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J70" s="107"/>
       <c r="K70" s="91">
@@ -21997,14 +22215,14 @@
         <v>0</v>
       </c>
       <c r="N70" s="107"/>
-      <c r="O70" s="91" t="str">
+      <c r="O70" s="91">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P70" s="107"/>
-      <c r="Q70" s="91" t="str">
+      <c r="Q70" s="91">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R70" s="107"/>
       <c r="S70" s="91" t="str">
@@ -22039,9 +22257,9 @@
         <v>0</v>
       </c>
       <c r="AO70" s="107"/>
-      <c r="AP70" s="91" t="str">
+      <c r="AP70" s="91">
         <f t="shared" si="10"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AQ70" s="107"/>
       <c r="AR70" s="91" t="str">
@@ -22053,14 +22271,14 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AU70" s="94" t="str">
+      <c r="AU70" s="94">
         <f t="shared" si="13"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AV70" s="107"/>
-      <c r="AW70" s="91" t="str">
+      <c r="AW70" s="91">
         <f t="shared" si="14"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AX70" s="107"/>
       <c r="AY70" s="91" t="str">
@@ -22072,9 +22290,9 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="BB70" s="94" t="str">
+      <c r="BB70" s="94">
         <f t="shared" si="17"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BC70" s="97">
         <f t="shared" si="18"/>
@@ -22509,29 +22727,29 @@
         <f>'RAW GRADES'!F10</f>
         <v>12.857142857142856</v>
       </c>
-      <c r="D8" s="88" t="str">
+      <c r="D8" s="88">
         <f>'RAW GRADES'!I10</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E8" s="51">
         <f>'RAW GRADES'!AN10</f>
+        <v>8.7142857142857135</v>
+      </c>
+      <c r="F8" s="51">
+        <f>'RAW GRADES'!AU10</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="51">
+        <f>'RAW GRADES'!BB10</f>
         <v>10</v>
-      </c>
-      <c r="F8" s="51" t="str">
-        <f>'RAW GRADES'!AU10</f>
-        <v/>
-      </c>
-      <c r="G8" s="51" t="str">
-        <f>'RAW GRADES'!BB10</f>
-        <v/>
       </c>
       <c r="H8" s="52">
         <f>'RAW GRADES'!BC10</f>
-        <v>22.857142857142854</v>
+        <v>31.571428571428569</v>
       </c>
       <c r="I8" s="52">
         <f>'RAW GRADES'!BD10</f>
-        <v>22.86</v>
+        <v>31.57</v>
       </c>
       <c r="J8" s="51" t="str">
         <f>'RAW GRADES'!BK10</f>
@@ -22551,7 +22769,7 @@
       </c>
       <c r="N8" s="54">
         <f>'RAW GRADES'!CS10</f>
-        <v>9.1440000000000001</v>
+        <v>12.628</v>
       </c>
       <c r="O8" s="55">
         <f>'RAW GRADES'!CT10</f>
@@ -22574,29 +22792,29 @@
         <f>'RAW GRADES'!F11</f>
         <v>17.142857142857142</v>
       </c>
-      <c r="D9" s="88" t="str">
+      <c r="D9" s="88">
         <f>'RAW GRADES'!I11</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E9" s="51">
         <f>'RAW GRADES'!AN11</f>
-        <v>10.3</v>
-      </c>
-      <c r="F9" s="51" t="str">
+        <v>13.054761904761904</v>
+      </c>
+      <c r="F9" s="51">
         <f>'RAW GRADES'!AU11</f>
-        <v/>
-      </c>
-      <c r="G9" s="51" t="str">
+        <v>0</v>
+      </c>
+      <c r="G9" s="51">
         <f>'RAW GRADES'!BB11</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="H9" s="52">
         <f>'RAW GRADES'!BC11</f>
-        <v>27.442857142857143</v>
+        <v>40.197619047619042</v>
       </c>
       <c r="I9" s="52">
         <f>'RAW GRADES'!BD11</f>
-        <v>27.44</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="J9" s="51" t="str">
         <f>'RAW GRADES'!BK11</f>
@@ -22616,7 +22834,7 @@
       </c>
       <c r="N9" s="57">
         <f>'RAW GRADES'!CS11</f>
-        <v>10.976000000000001</v>
+        <v>16.080000000000002</v>
       </c>
       <c r="O9" s="55">
         <f>'RAW GRADES'!CT11</f>
@@ -22639,29 +22857,29 @@
         <f>'RAW GRADES'!F12</f>
         <v>16.285714285714285</v>
       </c>
-      <c r="D10" s="88" t="str">
+      <c r="D10" s="88">
         <f>'RAW GRADES'!I12</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E10" s="51">
         <f>'RAW GRADES'!AN12</f>
-        <v>11.9</v>
-      </c>
-      <c r="F10" s="51" t="str">
+        <v>15.521428571428572</v>
+      </c>
+      <c r="F10" s="51">
         <f>'RAW GRADES'!AU12</f>
-        <v/>
-      </c>
-      <c r="G10" s="51" t="str">
+        <v>0</v>
+      </c>
+      <c r="G10" s="51">
         <f>'RAW GRADES'!BB12</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="H10" s="52">
         <f>'RAW GRADES'!BC12</f>
-        <v>28.185714285714283</v>
+        <v>41.807142857142857</v>
       </c>
       <c r="I10" s="52">
         <f>'RAW GRADES'!BD12</f>
-        <v>28.19</v>
+        <v>41.81</v>
       </c>
       <c r="J10" s="51" t="str">
         <f>'RAW GRADES'!BK12</f>
@@ -22681,7 +22899,7 @@
       </c>
       <c r="N10" s="57">
         <f>'RAW GRADES'!CS12</f>
-        <v>11.276000000000002</v>
+        <v>16.724</v>
       </c>
       <c r="O10" s="55">
         <f>'RAW GRADES'!CT12</f>
@@ -22704,29 +22922,29 @@
         <f>'RAW GRADES'!F13</f>
         <v>16.285714285714285</v>
       </c>
-      <c r="D11" s="88" t="str">
+      <c r="D11" s="88">
         <f>'RAW GRADES'!I13</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E11" s="51">
         <f>'RAW GRADES'!AN13</f>
-        <v>11.700000000000001</v>
-      </c>
-      <c r="F11" s="51" t="str">
+        <v>5.8500000000000005</v>
+      </c>
+      <c r="F11" s="51">
         <f>'RAW GRADES'!AU13</f>
-        <v/>
-      </c>
-      <c r="G11" s="51" t="str">
+        <v>0</v>
+      </c>
+      <c r="G11" s="51">
         <f>'RAW GRADES'!BB13</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="H11" s="52">
         <f>'RAW GRADES'!BC13</f>
-        <v>27.985714285714288</v>
+        <v>32.135714285714286</v>
       </c>
       <c r="I11" s="52">
         <f>'RAW GRADES'!BD13</f>
-        <v>27.99</v>
+        <v>32.14</v>
       </c>
       <c r="J11" s="51" t="str">
         <f>'RAW GRADES'!BK13</f>
@@ -22746,7 +22964,7 @@
       </c>
       <c r="N11" s="57">
         <f>'RAW GRADES'!CS13</f>
-        <v>11.196</v>
+        <v>12.856000000000002</v>
       </c>
       <c r="O11" s="55">
         <f>'RAW GRADES'!CT13</f>
@@ -22769,29 +22987,29 @@
         <f>'RAW GRADES'!F14</f>
         <v>13.714285714285714</v>
       </c>
-      <c r="D12" s="88" t="str">
+      <c r="D12" s="88">
         <f>'RAW GRADES'!I14</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E12" s="51">
         <f>'RAW GRADES'!AN14</f>
+        <v>5</v>
+      </c>
+      <c r="F12" s="51">
+        <f>'RAW GRADES'!AU14</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="51">
+        <f>'RAW GRADES'!BB14</f>
         <v>10</v>
-      </c>
-      <c r="F12" s="51" t="str">
-        <f>'RAW GRADES'!AU14</f>
-        <v/>
-      </c>
-      <c r="G12" s="51" t="str">
-        <f>'RAW GRADES'!BB14</f>
-        <v/>
       </c>
       <c r="H12" s="52">
         <f>'RAW GRADES'!BC14</f>
-        <v>23.714285714285715</v>
+        <v>28.714285714285715</v>
       </c>
       <c r="I12" s="52">
         <f>'RAW GRADES'!BD14</f>
-        <v>23.71</v>
+        <v>28.71</v>
       </c>
       <c r="J12" s="51" t="str">
         <f>'RAW GRADES'!BK14</f>
@@ -22811,7 +23029,7 @@
       </c>
       <c r="N12" s="57">
         <f>'RAW GRADES'!CS14</f>
-        <v>9.484</v>
+        <v>11.484000000000002</v>
       </c>
       <c r="O12" s="55">
         <f>'RAW GRADES'!CT14</f>
@@ -22834,29 +23052,29 @@
         <f>'RAW GRADES'!F15</f>
         <v>17.142857142857142</v>
       </c>
-      <c r="D13" s="88" t="str">
+      <c r="D13" s="88">
         <f>'RAW GRADES'!I15</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E13" s="51">
         <f>'RAW GRADES'!AN15</f>
-        <v>12.200000000000001</v>
-      </c>
-      <c r="F13" s="51" t="str">
+        <v>6.1000000000000005</v>
+      </c>
+      <c r="F13" s="51">
         <f>'RAW GRADES'!AU15</f>
-        <v/>
-      </c>
-      <c r="G13" s="51" t="str">
+        <v>0</v>
+      </c>
+      <c r="G13" s="51">
         <f>'RAW GRADES'!BB15</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="H13" s="52">
         <f>'RAW GRADES'!BC15</f>
-        <v>29.342857142857142</v>
+        <v>33.242857142857147</v>
       </c>
       <c r="I13" s="52">
         <f>'RAW GRADES'!BD15</f>
-        <v>29.34</v>
+        <v>33.24</v>
       </c>
       <c r="J13" s="51" t="str">
         <f>'RAW GRADES'!BK15</f>
@@ -22876,7 +23094,7 @@
       </c>
       <c r="N13" s="57">
         <f>'RAW GRADES'!CS15</f>
-        <v>11.736000000000001</v>
+        <v>13.296000000000001</v>
       </c>
       <c r="O13" s="55">
         <f>'RAW GRADES'!CT15</f>
@@ -22899,29 +23117,29 @@
         <f>'RAW GRADES'!F16</f>
         <v>21</v>
       </c>
-      <c r="D14" s="88" t="str">
+      <c r="D14" s="88">
         <f>'RAW GRADES'!I16</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E14" s="51">
         <f>'RAW GRADES'!AN16</f>
-        <v>12.700000000000001</v>
-      </c>
-      <c r="F14" s="51" t="str">
+        <v>10.683333333333334</v>
+      </c>
+      <c r="F14" s="51">
         <f>'RAW GRADES'!AU16</f>
-        <v/>
-      </c>
-      <c r="G14" s="51" t="str">
+        <v>0</v>
+      </c>
+      <c r="G14" s="51">
         <f>'RAW GRADES'!BB16</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="H14" s="52">
         <f>'RAW GRADES'!BC16</f>
-        <v>33.700000000000003</v>
+        <v>41.683333333333337</v>
       </c>
       <c r="I14" s="52">
         <f>'RAW GRADES'!BD16</f>
-        <v>33.700000000000003</v>
+        <v>41.68</v>
       </c>
       <c r="J14" s="51" t="str">
         <f>'RAW GRADES'!BK16</f>
@@ -22941,7 +23159,7 @@
       </c>
       <c r="N14" s="57">
         <f>'RAW GRADES'!CS16</f>
-        <v>13.480000000000002</v>
+        <v>16.672000000000001</v>
       </c>
       <c r="O14" s="55">
         <f>'RAW GRADES'!CT16</f>
@@ -22964,29 +23182,29 @@
         <f>'RAW GRADES'!F17</f>
         <v>21.428571428571427</v>
       </c>
-      <c r="D15" s="88" t="str">
+      <c r="D15" s="88">
         <f>'RAW GRADES'!I17</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E15" s="51">
         <f>'RAW GRADES'!AN17</f>
-        <v>15.100000000000001</v>
-      </c>
-      <c r="F15" s="51" t="str">
+        <v>16.311904761904763</v>
+      </c>
+      <c r="F15" s="51">
         <f>'RAW GRADES'!AU17</f>
-        <v/>
-      </c>
-      <c r="G15" s="51" t="str">
+        <v>0</v>
+      </c>
+      <c r="G15" s="51">
         <f>'RAW GRADES'!BB17</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="H15" s="52">
         <f>'RAW GRADES'!BC17</f>
-        <v>36.528571428571425</v>
+        <v>47.740476190476187</v>
       </c>
       <c r="I15" s="52">
         <f>'RAW GRADES'!BD17</f>
-        <v>36.53</v>
+        <v>47.74</v>
       </c>
       <c r="J15" s="51" t="str">
         <f>'RAW GRADES'!BK17</f>
@@ -23006,7 +23224,7 @@
       </c>
       <c r="N15" s="57">
         <f>'RAW GRADES'!CS17</f>
-        <v>14.612000000000002</v>
+        <v>19.096</v>
       </c>
       <c r="O15" s="55">
         <f>'RAW GRADES'!CT17</f>
@@ -23029,29 +23247,29 @@
         <f>'RAW GRADES'!F18</f>
         <v>22.285714285714288</v>
       </c>
-      <c r="D16" s="88" t="str">
+      <c r="D16" s="88">
         <f>'RAW GRADES'!I18</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E16" s="51">
         <f>'RAW GRADES'!AN18</f>
-        <v>15.600000000000001</v>
-      </c>
-      <c r="F16" s="51" t="str">
+        <v>15.323809523809524</v>
+      </c>
+      <c r="F16" s="51">
         <f>'RAW GRADES'!AU18</f>
-        <v/>
-      </c>
-      <c r="G16" s="51" t="str">
+        <v>0</v>
+      </c>
+      <c r="G16" s="51">
         <f>'RAW GRADES'!BB18</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="H16" s="52">
         <f>'RAW GRADES'!BC18</f>
-        <v>37.885714285714286</v>
+        <v>47.609523809523807</v>
       </c>
       <c r="I16" s="52">
         <f>'RAW GRADES'!BD18</f>
-        <v>37.89</v>
+        <v>47.61</v>
       </c>
       <c r="J16" s="51" t="str">
         <f>'RAW GRADES'!BK18</f>
@@ -23071,7 +23289,7 @@
       </c>
       <c r="N16" s="57">
         <f>'RAW GRADES'!CS18</f>
-        <v>15.156000000000001</v>
+        <v>19.044</v>
       </c>
       <c r="O16" s="55">
         <f>'RAW GRADES'!CT18</f>
@@ -23094,29 +23312,29 @@
         <f>'RAW GRADES'!F19</f>
         <v>18.428571428571427</v>
       </c>
-      <c r="D17" s="88" t="str">
+      <c r="D17" s="88">
         <f>'RAW GRADES'!I19</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E17" s="51">
         <f>'RAW GRADES'!AN19</f>
-        <v>13.600000000000001</v>
-      </c>
-      <c r="F17" s="51" t="str">
+        <v>9.1333333333333329</v>
+      </c>
+      <c r="F17" s="51">
         <f>'RAW GRADES'!AU19</f>
-        <v/>
-      </c>
-      <c r="G17" s="51" t="str">
+        <v>0</v>
+      </c>
+      <c r="G17" s="51">
         <f>'RAW GRADES'!BB19</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="H17" s="52">
         <f>'RAW GRADES'!BC19</f>
-        <v>32.028571428571425</v>
+        <v>37.561904761904756</v>
       </c>
       <c r="I17" s="52">
         <f>'RAW GRADES'!BD19</f>
-        <v>32.03</v>
+        <v>37.56</v>
       </c>
       <c r="J17" s="51" t="str">
         <f>'RAW GRADES'!BK19</f>
@@ -23136,7 +23354,7 @@
       </c>
       <c r="N17" s="57">
         <f>'RAW GRADES'!CS19</f>
-        <v>12.812000000000001</v>
+        <v>15.024000000000001</v>
       </c>
       <c r="O17" s="55">
         <f>'RAW GRADES'!CT19</f>
@@ -23159,29 +23377,29 @@
         <f>'RAW GRADES'!F20</f>
         <v>22.714285714285712</v>
       </c>
-      <c r="D18" s="88" t="str">
+      <c r="D18" s="88">
         <f>'RAW GRADES'!I20</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E18" s="51">
         <f>'RAW GRADES'!AN20</f>
-        <v>0</v>
-      </c>
-      <c r="F18" s="51" t="str">
+        <v>14.011904761904759</v>
+      </c>
+      <c r="F18" s="51">
         <f>'RAW GRADES'!AU20</f>
-        <v/>
-      </c>
-      <c r="G18" s="51" t="str">
+        <v>0</v>
+      </c>
+      <c r="G18" s="51">
         <f>'RAW GRADES'!BB20</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="H18" s="52">
         <f>'RAW GRADES'!BC20</f>
-        <v>22.714285714285712</v>
+        <v>46.726190476190467</v>
       </c>
       <c r="I18" s="52">
         <f>'RAW GRADES'!BD20</f>
-        <v>22.71</v>
+        <v>46.73</v>
       </c>
       <c r="J18" s="51" t="str">
         <f>'RAW GRADES'!BK20</f>
@@ -23201,7 +23419,7 @@
       </c>
       <c r="N18" s="57">
         <f>'RAW GRADES'!CS20</f>
-        <v>9.0840000000000014</v>
+        <v>18.692</v>
       </c>
       <c r="O18" s="55">
         <f>'RAW GRADES'!CT20</f>
@@ -23224,29 +23442,29 @@
         <f>'RAW GRADES'!F21</f>
         <v>16.714285714285715</v>
       </c>
-      <c r="D19" s="88" t="str">
+      <c r="D19" s="88">
         <f>'RAW GRADES'!I21</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E19" s="51">
         <f>'RAW GRADES'!AN21</f>
-        <v>12.3</v>
-      </c>
-      <c r="F19" s="51" t="str">
+        <v>9.15</v>
+      </c>
+      <c r="F19" s="51">
         <f>'RAW GRADES'!AU21</f>
-        <v/>
-      </c>
-      <c r="G19" s="51" t="str">
+        <v>0</v>
+      </c>
+      <c r="G19" s="51">
         <f>'RAW GRADES'!BB21</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="H19" s="52">
         <f>'RAW GRADES'!BC21</f>
-        <v>29.014285714285716</v>
+        <v>35.864285714285714</v>
       </c>
       <c r="I19" s="52">
         <f>'RAW GRADES'!BD21</f>
-        <v>29.01</v>
+        <v>35.86</v>
       </c>
       <c r="J19" s="51" t="str">
         <f>'RAW GRADES'!BK21</f>
@@ -23266,7 +23484,7 @@
       </c>
       <c r="N19" s="57">
         <f>'RAW GRADES'!CS21</f>
-        <v>11.604000000000001</v>
+        <v>14.344000000000001</v>
       </c>
       <c r="O19" s="55">
         <f>'RAW GRADES'!CT21</f>
@@ -23289,29 +23507,29 @@
         <f>'RAW GRADES'!F22</f>
         <v>21.857142857142854</v>
       </c>
-      <c r="D20" s="88" t="str">
+      <c r="D20" s="88">
         <f>'RAW GRADES'!I22</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E20" s="51">
         <f>'RAW GRADES'!AN22</f>
-        <v>13.3</v>
-      </c>
-      <c r="F20" s="51" t="str">
+        <v>8.3642857142857139</v>
+      </c>
+      <c r="F20" s="51">
         <f>'RAW GRADES'!AU22</f>
-        <v/>
-      </c>
-      <c r="G20" s="51" t="str">
+        <v>0</v>
+      </c>
+      <c r="G20" s="51">
         <f>'RAW GRADES'!BB22</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="H20" s="52">
         <f>'RAW GRADES'!BC22</f>
-        <v>35.157142857142858</v>
+        <v>40.221428571428568</v>
       </c>
       <c r="I20" s="52">
         <f>'RAW GRADES'!BD22</f>
-        <v>35.159999999999997</v>
+        <v>40.22</v>
       </c>
       <c r="J20" s="51" t="str">
         <f>'RAW GRADES'!BK22</f>
@@ -23331,7 +23549,7 @@
       </c>
       <c r="N20" s="57">
         <f>'RAW GRADES'!CS22</f>
-        <v>14.064</v>
+        <v>16.088000000000001</v>
       </c>
       <c r="O20" s="55">
         <f>'RAW GRADES'!CT22</f>
@@ -23354,29 +23572,29 @@
         <f>'RAW GRADES'!F23</f>
         <v>23.571428571428569</v>
       </c>
-      <c r="D21" s="88" t="str">
+      <c r="D21" s="88">
         <f>'RAW GRADES'!I23</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E21" s="51">
         <f>'RAW GRADES'!AN23</f>
-        <v>15.8</v>
-      </c>
-      <c r="F21" s="51" t="str">
+        <v>16.233333333333334</v>
+      </c>
+      <c r="F21" s="51">
         <f>'RAW GRADES'!AU23</f>
-        <v/>
-      </c>
-      <c r="G21" s="51" t="str">
+        <v>0</v>
+      </c>
+      <c r="G21" s="51">
         <f>'RAW GRADES'!BB23</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="H21" s="52">
         <f>'RAW GRADES'!BC23</f>
-        <v>39.371428571428567</v>
+        <v>49.804761904761904</v>
       </c>
       <c r="I21" s="52">
         <f>'RAW GRADES'!BD23</f>
-        <v>39.369999999999997</v>
+        <v>49.8</v>
       </c>
       <c r="J21" s="51" t="str">
         <f>'RAW GRADES'!BK23</f>
@@ -23396,7 +23614,7 @@
       </c>
       <c r="N21" s="57">
         <f>'RAW GRADES'!CS23</f>
-        <v>15.747999999999999</v>
+        <v>19.920000000000002</v>
       </c>
       <c r="O21" s="55">
         <f>'RAW GRADES'!CT23</f>
@@ -23419,29 +23637,29 @@
         <f>'RAW GRADES'!F24</f>
         <v>20.571428571428569</v>
       </c>
-      <c r="D22" s="88" t="str">
+      <c r="D22" s="88">
         <f>'RAW GRADES'!I24</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E22" s="51">
         <f>'RAW GRADES'!AN24</f>
-        <v>13</v>
-      </c>
-      <c r="F22" s="51" t="str">
+        <v>12.452380952380954</v>
+      </c>
+      <c r="F22" s="51">
         <f>'RAW GRADES'!AU24</f>
-        <v/>
-      </c>
-      <c r="G22" s="51" t="str">
+        <v>0</v>
+      </c>
+      <c r="G22" s="51">
         <f>'RAW GRADES'!BB24</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="H22" s="52">
         <f>'RAW GRADES'!BC24</f>
-        <v>33.571428571428569</v>
+        <v>43.023809523809526</v>
       </c>
       <c r="I22" s="52">
         <f>'RAW GRADES'!BD24</f>
-        <v>33.57</v>
+        <v>43.02</v>
       </c>
       <c r="J22" s="51" t="str">
         <f>'RAW GRADES'!BK24</f>
@@ -23461,7 +23679,7 @@
       </c>
       <c r="N22" s="57">
         <f>'RAW GRADES'!CS24</f>
-        <v>13.428000000000001</v>
+        <v>17.208000000000002</v>
       </c>
       <c r="O22" s="55">
         <f>'RAW GRADES'!CT24</f>
@@ -23484,29 +23702,29 @@
         <f>'RAW GRADES'!F25</f>
         <v>18.428571428571427</v>
       </c>
-      <c r="D23" s="88" t="str">
+      <c r="D23" s="88">
         <f>'RAW GRADES'!I25</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E23" s="51">
         <f>'RAW GRADES'!AN25</f>
-        <v>10.5</v>
-      </c>
-      <c r="F23" s="51" t="str">
+        <v>11.964285714285715</v>
+      </c>
+      <c r="F23" s="51">
         <f>'RAW GRADES'!AU25</f>
-        <v/>
-      </c>
-      <c r="G23" s="51" t="str">
+        <v>0</v>
+      </c>
+      <c r="G23" s="51">
         <f>'RAW GRADES'!BB25</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="H23" s="52">
         <f>'RAW GRADES'!BC25</f>
-        <v>28.928571428571427</v>
+        <v>40.392857142857139</v>
       </c>
       <c r="I23" s="52">
         <f>'RAW GRADES'!BD25</f>
-        <v>28.93</v>
+        <v>40.39</v>
       </c>
       <c r="J23" s="51" t="str">
         <f>'RAW GRADES'!BK25</f>
@@ -23526,7 +23744,7 @@
       </c>
       <c r="N23" s="57">
         <f>'RAW GRADES'!CS25</f>
-        <v>11.572000000000001</v>
+        <v>16.156000000000002</v>
       </c>
       <c r="O23" s="55">
         <f>'RAW GRADES'!CT25</f>
@@ -23549,29 +23767,29 @@
         <f>'RAW GRADES'!F26</f>
         <v>17.571428571428573</v>
       </c>
-      <c r="D24" s="88" t="str">
+      <c r="D24" s="88">
         <f>'RAW GRADES'!I26</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E24" s="51">
         <f>'RAW GRADES'!AN26</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="51" t="str">
+        <v>14.792857142857144</v>
+      </c>
+      <c r="F24" s="51">
         <f>'RAW GRADES'!AU26</f>
-        <v/>
-      </c>
-      <c r="G24" s="51" t="str">
+        <v>0</v>
+      </c>
+      <c r="G24" s="51">
         <f>'RAW GRADES'!BB26</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="H24" s="52">
         <f>'RAW GRADES'!BC26</f>
-        <v>17.571428571428573</v>
+        <v>42.364285714285714</v>
       </c>
       <c r="I24" s="52">
         <f>'RAW GRADES'!BD26</f>
-        <v>17.57</v>
+        <v>42.36</v>
       </c>
       <c r="J24" s="51" t="str">
         <f>'RAW GRADES'!BK26</f>
@@ -23591,7 +23809,7 @@
       </c>
       <c r="N24" s="57">
         <f>'RAW GRADES'!CS26</f>
-        <v>7.0280000000000005</v>
+        <v>16.943999999999999</v>
       </c>
       <c r="O24" s="55">
         <f>'RAW GRADES'!CT26</f>
@@ -23614,29 +23832,29 @@
         <f>'RAW GRADES'!F27</f>
         <v>20.571428571428569</v>
       </c>
-      <c r="D25" s="88" t="str">
+      <c r="D25" s="88">
         <f>'RAW GRADES'!I27</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E25" s="51">
         <f>'RAW GRADES'!AN27</f>
-        <v>11.9</v>
-      </c>
-      <c r="F25" s="51" t="str">
+        <v>10.664285714285715</v>
+      </c>
+      <c r="F25" s="51">
         <f>'RAW GRADES'!AU27</f>
-        <v/>
-      </c>
-      <c r="G25" s="51" t="str">
+        <v>0</v>
+      </c>
+      <c r="G25" s="51">
         <f>'RAW GRADES'!BB27</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="H25" s="52">
         <f>'RAW GRADES'!BC27</f>
-        <v>32.471428571428568</v>
+        <v>41.23571428571428</v>
       </c>
       <c r="I25" s="52">
         <f>'RAW GRADES'!BD27</f>
-        <v>32.47</v>
+        <v>41.24</v>
       </c>
       <c r="J25" s="51" t="str">
         <f>'RAW GRADES'!BK27</f>
@@ -23656,7 +23874,7 @@
       </c>
       <c r="N25" s="57">
         <f>'RAW GRADES'!CS27</f>
-        <v>12.988</v>
+        <v>16.496000000000002</v>
       </c>
       <c r="O25" s="55">
         <f>'RAW GRADES'!CT27</f>
@@ -23679,29 +23897,29 @@
         <f>'RAW GRADES'!F28</f>
         <v>26.571428571428569</v>
       </c>
-      <c r="D26" s="88" t="str">
+      <c r="D26" s="88">
         <f>'RAW GRADES'!I28</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E26" s="51">
         <f>'RAW GRADES'!AN28</f>
-        <v>17.400000000000002</v>
-      </c>
-      <c r="F26" s="51" t="str">
+        <v>17.604761904761908</v>
+      </c>
+      <c r="F26" s="51">
         <f>'RAW GRADES'!AU28</f>
-        <v/>
-      </c>
-      <c r="G26" s="51" t="str">
+        <v>0</v>
+      </c>
+      <c r="G26" s="51">
         <f>'RAW GRADES'!BB28</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="H26" s="52">
         <f>'RAW GRADES'!BC28</f>
-        <v>43.971428571428575</v>
+        <v>54.176190476190477</v>
       </c>
       <c r="I26" s="52">
         <f>'RAW GRADES'!BD28</f>
-        <v>43.97</v>
+        <v>54.18</v>
       </c>
       <c r="J26" s="51" t="str">
         <f>'RAW GRADES'!BK28</f>
@@ -23721,7 +23939,7 @@
       </c>
       <c r="N26" s="57">
         <f>'RAW GRADES'!CS28</f>
-        <v>17.588000000000001</v>
+        <v>21.672000000000001</v>
       </c>
       <c r="O26" s="55">
         <f>'RAW GRADES'!CT28</f>
@@ -23744,29 +23962,29 @@
         <f>'RAW GRADES'!F29</f>
         <v>25.714285714285712</v>
       </c>
-      <c r="D27" s="88" t="str">
+      <c r="D27" s="88">
         <f>'RAW GRADES'!I29</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E27" s="51">
         <f>'RAW GRADES'!AN29</f>
-        <v>17.900000000000002</v>
-      </c>
-      <c r="F27" s="51" t="str">
+        <v>13.902380952380952</v>
+      </c>
+      <c r="F27" s="51">
         <f>'RAW GRADES'!AU29</f>
-        <v/>
-      </c>
-      <c r="G27" s="51" t="str">
+        <v>0</v>
+      </c>
+      <c r="G27" s="51">
         <f>'RAW GRADES'!BB29</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="H27" s="52">
         <f>'RAW GRADES'!BC29</f>
-        <v>43.614285714285714</v>
+        <v>49.61666666666666</v>
       </c>
       <c r="I27" s="52">
         <f>'RAW GRADES'!BD29</f>
-        <v>43.61</v>
+        <v>49.62</v>
       </c>
       <c r="J27" s="51" t="str">
         <f>'RAW GRADES'!BK29</f>
@@ -23786,7 +24004,7 @@
       </c>
       <c r="N27" s="57">
         <f>'RAW GRADES'!CS29</f>
-        <v>17.443999999999999</v>
+        <v>19.847999999999999</v>
       </c>
       <c r="O27" s="55">
         <f>'RAW GRADES'!CT29</f>
@@ -23809,29 +24027,29 @@
         <f>'RAW GRADES'!F30</f>
         <v>20.571428571428569</v>
       </c>
-      <c r="D28" s="88" t="str">
+      <c r="D28" s="88">
         <f>'RAW GRADES'!I30</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E28" s="51">
         <f>'RAW GRADES'!AN30</f>
-        <v>13.3</v>
-      </c>
-      <c r="F28" s="51" t="str">
+        <v>15.221428571428573</v>
+      </c>
+      <c r="F28" s="51">
         <f>'RAW GRADES'!AU30</f>
-        <v/>
-      </c>
-      <c r="G28" s="51" t="str">
+        <v>0</v>
+      </c>
+      <c r="G28" s="51">
         <f>'RAW GRADES'!BB30</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="H28" s="52">
         <f>'RAW GRADES'!BC30</f>
-        <v>33.871428571428567</v>
+        <v>45.792857142857144</v>
       </c>
       <c r="I28" s="52">
         <f>'RAW GRADES'!BD30</f>
-        <v>33.869999999999997</v>
+        <v>45.79</v>
       </c>
       <c r="J28" s="51" t="str">
         <f>'RAW GRADES'!BK30</f>
@@ -23851,7 +24069,7 @@
       </c>
       <c r="N28" s="57">
         <f>'RAW GRADES'!CS30</f>
-        <v>13.548</v>
+        <v>18.315999999999999</v>
       </c>
       <c r="O28" s="55">
         <f>'RAW GRADES'!CT30</f>
@@ -23874,29 +24092,29 @@
         <f>'RAW GRADES'!F31</f>
         <v>21.428571428571427</v>
       </c>
-      <c r="D29" s="88" t="str">
+      <c r="D29" s="88">
         <f>'RAW GRADES'!I31</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E29" s="51">
         <f>'RAW GRADES'!AN31</f>
-        <v>13.100000000000001</v>
-      </c>
-      <c r="F29" s="51" t="str">
+        <v>14.31190476190476</v>
+      </c>
+      <c r="F29" s="51">
         <f>'RAW GRADES'!AU31</f>
-        <v/>
-      </c>
-      <c r="G29" s="51" t="str">
+        <v>0</v>
+      </c>
+      <c r="G29" s="51">
         <f>'RAW GRADES'!BB31</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="H29" s="52">
         <f>'RAW GRADES'!BC31</f>
-        <v>34.528571428571425</v>
+        <v>45.740476190476187</v>
       </c>
       <c r="I29" s="52">
         <f>'RAW GRADES'!BD31</f>
-        <v>34.53</v>
+        <v>45.74</v>
       </c>
       <c r="J29" s="51" t="str">
         <f>'RAW GRADES'!BK31</f>
@@ -23916,7 +24134,7 @@
       </c>
       <c r="N29" s="57">
         <f>'RAW GRADES'!CS31</f>
-        <v>13.812000000000001</v>
+        <v>18.296000000000003</v>
       </c>
       <c r="O29" s="55">
         <f>'RAW GRADES'!CT31</f>
@@ -23939,29 +24157,29 @@
         <f>'RAW GRADES'!F32</f>
         <v>25.714285714285712</v>
       </c>
-      <c r="D30" s="88" t="str">
+      <c r="D30" s="88">
         <f>'RAW GRADES'!I32</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E30" s="51">
         <f>'RAW GRADES'!AN32</f>
-        <v>16.600000000000001</v>
-      </c>
-      <c r="F30" s="51" t="str">
+        <v>16.633333333333336</v>
+      </c>
+      <c r="F30" s="51">
         <f>'RAW GRADES'!AU32</f>
-        <v/>
-      </c>
-      <c r="G30" s="51" t="str">
+        <v>0</v>
+      </c>
+      <c r="G30" s="51">
         <f>'RAW GRADES'!BB32</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="H30" s="52">
         <f>'RAW GRADES'!BC32</f>
-        <v>42.314285714285717</v>
+        <v>52.347619047619048</v>
       </c>
       <c r="I30" s="52">
         <f>'RAW GRADES'!BD32</f>
-        <v>42.31</v>
+        <v>52.35</v>
       </c>
       <c r="J30" s="51" t="str">
         <f>'RAW GRADES'!BK32</f>
@@ -23981,7 +24199,7 @@
       </c>
       <c r="N30" s="57">
         <f>'RAW GRADES'!CS32</f>
-        <v>16.924000000000003</v>
+        <v>20.94</v>
       </c>
       <c r="O30" s="55">
         <f>'RAW GRADES'!CT32</f>
@@ -24004,29 +24222,29 @@
         <f>'RAW GRADES'!F33</f>
         <v>14.571428571428569</v>
       </c>
-      <c r="D31" s="88" t="str">
+      <c r="D31" s="88">
         <f>'RAW GRADES'!I33</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E31" s="51">
         <f>'RAW GRADES'!AN33</f>
-        <v>9.4</v>
-      </c>
-      <c r="F31" s="51" t="str">
+        <v>13.064285714285715</v>
+      </c>
+      <c r="F31" s="51">
         <f>'RAW GRADES'!AU33</f>
-        <v/>
-      </c>
-      <c r="G31" s="51" t="str">
+        <v>0</v>
+      </c>
+      <c r="G31" s="51">
         <f>'RAW GRADES'!BB33</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="H31" s="52">
         <f>'RAW GRADES'!BC33</f>
-        <v>23.971428571428568</v>
+        <v>37.635714285714286</v>
       </c>
       <c r="I31" s="52">
         <f>'RAW GRADES'!BD33</f>
-        <v>23.97</v>
+        <v>37.64</v>
       </c>
       <c r="J31" s="51" t="str">
         <f>'RAW GRADES'!BK33</f>
@@ -24046,7 +24264,7 @@
       </c>
       <c r="N31" s="57">
         <f>'RAW GRADES'!CS33</f>
-        <v>9.5879999999999992</v>
+        <v>15.056000000000001</v>
       </c>
       <c r="O31" s="55">
         <f>'RAW GRADES'!CT33</f>
@@ -24069,29 +24287,29 @@
         <f>'RAW GRADES'!F34</f>
         <v>18</v>
       </c>
-      <c r="D32" s="88" t="str">
+      <c r="D32" s="88">
         <f>'RAW GRADES'!I34</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E32" s="51">
         <f>'RAW GRADES'!AN34</f>
-        <v>11.600000000000001</v>
-      </c>
-      <c r="F32" s="51" t="str">
+        <v>9.7523809523809533</v>
+      </c>
+      <c r="F32" s="51">
         <f>'RAW GRADES'!AU34</f>
-        <v/>
-      </c>
-      <c r="G32" s="51" t="str">
+        <v>0</v>
+      </c>
+      <c r="G32" s="51">
         <f>'RAW GRADES'!BB34</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="H32" s="52">
         <f>'RAW GRADES'!BC34</f>
-        <v>29.6</v>
+        <v>37.752380952380953</v>
       </c>
       <c r="I32" s="52">
         <f>'RAW GRADES'!BD34</f>
-        <v>29.6</v>
+        <v>37.75</v>
       </c>
       <c r="J32" s="51" t="str">
         <f>'RAW GRADES'!BK34</f>
@@ -24111,7 +24329,7 @@
       </c>
       <c r="N32" s="57">
         <f>'RAW GRADES'!CS34</f>
-        <v>11.840000000000002</v>
+        <v>15.100000000000001</v>
       </c>
       <c r="O32" s="55">
         <f>'RAW GRADES'!CT34</f>
@@ -24134,29 +24352,29 @@
         <f>'RAW GRADES'!F35</f>
         <v>15.857142857142858</v>
       </c>
-      <c r="D33" s="88" t="str">
+      <c r="D33" s="88">
         <f>'RAW GRADES'!I35</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E33" s="51">
         <f>'RAW GRADES'!AN35</f>
-        <v>12.100000000000001</v>
-      </c>
-      <c r="F33" s="51" t="str">
+        <v>8.3833333333333329</v>
+      </c>
+      <c r="F33" s="51">
         <f>'RAW GRADES'!AU35</f>
-        <v/>
-      </c>
-      <c r="G33" s="51" t="str">
+        <v>0</v>
+      </c>
+      <c r="G33" s="51">
         <f>'RAW GRADES'!BB35</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="H33" s="52">
         <f>'RAW GRADES'!BC35</f>
-        <v>27.957142857142859</v>
+        <v>34.240476190476187</v>
       </c>
       <c r="I33" s="52">
         <f>'RAW GRADES'!BD35</f>
-        <v>27.96</v>
+        <v>34.24</v>
       </c>
       <c r="J33" s="51" t="str">
         <f>'RAW GRADES'!BK35</f>
@@ -24176,7 +24394,7 @@
       </c>
       <c r="N33" s="57">
         <f>'RAW GRADES'!CS35</f>
-        <v>11.184000000000001</v>
+        <v>13.696000000000002</v>
       </c>
       <c r="O33" s="55">
         <f>'RAW GRADES'!CT35</f>
@@ -24199,29 +24417,29 @@
         <f>'RAW GRADES'!F36</f>
         <v>16.285714285714285</v>
       </c>
-      <c r="D34" s="88" t="str">
+      <c r="D34" s="88">
         <f>'RAW GRADES'!I36</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E34" s="51">
         <f>'RAW GRADES'!AN36</f>
-        <v>0</v>
-      </c>
-      <c r="F34" s="51" t="str">
+        <v>5.8500000000000005</v>
+      </c>
+      <c r="F34" s="51">
         <f>'RAW GRADES'!AU36</f>
-        <v/>
-      </c>
-      <c r="G34" s="51" t="str">
+        <v>0</v>
+      </c>
+      <c r="G34" s="51">
         <f>'RAW GRADES'!BB36</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="H34" s="52">
         <f>'RAW GRADES'!BC36</f>
-        <v>16.285714285714285</v>
+        <v>32.135714285714286</v>
       </c>
       <c r="I34" s="52">
         <f>'RAW GRADES'!BD36</f>
-        <v>16.29</v>
+        <v>32.14</v>
       </c>
       <c r="J34" s="51" t="str">
         <f>'RAW GRADES'!BK36</f>
@@ -24241,7 +24459,7 @@
       </c>
       <c r="N34" s="57">
         <f>'RAW GRADES'!CS36</f>
-        <v>6.516</v>
+        <v>12.856000000000002</v>
       </c>
       <c r="O34" s="55">
         <f>'RAW GRADES'!CT36</f>
@@ -24264,29 +24482,29 @@
         <f>'RAW GRADES'!F37</f>
         <v>0</v>
       </c>
-      <c r="D35" s="88" t="str">
+      <c r="D35" s="88">
         <f>'RAW GRADES'!I37</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E35" s="51">
         <f>'RAW GRADES'!AN37</f>
-        <v>0</v>
-      </c>
-      <c r="F35" s="51" t="str">
+        <v>6.2857142857142856</v>
+      </c>
+      <c r="F35" s="51">
         <f>'RAW GRADES'!AU37</f>
-        <v/>
-      </c>
-      <c r="G35" s="51" t="str">
+        <v>0</v>
+      </c>
+      <c r="G35" s="51">
         <f>'RAW GRADES'!BB37</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="H35" s="52">
         <f>'RAW GRADES'!BC37</f>
-        <v>0</v>
+        <v>16.285714285714285</v>
       </c>
       <c r="I35" s="52">
         <f>'RAW GRADES'!BD37</f>
-        <v>0</v>
+        <v>16.29</v>
       </c>
       <c r="J35" s="51" t="str">
         <f>'RAW GRADES'!BK37</f>
@@ -24306,7 +24524,7 @@
       </c>
       <c r="N35" s="57">
         <f>'RAW GRADES'!CS37</f>
-        <v>0</v>
+        <v>6.516</v>
       </c>
       <c r="O35" s="55">
         <f>'RAW GRADES'!CT37</f>
@@ -24329,21 +24547,21 @@
         <f>'RAW GRADES'!F38</f>
         <v>0</v>
       </c>
-      <c r="D36" s="88" t="str">
+      <c r="D36" s="88">
         <f>'RAW GRADES'!I38</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E36" s="51">
         <f>'RAW GRADES'!AN38</f>
         <v>0</v>
       </c>
-      <c r="F36" s="51" t="str">
+      <c r="F36" s="51">
         <f>'RAW GRADES'!AU38</f>
-        <v/>
-      </c>
-      <c r="G36" s="51" t="str">
+        <v>0</v>
+      </c>
+      <c r="G36" s="51">
         <f>'RAW GRADES'!BB38</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H36" s="52">
         <f>'RAW GRADES'!BC38</f>
@@ -24394,29 +24612,29 @@
         <f>'RAW GRADES'!F39</f>
         <v>18.857142857142854</v>
       </c>
-      <c r="D37" s="88" t="str">
+      <c r="D37" s="88">
         <f>'RAW GRADES'!I39</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E37" s="51">
         <f>'RAW GRADES'!AN39</f>
-        <v>13.5</v>
-      </c>
-      <c r="F37" s="51" t="str">
+        <v>9.75</v>
+      </c>
+      <c r="F37" s="51">
         <f>'RAW GRADES'!AU39</f>
-        <v/>
-      </c>
-      <c r="G37" s="51" t="str">
+        <v>0</v>
+      </c>
+      <c r="G37" s="51">
         <f>'RAW GRADES'!BB39</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="H37" s="52">
         <f>'RAW GRADES'!BC39</f>
-        <v>32.357142857142854</v>
+        <v>38.607142857142854</v>
       </c>
       <c r="I37" s="52">
         <f>'RAW GRADES'!BD39</f>
-        <v>32.36</v>
+        <v>38.61</v>
       </c>
       <c r="J37" s="51" t="str">
         <f>'RAW GRADES'!BK39</f>
@@ -24436,7 +24654,7 @@
       </c>
       <c r="N37" s="57">
         <f>'RAW GRADES'!CS39</f>
-        <v>12.944000000000001</v>
+        <v>15.444000000000001</v>
       </c>
       <c r="O37" s="55">
         <f>'RAW GRADES'!CT39</f>
@@ -24459,29 +24677,29 @@
         <f>'RAW GRADES'!F40</f>
         <v>21.857142857142854</v>
       </c>
-      <c r="D38" s="88" t="str">
+      <c r="D38" s="88">
         <f>'RAW GRADES'!I40</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E38" s="51">
         <f>'RAW GRADES'!AN40</f>
-        <v>13.200000000000001</v>
-      </c>
-      <c r="F38" s="51" t="str">
+        <v>14.980952380952381</v>
+      </c>
+      <c r="F38" s="51">
         <f>'RAW GRADES'!AU40</f>
-        <v/>
-      </c>
-      <c r="G38" s="51" t="str">
+        <v>0</v>
+      </c>
+      <c r="G38" s="51">
         <f>'RAW GRADES'!BB40</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="H38" s="52">
         <f>'RAW GRADES'!BC40</f>
-        <v>35.057142857142857</v>
+        <v>46.838095238095235</v>
       </c>
       <c r="I38" s="52">
         <f>'RAW GRADES'!BD40</f>
-        <v>35.06</v>
+        <v>46.84</v>
       </c>
       <c r="J38" s="51" t="str">
         <f>'RAW GRADES'!BK40</f>
@@ -24501,7 +24719,7 @@
       </c>
       <c r="N38" s="57">
         <f>'RAW GRADES'!CS40</f>
-        <v>14.024000000000001</v>
+        <v>18.736000000000001</v>
       </c>
       <c r="O38" s="55">
         <f>'RAW GRADES'!CT40</f>
@@ -24524,29 +24742,29 @@
         <f>'RAW GRADES'!F41</f>
         <v>20.571428571428569</v>
       </c>
-      <c r="D39" s="88" t="str">
+      <c r="D39" s="88">
         <f>'RAW GRADES'!I41</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E39" s="51">
         <f>'RAW GRADES'!AN41</f>
-        <v>14.5</v>
-      </c>
-      <c r="F39" s="51" t="str">
+        <v>14.107142857142859</v>
+      </c>
+      <c r="F39" s="51">
         <f>'RAW GRADES'!AU41</f>
-        <v/>
-      </c>
-      <c r="G39" s="51" t="str">
+        <v>0</v>
+      </c>
+      <c r="G39" s="51">
         <f>'RAW GRADES'!BB41</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="H39" s="52">
         <f>'RAW GRADES'!BC41</f>
-        <v>35.071428571428569</v>
+        <v>44.678571428571431</v>
       </c>
       <c r="I39" s="52">
         <f>'RAW GRADES'!BD41</f>
-        <v>35.07</v>
+        <v>44.68</v>
       </c>
       <c r="J39" s="51" t="str">
         <f>'RAW GRADES'!BK41</f>
@@ -24566,7 +24784,7 @@
       </c>
       <c r="N39" s="57">
         <f>'RAW GRADES'!CS41</f>
-        <v>14.028</v>
+        <v>17.872</v>
       </c>
       <c r="O39" s="55">
         <f>'RAW GRADES'!CT41</f>
@@ -24589,29 +24807,29 @@
         <f>'RAW GRADES'!F42</f>
         <v>19.285714285714288</v>
       </c>
-      <c r="D40" s="88" t="str">
+      <c r="D40" s="88">
         <f>'RAW GRADES'!I42</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E40" s="51">
         <f>'RAW GRADES'!AN42</f>
-        <v>0</v>
-      </c>
-      <c r="F40" s="51" t="str">
+        <v>10.021428571428572</v>
+      </c>
+      <c r="F40" s="51">
         <f>'RAW GRADES'!AU42</f>
-        <v/>
-      </c>
-      <c r="G40" s="51" t="str">
+        <v>0</v>
+      </c>
+      <c r="G40" s="51">
         <f>'RAW GRADES'!BB42</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="H40" s="52">
         <f>'RAW GRADES'!BC42</f>
-        <v>19.285714285714288</v>
+        <v>39.307142857142864</v>
       </c>
       <c r="I40" s="52">
         <f>'RAW GRADES'!BD42</f>
-        <v>19.29</v>
+        <v>39.31</v>
       </c>
       <c r="J40" s="51" t="str">
         <f>'RAW GRADES'!BK42</f>
@@ -24631,7 +24849,7 @@
       </c>
       <c r="N40" s="57">
         <f>'RAW GRADES'!CS42</f>
-        <v>7.7160000000000002</v>
+        <v>15.724000000000002</v>
       </c>
       <c r="O40" s="55">
         <f>'RAW GRADES'!CT42</f>
@@ -24654,29 +24872,29 @@
         <f>'RAW GRADES'!F43</f>
         <v>23.142857142857146</v>
       </c>
-      <c r="D41" s="88" t="str">
+      <c r="D41" s="88">
         <f>'RAW GRADES'!I43</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E41" s="51">
         <f>'RAW GRADES'!AN43</f>
-        <v>14.8</v>
-      </c>
-      <c r="F41" s="51" t="str">
+        <v>13.971428571428573</v>
+      </c>
+      <c r="F41" s="51">
         <f>'RAW GRADES'!AU43</f>
-        <v/>
-      </c>
-      <c r="G41" s="51" t="str">
+        <v>0</v>
+      </c>
+      <c r="G41" s="51">
         <f>'RAW GRADES'!BB43</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="H41" s="52">
         <f>'RAW GRADES'!BC43</f>
-        <v>37.94285714285715</v>
+        <v>47.114285714285721</v>
       </c>
       <c r="I41" s="52">
         <f>'RAW GRADES'!BD43</f>
-        <v>37.94</v>
+        <v>47.11</v>
       </c>
       <c r="J41" s="51" t="str">
         <f>'RAW GRADES'!BK43</f>
@@ -24696,7 +24914,7 @@
       </c>
       <c r="N41" s="57">
         <f>'RAW GRADES'!CS43</f>
-        <v>15.176</v>
+        <v>18.844000000000001</v>
       </c>
       <c r="O41" s="55">
         <f>'RAW GRADES'!CT43</f>
@@ -24713,35 +24931,35 @@
       </c>
       <c r="B42" s="49" t="str">
         <f>'RAW GRADES'!C44</f>
-        <v>Yu Rama Krsna dasi P</v>
+        <v>Yu Rama Krsna Dasi P</v>
       </c>
       <c r="C42" s="56">
         <f>'RAW GRADES'!F44</f>
         <v>11.571428571428573</v>
       </c>
-      <c r="D42" s="88" t="str">
+      <c r="D42" s="88">
         <f>'RAW GRADES'!I44</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E42" s="51">
         <f>'RAW GRADES'!AN44</f>
-        <v>7.7</v>
-      </c>
-      <c r="F42" s="51" t="str">
+        <v>10.659523809523812</v>
+      </c>
+      <c r="F42" s="51">
         <f>'RAW GRADES'!AU44</f>
-        <v/>
-      </c>
-      <c r="G42" s="51" t="str">
+        <v>0</v>
+      </c>
+      <c r="G42" s="51">
         <f>'RAW GRADES'!BB44</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="H42" s="52">
         <f>'RAW GRADES'!BC44</f>
-        <v>19.271428571428572</v>
+        <v>32.230952380952388</v>
       </c>
       <c r="I42" s="52">
         <f>'RAW GRADES'!BD44</f>
-        <v>19.27</v>
+        <v>32.229999999999997</v>
       </c>
       <c r="J42" s="51" t="str">
         <f>'RAW GRADES'!BK44</f>
@@ -24761,7 +24979,7 @@
       </c>
       <c r="N42" s="57">
         <f>'RAW GRADES'!CS44</f>
-        <v>7.7080000000000002</v>
+        <v>12.891999999999999</v>
       </c>
       <c r="O42" s="55">
         <f>'RAW GRADES'!CT44</f>
@@ -24784,21 +25002,21 @@
         <f>'RAW GRADES'!F45</f>
         <v>0</v>
       </c>
-      <c r="D43" s="88" t="str">
+      <c r="D43" s="88">
         <f>'RAW GRADES'!I45</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E43" s="51">
         <f>'RAW GRADES'!AN45</f>
         <v>0</v>
       </c>
-      <c r="F43" s="51" t="str">
+      <c r="F43" s="51">
         <f>'RAW GRADES'!AU45</f>
-        <v/>
-      </c>
-      <c r="G43" s="51" t="str">
+        <v>0</v>
+      </c>
+      <c r="G43" s="51">
         <f>'RAW GRADES'!BB45</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H43" s="52">
         <f>'RAW GRADES'!BC45</f>
@@ -24849,21 +25067,21 @@
         <f>'RAW GRADES'!F46</f>
         <v>0</v>
       </c>
-      <c r="D44" s="88" t="str">
+      <c r="D44" s="88">
         <f>'RAW GRADES'!I46</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E44" s="51">
         <f>'RAW GRADES'!AN46</f>
         <v>0</v>
       </c>
-      <c r="F44" s="51" t="str">
+      <c r="F44" s="51">
         <f>'RAW GRADES'!AU46</f>
-        <v/>
-      </c>
-      <c r="G44" s="51" t="str">
+        <v>0</v>
+      </c>
+      <c r="G44" s="51">
         <f>'RAW GRADES'!BB46</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H44" s="52">
         <f>'RAW GRADES'!BC46</f>
@@ -24914,21 +25132,21 @@
         <f>'RAW GRADES'!F47</f>
         <v>0</v>
       </c>
-      <c r="D45" s="88" t="str">
+      <c r="D45" s="88">
         <f>'RAW GRADES'!I47</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E45" s="51">
         <f>'RAW GRADES'!AN47</f>
         <v>0</v>
       </c>
-      <c r="F45" s="51" t="str">
+      <c r="F45" s="51">
         <f>'RAW GRADES'!AU47</f>
-        <v/>
-      </c>
-      <c r="G45" s="51" t="str">
+        <v>0</v>
+      </c>
+      <c r="G45" s="51">
         <f>'RAW GRADES'!BB47</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H45" s="52">
         <f>'RAW GRADES'!BC47</f>
@@ -24979,21 +25197,21 @@
         <f>'RAW GRADES'!F48</f>
         <v>0</v>
       </c>
-      <c r="D46" s="88" t="str">
+      <c r="D46" s="88">
         <f>'RAW GRADES'!I48</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E46" s="51">
         <f>'RAW GRADES'!AN48</f>
         <v>0</v>
       </c>
-      <c r="F46" s="51" t="str">
+      <c r="F46" s="51">
         <f>'RAW GRADES'!AU48</f>
-        <v/>
-      </c>
-      <c r="G46" s="51" t="str">
+        <v>0</v>
+      </c>
+      <c r="G46" s="51">
         <f>'RAW GRADES'!BB48</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H46" s="52">
         <f>'RAW GRADES'!BC48</f>
@@ -25044,21 +25262,21 @@
         <f>'RAW GRADES'!F49</f>
         <v>0</v>
       </c>
-      <c r="D47" s="88" t="str">
+      <c r="D47" s="88">
         <f>'RAW GRADES'!I49</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E47" s="51">
         <f>'RAW GRADES'!AN49</f>
         <v>0</v>
       </c>
-      <c r="F47" s="51" t="str">
+      <c r="F47" s="51">
         <f>'RAW GRADES'!AU49</f>
-        <v/>
-      </c>
-      <c r="G47" s="51" t="str">
+        <v>0</v>
+      </c>
+      <c r="G47" s="51">
         <f>'RAW GRADES'!BB49</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H47" s="52">
         <f>'RAW GRADES'!BC49</f>
@@ -25109,21 +25327,21 @@
         <f>'RAW GRADES'!F50</f>
         <v>0</v>
       </c>
-      <c r="D48" s="88" t="str">
+      <c r="D48" s="88">
         <f>'RAW GRADES'!I50</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E48" s="51">
         <f>'RAW GRADES'!AN50</f>
         <v>0</v>
       </c>
-      <c r="F48" s="51" t="str">
+      <c r="F48" s="51">
         <f>'RAW GRADES'!AU50</f>
-        <v/>
-      </c>
-      <c r="G48" s="51" t="str">
+        <v>0</v>
+      </c>
+      <c r="G48" s="51">
         <f>'RAW GRADES'!BB50</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H48" s="52">
         <f>'RAW GRADES'!BC50</f>
@@ -25174,21 +25392,21 @@
         <f>'RAW GRADES'!F51</f>
         <v>0</v>
       </c>
-      <c r="D49" s="88" t="str">
+      <c r="D49" s="88">
         <f>'RAW GRADES'!I51</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E49" s="51">
         <f>'RAW GRADES'!AN51</f>
         <v>0</v>
       </c>
-      <c r="F49" s="51" t="str">
+      <c r="F49" s="51">
         <f>'RAW GRADES'!AU51</f>
-        <v/>
-      </c>
-      <c r="G49" s="51" t="str">
+        <v>0</v>
+      </c>
+      <c r="G49" s="51">
         <f>'RAW GRADES'!BB51</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H49" s="52">
         <f>'RAW GRADES'!BC51</f>
@@ -25239,21 +25457,21 @@
         <f>'RAW GRADES'!F52</f>
         <v>0</v>
       </c>
-      <c r="D50" s="88" t="str">
+      <c r="D50" s="88">
         <f>'RAW GRADES'!I52</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E50" s="51">
         <f>'RAW GRADES'!AN52</f>
         <v>0</v>
       </c>
-      <c r="F50" s="51" t="str">
+      <c r="F50" s="51">
         <f>'RAW GRADES'!AU52</f>
-        <v/>
-      </c>
-      <c r="G50" s="51" t="str">
+        <v>0</v>
+      </c>
+      <c r="G50" s="51">
         <f>'RAW GRADES'!BB52</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H50" s="52">
         <f>'RAW GRADES'!BC52</f>
@@ -25304,21 +25522,21 @@
         <f>'RAW GRADES'!F53</f>
         <v>0</v>
       </c>
-      <c r="D51" s="88" t="str">
+      <c r="D51" s="88">
         <f>'RAW GRADES'!I53</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E51" s="51">
         <f>'RAW GRADES'!AN53</f>
         <v>0</v>
       </c>
-      <c r="F51" s="51" t="str">
+      <c r="F51" s="51">
         <f>'RAW GRADES'!AU53</f>
-        <v/>
-      </c>
-      <c r="G51" s="51" t="str">
+        <v>0</v>
+      </c>
+      <c r="G51" s="51">
         <f>'RAW GRADES'!BB53</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H51" s="52">
         <f>'RAW GRADES'!BC53</f>
@@ -25369,21 +25587,21 @@
         <f>'RAW GRADES'!F54</f>
         <v>0</v>
       </c>
-      <c r="D52" s="88" t="str">
+      <c r="D52" s="88">
         <f>'RAW GRADES'!I54</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E52" s="51">
         <f>'RAW GRADES'!AN54</f>
         <v>0</v>
       </c>
-      <c r="F52" s="51" t="str">
+      <c r="F52" s="51">
         <f>'RAW GRADES'!AU54</f>
-        <v/>
-      </c>
-      <c r="G52" s="51" t="str">
+        <v>0</v>
+      </c>
+      <c r="G52" s="51">
         <f>'RAW GRADES'!BB54</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H52" s="52">
         <f>'RAW GRADES'!BC54</f>
@@ -25434,21 +25652,21 @@
         <f>'RAW GRADES'!F55</f>
         <v>0</v>
       </c>
-      <c r="D53" s="88" t="str">
+      <c r="D53" s="88">
         <f>'RAW GRADES'!I55</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E53" s="51">
         <f>'RAW GRADES'!AN55</f>
         <v>0</v>
       </c>
-      <c r="F53" s="51" t="str">
+      <c r="F53" s="51">
         <f>'RAW GRADES'!AU55</f>
-        <v/>
-      </c>
-      <c r="G53" s="51" t="str">
+        <v>0</v>
+      </c>
+      <c r="G53" s="51">
         <f>'RAW GRADES'!BB55</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H53" s="52">
         <f>'RAW GRADES'!BC55</f>
@@ -25499,21 +25717,21 @@
         <f>'RAW GRADES'!F56</f>
         <v>0</v>
       </c>
-      <c r="D54" s="88" t="str">
+      <c r="D54" s="88">
         <f>'RAW GRADES'!I56</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E54" s="51">
         <f>'RAW GRADES'!AN56</f>
         <v>0</v>
       </c>
-      <c r="F54" s="51" t="str">
+      <c r="F54" s="51">
         <f>'RAW GRADES'!AU56</f>
-        <v/>
-      </c>
-      <c r="G54" s="51" t="str">
+        <v>0</v>
+      </c>
+      <c r="G54" s="51">
         <f>'RAW GRADES'!BB56</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H54" s="52">
         <f>'RAW GRADES'!BC56</f>
@@ -25564,21 +25782,21 @@
         <f>'RAW GRADES'!F57</f>
         <v>0</v>
       </c>
-      <c r="D55" s="88" t="str">
+      <c r="D55" s="88">
         <f>'RAW GRADES'!I57</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E55" s="51">
         <f>'RAW GRADES'!AN57</f>
         <v>0</v>
       </c>
-      <c r="F55" s="51" t="str">
+      <c r="F55" s="51">
         <f>'RAW GRADES'!AU57</f>
-        <v/>
-      </c>
-      <c r="G55" s="51" t="str">
+        <v>0</v>
+      </c>
+      <c r="G55" s="51">
         <f>'RAW GRADES'!BB57</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H55" s="52">
         <f>'RAW GRADES'!BC57</f>
@@ -25629,21 +25847,21 @@
         <f>'RAW GRADES'!F58</f>
         <v>0</v>
       </c>
-      <c r="D56" s="88" t="str">
+      <c r="D56" s="88">
         <f>'RAW GRADES'!I58</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E56" s="51">
         <f>'RAW GRADES'!AN58</f>
         <v>0</v>
       </c>
-      <c r="F56" s="51" t="str">
+      <c r="F56" s="51">
         <f>'RAW GRADES'!AU58</f>
-        <v/>
-      </c>
-      <c r="G56" s="51" t="str">
+        <v>0</v>
+      </c>
+      <c r="G56" s="51">
         <f>'RAW GRADES'!BB58</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H56" s="52">
         <f>'RAW GRADES'!BC58</f>
@@ -25694,21 +25912,21 @@
         <f>'RAW GRADES'!F59</f>
         <v>0</v>
       </c>
-      <c r="D57" s="88" t="str">
+      <c r="D57" s="88">
         <f>'RAW GRADES'!I59</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E57" s="51">
         <f>'RAW GRADES'!AN59</f>
         <v>0</v>
       </c>
-      <c r="F57" s="51" t="str">
+      <c r="F57" s="51">
         <f>'RAW GRADES'!AU59</f>
-        <v/>
-      </c>
-      <c r="G57" s="51" t="str">
+        <v>0</v>
+      </c>
+      <c r="G57" s="51">
         <f>'RAW GRADES'!BB59</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H57" s="52">
         <f>'RAW GRADES'!BC59</f>
@@ -25759,21 +25977,21 @@
         <f>'RAW GRADES'!F60</f>
         <v>0</v>
       </c>
-      <c r="D58" s="88" t="str">
+      <c r="D58" s="88">
         <f>'RAW GRADES'!I60</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E58" s="51">
         <f>'RAW GRADES'!AN60</f>
         <v>0</v>
       </c>
-      <c r="F58" s="51" t="str">
+      <c r="F58" s="51">
         <f>'RAW GRADES'!AU60</f>
-        <v/>
-      </c>
-      <c r="G58" s="51" t="str">
+        <v>0</v>
+      </c>
+      <c r="G58" s="51">
         <f>'RAW GRADES'!BB60</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H58" s="52">
         <f>'RAW GRADES'!BC60</f>
@@ -25824,21 +26042,21 @@
         <f>'RAW GRADES'!F61</f>
         <v>0</v>
       </c>
-      <c r="D59" s="88" t="str">
+      <c r="D59" s="88">
         <f>'RAW GRADES'!I61</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E59" s="51">
         <f>'RAW GRADES'!AN61</f>
         <v>0</v>
       </c>
-      <c r="F59" s="51" t="str">
+      <c r="F59" s="51">
         <f>'RAW GRADES'!AU61</f>
-        <v/>
-      </c>
-      <c r="G59" s="51" t="str">
+        <v>0</v>
+      </c>
+      <c r="G59" s="51">
         <f>'RAW GRADES'!BB61</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H59" s="52">
         <f>'RAW GRADES'!BC61</f>
@@ -25889,21 +26107,21 @@
         <f>'RAW GRADES'!F62</f>
         <v>0</v>
       </c>
-      <c r="D60" s="88" t="str">
+      <c r="D60" s="88">
         <f>'RAW GRADES'!I62</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E60" s="51">
         <f>'RAW GRADES'!AN62</f>
         <v>0</v>
       </c>
-      <c r="F60" s="51" t="str">
+      <c r="F60" s="51">
         <f>'RAW GRADES'!AU62</f>
-        <v/>
-      </c>
-      <c r="G60" s="51" t="str">
+        <v>0</v>
+      </c>
+      <c r="G60" s="51">
         <f>'RAW GRADES'!BB62</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H60" s="52">
         <f>'RAW GRADES'!BC62</f>
@@ -25954,21 +26172,21 @@
         <f>'RAW GRADES'!F63</f>
         <v>0</v>
       </c>
-      <c r="D61" s="88" t="str">
+      <c r="D61" s="88">
         <f>'RAW GRADES'!I63</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E61" s="51">
         <f>'RAW GRADES'!AN63</f>
         <v>0</v>
       </c>
-      <c r="F61" s="51" t="str">
+      <c r="F61" s="51">
         <f>'RAW GRADES'!AU63</f>
-        <v/>
-      </c>
-      <c r="G61" s="51" t="str">
+        <v>0</v>
+      </c>
+      <c r="G61" s="51">
         <f>'RAW GRADES'!BB63</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H61" s="52">
         <f>'RAW GRADES'!BC63</f>
@@ -26019,21 +26237,21 @@
         <f>'RAW GRADES'!F64</f>
         <v>0</v>
       </c>
-      <c r="D62" s="88" t="str">
+      <c r="D62" s="88">
         <f>'RAW GRADES'!I64</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E62" s="51">
         <f>'RAW GRADES'!AN64</f>
         <v>0</v>
       </c>
-      <c r="F62" s="51" t="str">
+      <c r="F62" s="51">
         <f>'RAW GRADES'!AU64</f>
-        <v/>
-      </c>
-      <c r="G62" s="51" t="str">
+        <v>0</v>
+      </c>
+      <c r="G62" s="51">
         <f>'RAW GRADES'!BB64</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H62" s="52">
         <f>'RAW GRADES'!BC64</f>
@@ -26084,21 +26302,21 @@
         <f>'RAW GRADES'!F65</f>
         <v>0</v>
       </c>
-      <c r="D63" s="88" t="str">
+      <c r="D63" s="88">
         <f>'RAW GRADES'!I65</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E63" s="51">
         <f>'RAW GRADES'!AN65</f>
         <v>0</v>
       </c>
-      <c r="F63" s="51" t="str">
+      <c r="F63" s="51">
         <f>'RAW GRADES'!AU65</f>
-        <v/>
-      </c>
-      <c r="G63" s="51" t="str">
+        <v>0</v>
+      </c>
+      <c r="G63" s="51">
         <f>'RAW GRADES'!BB65</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H63" s="52">
         <f>'RAW GRADES'!BC65</f>
@@ -26149,21 +26367,21 @@
         <f>'RAW GRADES'!F66</f>
         <v>0</v>
       </c>
-      <c r="D64" s="88" t="str">
+      <c r="D64" s="88">
         <f>'RAW GRADES'!I66</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E64" s="51">
         <f>'RAW GRADES'!AN66</f>
         <v>0</v>
       </c>
-      <c r="F64" s="51" t="str">
+      <c r="F64" s="51">
         <f>'RAW GRADES'!AU66</f>
-        <v/>
-      </c>
-      <c r="G64" s="51" t="str">
+        <v>0</v>
+      </c>
+      <c r="G64" s="51">
         <f>'RAW GRADES'!BB66</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H64" s="52">
         <f>'RAW GRADES'!BC66</f>
@@ -26214,21 +26432,21 @@
         <f>'RAW GRADES'!F67</f>
         <v>0</v>
       </c>
-      <c r="D65" s="88" t="str">
+      <c r="D65" s="88">
         <f>'RAW GRADES'!I67</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E65" s="51">
         <f>'RAW GRADES'!AN67</f>
         <v>0</v>
       </c>
-      <c r="F65" s="51" t="str">
+      <c r="F65" s="51">
         <f>'RAW GRADES'!AU67</f>
-        <v/>
-      </c>
-      <c r="G65" s="51" t="str">
+        <v>0</v>
+      </c>
+      <c r="G65" s="51">
         <f>'RAW GRADES'!BB67</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H65" s="52">
         <f>'RAW GRADES'!BC67</f>
@@ -26279,21 +26497,21 @@
         <f>'RAW GRADES'!F68</f>
         <v>0</v>
       </c>
-      <c r="D66" s="88" t="str">
+      <c r="D66" s="88">
         <f>'RAW GRADES'!I68</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E66" s="51">
         <f>'RAW GRADES'!AN68</f>
         <v>0</v>
       </c>
-      <c r="F66" s="51" t="str">
+      <c r="F66" s="51">
         <f>'RAW GRADES'!AU68</f>
-        <v/>
-      </c>
-      <c r="G66" s="51" t="str">
+        <v>0</v>
+      </c>
+      <c r="G66" s="51">
         <f>'RAW GRADES'!BB68</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H66" s="52">
         <f>'RAW GRADES'!BC68</f>
@@ -26344,21 +26562,21 @@
         <f>'RAW GRADES'!F69</f>
         <v>0</v>
       </c>
-      <c r="D67" s="88" t="str">
+      <c r="D67" s="88">
         <f>'RAW GRADES'!I69</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E67" s="51">
         <f>'RAW GRADES'!AN69</f>
         <v>0</v>
       </c>
-      <c r="F67" s="51" t="str">
+      <c r="F67" s="51">
         <f>'RAW GRADES'!AU69</f>
-        <v/>
-      </c>
-      <c r="G67" s="51" t="str">
+        <v>0</v>
+      </c>
+      <c r="G67" s="51">
         <f>'RAW GRADES'!BB69</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H67" s="52">
         <f>'RAW GRADES'!BC69</f>
@@ -26409,21 +26627,21 @@
         <f>'RAW GRADES'!F70</f>
         <v>0</v>
       </c>
-      <c r="D68" s="88" t="str">
+      <c r="D68" s="88">
         <f>'RAW GRADES'!I70</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E68" s="51">
         <f>'RAW GRADES'!AN70</f>
         <v>0</v>
       </c>
-      <c r="F68" s="51" t="str">
+      <c r="F68" s="51">
         <f>'RAW GRADES'!AU70</f>
-        <v/>
-      </c>
-      <c r="G68" s="51" t="str">
+        <v>0</v>
+      </c>
+      <c r="G68" s="51">
         <f>'RAW GRADES'!BB70</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H68" s="52">
         <f>'RAW GRADES'!BC70</f>
@@ -27574,7 +27792,7 @@
       </c>
       <c r="B56" s="65" t="str">
         <f>'DEPT CHAIR'!B42</f>
-        <v>Yu Rama Krsna dasi P</v>
+        <v>Yu Rama Krsna Dasi P</v>
       </c>
       <c r="C56" s="66" t="str">
         <f>REGISTRATION!B45</f>
@@ -28271,7 +28489,7 @@
       <c r="D87" s="59"/>
       <c r="E87" s="250">
         <f ca="1">NOW()</f>
-        <v>43067.725441087961</v>
+        <v>43070.582024074072</v>
       </c>
       <c r="F87" s="250"/>
     </row>

--- a/DCIT 21 - IT 1D/LEC AND LAB - IT1D.xlsx
+++ b/DCIT 21 - IT 1D/LEC AND LAB - IT1D.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-3000" yWindow="-270" windowWidth="15345" windowHeight="4650" activeTab="1"/>
+    <workbookView xWindow="-3000" yWindow="-270" windowWidth="15345" windowHeight="4650" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="REGISTRATION" sheetId="1" r:id="rId1"/>
@@ -576,9 +576,6 @@
     <t>Gilchor P. Cubillo, PhD</t>
   </si>
   <si>
-    <t>Renen B. Viado</t>
-  </si>
-  <si>
     <t>First</t>
   </si>
   <si>
@@ -964,6 +961,9 @@
   </si>
   <si>
     <t>SEATWORK</t>
+  </si>
+  <si>
+    <t>Renen Paul A. Viado</t>
   </si>
 </sst>
 </file>
@@ -1952,7 +1952,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="270">
+  <cellXfs count="271">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2910,6 +2910,10 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="4" fillId="17" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
@@ -3744,8 +3748,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:R71"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P14" sqref="P14:R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3835,7 +3839,7 @@
       </c>
       <c r="B6" s="161"/>
       <c r="C6" s="162" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D6" s="162"/>
       <c r="E6" s="163" t="s">
@@ -3862,7 +3866,7 @@
       </c>
       <c r="B7" s="167"/>
       <c r="C7" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>5</v>
@@ -3891,10 +3895,10 @@
       </c>
       <c r="B8" s="149"/>
       <c r="C8" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>167</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>168</v>
       </c>
       <c r="E8" s="150" t="s">
         <v>10</v>
@@ -3969,19 +3973,19 @@
         <v>1</v>
       </c>
       <c r="B11" s="118" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C11" s="118" t="s">
+        <v>169</v>
+      </c>
+      <c r="D11" s="118" t="s">
         <v>170</v>
       </c>
-      <c r="D11" s="118" t="s">
+      <c r="E11" s="118" t="s">
         <v>171</v>
       </c>
-      <c r="E11" s="118" t="s">
-        <v>172</v>
-      </c>
       <c r="F11" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G11" s="136"/>
       <c r="H11" s="137"/>
@@ -4002,17 +4006,17 @@
         <v>2</v>
       </c>
       <c r="B12" s="119" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C12" s="119" t="s">
+        <v>173</v>
+      </c>
+      <c r="D12" s="119" t="s">
         <v>174</v>
-      </c>
-      <c r="D12" s="119" t="s">
-        <v>175</v>
       </c>
       <c r="E12" s="119"/>
       <c r="F12" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G12" s="126"/>
       <c r="H12" s="126"/>
@@ -4035,19 +4039,19 @@
         <v>3</v>
       </c>
       <c r="B13" s="119" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C13" s="119" t="s">
+        <v>176</v>
+      </c>
+      <c r="D13" s="119" t="s">
         <v>177</v>
       </c>
-      <c r="D13" s="119" t="s">
+      <c r="E13" s="119" t="s">
         <v>178</v>
       </c>
-      <c r="E13" s="119" t="s">
-        <v>179</v>
-      </c>
       <c r="F13" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G13" s="126"/>
       <c r="H13" s="126"/>
@@ -4060,7 +4064,7 @@
         <v>25</v>
       </c>
       <c r="P13" s="125" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q13" s="125"/>
       <c r="R13" s="125"/>
@@ -4070,19 +4074,19 @@
         <v>4</v>
       </c>
       <c r="B14" s="119" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C14" s="119" t="s">
+        <v>180</v>
+      </c>
+      <c r="D14" s="119" t="s">
         <v>181</v>
       </c>
-      <c r="D14" s="119" t="s">
+      <c r="E14" s="119" t="s">
         <v>182</v>
       </c>
-      <c r="E14" s="119" t="s">
-        <v>183</v>
-      </c>
       <c r="F14" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G14" s="126"/>
       <c r="H14" s="126"/>
@@ -4105,19 +4109,19 @@
         <v>5</v>
       </c>
       <c r="B15" s="119" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C15" s="119" t="s">
+        <v>184</v>
+      </c>
+      <c r="D15" s="119" t="s">
         <v>185</v>
       </c>
-      <c r="D15" s="119" t="s">
+      <c r="E15" s="119" t="s">
         <v>186</v>
       </c>
-      <c r="E15" s="119" t="s">
-        <v>187</v>
-      </c>
       <c r="F15" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G15" s="126"/>
       <c r="H15" s="126"/>
@@ -4140,19 +4144,19 @@
         <v>6</v>
       </c>
       <c r="B16" s="119" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C16" s="119" t="s">
+        <v>188</v>
+      </c>
+      <c r="D16" s="119" t="s">
         <v>189</v>
       </c>
-      <c r="D16" s="119" t="s">
-        <v>190</v>
-      </c>
       <c r="E16" s="119" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G16" s="126"/>
       <c r="H16" s="126"/>
@@ -4165,7 +4169,7 @@
         <v>29</v>
       </c>
       <c r="P16" s="133" t="s">
-        <v>163</v>
+        <v>292</v>
       </c>
       <c r="Q16" s="134"/>
       <c r="R16" s="135"/>
@@ -4175,19 +4179,19 @@
         <v>7</v>
       </c>
       <c r="B17" s="119" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C17" s="119" t="s">
+        <v>191</v>
+      </c>
+      <c r="D17" s="119" t="s">
         <v>192</v>
       </c>
-      <c r="D17" s="119" t="s">
+      <c r="E17" s="119" t="s">
         <v>193</v>
       </c>
-      <c r="E17" s="119" t="s">
-        <v>194</v>
-      </c>
       <c r="F17" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G17" s="126"/>
       <c r="H17" s="126"/>
@@ -4210,19 +4214,19 @@
         <v>8</v>
       </c>
       <c r="B18" s="119" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C18" s="119" t="s">
+        <v>195</v>
+      </c>
+      <c r="D18" s="119" t="s">
         <v>196</v>
       </c>
-      <c r="D18" s="119" t="s">
-        <v>197</v>
-      </c>
       <c r="E18" s="119" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G18" s="126"/>
       <c r="H18" s="126"/>
@@ -4237,19 +4241,19 @@
         <v>9</v>
       </c>
       <c r="B19" s="119" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C19" s="119" t="s">
+        <v>198</v>
+      </c>
+      <c r="D19" s="119" t="s">
         <v>199</v>
       </c>
-      <c r="D19" s="119" t="s">
+      <c r="E19" s="119" t="s">
         <v>200</v>
       </c>
-      <c r="E19" s="119" t="s">
-        <v>201</v>
-      </c>
       <c r="F19" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G19" s="126"/>
       <c r="H19" s="126"/>
@@ -4264,19 +4268,19 @@
         <v>10</v>
       </c>
       <c r="B20" s="119" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C20" s="119" t="s">
+        <v>202</v>
+      </c>
+      <c r="D20" s="119" t="s">
         <v>203</v>
       </c>
-      <c r="D20" s="119" t="s">
-        <v>204</v>
-      </c>
       <c r="E20" s="119" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G20" s="126"/>
       <c r="H20" s="126"/>
@@ -4291,19 +4295,19 @@
         <v>11</v>
       </c>
       <c r="B21" s="119" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C21" s="119" t="s">
+        <v>205</v>
+      </c>
+      <c r="D21" s="119" t="s">
         <v>206</v>
       </c>
-      <c r="D21" s="119" t="s">
+      <c r="E21" s="119" t="s">
         <v>207</v>
       </c>
-      <c r="E21" s="119" t="s">
-        <v>208</v>
-      </c>
       <c r="F21" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G21" s="126"/>
       <c r="H21" s="126"/>
@@ -4321,19 +4325,19 @@
         <v>12</v>
       </c>
       <c r="B22" s="119" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C22" s="119" t="s">
+        <v>209</v>
+      </c>
+      <c r="D22" s="119" t="s">
         <v>210</v>
       </c>
-      <c r="D22" s="119" t="s">
+      <c r="E22" s="119" t="s">
         <v>211</v>
       </c>
-      <c r="E22" s="119" t="s">
-        <v>212</v>
-      </c>
       <c r="F22" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G22" s="126"/>
       <c r="H22" s="126"/>
@@ -4354,19 +4358,19 @@
         <v>13</v>
       </c>
       <c r="B23" s="119" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C23" s="119" t="s">
+        <v>213</v>
+      </c>
+      <c r="D23" s="119" t="s">
         <v>214</v>
       </c>
-      <c r="D23" s="119" t="s">
-        <v>215</v>
-      </c>
       <c r="E23" s="119" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G23" s="126"/>
       <c r="H23" s="126"/>
@@ -4387,19 +4391,19 @@
         <v>14</v>
       </c>
       <c r="B24" s="119" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C24" s="119" t="s">
+        <v>216</v>
+      </c>
+      <c r="D24" s="119" t="s">
         <v>217</v>
       </c>
-      <c r="D24" s="119" t="s">
-        <v>218</v>
-      </c>
       <c r="E24" s="119" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G24" s="126"/>
       <c r="H24" s="126"/>
@@ -4420,19 +4424,19 @@
         <v>15</v>
       </c>
       <c r="B25" s="119" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C25" s="119" t="s">
+        <v>219</v>
+      </c>
+      <c r="D25" s="119" t="s">
         <v>220</v>
       </c>
-      <c r="D25" s="119" t="s">
-        <v>221</v>
-      </c>
       <c r="E25" s="119" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G25" s="126"/>
       <c r="H25" s="126"/>
@@ -4453,19 +4457,19 @@
         <v>16</v>
       </c>
       <c r="B26" s="119" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C26" s="119" t="s">
+        <v>222</v>
+      </c>
+      <c r="D26" s="119" t="s">
         <v>223</v>
       </c>
-      <c r="D26" s="119" t="s">
-        <v>224</v>
-      </c>
       <c r="E26" s="119" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G26" s="126"/>
       <c r="H26" s="126"/>
@@ -4486,19 +4490,19 @@
         <v>17</v>
       </c>
       <c r="B27" s="119" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C27" s="119" t="s">
+        <v>225</v>
+      </c>
+      <c r="D27" s="119" t="s">
         <v>226</v>
       </c>
-      <c r="D27" s="119" t="s">
+      <c r="E27" s="119" t="s">
         <v>227</v>
       </c>
-      <c r="E27" s="119" t="s">
-        <v>228</v>
-      </c>
       <c r="F27" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G27" s="126"/>
       <c r="H27" s="126"/>
@@ -4519,19 +4523,19 @@
         <v>18</v>
       </c>
       <c r="B28" s="119" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C28" s="119" t="s">
+        <v>283</v>
+      </c>
+      <c r="D28" s="119" t="s">
         <v>284</v>
       </c>
-      <c r="D28" s="119" t="s">
-        <v>285</v>
-      </c>
       <c r="E28" s="119" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G28" s="136"/>
       <c r="H28" s="137"/>
@@ -4552,19 +4556,19 @@
         <v>19</v>
       </c>
       <c r="B29" s="119" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C29" s="119" t="s">
+        <v>228</v>
+      </c>
+      <c r="D29" s="119" t="s">
         <v>229</v>
       </c>
-      <c r="D29" s="119" t="s">
+      <c r="E29" s="119" t="s">
         <v>230</v>
       </c>
-      <c r="E29" s="119" t="s">
-        <v>231</v>
-      </c>
       <c r="F29" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G29" s="136"/>
       <c r="H29" s="137"/>
@@ -4585,19 +4589,19 @@
         <v>20</v>
       </c>
       <c r="B30" s="119" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C30" s="119" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D30" s="119" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E30" s="119" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G30" s="136"/>
       <c r="H30" s="137"/>
@@ -4618,19 +4622,19 @@
         <v>21</v>
       </c>
       <c r="B31" s="119" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C31" s="119" t="s">
+        <v>234</v>
+      </c>
+      <c r="D31" s="119" t="s">
         <v>235</v>
       </c>
-      <c r="D31" s="119" t="s">
+      <c r="E31" s="119" t="s">
         <v>236</v>
       </c>
-      <c r="E31" s="119" t="s">
-        <v>237</v>
-      </c>
       <c r="F31" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G31" s="136"/>
       <c r="H31" s="137"/>
@@ -4647,19 +4651,19 @@
         <v>22</v>
       </c>
       <c r="B32" s="119" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C32" s="119" t="s">
+        <v>238</v>
+      </c>
+      <c r="D32" s="119" t="s">
         <v>239</v>
       </c>
-      <c r="D32" s="119" t="s">
+      <c r="E32" s="119" t="s">
         <v>240</v>
       </c>
-      <c r="E32" s="119" t="s">
-        <v>241</v>
-      </c>
       <c r="F32" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G32" s="136"/>
       <c r="H32" s="137"/>
@@ -4680,19 +4684,19 @@
         <v>23</v>
       </c>
       <c r="B33" s="119" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C33" s="119" t="s">
+        <v>242</v>
+      </c>
+      <c r="D33" s="119" t="s">
         <v>243</v>
       </c>
-      <c r="D33" s="119" t="s">
-        <v>244</v>
-      </c>
       <c r="E33" s="119" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G33" s="136"/>
       <c r="H33" s="137"/>
@@ -4707,19 +4711,19 @@
         <v>24</v>
       </c>
       <c r="B34" s="119" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C34" s="119" t="s">
+        <v>245</v>
+      </c>
+      <c r="D34" s="119" t="s">
         <v>246</v>
       </c>
-      <c r="D34" s="119" t="s">
+      <c r="E34" s="119" t="s">
         <v>247</v>
       </c>
-      <c r="E34" s="119" t="s">
-        <v>248</v>
-      </c>
       <c r="F34" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G34" s="136"/>
       <c r="H34" s="137"/>
@@ -4734,19 +4738,19 @@
         <v>25</v>
       </c>
       <c r="B35" s="119" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C35" s="119" t="s">
+        <v>249</v>
+      </c>
+      <c r="D35" s="119" t="s">
         <v>250</v>
       </c>
-      <c r="D35" s="119" t="s">
-        <v>251</v>
-      </c>
       <c r="E35" s="119" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G35" s="136"/>
       <c r="H35" s="137"/>
@@ -4761,19 +4765,19 @@
         <v>26</v>
       </c>
       <c r="B36" s="119" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C36" s="119" t="s">
+        <v>252</v>
+      </c>
+      <c r="D36" s="119" t="s">
         <v>253</v>
       </c>
-      <c r="D36" s="119" t="s">
+      <c r="E36" s="119" t="s">
         <v>254</v>
       </c>
-      <c r="E36" s="119" t="s">
-        <v>255</v>
-      </c>
       <c r="F36" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G36" s="136"/>
       <c r="H36" s="137"/>
@@ -4788,19 +4792,19 @@
         <v>27</v>
       </c>
       <c r="B37" s="119" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C37" s="119" t="s">
+        <v>281</v>
+      </c>
+      <c r="D37" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="D37" s="119" t="s">
-        <v>283</v>
-      </c>
       <c r="E37" s="119" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G37" s="126"/>
       <c r="H37" s="126"/>
@@ -4815,19 +4819,19 @@
         <v>28</v>
       </c>
       <c r="B38" s="119" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C38" s="119" t="s">
+        <v>256</v>
+      </c>
+      <c r="D38" s="119" t="s">
         <v>257</v>
       </c>
-      <c r="D38" s="119" t="s">
+      <c r="E38" s="119" t="s">
         <v>258</v>
       </c>
-      <c r="E38" s="119" t="s">
-        <v>259</v>
-      </c>
       <c r="F38" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G38" s="126"/>
       <c r="H38" s="126"/>
@@ -4842,19 +4846,19 @@
         <v>29</v>
       </c>
       <c r="B39" s="119" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C39" s="119" t="s">
+        <v>260</v>
+      </c>
+      <c r="D39" s="119" t="s">
         <v>261</v>
       </c>
-      <c r="D39" s="119" t="s">
-        <v>262</v>
-      </c>
       <c r="E39" s="119" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G39" s="126"/>
       <c r="H39" s="126"/>
@@ -4869,19 +4873,19 @@
         <v>30</v>
       </c>
       <c r="B40" s="119" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C40" s="119" t="s">
+        <v>263</v>
+      </c>
+      <c r="D40" s="119" t="s">
         <v>264</v>
       </c>
-      <c r="D40" s="119" t="s">
-        <v>265</v>
-      </c>
       <c r="E40" s="119" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G40" s="126"/>
       <c r="H40" s="126"/>
@@ -4896,19 +4900,19 @@
         <v>31</v>
       </c>
       <c r="B41" s="119" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C41" s="119" t="s">
+        <v>266</v>
+      </c>
+      <c r="D41" s="119" t="s">
         <v>267</v>
       </c>
-      <c r="D41" s="119" t="s">
-        <v>268</v>
-      </c>
       <c r="E41" s="119" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G41" s="126"/>
       <c r="H41" s="126"/>
@@ -4923,19 +4927,19 @@
         <v>32</v>
       </c>
       <c r="B42" s="119" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C42" s="119" t="s">
+        <v>269</v>
+      </c>
+      <c r="D42" s="119" t="s">
         <v>270</v>
       </c>
-      <c r="D42" s="119" t="s">
-        <v>271</v>
-      </c>
       <c r="E42" s="119" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G42" s="126"/>
       <c r="H42" s="126"/>
@@ -4950,19 +4954,19 @@
         <v>33</v>
       </c>
       <c r="B43" s="119" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C43" s="119" t="s">
+        <v>272</v>
+      </c>
+      <c r="D43" s="119" t="s">
         <v>273</v>
       </c>
-      <c r="D43" s="119" t="s">
+      <c r="E43" s="119" t="s">
         <v>274</v>
       </c>
-      <c r="E43" s="119" t="s">
-        <v>275</v>
-      </c>
       <c r="F43" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G43" s="126"/>
       <c r="H43" s="126"/>
@@ -4977,13 +4981,13 @@
         <v>34</v>
       </c>
       <c r="B44" s="119" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C44" s="119" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D44" s="119" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E44" s="119"/>
       <c r="F44" s="16"/>
@@ -5000,16 +5004,16 @@
         <v>35</v>
       </c>
       <c r="B45" s="119" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C45" s="119" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D45" s="119" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E45" s="119" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F45" s="16"/>
       <c r="G45" s="126"/>
@@ -5901,9 +5905,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:CU70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" topLeftCell="CG1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AU38" sqref="AU38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6416,7 +6420,7 @@
         <v>0.2</v>
       </c>
       <c r="AO7" s="177" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AP7" s="177"/>
       <c r="AQ7" s="177"/>
@@ -6430,7 +6434,7 @@
         <v>0.1</v>
       </c>
       <c r="AV7" s="177" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AW7" s="177"/>
       <c r="AX7" s="177"/>
@@ -6451,7 +6455,7 @@
       <c r="BH7" s="177"/>
       <c r="BI7" s="181">
         <f>COUNT(BE9,BG9,BI9)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BJ7" s="181"/>
       <c r="BK7" s="98">
@@ -6783,7 +6787,9 @@
       <c r="BF9" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="BG9" s="26"/>
+      <c r="BG9" s="26">
+        <v>100</v>
+      </c>
       <c r="BH9" s="29" t="s">
         <v>87</v>
       </c>
@@ -6808,7 +6814,7 @@
       <c r="BO9" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="BP9" s="26">
+      <c r="BP9" s="270">
         <v>100</v>
       </c>
       <c r="BQ9" s="29" t="s">
@@ -6923,14 +6929,16 @@
         <f t="shared" ref="F10:F41" si="0">IFERROR((E10*$F$7), " ")</f>
         <v>12.857142857142856</v>
       </c>
-      <c r="G10" s="100"/>
+      <c r="G10" s="100">
+        <v>32</v>
+      </c>
       <c r="H10" s="85">
         <f>(G10/$G$9)*100</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I10" s="88">
         <f t="shared" ref="I10:I41" si="1">IFERROR((H10*$I$7), "")</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J10" s="100">
         <v>12</v>
@@ -7036,21 +7044,23 @@
       </c>
       <c r="BC10" s="91">
         <f>IFERROR(SUM(BB10,AU10,AN10,I10,F10),"")</f>
-        <v>40.571428571428569</v>
+        <v>52.571428571428569</v>
       </c>
       <c r="BD10" s="91">
         <f>IFERROR(ROUND(BC10,2),"")</f>
-        <v>40.57</v>
+        <v>52.57</v>
       </c>
       <c r="BE10" s="100"/>
       <c r="BF10" s="85" t="str">
         <f>IFERROR(((BE10/$BE$9)*100),"")</f>
         <v/>
       </c>
-      <c r="BG10" s="100"/>
-      <c r="BH10" s="85" t="str">
+      <c r="BG10" s="100">
+        <v>80</v>
+      </c>
+      <c r="BH10" s="85">
         <f>IFERROR(((BG10/$BG$9)*100),"")</f>
-        <v/>
+        <v>80</v>
       </c>
       <c r="BI10" s="100">
         <v>80</v>
@@ -7077,7 +7087,7 @@
         <f>IFERROR(((BN10/$BN$9)*100),"")</f>
         <v>90</v>
       </c>
-      <c r="BP10" s="100">
+      <c r="BP10" s="101">
         <v>100</v>
       </c>
       <c r="BQ10" s="85">
@@ -7182,15 +7192,15 @@
       </c>
       <c r="CS10" s="97">
         <f>IFERROR(((CR10*0.6)+(BD10*0.4)),"")</f>
-        <v>65.23</v>
+        <v>70.03</v>
       </c>
       <c r="CT10" s="97">
         <f>IFERROR(VLOOKUP(CS10,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CU10" s="86" t="str">
         <f>IF(CT10&lt;=3,"PASSED","FAILED")</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="11" spans="1:99">
@@ -7217,14 +7227,16 @@
         <f t="shared" si="0"/>
         <v>17.142857142857142</v>
       </c>
-      <c r="G11" s="101"/>
+      <c r="G11" s="101">
+        <v>55</v>
+      </c>
       <c r="H11" s="85">
         <f t="shared" ref="H11:H70" si="2">(G11/$G$9)*100</f>
-        <v>0</v>
+        <v>68.75</v>
       </c>
       <c r="I11" s="88">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20.625</v>
       </c>
       <c r="J11" s="101">
         <v>11</v>
@@ -7330,21 +7342,23 @@
       </c>
       <c r="BC11" s="91">
         <f t="shared" ref="BC11:BC70" si="18">IFERROR(SUM(BB11,AU11,AN11,I11,F11),"")</f>
-        <v>49.197619047619042</v>
+        <v>69.822619047619042</v>
       </c>
       <c r="BD11" s="91">
         <f t="shared" ref="BD11:BD70" si="19">IFERROR(ROUND(BC11,2),"")</f>
-        <v>49.2</v>
+        <v>69.819999999999993</v>
       </c>
       <c r="BE11" s="101"/>
       <c r="BF11" s="85" t="str">
         <f t="shared" ref="BF11:BF70" si="20">IFERROR(((BE11/$BE$9)*100),"")</f>
         <v/>
       </c>
-      <c r="BG11" s="101"/>
-      <c r="BH11" s="85" t="str">
+      <c r="BG11" s="100">
+        <v>80</v>
+      </c>
+      <c r="BH11" s="85">
         <f t="shared" ref="BH11:BH70" si="21">IFERROR(((BG11/$BG$9)*100),"")</f>
-        <v/>
+        <v>80</v>
       </c>
       <c r="BI11" s="100">
         <v>80</v>
@@ -7476,15 +7490,15 @@
       </c>
       <c r="CS11" s="97">
         <f t="shared" ref="CS11:CS22" si="41">IFERROR(((CR11*0.6)+(BD11*0.4)),"")</f>
-        <v>68.981999999999999</v>
+        <v>77.22999999999999</v>
       </c>
       <c r="CT11" s="97">
         <f>IFERROR(VLOOKUP(CS11,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="CU11" s="86" t="str">
         <f t="shared" ref="CU11:CU70" si="42">IF(CT11&lt;=3,"PASSED","FAILED")</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="12" spans="1:99">
@@ -7511,14 +7525,16 @@
         <f t="shared" si="0"/>
         <v>16.285714285714285</v>
       </c>
-      <c r="G12" s="101"/>
+      <c r="G12" s="101">
+        <v>53</v>
+      </c>
       <c r="H12" s="85">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>66.25</v>
       </c>
       <c r="I12" s="88">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>19.875</v>
       </c>
       <c r="J12" s="101">
         <v>15</v>
@@ -7624,21 +7640,23 @@
       </c>
       <c r="BC12" s="91">
         <f t="shared" si="18"/>
-        <v>51.807142857142857</v>
+        <v>71.68214285714285</v>
       </c>
       <c r="BD12" s="91">
         <f t="shared" si="19"/>
-        <v>51.81</v>
+        <v>71.680000000000007</v>
       </c>
       <c r="BE12" s="101"/>
       <c r="BF12" s="85" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="BG12" s="101"/>
-      <c r="BH12" s="85" t="str">
+      <c r="BG12" s="100">
+        <v>80</v>
+      </c>
+      <c r="BH12" s="85">
         <f t="shared" si="21"/>
-        <v/>
+        <v>80</v>
       </c>
       <c r="BI12" s="100">
         <v>80</v>
@@ -7770,15 +7788,15 @@
       </c>
       <c r="CS12" s="97">
         <f t="shared" si="41"/>
-        <v>69.126000000000005</v>
+        <v>77.074000000000012</v>
       </c>
       <c r="CT12" s="97">
         <f>IFERROR(VLOOKUP(CS12,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="CU12" s="86" t="str">
         <f t="shared" si="42"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="13" spans="1:99">
@@ -7805,14 +7823,16 @@
         <f t="shared" si="0"/>
         <v>16.285714285714285</v>
       </c>
-      <c r="G13" s="101"/>
+      <c r="G13" s="101">
+        <v>39</v>
+      </c>
       <c r="H13" s="85">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>48.75</v>
       </c>
       <c r="I13" s="88">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14.625</v>
       </c>
       <c r="J13" s="101">
         <v>13</v>
@@ -7828,15 +7848,19 @@
         <f t="shared" si="4"/>
         <v>52</v>
       </c>
-      <c r="N13" s="101"/>
+      <c r="N13" s="101">
+        <v>23</v>
+      </c>
       <c r="O13" s="85">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P13" s="101"/>
+        <v>65.714285714285708</v>
+      </c>
+      <c r="P13" s="101">
+        <v>13</v>
+      </c>
       <c r="Q13" s="85">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>86.666666666666671</v>
       </c>
       <c r="R13" s="101"/>
       <c r="S13" s="85" t="str">
@@ -7868,7 +7892,7 @@
       <c r="AM13" s="87"/>
       <c r="AN13" s="88">
         <f t="shared" si="9"/>
-        <v>5.8500000000000005</v>
+        <v>13.469047619047622</v>
       </c>
       <c r="AO13" s="101">
         <v>100</v>
@@ -7914,21 +7938,23 @@
       </c>
       <c r="BC13" s="91">
         <f t="shared" si="18"/>
-        <v>41.135714285714286</v>
+        <v>63.379761904761907</v>
       </c>
       <c r="BD13" s="91">
         <f t="shared" si="19"/>
-        <v>41.14</v>
+        <v>63.38</v>
       </c>
       <c r="BE13" s="101"/>
       <c r="BF13" s="85" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="BG13" s="101"/>
-      <c r="BH13" s="85" t="str">
+      <c r="BG13" s="100">
+        <v>80</v>
+      </c>
+      <c r="BH13" s="85">
         <f t="shared" si="21"/>
-        <v/>
+        <v>80</v>
       </c>
       <c r="BI13" s="100">
         <v>80</v>
@@ -8060,15 +8086,15 @@
       </c>
       <c r="CS13" s="97">
         <f t="shared" si="41"/>
-        <v>65.853999999999999</v>
+        <v>74.75</v>
       </c>
       <c r="CT13" s="97">
         <f>IFERROR(VLOOKUP(CS13,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="CU13" s="86" t="str">
         <f t="shared" si="42"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="14" spans="1:99">
@@ -8095,14 +8121,16 @@
         <f t="shared" si="0"/>
         <v>13.714285714285714</v>
       </c>
-      <c r="G14" s="101"/>
+      <c r="G14" s="101">
+        <v>47</v>
+      </c>
       <c r="H14" s="85">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>58.75</v>
       </c>
       <c r="I14" s="88">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17.625</v>
       </c>
       <c r="J14" s="101">
         <v>12</v>
@@ -8204,21 +8232,23 @@
       </c>
       <c r="BC14" s="91">
         <f t="shared" si="18"/>
-        <v>37.714285714285715</v>
+        <v>55.339285714285715</v>
       </c>
       <c r="BD14" s="91">
         <f t="shared" si="19"/>
-        <v>37.71</v>
+        <v>55.34</v>
       </c>
       <c r="BE14" s="101"/>
       <c r="BF14" s="85" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="BG14" s="101"/>
-      <c r="BH14" s="85" t="str">
+      <c r="BG14" s="100">
+        <v>80</v>
+      </c>
+      <c r="BH14" s="85">
         <f t="shared" si="21"/>
-        <v/>
+        <v>80</v>
       </c>
       <c r="BI14" s="100">
         <v>80</v>
@@ -8350,15 +8380,15 @@
       </c>
       <c r="CS14" s="97">
         <f t="shared" si="41"/>
-        <v>63.486000000000004</v>
+        <v>70.538000000000011</v>
       </c>
       <c r="CT14" s="97">
         <f>IFERROR(VLOOKUP(CS14,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CU14" s="86" t="str">
         <f t="shared" si="42"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="15" spans="1:99">
@@ -8385,14 +8415,16 @@
         <f t="shared" si="0"/>
         <v>17.142857142857142</v>
       </c>
-      <c r="G15" s="101"/>
+      <c r="G15" s="101">
+        <v>48</v>
+      </c>
       <c r="H15" s="85">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I15" s="88">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J15" s="101">
         <v>14</v>
@@ -8494,21 +8526,23 @@
       </c>
       <c r="BC15" s="91">
         <f t="shared" si="18"/>
-        <v>42.242857142857147</v>
+        <v>60.242857142857147</v>
       </c>
       <c r="BD15" s="91">
         <f t="shared" si="19"/>
-        <v>42.24</v>
+        <v>60.24</v>
       </c>
       <c r="BE15" s="101"/>
       <c r="BF15" s="85" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="BG15" s="101"/>
-      <c r="BH15" s="85" t="str">
+      <c r="BG15" s="100">
+        <v>80</v>
+      </c>
+      <c r="BH15" s="85">
         <f t="shared" si="21"/>
-        <v/>
+        <v>80</v>
       </c>
       <c r="BI15" s="100">
         <v>80</v>
@@ -8640,15 +8674,15 @@
       </c>
       <c r="CS15" s="97">
         <f t="shared" si="41"/>
-        <v>66.858000000000004</v>
+        <v>74.057999999999993</v>
       </c>
       <c r="CT15" s="97">
         <f>IFERROR(VLOOKUP(CS15,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="CU15" s="86" t="str">
         <f t="shared" si="42"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="16" spans="1:99">
@@ -8675,14 +8709,16 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="G16" s="101"/>
+      <c r="G16" s="101">
+        <v>53</v>
+      </c>
       <c r="H16" s="85">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>66.25</v>
       </c>
       <c r="I16" s="88">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>19.875</v>
       </c>
       <c r="J16" s="101">
         <v>15</v>
@@ -8788,21 +8824,23 @@
       </c>
       <c r="BC16" s="91">
         <f t="shared" si="18"/>
-        <v>50.683333333333337</v>
+        <v>70.558333333333337</v>
       </c>
       <c r="BD16" s="91">
         <f t="shared" si="19"/>
-        <v>50.68</v>
+        <v>70.56</v>
       </c>
       <c r="BE16" s="101"/>
       <c r="BF16" s="85" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="BG16" s="101"/>
-      <c r="BH16" s="85" t="str">
+      <c r="BG16" s="100">
+        <v>80</v>
+      </c>
+      <c r="BH16" s="85">
         <f t="shared" si="21"/>
-        <v/>
+        <v>80</v>
       </c>
       <c r="BI16" s="100">
         <v>80</v>
@@ -8934,11 +8972,11 @@
       </c>
       <c r="CS16" s="97">
         <f t="shared" si="41"/>
-        <v>73.27</v>
+        <v>81.222000000000008</v>
       </c>
       <c r="CT16" s="97">
         <f>IFERROR(VLOOKUP(CS16,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="CU16" s="86" t="str">
         <f t="shared" si="42"/>
@@ -8969,14 +9007,16 @@
         <f t="shared" si="0"/>
         <v>21.428571428571427</v>
       </c>
-      <c r="G17" s="101"/>
+      <c r="G17" s="101">
+        <v>58</v>
+      </c>
       <c r="H17" s="85">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>72.5</v>
       </c>
       <c r="I17" s="88">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>21.75</v>
       </c>
       <c r="J17" s="101">
         <v>15</v>
@@ -9082,21 +9122,23 @@
       </c>
       <c r="BC17" s="91">
         <f t="shared" si="18"/>
-        <v>57.740476190476187</v>
+        <v>79.490476190476187</v>
       </c>
       <c r="BD17" s="91">
         <f t="shared" si="19"/>
-        <v>57.74</v>
+        <v>79.489999999999995</v>
       </c>
       <c r="BE17" s="101"/>
       <c r="BF17" s="85" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="BG17" s="101"/>
-      <c r="BH17" s="85" t="str">
+      <c r="BG17" s="100">
+        <v>100</v>
+      </c>
+      <c r="BH17" s="85">
         <f t="shared" si="21"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="BI17" s="100">
         <v>80</v>
@@ -9107,7 +9149,7 @@
       </c>
       <c r="BK17" s="96">
         <f t="shared" si="22"/>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="BL17" s="101">
         <v>100</v>
@@ -9220,19 +9262,19 @@
       </c>
       <c r="CQ17" s="92">
         <f t="shared" si="39"/>
-        <v>88.333333333333343</v>
+        <v>93.333333333333343</v>
       </c>
       <c r="CR17" s="92">
         <f t="shared" si="40"/>
-        <v>88.33</v>
+        <v>93.33</v>
       </c>
       <c r="CS17" s="97">
         <f t="shared" si="41"/>
-        <v>76.093999999999994</v>
+        <v>87.793999999999997</v>
       </c>
       <c r="CT17" s="97">
         <f>IFERROR(VLOOKUP(CS17,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="CU17" s="86" t="str">
         <f t="shared" si="42"/>
@@ -9263,14 +9305,16 @@
         <f t="shared" si="0"/>
         <v>22.285714285714288</v>
       </c>
-      <c r="G18" s="101"/>
+      <c r="G18" s="101">
+        <v>72</v>
+      </c>
       <c r="H18" s="85">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="I18" s="88">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="J18" s="101">
         <v>16</v>
@@ -9376,21 +9420,23 @@
       </c>
       <c r="BC18" s="91">
         <f t="shared" si="18"/>
-        <v>57.609523809523807</v>
+        <v>84.609523809523807</v>
       </c>
       <c r="BD18" s="91">
         <f t="shared" si="19"/>
-        <v>57.61</v>
+        <v>84.61</v>
       </c>
       <c r="BE18" s="101"/>
       <c r="BF18" s="85" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="BG18" s="101"/>
-      <c r="BH18" s="85" t="str">
+      <c r="BG18" s="101">
+        <v>80</v>
+      </c>
+      <c r="BH18" s="85">
         <f t="shared" si="21"/>
-        <v/>
+        <v>80</v>
       </c>
       <c r="BI18" s="100">
         <v>80</v>
@@ -9522,11 +9568,11 @@
       </c>
       <c r="CS18" s="97">
         <f t="shared" si="41"/>
-        <v>74.146000000000001</v>
+        <v>84.945999999999998</v>
       </c>
       <c r="CT18" s="97">
         <f>IFERROR(VLOOKUP(CS18,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="CU18" s="86" t="str">
         <f t="shared" si="42"/>
@@ -9557,14 +9603,16 @@
         <f t="shared" si="0"/>
         <v>18.428571428571427</v>
       </c>
-      <c r="G19" s="101"/>
+      <c r="G19" s="101">
+        <v>43</v>
+      </c>
       <c r="H19" s="85">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>53.75</v>
       </c>
       <c r="I19" s="88">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16.125</v>
       </c>
       <c r="J19" s="101">
         <v>16</v>
@@ -9581,18 +9629,18 @@
         <v>56.000000000000007</v>
       </c>
       <c r="N19" s="101">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="O19" s="85">
         <f t="shared" si="5"/>
-        <v>40</v>
+        <v>62.857142857142854</v>
       </c>
       <c r="P19" s="101">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="Q19" s="85">
         <f t="shared" si="6"/>
-        <v>6.666666666666667</v>
+        <v>93.333333333333329</v>
       </c>
       <c r="R19" s="101"/>
       <c r="S19" s="85" t="str">
@@ -9624,7 +9672,7 @@
       <c r="AM19" s="87"/>
       <c r="AN19" s="88">
         <f t="shared" si="9"/>
-        <v>9.1333333333333329</v>
+        <v>14.609523809523811</v>
       </c>
       <c r="AO19" s="101">
         <v>100</v>
@@ -9670,21 +9718,23 @@
       </c>
       <c r="BC19" s="91">
         <f t="shared" si="18"/>
-        <v>47.561904761904756</v>
+        <v>69.163095238095238</v>
       </c>
       <c r="BD19" s="91">
         <f t="shared" si="19"/>
-        <v>47.56</v>
+        <v>69.16</v>
       </c>
       <c r="BE19" s="101"/>
       <c r="BF19" s="85" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="BG19" s="101"/>
-      <c r="BH19" s="85" t="str">
+      <c r="BG19" s="101">
+        <v>80</v>
+      </c>
+      <c r="BH19" s="85">
         <f t="shared" si="21"/>
-        <v/>
+        <v>80</v>
       </c>
       <c r="BI19" s="100">
         <v>80</v>
@@ -9816,11 +9866,11 @@
       </c>
       <c r="CS19" s="97">
         <f t="shared" si="41"/>
-        <v>70.924000000000007</v>
+        <v>79.563999999999993</v>
       </c>
       <c r="CT19" s="97">
         <f>IFERROR(VLOOKUP(CS19,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="CU19" s="86" t="str">
         <f t="shared" si="42"/>
@@ -9975,10 +10025,12 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="BG20" s="101"/>
-      <c r="BH20" s="85" t="str">
+      <c r="BG20" s="101">
+        <v>80</v>
+      </c>
+      <c r="BH20" s="85">
         <f t="shared" si="21"/>
-        <v/>
+        <v>80</v>
       </c>
       <c r="BI20" s="100">
         <v>80</v>
@@ -10145,14 +10197,16 @@
         <f t="shared" si="0"/>
         <v>16.714285714285715</v>
       </c>
-      <c r="G21" s="101"/>
+      <c r="G21" s="101">
+        <v>73</v>
+      </c>
       <c r="H21" s="85">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>91.25</v>
       </c>
       <c r="I21" s="88">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>27.375</v>
       </c>
       <c r="J21" s="101">
         <v>15</v>
@@ -10258,21 +10312,23 @@
       </c>
       <c r="BC21" s="91">
         <f t="shared" si="18"/>
-        <v>45.864285714285714</v>
+        <v>73.239285714285714</v>
       </c>
       <c r="BD21" s="91">
         <f t="shared" si="19"/>
-        <v>45.86</v>
+        <v>73.239999999999995</v>
       </c>
       <c r="BE21" s="101"/>
       <c r="BF21" s="85" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="BG21" s="101"/>
-      <c r="BH21" s="85" t="str">
+      <c r="BG21" s="101">
+        <v>80</v>
+      </c>
+      <c r="BH21" s="85">
         <f t="shared" si="21"/>
-        <v/>
+        <v>80</v>
       </c>
       <c r="BI21" s="100">
         <v>80</v>
@@ -10404,11 +10460,11 @@
       </c>
       <c r="CS21" s="97">
         <f t="shared" si="41"/>
-        <v>70.045999999999992</v>
+        <v>80.99799999999999</v>
       </c>
       <c r="CT21" s="97">
         <f>IFERROR(VLOOKUP(CS21,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="CU21" s="86" t="str">
         <f t="shared" si="42"/>
@@ -10439,14 +10495,16 @@
         <f t="shared" si="0"/>
         <v>21.857142857142854</v>
       </c>
-      <c r="G22" s="101"/>
+      <c r="G22" s="101">
+        <v>60</v>
+      </c>
       <c r="H22" s="85">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I22" s="88">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="J22" s="101">
         <v>13</v>
@@ -10552,21 +10610,23 @@
       </c>
       <c r="BC22" s="91">
         <f t="shared" si="18"/>
-        <v>50.221428571428568</v>
+        <v>72.721428571428561</v>
       </c>
       <c r="BD22" s="91">
         <f t="shared" si="19"/>
-        <v>50.22</v>
+        <v>72.72</v>
       </c>
       <c r="BE22" s="101"/>
       <c r="BF22" s="85" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="BG22" s="101"/>
-      <c r="BH22" s="85" t="str">
+      <c r="BG22" s="101">
+        <v>80</v>
+      </c>
+      <c r="BH22" s="85">
         <f t="shared" si="21"/>
-        <v/>
+        <v>80</v>
       </c>
       <c r="BI22" s="101">
         <v>80</v>
@@ -10698,11 +10758,11 @@
       </c>
       <c r="CS22" s="97">
         <f t="shared" si="41"/>
-        <v>72.09</v>
+        <v>81.09</v>
       </c>
       <c r="CT22" s="97">
         <f>IFERROR(VLOOKUP(CS22,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="CU22" s="86" t="str">
         <f t="shared" si="42"/>
@@ -10733,14 +10793,16 @@
         <f t="shared" si="0"/>
         <v>23.571428571428569</v>
       </c>
-      <c r="G23" s="101"/>
+      <c r="G23" s="101">
+        <v>57</v>
+      </c>
       <c r="H23" s="85">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>71.25</v>
       </c>
       <c r="I23" s="88">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>21.375</v>
       </c>
       <c r="J23" s="101">
         <v>18</v>
@@ -10846,21 +10908,23 @@
       </c>
       <c r="BC23" s="91">
         <f t="shared" si="18"/>
-        <v>59.804761904761904</v>
+        <v>81.179761904761904</v>
       </c>
       <c r="BD23" s="91">
         <f t="shared" si="19"/>
-        <v>59.8</v>
+        <v>81.180000000000007</v>
       </c>
       <c r="BE23" s="101"/>
       <c r="BF23" s="85" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="BG23" s="101"/>
-      <c r="BH23" s="85" t="str">
+      <c r="BG23" s="101">
+        <v>80</v>
+      </c>
+      <c r="BH23" s="85">
         <f t="shared" si="21"/>
-        <v/>
+        <v>80</v>
       </c>
       <c r="BI23" s="101">
         <v>80</v>
@@ -10992,11 +11056,11 @@
       </c>
       <c r="CS23" s="97">
         <f t="shared" ref="CS23:CS70" si="45">IFERROR(((CR23*0.6)+(BD23*0.4)),"")</f>
-        <v>76.317999999999998</v>
+        <v>84.87</v>
       </c>
       <c r="CT23" s="97">
         <f>IFERROR(VLOOKUP(CS23,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="CU23" s="86" t="str">
         <f t="shared" si="42"/>
@@ -11027,14 +11091,16 @@
         <f t="shared" si="0"/>
         <v>20.571428571428569</v>
       </c>
-      <c r="G24" s="101"/>
+      <c r="G24" s="101">
+        <v>52</v>
+      </c>
       <c r="H24" s="85">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="I24" s="88">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="J24" s="101">
         <v>14</v>
@@ -11140,21 +11206,23 @@
       </c>
       <c r="BC24" s="91">
         <f t="shared" si="18"/>
-        <v>52.023809523809526</v>
+        <v>71.523809523809518</v>
       </c>
       <c r="BD24" s="91">
         <f t="shared" si="19"/>
-        <v>52.02</v>
+        <v>71.52</v>
       </c>
       <c r="BE24" s="101"/>
       <c r="BF24" s="85" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="BG24" s="101"/>
-      <c r="BH24" s="85" t="str">
+      <c r="BG24" s="101">
+        <v>80</v>
+      </c>
+      <c r="BH24" s="85">
         <f t="shared" si="21"/>
-        <v/>
+        <v>80</v>
       </c>
       <c r="BI24" s="101">
         <v>80</v>
@@ -11286,11 +11354,11 @@
       </c>
       <c r="CS24" s="97">
         <f t="shared" si="45"/>
-        <v>71.507999999999996</v>
+        <v>79.307999999999993</v>
       </c>
       <c r="CT24" s="97">
         <f>IFERROR(VLOOKUP(CS24,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="CU24" s="86" t="str">
         <f t="shared" si="42"/>
@@ -11321,14 +11389,16 @@
         <f t="shared" si="0"/>
         <v>18.428571428571427</v>
       </c>
-      <c r="G25" s="101"/>
+      <c r="G25" s="101">
+        <v>53</v>
+      </c>
       <c r="H25" s="85">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>66.25</v>
       </c>
       <c r="I25" s="88">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>19.875</v>
       </c>
       <c r="J25" s="101">
         <v>13</v>
@@ -11434,21 +11504,23 @@
       </c>
       <c r="BC25" s="91">
         <f t="shared" si="18"/>
-        <v>49.392857142857139</v>
+        <v>69.267857142857139</v>
       </c>
       <c r="BD25" s="91">
         <f t="shared" si="19"/>
-        <v>49.39</v>
+        <v>69.27</v>
       </c>
       <c r="BE25" s="101"/>
       <c r="BF25" s="85" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="BG25" s="101"/>
-      <c r="BH25" s="85" t="str">
+      <c r="BG25" s="101">
+        <v>80</v>
+      </c>
+      <c r="BH25" s="85">
         <f t="shared" si="21"/>
-        <v/>
+        <v>80</v>
       </c>
       <c r="BI25" s="101">
         <v>80</v>
@@ -11580,15 +11652,15 @@
       </c>
       <c r="CS25" s="97">
         <f t="shared" si="45"/>
-        <v>69.658000000000001</v>
+        <v>77.61</v>
       </c>
       <c r="CT25" s="97">
         <f>IFERROR(VLOOKUP(CS25,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="CU25" s="86" t="str">
         <f t="shared" si="42"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="26" spans="1:99">
@@ -11615,14 +11687,16 @@
         <f t="shared" si="0"/>
         <v>17.571428571428573</v>
       </c>
-      <c r="G26" s="101"/>
+      <c r="G26" s="101">
+        <v>48</v>
+      </c>
       <c r="H26" s="85">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I26" s="88">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J26" s="101">
         <v>17</v>
@@ -11728,21 +11802,23 @@
       </c>
       <c r="BC26" s="91">
         <f t="shared" si="18"/>
-        <v>51.364285714285714</v>
+        <v>69.364285714285714</v>
       </c>
       <c r="BD26" s="91">
         <f t="shared" si="19"/>
-        <v>51.36</v>
+        <v>69.36</v>
       </c>
       <c r="BE26" s="101"/>
       <c r="BF26" s="85" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="BG26" s="101"/>
-      <c r="BH26" s="85" t="str">
+      <c r="BG26" s="101">
+        <v>80</v>
+      </c>
+      <c r="BH26" s="85">
         <f t="shared" si="21"/>
-        <v/>
+        <v>80</v>
       </c>
       <c r="BI26" s="101">
         <v>80</v>
@@ -11874,15 +11950,15 @@
       </c>
       <c r="CS26" s="97">
         <f t="shared" si="45"/>
-        <v>69.341999999999999</v>
+        <v>76.542000000000002</v>
       </c>
       <c r="CT26" s="97">
         <f>IFERROR(VLOOKUP(CS26,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="CU26" s="86" t="str">
         <f t="shared" si="42"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="27" spans="1:99">
@@ -11909,14 +11985,16 @@
         <f t="shared" si="0"/>
         <v>20.571428571428569</v>
       </c>
-      <c r="G27" s="101"/>
+      <c r="G27" s="101">
+        <v>50</v>
+      </c>
       <c r="H27" s="85">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>62.5</v>
       </c>
       <c r="I27" s="88">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18.75</v>
       </c>
       <c r="J27" s="101">
         <v>11</v>
@@ -12022,21 +12100,23 @@
       </c>
       <c r="BC27" s="91">
         <f t="shared" si="18"/>
-        <v>50.23571428571428</v>
+        <v>68.98571428571428</v>
       </c>
       <c r="BD27" s="91">
         <f t="shared" si="19"/>
-        <v>50.24</v>
+        <v>68.989999999999995</v>
       </c>
       <c r="BE27" s="101"/>
       <c r="BF27" s="85" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="BG27" s="101"/>
-      <c r="BH27" s="85" t="str">
+      <c r="BG27" s="101">
+        <v>80</v>
+      </c>
+      <c r="BH27" s="85">
         <f t="shared" si="21"/>
-        <v/>
+        <v>80</v>
       </c>
       <c r="BI27" s="101">
         <v>80</v>
@@ -12168,15 +12248,15 @@
       </c>
       <c r="CS27" s="97">
         <f t="shared" si="45"/>
-        <v>68.695999999999998</v>
+        <v>76.195999999999998</v>
       </c>
       <c r="CT27" s="97">
         <f>IFERROR(VLOOKUP(CS27,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="CU27" s="86" t="str">
         <f t="shared" si="42"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="28" spans="1:99">
@@ -12203,14 +12283,16 @@
         <f t="shared" si="0"/>
         <v>26.571428571428569</v>
       </c>
-      <c r="G28" s="101"/>
+      <c r="G28" s="101">
+        <v>55</v>
+      </c>
       <c r="H28" s="85">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>68.75</v>
       </c>
       <c r="I28" s="88">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20.625</v>
       </c>
       <c r="J28" s="101">
         <v>18</v>
@@ -12316,21 +12398,23 @@
       </c>
       <c r="BC28" s="91">
         <f t="shared" si="18"/>
-        <v>63.176190476190477</v>
+        <v>83.80119047619047</v>
       </c>
       <c r="BD28" s="91">
         <f t="shared" si="19"/>
-        <v>63.18</v>
+        <v>83.8</v>
       </c>
       <c r="BE28" s="101"/>
       <c r="BF28" s="85" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="BG28" s="101"/>
-      <c r="BH28" s="85" t="str">
+      <c r="BG28" s="101">
+        <v>80</v>
+      </c>
+      <c r="BH28" s="85">
         <f t="shared" si="21"/>
-        <v/>
+        <v>80</v>
       </c>
       <c r="BI28" s="101">
         <v>80</v>
@@ -12462,11 +12546,11 @@
       </c>
       <c r="CS28" s="97">
         <f t="shared" si="45"/>
-        <v>75.971999999999994</v>
+        <v>84.22</v>
       </c>
       <c r="CT28" s="97">
         <f>IFERROR(VLOOKUP(CS28,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="CU28" s="86" t="str">
         <f t="shared" si="42"/>
@@ -12497,14 +12581,16 @@
         <f t="shared" si="0"/>
         <v>25.714285714285712</v>
       </c>
-      <c r="G29" s="101"/>
+      <c r="G29" s="101">
+        <v>53</v>
+      </c>
       <c r="H29" s="85">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>66.25</v>
       </c>
       <c r="I29" s="88">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>19.875</v>
       </c>
       <c r="J29" s="101">
         <v>19</v>
@@ -12610,21 +12696,23 @@
       </c>
       <c r="BC29" s="91">
         <f t="shared" si="18"/>
-        <v>59.61666666666666</v>
+        <v>79.49166666666666</v>
       </c>
       <c r="BD29" s="91">
         <f t="shared" si="19"/>
-        <v>59.62</v>
+        <v>79.489999999999995</v>
       </c>
       <c r="BE29" s="101"/>
       <c r="BF29" s="85" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="BG29" s="101"/>
-      <c r="BH29" s="85" t="str">
+      <c r="BG29" s="101">
+        <v>95</v>
+      </c>
+      <c r="BH29" s="85">
         <f t="shared" si="21"/>
-        <v/>
+        <v>95</v>
       </c>
       <c r="BI29" s="101">
         <v>80</v>
@@ -12635,7 +12723,7 @@
       </c>
       <c r="BK29" s="96">
         <f t="shared" si="22"/>
-        <v>40</v>
+        <v>43.75</v>
       </c>
       <c r="BL29" s="101">
         <v>100</v>
@@ -12748,19 +12836,19 @@
       </c>
       <c r="CQ29" s="92">
         <f t="shared" si="39"/>
-        <v>86.666666666666657</v>
+        <v>90.416666666666657</v>
       </c>
       <c r="CR29" s="92">
         <f t="shared" si="40"/>
-        <v>86.67</v>
+        <v>90.42</v>
       </c>
       <c r="CS29" s="97">
         <f t="shared" si="45"/>
-        <v>75.849999999999994</v>
+        <v>86.048000000000002</v>
       </c>
       <c r="CT29" s="97">
         <f>IFERROR(VLOOKUP(CS29,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="CU29" s="86" t="str">
         <f t="shared" si="42"/>
@@ -12791,14 +12879,16 @@
         <f t="shared" si="0"/>
         <v>20.571428571428569</v>
       </c>
-      <c r="G30" s="101"/>
+      <c r="G30" s="101">
+        <v>52</v>
+      </c>
       <c r="H30" s="85">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="I30" s="88">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="J30" s="101">
         <v>13</v>
@@ -12904,21 +12994,23 @@
       </c>
       <c r="BC30" s="91">
         <f t="shared" si="18"/>
-        <v>54.792857142857144</v>
+        <v>74.292857142857144</v>
       </c>
       <c r="BD30" s="91">
         <f t="shared" si="19"/>
-        <v>54.79</v>
+        <v>74.290000000000006</v>
       </c>
       <c r="BE30" s="101"/>
       <c r="BF30" s="85" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="BG30" s="101"/>
-      <c r="BH30" s="85" t="str">
+      <c r="BG30" s="101">
+        <v>80</v>
+      </c>
+      <c r="BH30" s="85">
         <f t="shared" si="21"/>
-        <v/>
+        <v>80</v>
       </c>
       <c r="BI30" s="101">
         <v>80</v>
@@ -13050,11 +13142,11 @@
       </c>
       <c r="CS30" s="97">
         <f t="shared" si="45"/>
-        <v>72.016000000000005</v>
+        <v>79.816000000000003</v>
       </c>
       <c r="CT30" s="97">
         <f>IFERROR(VLOOKUP(CS30,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="CU30" s="86" t="str">
         <f t="shared" si="42"/>
@@ -13085,28 +13177,30 @@
         <f t="shared" si="0"/>
         <v>21.428571428571427</v>
       </c>
-      <c r="G31" s="101"/>
+      <c r="G31" s="101">
+        <v>71</v>
+      </c>
       <c r="H31" s="85">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>88.75</v>
       </c>
       <c r="I31" s="88">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>26.625</v>
       </c>
       <c r="J31" s="101">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="K31" s="85">
         <f t="shared" si="3"/>
-        <v>55.000000000000007</v>
+        <v>95</v>
       </c>
       <c r="L31" s="101">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M31" s="85">
         <f t="shared" si="4"/>
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="N31" s="101">
         <v>31</v>
@@ -13116,11 +13210,11 @@
         <v>88.571428571428569</v>
       </c>
       <c r="P31" s="101">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="Q31" s="85">
         <f t="shared" si="6"/>
-        <v>66.666666666666657</v>
+        <v>93.333333333333329</v>
       </c>
       <c r="R31" s="101"/>
       <c r="S31" s="85" t="str">
@@ -13152,7 +13246,7 @@
       <c r="AM31" s="87"/>
       <c r="AN31" s="88">
         <f t="shared" si="9"/>
-        <v>14.31190476190476</v>
+        <v>18.045238095238094</v>
       </c>
       <c r="AO31" s="101">
         <v>100</v>
@@ -13198,21 +13292,23 @@
       </c>
       <c r="BC31" s="91">
         <f t="shared" si="18"/>
-        <v>55.740476190476187</v>
+        <v>86.098809523809521</v>
       </c>
       <c r="BD31" s="91">
         <f t="shared" si="19"/>
-        <v>55.74</v>
+        <v>86.1</v>
       </c>
       <c r="BE31" s="101"/>
       <c r="BF31" s="85" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="BG31" s="101"/>
-      <c r="BH31" s="85" t="str">
+      <c r="BG31" s="101">
+        <v>90</v>
+      </c>
+      <c r="BH31" s="85">
         <f t="shared" si="21"/>
-        <v/>
+        <v>90</v>
       </c>
       <c r="BI31" s="101">
         <v>80</v>
@@ -13223,7 +13319,7 @@
       </c>
       <c r="BK31" s="96">
         <f t="shared" si="22"/>
-        <v>40</v>
+        <v>42.5</v>
       </c>
       <c r="BL31" s="101">
         <v>95</v>
@@ -13336,19 +13432,19 @@
       </c>
       <c r="CQ31" s="92">
         <f t="shared" si="39"/>
-        <v>87.166666666666657</v>
+        <v>89.666666666666657</v>
       </c>
       <c r="CR31" s="92">
         <f t="shared" si="40"/>
-        <v>87.17</v>
+        <v>89.67</v>
       </c>
       <c r="CS31" s="97">
         <f t="shared" si="45"/>
-        <v>74.597999999999999</v>
+        <v>88.24199999999999</v>
       </c>
       <c r="CT31" s="97">
         <f>IFERROR(VLOOKUP(CS31,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="CU31" s="86" t="str">
         <f t="shared" si="42"/>
@@ -13379,14 +13475,16 @@
         <f t="shared" si="0"/>
         <v>25.714285714285712</v>
       </c>
-      <c r="G32" s="101"/>
+      <c r="G32" s="101">
+        <v>64</v>
+      </c>
       <c r="H32" s="85">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I32" s="88">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J32" s="101">
         <v>18</v>
@@ -13492,21 +13590,23 @@
       </c>
       <c r="BC32" s="91">
         <f t="shared" si="18"/>
-        <v>62.347619047619048</v>
+        <v>86.347619047619048</v>
       </c>
       <c r="BD32" s="91">
         <f t="shared" si="19"/>
-        <v>62.35</v>
+        <v>86.35</v>
       </c>
       <c r="BE32" s="101"/>
       <c r="BF32" s="85" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="BG32" s="101"/>
-      <c r="BH32" s="85" t="str">
+      <c r="BG32" s="101">
+        <v>90</v>
+      </c>
+      <c r="BH32" s="85">
         <f t="shared" si="21"/>
-        <v/>
+        <v>90</v>
       </c>
       <c r="BI32" s="101">
         <v>83</v>
@@ -13517,7 +13617,7 @@
       </c>
       <c r="BK32" s="96">
         <f t="shared" si="22"/>
-        <v>41.5</v>
+        <v>43.25</v>
       </c>
       <c r="BL32" s="101">
         <v>100</v>
@@ -13630,19 +13730,19 @@
       </c>
       <c r="CQ32" s="92">
         <f t="shared" si="39"/>
-        <v>89.166666666666657</v>
+        <v>90.916666666666657</v>
       </c>
       <c r="CR32" s="92">
         <f t="shared" si="40"/>
-        <v>89.17</v>
+        <v>90.92</v>
       </c>
       <c r="CS32" s="97">
         <f t="shared" si="45"/>
-        <v>78.442000000000007</v>
+        <v>89.091999999999999</v>
       </c>
       <c r="CT32" s="97">
         <f>IFERROR(VLOOKUP(CS32,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="CU32" s="86" t="str">
         <f t="shared" si="42"/>
@@ -13673,14 +13773,16 @@
         <f t="shared" si="0"/>
         <v>14.571428571428569</v>
       </c>
-      <c r="G33" s="101"/>
+      <c r="G33" s="101">
+        <v>51</v>
+      </c>
       <c r="H33" s="85">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>63.749999999999993</v>
       </c>
       <c r="I33" s="88">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>19.124999999999996</v>
       </c>
       <c r="J33" s="101">
         <v>15</v>
@@ -13786,21 +13888,23 @@
       </c>
       <c r="BC33" s="91">
         <f t="shared" si="18"/>
-        <v>47.635714285714286</v>
+        <v>66.760714285714286</v>
       </c>
       <c r="BD33" s="91">
         <f t="shared" si="19"/>
-        <v>47.64</v>
+        <v>66.760000000000005</v>
       </c>
       <c r="BE33" s="101"/>
       <c r="BF33" s="85" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="BG33" s="101"/>
-      <c r="BH33" s="85" t="str">
+      <c r="BG33" s="101">
+        <v>80</v>
+      </c>
+      <c r="BH33" s="85">
         <f t="shared" si="21"/>
-        <v/>
+        <v>80</v>
       </c>
       <c r="BI33" s="101">
         <v>80</v>
@@ -13930,15 +14034,15 @@
       </c>
       <c r="CS33" s="97">
         <f t="shared" si="45"/>
-        <v>68.256</v>
+        <v>75.903999999999996</v>
       </c>
       <c r="CT33" s="97">
         <f>IFERROR(VLOOKUP(CS33,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="CU33" s="86" t="str">
         <f t="shared" si="42"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="34" spans="1:99">
@@ -13965,14 +14069,16 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="G34" s="101"/>
+      <c r="G34" s="101">
+        <v>53</v>
+      </c>
       <c r="H34" s="85">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>66.25</v>
       </c>
       <c r="I34" s="88">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>19.875</v>
       </c>
       <c r="J34" s="101">
         <v>12</v>
@@ -14078,21 +14184,23 @@
       </c>
       <c r="BC34" s="91">
         <f t="shared" si="18"/>
-        <v>47.752380952380953</v>
+        <v>67.627380952380946</v>
       </c>
       <c r="BD34" s="91">
         <f t="shared" si="19"/>
-        <v>47.75</v>
+        <v>67.63</v>
       </c>
       <c r="BE34" s="101"/>
       <c r="BF34" s="85" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="BG34" s="101"/>
-      <c r="BH34" s="85" t="str">
+      <c r="BG34" s="101">
+        <v>80</v>
+      </c>
+      <c r="BH34" s="85">
         <f t="shared" si="21"/>
-        <v/>
+        <v>80</v>
       </c>
       <c r="BI34" s="101">
         <v>80</v>
@@ -14224,15 +14332,15 @@
       </c>
       <c r="CS34" s="97">
         <f t="shared" si="45"/>
-        <v>67.897999999999996</v>
+        <v>75.849999999999994</v>
       </c>
       <c r="CT34" s="97">
         <f>IFERROR(VLOOKUP(CS34,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="CU34" s="86" t="str">
         <f t="shared" si="42"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="35" spans="1:99">
@@ -14260,15 +14368,15 @@
         <v>15.857142857142858</v>
       </c>
       <c r="G35" s="101">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="H35" s="85">
         <f t="shared" si="2"/>
-        <v>58.75</v>
+        <v>71.25</v>
       </c>
       <c r="I35" s="88">
         <f t="shared" si="1"/>
-        <v>17.625</v>
+        <v>21.375</v>
       </c>
       <c r="J35" s="101">
         <v>13</v>
@@ -14374,21 +14482,23 @@
       </c>
       <c r="BC35" s="91">
         <f t="shared" si="18"/>
-        <v>61.865476190476187</v>
+        <v>65.615476190476187</v>
       </c>
       <c r="BD35" s="91">
         <f t="shared" si="19"/>
-        <v>61.87</v>
+        <v>65.62</v>
       </c>
       <c r="BE35" s="101"/>
       <c r="BF35" s="85" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="BG35" s="101"/>
-      <c r="BH35" s="85" t="str">
+      <c r="BG35" s="101">
+        <v>80</v>
+      </c>
+      <c r="BH35" s="85">
         <f t="shared" si="21"/>
-        <v/>
+        <v>80</v>
       </c>
       <c r="BI35" s="101">
         <v>80</v>
@@ -14520,11 +14630,11 @@
       </c>
       <c r="CS35" s="97">
         <f t="shared" si="45"/>
-        <v>72.147999999999996</v>
+        <v>73.647999999999996</v>
       </c>
       <c r="CT35" s="97">
         <f>IFERROR(VLOOKUP(CS35,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="CU35" s="86" t="str">
         <f t="shared" si="42"/>
@@ -14676,9 +14786,9 @@
         <v/>
       </c>
       <c r="BG36" s="101"/>
-      <c r="BH36" s="85" t="str">
+      <c r="BH36" s="85">
         <f t="shared" si="21"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BI36" s="101"/>
       <c r="BJ36" s="85">
@@ -14819,14 +14929,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G37" s="101"/>
+      <c r="G37" s="101">
+        <v>58</v>
+      </c>
       <c r="H37" s="85">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>72.5</v>
       </c>
       <c r="I37" s="88">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>21.75</v>
       </c>
       <c r="J37" s="101"/>
       <c r="K37" s="85">
@@ -14928,21 +15040,23 @@
       </c>
       <c r="BC37" s="91">
         <f t="shared" si="18"/>
-        <v>26.285714285714285</v>
+        <v>48.035714285714285</v>
       </c>
       <c r="BD37" s="91">
         <f t="shared" si="19"/>
-        <v>26.29</v>
+        <v>48.04</v>
       </c>
       <c r="BE37" s="101"/>
       <c r="BF37" s="85" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="BG37" s="101"/>
-      <c r="BH37" s="85" t="str">
+      <c r="BG37" s="101">
+        <v>80</v>
+      </c>
+      <c r="BH37" s="85">
         <f t="shared" si="21"/>
-        <v/>
+        <v>80</v>
       </c>
       <c r="BI37" s="101">
         <v>80</v>
@@ -15066,7 +15180,7 @@
       </c>
       <c r="CS37" s="97">
         <f t="shared" si="45"/>
-        <v>52.713999999999999</v>
+        <v>61.414000000000001</v>
       </c>
       <c r="CT37" s="97">
         <f>IFERROR(VLOOKUP(CS37,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -15099,14 +15213,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G38" s="101"/>
+      <c r="G38" s="101">
+        <v>58</v>
+      </c>
       <c r="H38" s="85">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>72.5</v>
       </c>
       <c r="I38" s="88">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>21.75</v>
       </c>
       <c r="J38" s="101"/>
       <c r="K38" s="85">
@@ -15204,11 +15320,11 @@
       </c>
       <c r="BC38" s="91">
         <f t="shared" si="18"/>
-        <v>10</v>
+        <v>31.75</v>
       </c>
       <c r="BD38" s="91">
         <f t="shared" si="19"/>
-        <v>10</v>
+        <v>31.75</v>
       </c>
       <c r="BE38" s="101"/>
       <c r="BF38" s="85" t="str">
@@ -15216,9 +15332,9 @@
         <v/>
       </c>
       <c r="BG38" s="101"/>
-      <c r="BH38" s="85" t="str">
+      <c r="BH38" s="85">
         <f t="shared" si="21"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BI38" s="101">
         <v>80</v>
@@ -15229,7 +15345,7 @@
       </c>
       <c r="BK38" s="96">
         <f t="shared" si="22"/>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="BL38" s="101">
         <v>100</v>
@@ -15334,15 +15450,15 @@
       </c>
       <c r="CQ38" s="92">
         <f t="shared" si="39"/>
-        <v>72.5</v>
+        <v>52.5</v>
       </c>
       <c r="CR38" s="92">
         <f t="shared" si="40"/>
-        <v>72.5</v>
+        <v>52.5</v>
       </c>
       <c r="CS38" s="97">
         <f t="shared" si="45"/>
-        <v>47.5</v>
+        <v>44.2</v>
       </c>
       <c r="CT38" s="97">
         <f>IFERROR(VLOOKUP(CS38,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -15377,14 +15493,16 @@
         <f t="shared" si="0"/>
         <v>18.857142857142854</v>
       </c>
-      <c r="G39" s="101"/>
+      <c r="G39" s="101">
+        <v>54</v>
+      </c>
       <c r="H39" s="85">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>67.5</v>
       </c>
       <c r="I39" s="88">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20.25</v>
       </c>
       <c r="J39" s="101">
         <v>15</v>
@@ -15488,21 +15606,23 @@
       </c>
       <c r="BC39" s="91">
         <f t="shared" si="18"/>
-        <v>47.607142857142854</v>
+        <v>67.857142857142861</v>
       </c>
       <c r="BD39" s="91">
         <f t="shared" si="19"/>
-        <v>47.61</v>
+        <v>67.86</v>
       </c>
       <c r="BE39" s="101"/>
       <c r="BF39" s="85" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="BG39" s="101"/>
-      <c r="BH39" s="85" t="str">
+      <c r="BG39" s="101">
+        <v>80</v>
+      </c>
+      <c r="BH39" s="85">
         <f t="shared" si="21"/>
-        <v/>
+        <v>80</v>
       </c>
       <c r="BI39" s="101">
         <v>80</v>
@@ -15634,11 +15754,11 @@
       </c>
       <c r="CS39" s="97">
         <f t="shared" si="45"/>
-        <v>70.445999999999998</v>
+        <v>78.546000000000006</v>
       </c>
       <c r="CT39" s="97">
         <f>IFERROR(VLOOKUP(CS39,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="CU39" s="86" t="str">
         <f t="shared" si="42"/>
@@ -15669,14 +15789,16 @@
         <f t="shared" si="0"/>
         <v>21.857142857142854</v>
       </c>
-      <c r="G40" s="101"/>
+      <c r="G40" s="101">
+        <v>69</v>
+      </c>
       <c r="H40" s="85">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>86.25</v>
       </c>
       <c r="I40" s="88">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>25.875</v>
       </c>
       <c r="J40" s="101">
         <v>12</v>
@@ -15782,21 +15904,23 @@
       </c>
       <c r="BC40" s="91">
         <f t="shared" si="18"/>
-        <v>56.838095238095235</v>
+        <v>82.713095238095235</v>
       </c>
       <c r="BD40" s="91">
         <f t="shared" si="19"/>
-        <v>56.84</v>
+        <v>82.71</v>
       </c>
       <c r="BE40" s="101"/>
       <c r="BF40" s="85" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="BG40" s="101"/>
-      <c r="BH40" s="85" t="str">
+      <c r="BG40" s="101">
+        <v>80</v>
+      </c>
+      <c r="BH40" s="85">
         <f t="shared" si="21"/>
-        <v/>
+        <v>80</v>
       </c>
       <c r="BI40" s="101">
         <v>80</v>
@@ -15928,11 +16052,11 @@
       </c>
       <c r="CS40" s="97">
         <f t="shared" si="45"/>
-        <v>73.334000000000003</v>
+        <v>83.681999999999988</v>
       </c>
       <c r="CT40" s="97">
         <f>IFERROR(VLOOKUP(CS40,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CU40" s="86" t="str">
         <f t="shared" si="42"/>
@@ -15963,14 +16087,16 @@
         <f t="shared" si="0"/>
         <v>20.571428571428569</v>
       </c>
-      <c r="G41" s="101"/>
+      <c r="G41" s="101">
+        <v>53</v>
+      </c>
       <c r="H41" s="85">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>66.25</v>
       </c>
       <c r="I41" s="88">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>19.875</v>
       </c>
       <c r="J41" s="101">
         <v>13</v>
@@ -16076,21 +16202,23 @@
       </c>
       <c r="BC41" s="91">
         <f t="shared" si="18"/>
-        <v>53.678571428571431</v>
+        <v>73.553571428571431</v>
       </c>
       <c r="BD41" s="91">
         <f t="shared" si="19"/>
-        <v>53.68</v>
+        <v>73.55</v>
       </c>
       <c r="BE41" s="101"/>
       <c r="BF41" s="85" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="BG41" s="101"/>
-      <c r="BH41" s="85" t="str">
+      <c r="BG41" s="101">
+        <v>80</v>
+      </c>
+      <c r="BH41" s="85">
         <f t="shared" si="21"/>
-        <v/>
+        <v>80</v>
       </c>
       <c r="BI41" s="101">
         <v>80</v>
@@ -16222,11 +16350,11 @@
       </c>
       <c r="CS41" s="97">
         <f t="shared" si="45"/>
-        <v>72.97</v>
+        <v>80.918000000000006</v>
       </c>
       <c r="CT41" s="97">
         <f>IFERROR(VLOOKUP(CS41,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="CU41" s="86" t="str">
         <f t="shared" si="42"/>
@@ -16257,14 +16385,16 @@
         <f t="shared" ref="F42:F70" si="46">IFERROR((E42*$F$7), " ")</f>
         <v>19.285714285714288</v>
       </c>
-      <c r="G42" s="101"/>
+      <c r="G42" s="101">
+        <v>59</v>
+      </c>
       <c r="H42" s="85">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>73.75</v>
       </c>
       <c r="I42" s="88">
         <f t="shared" ref="I42:I70" si="47">IFERROR((H42*$I$7), "")</f>
-        <v>0</v>
+        <v>22.125</v>
       </c>
       <c r="J42" s="101">
         <v>13</v>
@@ -16368,21 +16498,23 @@
       </c>
       <c r="BC42" s="91">
         <f t="shared" si="18"/>
-        <v>49.307142857142864</v>
+        <v>71.432142857142864</v>
       </c>
       <c r="BD42" s="91">
         <f t="shared" si="19"/>
-        <v>49.31</v>
+        <v>71.430000000000007</v>
       </c>
       <c r="BE42" s="101"/>
       <c r="BF42" s="85" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="BG42" s="101"/>
-      <c r="BH42" s="85" t="str">
+      <c r="BG42" s="101">
+        <v>80</v>
+      </c>
+      <c r="BH42" s="85">
         <f t="shared" si="21"/>
-        <v/>
+        <v>80</v>
       </c>
       <c r="BI42" s="101">
         <v>80</v>
@@ -16514,11 +16646,11 @@
       </c>
       <c r="CS42" s="97">
         <f t="shared" si="45"/>
-        <v>70.52600000000001</v>
+        <v>79.373999999999995</v>
       </c>
       <c r="CT42" s="97">
         <f>IFERROR(VLOOKUP(CS42,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="CU42" s="86" t="str">
         <f t="shared" si="42"/>
@@ -16549,14 +16681,16 @@
         <f t="shared" si="46"/>
         <v>23.142857142857146</v>
       </c>
-      <c r="G43" s="101"/>
+      <c r="G43" s="101">
+        <v>63</v>
+      </c>
       <c r="H43" s="85">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>78.75</v>
       </c>
       <c r="I43" s="88">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>23.625</v>
       </c>
       <c r="J43" s="101">
         <v>16</v>
@@ -16662,21 +16796,23 @@
       </c>
       <c r="BC43" s="91">
         <f t="shared" si="18"/>
-        <v>57.114285714285721</v>
+        <v>80.739285714285728</v>
       </c>
       <c r="BD43" s="91">
         <f t="shared" si="19"/>
-        <v>57.11</v>
+        <v>80.739999999999995</v>
       </c>
       <c r="BE43" s="101"/>
       <c r="BF43" s="85" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="BG43" s="101"/>
-      <c r="BH43" s="85" t="str">
+      <c r="BG43" s="101">
+        <v>80</v>
+      </c>
+      <c r="BH43" s="85">
         <f t="shared" si="21"/>
-        <v/>
+        <v>80</v>
       </c>
       <c r="BI43" s="101">
         <v>80</v>
@@ -16798,15 +16934,15 @@
       </c>
       <c r="CS43" s="97">
         <f t="shared" si="45"/>
-        <v>65.444000000000003</v>
+        <v>74.896000000000001</v>
       </c>
       <c r="CT43" s="97">
         <f>IFERROR(VLOOKUP(CS43,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="CU43" s="86" t="str">
         <f t="shared" si="42"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="44" spans="1:99">
@@ -16833,14 +16969,16 @@
         <f t="shared" si="46"/>
         <v>11.571428571428573</v>
       </c>
-      <c r="G44" s="101"/>
+      <c r="G44" s="101">
+        <v>52</v>
+      </c>
       <c r="H44" s="85">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="I44" s="88">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="J44" s="101">
         <v>9</v>
@@ -16946,21 +17084,23 @@
       </c>
       <c r="BC44" s="91">
         <f t="shared" si="18"/>
-        <v>41.230952380952388</v>
+        <v>60.730952380952388</v>
       </c>
       <c r="BD44" s="91">
         <f t="shared" si="19"/>
-        <v>41.23</v>
+        <v>60.73</v>
       </c>
       <c r="BE44" s="101"/>
       <c r="BF44" s="85" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="BG44" s="101"/>
-      <c r="BH44" s="85" t="str">
+      <c r="BG44" s="101">
+        <v>80</v>
+      </c>
+      <c r="BH44" s="85">
         <f t="shared" si="21"/>
-        <v/>
+        <v>80</v>
       </c>
       <c r="BI44" s="101">
         <v>80</v>
@@ -17092,15 +17232,15 @@
       </c>
       <c r="CS44" s="97">
         <f t="shared" si="45"/>
-        <v>65.793999999999997</v>
+        <v>73.593999999999994</v>
       </c>
       <c r="CT44" s="97">
         <f>IFERROR(VLOOKUP(CS44,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="CU44" s="86" t="str">
         <f t="shared" si="42"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="45" spans="1:99">
@@ -17238,9 +17378,9 @@
         <v/>
       </c>
       <c r="BG45" s="101"/>
-      <c r="BH45" s="85" t="str">
+      <c r="BH45" s="85">
         <f t="shared" si="21"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BI45" s="101"/>
       <c r="BJ45" s="85">
@@ -17486,9 +17626,9 @@
         <v/>
       </c>
       <c r="BG46" s="101"/>
-      <c r="BH46" s="85" t="str">
+      <c r="BH46" s="85">
         <f t="shared" si="21"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BI46" s="101"/>
       <c r="BJ46" s="85">
@@ -17734,9 +17874,9 @@
         <v/>
       </c>
       <c r="BG47" s="101"/>
-      <c r="BH47" s="85" t="str">
+      <c r="BH47" s="85">
         <f t="shared" si="21"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BI47" s="101"/>
       <c r="BJ47" s="85">
@@ -17982,9 +18122,9 @@
         <v/>
       </c>
       <c r="BG48" s="101"/>
-      <c r="BH48" s="85" t="str">
+      <c r="BH48" s="85">
         <f t="shared" si="21"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BI48" s="101"/>
       <c r="BJ48" s="85">
@@ -18230,9 +18370,9 @@
         <v/>
       </c>
       <c r="BG49" s="101"/>
-      <c r="BH49" s="85" t="str">
+      <c r="BH49" s="85">
         <f t="shared" si="21"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BI49" s="101"/>
       <c r="BJ49" s="85">
@@ -18478,9 +18618,9 @@
         <v/>
       </c>
       <c r="BG50" s="101"/>
-      <c r="BH50" s="85" t="str">
+      <c r="BH50" s="85">
         <f t="shared" si="21"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BI50" s="101"/>
       <c r="BJ50" s="85">
@@ -18726,9 +18866,9 @@
         <v/>
       </c>
       <c r="BG51" s="101"/>
-      <c r="BH51" s="85" t="str">
+      <c r="BH51" s="85">
         <f t="shared" si="21"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BI51" s="101"/>
       <c r="BJ51" s="85">
@@ -18974,9 +19114,9 @@
         <v/>
       </c>
       <c r="BG52" s="101"/>
-      <c r="BH52" s="85" t="str">
+      <c r="BH52" s="85">
         <f t="shared" si="21"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BI52" s="101"/>
       <c r="BJ52" s="85">
@@ -19222,9 +19362,9 @@
         <v/>
       </c>
       <c r="BG53" s="101"/>
-      <c r="BH53" s="85" t="str">
+      <c r="BH53" s="85">
         <f t="shared" si="21"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BI53" s="101"/>
       <c r="BJ53" s="85">
@@ -19470,9 +19610,9 @@
         <v/>
       </c>
       <c r="BG54" s="101"/>
-      <c r="BH54" s="85" t="str">
+      <c r="BH54" s="85">
         <f t="shared" si="21"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BI54" s="101"/>
       <c r="BJ54" s="85">
@@ -19718,9 +19858,9 @@
         <v/>
       </c>
       <c r="BG55" s="101"/>
-      <c r="BH55" s="85" t="str">
+      <c r="BH55" s="85">
         <f t="shared" si="21"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BI55" s="101"/>
       <c r="BJ55" s="85">
@@ -19966,9 +20106,9 @@
         <v/>
       </c>
       <c r="BG56" s="101"/>
-      <c r="BH56" s="85" t="str">
+      <c r="BH56" s="85">
         <f t="shared" si="21"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BI56" s="101"/>
       <c r="BJ56" s="85">
@@ -20214,9 +20354,9 @@
         <v/>
       </c>
       <c r="BG57" s="101"/>
-      <c r="BH57" s="85" t="str">
+      <c r="BH57" s="85">
         <f t="shared" si="21"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BI57" s="101"/>
       <c r="BJ57" s="85">
@@ -20462,9 +20602,9 @@
         <v/>
       </c>
       <c r="BG58" s="101"/>
-      <c r="BH58" s="85" t="str">
+      <c r="BH58" s="85">
         <f t="shared" si="21"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BI58" s="101"/>
       <c r="BJ58" s="85">
@@ -20710,9 +20850,9 @@
         <v/>
       </c>
       <c r="BG59" s="101"/>
-      <c r="BH59" s="85" t="str">
+      <c r="BH59" s="85">
         <f t="shared" si="21"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BI59" s="101"/>
       <c r="BJ59" s="85">
@@ -20958,9 +21098,9 @@
         <v/>
       </c>
       <c r="BG60" s="101"/>
-      <c r="BH60" s="85" t="str">
+      <c r="BH60" s="85">
         <f t="shared" si="21"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BI60" s="101"/>
       <c r="BJ60" s="85">
@@ -21206,9 +21346,9 @@
         <v/>
       </c>
       <c r="BG61" s="101"/>
-      <c r="BH61" s="85" t="str">
+      <c r="BH61" s="85">
         <f t="shared" si="21"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BI61" s="101"/>
       <c r="BJ61" s="85">
@@ -21454,9 +21594,9 @@
         <v/>
       </c>
       <c r="BG62" s="101"/>
-      <c r="BH62" s="85" t="str">
+      <c r="BH62" s="85">
         <f t="shared" si="21"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BI62" s="101"/>
       <c r="BJ62" s="85">
@@ -21702,9 +21842,9 @@
         <v/>
       </c>
       <c r="BG63" s="101"/>
-      <c r="BH63" s="85" t="str">
+      <c r="BH63" s="85">
         <f t="shared" si="21"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BI63" s="101"/>
       <c r="BJ63" s="85">
@@ -21950,9 +22090,9 @@
         <v/>
       </c>
       <c r="BG64" s="101"/>
-      <c r="BH64" s="85" t="str">
+      <c r="BH64" s="85">
         <f t="shared" si="21"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BI64" s="101"/>
       <c r="BJ64" s="85">
@@ -22198,9 +22338,9 @@
         <v/>
       </c>
       <c r="BG65" s="101"/>
-      <c r="BH65" s="85" t="str">
+      <c r="BH65" s="85">
         <f t="shared" si="21"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BI65" s="101"/>
       <c r="BJ65" s="85">
@@ -22446,9 +22586,9 @@
         <v/>
       </c>
       <c r="BG66" s="101"/>
-      <c r="BH66" s="85" t="str">
+      <c r="BH66" s="85">
         <f t="shared" si="21"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BI66" s="101"/>
       <c r="BJ66" s="85">
@@ -22694,9 +22834,9 @@
         <v/>
       </c>
       <c r="BG67" s="101"/>
-      <c r="BH67" s="85" t="str">
+      <c r="BH67" s="85">
         <f t="shared" si="21"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BI67" s="101"/>
       <c r="BJ67" s="85">
@@ -22942,9 +23082,9 @@
         <v/>
       </c>
       <c r="BG68" s="101"/>
-      <c r="BH68" s="85" t="str">
+      <c r="BH68" s="85">
         <f t="shared" si="21"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BI68" s="101"/>
       <c r="BJ68" s="85">
@@ -23190,9 +23330,9 @@
         <v/>
       </c>
       <c r="BG69" s="101"/>
-      <c r="BH69" s="85" t="str">
+      <c r="BH69" s="85">
         <f t="shared" si="21"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BI69" s="101"/>
       <c r="BJ69" s="85">
@@ -23438,9 +23578,9 @@
         <v/>
       </c>
       <c r="BG70" s="101"/>
-      <c r="BH70" s="85" t="str">
+      <c r="BH70" s="85">
         <f t="shared" si="21"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BI70" s="101"/>
       <c r="BJ70" s="85">
@@ -23659,7 +23799,7 @@
   </conditionalFormatting>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Input" prompt="Date(mm-dd)" sqref="BL7:CO7 BE7:BJ7 AV7:BA7 AO7:AT7 E7:F7 H7:AM7"/>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Grading System" error="Enter 5-100 Only" promptTitle="Input" prompt="No. of Items (5-100)" sqref="D9:E9 CN9 CL9 CJ9 CH9 CF9 CD9 CB9 BZ9 BX9 BT9 BV9 BR9 BN9 BP9 BL9 BI9 BG9 BE9 AL9 AJ9 AH9 AF9 AD9 AB9 Z9 X9 V9 T9 R9 P9 N9 L9 J9 G9:H9 AO9 AQ9 AS9">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Grading System" error="Enter 5-100 Only" promptTitle="Input" prompt="No. of Items (5-100)" sqref="D9:E9 CN9 CL9 CJ9 CH9 CF9 CD9 CB9 BZ9 BX9 BT9 BV9 BR9 BN9 BP9 BL9 BI9 AS9 BE9 AL9 AJ9 AH9 AF9 AD9 AB9 Z9 X9 V9 T9 R9 P9 N9 L9 J9 G9:H9 AO9 AQ9 BG9">
       <formula1>5</formula1>
       <formula2>100</formula2>
     </dataValidation>
@@ -23858,7 +23998,7 @@
       </c>
       <c r="D8" s="82">
         <f>'RAW GRADES'!I10</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E8" s="51">
         <f>'RAW GRADES'!AN10</f>
@@ -23874,11 +24014,11 @@
       </c>
       <c r="H8" s="52">
         <f>'RAW GRADES'!BC10</f>
-        <v>40.571428571428569</v>
+        <v>52.571428571428569</v>
       </c>
       <c r="I8" s="52">
         <f>'RAW GRADES'!BD10</f>
-        <v>40.57</v>
+        <v>52.57</v>
       </c>
       <c r="J8" s="51">
         <f>'RAW GRADES'!BK10</f>
@@ -23898,15 +24038,15 @@
       </c>
       <c r="N8" s="54">
         <f>'RAW GRADES'!CS10</f>
-        <v>65.23</v>
+        <v>70.03</v>
       </c>
       <c r="O8" s="55">
         <f>'RAW GRADES'!CT10</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P8" s="58" t="str">
         <f>IF(O8&gt;3,"FAILED","PASSED")</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -23923,7 +24063,7 @@
       </c>
       <c r="D9" s="82">
         <f>'RAW GRADES'!I11</f>
-        <v>0</v>
+        <v>20.625</v>
       </c>
       <c r="E9" s="51">
         <f>'RAW GRADES'!AN11</f>
@@ -23939,11 +24079,11 @@
       </c>
       <c r="H9" s="52">
         <f>'RAW GRADES'!BC11</f>
-        <v>49.197619047619042</v>
+        <v>69.822619047619042</v>
       </c>
       <c r="I9" s="52">
         <f>'RAW GRADES'!BD11</f>
-        <v>49.2</v>
+        <v>69.819999999999993</v>
       </c>
       <c r="J9" s="51">
         <f>'RAW GRADES'!BK11</f>
@@ -23963,15 +24103,15 @@
       </c>
       <c r="N9" s="57">
         <f>'RAW GRADES'!CS11</f>
-        <v>68.981999999999999</v>
+        <v>77.22999999999999</v>
       </c>
       <c r="O9" s="55">
         <f>'RAW GRADES'!CT11</f>
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="P9" s="58" t="str">
         <f>IF(O9&gt;3,"FAILED","PASSED")</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -23988,7 +24128,7 @@
       </c>
       <c r="D10" s="82">
         <f>'RAW GRADES'!I12</f>
-        <v>0</v>
+        <v>19.875</v>
       </c>
       <c r="E10" s="51">
         <f>'RAW GRADES'!AN12</f>
@@ -24004,11 +24144,11 @@
       </c>
       <c r="H10" s="52">
         <f>'RAW GRADES'!BC12</f>
-        <v>51.807142857142857</v>
+        <v>71.68214285714285</v>
       </c>
       <c r="I10" s="52">
         <f>'RAW GRADES'!BD12</f>
-        <v>51.81</v>
+        <v>71.680000000000007</v>
       </c>
       <c r="J10" s="51">
         <f>'RAW GRADES'!BK12</f>
@@ -24028,15 +24168,15 @@
       </c>
       <c r="N10" s="57">
         <f>'RAW GRADES'!CS12</f>
-        <v>69.126000000000005</v>
+        <v>77.074000000000012</v>
       </c>
       <c r="O10" s="55">
         <f>'RAW GRADES'!CT12</f>
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="P10" s="58" t="str">
         <f t="shared" ref="P10:P68" si="0">IF(O10&gt;3,"FAILED","PASSED")</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -24053,11 +24193,11 @@
       </c>
       <c r="D11" s="82">
         <f>'RAW GRADES'!I13</f>
-        <v>0</v>
+        <v>14.625</v>
       </c>
       <c r="E11" s="51">
         <f>'RAW GRADES'!AN13</f>
-        <v>5.8500000000000005</v>
+        <v>13.469047619047622</v>
       </c>
       <c r="F11" s="51">
         <f>'RAW GRADES'!AU13</f>
@@ -24069,11 +24209,11 @@
       </c>
       <c r="H11" s="52">
         <f>'RAW GRADES'!BC13</f>
-        <v>41.135714285714286</v>
+        <v>63.379761904761907</v>
       </c>
       <c r="I11" s="52">
         <f>'RAW GRADES'!BD13</f>
-        <v>41.14</v>
+        <v>63.38</v>
       </c>
       <c r="J11" s="51">
         <f>'RAW GRADES'!BK13</f>
@@ -24093,15 +24233,15 @@
       </c>
       <c r="N11" s="57">
         <f>'RAW GRADES'!CS13</f>
-        <v>65.853999999999999</v>
+        <v>74.75</v>
       </c>
       <c r="O11" s="55">
         <f>'RAW GRADES'!CT13</f>
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="P11" s="58" t="str">
         <f t="shared" si="0"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -24118,7 +24258,7 @@
       </c>
       <c r="D12" s="82">
         <f>'RAW GRADES'!I14</f>
-        <v>0</v>
+        <v>17.625</v>
       </c>
       <c r="E12" s="51">
         <f>'RAW GRADES'!AN14</f>
@@ -24134,11 +24274,11 @@
       </c>
       <c r="H12" s="52">
         <f>'RAW GRADES'!BC14</f>
-        <v>37.714285714285715</v>
+        <v>55.339285714285715</v>
       </c>
       <c r="I12" s="52">
         <f>'RAW GRADES'!BD14</f>
-        <v>37.71</v>
+        <v>55.34</v>
       </c>
       <c r="J12" s="51">
         <f>'RAW GRADES'!BK14</f>
@@ -24158,15 +24298,15 @@
       </c>
       <c r="N12" s="57">
         <f>'RAW GRADES'!CS14</f>
-        <v>63.486000000000004</v>
+        <v>70.538000000000011</v>
       </c>
       <c r="O12" s="55">
         <f>'RAW GRADES'!CT14</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P12" s="58" t="str">
         <f t="shared" si="0"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -24183,7 +24323,7 @@
       </c>
       <c r="D13" s="82">
         <f>'RAW GRADES'!I15</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E13" s="51">
         <f>'RAW GRADES'!AN15</f>
@@ -24199,11 +24339,11 @@
       </c>
       <c r="H13" s="52">
         <f>'RAW GRADES'!BC15</f>
-        <v>42.242857142857147</v>
+        <v>60.242857142857147</v>
       </c>
       <c r="I13" s="52">
         <f>'RAW GRADES'!BD15</f>
-        <v>42.24</v>
+        <v>60.24</v>
       </c>
       <c r="J13" s="51">
         <f>'RAW GRADES'!BK15</f>
@@ -24223,15 +24363,15 @@
       </c>
       <c r="N13" s="57">
         <f>'RAW GRADES'!CS15</f>
-        <v>66.858000000000004</v>
+        <v>74.057999999999993</v>
       </c>
       <c r="O13" s="55">
         <f>'RAW GRADES'!CT15</f>
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="P13" s="58" t="str">
         <f t="shared" si="0"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -24248,7 +24388,7 @@
       </c>
       <c r="D14" s="82">
         <f>'RAW GRADES'!I16</f>
-        <v>0</v>
+        <v>19.875</v>
       </c>
       <c r="E14" s="51">
         <f>'RAW GRADES'!AN16</f>
@@ -24264,11 +24404,11 @@
       </c>
       <c r="H14" s="52">
         <f>'RAW GRADES'!BC16</f>
-        <v>50.683333333333337</v>
+        <v>70.558333333333337</v>
       </c>
       <c r="I14" s="52">
         <f>'RAW GRADES'!BD16</f>
-        <v>50.68</v>
+        <v>70.56</v>
       </c>
       <c r="J14" s="51">
         <f>'RAW GRADES'!BK16</f>
@@ -24288,11 +24428,11 @@
       </c>
       <c r="N14" s="57">
         <f>'RAW GRADES'!CS16</f>
-        <v>73.27</v>
+        <v>81.222000000000008</v>
       </c>
       <c r="O14" s="55">
         <f>'RAW GRADES'!CT16</f>
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="P14" s="58" t="str">
         <f t="shared" si="0"/>
@@ -24313,7 +24453,7 @@
       </c>
       <c r="D15" s="82">
         <f>'RAW GRADES'!I17</f>
-        <v>0</v>
+        <v>21.75</v>
       </c>
       <c r="E15" s="51">
         <f>'RAW GRADES'!AN17</f>
@@ -24329,15 +24469,15 @@
       </c>
       <c r="H15" s="52">
         <f>'RAW GRADES'!BC17</f>
-        <v>57.740476190476187</v>
+        <v>79.490476190476187</v>
       </c>
       <c r="I15" s="52">
         <f>'RAW GRADES'!BD17</f>
-        <v>57.74</v>
+        <v>79.489999999999995</v>
       </c>
       <c r="J15" s="51">
         <f>'RAW GRADES'!BK17</f>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K15" s="51">
         <f>'RAW GRADES'!CP17</f>
@@ -24345,19 +24485,19 @@
       </c>
       <c r="L15" s="51">
         <f>'RAW GRADES'!CQ17</f>
-        <v>88.333333333333343</v>
+        <v>93.333333333333343</v>
       </c>
       <c r="M15" s="53">
         <f>'RAW GRADES'!CR17</f>
-        <v>88.33</v>
+        <v>93.33</v>
       </c>
       <c r="N15" s="57">
         <f>'RAW GRADES'!CS17</f>
-        <v>76.093999999999994</v>
+        <v>87.793999999999997</v>
       </c>
       <c r="O15" s="55">
         <f>'RAW GRADES'!CT17</f>
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="P15" s="58" t="str">
         <f t="shared" si="0"/>
@@ -24378,7 +24518,7 @@
       </c>
       <c r="D16" s="82">
         <f>'RAW GRADES'!I18</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E16" s="51">
         <f>'RAW GRADES'!AN18</f>
@@ -24394,11 +24534,11 @@
       </c>
       <c r="H16" s="52">
         <f>'RAW GRADES'!BC18</f>
-        <v>57.609523809523807</v>
+        <v>84.609523809523807</v>
       </c>
       <c r="I16" s="52">
         <f>'RAW GRADES'!BD18</f>
-        <v>57.61</v>
+        <v>84.61</v>
       </c>
       <c r="J16" s="51">
         <f>'RAW GRADES'!BK18</f>
@@ -24418,11 +24558,11 @@
       </c>
       <c r="N16" s="57">
         <f>'RAW GRADES'!CS18</f>
-        <v>74.146000000000001</v>
+        <v>84.945999999999998</v>
       </c>
       <c r="O16" s="55">
         <f>'RAW GRADES'!CT18</f>
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="P16" s="58" t="str">
         <f t="shared" si="0"/>
@@ -24443,11 +24583,11 @@
       </c>
       <c r="D17" s="82">
         <f>'RAW GRADES'!I19</f>
-        <v>0</v>
+        <v>16.125</v>
       </c>
       <c r="E17" s="51">
         <f>'RAW GRADES'!AN19</f>
-        <v>9.1333333333333329</v>
+        <v>14.609523809523811</v>
       </c>
       <c r="F17" s="51">
         <f>'RAW GRADES'!AU19</f>
@@ -24459,11 +24599,11 @@
       </c>
       <c r="H17" s="52">
         <f>'RAW GRADES'!BC19</f>
-        <v>47.561904761904756</v>
+        <v>69.163095238095238</v>
       </c>
       <c r="I17" s="52">
         <f>'RAW GRADES'!BD19</f>
-        <v>47.56</v>
+        <v>69.16</v>
       </c>
       <c r="J17" s="51">
         <f>'RAW GRADES'!BK19</f>
@@ -24483,11 +24623,11 @@
       </c>
       <c r="N17" s="57">
         <f>'RAW GRADES'!CS19</f>
-        <v>70.924000000000007</v>
+        <v>79.563999999999993</v>
       </c>
       <c r="O17" s="55">
         <f>'RAW GRADES'!CT19</f>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="P17" s="58" t="str">
         <f t="shared" si="0"/>
@@ -24573,7 +24713,7 @@
       </c>
       <c r="D19" s="82">
         <f>'RAW GRADES'!I21</f>
-        <v>0</v>
+        <v>27.375</v>
       </c>
       <c r="E19" s="51">
         <f>'RAW GRADES'!AN21</f>
@@ -24589,11 +24729,11 @@
       </c>
       <c r="H19" s="52">
         <f>'RAW GRADES'!BC21</f>
-        <v>45.864285714285714</v>
+        <v>73.239285714285714</v>
       </c>
       <c r="I19" s="52">
         <f>'RAW GRADES'!BD21</f>
-        <v>45.86</v>
+        <v>73.239999999999995</v>
       </c>
       <c r="J19" s="51">
         <f>'RAW GRADES'!BK21</f>
@@ -24613,11 +24753,11 @@
       </c>
       <c r="N19" s="57">
         <f>'RAW GRADES'!CS21</f>
-        <v>70.045999999999992</v>
+        <v>80.99799999999999</v>
       </c>
       <c r="O19" s="55">
         <f>'RAW GRADES'!CT21</f>
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="P19" s="58" t="str">
         <f t="shared" si="0"/>
@@ -24638,7 +24778,7 @@
       </c>
       <c r="D20" s="82">
         <f>'RAW GRADES'!I22</f>
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="E20" s="51">
         <f>'RAW GRADES'!AN22</f>
@@ -24654,11 +24794,11 @@
       </c>
       <c r="H20" s="52">
         <f>'RAW GRADES'!BC22</f>
-        <v>50.221428571428568</v>
+        <v>72.721428571428561</v>
       </c>
       <c r="I20" s="52">
         <f>'RAW GRADES'!BD22</f>
-        <v>50.22</v>
+        <v>72.72</v>
       </c>
       <c r="J20" s="51">
         <f>'RAW GRADES'!BK22</f>
@@ -24678,11 +24818,11 @@
       </c>
       <c r="N20" s="57">
         <f>'RAW GRADES'!CS22</f>
-        <v>72.09</v>
+        <v>81.09</v>
       </c>
       <c r="O20" s="55">
         <f>'RAW GRADES'!CT22</f>
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="P20" s="58" t="str">
         <f t="shared" si="0"/>
@@ -24703,7 +24843,7 @@
       </c>
       <c r="D21" s="82">
         <f>'RAW GRADES'!I23</f>
-        <v>0</v>
+        <v>21.375</v>
       </c>
       <c r="E21" s="51">
         <f>'RAW GRADES'!AN23</f>
@@ -24719,11 +24859,11 @@
       </c>
       <c r="H21" s="52">
         <f>'RAW GRADES'!BC23</f>
-        <v>59.804761904761904</v>
+        <v>81.179761904761904</v>
       </c>
       <c r="I21" s="52">
         <f>'RAW GRADES'!BD23</f>
-        <v>59.8</v>
+        <v>81.180000000000007</v>
       </c>
       <c r="J21" s="51">
         <f>'RAW GRADES'!BK23</f>
@@ -24743,11 +24883,11 @@
       </c>
       <c r="N21" s="57">
         <f>'RAW GRADES'!CS23</f>
-        <v>76.317999999999998</v>
+        <v>84.87</v>
       </c>
       <c r="O21" s="55">
         <f>'RAW GRADES'!CT23</f>
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="P21" s="58" t="str">
         <f t="shared" si="0"/>
@@ -24768,7 +24908,7 @@
       </c>
       <c r="D22" s="82">
         <f>'RAW GRADES'!I24</f>
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="E22" s="51">
         <f>'RAW GRADES'!AN24</f>
@@ -24784,11 +24924,11 @@
       </c>
       <c r="H22" s="52">
         <f>'RAW GRADES'!BC24</f>
-        <v>52.023809523809526</v>
+        <v>71.523809523809518</v>
       </c>
       <c r="I22" s="52">
         <f>'RAW GRADES'!BD24</f>
-        <v>52.02</v>
+        <v>71.52</v>
       </c>
       <c r="J22" s="51">
         <f>'RAW GRADES'!BK24</f>
@@ -24808,11 +24948,11 @@
       </c>
       <c r="N22" s="57">
         <f>'RAW GRADES'!CS24</f>
-        <v>71.507999999999996</v>
+        <v>79.307999999999993</v>
       </c>
       <c r="O22" s="55">
         <f>'RAW GRADES'!CT24</f>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="P22" s="58" t="str">
         <f t="shared" si="0"/>
@@ -24833,7 +24973,7 @@
       </c>
       <c r="D23" s="82">
         <f>'RAW GRADES'!I25</f>
-        <v>0</v>
+        <v>19.875</v>
       </c>
       <c r="E23" s="51">
         <f>'RAW GRADES'!AN25</f>
@@ -24849,11 +24989,11 @@
       </c>
       <c r="H23" s="52">
         <f>'RAW GRADES'!BC25</f>
-        <v>49.392857142857139</v>
+        <v>69.267857142857139</v>
       </c>
       <c r="I23" s="52">
         <f>'RAW GRADES'!BD25</f>
-        <v>49.39</v>
+        <v>69.27</v>
       </c>
       <c r="J23" s="51">
         <f>'RAW GRADES'!BK25</f>
@@ -24873,15 +25013,15 @@
       </c>
       <c r="N23" s="57">
         <f>'RAW GRADES'!CS25</f>
-        <v>69.658000000000001</v>
+        <v>77.61</v>
       </c>
       <c r="O23" s="55">
         <f>'RAW GRADES'!CT25</f>
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="P23" s="58" t="str">
         <f t="shared" si="0"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -24898,7 +25038,7 @@
       </c>
       <c r="D24" s="82">
         <f>'RAW GRADES'!I26</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E24" s="51">
         <f>'RAW GRADES'!AN26</f>
@@ -24914,11 +25054,11 @@
       </c>
       <c r="H24" s="52">
         <f>'RAW GRADES'!BC26</f>
-        <v>51.364285714285714</v>
+        <v>69.364285714285714</v>
       </c>
       <c r="I24" s="52">
         <f>'RAW GRADES'!BD26</f>
-        <v>51.36</v>
+        <v>69.36</v>
       </c>
       <c r="J24" s="51">
         <f>'RAW GRADES'!BK26</f>
@@ -24938,15 +25078,15 @@
       </c>
       <c r="N24" s="57">
         <f>'RAW GRADES'!CS26</f>
-        <v>69.341999999999999</v>
+        <v>76.542000000000002</v>
       </c>
       <c r="O24" s="55">
         <f>'RAW GRADES'!CT26</f>
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="P24" s="58" t="str">
         <f t="shared" si="0"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -24963,7 +25103,7 @@
       </c>
       <c r="D25" s="82">
         <f>'RAW GRADES'!I27</f>
-        <v>0</v>
+        <v>18.75</v>
       </c>
       <c r="E25" s="51">
         <f>'RAW GRADES'!AN27</f>
@@ -24979,11 +25119,11 @@
       </c>
       <c r="H25" s="52">
         <f>'RAW GRADES'!BC27</f>
-        <v>50.23571428571428</v>
+        <v>68.98571428571428</v>
       </c>
       <c r="I25" s="52">
         <f>'RAW GRADES'!BD27</f>
-        <v>50.24</v>
+        <v>68.989999999999995</v>
       </c>
       <c r="J25" s="51">
         <f>'RAW GRADES'!BK27</f>
@@ -25003,15 +25143,15 @@
       </c>
       <c r="N25" s="57">
         <f>'RAW GRADES'!CS27</f>
-        <v>68.695999999999998</v>
+        <v>76.195999999999998</v>
       </c>
       <c r="O25" s="55">
         <f>'RAW GRADES'!CT27</f>
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="P25" s="58" t="str">
         <f t="shared" si="0"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -25028,7 +25168,7 @@
       </c>
       <c r="D26" s="82">
         <f>'RAW GRADES'!I28</f>
-        <v>0</v>
+        <v>20.625</v>
       </c>
       <c r="E26" s="51">
         <f>'RAW GRADES'!AN28</f>
@@ -25044,11 +25184,11 @@
       </c>
       <c r="H26" s="52">
         <f>'RAW GRADES'!BC28</f>
-        <v>63.176190476190477</v>
+        <v>83.80119047619047</v>
       </c>
       <c r="I26" s="52">
         <f>'RAW GRADES'!BD28</f>
-        <v>63.18</v>
+        <v>83.8</v>
       </c>
       <c r="J26" s="51">
         <f>'RAW GRADES'!BK28</f>
@@ -25068,11 +25208,11 @@
       </c>
       <c r="N26" s="57">
         <f>'RAW GRADES'!CS28</f>
-        <v>75.971999999999994</v>
+        <v>84.22</v>
       </c>
       <c r="O26" s="55">
         <f>'RAW GRADES'!CT28</f>
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="P26" s="58" t="str">
         <f t="shared" si="0"/>
@@ -25093,7 +25233,7 @@
       </c>
       <c r="D27" s="82">
         <f>'RAW GRADES'!I29</f>
-        <v>0</v>
+        <v>19.875</v>
       </c>
       <c r="E27" s="51">
         <f>'RAW GRADES'!AN29</f>
@@ -25109,15 +25249,15 @@
       </c>
       <c r="H27" s="52">
         <f>'RAW GRADES'!BC29</f>
-        <v>59.61666666666666</v>
+        <v>79.49166666666666</v>
       </c>
       <c r="I27" s="52">
         <f>'RAW GRADES'!BD29</f>
-        <v>59.62</v>
+        <v>79.489999999999995</v>
       </c>
       <c r="J27" s="51">
         <f>'RAW GRADES'!BK29</f>
-        <v>40</v>
+        <v>43.75</v>
       </c>
       <c r="K27" s="51">
         <f>'RAW GRADES'!CP29</f>
@@ -25125,19 +25265,19 @@
       </c>
       <c r="L27" s="51">
         <f>'RAW GRADES'!CQ29</f>
-        <v>86.666666666666657</v>
+        <v>90.416666666666657</v>
       </c>
       <c r="M27" s="53">
         <f>'RAW GRADES'!CR29</f>
-        <v>86.67</v>
+        <v>90.42</v>
       </c>
       <c r="N27" s="57">
         <f>'RAW GRADES'!CS29</f>
-        <v>75.849999999999994</v>
+        <v>86.048000000000002</v>
       </c>
       <c r="O27" s="55">
         <f>'RAW GRADES'!CT29</f>
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="P27" s="58" t="str">
         <f t="shared" si="0"/>
@@ -25158,7 +25298,7 @@
       </c>
       <c r="D28" s="82">
         <f>'RAW GRADES'!I30</f>
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="E28" s="51">
         <f>'RAW GRADES'!AN30</f>
@@ -25174,11 +25314,11 @@
       </c>
       <c r="H28" s="52">
         <f>'RAW GRADES'!BC30</f>
-        <v>54.792857142857144</v>
+        <v>74.292857142857144</v>
       </c>
       <c r="I28" s="52">
         <f>'RAW GRADES'!BD30</f>
-        <v>54.79</v>
+        <v>74.290000000000006</v>
       </c>
       <c r="J28" s="51">
         <f>'RAW GRADES'!BK30</f>
@@ -25198,11 +25338,11 @@
       </c>
       <c r="N28" s="57">
         <f>'RAW GRADES'!CS30</f>
-        <v>72.016000000000005</v>
+        <v>79.816000000000003</v>
       </c>
       <c r="O28" s="55">
         <f>'RAW GRADES'!CT30</f>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="P28" s="58" t="str">
         <f t="shared" si="0"/>
@@ -25223,11 +25363,11 @@
       </c>
       <c r="D29" s="82">
         <f>'RAW GRADES'!I31</f>
-        <v>0</v>
+        <v>26.625</v>
       </c>
       <c r="E29" s="51">
         <f>'RAW GRADES'!AN31</f>
-        <v>14.31190476190476</v>
+        <v>18.045238095238094</v>
       </c>
       <c r="F29" s="51">
         <f>'RAW GRADES'!AU31</f>
@@ -25239,15 +25379,15 @@
       </c>
       <c r="H29" s="52">
         <f>'RAW GRADES'!BC31</f>
-        <v>55.740476190476187</v>
+        <v>86.098809523809521</v>
       </c>
       <c r="I29" s="52">
         <f>'RAW GRADES'!BD31</f>
-        <v>55.74</v>
+        <v>86.1</v>
       </c>
       <c r="J29" s="51">
         <f>'RAW GRADES'!BK31</f>
-        <v>40</v>
+        <v>42.5</v>
       </c>
       <c r="K29" s="51">
         <f>'RAW GRADES'!CP31</f>
@@ -25255,19 +25395,19 @@
       </c>
       <c r="L29" s="51">
         <f>'RAW GRADES'!CQ31</f>
-        <v>87.166666666666657</v>
+        <v>89.666666666666657</v>
       </c>
       <c r="M29" s="53">
         <f>'RAW GRADES'!CR31</f>
-        <v>87.17</v>
+        <v>89.67</v>
       </c>
       <c r="N29" s="57">
         <f>'RAW GRADES'!CS31</f>
-        <v>74.597999999999999</v>
+        <v>88.24199999999999</v>
       </c>
       <c r="O29" s="55">
         <f>'RAW GRADES'!CT31</f>
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="P29" s="58" t="str">
         <f t="shared" si="0"/>
@@ -25288,7 +25428,7 @@
       </c>
       <c r="D30" s="82">
         <f>'RAW GRADES'!I32</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E30" s="51">
         <f>'RAW GRADES'!AN32</f>
@@ -25304,15 +25444,15 @@
       </c>
       <c r="H30" s="52">
         <f>'RAW GRADES'!BC32</f>
-        <v>62.347619047619048</v>
+        <v>86.347619047619048</v>
       </c>
       <c r="I30" s="52">
         <f>'RAW GRADES'!BD32</f>
-        <v>62.35</v>
+        <v>86.35</v>
       </c>
       <c r="J30" s="51">
         <f>'RAW GRADES'!BK32</f>
-        <v>41.5</v>
+        <v>43.25</v>
       </c>
       <c r="K30" s="51">
         <f>'RAW GRADES'!CP32</f>
@@ -25320,19 +25460,19 @@
       </c>
       <c r="L30" s="51">
         <f>'RAW GRADES'!CQ32</f>
-        <v>89.166666666666657</v>
+        <v>90.916666666666657</v>
       </c>
       <c r="M30" s="53">
         <f>'RAW GRADES'!CR32</f>
-        <v>89.17</v>
+        <v>90.92</v>
       </c>
       <c r="N30" s="57">
         <f>'RAW GRADES'!CS32</f>
-        <v>78.442000000000007</v>
+        <v>89.091999999999999</v>
       </c>
       <c r="O30" s="55">
         <f>'RAW GRADES'!CT32</f>
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="P30" s="58" t="str">
         <f t="shared" si="0"/>
@@ -25353,7 +25493,7 @@
       </c>
       <c r="D31" s="82">
         <f>'RAW GRADES'!I33</f>
-        <v>0</v>
+        <v>19.124999999999996</v>
       </c>
       <c r="E31" s="51">
         <f>'RAW GRADES'!AN33</f>
@@ -25369,11 +25509,11 @@
       </c>
       <c r="H31" s="52">
         <f>'RAW GRADES'!BC33</f>
-        <v>47.635714285714286</v>
+        <v>66.760714285714286</v>
       </c>
       <c r="I31" s="52">
         <f>'RAW GRADES'!BD33</f>
-        <v>47.64</v>
+        <v>66.760000000000005</v>
       </c>
       <c r="J31" s="51">
         <f>'RAW GRADES'!BK33</f>
@@ -25393,15 +25533,15 @@
       </c>
       <c r="N31" s="57">
         <f>'RAW GRADES'!CS33</f>
-        <v>68.256</v>
+        <v>75.903999999999996</v>
       </c>
       <c r="O31" s="55">
         <f>'RAW GRADES'!CT33</f>
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="P31" s="58" t="str">
         <f t="shared" si="0"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -25418,7 +25558,7 @@
       </c>
       <c r="D32" s="82">
         <f>'RAW GRADES'!I34</f>
-        <v>0</v>
+        <v>19.875</v>
       </c>
       <c r="E32" s="51">
         <f>'RAW GRADES'!AN34</f>
@@ -25434,11 +25574,11 @@
       </c>
       <c r="H32" s="52">
         <f>'RAW GRADES'!BC34</f>
-        <v>47.752380952380953</v>
+        <v>67.627380952380946</v>
       </c>
       <c r="I32" s="52">
         <f>'RAW GRADES'!BD34</f>
-        <v>47.75</v>
+        <v>67.63</v>
       </c>
       <c r="J32" s="51">
         <f>'RAW GRADES'!BK34</f>
@@ -25458,15 +25598,15 @@
       </c>
       <c r="N32" s="57">
         <f>'RAW GRADES'!CS34</f>
-        <v>67.897999999999996</v>
+        <v>75.849999999999994</v>
       </c>
       <c r="O32" s="55">
         <f>'RAW GRADES'!CT34</f>
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="P32" s="58" t="str">
         <f t="shared" si="0"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -25483,7 +25623,7 @@
       </c>
       <c r="D33" s="82">
         <f>'RAW GRADES'!I35</f>
-        <v>17.625</v>
+        <v>21.375</v>
       </c>
       <c r="E33" s="51">
         <f>'RAW GRADES'!AN35</f>
@@ -25499,11 +25639,11 @@
       </c>
       <c r="H33" s="52">
         <f>'RAW GRADES'!BC35</f>
-        <v>61.865476190476187</v>
+        <v>65.615476190476187</v>
       </c>
       <c r="I33" s="52">
         <f>'RAW GRADES'!BD35</f>
-        <v>61.87</v>
+        <v>65.62</v>
       </c>
       <c r="J33" s="51">
         <f>'RAW GRADES'!BK35</f>
@@ -25523,11 +25663,11 @@
       </c>
       <c r="N33" s="57">
         <f>'RAW GRADES'!CS35</f>
-        <v>72.147999999999996</v>
+        <v>73.647999999999996</v>
       </c>
       <c r="O33" s="55">
         <f>'RAW GRADES'!CT35</f>
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="P33" s="58" t="str">
         <f t="shared" si="0"/>
@@ -25613,7 +25753,7 @@
       </c>
       <c r="D35" s="82">
         <f>'RAW GRADES'!I37</f>
-        <v>0</v>
+        <v>21.75</v>
       </c>
       <c r="E35" s="51">
         <f>'RAW GRADES'!AN37</f>
@@ -25629,11 +25769,11 @@
       </c>
       <c r="H35" s="52">
         <f>'RAW GRADES'!BC37</f>
-        <v>26.285714285714285</v>
+        <v>48.035714285714285</v>
       </c>
       <c r="I35" s="52">
         <f>'RAW GRADES'!BD37</f>
-        <v>26.29</v>
+        <v>48.04</v>
       </c>
       <c r="J35" s="51">
         <f>'RAW GRADES'!BK37</f>
@@ -25653,7 +25793,7 @@
       </c>
       <c r="N35" s="57">
         <f>'RAW GRADES'!CS37</f>
-        <v>52.713999999999999</v>
+        <v>61.414000000000001</v>
       </c>
       <c r="O35" s="55">
         <f>'RAW GRADES'!CT37</f>
@@ -25678,7 +25818,7 @@
       </c>
       <c r="D36" s="82">
         <f>'RAW GRADES'!I38</f>
-        <v>0</v>
+        <v>21.75</v>
       </c>
       <c r="E36" s="51">
         <f>'RAW GRADES'!AN38</f>
@@ -25694,15 +25834,15 @@
       </c>
       <c r="H36" s="52">
         <f>'RAW GRADES'!BC38</f>
-        <v>10</v>
+        <v>31.75</v>
       </c>
       <c r="I36" s="52">
         <f>'RAW GRADES'!BD38</f>
-        <v>10</v>
+        <v>31.75</v>
       </c>
       <c r="J36" s="51">
         <f>'RAW GRADES'!BK38</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="K36" s="51">
         <f>'RAW GRADES'!CP38</f>
@@ -25710,15 +25850,15 @@
       </c>
       <c r="L36" s="51">
         <f>'RAW GRADES'!CQ38</f>
-        <v>72.5</v>
+        <v>52.5</v>
       </c>
       <c r="M36" s="53">
         <f>'RAW GRADES'!CR38</f>
-        <v>72.5</v>
+        <v>52.5</v>
       </c>
       <c r="N36" s="57">
         <f>'RAW GRADES'!CS38</f>
-        <v>47.5</v>
+        <v>44.2</v>
       </c>
       <c r="O36" s="55">
         <f>'RAW GRADES'!CT38</f>
@@ -25743,7 +25883,7 @@
       </c>
       <c r="D37" s="82">
         <f>'RAW GRADES'!I39</f>
-        <v>0</v>
+        <v>20.25</v>
       </c>
       <c r="E37" s="51">
         <f>'RAW GRADES'!AN39</f>
@@ -25759,11 +25899,11 @@
       </c>
       <c r="H37" s="52">
         <f>'RAW GRADES'!BC39</f>
-        <v>47.607142857142854</v>
+        <v>67.857142857142861</v>
       </c>
       <c r="I37" s="52">
         <f>'RAW GRADES'!BD39</f>
-        <v>47.61</v>
+        <v>67.86</v>
       </c>
       <c r="J37" s="51">
         <f>'RAW GRADES'!BK39</f>
@@ -25783,11 +25923,11 @@
       </c>
       <c r="N37" s="57">
         <f>'RAW GRADES'!CS39</f>
-        <v>70.445999999999998</v>
+        <v>78.546000000000006</v>
       </c>
       <c r="O37" s="55">
         <f>'RAW GRADES'!CT39</f>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="P37" s="58" t="str">
         <f t="shared" si="0"/>
@@ -25808,7 +25948,7 @@
       </c>
       <c r="D38" s="82">
         <f>'RAW GRADES'!I40</f>
-        <v>0</v>
+        <v>25.875</v>
       </c>
       <c r="E38" s="51">
         <f>'RAW GRADES'!AN40</f>
@@ -25824,11 +25964,11 @@
       </c>
       <c r="H38" s="52">
         <f>'RAW GRADES'!BC40</f>
-        <v>56.838095238095235</v>
+        <v>82.713095238095235</v>
       </c>
       <c r="I38" s="52">
         <f>'RAW GRADES'!BD40</f>
-        <v>56.84</v>
+        <v>82.71</v>
       </c>
       <c r="J38" s="51">
         <f>'RAW GRADES'!BK40</f>
@@ -25848,11 +25988,11 @@
       </c>
       <c r="N38" s="57">
         <f>'RAW GRADES'!CS40</f>
-        <v>73.334000000000003</v>
+        <v>83.681999999999988</v>
       </c>
       <c r="O38" s="55">
         <f>'RAW GRADES'!CT40</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P38" s="58" t="str">
         <f t="shared" si="0"/>
@@ -25873,7 +26013,7 @@
       </c>
       <c r="D39" s="82">
         <f>'RAW GRADES'!I41</f>
-        <v>0</v>
+        <v>19.875</v>
       </c>
       <c r="E39" s="51">
         <f>'RAW GRADES'!AN41</f>
@@ -25889,11 +26029,11 @@
       </c>
       <c r="H39" s="52">
         <f>'RAW GRADES'!BC41</f>
-        <v>53.678571428571431</v>
+        <v>73.553571428571431</v>
       </c>
       <c r="I39" s="52">
         <f>'RAW GRADES'!BD41</f>
-        <v>53.68</v>
+        <v>73.55</v>
       </c>
       <c r="J39" s="51">
         <f>'RAW GRADES'!BK41</f>
@@ -25913,11 +26053,11 @@
       </c>
       <c r="N39" s="57">
         <f>'RAW GRADES'!CS41</f>
-        <v>72.97</v>
+        <v>80.918000000000006</v>
       </c>
       <c r="O39" s="55">
         <f>'RAW GRADES'!CT41</f>
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="P39" s="58" t="str">
         <f t="shared" si="0"/>
@@ -25938,7 +26078,7 @@
       </c>
       <c r="D40" s="82">
         <f>'RAW GRADES'!I42</f>
-        <v>0</v>
+        <v>22.125</v>
       </c>
       <c r="E40" s="51">
         <f>'RAW GRADES'!AN42</f>
@@ -25954,11 +26094,11 @@
       </c>
       <c r="H40" s="52">
         <f>'RAW GRADES'!BC42</f>
-        <v>49.307142857142864</v>
+        <v>71.432142857142864</v>
       </c>
       <c r="I40" s="52">
         <f>'RAW GRADES'!BD42</f>
-        <v>49.31</v>
+        <v>71.430000000000007</v>
       </c>
       <c r="J40" s="51">
         <f>'RAW GRADES'!BK42</f>
@@ -25978,11 +26118,11 @@
       </c>
       <c r="N40" s="57">
         <f>'RAW GRADES'!CS42</f>
-        <v>70.52600000000001</v>
+        <v>79.373999999999995</v>
       </c>
       <c r="O40" s="55">
         <f>'RAW GRADES'!CT42</f>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="P40" s="58" t="str">
         <f t="shared" si="0"/>
@@ -26003,7 +26143,7 @@
       </c>
       <c r="D41" s="82">
         <f>'RAW GRADES'!I43</f>
-        <v>0</v>
+        <v>23.625</v>
       </c>
       <c r="E41" s="51">
         <f>'RAW GRADES'!AN43</f>
@@ -26019,11 +26159,11 @@
       </c>
       <c r="H41" s="52">
         <f>'RAW GRADES'!BC43</f>
-        <v>57.114285714285721</v>
+        <v>80.739285714285728</v>
       </c>
       <c r="I41" s="52">
         <f>'RAW GRADES'!BD43</f>
-        <v>57.11</v>
+        <v>80.739999999999995</v>
       </c>
       <c r="J41" s="51">
         <f>'RAW GRADES'!BK43</f>
@@ -26043,15 +26183,15 @@
       </c>
       <c r="N41" s="57">
         <f>'RAW GRADES'!CS43</f>
-        <v>65.444000000000003</v>
+        <v>74.896000000000001</v>
       </c>
       <c r="O41" s="55">
         <f>'RAW GRADES'!CT43</f>
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="P41" s="58" t="str">
         <f t="shared" si="0"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -26068,7 +26208,7 @@
       </c>
       <c r="D42" s="82">
         <f>'RAW GRADES'!I44</f>
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="E42" s="51">
         <f>'RAW GRADES'!AN44</f>
@@ -26084,11 +26224,11 @@
       </c>
       <c r="H42" s="52">
         <f>'RAW GRADES'!BC44</f>
-        <v>41.230952380952388</v>
+        <v>60.730952380952388</v>
       </c>
       <c r="I42" s="52">
         <f>'RAW GRADES'!BD44</f>
-        <v>41.23</v>
+        <v>60.73</v>
       </c>
       <c r="J42" s="51">
         <f>'RAW GRADES'!BK44</f>
@@ -26108,15 +26248,15 @@
       </c>
       <c r="N42" s="57">
         <f>'RAW GRADES'!CS44</f>
-        <v>65.793999999999997</v>
+        <v>73.593999999999994</v>
       </c>
       <c r="O42" s="55">
         <f>'RAW GRADES'!CT44</f>
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="P42" s="58" t="str">
         <f t="shared" si="0"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -27836,8 +27976,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A58" zoomScale="60" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28079,15 +28219,15 @@
       </c>
       <c r="D22" s="67">
         <f>'DEPT CHAIR'!O8</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E22" s="68" t="str">
         <f>IF(D22&lt;=3,"3","0")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F22" s="69" t="str">
         <f>'DEPT CHAIR'!P8</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="18">
@@ -28104,15 +28244,15 @@
       </c>
       <c r="D23" s="67">
         <f>'DEPT CHAIR'!O9</f>
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="E23" s="68" t="str">
         <f t="shared" ref="E23:E56" si="0">IF(D23&lt;=3,"3","0")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F23" s="69" t="str">
         <f>'DEPT CHAIR'!P9</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="18">
@@ -28129,15 +28269,15 @@
       </c>
       <c r="D24" s="67">
         <f>'DEPT CHAIR'!O10</f>
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="E24" s="68" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F24" s="69" t="str">
         <f>'DEPT CHAIR'!P10</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="18">
@@ -28154,15 +28294,15 @@
       </c>
       <c r="D25" s="67">
         <f>'DEPT CHAIR'!O11</f>
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="E25" s="68" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F25" s="69" t="str">
         <f>'DEPT CHAIR'!P11</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="18">
@@ -28179,15 +28319,15 @@
       </c>
       <c r="D26" s="67">
         <f>'DEPT CHAIR'!O12</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E26" s="68" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F26" s="69" t="str">
         <f>'DEPT CHAIR'!P12</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="18">
@@ -28204,15 +28344,15 @@
       </c>
       <c r="D27" s="67">
         <f>'DEPT CHAIR'!O13</f>
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="E27" s="68" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F27" s="69" t="str">
         <f>'DEPT CHAIR'!P13</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="18">
@@ -28229,7 +28369,7 @@
       </c>
       <c r="D28" s="67">
         <f>'DEPT CHAIR'!O14</f>
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="E28" s="68" t="str">
         <f t="shared" si="0"/>
@@ -28254,7 +28394,7 @@
       </c>
       <c r="D29" s="67">
         <f>'DEPT CHAIR'!O15</f>
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="E29" s="68" t="str">
         <f t="shared" si="0"/>
@@ -28279,7 +28419,7 @@
       </c>
       <c r="D30" s="67">
         <f>'DEPT CHAIR'!O16</f>
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="E30" s="68" t="str">
         <f t="shared" si="0"/>
@@ -28304,7 +28444,7 @@
       </c>
       <c r="D31" s="67">
         <f>'DEPT CHAIR'!O17</f>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E31" s="68" t="str">
         <f t="shared" si="0"/>
@@ -28354,7 +28494,7 @@
       </c>
       <c r="D33" s="67">
         <f>'DEPT CHAIR'!O19</f>
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="E33" s="68" t="str">
         <f t="shared" si="0"/>
@@ -28379,7 +28519,7 @@
       </c>
       <c r="D34" s="67">
         <f>'DEPT CHAIR'!O20</f>
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="E34" s="68" t="str">
         <f t="shared" si="0"/>
@@ -28404,7 +28544,7 @@
       </c>
       <c r="D35" s="67">
         <f>'DEPT CHAIR'!O21</f>
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="E35" s="68" t="str">
         <f t="shared" si="0"/>
@@ -28429,7 +28569,7 @@
       </c>
       <c r="D36" s="67">
         <f>'DEPT CHAIR'!O22</f>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E36" s="68" t="str">
         <f t="shared" si="0"/>
@@ -28454,15 +28594,15 @@
       </c>
       <c r="D37" s="67">
         <f>'DEPT CHAIR'!O23</f>
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="E37" s="68" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F37" s="69" t="str">
         <f>'DEPT CHAIR'!P23</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="18">
@@ -28479,15 +28619,15 @@
       </c>
       <c r="D38" s="67">
         <f>'DEPT CHAIR'!O24</f>
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="E38" s="68" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F38" s="69" t="str">
         <f>'DEPT CHAIR'!P24</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="18">
@@ -28504,15 +28644,15 @@
       </c>
       <c r="D39" s="67">
         <f>'DEPT CHAIR'!O25</f>
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="E39" s="68" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F39" s="69" t="str">
         <f>'DEPT CHAIR'!P25</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="18">
@@ -28529,7 +28669,7 @@
       </c>
       <c r="D40" s="67">
         <f>'DEPT CHAIR'!O26</f>
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="E40" s="68" t="str">
         <f t="shared" si="0"/>
@@ -28554,7 +28694,7 @@
       </c>
       <c r="D41" s="67">
         <f>'DEPT CHAIR'!O27</f>
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="E41" s="68" t="str">
         <f t="shared" si="0"/>
@@ -28579,7 +28719,7 @@
       </c>
       <c r="D42" s="67">
         <f>'DEPT CHAIR'!O28</f>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E42" s="68" t="str">
         <f t="shared" si="0"/>
@@ -28604,7 +28744,7 @@
       </c>
       <c r="D43" s="67">
         <f>'DEPT CHAIR'!O29</f>
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="E43" s="68" t="str">
         <f t="shared" si="0"/>
@@ -28629,7 +28769,7 @@
       </c>
       <c r="D44" s="67">
         <f>'DEPT CHAIR'!O30</f>
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="E44" s="68" t="str">
         <f t="shared" si="0"/>
@@ -28654,15 +28794,15 @@
       </c>
       <c r="D45" s="67">
         <f>'DEPT CHAIR'!O31</f>
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="E45" s="68" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F45" s="69" t="str">
         <f>'DEPT CHAIR'!P31</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="18">
@@ -28679,15 +28819,15 @@
       </c>
       <c r="D46" s="67">
         <f>'DEPT CHAIR'!O32</f>
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="E46" s="68" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F46" s="69" t="str">
         <f>'DEPT CHAIR'!P32</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="18">
@@ -28704,7 +28844,7 @@
       </c>
       <c r="D47" s="67">
         <f>'DEPT CHAIR'!O33</f>
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="E47" s="68" t="str">
         <f t="shared" si="0"/>
@@ -28804,7 +28944,7 @@
       </c>
       <c r="D51" s="67">
         <f>'DEPT CHAIR'!O37</f>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E51" s="68" t="str">
         <f t="shared" si="0"/>
@@ -28829,7 +28969,7 @@
       </c>
       <c r="D52" s="67">
         <f>'DEPT CHAIR'!O38</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E52" s="68" t="str">
         <f t="shared" si="0"/>
@@ -28854,7 +28994,7 @@
       </c>
       <c r="D53" s="67">
         <f>'DEPT CHAIR'!O39</f>
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="E53" s="68" t="str">
         <f t="shared" si="0"/>
@@ -28879,7 +29019,7 @@
       </c>
       <c r="D54" s="67">
         <f>'DEPT CHAIR'!O40</f>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E54" s="68" t="str">
         <f t="shared" si="0"/>
@@ -28904,15 +29044,15 @@
       </c>
       <c r="D55" s="67">
         <f>'DEPT CHAIR'!O41</f>
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="E55" s="68" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F55" s="69" t="str">
         <f>'DEPT CHAIR'!P41</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="18.75" thickBot="1">
@@ -28929,15 +29069,15 @@
       </c>
       <c r="D56" s="67">
         <f>'DEPT CHAIR'!O42</f>
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="E56" s="68" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F56" s="69" t="str">
         <f>'DEPT CHAIR'!P42</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="19.5" thickBot="1">
@@ -28983,7 +29123,7 @@
       <c r="D61" s="59"/>
       <c r="E61" s="253">
         <f ca="1">NOW()</f>
-        <v>43081.666250462964</v>
+        <v>43082.602315393517</v>
       </c>
       <c r="F61" s="253"/>
     </row>
@@ -29169,12 +29309,12 @@
       </c>
       <c r="C82" s="235">
         <f>COUNTIF($D$22:$D$56,"=1.0")+COUNTIF($D$22:$D$56,"=1.25")+(COUNTIF($D$22:$D$56,"=1.50")+COUNTIF($D$22:$D$56,"=1.75"))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D82" s="236"/>
       <c r="E82" s="237">
         <f>(C82/$C$88)*100</f>
-        <v>0</v>
+        <v>8.5714285714285712</v>
       </c>
       <c r="F82" s="238"/>
     </row>
@@ -29185,12 +29325,12 @@
       </c>
       <c r="C83" s="229">
         <f>COUNTIF($D$22:$D$56,"=2.0")+COUNTIF($D$22:$D$56,"=2.25")+(COUNTIF($D$22:$D$56,"=2.50")+COUNTIF($D$22:$D$56,"=2.75"))</f>
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D83" s="230"/>
       <c r="E83" s="231">
         <f>(C83/$C$88)*100</f>
-        <v>22.857142857142858</v>
+        <v>77.142857142857153</v>
       </c>
       <c r="F83" s="232"/>
     </row>
@@ -29201,12 +29341,12 @@
       </c>
       <c r="C84" s="229">
         <f>COUNTIF($D$22:$D$56,"=3.0")</f>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D84" s="230"/>
       <c r="E84" s="231">
         <f t="shared" ref="E84:E87" si="1">(C84/$C$88)*100</f>
-        <v>31.428571428571427</v>
+        <v>5.7142857142857144</v>
       </c>
       <c r="F84" s="232"/>
     </row>
@@ -29217,12 +29357,12 @@
       </c>
       <c r="C85" s="229">
         <f>COUNTIF($D$22:$D$56,"=5.0")</f>
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D85" s="230"/>
       <c r="E85" s="231">
         <f t="shared" si="1"/>
-        <v>45.714285714285715</v>
+        <v>8.5714285714285712</v>
       </c>
       <c r="F85" s="232"/>
     </row>
@@ -29332,7 +29472,7 @@
       <c r="A95" s="59"/>
       <c r="B95" s="72" t="str">
         <f>REGISTRATION!P16</f>
-        <v>Renen B. Viado</v>
+        <v>Renen Paul A. Viado</v>
       </c>
       <c r="C95" s="59"/>
       <c r="D95" s="59"/>
@@ -29487,10 +29627,14 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="56" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="76" max="16383" man="1"/>
+  </rowBreaks>
   <ignoredErrors>
     <ignoredError sqref="B84:B85" numberStoredAsText="1"/>
   </ignoredErrors>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/DCIT 21 - IT 1D/LEC AND LAB - IT1D.xlsx
+++ b/DCIT 21 - IT 1D/LEC AND LAB - IT1D.xlsx
@@ -963,7 +963,7 @@
     <t>SEATWORK</t>
   </si>
   <si>
-    <t>Renen Paul A. Viado</t>
+    <t>Renen Paul M. Viado</t>
   </si>
 </sst>
 </file>
@@ -2360,106 +2360,40 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="4" fillId="17" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2500,129 +2434,112 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2663,6 +2580,93 @@
     </xf>
     <xf numFmtId="9" fontId="32" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2721,6 +2725,102 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -2796,102 +2896,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2909,10 +2913,6 @@
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="17" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3737,7 +3737,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3749,7 +3749,7 @@
   <dimension ref="A2:R71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P14" sqref="P14:R14"/>
+      <selection activeCell="P17" sqref="P17:R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3770,82 +3770,82 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="164" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="129"/>
-      <c r="M2" s="129"/>
+      <c r="B2" s="164"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="164"/>
+      <c r="I2" s="164"/>
+      <c r="J2" s="164"/>
+      <c r="K2" s="164"/>
+      <c r="L2" s="164"/>
+      <c r="M2" s="164"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="129"/>
-      <c r="B3" s="129"/>
-      <c r="C3" s="129"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="129"/>
-      <c r="H3" s="129"/>
-      <c r="I3" s="129"/>
-      <c r="J3" s="129"/>
-      <c r="K3" s="129"/>
-      <c r="L3" s="129"/>
-      <c r="M3" s="129"/>
+      <c r="A3" s="164"/>
+      <c r="B3" s="164"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="164"/>
+      <c r="H3" s="164"/>
+      <c r="I3" s="164"/>
+      <c r="J3" s="164"/>
+      <c r="K3" s="164"/>
+      <c r="L3" s="164"/>
+      <c r="M3" s="164"/>
     </row>
     <row r="4" spans="1:18" ht="16.5" customHeight="1">
-      <c r="A4" s="121" t="s">
+      <c r="A4" s="159" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="121"/>
-      <c r="C4" s="121"/>
-      <c r="D4" s="121"/>
-      <c r="E4" s="121"/>
-      <c r="F4" s="121"/>
-      <c r="G4" s="121"/>
-      <c r="H4" s="121"/>
-      <c r="I4" s="121"/>
-      <c r="J4" s="121"/>
-      <c r="K4" s="121"/>
-      <c r="L4" s="121"/>
-      <c r="M4" s="121"/>
+      <c r="B4" s="159"/>
+      <c r="C4" s="159"/>
+      <c r="D4" s="159"/>
+      <c r="E4" s="159"/>
+      <c r="F4" s="159"/>
+      <c r="G4" s="159"/>
+      <c r="H4" s="159"/>
+      <c r="I4" s="159"/>
+      <c r="J4" s="159"/>
+      <c r="K4" s="159"/>
+      <c r="L4" s="159"/>
+      <c r="M4" s="159"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A5" s="120"/>
-      <c r="B5" s="120"/>
-      <c r="C5" s="120"/>
-      <c r="D5" s="120"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="120"/>
-      <c r="G5" s="120"/>
-      <c r="H5" s="120"/>
-      <c r="I5" s="120"/>
-      <c r="J5" s="120"/>
-      <c r="K5" s="120"/>
-      <c r="L5" s="120"/>
-      <c r="M5" s="120"/>
+      <c r="A5" s="158"/>
+      <c r="B5" s="158"/>
+      <c r="C5" s="158"/>
+      <c r="D5" s="158"/>
+      <c r="E5" s="158"/>
+      <c r="F5" s="158"/>
+      <c r="G5" s="158"/>
+      <c r="H5" s="158"/>
+      <c r="I5" s="158"/>
+      <c r="J5" s="158"/>
+      <c r="K5" s="158"/>
+      <c r="L5" s="158"/>
+      <c r="M5" s="158"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="160" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="161"/>
-      <c r="C6" s="162" t="s">
+      <c r="A6" s="121" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="122"/>
+      <c r="C6" s="123" t="s">
         <v>164</v>
       </c>
-      <c r="D6" s="162"/>
-      <c r="E6" s="163" t="s">
+      <c r="D6" s="123"/>
+      <c r="E6" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="163"/>
+      <c r="F6" s="124"/>
       <c r="G6" s="1">
         <v>2</v>
       </c>
@@ -3853,28 +3853,28 @@
         <v>2</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="164" t="s">
+      <c r="J6" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="164"/>
-      <c r="L6" s="165"/>
-      <c r="M6" s="165"/>
+      <c r="K6" s="125"/>
+      <c r="L6" s="126"/>
+      <c r="M6" s="126"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="166" t="s">
+      <c r="A7" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="167"/>
+      <c r="B7" s="128"/>
       <c r="C7" s="3" t="s">
         <v>165</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="168" t="s">
+      <c r="E7" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="168"/>
+      <c r="F7" s="129"/>
       <c r="G7" s="5">
         <v>1</v>
       </c>
@@ -3882,28 +3882,28 @@
         <v>7</v>
       </c>
       <c r="I7" s="7"/>
-      <c r="J7" s="168" t="s">
+      <c r="J7" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="168"/>
-      <c r="L7" s="169"/>
-      <c r="M7" s="169"/>
+      <c r="K7" s="129"/>
+      <c r="L7" s="130"/>
+      <c r="M7" s="130"/>
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A8" s="148" t="s">
+      <c r="A8" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="149"/>
+      <c r="B8" s="132"/>
       <c r="C8" s="8" t="s">
         <v>166</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="E8" s="150" t="s">
+      <c r="E8" s="133" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="150"/>
+      <c r="F8" s="133"/>
       <c r="G8" s="10">
         <v>3</v>
       </c>
@@ -3911,33 +3911,33 @@
         <v>11</v>
       </c>
       <c r="I8" s="12"/>
-      <c r="J8" s="150" t="s">
+      <c r="J8" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="150"/>
-      <c r="L8" s="151"/>
-      <c r="M8" s="151"/>
+      <c r="K8" s="133"/>
+      <c r="L8" s="134"/>
+      <c r="M8" s="134"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A9" s="152" t="s">
+      <c r="A9" s="135" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="154" t="s">
+      <c r="B9" s="137" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="156" t="s">
+      <c r="C9" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="156"/>
-      <c r="E9" s="156"/>
-      <c r="F9" s="157" t="s">
+      <c r="D9" s="139"/>
+      <c r="E9" s="139"/>
+      <c r="F9" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="157" t="s">
+      <c r="G9" s="140" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="159"/>
-      <c r="I9" s="159"/>
+      <c r="H9" s="142"/>
+      <c r="I9" s="142"/>
       <c r="J9" s="143" t="s">
         <v>17</v>
       </c>
@@ -3948,8 +3948,8 @@
       <c r="M9" s="144"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="153"/>
-      <c r="B10" s="155"/>
+      <c r="A10" s="136"/>
+      <c r="B10" s="138"/>
       <c r="C10" s="13" t="s">
         <v>19</v>
       </c>
@@ -3959,10 +3959,10 @@
       <c r="E10" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="158"/>
-      <c r="G10" s="158"/>
-      <c r="H10" s="158"/>
-      <c r="I10" s="158"/>
+      <c r="F10" s="141"/>
+      <c r="G10" s="141"/>
+      <c r="H10" s="141"/>
+      <c r="I10" s="141"/>
       <c r="J10" s="145"/>
       <c r="K10" s="145"/>
       <c r="L10" s="145"/>
@@ -3987,19 +3987,19 @@
       <c r="F11" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="G11" s="136"/>
-      <c r="H11" s="137"/>
-      <c r="I11" s="138"/>
-      <c r="J11" s="146"/>
-      <c r="K11" s="147"/>
-      <c r="L11" s="136"/>
-      <c r="M11" s="138"/>
-      <c r="O11" s="130" t="s">
+      <c r="G11" s="150"/>
+      <c r="H11" s="151"/>
+      <c r="I11" s="152"/>
+      <c r="J11" s="153"/>
+      <c r="K11" s="154"/>
+      <c r="L11" s="150"/>
+      <c r="M11" s="152"/>
+      <c r="O11" s="165" t="s">
         <v>23</v>
       </c>
-      <c r="P11" s="131"/>
-      <c r="Q11" s="131"/>
-      <c r="R11" s="132"/>
+      <c r="P11" s="166"/>
+      <c r="Q11" s="166"/>
+      <c r="R11" s="167"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="14">
@@ -4018,21 +4018,21 @@
       <c r="F12" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="G12" s="126"/>
-      <c r="H12" s="126"/>
-      <c r="I12" s="126"/>
-      <c r="J12" s="141"/>
-      <c r="K12" s="142"/>
-      <c r="L12" s="128"/>
-      <c r="M12" s="128"/>
+      <c r="G12" s="146"/>
+      <c r="H12" s="146"/>
+      <c r="I12" s="146"/>
+      <c r="J12" s="147"/>
+      <c r="K12" s="148"/>
+      <c r="L12" s="149"/>
+      <c r="M12" s="149"/>
       <c r="O12" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="P12" s="125" t="s">
+      <c r="P12" s="163" t="s">
         <v>159</v>
       </c>
-      <c r="Q12" s="125"/>
-      <c r="R12" s="125"/>
+      <c r="Q12" s="163"/>
+      <c r="R12" s="163"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="14">
@@ -4053,21 +4053,21 @@
       <c r="F13" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="G13" s="126"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="126"/>
-      <c r="J13" s="141"/>
-      <c r="K13" s="142"/>
-      <c r="L13" s="128"/>
-      <c r="M13" s="128"/>
+      <c r="G13" s="146"/>
+      <c r="H13" s="146"/>
+      <c r="I13" s="146"/>
+      <c r="J13" s="147"/>
+      <c r="K13" s="148"/>
+      <c r="L13" s="149"/>
+      <c r="M13" s="149"/>
       <c r="O13" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="P13" s="125" t="s">
+      <c r="P13" s="163" t="s">
         <v>163</v>
       </c>
-      <c r="Q13" s="125"/>
-      <c r="R13" s="125"/>
+      <c r="Q13" s="163"/>
+      <c r="R13" s="163"/>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="14">
@@ -4088,21 +4088,21 @@
       <c r="F14" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="G14" s="126"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="126"/>
-      <c r="J14" s="141"/>
-      <c r="K14" s="142"/>
-      <c r="L14" s="128"/>
-      <c r="M14" s="128"/>
+      <c r="G14" s="146"/>
+      <c r="H14" s="146"/>
+      <c r="I14" s="146"/>
+      <c r="J14" s="147"/>
+      <c r="K14" s="148"/>
+      <c r="L14" s="149"/>
+      <c r="M14" s="149"/>
       <c r="O14" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="P14" s="122" t="s">
+      <c r="P14" s="160" t="s">
         <v>160</v>
       </c>
-      <c r="Q14" s="123"/>
-      <c r="R14" s="124"/>
+      <c r="Q14" s="161"/>
+      <c r="R14" s="162"/>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="14">
@@ -4123,21 +4123,21 @@
       <c r="F15" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="G15" s="126"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="126"/>
-      <c r="J15" s="141"/>
-      <c r="K15" s="142"/>
-      <c r="L15" s="128"/>
-      <c r="M15" s="128"/>
+      <c r="G15" s="146"/>
+      <c r="H15" s="146"/>
+      <c r="I15" s="146"/>
+      <c r="J15" s="147"/>
+      <c r="K15" s="148"/>
+      <c r="L15" s="149"/>
+      <c r="M15" s="149"/>
       <c r="O15" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="P15" s="122" t="s">
+      <c r="P15" s="160" t="s">
         <v>161</v>
       </c>
-      <c r="Q15" s="123"/>
-      <c r="R15" s="124"/>
+      <c r="Q15" s="161"/>
+      <c r="R15" s="162"/>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="14">
@@ -4158,21 +4158,21 @@
       <c r="F16" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="G16" s="126"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="126"/>
-      <c r="J16" s="141"/>
-      <c r="K16" s="142"/>
-      <c r="L16" s="128"/>
-      <c r="M16" s="128"/>
+      <c r="G16" s="146"/>
+      <c r="H16" s="146"/>
+      <c r="I16" s="146"/>
+      <c r="J16" s="147"/>
+      <c r="K16" s="148"/>
+      <c r="L16" s="149"/>
+      <c r="M16" s="149"/>
       <c r="O16" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="P16" s="133" t="s">
+      <c r="P16" s="168" t="s">
         <v>292</v>
       </c>
-      <c r="Q16" s="134"/>
-      <c r="R16" s="135"/>
+      <c r="Q16" s="169"/>
+      <c r="R16" s="170"/>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="14">
@@ -4193,21 +4193,21 @@
       <c r="F17" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="G17" s="126"/>
-      <c r="H17" s="126"/>
-      <c r="I17" s="126"/>
-      <c r="J17" s="141"/>
-      <c r="K17" s="142"/>
-      <c r="L17" s="128"/>
-      <c r="M17" s="128"/>
+      <c r="G17" s="146"/>
+      <c r="H17" s="146"/>
+      <c r="I17" s="146"/>
+      <c r="J17" s="147"/>
+      <c r="K17" s="148"/>
+      <c r="L17" s="149"/>
+      <c r="M17" s="149"/>
       <c r="O17" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="P17" s="122" t="s">
+      <c r="P17" s="160" t="s">
         <v>162</v>
       </c>
-      <c r="Q17" s="123"/>
-      <c r="R17" s="124"/>
+      <c r="Q17" s="161"/>
+      <c r="R17" s="162"/>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="14">
@@ -4228,13 +4228,13 @@
       <c r="F18" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="G18" s="126"/>
-      <c r="H18" s="126"/>
-      <c r="I18" s="126"/>
-      <c r="J18" s="141"/>
-      <c r="K18" s="142"/>
-      <c r="L18" s="128"/>
-      <c r="M18" s="128"/>
+      <c r="G18" s="146"/>
+      <c r="H18" s="146"/>
+      <c r="I18" s="146"/>
+      <c r="J18" s="147"/>
+      <c r="K18" s="148"/>
+      <c r="L18" s="149"/>
+      <c r="M18" s="149"/>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="14">
@@ -4255,13 +4255,13 @@
       <c r="F19" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="G19" s="126"/>
-      <c r="H19" s="126"/>
-      <c r="I19" s="126"/>
-      <c r="J19" s="141"/>
-      <c r="K19" s="142"/>
-      <c r="L19" s="128"/>
-      <c r="M19" s="128"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="147"/>
+      <c r="K19" s="148"/>
+      <c r="L19" s="149"/>
+      <c r="M19" s="149"/>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="14">
@@ -4282,13 +4282,13 @@
       <c r="F20" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="G20" s="126"/>
-      <c r="H20" s="126"/>
-      <c r="I20" s="126"/>
-      <c r="J20" s="141"/>
-      <c r="K20" s="142"/>
-      <c r="L20" s="128"/>
-      <c r="M20" s="128"/>
+      <c r="G20" s="146"/>
+      <c r="H20" s="146"/>
+      <c r="I20" s="146"/>
+      <c r="J20" s="147"/>
+      <c r="K20" s="148"/>
+      <c r="L20" s="149"/>
+      <c r="M20" s="149"/>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="14">
@@ -4309,13 +4309,13 @@
       <c r="F21" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="G21" s="126"/>
-      <c r="H21" s="126"/>
-      <c r="I21" s="126"/>
-      <c r="J21" s="141"/>
-      <c r="K21" s="142"/>
-      <c r="L21" s="128"/>
-      <c r="M21" s="128"/>
+      <c r="G21" s="146"/>
+      <c r="H21" s="146"/>
+      <c r="I21" s="146"/>
+      <c r="J21" s="147"/>
+      <c r="K21" s="148"/>
+      <c r="L21" s="149"/>
+      <c r="M21" s="149"/>
       <c r="P21" s="93" t="s">
         <v>143</v>
       </c>
@@ -4339,13 +4339,13 @@
       <c r="F22" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="G22" s="126"/>
-      <c r="H22" s="126"/>
-      <c r="I22" s="126"/>
-      <c r="J22" s="141"/>
-      <c r="K22" s="142"/>
-      <c r="L22" s="128"/>
-      <c r="M22" s="128"/>
+      <c r="G22" s="146"/>
+      <c r="H22" s="146"/>
+      <c r="I22" s="146"/>
+      <c r="J22" s="147"/>
+      <c r="K22" s="148"/>
+      <c r="L22" s="149"/>
+      <c r="M22" s="149"/>
       <c r="P22" s="94">
         <v>0</v>
       </c>
@@ -4372,13 +4372,13 @@
       <c r="F23" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="G23" s="126"/>
-      <c r="H23" s="126"/>
-      <c r="I23" s="126"/>
-      <c r="J23" s="141"/>
-      <c r="K23" s="142"/>
-      <c r="L23" s="128"/>
-      <c r="M23" s="128"/>
+      <c r="G23" s="146"/>
+      <c r="H23" s="146"/>
+      <c r="I23" s="146"/>
+      <c r="J23" s="147"/>
+      <c r="K23" s="148"/>
+      <c r="L23" s="149"/>
+      <c r="M23" s="149"/>
       <c r="P23" s="95">
         <v>70</v>
       </c>
@@ -4405,13 +4405,13 @@
       <c r="F24" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="G24" s="126"/>
-      <c r="H24" s="126"/>
-      <c r="I24" s="126"/>
-      <c r="J24" s="141"/>
-      <c r="K24" s="142"/>
-      <c r="L24" s="128"/>
-      <c r="M24" s="128"/>
+      <c r="G24" s="146"/>
+      <c r="H24" s="146"/>
+      <c r="I24" s="146"/>
+      <c r="J24" s="147"/>
+      <c r="K24" s="148"/>
+      <c r="L24" s="149"/>
+      <c r="M24" s="149"/>
       <c r="P24" s="95">
         <v>73.34</v>
       </c>
@@ -4438,13 +4438,13 @@
       <c r="F25" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="G25" s="126"/>
-      <c r="H25" s="126"/>
-      <c r="I25" s="126"/>
-      <c r="J25" s="141"/>
-      <c r="K25" s="142"/>
-      <c r="L25" s="128"/>
-      <c r="M25" s="128"/>
+      <c r="G25" s="146"/>
+      <c r="H25" s="146"/>
+      <c r="I25" s="146"/>
+      <c r="J25" s="147"/>
+      <c r="K25" s="148"/>
+      <c r="L25" s="149"/>
+      <c r="M25" s="149"/>
       <c r="P25" s="95">
         <v>76.680000000000007</v>
       </c>
@@ -4471,13 +4471,13 @@
       <c r="F26" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="G26" s="126"/>
-      <c r="H26" s="126"/>
-      <c r="I26" s="126"/>
-      <c r="J26" s="141"/>
-      <c r="K26" s="142"/>
-      <c r="L26" s="128"/>
-      <c r="M26" s="128"/>
+      <c r="G26" s="146"/>
+      <c r="H26" s="146"/>
+      <c r="I26" s="146"/>
+      <c r="J26" s="147"/>
+      <c r="K26" s="148"/>
+      <c r="L26" s="149"/>
+      <c r="M26" s="149"/>
       <c r="P26" s="95">
         <v>80.02</v>
       </c>
@@ -4504,13 +4504,13 @@
       <c r="F27" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="G27" s="126"/>
-      <c r="H27" s="126"/>
-      <c r="I27" s="126"/>
-      <c r="J27" s="141"/>
-      <c r="K27" s="142"/>
-      <c r="L27" s="128"/>
-      <c r="M27" s="128"/>
+      <c r="G27" s="146"/>
+      <c r="H27" s="146"/>
+      <c r="I27" s="146"/>
+      <c r="J27" s="147"/>
+      <c r="K27" s="148"/>
+      <c r="L27" s="149"/>
+      <c r="M27" s="149"/>
       <c r="P27" s="95">
         <v>83.36</v>
       </c>
@@ -4537,13 +4537,13 @@
       <c r="F28" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="G28" s="136"/>
-      <c r="H28" s="137"/>
-      <c r="I28" s="138"/>
-      <c r="J28" s="139"/>
-      <c r="K28" s="140"/>
-      <c r="L28" s="128"/>
-      <c r="M28" s="128"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="151"/>
+      <c r="I28" s="152"/>
+      <c r="J28" s="155"/>
+      <c r="K28" s="156"/>
+      <c r="L28" s="149"/>
+      <c r="M28" s="149"/>
       <c r="P28" s="95">
         <v>86.7</v>
       </c>
@@ -4570,13 +4570,13 @@
       <c r="F29" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="G29" s="136"/>
-      <c r="H29" s="137"/>
-      <c r="I29" s="138"/>
-      <c r="J29" s="139"/>
-      <c r="K29" s="140"/>
-      <c r="L29" s="128"/>
-      <c r="M29" s="128"/>
+      <c r="G29" s="150"/>
+      <c r="H29" s="151"/>
+      <c r="I29" s="152"/>
+      <c r="J29" s="155"/>
+      <c r="K29" s="156"/>
+      <c r="L29" s="149"/>
+      <c r="M29" s="149"/>
       <c r="P29" s="95">
         <v>90.04</v>
       </c>
@@ -4603,13 +4603,13 @@
       <c r="F30" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="G30" s="136"/>
-      <c r="H30" s="137"/>
-      <c r="I30" s="138"/>
-      <c r="J30" s="139"/>
-      <c r="K30" s="140"/>
-      <c r="L30" s="128"/>
-      <c r="M30" s="128"/>
+      <c r="G30" s="150"/>
+      <c r="H30" s="151"/>
+      <c r="I30" s="152"/>
+      <c r="J30" s="155"/>
+      <c r="K30" s="156"/>
+      <c r="L30" s="149"/>
+      <c r="M30" s="149"/>
       <c r="P30" s="95">
         <v>93.38</v>
       </c>
@@ -4636,13 +4636,13 @@
       <c r="F31" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="G31" s="136"/>
-      <c r="H31" s="137"/>
-      <c r="I31" s="138"/>
-      <c r="J31" s="139"/>
-      <c r="K31" s="140"/>
-      <c r="L31" s="128"/>
-      <c r="M31" s="128"/>
+      <c r="G31" s="150"/>
+      <c r="H31" s="151"/>
+      <c r="I31" s="152"/>
+      <c r="J31" s="155"/>
+      <c r="K31" s="156"/>
+      <c r="L31" s="149"/>
+      <c r="M31" s="149"/>
       <c r="P31" s="94"/>
       <c r="Q31" s="94"/>
     </row>
@@ -4665,13 +4665,13 @@
       <c r="F32" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="G32" s="136"/>
-      <c r="H32" s="137"/>
-      <c r="I32" s="138"/>
-      <c r="J32" s="139"/>
-      <c r="K32" s="140"/>
-      <c r="L32" s="128"/>
-      <c r="M32" s="128"/>
+      <c r="G32" s="150"/>
+      <c r="H32" s="151"/>
+      <c r="I32" s="152"/>
+      <c r="J32" s="155"/>
+      <c r="K32" s="156"/>
+      <c r="L32" s="149"/>
+      <c r="M32" s="149"/>
       <c r="P32" s="94">
         <v>96.72</v>
       </c>
@@ -4698,13 +4698,13 @@
       <c r="F33" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="G33" s="136"/>
-      <c r="H33" s="137"/>
-      <c r="I33" s="138"/>
-      <c r="J33" s="139"/>
-      <c r="K33" s="140"/>
-      <c r="L33" s="128"/>
-      <c r="M33" s="128"/>
+      <c r="G33" s="150"/>
+      <c r="H33" s="151"/>
+      <c r="I33" s="152"/>
+      <c r="J33" s="155"/>
+      <c r="K33" s="156"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="149"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="14">
@@ -4725,13 +4725,13 @@
       <c r="F34" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="G34" s="136"/>
-      <c r="H34" s="137"/>
-      <c r="I34" s="138"/>
-      <c r="J34" s="139"/>
-      <c r="K34" s="140"/>
-      <c r="L34" s="128"/>
-      <c r="M34" s="128"/>
+      <c r="G34" s="150"/>
+      <c r="H34" s="151"/>
+      <c r="I34" s="152"/>
+      <c r="J34" s="155"/>
+      <c r="K34" s="156"/>
+      <c r="L34" s="149"/>
+      <c r="M34" s="149"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="14">
@@ -4752,13 +4752,13 @@
       <c r="F35" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="G35" s="136"/>
-      <c r="H35" s="137"/>
-      <c r="I35" s="138"/>
-      <c r="J35" s="139"/>
-      <c r="K35" s="140"/>
-      <c r="L35" s="128"/>
-      <c r="M35" s="128"/>
+      <c r="G35" s="150"/>
+      <c r="H35" s="151"/>
+      <c r="I35" s="152"/>
+      <c r="J35" s="155"/>
+      <c r="K35" s="156"/>
+      <c r="L35" s="149"/>
+      <c r="M35" s="149"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="14">
@@ -4779,13 +4779,13 @@
       <c r="F36" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="G36" s="136"/>
-      <c r="H36" s="137"/>
-      <c r="I36" s="138"/>
-      <c r="J36" s="139"/>
-      <c r="K36" s="140"/>
-      <c r="L36" s="128"/>
-      <c r="M36" s="128"/>
+      <c r="G36" s="150"/>
+      <c r="H36" s="151"/>
+      <c r="I36" s="152"/>
+      <c r="J36" s="155"/>
+      <c r="K36" s="156"/>
+      <c r="L36" s="149"/>
+      <c r="M36" s="149"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="14">
@@ -4806,13 +4806,13 @@
       <c r="F37" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="G37" s="126"/>
-      <c r="H37" s="126"/>
-      <c r="I37" s="126"/>
-      <c r="J37" s="127"/>
-      <c r="K37" s="127"/>
-      <c r="L37" s="128"/>
-      <c r="M37" s="128"/>
+      <c r="G37" s="146"/>
+      <c r="H37" s="146"/>
+      <c r="I37" s="146"/>
+      <c r="J37" s="157"/>
+      <c r="K37" s="157"/>
+      <c r="L37" s="149"/>
+      <c r="M37" s="149"/>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="14">
@@ -4833,13 +4833,13 @@
       <c r="F38" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="G38" s="126"/>
-      <c r="H38" s="126"/>
-      <c r="I38" s="126"/>
-      <c r="J38" s="127"/>
-      <c r="K38" s="127"/>
-      <c r="L38" s="128"/>
-      <c r="M38" s="128"/>
+      <c r="G38" s="146"/>
+      <c r="H38" s="146"/>
+      <c r="I38" s="146"/>
+      <c r="J38" s="157"/>
+      <c r="K38" s="157"/>
+      <c r="L38" s="149"/>
+      <c r="M38" s="149"/>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="14">
@@ -4860,13 +4860,13 @@
       <c r="F39" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="G39" s="126"/>
-      <c r="H39" s="126"/>
-      <c r="I39" s="126"/>
-      <c r="J39" s="127"/>
-      <c r="K39" s="127"/>
-      <c r="L39" s="128"/>
-      <c r="M39" s="128"/>
+      <c r="G39" s="146"/>
+      <c r="H39" s="146"/>
+      <c r="I39" s="146"/>
+      <c r="J39" s="157"/>
+      <c r="K39" s="157"/>
+      <c r="L39" s="149"/>
+      <c r="M39" s="149"/>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="14">
@@ -4887,13 +4887,13 @@
       <c r="F40" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="G40" s="126"/>
-      <c r="H40" s="126"/>
-      <c r="I40" s="126"/>
-      <c r="J40" s="127"/>
-      <c r="K40" s="127"/>
-      <c r="L40" s="128"/>
-      <c r="M40" s="128"/>
+      <c r="G40" s="146"/>
+      <c r="H40" s="146"/>
+      <c r="I40" s="146"/>
+      <c r="J40" s="157"/>
+      <c r="K40" s="157"/>
+      <c r="L40" s="149"/>
+      <c r="M40" s="149"/>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="14">
@@ -4914,13 +4914,13 @@
       <c r="F41" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="G41" s="126"/>
-      <c r="H41" s="126"/>
-      <c r="I41" s="126"/>
-      <c r="J41" s="127"/>
-      <c r="K41" s="127"/>
-      <c r="L41" s="128"/>
-      <c r="M41" s="128"/>
+      <c r="G41" s="146"/>
+      <c r="H41" s="146"/>
+      <c r="I41" s="146"/>
+      <c r="J41" s="157"/>
+      <c r="K41" s="157"/>
+      <c r="L41" s="149"/>
+      <c r="M41" s="149"/>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="14">
@@ -4941,13 +4941,13 @@
       <c r="F42" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="G42" s="126"/>
-      <c r="H42" s="126"/>
-      <c r="I42" s="126"/>
-      <c r="J42" s="127"/>
-      <c r="K42" s="127"/>
-      <c r="L42" s="128"/>
-      <c r="M42" s="128"/>
+      <c r="G42" s="146"/>
+      <c r="H42" s="146"/>
+      <c r="I42" s="146"/>
+      <c r="J42" s="157"/>
+      <c r="K42" s="157"/>
+      <c r="L42" s="149"/>
+      <c r="M42" s="149"/>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="14">
@@ -4968,13 +4968,13 @@
       <c r="F43" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="G43" s="126"/>
-      <c r="H43" s="126"/>
-      <c r="I43" s="126"/>
-      <c r="J43" s="127"/>
-      <c r="K43" s="127"/>
-      <c r="L43" s="128"/>
-      <c r="M43" s="128"/>
+      <c r="G43" s="146"/>
+      <c r="H43" s="146"/>
+      <c r="I43" s="146"/>
+      <c r="J43" s="157"/>
+      <c r="K43" s="157"/>
+      <c r="L43" s="149"/>
+      <c r="M43" s="149"/>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="14">
@@ -4991,13 +4991,13 @@
       </c>
       <c r="E44" s="119"/>
       <c r="F44" s="16"/>
-      <c r="G44" s="126"/>
-      <c r="H44" s="126"/>
-      <c r="I44" s="126"/>
-      <c r="J44" s="127"/>
-      <c r="K44" s="127"/>
-      <c r="L44" s="128"/>
-      <c r="M44" s="128"/>
+      <c r="G44" s="146"/>
+      <c r="H44" s="146"/>
+      <c r="I44" s="146"/>
+      <c r="J44" s="157"/>
+      <c r="K44" s="157"/>
+      <c r="L44" s="149"/>
+      <c r="M44" s="149"/>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="14">
@@ -5016,13 +5016,13 @@
         <v>207</v>
       </c>
       <c r="F45" s="16"/>
-      <c r="G45" s="126"/>
-      <c r="H45" s="126"/>
-      <c r="I45" s="126"/>
-      <c r="J45" s="127"/>
-      <c r="K45" s="127"/>
-      <c r="L45" s="128"/>
-      <c r="M45" s="128"/>
+      <c r="G45" s="146"/>
+      <c r="H45" s="146"/>
+      <c r="I45" s="146"/>
+      <c r="J45" s="157"/>
+      <c r="K45" s="157"/>
+      <c r="L45" s="149"/>
+      <c r="M45" s="149"/>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="14">
@@ -5033,13 +5033,13 @@
       <c r="D46" s="119"/>
       <c r="E46" s="119"/>
       <c r="F46" s="16"/>
-      <c r="G46" s="126"/>
-      <c r="H46" s="126"/>
-      <c r="I46" s="126"/>
-      <c r="J46" s="127"/>
-      <c r="K46" s="127"/>
-      <c r="L46" s="128"/>
-      <c r="M46" s="128"/>
+      <c r="G46" s="146"/>
+      <c r="H46" s="146"/>
+      <c r="I46" s="146"/>
+      <c r="J46" s="157"/>
+      <c r="K46" s="157"/>
+      <c r="L46" s="149"/>
+      <c r="M46" s="149"/>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="14">
@@ -5050,13 +5050,13 @@
       <c r="D47" s="119"/>
       <c r="E47" s="119"/>
       <c r="F47" s="16"/>
-      <c r="G47" s="126"/>
-      <c r="H47" s="126"/>
-      <c r="I47" s="126"/>
-      <c r="J47" s="127"/>
-      <c r="K47" s="127"/>
-      <c r="L47" s="128"/>
-      <c r="M47" s="128"/>
+      <c r="G47" s="146"/>
+      <c r="H47" s="146"/>
+      <c r="I47" s="146"/>
+      <c r="J47" s="157"/>
+      <c r="K47" s="157"/>
+      <c r="L47" s="149"/>
+      <c r="M47" s="149"/>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="14">
@@ -5067,13 +5067,13 @@
       <c r="D48" s="119"/>
       <c r="E48" s="119"/>
       <c r="F48" s="16"/>
-      <c r="G48" s="126"/>
-      <c r="H48" s="126"/>
-      <c r="I48" s="126"/>
-      <c r="J48" s="127"/>
-      <c r="K48" s="127"/>
-      <c r="L48" s="128"/>
-      <c r="M48" s="128"/>
+      <c r="G48" s="146"/>
+      <c r="H48" s="146"/>
+      <c r="I48" s="146"/>
+      <c r="J48" s="157"/>
+      <c r="K48" s="157"/>
+      <c r="L48" s="149"/>
+      <c r="M48" s="149"/>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="14">
@@ -5084,13 +5084,13 @@
       <c r="D49" s="119"/>
       <c r="E49" s="119"/>
       <c r="F49" s="16"/>
-      <c r="G49" s="126"/>
-      <c r="H49" s="126"/>
-      <c r="I49" s="126"/>
-      <c r="J49" s="127"/>
-      <c r="K49" s="127"/>
-      <c r="L49" s="128"/>
-      <c r="M49" s="128"/>
+      <c r="G49" s="146"/>
+      <c r="H49" s="146"/>
+      <c r="I49" s="146"/>
+      <c r="J49" s="157"/>
+      <c r="K49" s="157"/>
+      <c r="L49" s="149"/>
+      <c r="M49" s="149"/>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="14">
@@ -5101,13 +5101,13 @@
       <c r="D50" s="119"/>
       <c r="E50" s="119"/>
       <c r="F50" s="16"/>
-      <c r="G50" s="126"/>
-      <c r="H50" s="126"/>
-      <c r="I50" s="126"/>
-      <c r="J50" s="127"/>
-      <c r="K50" s="127"/>
-      <c r="L50" s="128"/>
-      <c r="M50" s="128"/>
+      <c r="G50" s="146"/>
+      <c r="H50" s="146"/>
+      <c r="I50" s="146"/>
+      <c r="J50" s="157"/>
+      <c r="K50" s="157"/>
+      <c r="L50" s="149"/>
+      <c r="M50" s="149"/>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="14">
@@ -5118,13 +5118,13 @@
       <c r="D51" s="119"/>
       <c r="E51" s="119"/>
       <c r="F51" s="16"/>
-      <c r="G51" s="126"/>
-      <c r="H51" s="126"/>
-      <c r="I51" s="126"/>
-      <c r="J51" s="127"/>
-      <c r="K51" s="127"/>
-      <c r="L51" s="128"/>
-      <c r="M51" s="128"/>
+      <c r="G51" s="146"/>
+      <c r="H51" s="146"/>
+      <c r="I51" s="146"/>
+      <c r="J51" s="157"/>
+      <c r="K51" s="157"/>
+      <c r="L51" s="149"/>
+      <c r="M51" s="149"/>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="14">
@@ -5135,13 +5135,13 @@
       <c r="D52" s="15"/>
       <c r="E52" s="15"/>
       <c r="F52" s="16"/>
-      <c r="G52" s="126"/>
-      <c r="H52" s="126"/>
-      <c r="I52" s="126"/>
-      <c r="J52" s="127"/>
-      <c r="K52" s="127"/>
-      <c r="L52" s="128"/>
-      <c r="M52" s="128"/>
+      <c r="G52" s="146"/>
+      <c r="H52" s="146"/>
+      <c r="I52" s="146"/>
+      <c r="J52" s="157"/>
+      <c r="K52" s="157"/>
+      <c r="L52" s="149"/>
+      <c r="M52" s="149"/>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="14">
@@ -5152,13 +5152,13 @@
       <c r="D53" s="15"/>
       <c r="E53" s="15"/>
       <c r="F53" s="16"/>
-      <c r="G53" s="126"/>
-      <c r="H53" s="126"/>
-      <c r="I53" s="126"/>
-      <c r="J53" s="127"/>
-      <c r="K53" s="127"/>
-      <c r="L53" s="128"/>
-      <c r="M53" s="128"/>
+      <c r="G53" s="146"/>
+      <c r="H53" s="146"/>
+      <c r="I53" s="146"/>
+      <c r="J53" s="157"/>
+      <c r="K53" s="157"/>
+      <c r="L53" s="149"/>
+      <c r="M53" s="149"/>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="14">
@@ -5169,13 +5169,13 @@
       <c r="D54" s="15"/>
       <c r="E54" s="15"/>
       <c r="F54" s="16"/>
-      <c r="G54" s="126"/>
-      <c r="H54" s="126"/>
-      <c r="I54" s="126"/>
-      <c r="J54" s="127"/>
-      <c r="K54" s="127"/>
-      <c r="L54" s="128"/>
-      <c r="M54" s="128"/>
+      <c r="G54" s="146"/>
+      <c r="H54" s="146"/>
+      <c r="I54" s="146"/>
+      <c r="J54" s="157"/>
+      <c r="K54" s="157"/>
+      <c r="L54" s="149"/>
+      <c r="M54" s="149"/>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="14">
@@ -5186,13 +5186,13 @@
       <c r="D55" s="15"/>
       <c r="E55" s="15"/>
       <c r="F55" s="16"/>
-      <c r="G55" s="126"/>
-      <c r="H55" s="126"/>
-      <c r="I55" s="126"/>
-      <c r="J55" s="127"/>
-      <c r="K55" s="127"/>
-      <c r="L55" s="128"/>
-      <c r="M55" s="128"/>
+      <c r="G55" s="146"/>
+      <c r="H55" s="146"/>
+      <c r="I55" s="146"/>
+      <c r="J55" s="157"/>
+      <c r="K55" s="157"/>
+      <c r="L55" s="149"/>
+      <c r="M55" s="149"/>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="14">
@@ -5203,13 +5203,13 @@
       <c r="D56" s="15"/>
       <c r="E56" s="15"/>
       <c r="F56" s="16"/>
-      <c r="G56" s="126"/>
-      <c r="H56" s="126"/>
-      <c r="I56" s="126"/>
-      <c r="J56" s="127"/>
-      <c r="K56" s="127"/>
-      <c r="L56" s="128"/>
-      <c r="M56" s="128"/>
+      <c r="G56" s="146"/>
+      <c r="H56" s="146"/>
+      <c r="I56" s="146"/>
+      <c r="J56" s="157"/>
+      <c r="K56" s="157"/>
+      <c r="L56" s="149"/>
+      <c r="M56" s="149"/>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="14">
@@ -5220,13 +5220,13 @@
       <c r="D57" s="83"/>
       <c r="E57" s="83"/>
       <c r="F57" s="16"/>
-      <c r="G57" s="126"/>
-      <c r="H57" s="126"/>
-      <c r="I57" s="126"/>
-      <c r="J57" s="127"/>
-      <c r="K57" s="127"/>
-      <c r="L57" s="128"/>
-      <c r="M57" s="128"/>
+      <c r="G57" s="146"/>
+      <c r="H57" s="146"/>
+      <c r="I57" s="146"/>
+      <c r="J57" s="157"/>
+      <c r="K57" s="157"/>
+      <c r="L57" s="149"/>
+      <c r="M57" s="149"/>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="14">
@@ -5237,13 +5237,13 @@
       <c r="D58" s="15"/>
       <c r="E58" s="15"/>
       <c r="F58" s="16"/>
-      <c r="G58" s="126"/>
-      <c r="H58" s="126"/>
-      <c r="I58" s="126"/>
-      <c r="J58" s="127"/>
-      <c r="K58" s="127"/>
-      <c r="L58" s="128"/>
-      <c r="M58" s="128"/>
+      <c r="G58" s="146"/>
+      <c r="H58" s="146"/>
+      <c r="I58" s="146"/>
+      <c r="J58" s="157"/>
+      <c r="K58" s="157"/>
+      <c r="L58" s="149"/>
+      <c r="M58" s="149"/>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="14">
@@ -5254,13 +5254,13 @@
       <c r="D59" s="83"/>
       <c r="E59" s="83"/>
       <c r="F59" s="16"/>
-      <c r="G59" s="126"/>
-      <c r="H59" s="126"/>
-      <c r="I59" s="126"/>
-      <c r="J59" s="127"/>
-      <c r="K59" s="127"/>
-      <c r="L59" s="128"/>
-      <c r="M59" s="128"/>
+      <c r="G59" s="146"/>
+      <c r="H59" s="146"/>
+      <c r="I59" s="146"/>
+      <c r="J59" s="157"/>
+      <c r="K59" s="157"/>
+      <c r="L59" s="149"/>
+      <c r="M59" s="149"/>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="14">
@@ -5271,13 +5271,13 @@
       <c r="D60" s="83"/>
       <c r="E60" s="83"/>
       <c r="F60" s="16"/>
-      <c r="G60" s="126"/>
-      <c r="H60" s="126"/>
-      <c r="I60" s="126"/>
-      <c r="J60" s="127"/>
-      <c r="K60" s="127"/>
-      <c r="L60" s="128"/>
-      <c r="M60" s="128"/>
+      <c r="G60" s="146"/>
+      <c r="H60" s="146"/>
+      <c r="I60" s="146"/>
+      <c r="J60" s="157"/>
+      <c r="K60" s="157"/>
+      <c r="L60" s="149"/>
+      <c r="M60" s="149"/>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="14">
@@ -5288,13 +5288,13 @@
       <c r="D61" s="15"/>
       <c r="E61" s="15"/>
       <c r="F61" s="16"/>
-      <c r="G61" s="126"/>
-      <c r="H61" s="126"/>
-      <c r="I61" s="126"/>
-      <c r="J61" s="127"/>
-      <c r="K61" s="127"/>
-      <c r="L61" s="128"/>
-      <c r="M61" s="128"/>
+      <c r="G61" s="146"/>
+      <c r="H61" s="146"/>
+      <c r="I61" s="146"/>
+      <c r="J61" s="157"/>
+      <c r="K61" s="157"/>
+      <c r="L61" s="149"/>
+      <c r="M61" s="149"/>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="14">
@@ -5305,13 +5305,13 @@
       <c r="D62" s="15"/>
       <c r="E62" s="15"/>
       <c r="F62" s="16"/>
-      <c r="G62" s="126"/>
-      <c r="H62" s="126"/>
-      <c r="I62" s="126"/>
-      <c r="J62" s="127"/>
-      <c r="K62" s="127"/>
-      <c r="L62" s="128"/>
-      <c r="M62" s="128"/>
+      <c r="G62" s="146"/>
+      <c r="H62" s="146"/>
+      <c r="I62" s="146"/>
+      <c r="J62" s="157"/>
+      <c r="K62" s="157"/>
+      <c r="L62" s="149"/>
+      <c r="M62" s="149"/>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="14">
@@ -5322,13 +5322,13 @@
       <c r="D63" s="15"/>
       <c r="E63" s="15"/>
       <c r="F63" s="16"/>
-      <c r="G63" s="126"/>
-      <c r="H63" s="126"/>
-      <c r="I63" s="126"/>
-      <c r="J63" s="127"/>
-      <c r="K63" s="127"/>
-      <c r="L63" s="128"/>
-      <c r="M63" s="128"/>
+      <c r="G63" s="146"/>
+      <c r="H63" s="146"/>
+      <c r="I63" s="146"/>
+      <c r="J63" s="157"/>
+      <c r="K63" s="157"/>
+      <c r="L63" s="149"/>
+      <c r="M63" s="149"/>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="14">
@@ -5339,13 +5339,13 @@
       <c r="D64" s="15"/>
       <c r="E64" s="15"/>
       <c r="F64" s="16"/>
-      <c r="G64" s="126"/>
-      <c r="H64" s="126"/>
-      <c r="I64" s="126"/>
-      <c r="J64" s="127"/>
-      <c r="K64" s="127"/>
-      <c r="L64" s="128"/>
-      <c r="M64" s="128"/>
+      <c r="G64" s="146"/>
+      <c r="H64" s="146"/>
+      <c r="I64" s="146"/>
+      <c r="J64" s="157"/>
+      <c r="K64" s="157"/>
+      <c r="L64" s="149"/>
+      <c r="M64" s="149"/>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="14">
@@ -5356,13 +5356,13 @@
       <c r="D65" s="15"/>
       <c r="E65" s="15"/>
       <c r="F65" s="16"/>
-      <c r="G65" s="126"/>
-      <c r="H65" s="126"/>
-      <c r="I65" s="126"/>
-      <c r="J65" s="127"/>
-      <c r="K65" s="127"/>
-      <c r="L65" s="128"/>
-      <c r="M65" s="128"/>
+      <c r="G65" s="146"/>
+      <c r="H65" s="146"/>
+      <c r="I65" s="146"/>
+      <c r="J65" s="157"/>
+      <c r="K65" s="157"/>
+      <c r="L65" s="149"/>
+      <c r="M65" s="149"/>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="14">
@@ -5373,13 +5373,13 @@
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
       <c r="F66" s="16"/>
-      <c r="G66" s="126"/>
-      <c r="H66" s="126"/>
-      <c r="I66" s="126"/>
-      <c r="J66" s="127"/>
-      <c r="K66" s="127"/>
-      <c r="L66" s="128"/>
-      <c r="M66" s="128"/>
+      <c r="G66" s="146"/>
+      <c r="H66" s="146"/>
+      <c r="I66" s="146"/>
+      <c r="J66" s="157"/>
+      <c r="K66" s="157"/>
+      <c r="L66" s="149"/>
+      <c r="M66" s="149"/>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="14">
@@ -5390,13 +5390,13 @@
       <c r="D67" s="15"/>
       <c r="E67" s="83"/>
       <c r="F67" s="16"/>
-      <c r="G67" s="126"/>
-      <c r="H67" s="126"/>
-      <c r="I67" s="126"/>
-      <c r="J67" s="127"/>
-      <c r="K67" s="127"/>
-      <c r="L67" s="128"/>
-      <c r="M67" s="128"/>
+      <c r="G67" s="146"/>
+      <c r="H67" s="146"/>
+      <c r="I67" s="146"/>
+      <c r="J67" s="157"/>
+      <c r="K67" s="157"/>
+      <c r="L67" s="149"/>
+      <c r="M67" s="149"/>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="14">
@@ -5407,13 +5407,13 @@
       <c r="D68" s="15"/>
       <c r="E68" s="15"/>
       <c r="F68" s="16"/>
-      <c r="G68" s="126"/>
-      <c r="H68" s="126"/>
-      <c r="I68" s="126"/>
-      <c r="J68" s="127"/>
-      <c r="K68" s="127"/>
-      <c r="L68" s="128"/>
-      <c r="M68" s="128"/>
+      <c r="G68" s="146"/>
+      <c r="H68" s="146"/>
+      <c r="I68" s="146"/>
+      <c r="J68" s="157"/>
+      <c r="K68" s="157"/>
+      <c r="L68" s="149"/>
+      <c r="M68" s="149"/>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="14">
@@ -5424,13 +5424,13 @@
       <c r="D69" s="15"/>
       <c r="E69" s="15"/>
       <c r="F69" s="16"/>
-      <c r="G69" s="126"/>
-      <c r="H69" s="126"/>
-      <c r="I69" s="126"/>
-      <c r="J69" s="127"/>
-      <c r="K69" s="127"/>
-      <c r="L69" s="128"/>
-      <c r="M69" s="128"/>
+      <c r="G69" s="146"/>
+      <c r="H69" s="146"/>
+      <c r="I69" s="146"/>
+      <c r="J69" s="157"/>
+      <c r="K69" s="157"/>
+      <c r="L69" s="149"/>
+      <c r="M69" s="149"/>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="14">
@@ -5441,13 +5441,13 @@
       <c r="D70" s="15"/>
       <c r="E70" s="15"/>
       <c r="F70" s="16"/>
-      <c r="G70" s="126"/>
-      <c r="H70" s="126"/>
-      <c r="I70" s="126"/>
-      <c r="J70" s="127"/>
-      <c r="K70" s="127"/>
-      <c r="L70" s="128"/>
-      <c r="M70" s="128"/>
+      <c r="G70" s="146"/>
+      <c r="H70" s="146"/>
+      <c r="I70" s="146"/>
+      <c r="J70" s="157"/>
+      <c r="K70" s="157"/>
+      <c r="L70" s="149"/>
+      <c r="M70" s="149"/>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="14">
@@ -5458,13 +5458,13 @@
       <c r="D71" s="83"/>
       <c r="E71" s="83"/>
       <c r="F71" s="16"/>
-      <c r="G71" s="126"/>
-      <c r="H71" s="126"/>
-      <c r="I71" s="126"/>
-      <c r="J71" s="127"/>
-      <c r="K71" s="127"/>
-      <c r="L71" s="128"/>
-      <c r="M71" s="128"/>
+      <c r="G71" s="146"/>
+      <c r="H71" s="146"/>
+      <c r="I71" s="146"/>
+      <c r="J71" s="157"/>
+      <c r="K71" s="157"/>
+      <c r="L71" s="149"/>
+      <c r="M71" s="149"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -5472,195 +5472,6 @@
     <sortCondition ref="C11:C33"/>
   </sortState>
   <mergeCells count="213">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:I10"/>
-    <mergeCell ref="J9:K10"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L9:M10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="L64:M64"/>
     <mergeCell ref="A5:M5"/>
     <mergeCell ref="A4:M4"/>
     <mergeCell ref="P15:R15"/>
@@ -5685,6 +5496,195 @@
     <mergeCell ref="L67:M67"/>
     <mergeCell ref="G68:I68"/>
     <mergeCell ref="J68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L9:M10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:I10"/>
+    <mergeCell ref="J9:K10"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
   </mergeCells>
   <conditionalFormatting sqref="B23:B71">
     <cfRule type="cellIs" dxfId="42" priority="47" stopIfTrue="1" operator="equal">
@@ -5906,8 +5906,8 @@
   <dimension ref="A2:CU70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="CG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AU38" sqref="AU38"/>
+      <pane xSplit="3" topLeftCell="CE1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CS17" sqref="CS17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5921,452 +5921,452 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:99" ht="15" customHeight="1">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="164" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="129"/>
-      <c r="M2" s="129"/>
-      <c r="N2" s="129"/>
-      <c r="O2" s="129"/>
-      <c r="P2" s="129"/>
-      <c r="Q2" s="129"/>
-      <c r="R2" s="129"/>
-      <c r="S2" s="129"/>
-      <c r="T2" s="129"/>
-      <c r="U2" s="129"/>
-      <c r="V2" s="129"/>
-      <c r="W2" s="129"/>
-      <c r="X2" s="129"/>
-      <c r="Y2" s="129"/>
-      <c r="Z2" s="129"/>
-      <c r="AA2" s="129"/>
-      <c r="AB2" s="129"/>
-      <c r="AC2" s="129"/>
-      <c r="AD2" s="129"/>
-      <c r="AE2" s="129"/>
-      <c r="AF2" s="129"/>
-      <c r="AG2" s="129"/>
-      <c r="AH2" s="129"/>
-      <c r="AI2" s="129"/>
-      <c r="AJ2" s="129"/>
-      <c r="AK2" s="129"/>
-      <c r="AL2" s="129"/>
-      <c r="AM2" s="129"/>
-      <c r="AN2" s="129"/>
-      <c r="AO2" s="129"/>
-      <c r="AP2" s="129"/>
-      <c r="AQ2" s="129"/>
-      <c r="AR2" s="129"/>
-      <c r="AS2" s="129"/>
-      <c r="AT2" s="129"/>
-      <c r="AU2" s="129"/>
-      <c r="AV2" s="129"/>
-      <c r="AW2" s="129"/>
-      <c r="AX2" s="129"/>
-      <c r="AY2" s="129"/>
-      <c r="AZ2" s="129"/>
-      <c r="BA2" s="129"/>
-      <c r="BB2" s="129"/>
-      <c r="BC2" s="129"/>
-      <c r="BD2" s="129"/>
-      <c r="BE2" s="129"/>
-      <c r="BF2" s="129"/>
-      <c r="BG2" s="129"/>
-      <c r="BH2" s="129"/>
-      <c r="BI2" s="129"/>
-      <c r="BJ2" s="129"/>
-      <c r="BK2" s="129"/>
-      <c r="BL2" s="129"/>
-      <c r="BM2" s="129"/>
-      <c r="BN2" s="129"/>
-      <c r="BO2" s="129"/>
-      <c r="BP2" s="129"/>
-      <c r="BQ2" s="129"/>
-      <c r="BR2" s="129"/>
-      <c r="BS2" s="129"/>
-      <c r="BT2" s="129"/>
-      <c r="BU2" s="129"/>
-      <c r="BV2" s="129"/>
-      <c r="BW2" s="129"/>
-      <c r="BX2" s="129"/>
-      <c r="BY2" s="129"/>
-      <c r="BZ2" s="129"/>
-      <c r="CA2" s="129"/>
-      <c r="CB2" s="129"/>
-      <c r="CC2" s="129"/>
-      <c r="CD2" s="129"/>
-      <c r="CE2" s="129"/>
-      <c r="CF2" s="129"/>
-      <c r="CG2" s="129"/>
-      <c r="CH2" s="129"/>
-      <c r="CI2" s="129"/>
-      <c r="CJ2" s="129"/>
-      <c r="CK2" s="129"/>
-      <c r="CL2" s="129"/>
-      <c r="CM2" s="129"/>
-      <c r="CN2" s="129"/>
-      <c r="CO2" s="129"/>
-      <c r="CP2" s="129"/>
-      <c r="CQ2" s="129"/>
-      <c r="CR2" s="129"/>
-      <c r="CS2" s="129"/>
-      <c r="CT2" s="129"/>
-      <c r="CU2" s="129"/>
+      <c r="B2" s="164"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="164"/>
+      <c r="I2" s="164"/>
+      <c r="J2" s="164"/>
+      <c r="K2" s="164"/>
+      <c r="L2" s="164"/>
+      <c r="M2" s="164"/>
+      <c r="N2" s="164"/>
+      <c r="O2" s="164"/>
+      <c r="P2" s="164"/>
+      <c r="Q2" s="164"/>
+      <c r="R2" s="164"/>
+      <c r="S2" s="164"/>
+      <c r="T2" s="164"/>
+      <c r="U2" s="164"/>
+      <c r="V2" s="164"/>
+      <c r="W2" s="164"/>
+      <c r="X2" s="164"/>
+      <c r="Y2" s="164"/>
+      <c r="Z2" s="164"/>
+      <c r="AA2" s="164"/>
+      <c r="AB2" s="164"/>
+      <c r="AC2" s="164"/>
+      <c r="AD2" s="164"/>
+      <c r="AE2" s="164"/>
+      <c r="AF2" s="164"/>
+      <c r="AG2" s="164"/>
+      <c r="AH2" s="164"/>
+      <c r="AI2" s="164"/>
+      <c r="AJ2" s="164"/>
+      <c r="AK2" s="164"/>
+      <c r="AL2" s="164"/>
+      <c r="AM2" s="164"/>
+      <c r="AN2" s="164"/>
+      <c r="AO2" s="164"/>
+      <c r="AP2" s="164"/>
+      <c r="AQ2" s="164"/>
+      <c r="AR2" s="164"/>
+      <c r="AS2" s="164"/>
+      <c r="AT2" s="164"/>
+      <c r="AU2" s="164"/>
+      <c r="AV2" s="164"/>
+      <c r="AW2" s="164"/>
+      <c r="AX2" s="164"/>
+      <c r="AY2" s="164"/>
+      <c r="AZ2" s="164"/>
+      <c r="BA2" s="164"/>
+      <c r="BB2" s="164"/>
+      <c r="BC2" s="164"/>
+      <c r="BD2" s="164"/>
+      <c r="BE2" s="164"/>
+      <c r="BF2" s="164"/>
+      <c r="BG2" s="164"/>
+      <c r="BH2" s="164"/>
+      <c r="BI2" s="164"/>
+      <c r="BJ2" s="164"/>
+      <c r="BK2" s="164"/>
+      <c r="BL2" s="164"/>
+      <c r="BM2" s="164"/>
+      <c r="BN2" s="164"/>
+      <c r="BO2" s="164"/>
+      <c r="BP2" s="164"/>
+      <c r="BQ2" s="164"/>
+      <c r="BR2" s="164"/>
+      <c r="BS2" s="164"/>
+      <c r="BT2" s="164"/>
+      <c r="BU2" s="164"/>
+      <c r="BV2" s="164"/>
+      <c r="BW2" s="164"/>
+      <c r="BX2" s="164"/>
+      <c r="BY2" s="164"/>
+      <c r="BZ2" s="164"/>
+      <c r="CA2" s="164"/>
+      <c r="CB2" s="164"/>
+      <c r="CC2" s="164"/>
+      <c r="CD2" s="164"/>
+      <c r="CE2" s="164"/>
+      <c r="CF2" s="164"/>
+      <c r="CG2" s="164"/>
+      <c r="CH2" s="164"/>
+      <c r="CI2" s="164"/>
+      <c r="CJ2" s="164"/>
+      <c r="CK2" s="164"/>
+      <c r="CL2" s="164"/>
+      <c r="CM2" s="164"/>
+      <c r="CN2" s="164"/>
+      <c r="CO2" s="164"/>
+      <c r="CP2" s="164"/>
+      <c r="CQ2" s="164"/>
+      <c r="CR2" s="164"/>
+      <c r="CS2" s="164"/>
+      <c r="CT2" s="164"/>
+      <c r="CU2" s="164"/>
     </row>
     <row r="3" spans="1:99" ht="15" customHeight="1">
-      <c r="A3" s="129"/>
-      <c r="B3" s="129"/>
-      <c r="C3" s="129"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="129"/>
-      <c r="H3" s="129"/>
-      <c r="I3" s="129"/>
-      <c r="J3" s="129"/>
-      <c r="K3" s="129"/>
-      <c r="L3" s="129"/>
-      <c r="M3" s="129"/>
-      <c r="N3" s="129"/>
-      <c r="O3" s="129"/>
-      <c r="P3" s="129"/>
-      <c r="Q3" s="129"/>
-      <c r="R3" s="129"/>
-      <c r="S3" s="129"/>
-      <c r="T3" s="129"/>
-      <c r="U3" s="129"/>
-      <c r="V3" s="129"/>
-      <c r="W3" s="129"/>
-      <c r="X3" s="129"/>
-      <c r="Y3" s="129"/>
-      <c r="Z3" s="129"/>
-      <c r="AA3" s="129"/>
-      <c r="AB3" s="129"/>
-      <c r="AC3" s="129"/>
-      <c r="AD3" s="129"/>
-      <c r="AE3" s="129"/>
-      <c r="AF3" s="129"/>
-      <c r="AG3" s="129"/>
-      <c r="AH3" s="129"/>
-      <c r="AI3" s="129"/>
-      <c r="AJ3" s="129"/>
-      <c r="AK3" s="129"/>
-      <c r="AL3" s="129"/>
-      <c r="AM3" s="129"/>
-      <c r="AN3" s="129"/>
-      <c r="AO3" s="129"/>
-      <c r="AP3" s="129"/>
-      <c r="AQ3" s="129"/>
-      <c r="AR3" s="129"/>
-      <c r="AS3" s="129"/>
-      <c r="AT3" s="129"/>
-      <c r="AU3" s="129"/>
-      <c r="AV3" s="129"/>
-      <c r="AW3" s="129"/>
-      <c r="AX3" s="129"/>
-      <c r="AY3" s="129"/>
-      <c r="AZ3" s="129"/>
-      <c r="BA3" s="129"/>
-      <c r="BB3" s="129"/>
-      <c r="BC3" s="129"/>
-      <c r="BD3" s="129"/>
-      <c r="BE3" s="129"/>
-      <c r="BF3" s="129"/>
-      <c r="BG3" s="129"/>
-      <c r="BH3" s="129"/>
-      <c r="BI3" s="129"/>
-      <c r="BJ3" s="129"/>
-      <c r="BK3" s="129"/>
-      <c r="BL3" s="129"/>
-      <c r="BM3" s="129"/>
-      <c r="BN3" s="129"/>
-      <c r="BO3" s="129"/>
-      <c r="BP3" s="129"/>
-      <c r="BQ3" s="129"/>
-      <c r="BR3" s="129"/>
-      <c r="BS3" s="129"/>
-      <c r="BT3" s="129"/>
-      <c r="BU3" s="129"/>
-      <c r="BV3" s="129"/>
-      <c r="BW3" s="129"/>
-      <c r="BX3" s="129"/>
-      <c r="BY3" s="129"/>
-      <c r="BZ3" s="129"/>
-      <c r="CA3" s="129"/>
-      <c r="CB3" s="129"/>
-      <c r="CC3" s="129"/>
-      <c r="CD3" s="129"/>
-      <c r="CE3" s="129"/>
-      <c r="CF3" s="129"/>
-      <c r="CG3" s="129"/>
-      <c r="CH3" s="129"/>
-      <c r="CI3" s="129"/>
-      <c r="CJ3" s="129"/>
-      <c r="CK3" s="129"/>
-      <c r="CL3" s="129"/>
-      <c r="CM3" s="129"/>
-      <c r="CN3" s="129"/>
-      <c r="CO3" s="129"/>
-      <c r="CP3" s="129"/>
-      <c r="CQ3" s="129"/>
-      <c r="CR3" s="129"/>
-      <c r="CS3" s="129"/>
-      <c r="CT3" s="129"/>
-      <c r="CU3" s="129"/>
+      <c r="A3" s="164"/>
+      <c r="B3" s="164"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="164"/>
+      <c r="H3" s="164"/>
+      <c r="I3" s="164"/>
+      <c r="J3" s="164"/>
+      <c r="K3" s="164"/>
+      <c r="L3" s="164"/>
+      <c r="M3" s="164"/>
+      <c r="N3" s="164"/>
+      <c r="O3" s="164"/>
+      <c r="P3" s="164"/>
+      <c r="Q3" s="164"/>
+      <c r="R3" s="164"/>
+      <c r="S3" s="164"/>
+      <c r="T3" s="164"/>
+      <c r="U3" s="164"/>
+      <c r="V3" s="164"/>
+      <c r="W3" s="164"/>
+      <c r="X3" s="164"/>
+      <c r="Y3" s="164"/>
+      <c r="Z3" s="164"/>
+      <c r="AA3" s="164"/>
+      <c r="AB3" s="164"/>
+      <c r="AC3" s="164"/>
+      <c r="AD3" s="164"/>
+      <c r="AE3" s="164"/>
+      <c r="AF3" s="164"/>
+      <c r="AG3" s="164"/>
+      <c r="AH3" s="164"/>
+      <c r="AI3" s="164"/>
+      <c r="AJ3" s="164"/>
+      <c r="AK3" s="164"/>
+      <c r="AL3" s="164"/>
+      <c r="AM3" s="164"/>
+      <c r="AN3" s="164"/>
+      <c r="AO3" s="164"/>
+      <c r="AP3" s="164"/>
+      <c r="AQ3" s="164"/>
+      <c r="AR3" s="164"/>
+      <c r="AS3" s="164"/>
+      <c r="AT3" s="164"/>
+      <c r="AU3" s="164"/>
+      <c r="AV3" s="164"/>
+      <c r="AW3" s="164"/>
+      <c r="AX3" s="164"/>
+      <c r="AY3" s="164"/>
+      <c r="AZ3" s="164"/>
+      <c r="BA3" s="164"/>
+      <c r="BB3" s="164"/>
+      <c r="BC3" s="164"/>
+      <c r="BD3" s="164"/>
+      <c r="BE3" s="164"/>
+      <c r="BF3" s="164"/>
+      <c r="BG3" s="164"/>
+      <c r="BH3" s="164"/>
+      <c r="BI3" s="164"/>
+      <c r="BJ3" s="164"/>
+      <c r="BK3" s="164"/>
+      <c r="BL3" s="164"/>
+      <c r="BM3" s="164"/>
+      <c r="BN3" s="164"/>
+      <c r="BO3" s="164"/>
+      <c r="BP3" s="164"/>
+      <c r="BQ3" s="164"/>
+      <c r="BR3" s="164"/>
+      <c r="BS3" s="164"/>
+      <c r="BT3" s="164"/>
+      <c r="BU3" s="164"/>
+      <c r="BV3" s="164"/>
+      <c r="BW3" s="164"/>
+      <c r="BX3" s="164"/>
+      <c r="BY3" s="164"/>
+      <c r="BZ3" s="164"/>
+      <c r="CA3" s="164"/>
+      <c r="CB3" s="164"/>
+      <c r="CC3" s="164"/>
+      <c r="CD3" s="164"/>
+      <c r="CE3" s="164"/>
+      <c r="CF3" s="164"/>
+      <c r="CG3" s="164"/>
+      <c r="CH3" s="164"/>
+      <c r="CI3" s="164"/>
+      <c r="CJ3" s="164"/>
+      <c r="CK3" s="164"/>
+      <c r="CL3" s="164"/>
+      <c r="CM3" s="164"/>
+      <c r="CN3" s="164"/>
+      <c r="CO3" s="164"/>
+      <c r="CP3" s="164"/>
+      <c r="CQ3" s="164"/>
+      <c r="CR3" s="164"/>
+      <c r="CS3" s="164"/>
+      <c r="CT3" s="164"/>
+      <c r="CU3" s="164"/>
     </row>
     <row r="4" spans="1:99" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:99" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A5" s="196" t="s">
+      <c r="A5" s="172" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="199" t="s">
+      <c r="B5" s="175" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="199" t="s">
+      <c r="C5" s="175" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="200" t="s">
+      <c r="D5" s="176" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="201"/>
-      <c r="F5" s="201"/>
-      <c r="G5" s="201"/>
-      <c r="H5" s="201"/>
-      <c r="I5" s="201"/>
-      <c r="J5" s="201"/>
-      <c r="K5" s="201"/>
-      <c r="L5" s="201"/>
-      <c r="M5" s="201"/>
-      <c r="N5" s="201"/>
-      <c r="O5" s="201"/>
-      <c r="P5" s="201"/>
-      <c r="Q5" s="201"/>
-      <c r="R5" s="201"/>
-      <c r="S5" s="201"/>
-      <c r="T5" s="201"/>
-      <c r="U5" s="201"/>
-      <c r="V5" s="201"/>
-      <c r="W5" s="201"/>
-      <c r="X5" s="201"/>
-      <c r="Y5" s="201"/>
-      <c r="Z5" s="201"/>
-      <c r="AA5" s="201"/>
-      <c r="AB5" s="201"/>
-      <c r="AC5" s="201"/>
-      <c r="AD5" s="201"/>
-      <c r="AE5" s="201"/>
-      <c r="AF5" s="201"/>
-      <c r="AG5" s="201"/>
-      <c r="AH5" s="201"/>
-      <c r="AI5" s="201"/>
-      <c r="AJ5" s="201"/>
-      <c r="AK5" s="201"/>
-      <c r="AL5" s="201"/>
-      <c r="AM5" s="201"/>
-      <c r="AN5" s="201"/>
-      <c r="AO5" s="201"/>
-      <c r="AP5" s="201"/>
-      <c r="AQ5" s="201"/>
-      <c r="AR5" s="201"/>
-      <c r="AS5" s="201"/>
-      <c r="AT5" s="201"/>
-      <c r="AU5" s="201"/>
-      <c r="AV5" s="201"/>
-      <c r="AW5" s="201"/>
-      <c r="AX5" s="201"/>
-      <c r="AY5" s="201"/>
-      <c r="AZ5" s="201"/>
-      <c r="BA5" s="201"/>
-      <c r="BB5" s="201"/>
-      <c r="BC5" s="201"/>
-      <c r="BD5" s="202"/>
-      <c r="BE5" s="203" t="s">
+      <c r="E5" s="177"/>
+      <c r="F5" s="177"/>
+      <c r="G5" s="177"/>
+      <c r="H5" s="177"/>
+      <c r="I5" s="177"/>
+      <c r="J5" s="177"/>
+      <c r="K5" s="177"/>
+      <c r="L5" s="177"/>
+      <c r="M5" s="177"/>
+      <c r="N5" s="177"/>
+      <c r="O5" s="177"/>
+      <c r="P5" s="177"/>
+      <c r="Q5" s="177"/>
+      <c r="R5" s="177"/>
+      <c r="S5" s="177"/>
+      <c r="T5" s="177"/>
+      <c r="U5" s="177"/>
+      <c r="V5" s="177"/>
+      <c r="W5" s="177"/>
+      <c r="X5" s="177"/>
+      <c r="Y5" s="177"/>
+      <c r="Z5" s="177"/>
+      <c r="AA5" s="177"/>
+      <c r="AB5" s="177"/>
+      <c r="AC5" s="177"/>
+      <c r="AD5" s="177"/>
+      <c r="AE5" s="177"/>
+      <c r="AF5" s="177"/>
+      <c r="AG5" s="177"/>
+      <c r="AH5" s="177"/>
+      <c r="AI5" s="177"/>
+      <c r="AJ5" s="177"/>
+      <c r="AK5" s="177"/>
+      <c r="AL5" s="177"/>
+      <c r="AM5" s="177"/>
+      <c r="AN5" s="177"/>
+      <c r="AO5" s="177"/>
+      <c r="AP5" s="177"/>
+      <c r="AQ5" s="177"/>
+      <c r="AR5" s="177"/>
+      <c r="AS5" s="177"/>
+      <c r="AT5" s="177"/>
+      <c r="AU5" s="177"/>
+      <c r="AV5" s="177"/>
+      <c r="AW5" s="177"/>
+      <c r="AX5" s="177"/>
+      <c r="AY5" s="177"/>
+      <c r="AZ5" s="177"/>
+      <c r="BA5" s="177"/>
+      <c r="BB5" s="177"/>
+      <c r="BC5" s="177"/>
+      <c r="BD5" s="178"/>
+      <c r="BE5" s="179" t="s">
         <v>34</v>
       </c>
-      <c r="BF5" s="204"/>
-      <c r="BG5" s="204"/>
-      <c r="BH5" s="204"/>
-      <c r="BI5" s="204"/>
-      <c r="BJ5" s="204"/>
-      <c r="BK5" s="204"/>
-      <c r="BL5" s="204"/>
-      <c r="BM5" s="204"/>
-      <c r="BN5" s="204"/>
-      <c r="BO5" s="204"/>
-      <c r="BP5" s="204"/>
-      <c r="BQ5" s="204"/>
-      <c r="BR5" s="204"/>
-      <c r="BS5" s="204"/>
-      <c r="BT5" s="204"/>
-      <c r="BU5" s="204"/>
-      <c r="BV5" s="204"/>
-      <c r="BW5" s="204"/>
-      <c r="BX5" s="204"/>
-      <c r="BY5" s="204"/>
-      <c r="BZ5" s="204"/>
-      <c r="CA5" s="204"/>
-      <c r="CB5" s="204"/>
-      <c r="CC5" s="204"/>
-      <c r="CD5" s="204"/>
-      <c r="CE5" s="204"/>
-      <c r="CF5" s="204"/>
-      <c r="CG5" s="204"/>
-      <c r="CH5" s="204"/>
-      <c r="CI5" s="204"/>
-      <c r="CJ5" s="204"/>
-      <c r="CK5" s="204"/>
-      <c r="CL5" s="204"/>
-      <c r="CM5" s="204"/>
-      <c r="CN5" s="204"/>
-      <c r="CO5" s="204"/>
-      <c r="CP5" s="204"/>
-      <c r="CQ5" s="204"/>
-      <c r="CR5" s="205"/>
-      <c r="CS5" s="192" t="s">
+      <c r="BF5" s="180"/>
+      <c r="BG5" s="180"/>
+      <c r="BH5" s="180"/>
+      <c r="BI5" s="180"/>
+      <c r="BJ5" s="180"/>
+      <c r="BK5" s="180"/>
+      <c r="BL5" s="180"/>
+      <c r="BM5" s="180"/>
+      <c r="BN5" s="180"/>
+      <c r="BO5" s="180"/>
+      <c r="BP5" s="180"/>
+      <c r="BQ5" s="180"/>
+      <c r="BR5" s="180"/>
+      <c r="BS5" s="180"/>
+      <c r="BT5" s="180"/>
+      <c r="BU5" s="180"/>
+      <c r="BV5" s="180"/>
+      <c r="BW5" s="180"/>
+      <c r="BX5" s="180"/>
+      <c r="BY5" s="180"/>
+      <c r="BZ5" s="180"/>
+      <c r="CA5" s="180"/>
+      <c r="CB5" s="180"/>
+      <c r="CC5" s="180"/>
+      <c r="CD5" s="180"/>
+      <c r="CE5" s="180"/>
+      <c r="CF5" s="180"/>
+      <c r="CG5" s="180"/>
+      <c r="CH5" s="180"/>
+      <c r="CI5" s="180"/>
+      <c r="CJ5" s="180"/>
+      <c r="CK5" s="180"/>
+      <c r="CL5" s="180"/>
+      <c r="CM5" s="180"/>
+      <c r="CN5" s="180"/>
+      <c r="CO5" s="180"/>
+      <c r="CP5" s="180"/>
+      <c r="CQ5" s="180"/>
+      <c r="CR5" s="181"/>
+      <c r="CS5" s="186" t="s">
         <v>35</v>
       </c>
-      <c r="CT5" s="193"/>
-      <c r="CU5" s="194"/>
+      <c r="CT5" s="187"/>
+      <c r="CU5" s="188"/>
     </row>
     <row r="6" spans="1:99" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="197"/>
-      <c r="B6" s="199"/>
-      <c r="C6" s="199"/>
-      <c r="D6" s="175" t="s">
+      <c r="A6" s="173"/>
+      <c r="B6" s="175"/>
+      <c r="C6" s="175"/>
+      <c r="D6" s="206" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="176"/>
-      <c r="F6" s="176"/>
-      <c r="G6" s="176"/>
-      <c r="H6" s="176"/>
-      <c r="I6" s="176"/>
-      <c r="J6" s="178" t="s">
+      <c r="E6" s="207"/>
+      <c r="F6" s="207"/>
+      <c r="G6" s="207"/>
+      <c r="H6" s="207"/>
+      <c r="I6" s="207"/>
+      <c r="J6" s="192" t="s">
         <v>140</v>
       </c>
-      <c r="K6" s="178"/>
-      <c r="L6" s="178"/>
-      <c r="M6" s="178"/>
-      <c r="N6" s="178"/>
-      <c r="O6" s="178"/>
-      <c r="P6" s="178"/>
-      <c r="Q6" s="178"/>
-      <c r="R6" s="178"/>
-      <c r="S6" s="178"/>
-      <c r="T6" s="178"/>
-      <c r="U6" s="178"/>
-      <c r="V6" s="178"/>
-      <c r="W6" s="178"/>
-      <c r="X6" s="178"/>
-      <c r="Y6" s="178"/>
-      <c r="Z6" s="178"/>
-      <c r="AA6" s="178"/>
-      <c r="AB6" s="178"/>
-      <c r="AC6" s="178"/>
-      <c r="AD6" s="178"/>
-      <c r="AE6" s="178"/>
-      <c r="AF6" s="178"/>
-      <c r="AG6" s="178"/>
-      <c r="AH6" s="178"/>
-      <c r="AI6" s="178"/>
-      <c r="AJ6" s="178"/>
-      <c r="AK6" s="178"/>
-      <c r="AL6" s="178"/>
-      <c r="AM6" s="178"/>
-      <c r="AN6" s="178"/>
-      <c r="AO6" s="178" t="s">
+      <c r="K6" s="192"/>
+      <c r="L6" s="192"/>
+      <c r="M6" s="192"/>
+      <c r="N6" s="192"/>
+      <c r="O6" s="192"/>
+      <c r="P6" s="192"/>
+      <c r="Q6" s="192"/>
+      <c r="R6" s="192"/>
+      <c r="S6" s="192"/>
+      <c r="T6" s="192"/>
+      <c r="U6" s="192"/>
+      <c r="V6" s="192"/>
+      <c r="W6" s="192"/>
+      <c r="X6" s="192"/>
+      <c r="Y6" s="192"/>
+      <c r="Z6" s="192"/>
+      <c r="AA6" s="192"/>
+      <c r="AB6" s="192"/>
+      <c r="AC6" s="192"/>
+      <c r="AD6" s="192"/>
+      <c r="AE6" s="192"/>
+      <c r="AF6" s="192"/>
+      <c r="AG6" s="192"/>
+      <c r="AH6" s="192"/>
+      <c r="AI6" s="192"/>
+      <c r="AJ6" s="192"/>
+      <c r="AK6" s="192"/>
+      <c r="AL6" s="192"/>
+      <c r="AM6" s="192"/>
+      <c r="AN6" s="192"/>
+      <c r="AO6" s="192" t="s">
         <v>141</v>
       </c>
-      <c r="AP6" s="178"/>
-      <c r="AQ6" s="178"/>
-      <c r="AR6" s="178"/>
-      <c r="AS6" s="178" t="s">
+      <c r="AP6" s="192"/>
+      <c r="AQ6" s="192"/>
+      <c r="AR6" s="192"/>
+      <c r="AS6" s="192" t="s">
         <v>37</v>
       </c>
-      <c r="AT6" s="178"/>
-      <c r="AU6" s="178"/>
-      <c r="AV6" s="178" t="s">
+      <c r="AT6" s="192"/>
+      <c r="AU6" s="192"/>
+      <c r="AV6" s="192" t="s">
         <v>38</v>
       </c>
-      <c r="AW6" s="178"/>
-      <c r="AX6" s="178"/>
-      <c r="AY6" s="178"/>
-      <c r="AZ6" s="178"/>
-      <c r="BA6" s="178"/>
-      <c r="BB6" s="178"/>
-      <c r="BC6" s="185" t="s">
+      <c r="AW6" s="192"/>
+      <c r="AX6" s="192"/>
+      <c r="AY6" s="192"/>
+      <c r="AZ6" s="192"/>
+      <c r="BA6" s="192"/>
+      <c r="BB6" s="192"/>
+      <c r="BC6" s="196" t="s">
         <v>39</v>
       </c>
-      <c r="BD6" s="186"/>
-      <c r="BE6" s="187" t="s">
+      <c r="BD6" s="197"/>
+      <c r="BE6" s="198" t="s">
         <v>102</v>
       </c>
-      <c r="BF6" s="188"/>
-      <c r="BG6" s="188"/>
-      <c r="BH6" s="188"/>
-      <c r="BI6" s="188"/>
-      <c r="BJ6" s="188"/>
-      <c r="BK6" s="189"/>
-      <c r="BL6" s="190" t="s">
+      <c r="BF6" s="199"/>
+      <c r="BG6" s="199"/>
+      <c r="BH6" s="199"/>
+      <c r="BI6" s="199"/>
+      <c r="BJ6" s="199"/>
+      <c r="BK6" s="200"/>
+      <c r="BL6" s="201" t="s">
         <v>103</v>
       </c>
-      <c r="BM6" s="188"/>
-      <c r="BN6" s="188"/>
-      <c r="BO6" s="188"/>
-      <c r="BP6" s="188"/>
-      <c r="BQ6" s="188"/>
-      <c r="BR6" s="188"/>
-      <c r="BS6" s="188"/>
-      <c r="BT6" s="188"/>
-      <c r="BU6" s="188"/>
-      <c r="BV6" s="188"/>
-      <c r="BW6" s="188"/>
-      <c r="BX6" s="188"/>
-      <c r="BY6" s="188"/>
-      <c r="BZ6" s="188"/>
-      <c r="CA6" s="188"/>
-      <c r="CB6" s="188"/>
-      <c r="CC6" s="188"/>
-      <c r="CD6" s="188"/>
-      <c r="CE6" s="188"/>
-      <c r="CF6" s="188"/>
-      <c r="CG6" s="188"/>
-      <c r="CH6" s="188"/>
-      <c r="CI6" s="188"/>
-      <c r="CJ6" s="188"/>
-      <c r="CK6" s="188"/>
-      <c r="CL6" s="188"/>
-      <c r="CM6" s="188"/>
-      <c r="CN6" s="188"/>
-      <c r="CO6" s="188"/>
-      <c r="CP6" s="188"/>
-      <c r="CQ6" s="195" t="s">
+      <c r="BM6" s="199"/>
+      <c r="BN6" s="199"/>
+      <c r="BO6" s="199"/>
+      <c r="BP6" s="199"/>
+      <c r="BQ6" s="199"/>
+      <c r="BR6" s="199"/>
+      <c r="BS6" s="199"/>
+      <c r="BT6" s="199"/>
+      <c r="BU6" s="199"/>
+      <c r="BV6" s="199"/>
+      <c r="BW6" s="199"/>
+      <c r="BX6" s="199"/>
+      <c r="BY6" s="199"/>
+      <c r="BZ6" s="199"/>
+      <c r="CA6" s="199"/>
+      <c r="CB6" s="199"/>
+      <c r="CC6" s="199"/>
+      <c r="CD6" s="199"/>
+      <c r="CE6" s="199"/>
+      <c r="CF6" s="199"/>
+      <c r="CG6" s="199"/>
+      <c r="CH6" s="199"/>
+      <c r="CI6" s="199"/>
+      <c r="CJ6" s="199"/>
+      <c r="CK6" s="199"/>
+      <c r="CL6" s="199"/>
+      <c r="CM6" s="199"/>
+      <c r="CN6" s="199"/>
+      <c r="CO6" s="199"/>
+      <c r="CP6" s="199"/>
+      <c r="CQ6" s="189" t="s">
         <v>40</v>
       </c>
-      <c r="CR6" s="195"/>
-      <c r="CS6" s="191" t="s">
+      <c r="CR6" s="189"/>
+      <c r="CS6" s="171" t="s">
         <v>41</v>
       </c>
-      <c r="CT6" s="191" t="s">
+      <c r="CT6" s="171" t="s">
         <v>42</v>
       </c>
-      <c r="CU6" s="182" t="s">
+      <c r="CU6" s="193" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A7" s="197"/>
-      <c r="B7" s="199"/>
-      <c r="C7" s="199"/>
+      <c r="A7" s="173"/>
+      <c r="B7" s="175"/>
+      <c r="C7" s="175"/>
       <c r="E7" s="117"/>
       <c r="F7" s="116">
         <v>0.3</v>
@@ -6375,331 +6375,331 @@
       <c r="I7" s="117">
         <v>0.3</v>
       </c>
-      <c r="J7" s="177">
+      <c r="J7" s="184">
         <v>43004</v>
       </c>
-      <c r="K7" s="177"/>
-      <c r="L7" s="177">
+      <c r="K7" s="184"/>
+      <c r="L7" s="184">
         <v>43011</v>
       </c>
-      <c r="M7" s="177"/>
-      <c r="N7" s="177">
+      <c r="M7" s="184"/>
+      <c r="N7" s="184">
         <v>43068</v>
       </c>
-      <c r="O7" s="177"/>
-      <c r="P7" s="177">
+      <c r="O7" s="184"/>
+      <c r="P7" s="184">
         <v>43068</v>
       </c>
-      <c r="Q7" s="177"/>
-      <c r="R7" s="177"/>
-      <c r="S7" s="177"/>
-      <c r="T7" s="181">
+      <c r="Q7" s="184"/>
+      <c r="R7" s="184"/>
+      <c r="S7" s="184"/>
+      <c r="T7" s="185">
         <f>COUNT(J9,L9,N9,P9,R9,T9)</f>
         <v>4</v>
       </c>
-      <c r="U7" s="181"/>
-      <c r="V7" s="177"/>
-      <c r="W7" s="177"/>
-      <c r="X7" s="177"/>
-      <c r="Y7" s="177"/>
-      <c r="Z7" s="177"/>
-      <c r="AA7" s="177"/>
-      <c r="AB7" s="177"/>
-      <c r="AC7" s="177"/>
-      <c r="AD7" s="177"/>
-      <c r="AE7" s="177"/>
-      <c r="AF7" s="177"/>
-      <c r="AG7" s="177"/>
-      <c r="AH7" s="177"/>
-      <c r="AI7" s="177"/>
-      <c r="AJ7" s="177"/>
-      <c r="AK7" s="177"/>
-      <c r="AL7" s="177"/>
-      <c r="AM7" s="177"/>
+      <c r="U7" s="185"/>
+      <c r="V7" s="184"/>
+      <c r="W7" s="184"/>
+      <c r="X7" s="184"/>
+      <c r="Y7" s="184"/>
+      <c r="Z7" s="184"/>
+      <c r="AA7" s="184"/>
+      <c r="AB7" s="184"/>
+      <c r="AC7" s="184"/>
+      <c r="AD7" s="184"/>
+      <c r="AE7" s="184"/>
+      <c r="AF7" s="184"/>
+      <c r="AG7" s="184"/>
+      <c r="AH7" s="184"/>
+      <c r="AI7" s="184"/>
+      <c r="AJ7" s="184"/>
+      <c r="AK7" s="184"/>
+      <c r="AL7" s="184"/>
+      <c r="AM7" s="184"/>
       <c r="AN7" s="90">
         <v>0.2</v>
       </c>
-      <c r="AO7" s="177" t="s">
+      <c r="AO7" s="184" t="s">
         <v>291</v>
       </c>
-      <c r="AP7" s="177"/>
-      <c r="AQ7" s="177"/>
-      <c r="AR7" s="177"/>
-      <c r="AS7" s="181">
+      <c r="AP7" s="184"/>
+      <c r="AQ7" s="184"/>
+      <c r="AR7" s="184"/>
+      <c r="AS7" s="185">
         <f>COUNT(AO9,AQ9,AS9)</f>
         <v>1</v>
       </c>
-      <c r="AT7" s="181"/>
+      <c r="AT7" s="185"/>
       <c r="AU7" s="20">
         <v>0.1</v>
       </c>
-      <c r="AV7" s="177" t="s">
+      <c r="AV7" s="184" t="s">
         <v>290</v>
       </c>
-      <c r="AW7" s="177"/>
-      <c r="AX7" s="177"/>
-      <c r="AY7" s="177"/>
-      <c r="AZ7" s="181">
+      <c r="AW7" s="184"/>
+      <c r="AX7" s="184"/>
+      <c r="AY7" s="184"/>
+      <c r="AZ7" s="185">
         <f>COUNT(AV9,AX9,AZ9)</f>
         <v>1</v>
       </c>
-      <c r="BA7" s="181"/>
+      <c r="BA7" s="185"/>
       <c r="BB7" s="21">
         <v>0.1</v>
       </c>
-      <c r="BC7" s="185"/>
-      <c r="BD7" s="186"/>
-      <c r="BE7" s="177"/>
-      <c r="BF7" s="177"/>
-      <c r="BG7" s="177"/>
-      <c r="BH7" s="177"/>
-      <c r="BI7" s="181">
+      <c r="BC7" s="196"/>
+      <c r="BD7" s="197"/>
+      <c r="BE7" s="184"/>
+      <c r="BF7" s="184"/>
+      <c r="BG7" s="184"/>
+      <c r="BH7" s="184"/>
+      <c r="BI7" s="185">
         <f>COUNT(BE9,BG9,BI9)</f>
         <v>2</v>
       </c>
-      <c r="BJ7" s="181"/>
+      <c r="BJ7" s="185"/>
       <c r="BK7" s="98">
         <v>0.5</v>
       </c>
-      <c r="BL7" s="177"/>
-      <c r="BM7" s="177"/>
-      <c r="BN7" s="177"/>
-      <c r="BO7" s="177"/>
-      <c r="BP7" s="177"/>
-      <c r="BQ7" s="177"/>
-      <c r="BR7" s="177"/>
-      <c r="BS7" s="177"/>
-      <c r="BT7" s="177"/>
-      <c r="BU7" s="177"/>
-      <c r="BV7" s="177"/>
-      <c r="BW7" s="177"/>
-      <c r="BX7" s="177"/>
-      <c r="BY7" s="177"/>
-      <c r="BZ7" s="177"/>
-      <c r="CA7" s="177"/>
-      <c r="CB7" s="177"/>
-      <c r="CC7" s="177"/>
-      <c r="CD7" s="177"/>
-      <c r="CE7" s="177"/>
-      <c r="CF7" s="177"/>
-      <c r="CG7" s="177"/>
-      <c r="CH7" s="177"/>
-      <c r="CI7" s="177"/>
-      <c r="CJ7" s="177"/>
-      <c r="CK7" s="177"/>
-      <c r="CL7" s="177"/>
-      <c r="CM7" s="177"/>
-      <c r="CN7" s="181">
+      <c r="BL7" s="184"/>
+      <c r="BM7" s="184"/>
+      <c r="BN7" s="184"/>
+      <c r="BO7" s="184"/>
+      <c r="BP7" s="184"/>
+      <c r="BQ7" s="184"/>
+      <c r="BR7" s="184"/>
+      <c r="BS7" s="184"/>
+      <c r="BT7" s="184"/>
+      <c r="BU7" s="184"/>
+      <c r="BV7" s="184"/>
+      <c r="BW7" s="184"/>
+      <c r="BX7" s="184"/>
+      <c r="BY7" s="184"/>
+      <c r="BZ7" s="184"/>
+      <c r="CA7" s="184"/>
+      <c r="CB7" s="184"/>
+      <c r="CC7" s="184"/>
+      <c r="CD7" s="184"/>
+      <c r="CE7" s="184"/>
+      <c r="CF7" s="184"/>
+      <c r="CG7" s="184"/>
+      <c r="CH7" s="184"/>
+      <c r="CI7" s="184"/>
+      <c r="CJ7" s="184"/>
+      <c r="CK7" s="184"/>
+      <c r="CL7" s="184"/>
+      <c r="CM7" s="184"/>
+      <c r="CN7" s="185">
         <f>COUNT(CN9,CL9,CJ9,CH9,CF9,CD9,CB9,BZ9,BX9,BV9,BT9,BR9,BP9,BN9,BL9)</f>
         <v>15</v>
       </c>
-      <c r="CO7" s="181"/>
+      <c r="CO7" s="185"/>
       <c r="CP7" s="99">
         <v>0.5</v>
       </c>
-      <c r="CQ7" s="195"/>
-      <c r="CR7" s="195"/>
-      <c r="CS7" s="191"/>
-      <c r="CT7" s="191"/>
-      <c r="CU7" s="183"/>
+      <c r="CQ7" s="189"/>
+      <c r="CR7" s="189"/>
+      <c r="CS7" s="171"/>
+      <c r="CT7" s="171"/>
+      <c r="CU7" s="194"/>
     </row>
     <row r="8" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A8" s="197"/>
-      <c r="B8" s="199"/>
-      <c r="C8" s="199"/>
-      <c r="D8" s="206" t="s">
+      <c r="A8" s="173"/>
+      <c r="B8" s="175"/>
+      <c r="C8" s="175"/>
+      <c r="D8" s="182" t="s">
         <v>157</v>
       </c>
-      <c r="E8" s="206"/>
-      <c r="F8" s="206"/>
-      <c r="G8" s="206" t="s">
+      <c r="E8" s="182"/>
+      <c r="F8" s="182"/>
+      <c r="G8" s="182" t="s">
         <v>158</v>
       </c>
-      <c r="H8" s="206"/>
-      <c r="I8" s="206"/>
-      <c r="J8" s="170" t="s">
+      <c r="H8" s="182"/>
+      <c r="I8" s="182"/>
+      <c r="J8" s="183" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="170"/>
-      <c r="L8" s="170" t="s">
+      <c r="K8" s="183"/>
+      <c r="L8" s="183" t="s">
         <v>49</v>
       </c>
-      <c r="M8" s="170"/>
-      <c r="N8" s="170" t="s">
+      <c r="M8" s="183"/>
+      <c r="N8" s="183" t="s">
         <v>50</v>
       </c>
-      <c r="O8" s="170"/>
-      <c r="P8" s="170" t="s">
+      <c r="O8" s="183"/>
+      <c r="P8" s="183" t="s">
         <v>51</v>
       </c>
-      <c r="Q8" s="170"/>
-      <c r="R8" s="170" t="s">
+      <c r="Q8" s="183"/>
+      <c r="R8" s="183" t="s">
         <v>52</v>
       </c>
-      <c r="S8" s="170"/>
-      <c r="T8" s="170" t="s">
+      <c r="S8" s="183"/>
+      <c r="T8" s="183" t="s">
         <v>53</v>
       </c>
-      <c r="U8" s="170"/>
-      <c r="V8" s="170" t="s">
+      <c r="U8" s="183"/>
+      <c r="V8" s="183" t="s">
         <v>54</v>
       </c>
-      <c r="W8" s="170"/>
-      <c r="X8" s="170" t="s">
+      <c r="W8" s="183"/>
+      <c r="X8" s="183" t="s">
         <v>55</v>
       </c>
-      <c r="Y8" s="170"/>
-      <c r="Z8" s="170" t="s">
+      <c r="Y8" s="183"/>
+      <c r="Z8" s="183" t="s">
         <v>56</v>
       </c>
-      <c r="AA8" s="170"/>
-      <c r="AB8" s="170" t="s">
+      <c r="AA8" s="183"/>
+      <c r="AB8" s="183" t="s">
         <v>57</v>
       </c>
-      <c r="AC8" s="170"/>
-      <c r="AD8" s="170" t="s">
+      <c r="AC8" s="183"/>
+      <c r="AD8" s="183" t="s">
         <v>58</v>
       </c>
-      <c r="AE8" s="170"/>
-      <c r="AF8" s="170" t="s">
+      <c r="AE8" s="183"/>
+      <c r="AF8" s="183" t="s">
         <v>59</v>
       </c>
-      <c r="AG8" s="170"/>
-      <c r="AH8" s="170" t="s">
+      <c r="AG8" s="183"/>
+      <c r="AH8" s="183" t="s">
         <v>60</v>
       </c>
-      <c r="AI8" s="170"/>
-      <c r="AJ8" s="170" t="s">
+      <c r="AI8" s="183"/>
+      <c r="AJ8" s="183" t="s">
         <v>61</v>
       </c>
-      <c r="AK8" s="170"/>
-      <c r="AL8" s="170" t="s">
+      <c r="AK8" s="183"/>
+      <c r="AL8" s="183" t="s">
         <v>62</v>
       </c>
-      <c r="AM8" s="170"/>
+      <c r="AM8" s="183"/>
       <c r="AN8" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="AO8" s="170" t="s">
+      <c r="AO8" s="183" t="s">
         <v>64</v>
       </c>
-      <c r="AP8" s="170"/>
-      <c r="AQ8" s="170" t="s">
+      <c r="AP8" s="183"/>
+      <c r="AQ8" s="183" t="s">
         <v>65</v>
       </c>
-      <c r="AR8" s="170"/>
-      <c r="AS8" s="170" t="s">
+      <c r="AR8" s="183"/>
+      <c r="AS8" s="183" t="s">
         <v>66</v>
       </c>
-      <c r="AT8" s="170"/>
+      <c r="AT8" s="183"/>
       <c r="AU8" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="AV8" s="170" t="s">
+      <c r="AV8" s="183" t="s">
         <v>68</v>
       </c>
-      <c r="AW8" s="170"/>
-      <c r="AX8" s="170" t="s">
+      <c r="AW8" s="183"/>
+      <c r="AX8" s="183" t="s">
         <v>69</v>
       </c>
-      <c r="AY8" s="170"/>
-      <c r="AZ8" s="170" t="s">
-        <v>70</v>
-      </c>
-      <c r="BA8" s="170"/>
+      <c r="AY8" s="183"/>
+      <c r="AZ8" s="183" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA8" s="183"/>
       <c r="BB8" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="BC8" s="185"/>
-      <c r="BD8" s="186"/>
-      <c r="BE8" s="180" t="s">
+      <c r="BC8" s="196"/>
+      <c r="BD8" s="197"/>
+      <c r="BE8" s="205" t="s">
         <v>44</v>
       </c>
-      <c r="BF8" s="179"/>
-      <c r="BG8" s="179" t="s">
+      <c r="BF8" s="202"/>
+      <c r="BG8" s="202" t="s">
         <v>45</v>
       </c>
-      <c r="BH8" s="179"/>
-      <c r="BI8" s="179" t="s">
+      <c r="BH8" s="202"/>
+      <c r="BI8" s="202" t="s">
         <v>46</v>
       </c>
-      <c r="BJ8" s="179"/>
+      <c r="BJ8" s="202"/>
       <c r="BK8" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="BL8" s="173" t="s">
+      <c r="BL8" s="203" t="s">
         <v>72</v>
       </c>
-      <c r="BM8" s="174"/>
-      <c r="BN8" s="173" t="s">
+      <c r="BM8" s="204"/>
+      <c r="BN8" s="203" t="s">
         <v>73</v>
       </c>
-      <c r="BO8" s="174"/>
-      <c r="BP8" s="173" t="s">
+      <c r="BO8" s="204"/>
+      <c r="BP8" s="203" t="s">
         <v>74</v>
       </c>
-      <c r="BQ8" s="174"/>
-      <c r="BR8" s="173" t="s">
+      <c r="BQ8" s="204"/>
+      <c r="BR8" s="203" t="s">
         <v>75</v>
       </c>
-      <c r="BS8" s="174"/>
-      <c r="BT8" s="173" t="s">
+      <c r="BS8" s="204"/>
+      <c r="BT8" s="203" t="s">
         <v>76</v>
       </c>
-      <c r="BU8" s="174"/>
-      <c r="BV8" s="171" t="s">
+      <c r="BU8" s="204"/>
+      <c r="BV8" s="190" t="s">
         <v>77</v>
       </c>
-      <c r="BW8" s="172"/>
-      <c r="BX8" s="171" t="s">
+      <c r="BW8" s="191"/>
+      <c r="BX8" s="190" t="s">
         <v>78</v>
       </c>
-      <c r="BY8" s="172"/>
-      <c r="BZ8" s="171" t="s">
+      <c r="BY8" s="191"/>
+      <c r="BZ8" s="190" t="s">
         <v>79</v>
       </c>
-      <c r="CA8" s="172"/>
-      <c r="CB8" s="171" t="s">
+      <c r="CA8" s="191"/>
+      <c r="CB8" s="190" t="s">
         <v>80</v>
       </c>
-      <c r="CC8" s="172"/>
-      <c r="CD8" s="171" t="s">
+      <c r="CC8" s="191"/>
+      <c r="CD8" s="190" t="s">
         <v>81</v>
       </c>
-      <c r="CE8" s="172"/>
-      <c r="CF8" s="171" t="s">
+      <c r="CE8" s="191"/>
+      <c r="CF8" s="190" t="s">
         <v>82</v>
       </c>
-      <c r="CG8" s="172"/>
-      <c r="CH8" s="171" t="s">
+      <c r="CG8" s="191"/>
+      <c r="CH8" s="190" t="s">
         <v>83</v>
       </c>
-      <c r="CI8" s="172"/>
-      <c r="CJ8" s="171" t="s">
+      <c r="CI8" s="191"/>
+      <c r="CJ8" s="190" t="s">
         <v>84</v>
       </c>
-      <c r="CK8" s="172"/>
-      <c r="CL8" s="171" t="s">
+      <c r="CK8" s="191"/>
+      <c r="CL8" s="190" t="s">
         <v>85</v>
       </c>
-      <c r="CM8" s="172"/>
-      <c r="CN8" s="171" t="s">
+      <c r="CM8" s="191"/>
+      <c r="CN8" s="190" t="s">
         <v>86</v>
       </c>
-      <c r="CO8" s="172"/>
+      <c r="CO8" s="191"/>
       <c r="CP8" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="CQ8" s="195"/>
-      <c r="CR8" s="195"/>
-      <c r="CS8" s="191"/>
-      <c r="CT8" s="191"/>
-      <c r="CU8" s="183"/>
+      <c r="CQ8" s="189"/>
+      <c r="CR8" s="189"/>
+      <c r="CS8" s="171"/>
+      <c r="CT8" s="171"/>
+      <c r="CU8" s="194"/>
     </row>
     <row r="9" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A9" s="198"/>
-      <c r="B9" s="199"/>
-      <c r="C9" s="199"/>
+      <c r="A9" s="174"/>
+      <c r="B9" s="175"/>
+      <c r="C9" s="175"/>
       <c r="D9" s="26">
         <v>70</v>
       </c>
@@ -6814,7 +6814,7 @@
       <c r="BO9" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="BP9" s="270">
+      <c r="BP9" s="120">
         <v>100</v>
       </c>
       <c r="BQ9" s="29" t="s">
@@ -6901,9 +6901,9 @@
       <c r="CR9" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="CS9" s="191"/>
-      <c r="CT9" s="191"/>
-      <c r="CU9" s="184"/>
+      <c r="CS9" s="171"/>
+      <c r="CT9" s="171"/>
+      <c r="CU9" s="195"/>
     </row>
     <row r="10" spans="1:99">
       <c r="A10" s="41">
@@ -9901,14 +9901,16 @@
         <f t="shared" si="0"/>
         <v>22.714285714285712</v>
       </c>
-      <c r="G20" s="101"/>
+      <c r="G20" s="101">
+        <v>48</v>
+      </c>
       <c r="H20" s="85">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I20" s="88">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J20" s="101">
         <v>17</v>
@@ -10014,11 +10016,11 @@
       </c>
       <c r="BC20" s="91">
         <f t="shared" si="18"/>
-        <v>56.726190476190467</v>
+        <v>74.726190476190467</v>
       </c>
       <c r="BD20" s="91">
         <f t="shared" si="19"/>
-        <v>56.73</v>
+        <v>74.73</v>
       </c>
       <c r="BE20" s="101"/>
       <c r="BF20" s="85" t="str">
@@ -10162,11 +10164,11 @@
       </c>
       <c r="CS20" s="97">
         <f t="shared" si="41"/>
-        <v>75.75</v>
+        <v>82.95</v>
       </c>
       <c r="CT20" s="97">
         <f>IFERROR(VLOOKUP(CS20,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="CU20" s="86" t="str">
         <f t="shared" si="42"/>
@@ -23693,6 +23695,88 @@
     </row>
   </sheetData>
   <mergeCells count="98">
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="AJ8:AK8"/>
+    <mergeCell ref="AV8:AW8"/>
+    <mergeCell ref="AX8:AY8"/>
+    <mergeCell ref="A2:CU3"/>
+    <mergeCell ref="CB8:CC8"/>
+    <mergeCell ref="CD8:CE8"/>
+    <mergeCell ref="CF8:CG8"/>
+    <mergeCell ref="CH8:CI8"/>
+    <mergeCell ref="CJ8:CK8"/>
+    <mergeCell ref="CL8:CM8"/>
+    <mergeCell ref="BP8:BQ8"/>
+    <mergeCell ref="BR8:BS8"/>
+    <mergeCell ref="BT8:BU8"/>
+    <mergeCell ref="BV8:BW8"/>
+    <mergeCell ref="BX8:BY8"/>
+    <mergeCell ref="BZ8:CA8"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="J6:AN6"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="AF8:AG8"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="BI8:BJ8"/>
+    <mergeCell ref="BL8:BM8"/>
+    <mergeCell ref="BN8:BO8"/>
+    <mergeCell ref="AL8:AM8"/>
+    <mergeCell ref="AO8:AP8"/>
+    <mergeCell ref="AQ8:AR8"/>
+    <mergeCell ref="AS8:AT8"/>
+    <mergeCell ref="BE8:BF8"/>
+    <mergeCell ref="AZ8:BA8"/>
+    <mergeCell ref="BG8:BH8"/>
+    <mergeCell ref="BI7:BJ7"/>
+    <mergeCell ref="AH7:AI7"/>
+    <mergeCell ref="AJ7:AK7"/>
+    <mergeCell ref="AL7:AM7"/>
+    <mergeCell ref="AO7:AP7"/>
+    <mergeCell ref="AQ7:AR7"/>
+    <mergeCell ref="AS7:AT7"/>
+    <mergeCell ref="AO6:AU6"/>
+    <mergeCell ref="AV6:BB6"/>
+    <mergeCell ref="CU6:CU9"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="BC6:BD8"/>
+    <mergeCell ref="BE6:BK6"/>
+    <mergeCell ref="BL6:CP6"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="CT6:CT9"/>
+    <mergeCell ref="BE7:BF7"/>
+    <mergeCell ref="CS5:CU5"/>
+    <mergeCell ref="BL7:BM7"/>
+    <mergeCell ref="BN7:BO7"/>
+    <mergeCell ref="BP7:BQ7"/>
+    <mergeCell ref="BR7:BS7"/>
+    <mergeCell ref="CL7:CM7"/>
+    <mergeCell ref="CN7:CO7"/>
+    <mergeCell ref="BT7:BU7"/>
+    <mergeCell ref="BV7:BW7"/>
+    <mergeCell ref="BX7:BY7"/>
+    <mergeCell ref="BZ7:CA7"/>
+    <mergeCell ref="CB7:CC7"/>
+    <mergeCell ref="CJ7:CK7"/>
+    <mergeCell ref="CD7:CE7"/>
+    <mergeCell ref="CQ6:CR8"/>
+    <mergeCell ref="CN8:CO8"/>
     <mergeCell ref="CS6:CS9"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="B5:B9"/>
@@ -23709,88 +23793,6 @@
     <mergeCell ref="BG7:BH7"/>
     <mergeCell ref="CF7:CG7"/>
     <mergeCell ref="CH7:CI7"/>
-    <mergeCell ref="CS5:CU5"/>
-    <mergeCell ref="BL7:BM7"/>
-    <mergeCell ref="BN7:BO7"/>
-    <mergeCell ref="BP7:BQ7"/>
-    <mergeCell ref="BR7:BS7"/>
-    <mergeCell ref="CL7:CM7"/>
-    <mergeCell ref="CN7:CO7"/>
-    <mergeCell ref="BT7:BU7"/>
-    <mergeCell ref="BV7:BW7"/>
-    <mergeCell ref="BX7:BY7"/>
-    <mergeCell ref="BZ7:CA7"/>
-    <mergeCell ref="CB7:CC7"/>
-    <mergeCell ref="CJ7:CK7"/>
-    <mergeCell ref="CD7:CE7"/>
-    <mergeCell ref="CQ6:CR8"/>
-    <mergeCell ref="CN8:CO8"/>
-    <mergeCell ref="AO6:AU6"/>
-    <mergeCell ref="AV6:BB6"/>
-    <mergeCell ref="CU6:CU9"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="BC6:BD8"/>
-    <mergeCell ref="BE6:BK6"/>
-    <mergeCell ref="BL6:CP6"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="CT6:CT9"/>
-    <mergeCell ref="BE7:BF7"/>
-    <mergeCell ref="BI7:BJ7"/>
-    <mergeCell ref="AH7:AI7"/>
-    <mergeCell ref="AJ7:AK7"/>
-    <mergeCell ref="AL7:AM7"/>
-    <mergeCell ref="AO7:AP7"/>
-    <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="AS7:AT7"/>
-    <mergeCell ref="AH8:AI8"/>
-    <mergeCell ref="BI8:BJ8"/>
-    <mergeCell ref="BL8:BM8"/>
-    <mergeCell ref="BN8:BO8"/>
-    <mergeCell ref="AL8:AM8"/>
-    <mergeCell ref="AO8:AP8"/>
-    <mergeCell ref="AQ8:AR8"/>
-    <mergeCell ref="AS8:AT8"/>
-    <mergeCell ref="BE8:BF8"/>
-    <mergeCell ref="AZ8:BA8"/>
-    <mergeCell ref="BG8:BH8"/>
-    <mergeCell ref="BZ8:CA8"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="J6:AN6"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="AF8:AG8"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="AJ8:AK8"/>
-    <mergeCell ref="AV8:AW8"/>
-    <mergeCell ref="AX8:AY8"/>
-    <mergeCell ref="A2:CU3"/>
-    <mergeCell ref="CB8:CC8"/>
-    <mergeCell ref="CD8:CE8"/>
-    <mergeCell ref="CF8:CG8"/>
-    <mergeCell ref="CH8:CI8"/>
-    <mergeCell ref="CJ8:CK8"/>
-    <mergeCell ref="CL8:CM8"/>
-    <mergeCell ref="BP8:BQ8"/>
-    <mergeCell ref="BR8:BS8"/>
-    <mergeCell ref="BT8:BU8"/>
-    <mergeCell ref="BV8:BW8"/>
-    <mergeCell ref="BX8:BY8"/>
   </mergeCells>
   <conditionalFormatting sqref="CU10:CU70">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
@@ -23815,8 +23817,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:P68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:P42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -23826,78 +23828,78 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16">
-      <c r="A2" s="207" t="str">
+      <c r="A2" s="208" t="str">
         <f>UPPER(CONCATENATE("GRADING SHEET A.Y."," ",REGISTRATION!P12))</f>
         <v>GRADING SHEET A.Y. 2017-2018</v>
       </c>
-      <c r="B2" s="207"/>
-      <c r="C2" s="207"/>
-      <c r="D2" s="207"/>
-      <c r="E2" s="207"/>
-      <c r="F2" s="207"/>
-      <c r="G2" s="207"/>
-      <c r="H2" s="207"/>
-      <c r="I2" s="207"/>
-      <c r="J2" s="207"/>
-      <c r="K2" s="207"/>
-      <c r="L2" s="207"/>
-      <c r="M2" s="207"/>
-      <c r="N2" s="207"/>
-      <c r="O2" s="207"/>
-      <c r="P2" s="207"/>
+      <c r="B2" s="208"/>
+      <c r="C2" s="208"/>
+      <c r="D2" s="208"/>
+      <c r="E2" s="208"/>
+      <c r="F2" s="208"/>
+      <c r="G2" s="208"/>
+      <c r="H2" s="208"/>
+      <c r="I2" s="208"/>
+      <c r="J2" s="208"/>
+      <c r="K2" s="208"/>
+      <c r="L2" s="208"/>
+      <c r="M2" s="208"/>
+      <c r="N2" s="208"/>
+      <c r="O2" s="208"/>
+      <c r="P2" s="208"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="207"/>
-      <c r="B3" s="207"/>
-      <c r="C3" s="207"/>
-      <c r="D3" s="207"/>
-      <c r="E3" s="207"/>
-      <c r="F3" s="207"/>
-      <c r="G3" s="207"/>
-      <c r="H3" s="207"/>
-      <c r="I3" s="207"/>
-      <c r="J3" s="207"/>
-      <c r="K3" s="207"/>
-      <c r="L3" s="207"/>
-      <c r="M3" s="207"/>
-      <c r="N3" s="207"/>
-      <c r="O3" s="207"/>
-      <c r="P3" s="207"/>
+      <c r="A3" s="208"/>
+      <c r="B3" s="208"/>
+      <c r="C3" s="208"/>
+      <c r="D3" s="208"/>
+      <c r="E3" s="208"/>
+      <c r="F3" s="208"/>
+      <c r="G3" s="208"/>
+      <c r="H3" s="208"/>
+      <c r="I3" s="208"/>
+      <c r="J3" s="208"/>
+      <c r="K3" s="208"/>
+      <c r="L3" s="208"/>
+      <c r="M3" s="208"/>
+      <c r="N3" s="208"/>
+      <c r="O3" s="208"/>
+      <c r="P3" s="208"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:16" ht="15" customHeight="1">
-      <c r="A5" s="219" t="s">
+      <c r="A5" s="220" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="208" t="s">
+      <c r="C5" s="209" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="208"/>
-      <c r="E5" s="208"/>
-      <c r="F5" s="208"/>
-      <c r="G5" s="208"/>
-      <c r="H5" s="208"/>
-      <c r="I5" s="208"/>
-      <c r="J5" s="208" t="s">
+      <c r="D5" s="209"/>
+      <c r="E5" s="209"/>
+      <c r="F5" s="209"/>
+      <c r="G5" s="209"/>
+      <c r="H5" s="209"/>
+      <c r="I5" s="209"/>
+      <c r="J5" s="209" t="s">
         <v>94</v>
       </c>
-      <c r="K5" s="208"/>
-      <c r="L5" s="208"/>
-      <c r="M5" s="208"/>
-      <c r="N5" s="209" t="s">
+      <c r="K5" s="209"/>
+      <c r="L5" s="209"/>
+      <c r="M5" s="209"/>
+      <c r="N5" s="210" t="s">
         <v>35</v>
       </c>
-      <c r="O5" s="210"/>
-      <c r="P5" s="213" t="s">
+      <c r="O5" s="211"/>
+      <c r="P5" s="214" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="220"/>
-      <c r="B6" s="216" t="s">
+      <c r="A6" s="221"/>
+      <c r="B6" s="217" t="s">
         <v>96</v>
       </c>
       <c r="C6" s="43" t="s">
@@ -23915,27 +23917,27 @@
       <c r="G6" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="H6" s="218" t="s">
+      <c r="H6" s="219" t="s">
         <v>97</v>
       </c>
-      <c r="I6" s="218"/>
+      <c r="I6" s="219"/>
       <c r="J6" s="43" t="s">
         <v>101</v>
       </c>
       <c r="K6" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="L6" s="218" t="s">
+      <c r="L6" s="219" t="s">
         <v>98</v>
       </c>
-      <c r="M6" s="218"/>
-      <c r="N6" s="211"/>
-      <c r="O6" s="212"/>
-      <c r="P6" s="214"/>
+      <c r="M6" s="219"/>
+      <c r="N6" s="212"/>
+      <c r="O6" s="213"/>
+      <c r="P6" s="215"/>
     </row>
     <row r="7" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A7" s="221"/>
-      <c r="B7" s="217"/>
+      <c r="A7" s="222"/>
+      <c r="B7" s="218"/>
       <c r="C7" s="45">
         <f>'RAW GRADES'!F7</f>
         <v>0.3</v>
@@ -23982,7 +23984,7 @@
       <c r="O7" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="P7" s="215"/>
+      <c r="P7" s="216"/>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="48">
@@ -24648,7 +24650,7 @@
       </c>
       <c r="D18" s="82">
         <f>'RAW GRADES'!I20</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E18" s="51">
         <f>'RAW GRADES'!AN20</f>
@@ -24664,11 +24666,11 @@
       </c>
       <c r="H18" s="52">
         <f>'RAW GRADES'!BC20</f>
-        <v>56.726190476190467</v>
+        <v>74.726190476190467</v>
       </c>
       <c r="I18" s="52">
         <f>'RAW GRADES'!BD20</f>
-        <v>56.73</v>
+        <v>74.73</v>
       </c>
       <c r="J18" s="51">
         <f>'RAW GRADES'!BK20</f>
@@ -24688,11 +24690,11 @@
       </c>
       <c r="N18" s="57">
         <f>'RAW GRADES'!CS20</f>
-        <v>75.75</v>
+        <v>82.95</v>
       </c>
       <c r="O18" s="55">
         <f>'RAW GRADES'!CT20</f>
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="P18" s="58" t="str">
         <f t="shared" si="0"/>
@@ -27968,6 +27970,10 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="256" scale="82" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="42" max="16383" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>
 
@@ -27976,8 +27982,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A58" zoomScale="60" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F63"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A65" zoomScale="60" workbookViewId="0">
+      <selection activeCell="P81" sqref="P81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28005,106 +28011,106 @@
       <c r="F2" s="59"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="254"/>
-      <c r="B3" s="254"/>
-      <c r="C3" s="254"/>
-      <c r="D3" s="254"/>
-      <c r="E3" s="254"/>
-      <c r="F3" s="254"/>
+      <c r="A3" s="224"/>
+      <c r="B3" s="224"/>
+      <c r="C3" s="224"/>
+      <c r="D3" s="224"/>
+      <c r="E3" s="224"/>
+      <c r="F3" s="224"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="257" t="s">
+      <c r="A4" s="225" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="257"/>
-      <c r="C4" s="257"/>
-      <c r="D4" s="257"/>
-      <c r="E4" s="257"/>
-      <c r="F4" s="257"/>
+      <c r="B4" s="225"/>
+      <c r="C4" s="225"/>
+      <c r="D4" s="225"/>
+      <c r="E4" s="225"/>
+      <c r="F4" s="225"/>
     </row>
     <row r="5" spans="1:6" ht="18">
-      <c r="A5" s="258" t="s">
+      <c r="A5" s="226" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="258"/>
-      <c r="C5" s="258"/>
-      <c r="D5" s="258"/>
-      <c r="E5" s="258"/>
-      <c r="F5" s="258"/>
+      <c r="B5" s="226"/>
+      <c r="C5" s="226"/>
+      <c r="D5" s="226"/>
+      <c r="E5" s="226"/>
+      <c r="F5" s="226"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="257" t="s">
+      <c r="A6" s="225" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="257"/>
-      <c r="C6" s="257"/>
-      <c r="D6" s="257"/>
-      <c r="E6" s="257"/>
-      <c r="F6" s="257"/>
+      <c r="B6" s="225"/>
+      <c r="C6" s="225"/>
+      <c r="D6" s="225"/>
+      <c r="E6" s="225"/>
+      <c r="F6" s="225"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="259" t="s">
+      <c r="A7" s="227" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="259"/>
-      <c r="C7" s="259"/>
-      <c r="D7" s="259"/>
-      <c r="E7" s="259"/>
-      <c r="F7" s="259"/>
+      <c r="B7" s="227"/>
+      <c r="C7" s="227"/>
+      <c r="D7" s="227"/>
+      <c r="E7" s="227"/>
+      <c r="F7" s="227"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="260"/>
-      <c r="B8" s="260"/>
-      <c r="C8" s="260"/>
-      <c r="D8" s="260"/>
-      <c r="E8" s="260"/>
-      <c r="F8" s="260"/>
+      <c r="A8" s="228"/>
+      <c r="B8" s="228"/>
+      <c r="C8" s="228"/>
+      <c r="D8" s="228"/>
+      <c r="E8" s="228"/>
+      <c r="F8" s="228"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="254"/>
-      <c r="B9" s="254"/>
-      <c r="C9" s="254"/>
-      <c r="D9" s="254"/>
-      <c r="E9" s="254"/>
-      <c r="F9" s="254"/>
+      <c r="A9" s="224"/>
+      <c r="B9" s="224"/>
+      <c r="C9" s="224"/>
+      <c r="D9" s="224"/>
+      <c r="E9" s="224"/>
+      <c r="F9" s="224"/>
     </row>
     <row r="10" spans="1:6" ht="18">
-      <c r="A10" s="261"/>
-      <c r="B10" s="261"/>
-      <c r="C10" s="261"/>
-      <c r="D10" s="261"/>
-      <c r="E10" s="261"/>
-      <c r="F10" s="261"/>
+      <c r="A10" s="229"/>
+      <c r="B10" s="229"/>
+      <c r="C10" s="229"/>
+      <c r="D10" s="229"/>
+      <c r="E10" s="229"/>
+      <c r="F10" s="229"/>
     </row>
     <row r="11" spans="1:6" ht="22.5">
-      <c r="A11" s="262" t="s">
+      <c r="A11" s="230" t="s">
         <v>110</v>
       </c>
-      <c r="B11" s="262"/>
-      <c r="C11" s="262"/>
-      <c r="D11" s="262"/>
-      <c r="E11" s="262"/>
-      <c r="F11" s="262"/>
+      <c r="B11" s="230"/>
+      <c r="C11" s="230"/>
+      <c r="D11" s="230"/>
+      <c r="E11" s="230"/>
+      <c r="F11" s="230"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="260"/>
-      <c r="B12" s="260"/>
-      <c r="C12" s="260"/>
-      <c r="D12" s="260"/>
-      <c r="E12" s="260"/>
-      <c r="F12" s="260"/>
+      <c r="A12" s="228"/>
+      <c r="B12" s="228"/>
+      <c r="C12" s="228"/>
+      <c r="D12" s="228"/>
+      <c r="E12" s="228"/>
+      <c r="F12" s="228"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="59"/>
       <c r="B13" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="263" t="str">
+      <c r="C13" s="231" t="str">
         <f>REGISTRATION!C7</f>
         <v>DCIT 21</v>
       </c>
-      <c r="D13" s="263"/>
-      <c r="E13" s="263"/>
+      <c r="D13" s="231"/>
+      <c r="E13" s="231"/>
       <c r="F13" s="61"/>
     </row>
     <row r="14" spans="1:6">
@@ -28112,12 +28118,12 @@
       <c r="B14" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="256" t="str">
+      <c r="C14" s="223" t="str">
         <f>REGISTRATION!C6</f>
         <v>Programming I</v>
       </c>
-      <c r="D14" s="256"/>
-      <c r="E14" s="256"/>
+      <c r="D14" s="223"/>
+      <c r="E14" s="223"/>
       <c r="F14" s="61"/>
     </row>
     <row r="15" spans="1:6">
@@ -28125,12 +28131,12 @@
       <c r="B15" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="242" t="str">
+      <c r="C15" s="234" t="str">
         <f>REGISTRATION!A4</f>
         <v>FIRST YEAR</v>
       </c>
-      <c r="D15" s="242"/>
-      <c r="E15" s="242"/>
+      <c r="D15" s="234"/>
+      <c r="E15" s="234"/>
       <c r="F15" s="62"/>
     </row>
     <row r="16" spans="1:6">
@@ -28138,12 +28144,12 @@
       <c r="B16" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="242" t="str">
+      <c r="C16" s="234" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!C8," ",REGISTRATION!D8))</f>
         <v>IT 1D</v>
       </c>
-      <c r="D16" s="242"/>
-      <c r="E16" s="242"/>
+      <c r="D16" s="234"/>
+      <c r="E16" s="234"/>
       <c r="F16" s="62"/>
     </row>
     <row r="17" spans="1:6">
@@ -28151,12 +28157,12 @@
       <c r="B17" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="242" t="str">
+      <c r="C17" s="234" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!P13," ","SEMESTER"," ","A.Y."," ",REGISTRATION!P12))</f>
         <v>FIRST SEMESTER A.Y. 2017-2018</v>
       </c>
-      <c r="D17" s="242"/>
-      <c r="E17" s="242"/>
+      <c r="D17" s="234"/>
+      <c r="E17" s="234"/>
       <c r="F17" s="62"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1">
@@ -28168,42 +28174,42 @@
       <c r="F18" s="59"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="243" t="s">
+      <c r="A19" s="235" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="246" t="s">
+      <c r="B19" s="238" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="243" t="s">
+      <c r="C19" s="235" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="243" t="s">
+      <c r="D19" s="235" t="s">
         <v>116</v>
       </c>
-      <c r="E19" s="248" t="s">
+      <c r="E19" s="240" t="s">
         <v>117</v>
       </c>
-      <c r="F19" s="243" t="s">
+      <c r="F19" s="235" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="244"/>
-      <c r="B20" s="247"/>
-      <c r="C20" s="244"/>
-      <c r="D20" s="244"/>
-      <c r="E20" s="249"/>
-      <c r="F20" s="251"/>
+      <c r="A20" s="236"/>
+      <c r="B20" s="239"/>
+      <c r="C20" s="236"/>
+      <c r="D20" s="236"/>
+      <c r="E20" s="241"/>
+      <c r="F20" s="243"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A21" s="245"/>
+      <c r="A21" s="237"/>
       <c r="B21" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="C21" s="245"/>
-      <c r="D21" s="245"/>
-      <c r="E21" s="250"/>
-      <c r="F21" s="252"/>
+      <c r="C21" s="237"/>
+      <c r="D21" s="237"/>
+      <c r="E21" s="242"/>
+      <c r="F21" s="244"/>
     </row>
     <row r="22" spans="1:6" ht="18">
       <c r="A22" s="64">
@@ -28469,7 +28475,7 @@
       </c>
       <c r="D32" s="67">
         <f>'DEPT CHAIR'!O18</f>
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="E32" s="68" t="str">
         <f t="shared" si="0"/>
@@ -29081,14 +29087,14 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A57" s="226" t="s">
+      <c r="A57" s="251" t="s">
         <v>119</v>
       </c>
-      <c r="B57" s="227"/>
-      <c r="C57" s="227"/>
-      <c r="D57" s="227"/>
-      <c r="E57" s="227"/>
-      <c r="F57" s="228"/>
+      <c r="B57" s="252"/>
+      <c r="C57" s="252"/>
+      <c r="D57" s="252"/>
+      <c r="E57" s="252"/>
+      <c r="F57" s="253"/>
     </row>
     <row r="58" spans="1:6" ht="15.75">
       <c r="A58" s="61"/>
@@ -29121,11 +29127,11 @@
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="59"/>
-      <c r="E61" s="253">
+      <c r="E61" s="245">
         <f ca="1">NOW()</f>
-        <v>43082.602315393517</v>
-      </c>
-      <c r="F61" s="253"/>
+        <v>43084.44808263889</v>
+      </c>
+      <c r="F61" s="245"/>
     </row>
     <row r="62" spans="1:6" ht="15.75">
       <c r="A62" s="59"/>
@@ -29135,10 +29141,10 @@
       </c>
       <c r="C62" s="72"/>
       <c r="D62" s="72"/>
-      <c r="E62" s="254" t="s">
+      <c r="E62" s="224" t="s">
         <v>121</v>
       </c>
-      <c r="F62" s="254"/>
+      <c r="F62" s="224"/>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="59"/>
@@ -29155,8 +29161,8 @@
       <c r="B64" s="73"/>
       <c r="C64" s="73"/>
       <c r="D64" s="73"/>
-      <c r="E64" s="254"/>
-      <c r="F64" s="254"/>
+      <c r="E64" s="224"/>
+      <c r="F64" s="224"/>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="59"/>
@@ -29271,14 +29277,14 @@
       <c r="F78" s="59"/>
     </row>
     <row r="79" spans="1:6" ht="15.75">
-      <c r="A79" s="255" t="s">
+      <c r="A79" s="246" t="s">
         <v>136</v>
       </c>
-      <c r="B79" s="255"/>
-      <c r="C79" s="255"/>
-      <c r="D79" s="255"/>
-      <c r="E79" s="255"/>
-      <c r="F79" s="255"/>
+      <c r="B79" s="246"/>
+      <c r="C79" s="246"/>
+      <c r="D79" s="246"/>
+      <c r="E79" s="246"/>
+      <c r="F79" s="246"/>
     </row>
     <row r="80" spans="1:6" ht="15.75" thickBot="1">
       <c r="A80" s="59"/>
@@ -29293,124 +29299,124 @@
       <c r="B81" s="77" t="s">
         <v>137</v>
       </c>
-      <c r="C81" s="239" t="s">
+      <c r="C81" s="264" t="s">
         <v>138</v>
       </c>
-      <c r="D81" s="240"/>
-      <c r="E81" s="241" t="s">
+      <c r="D81" s="233"/>
+      <c r="E81" s="232" t="s">
         <v>139</v>
       </c>
-      <c r="F81" s="240"/>
+      <c r="F81" s="233"/>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="59"/>
       <c r="B82" s="79" t="s">
         <v>123</v>
       </c>
-      <c r="C82" s="235">
+      <c r="C82" s="260">
         <f>COUNTIF($D$22:$D$56,"=1.0")+COUNTIF($D$22:$D$56,"=1.25")+(COUNTIF($D$22:$D$56,"=1.50")+COUNTIF($D$22:$D$56,"=1.75"))</f>
         <v>3</v>
       </c>
-      <c r="D82" s="236"/>
-      <c r="E82" s="237">
+      <c r="D82" s="261"/>
+      <c r="E82" s="262">
         <f>(C82/$C$88)*100</f>
         <v>8.5714285714285712</v>
       </c>
-      <c r="F82" s="238"/>
+      <c r="F82" s="263"/>
     </row>
     <row r="83" spans="1:6" ht="15.75" customHeight="1">
       <c r="A83" s="59"/>
       <c r="B83" s="80" t="s">
         <v>124</v>
       </c>
-      <c r="C83" s="229">
+      <c r="C83" s="254">
         <f>COUNTIF($D$22:$D$56,"=2.0")+COUNTIF($D$22:$D$56,"=2.25")+(COUNTIF($D$22:$D$56,"=2.50")+COUNTIF($D$22:$D$56,"=2.75"))</f>
         <v>27</v>
       </c>
-      <c r="D83" s="230"/>
-      <c r="E83" s="231">
+      <c r="D83" s="255"/>
+      <c r="E83" s="256">
         <f>(C83/$C$88)*100</f>
         <v>77.142857142857153</v>
       </c>
-      <c r="F83" s="232"/>
+      <c r="F83" s="257"/>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="59"/>
       <c r="B84" s="80" t="s">
         <v>125</v>
       </c>
-      <c r="C84" s="229">
+      <c r="C84" s="254">
         <f>COUNTIF($D$22:$D$56,"=3.0")</f>
         <v>2</v>
       </c>
-      <c r="D84" s="230"/>
-      <c r="E84" s="231">
+      <c r="D84" s="255"/>
+      <c r="E84" s="256">
         <f t="shared" ref="E84:E87" si="1">(C84/$C$88)*100</f>
         <v>5.7142857142857144</v>
       </c>
-      <c r="F84" s="232"/>
+      <c r="F84" s="257"/>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="59"/>
       <c r="B85" s="80" t="s">
         <v>126</v>
       </c>
-      <c r="C85" s="229">
+      <c r="C85" s="254">
         <f>COUNTIF($D$22:$D$56,"=5.0")</f>
         <v>3</v>
       </c>
-      <c r="D85" s="230"/>
-      <c r="E85" s="231">
+      <c r="D85" s="255"/>
+      <c r="E85" s="256">
         <f t="shared" si="1"/>
         <v>8.5714285714285712</v>
       </c>
-      <c r="F85" s="232"/>
+      <c r="F85" s="257"/>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="59"/>
       <c r="B86" s="80" t="s">
         <v>127</v>
       </c>
-      <c r="C86" s="233">
-        <v>0</v>
-      </c>
-      <c r="D86" s="234"/>
-      <c r="E86" s="231">
+      <c r="C86" s="258">
+        <v>0</v>
+      </c>
+      <c r="D86" s="259"/>
+      <c r="E86" s="256">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F86" s="232"/>
+      <c r="F86" s="257"/>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="59"/>
       <c r="B87" s="80" t="s">
         <v>128</v>
       </c>
-      <c r="C87" s="233">
-        <v>0</v>
-      </c>
-      <c r="D87" s="234"/>
-      <c r="E87" s="231">
+      <c r="C87" s="258">
+        <v>0</v>
+      </c>
+      <c r="D87" s="259"/>
+      <c r="E87" s="256">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F87" s="232"/>
+      <c r="F87" s="257"/>
     </row>
     <row r="88" spans="1:6" ht="16.5" thickBot="1">
       <c r="A88" s="59"/>
       <c r="B88" s="81" t="s">
         <v>129</v>
       </c>
-      <c r="C88" s="222">
+      <c r="C88" s="247">
         <f>SUM(C82:D87)</f>
         <v>35</v>
       </c>
-      <c r="D88" s="223"/>
-      <c r="E88" s="224">
+      <c r="D88" s="248"/>
+      <c r="E88" s="249">
         <f>SUM(E82:F87)</f>
         <v>100</v>
       </c>
-      <c r="F88" s="225"/>
+      <c r="F88" s="250"/>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="59"/>
@@ -29472,7 +29478,7 @@
       <c r="A95" s="59"/>
       <c r="B95" s="72" t="str">
         <f>REGISTRATION!P16</f>
-        <v>Renen Paul A. Viado</v>
+        <v>Renen Paul M. Viado</v>
       </c>
       <c r="C95" s="59"/>
       <c r="D95" s="59"/>
@@ -29578,32 +29584,6 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="A79:F79"/>
     <mergeCell ref="C88:D88"/>
     <mergeCell ref="E88:F88"/>
     <mergeCell ref="A57:F57"/>
@@ -29620,6 +29600,32 @@
     <mergeCell ref="C84:D84"/>
     <mergeCell ref="E84:F84"/>
     <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="C13:E13"/>
   </mergeCells>
   <conditionalFormatting sqref="F22:F56">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
@@ -29627,8 +29633,9 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="56" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-  <rowBreaks count="1" manualBreakCount="1">
+  <pageSetup paperSize="256" scale="76" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="63" max="16383" man="1"/>
     <brk id="76" max="16383" man="1"/>
   </rowBreaks>
   <ignoredErrors>
@@ -29654,54 +29661,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="19.5" thickBot="1">
-      <c r="A1" s="267" t="s">
+      <c r="A1" s="268" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="268"/>
-      <c r="C1" s="268"/>
-      <c r="D1" s="268"/>
-      <c r="E1" s="268"/>
-      <c r="F1" s="268"/>
-      <c r="G1" s="268"/>
-      <c r="H1" s="268"/>
-      <c r="I1" s="268"/>
-      <c r="J1" s="268"/>
-      <c r="K1" s="268"/>
-      <c r="L1" s="268"/>
-      <c r="M1" s="268"/>
-      <c r="N1" s="268"/>
-      <c r="O1" s="268"/>
-      <c r="P1" s="268"/>
-      <c r="Q1" s="268"/>
-      <c r="R1" s="269"/>
+      <c r="B1" s="269"/>
+      <c r="C1" s="269"/>
+      <c r="D1" s="269"/>
+      <c r="E1" s="269"/>
+      <c r="F1" s="269"/>
+      <c r="G1" s="269"/>
+      <c r="H1" s="269"/>
+      <c r="I1" s="269"/>
+      <c r="J1" s="269"/>
+      <c r="K1" s="269"/>
+      <c r="L1" s="269"/>
+      <c r="M1" s="269"/>
+      <c r="N1" s="269"/>
+      <c r="O1" s="269"/>
+      <c r="P1" s="269"/>
+      <c r="Q1" s="269"/>
+      <c r="R1" s="270"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="109"/>
       <c r="B2" s="40"/>
       <c r="C2" s="106"/>
-      <c r="D2" s="264" t="s">
+      <c r="D2" s="265" t="s">
         <v>146</v>
       </c>
-      <c r="E2" s="265"/>
-      <c r="F2" s="265"/>
-      <c r="G2" s="266"/>
-      <c r="H2" s="264" t="s">
+      <c r="E2" s="266"/>
+      <c r="F2" s="266"/>
+      <c r="G2" s="267"/>
+      <c r="H2" s="265" t="s">
         <v>147</v>
       </c>
-      <c r="I2" s="265"/>
-      <c r="J2" s="265"/>
-      <c r="K2" s="266"/>
-      <c r="L2" s="264" t="s">
+      <c r="I2" s="266"/>
+      <c r="J2" s="266"/>
+      <c r="K2" s="267"/>
+      <c r="L2" s="265" t="s">
         <v>148</v>
       </c>
-      <c r="M2" s="265"/>
-      <c r="N2" s="265"/>
-      <c r="O2" s="266"/>
-      <c r="P2" s="264" t="s">
+      <c r="M2" s="266"/>
+      <c r="N2" s="266"/>
+      <c r="O2" s="267"/>
+      <c r="P2" s="265" t="s">
         <v>153</v>
       </c>
-      <c r="Q2" s="265"/>
-      <c r="R2" s="266"/>
+      <c r="Q2" s="266"/>
+      <c r="R2" s="267"/>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="109"/>
